--- a/Bases_de_Dados_(2022-2023)/Argentina Primera División_2023.xlsx
+++ b/Bases_de_Dados_(2022-2023)/Argentina Primera División_2023.xlsx
@@ -429,7 +429,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:BK169"/>
+  <dimension ref="A1:BK170"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -2524,7 +2524,7 @@
         <v>0</v>
       </c>
       <c r="AS10" t="n">
-        <v>0.67</v>
+        <v>1</v>
       </c>
       <c r="AT10" t="n">
         <v>1.29</v>
@@ -3948,7 +3948,7 @@
         <v>2.17</v>
       </c>
       <c r="AT17" t="n">
-        <v>1</v>
+        <v>0.83</v>
       </c>
       <c r="AU17" t="n">
         <v>0</v>
@@ -6584,7 +6584,7 @@
         <v>1</v>
       </c>
       <c r="AS30" t="n">
-        <v>0.67</v>
+        <v>1</v>
       </c>
       <c r="AT30" t="n">
         <v>1</v>
@@ -12068,7 +12068,7 @@
         <v>1</v>
       </c>
       <c r="AT57" t="n">
-        <v>1</v>
+        <v>0.83</v>
       </c>
       <c r="AU57" t="n">
         <v>1.13</v>
@@ -13689,7 +13689,7 @@
         <v>2</v>
       </c>
       <c r="AS65" t="n">
-        <v>0.67</v>
+        <v>1</v>
       </c>
       <c r="AT65" t="n">
         <v>0.83</v>
@@ -17143,7 +17143,7 @@
         <v>1.43</v>
       </c>
       <c r="AT82" t="n">
-        <v>1</v>
+        <v>0.83</v>
       </c>
       <c r="AU82" t="n">
         <v>1.61</v>
@@ -20591,7 +20591,7 @@
         <v>0.33</v>
       </c>
       <c r="AS99" t="n">
-        <v>0.67</v>
+        <v>1</v>
       </c>
       <c r="AT99" t="n">
         <v>0.83</v>
@@ -23639,7 +23639,7 @@
         <v>1.57</v>
       </c>
       <c r="AT114" t="n">
-        <v>1</v>
+        <v>0.83</v>
       </c>
       <c r="AU114" t="n">
         <v>1.42</v>
@@ -25666,7 +25666,7 @@
         <v>0.5</v>
       </c>
       <c r="AS124" t="n">
-        <v>0.67</v>
+        <v>1</v>
       </c>
       <c r="AT124" t="n">
         <v>0.67</v>
@@ -29729,7 +29729,7 @@
         <v>1.5</v>
       </c>
       <c r="AT144" t="n">
-        <v>1</v>
+        <v>0.83</v>
       </c>
       <c r="AU144" t="n">
         <v>1.49</v>
@@ -31553,7 +31553,7 @@
         <v>2.5</v>
       </c>
       <c r="AS153" t="n">
-        <v>0.67</v>
+        <v>1</v>
       </c>
       <c r="AT153" t="n">
         <v>2.2</v>
@@ -34856,6 +34856,209 @@
       </c>
       <c r="BK169" t="n">
         <v>9</v>
+      </c>
+    </row>
+    <row r="170">
+      <c r="A170" s="1" t="n">
+        <v>169</v>
+      </c>
+      <c r="B170" t="n">
+        <v>4554591</v>
+      </c>
+      <c r="C170" t="inlineStr">
+        <is>
+          <t>Argentina Primera División</t>
+        </is>
+      </c>
+      <c r="D170" t="inlineStr">
+        <is>
+          <t>2023</t>
+        </is>
+      </c>
+      <c r="E170" s="2" t="n">
+        <v>45037.85416666666</v>
+      </c>
+      <c r="F170" t="n">
+        <v>13</v>
+      </c>
+      <c r="G170" t="inlineStr">
+        <is>
+          <t>Colón</t>
+        </is>
+      </c>
+      <c r="H170" t="inlineStr">
+        <is>
+          <t>Vélez Sarsfield</t>
+        </is>
+      </c>
+      <c r="I170" t="n">
+        <v>2</v>
+      </c>
+      <c r="J170" t="n">
+        <v>0</v>
+      </c>
+      <c r="K170" t="n">
+        <v>2</v>
+      </c>
+      <c r="L170" t="n">
+        <v>2</v>
+      </c>
+      <c r="M170" t="n">
+        <v>1</v>
+      </c>
+      <c r="N170" t="n">
+        <v>3</v>
+      </c>
+      <c r="O170" t="inlineStr">
+        <is>
+          <t>['25', '40']</t>
+        </is>
+      </c>
+      <c r="P170" t="inlineStr">
+        <is>
+          <t>['81']</t>
+        </is>
+      </c>
+      <c r="Q170" t="n">
+        <v>7</v>
+      </c>
+      <c r="R170" t="n">
+        <v>5</v>
+      </c>
+      <c r="S170" t="n">
+        <v>12</v>
+      </c>
+      <c r="T170" t="n">
+        <v>3.2</v>
+      </c>
+      <c r="U170" t="n">
+        <v>1.95</v>
+      </c>
+      <c r="V170" t="n">
+        <v>3.4</v>
+      </c>
+      <c r="W170" t="n">
+        <v>1.49</v>
+      </c>
+      <c r="X170" t="n">
+        <v>2.45</v>
+      </c>
+      <c r="Y170" t="n">
+        <v>3.25</v>
+      </c>
+      <c r="Z170" t="n">
+        <v>1.3</v>
+      </c>
+      <c r="AA170" t="n">
+        <v>8.9</v>
+      </c>
+      <c r="AB170" t="n">
+        <v>1.04</v>
+      </c>
+      <c r="AC170" t="n">
+        <v>2.6</v>
+      </c>
+      <c r="AD170" t="n">
+        <v>3</v>
+      </c>
+      <c r="AE170" t="n">
+        <v>2.88</v>
+      </c>
+      <c r="AF170" t="n">
+        <v>1.09</v>
+      </c>
+      <c r="AG170" t="n">
+        <v>8</v>
+      </c>
+      <c r="AH170" t="n">
+        <v>1.42</v>
+      </c>
+      <c r="AI170" t="n">
+        <v>2.8</v>
+      </c>
+      <c r="AJ170" t="n">
+        <v>2.3</v>
+      </c>
+      <c r="AK170" t="n">
+        <v>1.57</v>
+      </c>
+      <c r="AL170" t="n">
+        <v>2</v>
+      </c>
+      <c r="AM170" t="n">
+        <v>1.77</v>
+      </c>
+      <c r="AN170" t="n">
+        <v>1.42</v>
+      </c>
+      <c r="AO170" t="n">
+        <v>1.33</v>
+      </c>
+      <c r="AP170" t="n">
+        <v>1.52</v>
+      </c>
+      <c r="AQ170" t="n">
+        <v>0.67</v>
+      </c>
+      <c r="AR170" t="n">
+        <v>1</v>
+      </c>
+      <c r="AS170" t="n">
+        <v>1</v>
+      </c>
+      <c r="AT170" t="n">
+        <v>0.83</v>
+      </c>
+      <c r="AU170" t="n">
+        <v>1.69</v>
+      </c>
+      <c r="AV170" t="n">
+        <v>0.99</v>
+      </c>
+      <c r="AW170" t="n">
+        <v>2.68</v>
+      </c>
+      <c r="AX170" t="n">
+        <v>2</v>
+      </c>
+      <c r="AY170" t="n">
+        <v>7.5</v>
+      </c>
+      <c r="AZ170" t="n">
+        <v>2.05</v>
+      </c>
+      <c r="BA170" t="n">
+        <v>1.37</v>
+      </c>
+      <c r="BB170" t="n">
+        <v>1.68</v>
+      </c>
+      <c r="BC170" t="n">
+        <v>2.2</v>
+      </c>
+      <c r="BD170" t="n">
+        <v>3.1</v>
+      </c>
+      <c r="BE170" t="n">
+        <v>3.92</v>
+      </c>
+      <c r="BF170" t="n">
+        <v>6</v>
+      </c>
+      <c r="BG170" t="n">
+        <v>5</v>
+      </c>
+      <c r="BH170" t="n">
+        <v>2</v>
+      </c>
+      <c r="BI170" t="n">
+        <v>3</v>
+      </c>
+      <c r="BJ170" t="n">
+        <v>8</v>
+      </c>
+      <c r="BK170" t="n">
+        <v>8</v>
       </c>
     </row>
   </sheetData>

--- a/Bases_de_Dados_(2022-2023)/Argentina Primera División_2023.xlsx
+++ b/Bases_de_Dados_(2022-2023)/Argentina Primera División_2023.xlsx
@@ -429,7 +429,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:BK170"/>
+  <dimension ref="A1:BK174"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1915,7 +1915,7 @@
         <v>0</v>
       </c>
       <c r="AS7" t="n">
-        <v>1.67</v>
+        <v>1.43</v>
       </c>
       <c r="AT7" t="n">
         <v>2.57</v>
@@ -2121,7 +2121,7 @@
         <v>1.43</v>
       </c>
       <c r="AT8" t="n">
-        <v>0.83</v>
+        <v>0.71</v>
       </c>
       <c r="AU8" t="n">
         <v>0</v>
@@ -2324,7 +2324,7 @@
         <v>1.5</v>
       </c>
       <c r="AT9" t="n">
-        <v>1</v>
+        <v>0.86</v>
       </c>
       <c r="AU9" t="n">
         <v>0</v>
@@ -3136,7 +3136,7 @@
         <v>1.33</v>
       </c>
       <c r="AT13" t="n">
-        <v>1</v>
+        <v>1.29</v>
       </c>
       <c r="AU13" t="n">
         <v>0</v>
@@ -3542,7 +3542,7 @@
         <v>1.29</v>
       </c>
       <c r="AT15" t="n">
-        <v>0.5</v>
+        <v>0.43</v>
       </c>
       <c r="AU15" t="n">
         <v>0</v>
@@ -4148,7 +4148,7 @@
         <v>0</v>
       </c>
       <c r="AS18" t="n">
-        <v>0.8</v>
+        <v>1.17</v>
       </c>
       <c r="AT18" t="n">
         <v>1.67</v>
@@ -4554,7 +4554,7 @@
         <v>3</v>
       </c>
       <c r="AS20" t="n">
-        <v>1.6</v>
+        <v>1.83</v>
       </c>
       <c r="AT20" t="n">
         <v>2.57</v>
@@ -4757,7 +4757,7 @@
         <v>0</v>
       </c>
       <c r="AS21" t="n">
-        <v>2</v>
+        <v>2.17</v>
       </c>
       <c r="AT21" t="n">
         <v>1.33</v>
@@ -6587,7 +6587,7 @@
         <v>1</v>
       </c>
       <c r="AT30" t="n">
-        <v>1</v>
+        <v>0.86</v>
       </c>
       <c r="AU30" t="n">
         <v>1.17</v>
@@ -6787,7 +6787,7 @@
         <v>1</v>
       </c>
       <c r="AS31" t="n">
-        <v>1.67</v>
+        <v>1.43</v>
       </c>
       <c r="AT31" t="n">
         <v>1.86</v>
@@ -6993,7 +6993,7 @@
         <v>2.67</v>
       </c>
       <c r="AT32" t="n">
-        <v>1</v>
+        <v>1.29</v>
       </c>
       <c r="AU32" t="n">
         <v>1.4</v>
@@ -7196,7 +7196,7 @@
         <v>1.57</v>
       </c>
       <c r="AT33" t="n">
-        <v>0.83</v>
+        <v>0.71</v>
       </c>
       <c r="AU33" t="n">
         <v>1.74</v>
@@ -9023,7 +9023,7 @@
         <v>1.33</v>
       </c>
       <c r="AT42" t="n">
-        <v>0.5</v>
+        <v>0.43</v>
       </c>
       <c r="AU42" t="n">
         <v>0.67</v>
@@ -9629,7 +9629,7 @@
         <v>0</v>
       </c>
       <c r="AS45" t="n">
-        <v>0.8</v>
+        <v>1.17</v>
       </c>
       <c r="AT45" t="n">
         <v>1.17</v>
@@ -10035,7 +10035,7 @@
         <v>1</v>
       </c>
       <c r="AS47" t="n">
-        <v>2</v>
+        <v>2.17</v>
       </c>
       <c r="AT47" t="n">
         <v>1</v>
@@ -12268,7 +12268,7 @@
         <v>2</v>
       </c>
       <c r="AS58" t="n">
-        <v>1.6</v>
+        <v>1.83</v>
       </c>
       <c r="AT58" t="n">
         <v>1.29</v>
@@ -12474,7 +12474,7 @@
         <v>2.67</v>
       </c>
       <c r="AT59" t="n">
-        <v>1</v>
+        <v>1.29</v>
       </c>
       <c r="AU59" t="n">
         <v>2.03</v>
@@ -12677,7 +12677,7 @@
         <v>2.67</v>
       </c>
       <c r="AT60" t="n">
-        <v>0.5</v>
+        <v>0.43</v>
       </c>
       <c r="AU60" t="n">
         <v>1.46</v>
@@ -13083,7 +13083,7 @@
         <v>1.33</v>
       </c>
       <c r="AT62" t="n">
-        <v>1</v>
+        <v>0.86</v>
       </c>
       <c r="AU62" t="n">
         <v>2.1</v>
@@ -14098,7 +14098,7 @@
         <v>1.5</v>
       </c>
       <c r="AT67" t="n">
-        <v>0.83</v>
+        <v>0.71</v>
       </c>
       <c r="AU67" t="n">
         <v>1.49</v>
@@ -14907,7 +14907,7 @@
         <v>0</v>
       </c>
       <c r="AS71" t="n">
-        <v>1.67</v>
+        <v>1.43</v>
       </c>
       <c r="AT71" t="n">
         <v>0.71</v>
@@ -15922,7 +15922,7 @@
         <v>2</v>
       </c>
       <c r="AS76" t="n">
-        <v>2</v>
+        <v>2.17</v>
       </c>
       <c r="AT76" t="n">
         <v>2.57</v>
@@ -17546,7 +17546,7 @@
         <v>1.33</v>
       </c>
       <c r="AS84" t="n">
-        <v>0.8</v>
+        <v>1.17</v>
       </c>
       <c r="AT84" t="n">
         <v>1.86</v>
@@ -18967,7 +18967,7 @@
         <v>2.33</v>
       </c>
       <c r="AS91" t="n">
-        <v>1.67</v>
+        <v>1.43</v>
       </c>
       <c r="AT91" t="n">
         <v>1.29</v>
@@ -19170,7 +19170,7 @@
         <v>2</v>
       </c>
       <c r="AS92" t="n">
-        <v>1.6</v>
+        <v>1.83</v>
       </c>
       <c r="AT92" t="n">
         <v>1.29</v>
@@ -19376,7 +19376,7 @@
         <v>1.83</v>
       </c>
       <c r="AT93" t="n">
-        <v>1</v>
+        <v>0.86</v>
       </c>
       <c r="AU93" t="n">
         <v>1.84</v>
@@ -19579,7 +19579,7 @@
         <v>2.4</v>
       </c>
       <c r="AT94" t="n">
-        <v>1</v>
+        <v>1.29</v>
       </c>
       <c r="AU94" t="n">
         <v>1.81</v>
@@ -20188,7 +20188,7 @@
         <v>2.67</v>
       </c>
       <c r="AT97" t="n">
-        <v>0.5</v>
+        <v>0.43</v>
       </c>
       <c r="AU97" t="n">
         <v>1.7</v>
@@ -20594,7 +20594,7 @@
         <v>1</v>
       </c>
       <c r="AT99" t="n">
-        <v>0.83</v>
+        <v>0.71</v>
       </c>
       <c r="AU99" t="n">
         <v>1.88</v>
@@ -20997,7 +20997,7 @@
         <v>1.75</v>
       </c>
       <c r="AS101" t="n">
-        <v>0.8</v>
+        <v>1.17</v>
       </c>
       <c r="AT101" t="n">
         <v>1.29</v>
@@ -23027,7 +23027,7 @@
         <v>0.75</v>
       </c>
       <c r="AS111" t="n">
-        <v>2</v>
+        <v>2.17</v>
       </c>
       <c r="AT111" t="n">
         <v>0.71</v>
@@ -23842,7 +23842,7 @@
         <v>2.6</v>
       </c>
       <c r="AT115" t="n">
-        <v>1</v>
+        <v>1.29</v>
       </c>
       <c r="AU115" t="n">
         <v>1.94</v>
@@ -24248,7 +24248,7 @@
         <v>1.33</v>
       </c>
       <c r="AT117" t="n">
-        <v>0.83</v>
+        <v>0.71</v>
       </c>
       <c r="AU117" t="n">
         <v>1.81</v>
@@ -24451,7 +24451,7 @@
         <v>2.4</v>
       </c>
       <c r="AT118" t="n">
-        <v>0.5</v>
+        <v>0.43</v>
       </c>
       <c r="AU118" t="n">
         <v>1.71</v>
@@ -26072,10 +26072,10 @@
         <v>1.25</v>
       </c>
       <c r="AS126" t="n">
-        <v>1.6</v>
+        <v>1.83</v>
       </c>
       <c r="AT126" t="n">
-        <v>1</v>
+        <v>0.86</v>
       </c>
       <c r="AU126" t="n">
         <v>0.93</v>
@@ -26275,7 +26275,7 @@
         <v>1</v>
       </c>
       <c r="AS127" t="n">
-        <v>1.67</v>
+        <v>1.43</v>
       </c>
       <c r="AT127" t="n">
         <v>0.57</v>
@@ -26681,7 +26681,7 @@
         <v>0.8</v>
       </c>
       <c r="AS129" t="n">
-        <v>2</v>
+        <v>2.17</v>
       </c>
       <c r="AT129" t="n">
         <v>0.57</v>
@@ -29526,7 +29526,7 @@
         <v>2.6</v>
       </c>
       <c r="AT143" t="n">
-        <v>0.5</v>
+        <v>0.43</v>
       </c>
       <c r="AU143" t="n">
         <v>1.86</v>
@@ -30132,7 +30132,7 @@
         <v>1.4</v>
       </c>
       <c r="AS146" t="n">
-        <v>1.67</v>
+        <v>1.43</v>
       </c>
       <c r="AT146" t="n">
         <v>1.29</v>
@@ -30538,7 +30538,7 @@
         <v>1</v>
       </c>
       <c r="AS148" t="n">
-        <v>1.6</v>
+        <v>1.83</v>
       </c>
       <c r="AT148" t="n">
         <v>0.83</v>
@@ -30744,7 +30744,7 @@
         <v>1.83</v>
       </c>
       <c r="AT149" t="n">
-        <v>0.83</v>
+        <v>0.71</v>
       </c>
       <c r="AU149" t="n">
         <v>1.77</v>
@@ -31350,10 +31350,10 @@
         <v>0.6</v>
       </c>
       <c r="AS152" t="n">
-        <v>0.8</v>
+        <v>1.17</v>
       </c>
       <c r="AT152" t="n">
-        <v>1</v>
+        <v>1.29</v>
       </c>
       <c r="AU152" t="n">
         <v>1.17</v>
@@ -31962,7 +31962,7 @@
         <v>1.4</v>
       </c>
       <c r="AT155" t="n">
-        <v>1</v>
+        <v>0.86</v>
       </c>
       <c r="AU155" t="n">
         <v>1.79</v>
@@ -35059,6 +35059,818 @@
       </c>
       <c r="BK170" t="n">
         <v>8</v>
+      </c>
+    </row>
+    <row r="171">
+      <c r="A171" s="1" t="n">
+        <v>170</v>
+      </c>
+      <c r="B171" t="n">
+        <v>5019507</v>
+      </c>
+      <c r="C171" t="inlineStr">
+        <is>
+          <t>Argentina Primera División</t>
+        </is>
+      </c>
+      <c r="D171" t="inlineStr">
+        <is>
+          <t>2023</t>
+        </is>
+      </c>
+      <c r="E171" s="2" t="n">
+        <v>45038.64583333334</v>
+      </c>
+      <c r="F171" t="n">
+        <v>13</v>
+      </c>
+      <c r="G171" t="inlineStr">
+        <is>
+          <t>Lanús</t>
+        </is>
+      </c>
+      <c r="H171" t="inlineStr">
+        <is>
+          <t>Sarmiento</t>
+        </is>
+      </c>
+      <c r="I171" t="n">
+        <v>2</v>
+      </c>
+      <c r="J171" t="n">
+        <v>0</v>
+      </c>
+      <c r="K171" t="n">
+        <v>2</v>
+      </c>
+      <c r="L171" t="n">
+        <v>2</v>
+      </c>
+      <c r="M171" t="n">
+        <v>1</v>
+      </c>
+      <c r="N171" t="n">
+        <v>3</v>
+      </c>
+      <c r="O171" t="inlineStr">
+        <is>
+          <t>['28', '45+1']</t>
+        </is>
+      </c>
+      <c r="P171" t="inlineStr">
+        <is>
+          <t>['68']</t>
+        </is>
+      </c>
+      <c r="Q171" t="n">
+        <v>3</v>
+      </c>
+      <c r="R171" t="n">
+        <v>6</v>
+      </c>
+      <c r="S171" t="n">
+        <v>9</v>
+      </c>
+      <c r="T171" t="n">
+        <v>2.44</v>
+      </c>
+      <c r="U171" t="n">
+        <v>2.1</v>
+      </c>
+      <c r="V171" t="n">
+        <v>4.92</v>
+      </c>
+      <c r="W171" t="n">
+        <v>1.47</v>
+      </c>
+      <c r="X171" t="n">
+        <v>2.5</v>
+      </c>
+      <c r="Y171" t="n">
+        <v>3.1</v>
+      </c>
+      <c r="Z171" t="n">
+        <v>1.32</v>
+      </c>
+      <c r="AA171" t="n">
+        <v>8.5</v>
+      </c>
+      <c r="AB171" t="n">
+        <v>1.06</v>
+      </c>
+      <c r="AC171" t="n">
+        <v>1.9</v>
+      </c>
+      <c r="AD171" t="n">
+        <v>3.25</v>
+      </c>
+      <c r="AE171" t="n">
+        <v>4.2</v>
+      </c>
+      <c r="AF171" t="n">
+        <v>1.1</v>
+      </c>
+      <c r="AG171" t="n">
+        <v>6.5</v>
+      </c>
+      <c r="AH171" t="n">
+        <v>1.4</v>
+      </c>
+      <c r="AI171" t="n">
+        <v>2.75</v>
+      </c>
+      <c r="AJ171" t="n">
+        <v>2.25</v>
+      </c>
+      <c r="AK171" t="n">
+        <v>1.6</v>
+      </c>
+      <c r="AL171" t="n">
+        <v>2</v>
+      </c>
+      <c r="AM171" t="n">
+        <v>1.77</v>
+      </c>
+      <c r="AN171" t="n">
+        <v>1.22</v>
+      </c>
+      <c r="AO171" t="n">
+        <v>1.33</v>
+      </c>
+      <c r="AP171" t="n">
+        <v>1.8</v>
+      </c>
+      <c r="AQ171" t="n">
+        <v>2</v>
+      </c>
+      <c r="AR171" t="n">
+        <v>1</v>
+      </c>
+      <c r="AS171" t="n">
+        <v>2.17</v>
+      </c>
+      <c r="AT171" t="n">
+        <v>0.86</v>
+      </c>
+      <c r="AU171" t="n">
+        <v>1.2</v>
+      </c>
+      <c r="AV171" t="n">
+        <v>1.11</v>
+      </c>
+      <c r="AW171" t="n">
+        <v>2.31</v>
+      </c>
+      <c r="AX171" t="n">
+        <v>1.3</v>
+      </c>
+      <c r="AY171" t="n">
+        <v>10</v>
+      </c>
+      <c r="AZ171" t="n">
+        <v>4.42</v>
+      </c>
+      <c r="BA171" t="n">
+        <v>1.2</v>
+      </c>
+      <c r="BB171" t="n">
+        <v>1.32</v>
+      </c>
+      <c r="BC171" t="n">
+        <v>1.57</v>
+      </c>
+      <c r="BD171" t="n">
+        <v>1.98</v>
+      </c>
+      <c r="BE171" t="n">
+        <v>2.65</v>
+      </c>
+      <c r="BF171" t="n">
+        <v>5</v>
+      </c>
+      <c r="BG171" t="n">
+        <v>4</v>
+      </c>
+      <c r="BH171" t="n">
+        <v>5</v>
+      </c>
+      <c r="BI171" t="n">
+        <v>10</v>
+      </c>
+      <c r="BJ171" t="n">
+        <v>10</v>
+      </c>
+      <c r="BK171" t="n">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="172">
+      <c r="A172" s="1" t="n">
+        <v>171</v>
+      </c>
+      <c r="B172" t="n">
+        <v>4554582</v>
+      </c>
+      <c r="C172" t="inlineStr">
+        <is>
+          <t>Argentina Primera División</t>
+        </is>
+      </c>
+      <c r="D172" t="inlineStr">
+        <is>
+          <t>2023</t>
+        </is>
+      </c>
+      <c r="E172" s="2" t="n">
+        <v>45038.64583333334</v>
+      </c>
+      <c r="F172" t="n">
+        <v>13</v>
+      </c>
+      <c r="G172" t="inlineStr">
+        <is>
+          <t>Arsenal de Sarandí</t>
+        </is>
+      </c>
+      <c r="H172" t="inlineStr">
+        <is>
+          <t>Unión Santa Fe</t>
+        </is>
+      </c>
+      <c r="I172" t="n">
+        <v>0</v>
+      </c>
+      <c r="J172" t="n">
+        <v>0</v>
+      </c>
+      <c r="K172" t="n">
+        <v>0</v>
+      </c>
+      <c r="L172" t="n">
+        <v>2</v>
+      </c>
+      <c r="M172" t="n">
+        <v>1</v>
+      </c>
+      <c r="N172" t="n">
+        <v>3</v>
+      </c>
+      <c r="O172" t="inlineStr">
+        <is>
+          <t>['53', '90+5']</t>
+        </is>
+      </c>
+      <c r="P172" t="inlineStr">
+        <is>
+          <t>['49']</t>
+        </is>
+      </c>
+      <c r="Q172" t="n">
+        <v>4</v>
+      </c>
+      <c r="R172" t="n">
+        <v>1</v>
+      </c>
+      <c r="S172" t="n">
+        <v>5</v>
+      </c>
+      <c r="T172" t="n">
+        <v>3.4</v>
+      </c>
+      <c r="U172" t="n">
+        <v>1.93</v>
+      </c>
+      <c r="V172" t="n">
+        <v>3.25</v>
+      </c>
+      <c r="W172" t="n">
+        <v>1.5</v>
+      </c>
+      <c r="X172" t="n">
+        <v>2.4</v>
+      </c>
+      <c r="Y172" t="n">
+        <v>3.3</v>
+      </c>
+      <c r="Z172" t="n">
+        <v>1.29</v>
+      </c>
+      <c r="AA172" t="n">
+        <v>9.25</v>
+      </c>
+      <c r="AB172" t="n">
+        <v>1.05</v>
+      </c>
+      <c r="AC172" t="n">
+        <v>2.75</v>
+      </c>
+      <c r="AD172" t="n">
+        <v>3</v>
+      </c>
+      <c r="AE172" t="n">
+        <v>2.6</v>
+      </c>
+      <c r="AF172" t="n">
+        <v>1.09</v>
+      </c>
+      <c r="AG172" t="n">
+        <v>6.75</v>
+      </c>
+      <c r="AH172" t="n">
+        <v>1.43</v>
+      </c>
+      <c r="AI172" t="n">
+        <v>2.6</v>
+      </c>
+      <c r="AJ172" t="n">
+        <v>2.3</v>
+      </c>
+      <c r="AK172" t="n">
+        <v>1.55</v>
+      </c>
+      <c r="AL172" t="n">
+        <v>1.98</v>
+      </c>
+      <c r="AM172" t="n">
+        <v>1.72</v>
+      </c>
+      <c r="AN172" t="n">
+        <v>1.47</v>
+      </c>
+      <c r="AO172" t="n">
+        <v>1.35</v>
+      </c>
+      <c r="AP172" t="n">
+        <v>1.42</v>
+      </c>
+      <c r="AQ172" t="n">
+        <v>0.8</v>
+      </c>
+      <c r="AR172" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="AS172" t="n">
+        <v>1.17</v>
+      </c>
+      <c r="AT172" t="n">
+        <v>0.43</v>
+      </c>
+      <c r="AU172" t="n">
+        <v>1.13</v>
+      </c>
+      <c r="AV172" t="n">
+        <v>1.02</v>
+      </c>
+      <c r="AW172" t="n">
+        <v>2.15</v>
+      </c>
+      <c r="AX172" t="n">
+        <v>2.1</v>
+      </c>
+      <c r="AY172" t="n">
+        <v>8</v>
+      </c>
+      <c r="AZ172" t="n">
+        <v>1.91</v>
+      </c>
+      <c r="BA172" t="n">
+        <v>1.24</v>
+      </c>
+      <c r="BB172" t="n">
+        <v>1.46</v>
+      </c>
+      <c r="BC172" t="n">
+        <v>1.9</v>
+      </c>
+      <c r="BD172" t="n">
+        <v>2.4</v>
+      </c>
+      <c r="BE172" t="n">
+        <v>3.3</v>
+      </c>
+      <c r="BF172" t="n">
+        <v>4</v>
+      </c>
+      <c r="BG172" t="n">
+        <v>3</v>
+      </c>
+      <c r="BH172" t="n">
+        <v>5</v>
+      </c>
+      <c r="BI172" t="n">
+        <v>10</v>
+      </c>
+      <c r="BJ172" t="n">
+        <v>9</v>
+      </c>
+      <c r="BK172" t="n">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="173">
+      <c r="A173" s="1" t="n">
+        <v>172</v>
+      </c>
+      <c r="B173" t="n">
+        <v>4554585</v>
+      </c>
+      <c r="C173" t="inlineStr">
+        <is>
+          <t>Argentina Primera División</t>
+        </is>
+      </c>
+      <c r="D173" t="inlineStr">
+        <is>
+          <t>2023</t>
+        </is>
+      </c>
+      <c r="E173" s="2" t="n">
+        <v>45038.85416666666</v>
+      </c>
+      <c r="F173" t="n">
+        <v>13</v>
+      </c>
+      <c r="G173" t="inlineStr">
+        <is>
+          <t>Belgrano</t>
+        </is>
+      </c>
+      <c r="H173" t="inlineStr">
+        <is>
+          <t>Newell's Old Boys</t>
+        </is>
+      </c>
+      <c r="I173" t="n">
+        <v>1</v>
+      </c>
+      <c r="J173" t="n">
+        <v>0</v>
+      </c>
+      <c r="K173" t="n">
+        <v>1</v>
+      </c>
+      <c r="L173" t="n">
+        <v>1</v>
+      </c>
+      <c r="M173" t="n">
+        <v>0</v>
+      </c>
+      <c r="N173" t="n">
+        <v>1</v>
+      </c>
+      <c r="O173" t="inlineStr">
+        <is>
+          <t>['42']</t>
+        </is>
+      </c>
+      <c r="P173" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="Q173" t="n">
+        <v>4</v>
+      </c>
+      <c r="R173" t="n">
+        <v>4</v>
+      </c>
+      <c r="S173" t="n">
+        <v>8</v>
+      </c>
+      <c r="T173" t="n">
+        <v>3.5</v>
+      </c>
+      <c r="U173" t="n">
+        <v>1.9</v>
+      </c>
+      <c r="V173" t="n">
+        <v>3.75</v>
+      </c>
+      <c r="W173" t="n">
+        <v>1.58</v>
+      </c>
+      <c r="X173" t="n">
+        <v>2.27</v>
+      </c>
+      <c r="Y173" t="n">
+        <v>3.7</v>
+      </c>
+      <c r="Z173" t="n">
+        <v>1.24</v>
+      </c>
+      <c r="AA173" t="n">
+        <v>10.5</v>
+      </c>
+      <c r="AB173" t="n">
+        <v>1.02</v>
+      </c>
+      <c r="AC173" t="n">
+        <v>2.55</v>
+      </c>
+      <c r="AD173" t="n">
+        <v>2.95</v>
+      </c>
+      <c r="AE173" t="n">
+        <v>3</v>
+      </c>
+      <c r="AF173" t="n">
+        <v>1.12</v>
+      </c>
+      <c r="AG173" t="n">
+        <v>6.5</v>
+      </c>
+      <c r="AH173" t="n">
+        <v>1.55</v>
+      </c>
+      <c r="AI173" t="n">
+        <v>2.4</v>
+      </c>
+      <c r="AJ173" t="n">
+        <v>2.7</v>
+      </c>
+      <c r="AK173" t="n">
+        <v>1.45</v>
+      </c>
+      <c r="AL173" t="n">
+        <v>2.2</v>
+      </c>
+      <c r="AM173" t="n">
+        <v>1.65</v>
+      </c>
+      <c r="AN173" t="n">
+        <v>1.4</v>
+      </c>
+      <c r="AO173" t="n">
+        <v>1.33</v>
+      </c>
+      <c r="AP173" t="n">
+        <v>1.55</v>
+      </c>
+      <c r="AQ173" t="n">
+        <v>1.6</v>
+      </c>
+      <c r="AR173" t="n">
+        <v>0.83</v>
+      </c>
+      <c r="AS173" t="n">
+        <v>1.83</v>
+      </c>
+      <c r="AT173" t="n">
+        <v>0.71</v>
+      </c>
+      <c r="AU173" t="n">
+        <v>1.19</v>
+      </c>
+      <c r="AV173" t="n">
+        <v>1.52</v>
+      </c>
+      <c r="AW173" t="n">
+        <v>2.71</v>
+      </c>
+      <c r="AX173" t="n">
+        <v>1.95</v>
+      </c>
+      <c r="AY173" t="n">
+        <v>7.5</v>
+      </c>
+      <c r="AZ173" t="n">
+        <v>2.1</v>
+      </c>
+      <c r="BA173" t="n">
+        <v>1.44</v>
+      </c>
+      <c r="BB173" t="n">
+        <v>1.88</v>
+      </c>
+      <c r="BC173" t="n">
+        <v>2.45</v>
+      </c>
+      <c r="BD173" t="n">
+        <v>3.5</v>
+      </c>
+      <c r="BE173" t="n">
+        <v>4.04</v>
+      </c>
+      <c r="BF173" t="n">
+        <v>4</v>
+      </c>
+      <c r="BG173" t="n">
+        <v>0</v>
+      </c>
+      <c r="BH173" t="n">
+        <v>4</v>
+      </c>
+      <c r="BI173" t="n">
+        <v>8</v>
+      </c>
+      <c r="BJ173" t="n">
+        <v>8</v>
+      </c>
+      <c r="BK173" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="174">
+      <c r="A174" s="1" t="n">
+        <v>173</v>
+      </c>
+      <c r="B174" t="n">
+        <v>4554581</v>
+      </c>
+      <c r="C174" t="inlineStr">
+        <is>
+          <t>Argentina Primera División</t>
+        </is>
+      </c>
+      <c r="D174" t="inlineStr">
+        <is>
+          <t>2023</t>
+        </is>
+      </c>
+      <c r="E174" s="2" t="n">
+        <v>45038.85416666666</v>
+      </c>
+      <c r="F174" t="n">
+        <v>13</v>
+      </c>
+      <c r="G174" t="inlineStr">
+        <is>
+          <t>Central Córdoba SdE</t>
+        </is>
+      </c>
+      <c r="H174" t="inlineStr">
+        <is>
+          <t>Godoy Cruz</t>
+        </is>
+      </c>
+      <c r="I174" t="n">
+        <v>0</v>
+      </c>
+      <c r="J174" t="n">
+        <v>0</v>
+      </c>
+      <c r="K174" t="n">
+        <v>0</v>
+      </c>
+      <c r="L174" t="n">
+        <v>0</v>
+      </c>
+      <c r="M174" t="n">
+        <v>2</v>
+      </c>
+      <c r="N174" t="n">
+        <v>2</v>
+      </c>
+      <c r="O174" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="P174" t="inlineStr">
+        <is>
+          <t>['54', '87']</t>
+        </is>
+      </c>
+      <c r="Q174" t="n">
+        <v>5</v>
+      </c>
+      <c r="R174" t="n">
+        <v>3</v>
+      </c>
+      <c r="S174" t="n">
+        <v>8</v>
+      </c>
+      <c r="T174" t="n">
+        <v>3.2</v>
+      </c>
+      <c r="U174" t="n">
+        <v>1.9</v>
+      </c>
+      <c r="V174" t="n">
+        <v>3.75</v>
+      </c>
+      <c r="W174" t="n">
+        <v>1.49</v>
+      </c>
+      <c r="X174" t="n">
+        <v>2.4</v>
+      </c>
+      <c r="Y174" t="n">
+        <v>3.4</v>
+      </c>
+      <c r="Z174" t="n">
+        <v>1.28</v>
+      </c>
+      <c r="AA174" t="n">
+        <v>9.4</v>
+      </c>
+      <c r="AB174" t="n">
+        <v>1.03</v>
+      </c>
+      <c r="AC174" t="n">
+        <v>2.4</v>
+      </c>
+      <c r="AD174" t="n">
+        <v>3.2</v>
+      </c>
+      <c r="AE174" t="n">
+        <v>3</v>
+      </c>
+      <c r="AF174" t="n">
+        <v>1.09</v>
+      </c>
+      <c r="AG174" t="n">
+        <v>8</v>
+      </c>
+      <c r="AH174" t="n">
+        <v>1.45</v>
+      </c>
+      <c r="AI174" t="n">
+        <v>2.75</v>
+      </c>
+      <c r="AJ174" t="n">
+        <v>2.35</v>
+      </c>
+      <c r="AK174" t="n">
+        <v>1.57</v>
+      </c>
+      <c r="AL174" t="n">
+        <v>2</v>
+      </c>
+      <c r="AM174" t="n">
+        <v>1.78</v>
+      </c>
+      <c r="AN174" t="n">
+        <v>1.38</v>
+      </c>
+      <c r="AO174" t="n">
+        <v>1.3</v>
+      </c>
+      <c r="AP174" t="n">
+        <v>1.57</v>
+      </c>
+      <c r="AQ174" t="n">
+        <v>1.67</v>
+      </c>
+      <c r="AR174" t="n">
+        <v>1</v>
+      </c>
+      <c r="AS174" t="n">
+        <v>1.43</v>
+      </c>
+      <c r="AT174" t="n">
+        <v>1.29</v>
+      </c>
+      <c r="AU174" t="n">
+        <v>1.36</v>
+      </c>
+      <c r="AV174" t="n">
+        <v>1.18</v>
+      </c>
+      <c r="AW174" t="n">
+        <v>2.54</v>
+      </c>
+      <c r="AX174" t="n">
+        <v>2.2</v>
+      </c>
+      <c r="AY174" t="n">
+        <v>8</v>
+      </c>
+      <c r="AZ174" t="n">
+        <v>1.91</v>
+      </c>
+      <c r="BA174" t="n">
+        <v>1.2</v>
+      </c>
+      <c r="BB174" t="n">
+        <v>1.39</v>
+      </c>
+      <c r="BC174" t="n">
+        <v>1.7</v>
+      </c>
+      <c r="BD174" t="n">
+        <v>2.2</v>
+      </c>
+      <c r="BE174" t="n">
+        <v>2.95</v>
+      </c>
+      <c r="BF174" t="n">
+        <v>0</v>
+      </c>
+      <c r="BG174" t="n">
+        <v>7</v>
+      </c>
+      <c r="BH174" t="n">
+        <v>9</v>
+      </c>
+      <c r="BI174" t="n">
+        <v>6</v>
+      </c>
+      <c r="BJ174" t="n">
+        <v>9</v>
+      </c>
+      <c r="BK174" t="n">
+        <v>13</v>
       </c>
     </row>
   </sheetData>

--- a/Bases_de_Dados_(2022-2023)/Argentina Primera División_2023.xlsx
+++ b/Bases_de_Dados_(2022-2023)/Argentina Primera División_2023.xlsx
@@ -429,7 +429,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:BK174"/>
+  <dimension ref="A1:BK182"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -900,7 +900,7 @@
         <v>0</v>
       </c>
       <c r="AS2" t="n">
-        <v>2.67</v>
+        <v>2.43</v>
       </c>
       <c r="AT2" t="n">
         <v>0.71</v>
@@ -1306,7 +1306,7 @@
         <v>0</v>
       </c>
       <c r="AS4" t="n">
-        <v>2.67</v>
+        <v>2.71</v>
       </c>
       <c r="AT4" t="n">
         <v>0.57</v>
@@ -1512,7 +1512,7 @@
         <v>1.43</v>
       </c>
       <c r="AT5" t="n">
-        <v>1.17</v>
+        <v>1</v>
       </c>
       <c r="AU5" t="n">
         <v>0</v>
@@ -1712,7 +1712,7 @@
         <v>0</v>
       </c>
       <c r="AS6" t="n">
-        <v>1.33</v>
+        <v>1.57</v>
       </c>
       <c r="AT6" t="n">
         <v>1.29</v>
@@ -2321,7 +2321,7 @@
         <v>0</v>
       </c>
       <c r="AS9" t="n">
-        <v>1.5</v>
+        <v>1.43</v>
       </c>
       <c r="AT9" t="n">
         <v>0.86</v>
@@ -2727,7 +2727,7 @@
         <v>0</v>
       </c>
       <c r="AS11" t="n">
-        <v>1.83</v>
+        <v>1.57</v>
       </c>
       <c r="AT11" t="n">
         <v>1.86</v>
@@ -2933,7 +2933,7 @@
         <v>1.14</v>
       </c>
       <c r="AT12" t="n">
-        <v>0.67</v>
+        <v>1</v>
       </c>
       <c r="AU12" t="n">
         <v>0</v>
@@ -3133,7 +3133,7 @@
         <v>0</v>
       </c>
       <c r="AS13" t="n">
-        <v>1.33</v>
+        <v>1.14</v>
       </c>
       <c r="AT13" t="n">
         <v>1.29</v>
@@ -3339,7 +3339,7 @@
         <v>1.43</v>
       </c>
       <c r="AT14" t="n">
-        <v>0.17</v>
+        <v>0.57</v>
       </c>
       <c r="AU14" t="n">
         <v>0</v>
@@ -4960,7 +4960,7 @@
         <v>0</v>
       </c>
       <c r="AS22" t="n">
-        <v>2.6</v>
+        <v>2.17</v>
       </c>
       <c r="AT22" t="n">
         <v>1.17</v>
@@ -5166,7 +5166,7 @@
         <v>0.5</v>
       </c>
       <c r="AT23" t="n">
-        <v>1.4</v>
+        <v>1.17</v>
       </c>
       <c r="AU23" t="n">
         <v>0</v>
@@ -5775,7 +5775,7 @@
         <v>1</v>
       </c>
       <c r="AT26" t="n">
-        <v>2.2</v>
+        <v>1.83</v>
       </c>
       <c r="AU26" t="n">
         <v>0</v>
@@ -6181,7 +6181,7 @@
         <v>1.67</v>
       </c>
       <c r="AT28" t="n">
-        <v>2</v>
+        <v>2.17</v>
       </c>
       <c r="AU28" t="n">
         <v>0</v>
@@ -6384,7 +6384,7 @@
         <v>1.33</v>
       </c>
       <c r="AT29" t="n">
-        <v>0.8</v>
+        <v>0.83</v>
       </c>
       <c r="AU29" t="n">
         <v>0</v>
@@ -6990,7 +6990,7 @@
         <v>3</v>
       </c>
       <c r="AS32" t="n">
-        <v>2.67</v>
+        <v>2.71</v>
       </c>
       <c r="AT32" t="n">
         <v>1.29</v>
@@ -7399,7 +7399,7 @@
         <v>1.43</v>
       </c>
       <c r="AT34" t="n">
-        <v>0.67</v>
+        <v>1</v>
       </c>
       <c r="AU34" t="n">
         <v>1.36</v>
@@ -7602,7 +7602,7 @@
         <v>1.43</v>
       </c>
       <c r="AT35" t="n">
-        <v>1.2</v>
+        <v>1.17</v>
       </c>
       <c r="AU35" t="n">
         <v>1.05</v>
@@ -7805,7 +7805,7 @@
         <v>1.43</v>
       </c>
       <c r="AT36" t="n">
-        <v>1.17</v>
+        <v>1</v>
       </c>
       <c r="AU36" t="n">
         <v>1.26</v>
@@ -8005,7 +8005,7 @@
         <v>0</v>
       </c>
       <c r="AS37" t="n">
-        <v>2.67</v>
+        <v>2.43</v>
       </c>
       <c r="AT37" t="n">
         <v>0.57</v>
@@ -8211,7 +8211,7 @@
         <v>1.29</v>
       </c>
       <c r="AT38" t="n">
-        <v>0.17</v>
+        <v>0.57</v>
       </c>
       <c r="AU38" t="n">
         <v>1.72</v>
@@ -8411,7 +8411,7 @@
         <v>0</v>
       </c>
       <c r="AS39" t="n">
-        <v>2.4</v>
+        <v>2.5</v>
       </c>
       <c r="AT39" t="n">
         <v>0.71</v>
@@ -8614,7 +8614,7 @@
         <v>3</v>
       </c>
       <c r="AS40" t="n">
-        <v>1.5</v>
+        <v>1.43</v>
       </c>
       <c r="AT40" t="n">
         <v>0.83</v>
@@ -8817,7 +8817,7 @@
         <v>3</v>
       </c>
       <c r="AS41" t="n">
-        <v>1.83</v>
+        <v>1.57</v>
       </c>
       <c r="AT41" t="n">
         <v>1.29</v>
@@ -9020,7 +9020,7 @@
         <v>1</v>
       </c>
       <c r="AS42" t="n">
-        <v>1.33</v>
+        <v>1.14</v>
       </c>
       <c r="AT42" t="n">
         <v>0.43</v>
@@ -9223,7 +9223,7 @@
         <v>3</v>
       </c>
       <c r="AS43" t="n">
-        <v>1.33</v>
+        <v>1.57</v>
       </c>
       <c r="AT43" t="n">
         <v>1.29</v>
@@ -10441,7 +10441,7 @@
         <v>2</v>
       </c>
       <c r="AS49" t="n">
-        <v>2.6</v>
+        <v>2.17</v>
       </c>
       <c r="AT49" t="n">
         <v>1.86</v>
@@ -10850,7 +10850,7 @@
         <v>2.17</v>
       </c>
       <c r="AT51" t="n">
-        <v>0.8</v>
+        <v>0.83</v>
       </c>
       <c r="AU51" t="n">
         <v>0.67</v>
@@ -11256,7 +11256,7 @@
         <v>1.14</v>
       </c>
       <c r="AT53" t="n">
-        <v>1.4</v>
+        <v>1.17</v>
       </c>
       <c r="AU53" t="n">
         <v>1.66</v>
@@ -11459,7 +11459,7 @@
         <v>0.5</v>
       </c>
       <c r="AT54" t="n">
-        <v>2</v>
+        <v>2.17</v>
       </c>
       <c r="AU54" t="n">
         <v>1.63</v>
@@ -12471,7 +12471,7 @@
         <v>1.5</v>
       </c>
       <c r="AS59" t="n">
-        <v>2.67</v>
+        <v>2.43</v>
       </c>
       <c r="AT59" t="n">
         <v>1.29</v>
@@ -12674,7 +12674,7 @@
         <v>1</v>
       </c>
       <c r="AS60" t="n">
-        <v>2.67</v>
+        <v>2.71</v>
       </c>
       <c r="AT60" t="n">
         <v>0.43</v>
@@ -12880,7 +12880,7 @@
         <v>1.43</v>
       </c>
       <c r="AT61" t="n">
-        <v>2.2</v>
+        <v>1.83</v>
       </c>
       <c r="AU61" t="n">
         <v>1.14</v>
@@ -13080,7 +13080,7 @@
         <v>2</v>
       </c>
       <c r="AS62" t="n">
-        <v>1.33</v>
+        <v>1.57</v>
       </c>
       <c r="AT62" t="n">
         <v>0.86</v>
@@ -13286,7 +13286,7 @@
         <v>1.43</v>
       </c>
       <c r="AT63" t="n">
-        <v>1.2</v>
+        <v>1.17</v>
       </c>
       <c r="AU63" t="n">
         <v>1.24</v>
@@ -13489,7 +13489,7 @@
         <v>1.57</v>
       </c>
       <c r="AT64" t="n">
-        <v>0.67</v>
+        <v>1</v>
       </c>
       <c r="AU64" t="n">
         <v>1.26</v>
@@ -13892,7 +13892,7 @@
         <v>0</v>
       </c>
       <c r="AS66" t="n">
-        <v>2.4</v>
+        <v>2.5</v>
       </c>
       <c r="AT66" t="n">
         <v>0.57</v>
@@ -14095,7 +14095,7 @@
         <v>0.5</v>
       </c>
       <c r="AS67" t="n">
-        <v>1.5</v>
+        <v>1.43</v>
       </c>
       <c r="AT67" t="n">
         <v>0.71</v>
@@ -14301,7 +14301,7 @@
         <v>1.29</v>
       </c>
       <c r="AT68" t="n">
-        <v>1.17</v>
+        <v>1</v>
       </c>
       <c r="AU68" t="n">
         <v>2.03</v>
@@ -14501,10 +14501,10 @@
         <v>0.5</v>
       </c>
       <c r="AS69" t="n">
-        <v>1.33</v>
+        <v>1.14</v>
       </c>
       <c r="AT69" t="n">
-        <v>0.17</v>
+        <v>0.57</v>
       </c>
       <c r="AU69" t="n">
         <v>0.49</v>
@@ -14704,7 +14704,7 @@
         <v>3</v>
       </c>
       <c r="AS70" t="n">
-        <v>1.83</v>
+        <v>1.57</v>
       </c>
       <c r="AT70" t="n">
         <v>1.29</v>
@@ -16128,7 +16128,7 @@
         <v>1</v>
       </c>
       <c r="AT77" t="n">
-        <v>0.8</v>
+        <v>0.83</v>
       </c>
       <c r="AU77" t="n">
         <v>1.19</v>
@@ -17752,7 +17752,7 @@
         <v>1.14</v>
       </c>
       <c r="AT85" t="n">
-        <v>2</v>
+        <v>2.17</v>
       </c>
       <c r="AU85" t="n">
         <v>1.52</v>
@@ -17952,10 +17952,10 @@
         <v>1.67</v>
       </c>
       <c r="AS86" t="n">
-        <v>1.33</v>
+        <v>1.14</v>
       </c>
       <c r="AT86" t="n">
-        <v>1.17</v>
+        <v>1</v>
       </c>
       <c r="AU86" t="n">
         <v>0.74</v>
@@ -18155,7 +18155,7 @@
         <v>1</v>
       </c>
       <c r="AS87" t="n">
-        <v>2.6</v>
+        <v>2.17</v>
       </c>
       <c r="AT87" t="n">
         <v>0.57</v>
@@ -18358,10 +18358,10 @@
         <v>0.33</v>
       </c>
       <c r="AS88" t="n">
-        <v>1.5</v>
+        <v>1.43</v>
       </c>
       <c r="AT88" t="n">
-        <v>0.67</v>
+        <v>1</v>
       </c>
       <c r="AU88" t="n">
         <v>1.59</v>
@@ -18561,10 +18561,10 @@
         <v>0.33</v>
       </c>
       <c r="AS89" t="n">
-        <v>2.67</v>
+        <v>2.71</v>
       </c>
       <c r="AT89" t="n">
-        <v>0.17</v>
+        <v>0.57</v>
       </c>
       <c r="AU89" t="n">
         <v>1.5</v>
@@ -18767,7 +18767,7 @@
         <v>1.57</v>
       </c>
       <c r="AT90" t="n">
-        <v>2.2</v>
+        <v>1.83</v>
       </c>
       <c r="AU90" t="n">
         <v>1.33</v>
@@ -19373,7 +19373,7 @@
         <v>1.67</v>
       </c>
       <c r="AS93" t="n">
-        <v>1.83</v>
+        <v>1.57</v>
       </c>
       <c r="AT93" t="n">
         <v>0.86</v>
@@ -19576,7 +19576,7 @@
         <v>1</v>
       </c>
       <c r="AS94" t="n">
-        <v>2.4</v>
+        <v>2.5</v>
       </c>
       <c r="AT94" t="n">
         <v>1.29</v>
@@ -19779,7 +19779,7 @@
         <v>1.67</v>
       </c>
       <c r="AS95" t="n">
-        <v>1.33</v>
+        <v>1.57</v>
       </c>
       <c r="AT95" t="n">
         <v>0.83</v>
@@ -19985,7 +19985,7 @@
         <v>1.29</v>
       </c>
       <c r="AT96" t="n">
-        <v>1.2</v>
+        <v>1.17</v>
       </c>
       <c r="AU96" t="n">
         <v>2.03</v>
@@ -20185,7 +20185,7 @@
         <v>0.67</v>
       </c>
       <c r="AS97" t="n">
-        <v>2.67</v>
+        <v>2.43</v>
       </c>
       <c r="AT97" t="n">
         <v>0.43</v>
@@ -20391,7 +20391,7 @@
         <v>1.43</v>
       </c>
       <c r="AT98" t="n">
-        <v>1.4</v>
+        <v>1.17</v>
       </c>
       <c r="AU98" t="n">
         <v>1.35</v>
@@ -21406,7 +21406,7 @@
         <v>1.43</v>
       </c>
       <c r="AT103" t="n">
-        <v>2</v>
+        <v>2.17</v>
       </c>
       <c r="AU103" t="n">
         <v>1.53</v>
@@ -22421,7 +22421,7 @@
         <v>1.43</v>
       </c>
       <c r="AT108" t="n">
-        <v>0.8</v>
+        <v>0.83</v>
       </c>
       <c r="AU108" t="n">
         <v>1.46</v>
@@ -23839,7 +23839,7 @@
         <v>0.75</v>
       </c>
       <c r="AS115" t="n">
-        <v>2.6</v>
+        <v>2.17</v>
       </c>
       <c r="AT115" t="n">
         <v>1.29</v>
@@ -24042,10 +24042,10 @@
         <v>0.25</v>
       </c>
       <c r="AS116" t="n">
-        <v>2.67</v>
+        <v>2.43</v>
       </c>
       <c r="AT116" t="n">
-        <v>0.17</v>
+        <v>0.57</v>
       </c>
       <c r="AU116" t="n">
         <v>1.68</v>
@@ -24245,7 +24245,7 @@
         <v>0.5</v>
       </c>
       <c r="AS117" t="n">
-        <v>1.33</v>
+        <v>1.57</v>
       </c>
       <c r="AT117" t="n">
         <v>0.71</v>
@@ -24448,7 +24448,7 @@
         <v>0.75</v>
       </c>
       <c r="AS118" t="n">
-        <v>2.4</v>
+        <v>2.5</v>
       </c>
       <c r="AT118" t="n">
         <v>0.43</v>
@@ -24651,10 +24651,10 @@
         <v>1</v>
       </c>
       <c r="AS119" t="n">
-        <v>1.33</v>
+        <v>1.14</v>
       </c>
       <c r="AT119" t="n">
-        <v>1.2</v>
+        <v>1.17</v>
       </c>
       <c r="AU119" t="n">
         <v>0.89</v>
@@ -24854,10 +24854,10 @@
         <v>1.5</v>
       </c>
       <c r="AS120" t="n">
-        <v>2.67</v>
+        <v>2.71</v>
       </c>
       <c r="AT120" t="n">
-        <v>1.17</v>
+        <v>1</v>
       </c>
       <c r="AU120" t="n">
         <v>1.52</v>
@@ -25057,7 +25057,7 @@
         <v>1.25</v>
       </c>
       <c r="AS121" t="n">
-        <v>1.83</v>
+        <v>1.57</v>
       </c>
       <c r="AT121" t="n">
         <v>0.83</v>
@@ -25463,10 +25463,10 @@
         <v>2.33</v>
       </c>
       <c r="AS123" t="n">
-        <v>1.5</v>
+        <v>1.43</v>
       </c>
       <c r="AT123" t="n">
-        <v>2.2</v>
+        <v>1.83</v>
       </c>
       <c r="AU123" t="n">
         <v>1.5</v>
@@ -25669,7 +25669,7 @@
         <v>1</v>
       </c>
       <c r="AT124" t="n">
-        <v>0.67</v>
+        <v>1</v>
       </c>
       <c r="AU124" t="n">
         <v>1.76</v>
@@ -25872,7 +25872,7 @@
         <v>1.29</v>
       </c>
       <c r="AT125" t="n">
-        <v>1.4</v>
+        <v>1.17</v>
       </c>
       <c r="AU125" t="n">
         <v>1.92</v>
@@ -26887,7 +26887,7 @@
         <v>1.43</v>
       </c>
       <c r="AT130" t="n">
-        <v>0.8</v>
+        <v>0.83</v>
       </c>
       <c r="AU130" t="n">
         <v>1.37</v>
@@ -29320,10 +29320,10 @@
         <v>1.75</v>
       </c>
       <c r="AS142" t="n">
-        <v>1.33</v>
+        <v>1.14</v>
       </c>
       <c r="AT142" t="n">
-        <v>1.4</v>
+        <v>1.17</v>
       </c>
       <c r="AU142" t="n">
         <v>0.85</v>
@@ -29523,7 +29523,7 @@
         <v>0.6</v>
       </c>
       <c r="AS143" t="n">
-        <v>2.6</v>
+        <v>2.17</v>
       </c>
       <c r="AT143" t="n">
         <v>0.43</v>
@@ -29726,7 +29726,7 @@
         <v>1.25</v>
       </c>
       <c r="AS144" t="n">
-        <v>1.5</v>
+        <v>1.43</v>
       </c>
       <c r="AT144" t="n">
         <v>0.83</v>
@@ -29932,7 +29932,7 @@
         <v>1.29</v>
       </c>
       <c r="AT145" t="n">
-        <v>2</v>
+        <v>2.17</v>
       </c>
       <c r="AU145" t="n">
         <v>1.78</v>
@@ -30335,10 +30335,10 @@
         <v>1.5</v>
       </c>
       <c r="AS147" t="n">
-        <v>2.67</v>
+        <v>2.71</v>
       </c>
       <c r="AT147" t="n">
-        <v>1.2</v>
+        <v>1.17</v>
       </c>
       <c r="AU147" t="n">
         <v>1.55</v>
@@ -30741,7 +30741,7 @@
         <v>0.4</v>
       </c>
       <c r="AS149" t="n">
-        <v>1.83</v>
+        <v>1.57</v>
       </c>
       <c r="AT149" t="n">
         <v>0.71</v>
@@ -30944,10 +30944,10 @@
         <v>0.6</v>
       </c>
       <c r="AS150" t="n">
-        <v>1.33</v>
+        <v>1.57</v>
       </c>
       <c r="AT150" t="n">
-        <v>0.67</v>
+        <v>1</v>
       </c>
       <c r="AU150" t="n">
         <v>1.74</v>
@@ -31147,10 +31147,10 @@
         <v>1.4</v>
       </c>
       <c r="AS151" t="n">
-        <v>2.67</v>
+        <v>2.43</v>
       </c>
       <c r="AT151" t="n">
-        <v>1.17</v>
+        <v>1</v>
       </c>
       <c r="AU151" t="n">
         <v>1.65</v>
@@ -31556,7 +31556,7 @@
         <v>1</v>
       </c>
       <c r="AT153" t="n">
-        <v>2.2</v>
+        <v>1.83</v>
       </c>
       <c r="AU153" t="n">
         <v>1.75</v>
@@ -31756,10 +31756,10 @@
         <v>0.2</v>
       </c>
       <c r="AS154" t="n">
-        <v>2.4</v>
+        <v>2.5</v>
       </c>
       <c r="AT154" t="n">
-        <v>0.17</v>
+        <v>0.57</v>
       </c>
       <c r="AU154" t="n">
         <v>1.74</v>
@@ -35871,6 +35871,1630 @@
       </c>
       <c r="BK174" t="n">
         <v>13</v>
+      </c>
+    </row>
+    <row r="175">
+      <c r="A175" s="1" t="n">
+        <v>174</v>
+      </c>
+      <c r="B175" t="n">
+        <v>4554590</v>
+      </c>
+      <c r="C175" t="inlineStr">
+        <is>
+          <t>Argentina Primera División</t>
+        </is>
+      </c>
+      <c r="D175" t="inlineStr">
+        <is>
+          <t>2023</t>
+        </is>
+      </c>
+      <c r="E175" s="2" t="n">
+        <v>45039.45833333334</v>
+      </c>
+      <c r="F175" t="n">
+        <v>13</v>
+      </c>
+      <c r="G175" t="inlineStr">
+        <is>
+          <t>San Lorenzo</t>
+        </is>
+      </c>
+      <c r="H175" t="inlineStr">
+        <is>
+          <t>Platense</t>
+        </is>
+      </c>
+      <c r="I175" t="n">
+        <v>0</v>
+      </c>
+      <c r="J175" t="n">
+        <v>0</v>
+      </c>
+      <c r="K175" t="n">
+        <v>0</v>
+      </c>
+      <c r="L175" t="n">
+        <v>1</v>
+      </c>
+      <c r="M175" t="n">
+        <v>0</v>
+      </c>
+      <c r="N175" t="n">
+        <v>1</v>
+      </c>
+      <c r="O175" t="inlineStr">
+        <is>
+          <t>['90+3']</t>
+        </is>
+      </c>
+      <c r="P175" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="Q175" t="n">
+        <v>3</v>
+      </c>
+      <c r="R175" t="n">
+        <v>2</v>
+      </c>
+      <c r="S175" t="n">
+        <v>5</v>
+      </c>
+      <c r="T175" t="n">
+        <v>2.6</v>
+      </c>
+      <c r="U175" t="n">
+        <v>1.95</v>
+      </c>
+      <c r="V175" t="n">
+        <v>5.5</v>
+      </c>
+      <c r="W175" t="n">
+        <v>1.55</v>
+      </c>
+      <c r="X175" t="n">
+        <v>2.32</v>
+      </c>
+      <c r="Y175" t="n">
+        <v>3.7</v>
+      </c>
+      <c r="Z175" t="n">
+        <v>1.24</v>
+      </c>
+      <c r="AA175" t="n">
+        <v>10.5</v>
+      </c>
+      <c r="AB175" t="n">
+        <v>1.02</v>
+      </c>
+      <c r="AC175" t="n">
+        <v>1.83</v>
+      </c>
+      <c r="AD175" t="n">
+        <v>3.3</v>
+      </c>
+      <c r="AE175" t="n">
+        <v>4.75</v>
+      </c>
+      <c r="AF175" t="n">
+        <v>1.1</v>
+      </c>
+      <c r="AG175" t="n">
+        <v>7</v>
+      </c>
+      <c r="AH175" t="n">
+        <v>1.53</v>
+      </c>
+      <c r="AI175" t="n">
+        <v>2.5</v>
+      </c>
+      <c r="AJ175" t="n">
+        <v>2.65</v>
+      </c>
+      <c r="AK175" t="n">
+        <v>1.47</v>
+      </c>
+      <c r="AL175" t="n">
+        <v>2.35</v>
+      </c>
+      <c r="AM175" t="n">
+        <v>1.57</v>
+      </c>
+      <c r="AN175" t="n">
+        <v>1.18</v>
+      </c>
+      <c r="AO175" t="n">
+        <v>1.28</v>
+      </c>
+      <c r="AP175" t="n">
+        <v>2</v>
+      </c>
+      <c r="AQ175" t="n">
+        <v>2.67</v>
+      </c>
+      <c r="AR175" t="n">
+        <v>1.4</v>
+      </c>
+      <c r="AS175" t="n">
+        <v>2.71</v>
+      </c>
+      <c r="AT175" t="n">
+        <v>1.17</v>
+      </c>
+      <c r="AU175" t="n">
+        <v>1.44</v>
+      </c>
+      <c r="AV175" t="n">
+        <v>1.08</v>
+      </c>
+      <c r="AW175" t="n">
+        <v>2.52</v>
+      </c>
+      <c r="AX175" t="n">
+        <v>1.51</v>
+      </c>
+      <c r="AY175" t="n">
+        <v>8</v>
+      </c>
+      <c r="AZ175" t="n">
+        <v>3.17</v>
+      </c>
+      <c r="BA175" t="n">
+        <v>1.32</v>
+      </c>
+      <c r="BB175" t="n">
+        <v>1.6</v>
+      </c>
+      <c r="BC175" t="n">
+        <v>2.05</v>
+      </c>
+      <c r="BD175" t="n">
+        <v>2.8</v>
+      </c>
+      <c r="BE175" t="n">
+        <v>4</v>
+      </c>
+      <c r="BF175" t="n">
+        <v>3</v>
+      </c>
+      <c r="BG175" t="n">
+        <v>3</v>
+      </c>
+      <c r="BH175" t="n">
+        <v>4</v>
+      </c>
+      <c r="BI175" t="n">
+        <v>5</v>
+      </c>
+      <c r="BJ175" t="n">
+        <v>7</v>
+      </c>
+      <c r="BK175" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="176">
+      <c r="A176" s="1" t="n">
+        <v>175</v>
+      </c>
+      <c r="B176" t="n">
+        <v>4554588</v>
+      </c>
+      <c r="C176" t="inlineStr">
+        <is>
+          <t>Argentina Primera División</t>
+        </is>
+      </c>
+      <c r="D176" t="inlineStr">
+        <is>
+          <t>2023</t>
+        </is>
+      </c>
+      <c r="E176" s="2" t="n">
+        <v>45039.64583333334</v>
+      </c>
+      <c r="F176" t="n">
+        <v>13</v>
+      </c>
+      <c r="G176" t="inlineStr">
+        <is>
+          <t>Rosario Central</t>
+        </is>
+      </c>
+      <c r="H176" t="inlineStr">
+        <is>
+          <t>Boca Juniors</t>
+        </is>
+      </c>
+      <c r="I176" t="n">
+        <v>1</v>
+      </c>
+      <c r="J176" t="n">
+        <v>0</v>
+      </c>
+      <c r="K176" t="n">
+        <v>1</v>
+      </c>
+      <c r="L176" t="n">
+        <v>2</v>
+      </c>
+      <c r="M176" t="n">
+        <v>2</v>
+      </c>
+      <c r="N176" t="n">
+        <v>4</v>
+      </c>
+      <c r="O176" t="inlineStr">
+        <is>
+          <t>['25', '69']</t>
+        </is>
+      </c>
+      <c r="P176" t="inlineStr">
+        <is>
+          <t>['64', '90+10']</t>
+        </is>
+      </c>
+      <c r="Q176" t="n">
+        <v>2</v>
+      </c>
+      <c r="R176" t="n">
+        <v>5</v>
+      </c>
+      <c r="S176" t="n">
+        <v>7</v>
+      </c>
+      <c r="T176" t="n">
+        <v>3.75</v>
+      </c>
+      <c r="U176" t="n">
+        <v>1.9</v>
+      </c>
+      <c r="V176" t="n">
+        <v>3.5</v>
+      </c>
+      <c r="W176" t="n">
+        <v>1.5</v>
+      </c>
+      <c r="X176" t="n">
+        <v>2.35</v>
+      </c>
+      <c r="Y176" t="n">
+        <v>3.45</v>
+      </c>
+      <c r="Z176" t="n">
+        <v>1.27</v>
+      </c>
+      <c r="AA176" t="n">
+        <v>10.5</v>
+      </c>
+      <c r="AB176" t="n">
+        <v>1.02</v>
+      </c>
+      <c r="AC176" t="n">
+        <v>2.9</v>
+      </c>
+      <c r="AD176" t="n">
+        <v>3</v>
+      </c>
+      <c r="AE176" t="n">
+        <v>2.6</v>
+      </c>
+      <c r="AF176" t="n">
+        <v>1.09</v>
+      </c>
+      <c r="AG176" t="n">
+        <v>8</v>
+      </c>
+      <c r="AH176" t="n">
+        <v>1.47</v>
+      </c>
+      <c r="AI176" t="n">
+        <v>2.7</v>
+      </c>
+      <c r="AJ176" t="n">
+        <v>2.4</v>
+      </c>
+      <c r="AK176" t="n">
+        <v>1.55</v>
+      </c>
+      <c r="AL176" t="n">
+        <v>2</v>
+      </c>
+      <c r="AM176" t="n">
+        <v>1.75</v>
+      </c>
+      <c r="AN176" t="n">
+        <v>1.5</v>
+      </c>
+      <c r="AO176" t="n">
+        <v>1.3</v>
+      </c>
+      <c r="AP176" t="n">
+        <v>1.42</v>
+      </c>
+      <c r="AQ176" t="n">
+        <v>2.67</v>
+      </c>
+      <c r="AR176" t="n">
+        <v>1.2</v>
+      </c>
+      <c r="AS176" t="n">
+        <v>2.43</v>
+      </c>
+      <c r="AT176" t="n">
+        <v>1.17</v>
+      </c>
+      <c r="AU176" t="n">
+        <v>1.54</v>
+      </c>
+      <c r="AV176" t="n">
+        <v>1.24</v>
+      </c>
+      <c r="AW176" t="n">
+        <v>2.78</v>
+      </c>
+      <c r="AX176" t="n">
+        <v>1.91</v>
+      </c>
+      <c r="AY176" t="n">
+        <v>8</v>
+      </c>
+      <c r="AZ176" t="n">
+        <v>2.1</v>
+      </c>
+      <c r="BA176" t="n">
+        <v>1.2</v>
+      </c>
+      <c r="BB176" t="n">
+        <v>1.39</v>
+      </c>
+      <c r="BC176" t="n">
+        <v>1.7</v>
+      </c>
+      <c r="BD176" t="n">
+        <v>2.2</v>
+      </c>
+      <c r="BE176" t="n">
+        <v>2.95</v>
+      </c>
+      <c r="BF176" t="n">
+        <v>6</v>
+      </c>
+      <c r="BG176" t="n">
+        <v>7</v>
+      </c>
+      <c r="BH176" t="n">
+        <v>2</v>
+      </c>
+      <c r="BI176" t="n">
+        <v>7</v>
+      </c>
+      <c r="BJ176" t="n">
+        <v>8</v>
+      </c>
+      <c r="BK176" t="n">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="177">
+      <c r="A177" s="1" t="n">
+        <v>176</v>
+      </c>
+      <c r="B177" t="n">
+        <v>5019508</v>
+      </c>
+      <c r="C177" t="inlineStr">
+        <is>
+          <t>Argentina Primera División</t>
+        </is>
+      </c>
+      <c r="D177" t="inlineStr">
+        <is>
+          <t>2023</t>
+        </is>
+      </c>
+      <c r="E177" s="2" t="n">
+        <v>45039.72916666666</v>
+      </c>
+      <c r="F177" t="n">
+        <v>13</v>
+      </c>
+      <c r="G177" t="inlineStr">
+        <is>
+          <t>Instituto</t>
+        </is>
+      </c>
+      <c r="H177" t="inlineStr">
+        <is>
+          <t>Banfield</t>
+        </is>
+      </c>
+      <c r="I177" t="n">
+        <v>0</v>
+      </c>
+      <c r="J177" t="n">
+        <v>1</v>
+      </c>
+      <c r="K177" t="n">
+        <v>1</v>
+      </c>
+      <c r="L177" t="n">
+        <v>1</v>
+      </c>
+      <c r="M177" t="n">
+        <v>1</v>
+      </c>
+      <c r="N177" t="n">
+        <v>2</v>
+      </c>
+      <c r="O177" t="inlineStr">
+        <is>
+          <t>['90+8']</t>
+        </is>
+      </c>
+      <c r="P177" t="inlineStr">
+        <is>
+          <t>['42']</t>
+        </is>
+      </c>
+      <c r="Q177" t="n">
+        <v>7</v>
+      </c>
+      <c r="R177" t="n">
+        <v>1</v>
+      </c>
+      <c r="S177" t="n">
+        <v>8</v>
+      </c>
+      <c r="T177" t="n">
+        <v>3.24</v>
+      </c>
+      <c r="U177" t="n">
+        <v>1.9</v>
+      </c>
+      <c r="V177" t="n">
+        <v>3.6</v>
+      </c>
+      <c r="W177" t="n">
+        <v>1.55</v>
+      </c>
+      <c r="X177" t="n">
+        <v>2.25</v>
+      </c>
+      <c r="Y177" t="n">
+        <v>3.6</v>
+      </c>
+      <c r="Z177" t="n">
+        <v>1.25</v>
+      </c>
+      <c r="AA177" t="n">
+        <v>12</v>
+      </c>
+      <c r="AB177" t="n">
+        <v>1.04</v>
+      </c>
+      <c r="AC177" t="n">
+        <v>2.45</v>
+      </c>
+      <c r="AD177" t="n">
+        <v>3.1</v>
+      </c>
+      <c r="AE177" t="n">
+        <v>3.35</v>
+      </c>
+      <c r="AF177" t="n">
+        <v>1.1</v>
+      </c>
+      <c r="AG177" t="n">
+        <v>5.7</v>
+      </c>
+      <c r="AH177" t="n">
+        <v>1.5</v>
+      </c>
+      <c r="AI177" t="n">
+        <v>2.4</v>
+      </c>
+      <c r="AJ177" t="n">
+        <v>2.4</v>
+      </c>
+      <c r="AK177" t="n">
+        <v>1.5</v>
+      </c>
+      <c r="AL177" t="n">
+        <v>2.1</v>
+      </c>
+      <c r="AM177" t="n">
+        <v>1.67</v>
+      </c>
+      <c r="AN177" t="n">
+        <v>1.33</v>
+      </c>
+      <c r="AO177" t="n">
+        <v>1.4</v>
+      </c>
+      <c r="AP177" t="n">
+        <v>1.57</v>
+      </c>
+      <c r="AQ177" t="n">
+        <v>1.5</v>
+      </c>
+      <c r="AR177" t="n">
+        <v>0.8</v>
+      </c>
+      <c r="AS177" t="n">
+        <v>1.43</v>
+      </c>
+      <c r="AT177" t="n">
+        <v>0.83</v>
+      </c>
+      <c r="AU177" t="n">
+        <v>1.42</v>
+      </c>
+      <c r="AV177" t="n">
+        <v>1.26</v>
+      </c>
+      <c r="AW177" t="n">
+        <v>2.68</v>
+      </c>
+      <c r="AX177" t="n">
+        <v>1.64</v>
+      </c>
+      <c r="AY177" t="n">
+        <v>8</v>
+      </c>
+      <c r="AZ177" t="n">
+        <v>2.77</v>
+      </c>
+      <c r="BA177" t="n">
+        <v>1.32</v>
+      </c>
+      <c r="BB177" t="n">
+        <v>1.6</v>
+      </c>
+      <c r="BC177" t="n">
+        <v>2.05</v>
+      </c>
+      <c r="BD177" t="n">
+        <v>2.8</v>
+      </c>
+      <c r="BE177" t="n">
+        <v>4</v>
+      </c>
+      <c r="BF177" t="n">
+        <v>5</v>
+      </c>
+      <c r="BG177" t="n">
+        <v>6</v>
+      </c>
+      <c r="BH177" t="n">
+        <v>7</v>
+      </c>
+      <c r="BI177" t="n">
+        <v>3</v>
+      </c>
+      <c r="BJ177" t="n">
+        <v>12</v>
+      </c>
+      <c r="BK177" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="178">
+      <c r="A178" s="1" t="n">
+        <v>177</v>
+      </c>
+      <c r="B178" t="n">
+        <v>4554589</v>
+      </c>
+      <c r="C178" t="inlineStr">
+        <is>
+          <t>Argentina Primera División</t>
+        </is>
+      </c>
+      <c r="D178" t="inlineStr">
+        <is>
+          <t>2023</t>
+        </is>
+      </c>
+      <c r="E178" s="2" t="n">
+        <v>45039.75</v>
+      </c>
+      <c r="F178" t="n">
+        <v>13</v>
+      </c>
+      <c r="G178" t="inlineStr">
+        <is>
+          <t>Estudiantes</t>
+        </is>
+      </c>
+      <c r="H178" t="inlineStr">
+        <is>
+          <t>Talleres Córdoba</t>
+        </is>
+      </c>
+      <c r="I178" t="n">
+        <v>0</v>
+      </c>
+      <c r="J178" t="n">
+        <v>0</v>
+      </c>
+      <c r="K178" t="n">
+        <v>0</v>
+      </c>
+      <c r="L178" t="n">
+        <v>1</v>
+      </c>
+      <c r="M178" t="n">
+        <v>0</v>
+      </c>
+      <c r="N178" t="n">
+        <v>1</v>
+      </c>
+      <c r="O178" t="inlineStr">
+        <is>
+          <t>['50']</t>
+        </is>
+      </c>
+      <c r="P178" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="Q178" t="n">
+        <v>4</v>
+      </c>
+      <c r="R178" t="n">
+        <v>6</v>
+      </c>
+      <c r="S178" t="n">
+        <v>10</v>
+      </c>
+      <c r="T178" t="n">
+        <v>3.19</v>
+      </c>
+      <c r="U178" t="n">
+        <v>2.05</v>
+      </c>
+      <c r="V178" t="n">
+        <v>3.98</v>
+      </c>
+      <c r="W178" t="n">
+        <v>1.52</v>
+      </c>
+      <c r="X178" t="n">
+        <v>2.58</v>
+      </c>
+      <c r="Y178" t="n">
+        <v>3.25</v>
+      </c>
+      <c r="Z178" t="n">
+        <v>1.3</v>
+      </c>
+      <c r="AA178" t="n">
+        <v>9</v>
+      </c>
+      <c r="AB178" t="n">
+        <v>1.06</v>
+      </c>
+      <c r="AC178" t="n">
+        <v>2.49</v>
+      </c>
+      <c r="AD178" t="n">
+        <v>3.25</v>
+      </c>
+      <c r="AE178" t="n">
+        <v>3.1</v>
+      </c>
+      <c r="AF178" t="n">
+        <v>1.08</v>
+      </c>
+      <c r="AG178" t="n">
+        <v>6.2</v>
+      </c>
+      <c r="AH178" t="n">
+        <v>1.4</v>
+      </c>
+      <c r="AI178" t="n">
+        <v>2.7</v>
+      </c>
+      <c r="AJ178" t="n">
+        <v>2.25</v>
+      </c>
+      <c r="AK178" t="n">
+        <v>1.57</v>
+      </c>
+      <c r="AL178" t="n">
+        <v>1.95</v>
+      </c>
+      <c r="AM178" t="n">
+        <v>1.75</v>
+      </c>
+      <c r="AN178" t="n">
+        <v>1.25</v>
+      </c>
+      <c r="AO178" t="n">
+        <v>1.38</v>
+      </c>
+      <c r="AP178" t="n">
+        <v>1.57</v>
+      </c>
+      <c r="AQ178" t="n">
+        <v>1.33</v>
+      </c>
+      <c r="AR178" t="n">
+        <v>2.2</v>
+      </c>
+      <c r="AS178" t="n">
+        <v>1.57</v>
+      </c>
+      <c r="AT178" t="n">
+        <v>1.83</v>
+      </c>
+      <c r="AU178" t="n">
+        <v>1.61</v>
+      </c>
+      <c r="AV178" t="n">
+        <v>1.24</v>
+      </c>
+      <c r="AW178" t="n">
+        <v>2.85</v>
+      </c>
+      <c r="AX178" t="n">
+        <v>1.82</v>
+      </c>
+      <c r="AY178" t="n">
+        <v>7.5</v>
+      </c>
+      <c r="AZ178" t="n">
+        <v>2.34</v>
+      </c>
+      <c r="BA178" t="n">
+        <v>1.34</v>
+      </c>
+      <c r="BB178" t="n">
+        <v>1.63</v>
+      </c>
+      <c r="BC178" t="n">
+        <v>2.1</v>
+      </c>
+      <c r="BD178" t="n">
+        <v>2.87</v>
+      </c>
+      <c r="BE178" t="n">
+        <v>4.05</v>
+      </c>
+      <c r="BF178" t="n">
+        <v>4</v>
+      </c>
+      <c r="BG178" t="n">
+        <v>0</v>
+      </c>
+      <c r="BH178" t="n">
+        <v>4</v>
+      </c>
+      <c r="BI178" t="n">
+        <v>3</v>
+      </c>
+      <c r="BJ178" t="n">
+        <v>8</v>
+      </c>
+      <c r="BK178" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="179">
+      <c r="A179" s="1" t="n">
+        <v>178</v>
+      </c>
+      <c r="B179" t="n">
+        <v>4554586</v>
+      </c>
+      <c r="C179" t="inlineStr">
+        <is>
+          <t>Argentina Primera División</t>
+        </is>
+      </c>
+      <c r="D179" t="inlineStr">
+        <is>
+          <t>2023</t>
+        </is>
+      </c>
+      <c r="E179" s="2" t="n">
+        <v>45039.85416666666</v>
+      </c>
+      <c r="F179" t="n">
+        <v>13</v>
+      </c>
+      <c r="G179" t="inlineStr">
+        <is>
+          <t>River Plate</t>
+        </is>
+      </c>
+      <c r="H179" t="inlineStr">
+        <is>
+          <t>Independiente</t>
+        </is>
+      </c>
+      <c r="I179" t="n">
+        <v>1</v>
+      </c>
+      <c r="J179" t="n">
+        <v>0</v>
+      </c>
+      <c r="K179" t="n">
+        <v>1</v>
+      </c>
+      <c r="L179" t="n">
+        <v>2</v>
+      </c>
+      <c r="M179" t="n">
+        <v>0</v>
+      </c>
+      <c r="N179" t="n">
+        <v>2</v>
+      </c>
+      <c r="O179" t="inlineStr">
+        <is>
+          <t>['17', '80']</t>
+        </is>
+      </c>
+      <c r="P179" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="Q179" t="n">
+        <v>4</v>
+      </c>
+      <c r="R179" t="n">
+        <v>1</v>
+      </c>
+      <c r="S179" t="n">
+        <v>5</v>
+      </c>
+      <c r="T179" t="n">
+        <v>1.83</v>
+      </c>
+      <c r="U179" t="n">
+        <v>2.4</v>
+      </c>
+      <c r="V179" t="n">
+        <v>8.5</v>
+      </c>
+      <c r="W179" t="n">
+        <v>1.36</v>
+      </c>
+      <c r="X179" t="n">
+        <v>3</v>
+      </c>
+      <c r="Y179" t="n">
+        <v>2.63</v>
+      </c>
+      <c r="Z179" t="n">
+        <v>1.44</v>
+      </c>
+      <c r="AA179" t="n">
+        <v>7</v>
+      </c>
+      <c r="AB179" t="n">
+        <v>1.1</v>
+      </c>
+      <c r="AC179" t="n">
+        <v>1.3</v>
+      </c>
+      <c r="AD179" t="n">
+        <v>4.75</v>
+      </c>
+      <c r="AE179" t="n">
+        <v>11</v>
+      </c>
+      <c r="AF179" t="n">
+        <v>1.04</v>
+      </c>
+      <c r="AG179" t="n">
+        <v>10.5</v>
+      </c>
+      <c r="AH179" t="n">
+        <v>1.25</v>
+      </c>
+      <c r="AI179" t="n">
+        <v>3.6</v>
+      </c>
+      <c r="AJ179" t="n">
+        <v>1.86</v>
+      </c>
+      <c r="AK179" t="n">
+        <v>2.02</v>
+      </c>
+      <c r="AL179" t="n">
+        <v>2.25</v>
+      </c>
+      <c r="AM179" t="n">
+        <v>1.57</v>
+      </c>
+      <c r="AN179" t="n">
+        <v>1.06</v>
+      </c>
+      <c r="AO179" t="n">
+        <v>1.17</v>
+      </c>
+      <c r="AP179" t="n">
+        <v>3.25</v>
+      </c>
+      <c r="AQ179" t="n">
+        <v>2.4</v>
+      </c>
+      <c r="AR179" t="n">
+        <v>1.17</v>
+      </c>
+      <c r="AS179" t="n">
+        <v>2.5</v>
+      </c>
+      <c r="AT179" t="n">
+        <v>1</v>
+      </c>
+      <c r="AU179" t="n">
+        <v>1.8</v>
+      </c>
+      <c r="AV179" t="n">
+        <v>1.08</v>
+      </c>
+      <c r="AW179" t="n">
+        <v>2.88</v>
+      </c>
+      <c r="AX179" t="n">
+        <v>1.23</v>
+      </c>
+      <c r="AY179" t="n">
+        <v>10</v>
+      </c>
+      <c r="AZ179" t="n">
+        <v>4.92</v>
+      </c>
+      <c r="BA179" t="n">
+        <v>1.19</v>
+      </c>
+      <c r="BB179" t="n">
+        <v>1.34</v>
+      </c>
+      <c r="BC179" t="n">
+        <v>1.6</v>
+      </c>
+      <c r="BD179" t="n">
+        <v>2.05</v>
+      </c>
+      <c r="BE179" t="n">
+        <v>2.7</v>
+      </c>
+      <c r="BF179" t="n">
+        <v>9</v>
+      </c>
+      <c r="BG179" t="n">
+        <v>0</v>
+      </c>
+      <c r="BH179" t="n">
+        <v>9</v>
+      </c>
+      <c r="BI179" t="n">
+        <v>4</v>
+      </c>
+      <c r="BJ179" t="n">
+        <v>18</v>
+      </c>
+      <c r="BK179" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="180">
+      <c r="A180" s="1" t="n">
+        <v>179</v>
+      </c>
+      <c r="B180" t="n">
+        <v>4554592</v>
+      </c>
+      <c r="C180" t="inlineStr">
+        <is>
+          <t>Argentina Primera División</t>
+        </is>
+      </c>
+      <c r="D180" t="inlineStr">
+        <is>
+          <t>2023</t>
+        </is>
+      </c>
+      <c r="E180" s="2" t="n">
+        <v>45040.64583333334</v>
+      </c>
+      <c r="F180" t="n">
+        <v>13</v>
+      </c>
+      <c r="G180" t="inlineStr">
+        <is>
+          <t>Barracas Central</t>
+        </is>
+      </c>
+      <c r="H180" t="inlineStr">
+        <is>
+          <t>Defensa y Justicia</t>
+        </is>
+      </c>
+      <c r="I180" t="n">
+        <v>0</v>
+      </c>
+      <c r="J180" t="n">
+        <v>0</v>
+      </c>
+      <c r="K180" t="n">
+        <v>0</v>
+      </c>
+      <c r="L180" t="n">
+        <v>0</v>
+      </c>
+      <c r="M180" t="n">
+        <v>2</v>
+      </c>
+      <c r="N180" t="n">
+        <v>2</v>
+      </c>
+      <c r="O180" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="P180" t="inlineStr">
+        <is>
+          <t>['53', '63']</t>
+        </is>
+      </c>
+      <c r="Q180" t="n">
+        <v>5</v>
+      </c>
+      <c r="R180" t="n">
+        <v>5</v>
+      </c>
+      <c r="S180" t="n">
+        <v>10</v>
+      </c>
+      <c r="T180" t="n">
+        <v>3.7</v>
+      </c>
+      <c r="U180" t="n">
+        <v>2.05</v>
+      </c>
+      <c r="V180" t="n">
+        <v>3.05</v>
+      </c>
+      <c r="W180" t="n">
+        <v>1.5</v>
+      </c>
+      <c r="X180" t="n">
+        <v>2.5</v>
+      </c>
+      <c r="Y180" t="n">
+        <v>3.4</v>
+      </c>
+      <c r="Z180" t="n">
+        <v>1.3</v>
+      </c>
+      <c r="AA180" t="n">
+        <v>10</v>
+      </c>
+      <c r="AB180" t="n">
+        <v>1.06</v>
+      </c>
+      <c r="AC180" t="n">
+        <v>3.01</v>
+      </c>
+      <c r="AD180" t="n">
+        <v>3.36</v>
+      </c>
+      <c r="AE180" t="n">
+        <v>2.31</v>
+      </c>
+      <c r="AF180" t="n">
+        <v>1.08</v>
+      </c>
+      <c r="AG180" t="n">
+        <v>6.2</v>
+      </c>
+      <c r="AH180" t="n">
+        <v>1.33</v>
+      </c>
+      <c r="AI180" t="n">
+        <v>3</v>
+      </c>
+      <c r="AJ180" t="n">
+        <v>2.2</v>
+      </c>
+      <c r="AK180" t="n">
+        <v>1.6</v>
+      </c>
+      <c r="AL180" t="n">
+        <v>1.91</v>
+      </c>
+      <c r="AM180" t="n">
+        <v>1.8</v>
+      </c>
+      <c r="AN180" t="n">
+        <v>1.51</v>
+      </c>
+      <c r="AO180" t="n">
+        <v>1.28</v>
+      </c>
+      <c r="AP180" t="n">
+        <v>1.34</v>
+      </c>
+      <c r="AQ180" t="n">
+        <v>1.33</v>
+      </c>
+      <c r="AR180" t="n">
+        <v>2</v>
+      </c>
+      <c r="AS180" t="n">
+        <v>1.14</v>
+      </c>
+      <c r="AT180" t="n">
+        <v>2.17</v>
+      </c>
+      <c r="AU180" t="n">
+        <v>0.85</v>
+      </c>
+      <c r="AV180" t="n">
+        <v>1.36</v>
+      </c>
+      <c r="AW180" t="n">
+        <v>2.21</v>
+      </c>
+      <c r="AX180" t="n">
+        <v>1.95</v>
+      </c>
+      <c r="AY180" t="n">
+        <v>8.5</v>
+      </c>
+      <c r="AZ180" t="n">
+        <v>2.05</v>
+      </c>
+      <c r="BA180" t="n">
+        <v>1.11</v>
+      </c>
+      <c r="BB180" t="n">
+        <v>1.25</v>
+      </c>
+      <c r="BC180" t="n">
+        <v>1.48</v>
+      </c>
+      <c r="BD180" t="n">
+        <v>1.83</v>
+      </c>
+      <c r="BE180" t="n">
+        <v>2.29</v>
+      </c>
+      <c r="BF180" t="n">
+        <v>2</v>
+      </c>
+      <c r="BG180" t="n">
+        <v>7</v>
+      </c>
+      <c r="BH180" t="n">
+        <v>5</v>
+      </c>
+      <c r="BI180" t="n">
+        <v>4</v>
+      </c>
+      <c r="BJ180" t="n">
+        <v>7</v>
+      </c>
+      <c r="BK180" t="n">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="181">
+      <c r="A181" s="1" t="n">
+        <v>180</v>
+      </c>
+      <c r="B181" t="n">
+        <v>4554587</v>
+      </c>
+      <c r="C181" t="inlineStr">
+        <is>
+          <t>Argentina Primera División</t>
+        </is>
+      </c>
+      <c r="D181" t="inlineStr">
+        <is>
+          <t>2023</t>
+        </is>
+      </c>
+      <c r="E181" s="2" t="n">
+        <v>45040.79166666666</v>
+      </c>
+      <c r="F181" t="n">
+        <v>13</v>
+      </c>
+      <c r="G181" t="inlineStr">
+        <is>
+          <t>Racing Club</t>
+        </is>
+      </c>
+      <c r="H181" t="inlineStr">
+        <is>
+          <t>Atlético Tucumán</t>
+        </is>
+      </c>
+      <c r="I181" t="n">
+        <v>0</v>
+      </c>
+      <c r="J181" t="n">
+        <v>1</v>
+      </c>
+      <c r="K181" t="n">
+        <v>1</v>
+      </c>
+      <c r="L181" t="n">
+        <v>1</v>
+      </c>
+      <c r="M181" t="n">
+        <v>3</v>
+      </c>
+      <c r="N181" t="n">
+        <v>4</v>
+      </c>
+      <c r="O181" t="inlineStr">
+        <is>
+          <t>['82']</t>
+        </is>
+      </c>
+      <c r="P181" t="inlineStr">
+        <is>
+          <t>['39', '53', '68']</t>
+        </is>
+      </c>
+      <c r="Q181" t="n">
+        <v>6</v>
+      </c>
+      <c r="R181" t="n">
+        <v>6</v>
+      </c>
+      <c r="S181" t="n">
+        <v>12</v>
+      </c>
+      <c r="T181" t="n">
+        <v>2.4</v>
+      </c>
+      <c r="U181" t="n">
+        <v>2.21</v>
+      </c>
+      <c r="V181" t="n">
+        <v>5.3</v>
+      </c>
+      <c r="W181" t="n">
+        <v>1.45</v>
+      </c>
+      <c r="X181" t="n">
+        <v>2.8</v>
+      </c>
+      <c r="Y181" t="n">
+        <v>3.27</v>
+      </c>
+      <c r="Z181" t="n">
+        <v>1.26</v>
+      </c>
+      <c r="AA181" t="n">
+        <v>9</v>
+      </c>
+      <c r="AB181" t="n">
+        <v>1.07</v>
+      </c>
+      <c r="AC181" t="n">
+        <v>1.71</v>
+      </c>
+      <c r="AD181" t="n">
+        <v>3.59</v>
+      </c>
+      <c r="AE181" t="n">
+        <v>4.9</v>
+      </c>
+      <c r="AF181" t="n">
+        <v>1.04</v>
+      </c>
+      <c r="AG181" t="n">
+        <v>6.5</v>
+      </c>
+      <c r="AH181" t="n">
+        <v>1.36</v>
+      </c>
+      <c r="AI181" t="n">
+        <v>2.87</v>
+      </c>
+      <c r="AJ181" t="n">
+        <v>2.1</v>
+      </c>
+      <c r="AK181" t="n">
+        <v>1.65</v>
+      </c>
+      <c r="AL181" t="n">
+        <v>2</v>
+      </c>
+      <c r="AM181" t="n">
+        <v>1.75</v>
+      </c>
+      <c r="AN181" t="n">
+        <v>1.15</v>
+      </c>
+      <c r="AO181" t="n">
+        <v>1.29</v>
+      </c>
+      <c r="AP181" t="n">
+        <v>2.02</v>
+      </c>
+      <c r="AQ181" t="n">
+        <v>1.83</v>
+      </c>
+      <c r="AR181" t="n">
+        <v>0.67</v>
+      </c>
+      <c r="AS181" t="n">
+        <v>1.57</v>
+      </c>
+      <c r="AT181" t="n">
+        <v>1</v>
+      </c>
+      <c r="AU181" t="n">
+        <v>1.71</v>
+      </c>
+      <c r="AV181" t="n">
+        <v>1.22</v>
+      </c>
+      <c r="AW181" t="n">
+        <v>2.93</v>
+      </c>
+      <c r="AX181" t="n">
+        <v>1.45</v>
+      </c>
+      <c r="AY181" t="n">
+        <v>8.5</v>
+      </c>
+      <c r="AZ181" t="n">
+        <v>3.32</v>
+      </c>
+      <c r="BA181" t="n">
+        <v>1.35</v>
+      </c>
+      <c r="BB181" t="n">
+        <v>1.65</v>
+      </c>
+      <c r="BC181" t="n">
+        <v>2.11</v>
+      </c>
+      <c r="BD181" t="n">
+        <v>2.76</v>
+      </c>
+      <c r="BE181" t="n">
+        <v>3.74</v>
+      </c>
+      <c r="BF181" t="n">
+        <v>4</v>
+      </c>
+      <c r="BG181" t="n">
+        <v>5</v>
+      </c>
+      <c r="BH181" t="n">
+        <v>9</v>
+      </c>
+      <c r="BI181" t="n">
+        <v>4</v>
+      </c>
+      <c r="BJ181" t="n">
+        <v>13</v>
+      </c>
+      <c r="BK181" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="182">
+      <c r="A182" s="1" t="n">
+        <v>181</v>
+      </c>
+      <c r="B182" t="n">
+        <v>4554584</v>
+      </c>
+      <c r="C182" t="inlineStr">
+        <is>
+          <t>Argentina Primera División</t>
+        </is>
+      </c>
+      <c r="D182" t="inlineStr">
+        <is>
+          <t>2023</t>
+        </is>
+      </c>
+      <c r="E182" s="2" t="n">
+        <v>45040.89583333334</v>
+      </c>
+      <c r="F182" t="n">
+        <v>13</v>
+      </c>
+      <c r="G182" t="inlineStr">
+        <is>
+          <t>Argentinos Juniors</t>
+        </is>
+      </c>
+      <c r="H182" t="inlineStr">
+        <is>
+          <t>Gimnasia La Plata</t>
+        </is>
+      </c>
+      <c r="I182" t="n">
+        <v>1</v>
+      </c>
+      <c r="J182" t="n">
+        <v>2</v>
+      </c>
+      <c r="K182" t="n">
+        <v>3</v>
+      </c>
+      <c r="L182" t="n">
+        <v>2</v>
+      </c>
+      <c r="M182" t="n">
+        <v>4</v>
+      </c>
+      <c r="N182" t="n">
+        <v>6</v>
+      </c>
+      <c r="O182" t="inlineStr">
+        <is>
+          <t>['21', '58']</t>
+        </is>
+      </c>
+      <c r="P182" t="inlineStr">
+        <is>
+          <t>['9', '23', '71', '90+5']</t>
+        </is>
+      </c>
+      <c r="Q182" t="n">
+        <v>12</v>
+      </c>
+      <c r="R182" t="n">
+        <v>4</v>
+      </c>
+      <c r="S182" t="n">
+        <v>16</v>
+      </c>
+      <c r="T182" t="n">
+        <v>2.05</v>
+      </c>
+      <c r="U182" t="n">
+        <v>2.2</v>
+      </c>
+      <c r="V182" t="n">
+        <v>7</v>
+      </c>
+      <c r="W182" t="n">
+        <v>1.44</v>
+      </c>
+      <c r="X182" t="n">
+        <v>2.63</v>
+      </c>
+      <c r="Y182" t="n">
+        <v>3.25</v>
+      </c>
+      <c r="Z182" t="n">
+        <v>1.33</v>
+      </c>
+      <c r="AA182" t="n">
+        <v>9</v>
+      </c>
+      <c r="AB182" t="n">
+        <v>1.07</v>
+      </c>
+      <c r="AC182" t="n">
+        <v>1.44</v>
+      </c>
+      <c r="AD182" t="n">
+        <v>4.11</v>
+      </c>
+      <c r="AE182" t="n">
+        <v>7.4</v>
+      </c>
+      <c r="AF182" t="n">
+        <v>1.05</v>
+      </c>
+      <c r="AG182" t="n">
+        <v>10.25</v>
+      </c>
+      <c r="AH182" t="n">
+        <v>1.34</v>
+      </c>
+      <c r="AI182" t="n">
+        <v>2.95</v>
+      </c>
+      <c r="AJ182" t="n">
+        <v>2.05</v>
+      </c>
+      <c r="AK182" t="n">
+        <v>1.7</v>
+      </c>
+      <c r="AL182" t="n">
+        <v>2.2</v>
+      </c>
+      <c r="AM182" t="n">
+        <v>1.62</v>
+      </c>
+      <c r="AN182" t="n">
+        <v>1.1</v>
+      </c>
+      <c r="AO182" t="n">
+        <v>1.21</v>
+      </c>
+      <c r="AP182" t="n">
+        <v>2.48</v>
+      </c>
+      <c r="AQ182" t="n">
+        <v>2.6</v>
+      </c>
+      <c r="AR182" t="n">
+        <v>0.17</v>
+      </c>
+      <c r="AS182" t="n">
+        <v>2.17</v>
+      </c>
+      <c r="AT182" t="n">
+        <v>0.57</v>
+      </c>
+      <c r="AU182" t="n">
+        <v>1.88</v>
+      </c>
+      <c r="AV182" t="n">
+        <v>1.21</v>
+      </c>
+      <c r="AW182" t="n">
+        <v>3.09</v>
+      </c>
+      <c r="AX182" t="n">
+        <v>1.23</v>
+      </c>
+      <c r="AY182" t="n">
+        <v>10</v>
+      </c>
+      <c r="AZ182" t="n">
+        <v>5.15</v>
+      </c>
+      <c r="BA182" t="n">
+        <v>1.26</v>
+      </c>
+      <c r="BB182" t="n">
+        <v>1.5</v>
+      </c>
+      <c r="BC182" t="n">
+        <v>1.95</v>
+      </c>
+      <c r="BD182" t="n">
+        <v>2.39</v>
+      </c>
+      <c r="BE182" t="n">
+        <v>3.2</v>
+      </c>
+      <c r="BF182" t="n">
+        <v>8</v>
+      </c>
+      <c r="BG182" t="n">
+        <v>9</v>
+      </c>
+      <c r="BH182" t="n">
+        <v>8</v>
+      </c>
+      <c r="BI182" t="n">
+        <v>2</v>
+      </c>
+      <c r="BJ182" t="n">
+        <v>16</v>
+      </c>
+      <c r="BK182" t="n">
+        <v>11</v>
       </c>
     </row>
   </sheetData>

--- a/Bases_de_Dados_(2022-2023)/Argentina Primera División_2023.xlsx
+++ b/Bases_de_Dados_(2022-2023)/Argentina Primera División_2023.xlsx
@@ -429,7 +429,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:BK182"/>
+  <dimension ref="A1:BK183"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1106,7 +1106,7 @@
         <v>1.57</v>
       </c>
       <c r="AT3" t="n">
-        <v>0.83</v>
+        <v>0.71</v>
       </c>
       <c r="AU3" t="n">
         <v>0</v>
@@ -3742,7 +3742,7 @@
         <v>0</v>
       </c>
       <c r="AS16" t="n">
-        <v>1.4</v>
+        <v>1.67</v>
       </c>
       <c r="AT16" t="n">
         <v>1</v>
@@ -8617,7 +8617,7 @@
         <v>1.43</v>
       </c>
       <c r="AT40" t="n">
-        <v>0.83</v>
+        <v>0.71</v>
       </c>
       <c r="AU40" t="n">
         <v>1.76</v>
@@ -10238,7 +10238,7 @@
         <v>1.5</v>
       </c>
       <c r="AS48" t="n">
-        <v>1.4</v>
+        <v>1.67</v>
       </c>
       <c r="AT48" t="n">
         <v>2.57</v>
@@ -13692,7 +13692,7 @@
         <v>1</v>
       </c>
       <c r="AT65" t="n">
-        <v>0.83</v>
+        <v>0.71</v>
       </c>
       <c r="AU65" t="n">
         <v>2.06</v>
@@ -16937,7 +16937,7 @@
         <v>0</v>
       </c>
       <c r="AS81" t="n">
-        <v>1.4</v>
+        <v>1.67</v>
       </c>
       <c r="AT81" t="n">
         <v>0.71</v>
@@ -19782,7 +19782,7 @@
         <v>1.57</v>
       </c>
       <c r="AT95" t="n">
-        <v>0.83</v>
+        <v>0.71</v>
       </c>
       <c r="AU95" t="n">
         <v>1.86</v>
@@ -25060,7 +25060,7 @@
         <v>1.57</v>
       </c>
       <c r="AT121" t="n">
-        <v>0.83</v>
+        <v>0.71</v>
       </c>
       <c r="AU121" t="n">
         <v>1.76</v>
@@ -25260,7 +25260,7 @@
         <v>1.75</v>
       </c>
       <c r="AS122" t="n">
-        <v>1.4</v>
+        <v>1.67</v>
       </c>
       <c r="AT122" t="n">
         <v>1.29</v>
@@ -30541,7 +30541,7 @@
         <v>1.83</v>
       </c>
       <c r="AT148" t="n">
-        <v>0.83</v>
+        <v>0.71</v>
       </c>
       <c r="AU148" t="n">
         <v>1.09</v>
@@ -31959,7 +31959,7 @@
         <v>1.2</v>
       </c>
       <c r="AS155" t="n">
-        <v>1.4</v>
+        <v>1.67</v>
       </c>
       <c r="AT155" t="n">
         <v>0.86</v>
@@ -37495,6 +37495,209 @@
       </c>
       <c r="BK182" t="n">
         <v>11</v>
+      </c>
+    </row>
+    <row r="183">
+      <c r="A183" s="1" t="n">
+        <v>182</v>
+      </c>
+      <c r="B183" t="n">
+        <v>4554583</v>
+      </c>
+      <c r="C183" t="inlineStr">
+        <is>
+          <t>Argentina Primera División</t>
+        </is>
+      </c>
+      <c r="D183" t="inlineStr">
+        <is>
+          <t>2023</t>
+        </is>
+      </c>
+      <c r="E183" s="2" t="n">
+        <v>45041.8125</v>
+      </c>
+      <c r="F183" t="n">
+        <v>13</v>
+      </c>
+      <c r="G183" t="inlineStr">
+        <is>
+          <t>Tigre</t>
+        </is>
+      </c>
+      <c r="H183" t="inlineStr">
+        <is>
+          <t>Huracán</t>
+        </is>
+      </c>
+      <c r="I183" t="n">
+        <v>1</v>
+      </c>
+      <c r="J183" t="n">
+        <v>0</v>
+      </c>
+      <c r="K183" t="n">
+        <v>1</v>
+      </c>
+      <c r="L183" t="n">
+        <v>1</v>
+      </c>
+      <c r="M183" t="n">
+        <v>0</v>
+      </c>
+      <c r="N183" t="n">
+        <v>1</v>
+      </c>
+      <c r="O183" t="inlineStr">
+        <is>
+          <t>['44']</t>
+        </is>
+      </c>
+      <c r="P183" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="Q183" t="n">
+        <v>5</v>
+      </c>
+      <c r="R183" t="n">
+        <v>6</v>
+      </c>
+      <c r="S183" t="n">
+        <v>11</v>
+      </c>
+      <c r="T183" t="n">
+        <v>3.2</v>
+      </c>
+      <c r="U183" t="n">
+        <v>2</v>
+      </c>
+      <c r="V183" t="n">
+        <v>3.75</v>
+      </c>
+      <c r="W183" t="n">
+        <v>1.5</v>
+      </c>
+      <c r="X183" t="n">
+        <v>2.5</v>
+      </c>
+      <c r="Y183" t="n">
+        <v>3.4</v>
+      </c>
+      <c r="Z183" t="n">
+        <v>1.3</v>
+      </c>
+      <c r="AA183" t="n">
+        <v>10</v>
+      </c>
+      <c r="AB183" t="n">
+        <v>1.06</v>
+      </c>
+      <c r="AC183" t="n">
+        <v>2.44</v>
+      </c>
+      <c r="AD183" t="n">
+        <v>3.07</v>
+      </c>
+      <c r="AE183" t="n">
+        <v>3.04</v>
+      </c>
+      <c r="AF183" t="n">
+        <v>1.08</v>
+      </c>
+      <c r="AG183" t="n">
+        <v>8.5</v>
+      </c>
+      <c r="AH183" t="n">
+        <v>1.38</v>
+      </c>
+      <c r="AI183" t="n">
+        <v>2.8</v>
+      </c>
+      <c r="AJ183" t="n">
+        <v>2.2</v>
+      </c>
+      <c r="AK183" t="n">
+        <v>1.58</v>
+      </c>
+      <c r="AL183" t="n">
+        <v>1.95</v>
+      </c>
+      <c r="AM183" t="n">
+        <v>1.8</v>
+      </c>
+      <c r="AN183" t="n">
+        <v>1.4</v>
+      </c>
+      <c r="AO183" t="n">
+        <v>1.3</v>
+      </c>
+      <c r="AP183" t="n">
+        <v>1.55</v>
+      </c>
+      <c r="AQ183" t="n">
+        <v>1.4</v>
+      </c>
+      <c r="AR183" t="n">
+        <v>0.83</v>
+      </c>
+      <c r="AS183" t="n">
+        <v>1.67</v>
+      </c>
+      <c r="AT183" t="n">
+        <v>0.71</v>
+      </c>
+      <c r="AU183" t="n">
+        <v>1.74</v>
+      </c>
+      <c r="AV183" t="n">
+        <v>1.15</v>
+      </c>
+      <c r="AW183" t="n">
+        <v>2.89</v>
+      </c>
+      <c r="AX183" t="n">
+        <v>1.95</v>
+      </c>
+      <c r="AY183" t="n">
+        <v>7.5</v>
+      </c>
+      <c r="AZ183" t="n">
+        <v>2.1</v>
+      </c>
+      <c r="BA183" t="n">
+        <v>1.33</v>
+      </c>
+      <c r="BB183" t="n">
+        <v>1.62</v>
+      </c>
+      <c r="BC183" t="n">
+        <v>2.08</v>
+      </c>
+      <c r="BD183" t="n">
+        <v>2.76</v>
+      </c>
+      <c r="BE183" t="n">
+        <v>3.74</v>
+      </c>
+      <c r="BF183" t="n">
+        <v>5</v>
+      </c>
+      <c r="BG183" t="n">
+        <v>2</v>
+      </c>
+      <c r="BH183" t="n">
+        <v>6</v>
+      </c>
+      <c r="BI183" t="n">
+        <v>12</v>
+      </c>
+      <c r="BJ183" t="n">
+        <v>11</v>
+      </c>
+      <c r="BK183" t="n">
+        <v>14</v>
       </c>
     </row>
   </sheetData>

--- a/Bases_de_Dados_(2022-2023)/Argentina Primera División_2023.xlsx
+++ b/Bases_de_Dados_(2022-2023)/Argentina Primera División_2023.xlsx
@@ -429,7 +429,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:BK183"/>
+  <dimension ref="A1:BK188"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -903,7 +903,7 @@
         <v>2.43</v>
       </c>
       <c r="AT2" t="n">
-        <v>0.71</v>
+        <v>0.75</v>
       </c>
       <c r="AU2" t="n">
         <v>0</v>
@@ -1309,7 +1309,7 @@
         <v>2.71</v>
       </c>
       <c r="AT4" t="n">
-        <v>0.57</v>
+        <v>0.5</v>
       </c>
       <c r="AU4" t="n">
         <v>0</v>
@@ -1918,7 +1918,7 @@
         <v>1.43</v>
       </c>
       <c r="AT7" t="n">
-        <v>2.57</v>
+        <v>2.38</v>
       </c>
       <c r="AU7" t="n">
         <v>0</v>
@@ -2118,7 +2118,7 @@
         <v>0</v>
       </c>
       <c r="AS8" t="n">
-        <v>1.43</v>
+        <v>1.25</v>
       </c>
       <c r="AT8" t="n">
         <v>0.71</v>
@@ -3136,7 +3136,7 @@
         <v>1.14</v>
       </c>
       <c r="AT13" t="n">
-        <v>1.29</v>
+        <v>1.25</v>
       </c>
       <c r="AU13" t="n">
         <v>0</v>
@@ -3945,7 +3945,7 @@
         <v>0</v>
       </c>
       <c r="AS17" t="n">
-        <v>2.17</v>
+        <v>2</v>
       </c>
       <c r="AT17" t="n">
         <v>0.83</v>
@@ -4151,7 +4151,7 @@
         <v>1.17</v>
       </c>
       <c r="AT18" t="n">
-        <v>1.67</v>
+        <v>1.86</v>
       </c>
       <c r="AU18" t="n">
         <v>0</v>
@@ -4351,7 +4351,7 @@
         <v>0</v>
       </c>
       <c r="AS19" t="n">
-        <v>1.5</v>
+        <v>1.43</v>
       </c>
       <c r="AT19" t="n">
         <v>0.83</v>
@@ -4557,7 +4557,7 @@
         <v>1.83</v>
       </c>
       <c r="AT20" t="n">
-        <v>2.57</v>
+        <v>2.38</v>
       </c>
       <c r="AU20" t="n">
         <v>0</v>
@@ -6381,7 +6381,7 @@
         <v>0</v>
       </c>
       <c r="AS29" t="n">
-        <v>1.33</v>
+        <v>1.57</v>
       </c>
       <c r="AT29" t="n">
         <v>0.83</v>
@@ -6993,7 +6993,7 @@
         <v>2.71</v>
       </c>
       <c r="AT32" t="n">
-        <v>1.29</v>
+        <v>1.25</v>
       </c>
       <c r="AU32" t="n">
         <v>1.4</v>
@@ -7396,7 +7396,7 @@
         <v>0</v>
       </c>
       <c r="AS34" t="n">
-        <v>1.43</v>
+        <v>1.25</v>
       </c>
       <c r="AT34" t="n">
         <v>1</v>
@@ -8008,7 +8008,7 @@
         <v>2.43</v>
       </c>
       <c r="AT37" t="n">
-        <v>0.57</v>
+        <v>0.5</v>
       </c>
       <c r="AU37" t="n">
         <v>1.18</v>
@@ -8414,7 +8414,7 @@
         <v>2.5</v>
       </c>
       <c r="AT39" t="n">
-        <v>0.71</v>
+        <v>0.75</v>
       </c>
       <c r="AU39" t="n">
         <v>0</v>
@@ -9832,7 +9832,7 @@
         <v>3</v>
       </c>
       <c r="AS46" t="n">
-        <v>1.33</v>
+        <v>1.57</v>
       </c>
       <c r="AT46" t="n">
         <v>0.83</v>
@@ -10241,7 +10241,7 @@
         <v>1.67</v>
       </c>
       <c r="AT48" t="n">
-        <v>2.57</v>
+        <v>2.38</v>
       </c>
       <c r="AU48" t="n">
         <v>2.98</v>
@@ -10647,7 +10647,7 @@
         <v>1.83</v>
       </c>
       <c r="AT50" t="n">
-        <v>1.67</v>
+        <v>1.86</v>
       </c>
       <c r="AU50" t="n">
         <v>1.84</v>
@@ -10847,7 +10847,7 @@
         <v>0</v>
       </c>
       <c r="AS51" t="n">
-        <v>2.17</v>
+        <v>2</v>
       </c>
       <c r="AT51" t="n">
         <v>0.83</v>
@@ -11862,7 +11862,7 @@
         <v>0</v>
       </c>
       <c r="AS56" t="n">
-        <v>1.5</v>
+        <v>1.43</v>
       </c>
       <c r="AT56" t="n">
         <v>1.33</v>
@@ -12474,7 +12474,7 @@
         <v>2.43</v>
       </c>
       <c r="AT59" t="n">
-        <v>1.29</v>
+        <v>1.25</v>
       </c>
       <c r="AU59" t="n">
         <v>2.03</v>
@@ -12877,7 +12877,7 @@
         <v>3</v>
       </c>
       <c r="AS61" t="n">
-        <v>1.43</v>
+        <v>1.25</v>
       </c>
       <c r="AT61" t="n">
         <v>1.83</v>
@@ -13895,7 +13895,7 @@
         <v>2.5</v>
       </c>
       <c r="AT66" t="n">
-        <v>0.57</v>
+        <v>0.5</v>
       </c>
       <c r="AU66" t="n">
         <v>1.25</v>
@@ -14910,7 +14910,7 @@
         <v>1.43</v>
       </c>
       <c r="AT71" t="n">
-        <v>0.71</v>
+        <v>0.75</v>
       </c>
       <c r="AU71" t="n">
         <v>1.42</v>
@@ -15113,7 +15113,7 @@
         <v>0.83</v>
       </c>
       <c r="AT72" t="n">
-        <v>1.67</v>
+        <v>1.86</v>
       </c>
       <c r="AU72" t="n">
         <v>1.44</v>
@@ -15313,7 +15313,7 @@
         <v>0.5</v>
       </c>
       <c r="AS73" t="n">
-        <v>1.5</v>
+        <v>1.43</v>
       </c>
       <c r="AT73" t="n">
         <v>1</v>
@@ -15516,7 +15516,7 @@
         <v>0.5</v>
       </c>
       <c r="AS74" t="n">
-        <v>1.43</v>
+        <v>1.25</v>
       </c>
       <c r="AT74" t="n">
         <v>0.83</v>
@@ -15925,7 +15925,7 @@
         <v>2.17</v>
       </c>
       <c r="AT76" t="n">
-        <v>2.57</v>
+        <v>2.38</v>
       </c>
       <c r="AU76" t="n">
         <v>1.43</v>
@@ -16328,7 +16328,7 @@
         <v>1.5</v>
       </c>
       <c r="AS78" t="n">
-        <v>2.17</v>
+        <v>2</v>
       </c>
       <c r="AT78" t="n">
         <v>0.83</v>
@@ -16734,7 +16734,7 @@
         <v>1.5</v>
       </c>
       <c r="AS80" t="n">
-        <v>1.33</v>
+        <v>1.57</v>
       </c>
       <c r="AT80" t="n">
         <v>1.33</v>
@@ -16940,7 +16940,7 @@
         <v>1.67</v>
       </c>
       <c r="AT81" t="n">
-        <v>0.71</v>
+        <v>0.75</v>
       </c>
       <c r="AU81" t="n">
         <v>2.17</v>
@@ -18158,7 +18158,7 @@
         <v>2.17</v>
       </c>
       <c r="AT87" t="n">
-        <v>0.57</v>
+        <v>0.5</v>
       </c>
       <c r="AU87" t="n">
         <v>1.81</v>
@@ -19579,7 +19579,7 @@
         <v>2.5</v>
       </c>
       <c r="AT94" t="n">
-        <v>1.29</v>
+        <v>1.25</v>
       </c>
       <c r="AU94" t="n">
         <v>1.81</v>
@@ -21403,7 +21403,7 @@
         <v>2.33</v>
       </c>
       <c r="AS103" t="n">
-        <v>1.43</v>
+        <v>1.25</v>
       </c>
       <c r="AT103" t="n">
         <v>2.17</v>
@@ -22015,7 +22015,7 @@
         <v>1.67</v>
       </c>
       <c r="AT106" t="n">
-        <v>1.67</v>
+        <v>1.86</v>
       </c>
       <c r="AU106" t="n">
         <v>1.56</v>
@@ -22621,10 +22621,10 @@
         <v>2.25</v>
       </c>
       <c r="AS109" t="n">
-        <v>1.5</v>
+        <v>1.43</v>
       </c>
       <c r="AT109" t="n">
-        <v>2.57</v>
+        <v>2.38</v>
       </c>
       <c r="AU109" t="n">
         <v>1.99</v>
@@ -22824,7 +22824,7 @@
         <v>1.33</v>
       </c>
       <c r="AS110" t="n">
-        <v>2.17</v>
+        <v>2</v>
       </c>
       <c r="AT110" t="n">
         <v>1.33</v>
@@ -23030,7 +23030,7 @@
         <v>2.17</v>
       </c>
       <c r="AT111" t="n">
-        <v>0.71</v>
+        <v>0.75</v>
       </c>
       <c r="AU111" t="n">
         <v>1.37</v>
@@ -23230,7 +23230,7 @@
         <v>0.33</v>
       </c>
       <c r="AS112" t="n">
-        <v>1.33</v>
+        <v>1.57</v>
       </c>
       <c r="AT112" t="n">
         <v>1</v>
@@ -23842,7 +23842,7 @@
         <v>2.17</v>
       </c>
       <c r="AT115" t="n">
-        <v>1.29</v>
+        <v>1.25</v>
       </c>
       <c r="AU115" t="n">
         <v>1.94</v>
@@ -26278,7 +26278,7 @@
         <v>1.43</v>
       </c>
       <c r="AT127" t="n">
-        <v>0.57</v>
+        <v>0.5</v>
       </c>
       <c r="AU127" t="n">
         <v>1.29</v>
@@ -26478,7 +26478,7 @@
         <v>1.75</v>
       </c>
       <c r="AS128" t="n">
-        <v>1.43</v>
+        <v>1.25</v>
       </c>
       <c r="AT128" t="n">
         <v>1.17</v>
@@ -26684,7 +26684,7 @@
         <v>2.17</v>
       </c>
       <c r="AT129" t="n">
-        <v>0.57</v>
+        <v>0.5</v>
       </c>
       <c r="AU129" t="n">
         <v>1.27</v>
@@ -27290,10 +27290,10 @@
         <v>0.8</v>
       </c>
       <c r="AS132" t="n">
-        <v>1.5</v>
+        <v>1.43</v>
       </c>
       <c r="AT132" t="n">
-        <v>0.71</v>
+        <v>0.75</v>
       </c>
       <c r="AU132" t="n">
         <v>1.81</v>
@@ -28308,7 +28308,7 @@
         <v>0.5</v>
       </c>
       <c r="AT137" t="n">
-        <v>1.67</v>
+        <v>1.86</v>
       </c>
       <c r="AU137" t="n">
         <v>1.61</v>
@@ -28711,7 +28711,7 @@
         <v>1</v>
       </c>
       <c r="AS139" t="n">
-        <v>2.17</v>
+        <v>2</v>
       </c>
       <c r="AT139" t="n">
         <v>1</v>
@@ -28914,10 +28914,10 @@
         <v>2.4</v>
       </c>
       <c r="AS140" t="n">
-        <v>1.33</v>
+        <v>1.57</v>
       </c>
       <c r="AT140" t="n">
-        <v>2.57</v>
+        <v>2.38</v>
       </c>
       <c r="AU140" t="n">
         <v>1.52</v>
@@ -31353,7 +31353,7 @@
         <v>1.17</v>
       </c>
       <c r="AT152" t="n">
-        <v>1.29</v>
+        <v>1.25</v>
       </c>
       <c r="AU152" t="n">
         <v>1.17</v>
@@ -32368,7 +32368,7 @@
         <v>1.14</v>
       </c>
       <c r="AT157" t="n">
-        <v>1.67</v>
+        <v>1.86</v>
       </c>
       <c r="AU157" t="n">
         <v>1.74</v>
@@ -32568,10 +32568,10 @@
         <v>0.67</v>
       </c>
       <c r="AS158" t="n">
-        <v>1.33</v>
+        <v>1.57</v>
       </c>
       <c r="AT158" t="n">
-        <v>0.71</v>
+        <v>0.75</v>
       </c>
       <c r="AU158" t="n">
         <v>1.37</v>
@@ -33583,10 +33583,10 @@
         <v>2.5</v>
       </c>
       <c r="AS163" t="n">
-        <v>2.17</v>
+        <v>2</v>
       </c>
       <c r="AT163" t="n">
-        <v>2.57</v>
+        <v>2.38</v>
       </c>
       <c r="AU163" t="n">
         <v>1.07</v>
@@ -33989,7 +33989,7 @@
         <v>1.2</v>
       </c>
       <c r="AS165" t="n">
-        <v>1.43</v>
+        <v>1.25</v>
       </c>
       <c r="AT165" t="n">
         <v>1.17</v>
@@ -34395,10 +34395,10 @@
         <v>0.67</v>
       </c>
       <c r="AS167" t="n">
-        <v>1.5</v>
+        <v>1.43</v>
       </c>
       <c r="AT167" t="n">
-        <v>0.57</v>
+        <v>0.5</v>
       </c>
       <c r="AU167" t="n">
         <v>1.79</v>
@@ -35819,7 +35819,7 @@
         <v>1.43</v>
       </c>
       <c r="AT174" t="n">
-        <v>1.29</v>
+        <v>1.25</v>
       </c>
       <c r="AU174" t="n">
         <v>1.36</v>
@@ -37698,6 +37698,1021 @@
       </c>
       <c r="BK183" t="n">
         <v>14</v>
+      </c>
+    </row>
+    <row r="184">
+      <c r="A184" s="1" t="n">
+        <v>183</v>
+      </c>
+      <c r="B184" t="n">
+        <v>4554596</v>
+      </c>
+      <c r="C184" t="inlineStr">
+        <is>
+          <t>Argentina Primera División</t>
+        </is>
+      </c>
+      <c r="D184" t="inlineStr">
+        <is>
+          <t>2023</t>
+        </is>
+      </c>
+      <c r="E184" s="2" t="n">
+        <v>45043.83333333334</v>
+      </c>
+      <c r="F184" t="n">
+        <v>14</v>
+      </c>
+      <c r="G184" t="inlineStr">
+        <is>
+          <t>Platense</t>
+        </is>
+      </c>
+      <c r="H184" t="inlineStr">
+        <is>
+          <t>Estudiantes</t>
+        </is>
+      </c>
+      <c r="I184" t="n">
+        <v>1</v>
+      </c>
+      <c r="J184" t="n">
+        <v>2</v>
+      </c>
+      <c r="K184" t="n">
+        <v>3</v>
+      </c>
+      <c r="L184" t="n">
+        <v>1</v>
+      </c>
+      <c r="M184" t="n">
+        <v>2</v>
+      </c>
+      <c r="N184" t="n">
+        <v>3</v>
+      </c>
+      <c r="O184" t="inlineStr">
+        <is>
+          <t>['40']</t>
+        </is>
+      </c>
+      <c r="P184" t="inlineStr">
+        <is>
+          <t>['3', '31']</t>
+        </is>
+      </c>
+      <c r="Q184" t="n">
+        <v>5</v>
+      </c>
+      <c r="R184" t="n">
+        <v>5</v>
+      </c>
+      <c r="S184" t="n">
+        <v>10</v>
+      </c>
+      <c r="T184" t="n">
+        <v>3.6</v>
+      </c>
+      <c r="U184" t="n">
+        <v>1.83</v>
+      </c>
+      <c r="V184" t="n">
+        <v>3</v>
+      </c>
+      <c r="W184" t="n">
+        <v>1.51</v>
+      </c>
+      <c r="X184" t="n">
+        <v>2.3</v>
+      </c>
+      <c r="Y184" t="n">
+        <v>3.3</v>
+      </c>
+      <c r="Z184" t="n">
+        <v>1.27</v>
+      </c>
+      <c r="AA184" t="n">
+        <v>9.75</v>
+      </c>
+      <c r="AB184" t="n">
+        <v>1.04</v>
+      </c>
+      <c r="AC184" t="n">
+        <v>3.02</v>
+      </c>
+      <c r="AD184" t="n">
+        <v>3.03</v>
+      </c>
+      <c r="AE184" t="n">
+        <v>2.48</v>
+      </c>
+      <c r="AF184" t="n">
+        <v>1.08</v>
+      </c>
+      <c r="AG184" t="n">
+        <v>7.5</v>
+      </c>
+      <c r="AH184" t="n">
+        <v>1.45</v>
+      </c>
+      <c r="AI184" t="n">
+        <v>2.5</v>
+      </c>
+      <c r="AJ184" t="n">
+        <v>2.37</v>
+      </c>
+      <c r="AK184" t="n">
+        <v>1.5</v>
+      </c>
+      <c r="AL184" t="n">
+        <v>1.95</v>
+      </c>
+      <c r="AM184" t="n">
+        <v>1.75</v>
+      </c>
+      <c r="AN184" t="n">
+        <v>1.5</v>
+      </c>
+      <c r="AO184" t="n">
+        <v>1.32</v>
+      </c>
+      <c r="AP184" t="n">
+        <v>1.3</v>
+      </c>
+      <c r="AQ184" t="n">
+        <v>1.43</v>
+      </c>
+      <c r="AR184" t="n">
+        <v>1.67</v>
+      </c>
+      <c r="AS184" t="n">
+        <v>1.25</v>
+      </c>
+      <c r="AT184" t="n">
+        <v>1.86</v>
+      </c>
+      <c r="AU184" t="n">
+        <v>1.54</v>
+      </c>
+      <c r="AV184" t="n">
+        <v>1.34</v>
+      </c>
+      <c r="AW184" t="n">
+        <v>2.88</v>
+      </c>
+      <c r="AX184" t="n">
+        <v>2</v>
+      </c>
+      <c r="AY184" t="n">
+        <v>7.5</v>
+      </c>
+      <c r="AZ184" t="n">
+        <v>2.1</v>
+      </c>
+      <c r="BA184" t="n">
+        <v>1.36</v>
+      </c>
+      <c r="BB184" t="n">
+        <v>1.66</v>
+      </c>
+      <c r="BC184" t="n">
+        <v>2.12</v>
+      </c>
+      <c r="BD184" t="n">
+        <v>2.9</v>
+      </c>
+      <c r="BE184" t="n">
+        <v>4.1</v>
+      </c>
+      <c r="BF184" t="n">
+        <v>4</v>
+      </c>
+      <c r="BG184" t="n">
+        <v>9</v>
+      </c>
+      <c r="BH184" t="n">
+        <v>2</v>
+      </c>
+      <c r="BI184" t="n">
+        <v>4</v>
+      </c>
+      <c r="BJ184" t="n">
+        <v>6</v>
+      </c>
+      <c r="BK184" t="n">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="185">
+      <c r="A185" s="1" t="n">
+        <v>184</v>
+      </c>
+      <c r="B185" t="n">
+        <v>5019510</v>
+      </c>
+      <c r="C185" t="inlineStr">
+        <is>
+          <t>Argentina Primera División</t>
+        </is>
+      </c>
+      <c r="D185" t="inlineStr">
+        <is>
+          <t>2023</t>
+        </is>
+      </c>
+      <c r="E185" s="2" t="n">
+        <v>45043.83333333334</v>
+      </c>
+      <c r="F185" t="n">
+        <v>14</v>
+      </c>
+      <c r="G185" t="inlineStr">
+        <is>
+          <t>Sarmiento</t>
+        </is>
+      </c>
+      <c r="H185" t="inlineStr">
+        <is>
+          <t>Godoy Cruz</t>
+        </is>
+      </c>
+      <c r="I185" t="n">
+        <v>1</v>
+      </c>
+      <c r="J185" t="n">
+        <v>0</v>
+      </c>
+      <c r="K185" t="n">
+        <v>1</v>
+      </c>
+      <c r="L185" t="n">
+        <v>1</v>
+      </c>
+      <c r="M185" t="n">
+        <v>1</v>
+      </c>
+      <c r="N185" t="n">
+        <v>2</v>
+      </c>
+      <c r="O185" t="inlineStr">
+        <is>
+          <t>['15']</t>
+        </is>
+      </c>
+      <c r="P185" t="inlineStr">
+        <is>
+          <t>['61']</t>
+        </is>
+      </c>
+      <c r="Q185" t="n">
+        <v>4</v>
+      </c>
+      <c r="R185" t="n">
+        <v>6</v>
+      </c>
+      <c r="S185" t="n">
+        <v>10</v>
+      </c>
+      <c r="T185" t="n">
+        <v>2.95</v>
+      </c>
+      <c r="U185" t="n">
+        <v>1.99</v>
+      </c>
+      <c r="V185" t="n">
+        <v>3.98</v>
+      </c>
+      <c r="W185" t="n">
+        <v>1.5</v>
+      </c>
+      <c r="X185" t="n">
+        <v>2.49</v>
+      </c>
+      <c r="Y185" t="n">
+        <v>3.34</v>
+      </c>
+      <c r="Z185" t="n">
+        <v>1.3</v>
+      </c>
+      <c r="AA185" t="n">
+        <v>9</v>
+      </c>
+      <c r="AB185" t="n">
+        <v>1.05</v>
+      </c>
+      <c r="AC185" t="n">
+        <v>2.31</v>
+      </c>
+      <c r="AD185" t="n">
+        <v>3.14</v>
+      </c>
+      <c r="AE185" t="n">
+        <v>3.21</v>
+      </c>
+      <c r="AF185" t="n">
+        <v>1.05</v>
+      </c>
+      <c r="AG185" t="n">
+        <v>7.2</v>
+      </c>
+      <c r="AH185" t="n">
+        <v>1.4</v>
+      </c>
+      <c r="AI185" t="n">
+        <v>2.68</v>
+      </c>
+      <c r="AJ185" t="n">
+        <v>2.25</v>
+      </c>
+      <c r="AK185" t="n">
+        <v>1.55</v>
+      </c>
+      <c r="AL185" t="n">
+        <v>1.97</v>
+      </c>
+      <c r="AM185" t="n">
+        <v>1.78</v>
+      </c>
+      <c r="AN185" t="n">
+        <v>1.34</v>
+      </c>
+      <c r="AO185" t="n">
+        <v>1.35</v>
+      </c>
+      <c r="AP185" t="n">
+        <v>1.61</v>
+      </c>
+      <c r="AQ185" t="n">
+        <v>1.5</v>
+      </c>
+      <c r="AR185" t="n">
+        <v>1.29</v>
+      </c>
+      <c r="AS185" t="n">
+        <v>1.43</v>
+      </c>
+      <c r="AT185" t="n">
+        <v>1.25</v>
+      </c>
+      <c r="AU185" t="n">
+        <v>1.75</v>
+      </c>
+      <c r="AV185" t="n">
+        <v>1.24</v>
+      </c>
+      <c r="AW185" t="n">
+        <v>2.99</v>
+      </c>
+      <c r="AX185" t="n">
+        <v>1.91</v>
+      </c>
+      <c r="AY185" t="n">
+        <v>8</v>
+      </c>
+      <c r="AZ185" t="n">
+        <v>2.2</v>
+      </c>
+      <c r="BA185" t="n">
+        <v>1.22</v>
+      </c>
+      <c r="BB185" t="n">
+        <v>1.41</v>
+      </c>
+      <c r="BC185" t="n">
+        <v>1.73</v>
+      </c>
+      <c r="BD185" t="n">
+        <v>2.23</v>
+      </c>
+      <c r="BE185" t="n">
+        <v>3</v>
+      </c>
+      <c r="BF185" t="n">
+        <v>5</v>
+      </c>
+      <c r="BG185" t="n">
+        <v>10</v>
+      </c>
+      <c r="BH185" t="n">
+        <v>3</v>
+      </c>
+      <c r="BI185" t="n">
+        <v>10</v>
+      </c>
+      <c r="BJ185" t="n">
+        <v>8</v>
+      </c>
+      <c r="BK185" t="n">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="186">
+      <c r="A186" s="1" t="n">
+        <v>185</v>
+      </c>
+      <c r="B186" t="n">
+        <v>4554601</v>
+      </c>
+      <c r="C186" t="inlineStr">
+        <is>
+          <t>Argentina Primera División</t>
+        </is>
+      </c>
+      <c r="D186" t="inlineStr">
+        <is>
+          <t>2023</t>
+        </is>
+      </c>
+      <c r="E186" s="2" t="n">
+        <v>45044.79166666666</v>
+      </c>
+      <c r="F186" t="n">
+        <v>14</v>
+      </c>
+      <c r="G186" t="inlineStr">
+        <is>
+          <t>Newell's Old Boys</t>
+        </is>
+      </c>
+      <c r="H186" t="inlineStr">
+        <is>
+          <t>Argentinos Juniors</t>
+        </is>
+      </c>
+      <c r="I186" t="n">
+        <v>0</v>
+      </c>
+      <c r="J186" t="n">
+        <v>0</v>
+      </c>
+      <c r="K186" t="n">
+        <v>0</v>
+      </c>
+      <c r="L186" t="n">
+        <v>0</v>
+      </c>
+      <c r="M186" t="n">
+        <v>0</v>
+      </c>
+      <c r="N186" t="n">
+        <v>0</v>
+      </c>
+      <c r="O186" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="P186" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="Q186" t="n">
+        <v>7</v>
+      </c>
+      <c r="R186" t="n">
+        <v>3</v>
+      </c>
+      <c r="S186" t="n">
+        <v>10</v>
+      </c>
+      <c r="T186" t="n">
+        <v>3.5</v>
+      </c>
+      <c r="U186" t="n">
+        <v>1.91</v>
+      </c>
+      <c r="V186" t="n">
+        <v>3.2</v>
+      </c>
+      <c r="W186" t="n">
+        <v>1.52</v>
+      </c>
+      <c r="X186" t="n">
+        <v>2.4</v>
+      </c>
+      <c r="Y186" t="n">
+        <v>3.7</v>
+      </c>
+      <c r="Z186" t="n">
+        <v>1.24</v>
+      </c>
+      <c r="AA186" t="n">
+        <v>10.5</v>
+      </c>
+      <c r="AB186" t="n">
+        <v>1.02</v>
+      </c>
+      <c r="AC186" t="n">
+        <v>2.95</v>
+      </c>
+      <c r="AD186" t="n">
+        <v>3.1</v>
+      </c>
+      <c r="AE186" t="n">
+        <v>2.55</v>
+      </c>
+      <c r="AF186" t="n">
+        <v>1.09</v>
+      </c>
+      <c r="AG186" t="n">
+        <v>7.5</v>
+      </c>
+      <c r="AH186" t="n">
+        <v>1.5</v>
+      </c>
+      <c r="AI186" t="n">
+        <v>2.45</v>
+      </c>
+      <c r="AJ186" t="n">
+        <v>2.55</v>
+      </c>
+      <c r="AK186" t="n">
+        <v>1.5</v>
+      </c>
+      <c r="AL186" t="n">
+        <v>2.05</v>
+      </c>
+      <c r="AM186" t="n">
+        <v>1.73</v>
+      </c>
+      <c r="AN186" t="n">
+        <v>1.5</v>
+      </c>
+      <c r="AO186" t="n">
+        <v>1.35</v>
+      </c>
+      <c r="AP186" t="n">
+        <v>1.4</v>
+      </c>
+      <c r="AQ186" t="n">
+        <v>2.17</v>
+      </c>
+      <c r="AR186" t="n">
+        <v>0.71</v>
+      </c>
+      <c r="AS186" t="n">
+        <v>2</v>
+      </c>
+      <c r="AT186" t="n">
+        <v>0.75</v>
+      </c>
+      <c r="AU186" t="n">
+        <v>1.09</v>
+      </c>
+      <c r="AV186" t="n">
+        <v>1.61</v>
+      </c>
+      <c r="AW186" t="n">
+        <v>2.7</v>
+      </c>
+      <c r="AX186" t="n">
+        <v>2.1</v>
+      </c>
+      <c r="AY186" t="n">
+        <v>7.5</v>
+      </c>
+      <c r="AZ186" t="n">
+        <v>1.95</v>
+      </c>
+      <c r="BA186" t="n">
+        <v>1.48</v>
+      </c>
+      <c r="BB186" t="n">
+        <v>1.87</v>
+      </c>
+      <c r="BC186" t="n">
+        <v>2.5</v>
+      </c>
+      <c r="BD186" t="n">
+        <v>3.5</v>
+      </c>
+      <c r="BE186" t="n">
+        <v>5.1</v>
+      </c>
+      <c r="BF186" t="n">
+        <v>4</v>
+      </c>
+      <c r="BG186" t="n">
+        <v>4</v>
+      </c>
+      <c r="BH186" t="n">
+        <v>5</v>
+      </c>
+      <c r="BI186" t="n">
+        <v>2</v>
+      </c>
+      <c r="BJ186" t="n">
+        <v>9</v>
+      </c>
+      <c r="BK186" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="187">
+      <c r="A187" s="1" t="n">
+        <v>186</v>
+      </c>
+      <c r="B187" t="n">
+        <v>4554603</v>
+      </c>
+      <c r="C187" t="inlineStr">
+        <is>
+          <t>Argentina Primera División</t>
+        </is>
+      </c>
+      <c r="D187" t="inlineStr">
+        <is>
+          <t>2023</t>
+        </is>
+      </c>
+      <c r="E187" s="2" t="n">
+        <v>45044.79166666666</v>
+      </c>
+      <c r="F187" t="n">
+        <v>14</v>
+      </c>
+      <c r="G187" t="inlineStr">
+        <is>
+          <t>Huracán</t>
+        </is>
+      </c>
+      <c r="H187" t="inlineStr">
+        <is>
+          <t>Arsenal de Sarandí</t>
+        </is>
+      </c>
+      <c r="I187" t="n">
+        <v>2</v>
+      </c>
+      <c r="J187" t="n">
+        <v>1</v>
+      </c>
+      <c r="K187" t="n">
+        <v>3</v>
+      </c>
+      <c r="L187" t="n">
+        <v>2</v>
+      </c>
+      <c r="M187" t="n">
+        <v>1</v>
+      </c>
+      <c r="N187" t="n">
+        <v>3</v>
+      </c>
+      <c r="O187" t="inlineStr">
+        <is>
+          <t>['18', '28']</t>
+        </is>
+      </c>
+      <c r="P187" t="inlineStr">
+        <is>
+          <t>['14']</t>
+        </is>
+      </c>
+      <c r="Q187" t="n">
+        <v>2</v>
+      </c>
+      <c r="R187" t="n">
+        <v>5</v>
+      </c>
+      <c r="S187" t="n">
+        <v>7</v>
+      </c>
+      <c r="T187" t="n">
+        <v>2.07</v>
+      </c>
+      <c r="U187" t="n">
+        <v>2.2</v>
+      </c>
+      <c r="V187" t="n">
+        <v>5.75</v>
+      </c>
+      <c r="W187" t="n">
+        <v>1.4</v>
+      </c>
+      <c r="X187" t="n">
+        <v>2.75</v>
+      </c>
+      <c r="Y187" t="n">
+        <v>3</v>
+      </c>
+      <c r="Z187" t="n">
+        <v>1.36</v>
+      </c>
+      <c r="AA187" t="n">
+        <v>7.85</v>
+      </c>
+      <c r="AB187" t="n">
+        <v>1.05</v>
+      </c>
+      <c r="AC187" t="n">
+        <v>1.61</v>
+      </c>
+      <c r="AD187" t="n">
+        <v>3.92</v>
+      </c>
+      <c r="AE187" t="n">
+        <v>5.6</v>
+      </c>
+      <c r="AF187" t="n">
+        <v>1.07</v>
+      </c>
+      <c r="AG187" t="n">
+        <v>10</v>
+      </c>
+      <c r="AH187" t="n">
+        <v>1.36</v>
+      </c>
+      <c r="AI187" t="n">
+        <v>3.2</v>
+      </c>
+      <c r="AJ187" t="n">
+        <v>2.05</v>
+      </c>
+      <c r="AK187" t="n">
+        <v>1.67</v>
+      </c>
+      <c r="AL187" t="n">
+        <v>2.05</v>
+      </c>
+      <c r="AM187" t="n">
+        <v>1.73</v>
+      </c>
+      <c r="AN187" t="n">
+        <v>1.12</v>
+      </c>
+      <c r="AO187" t="n">
+        <v>1.25</v>
+      </c>
+      <c r="AP187" t="n">
+        <v>2.3</v>
+      </c>
+      <c r="AQ187" t="n">
+        <v>1.33</v>
+      </c>
+      <c r="AR187" t="n">
+        <v>0.57</v>
+      </c>
+      <c r="AS187" t="n">
+        <v>1.57</v>
+      </c>
+      <c r="AT187" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="AU187" t="n">
+        <v>1.32</v>
+      </c>
+      <c r="AV187" t="n">
+        <v>1.11</v>
+      </c>
+      <c r="AW187" t="n">
+        <v>2.43</v>
+      </c>
+      <c r="AX187" t="n">
+        <v>1.37</v>
+      </c>
+      <c r="AY187" t="n">
+        <v>9</v>
+      </c>
+      <c r="AZ187" t="n">
+        <v>3.82</v>
+      </c>
+      <c r="BA187" t="n">
+        <v>1.27</v>
+      </c>
+      <c r="BB187" t="n">
+        <v>1.5</v>
+      </c>
+      <c r="BC187" t="n">
+        <v>1.93</v>
+      </c>
+      <c r="BD187" t="n">
+        <v>2.45</v>
+      </c>
+      <c r="BE187" t="n">
+        <v>3.4</v>
+      </c>
+      <c r="BF187" t="n">
+        <v>5</v>
+      </c>
+      <c r="BG187" t="n">
+        <v>5</v>
+      </c>
+      <c r="BH187" t="n">
+        <v>6</v>
+      </c>
+      <c r="BI187" t="n">
+        <v>4</v>
+      </c>
+      <c r="BJ187" t="n">
+        <v>11</v>
+      </c>
+      <c r="BK187" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="188">
+      <c r="A188" s="1" t="n">
+        <v>187</v>
+      </c>
+      <c r="B188" t="n">
+        <v>4554599</v>
+      </c>
+      <c r="C188" t="inlineStr">
+        <is>
+          <t>Argentina Primera División</t>
+        </is>
+      </c>
+      <c r="D188" t="inlineStr">
+        <is>
+          <t>2023</t>
+        </is>
+      </c>
+      <c r="E188" s="2" t="n">
+        <v>45044.89583333334</v>
+      </c>
+      <c r="F188" t="n">
+        <v>14</v>
+      </c>
+      <c r="G188" t="inlineStr">
+        <is>
+          <t>Atlético Tucumán</t>
+        </is>
+      </c>
+      <c r="H188" t="inlineStr">
+        <is>
+          <t>River Plate</t>
+        </is>
+      </c>
+      <c r="I188" t="n">
+        <v>1</v>
+      </c>
+      <c r="J188" t="n">
+        <v>0</v>
+      </c>
+      <c r="K188" t="n">
+        <v>1</v>
+      </c>
+      <c r="L188" t="n">
+        <v>1</v>
+      </c>
+      <c r="M188" t="n">
+        <v>1</v>
+      </c>
+      <c r="N188" t="n">
+        <v>2</v>
+      </c>
+      <c r="O188" t="inlineStr">
+        <is>
+          <t>['15']</t>
+        </is>
+      </c>
+      <c r="P188" t="inlineStr">
+        <is>
+          <t>['87']</t>
+        </is>
+      </c>
+      <c r="Q188" t="n">
+        <v>5</v>
+      </c>
+      <c r="R188" t="n">
+        <v>6</v>
+      </c>
+      <c r="S188" t="n">
+        <v>11</v>
+      </c>
+      <c r="T188" t="n">
+        <v>5</v>
+      </c>
+      <c r="U188" t="n">
+        <v>2.15</v>
+      </c>
+      <c r="V188" t="n">
+        <v>2.4</v>
+      </c>
+      <c r="W188" t="n">
+        <v>1.45</v>
+      </c>
+      <c r="X188" t="n">
+        <v>2.6</v>
+      </c>
+      <c r="Y188" t="n">
+        <v>3</v>
+      </c>
+      <c r="Z188" t="n">
+        <v>1.35</v>
+      </c>
+      <c r="AA188" t="n">
+        <v>8.75</v>
+      </c>
+      <c r="AB188" t="n">
+        <v>1.07</v>
+      </c>
+      <c r="AC188" t="n">
+        <v>4.6</v>
+      </c>
+      <c r="AD188" t="n">
+        <v>3.3</v>
+      </c>
+      <c r="AE188" t="n">
+        <v>1.7</v>
+      </c>
+      <c r="AF188" t="n">
+        <v>1.06</v>
+      </c>
+      <c r="AG188" t="n">
+        <v>10</v>
+      </c>
+      <c r="AH188" t="n">
+        <v>1.35</v>
+      </c>
+      <c r="AI188" t="n">
+        <v>3</v>
+      </c>
+      <c r="AJ188" t="n">
+        <v>2.05</v>
+      </c>
+      <c r="AK188" t="n">
+        <v>1.67</v>
+      </c>
+      <c r="AL188" t="n">
+        <v>2</v>
+      </c>
+      <c r="AM188" t="n">
+        <v>1.75</v>
+      </c>
+      <c r="AN188" t="n">
+        <v>2</v>
+      </c>
+      <c r="AO188" t="n">
+        <v>1.24</v>
+      </c>
+      <c r="AP188" t="n">
+        <v>1.19</v>
+      </c>
+      <c r="AQ188" t="n">
+        <v>1</v>
+      </c>
+      <c r="AR188" t="n">
+        <v>2.57</v>
+      </c>
+      <c r="AS188" t="n">
+        <v>1</v>
+      </c>
+      <c r="AT188" t="n">
+        <v>2.38</v>
+      </c>
+      <c r="AU188" t="n">
+        <v>1.5</v>
+      </c>
+      <c r="AV188" t="n">
+        <v>1.75</v>
+      </c>
+      <c r="AW188" t="n">
+        <v>3.25</v>
+      </c>
+      <c r="AX188" t="n">
+        <v>2.77</v>
+      </c>
+      <c r="AY188" t="n">
+        <v>8</v>
+      </c>
+      <c r="AZ188" t="n">
+        <v>1.64</v>
+      </c>
+      <c r="BA188" t="n">
+        <v>1.27</v>
+      </c>
+      <c r="BB188" t="n">
+        <v>1.5</v>
+      </c>
+      <c r="BC188" t="n">
+        <v>1.87</v>
+      </c>
+      <c r="BD188" t="n">
+        <v>2.45</v>
+      </c>
+      <c r="BE188" t="n">
+        <v>3.4</v>
+      </c>
+      <c r="BF188" t="n">
+        <v>3</v>
+      </c>
+      <c r="BG188" t="n">
+        <v>4</v>
+      </c>
+      <c r="BH188" t="n">
+        <v>7</v>
+      </c>
+      <c r="BI188" t="n">
+        <v>2</v>
+      </c>
+      <c r="BJ188" t="n">
+        <v>10</v>
+      </c>
+      <c r="BK188" t="n">
+        <v>6</v>
       </c>
     </row>
   </sheetData>

--- a/Bases_de_Dados_(2022-2023)/Argentina Primera División_2023.xlsx
+++ b/Bases_de_Dados_(2022-2023)/Argentina Primera División_2023.xlsx
@@ -429,7 +429,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:BK188"/>
+  <dimension ref="A1:BK193"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1715,7 +1715,7 @@
         <v>1.57</v>
       </c>
       <c r="AT6" t="n">
-        <v>1.29</v>
+        <v>1.25</v>
       </c>
       <c r="AU6" t="n">
         <v>0</v>
@@ -2321,7 +2321,7 @@
         <v>0</v>
       </c>
       <c r="AS9" t="n">
-        <v>1.43</v>
+        <v>1.25</v>
       </c>
       <c r="AT9" t="n">
         <v>0.86</v>
@@ -2930,7 +2930,7 @@
         <v>0</v>
       </c>
       <c r="AS12" t="n">
-        <v>1.14</v>
+        <v>1.38</v>
       </c>
       <c r="AT12" t="n">
         <v>1</v>
@@ -3336,7 +3336,7 @@
         <v>0</v>
       </c>
       <c r="AS14" t="n">
-        <v>1.43</v>
+        <v>1.38</v>
       </c>
       <c r="AT14" t="n">
         <v>0.57</v>
@@ -3539,7 +3539,7 @@
         <v>0</v>
       </c>
       <c r="AS15" t="n">
-        <v>1.29</v>
+        <v>1.25</v>
       </c>
       <c r="AT15" t="n">
         <v>0.43</v>
@@ -4354,7 +4354,7 @@
         <v>1.43</v>
       </c>
       <c r="AT19" t="n">
-        <v>0.83</v>
+        <v>0.86</v>
       </c>
       <c r="AU19" t="n">
         <v>0</v>
@@ -4760,7 +4760,7 @@
         <v>2.17</v>
       </c>
       <c r="AT21" t="n">
-        <v>1.33</v>
+        <v>1.29</v>
       </c>
       <c r="AU21" t="n">
         <v>0</v>
@@ -4963,7 +4963,7 @@
         <v>2.17</v>
       </c>
       <c r="AT22" t="n">
-        <v>1.17</v>
+        <v>1</v>
       </c>
       <c r="AU22" t="n">
         <v>0</v>
@@ -5366,10 +5366,10 @@
         <v>0</v>
       </c>
       <c r="AS24" t="n">
+        <v>1.38</v>
+      </c>
+      <c r="AT24" t="n">
         <v>1.14</v>
-      </c>
-      <c r="AT24" t="n">
-        <v>0.83</v>
       </c>
       <c r="AU24" t="n">
         <v>1.71</v>
@@ -6178,7 +6178,7 @@
         <v>0</v>
       </c>
       <c r="AS28" t="n">
-        <v>1.67</v>
+        <v>1.57</v>
       </c>
       <c r="AT28" t="n">
         <v>2.17</v>
@@ -7802,7 +7802,7 @@
         <v>3</v>
       </c>
       <c r="AS36" t="n">
-        <v>1.43</v>
+        <v>1.38</v>
       </c>
       <c r="AT36" t="n">
         <v>1</v>
@@ -8208,7 +8208,7 @@
         <v>0</v>
       </c>
       <c r="AS38" t="n">
-        <v>1.29</v>
+        <v>1.25</v>
       </c>
       <c r="AT38" t="n">
         <v>0.57</v>
@@ -8614,7 +8614,7 @@
         <v>3</v>
       </c>
       <c r="AS40" t="n">
-        <v>1.43</v>
+        <v>1.25</v>
       </c>
       <c r="AT40" t="n">
         <v>0.71</v>
@@ -8820,7 +8820,7 @@
         <v>1.57</v>
       </c>
       <c r="AT41" t="n">
-        <v>1.29</v>
+        <v>1.25</v>
       </c>
       <c r="AU41" t="n">
         <v>2.1</v>
@@ -9426,7 +9426,7 @@
         <v>3</v>
       </c>
       <c r="AS44" t="n">
-        <v>1.67</v>
+        <v>1.57</v>
       </c>
       <c r="AT44" t="n">
         <v>1.17</v>
@@ -9632,7 +9632,7 @@
         <v>1.17</v>
       </c>
       <c r="AT45" t="n">
-        <v>1.17</v>
+        <v>1</v>
       </c>
       <c r="AU45" t="n">
         <v>1.23</v>
@@ -9835,7 +9835,7 @@
         <v>1.57</v>
       </c>
       <c r="AT46" t="n">
-        <v>0.83</v>
+        <v>0.86</v>
       </c>
       <c r="AU46" t="n">
         <v>2.16</v>
@@ -11253,7 +11253,7 @@
         <v>3</v>
       </c>
       <c r="AS53" t="n">
-        <v>1.14</v>
+        <v>1.38</v>
       </c>
       <c r="AT53" t="n">
         <v>1.17</v>
@@ -11662,7 +11662,7 @@
         <v>1.43</v>
       </c>
       <c r="AT55" t="n">
-        <v>0.83</v>
+        <v>1.14</v>
       </c>
       <c r="AU55" t="n">
         <v>1.5</v>
@@ -11865,7 +11865,7 @@
         <v>1.43</v>
       </c>
       <c r="AT56" t="n">
-        <v>1.33</v>
+        <v>1.29</v>
       </c>
       <c r="AU56" t="n">
         <v>1.24</v>
@@ -12271,7 +12271,7 @@
         <v>1.83</v>
       </c>
       <c r="AT58" t="n">
-        <v>1.29</v>
+        <v>1.25</v>
       </c>
       <c r="AU58" t="n">
         <v>0.67</v>
@@ -13283,7 +13283,7 @@
         <v>0</v>
       </c>
       <c r="AS63" t="n">
-        <v>1.43</v>
+        <v>1.38</v>
       </c>
       <c r="AT63" t="n">
         <v>1.17</v>
@@ -14095,7 +14095,7 @@
         <v>0.5</v>
       </c>
       <c r="AS67" t="n">
-        <v>1.43</v>
+        <v>1.25</v>
       </c>
       <c r="AT67" t="n">
         <v>0.71</v>
@@ -14298,7 +14298,7 @@
         <v>2</v>
       </c>
       <c r="AS68" t="n">
-        <v>1.29</v>
+        <v>1.25</v>
       </c>
       <c r="AT68" t="n">
         <v>1</v>
@@ -15519,7 +15519,7 @@
         <v>1.25</v>
       </c>
       <c r="AT74" t="n">
-        <v>0.83</v>
+        <v>1.14</v>
       </c>
       <c r="AU74" t="n">
         <v>1.4</v>
@@ -15719,7 +15719,7 @@
         <v>0.5</v>
       </c>
       <c r="AS75" t="n">
-        <v>1.67</v>
+        <v>1.57</v>
       </c>
       <c r="AT75" t="n">
         <v>1.17</v>
@@ -16331,7 +16331,7 @@
         <v>2</v>
       </c>
       <c r="AT78" t="n">
-        <v>0.83</v>
+        <v>0.86</v>
       </c>
       <c r="AU78" t="n">
         <v>0.82</v>
@@ -16737,7 +16737,7 @@
         <v>1.57</v>
       </c>
       <c r="AT80" t="n">
-        <v>1.33</v>
+        <v>1.29</v>
       </c>
       <c r="AU80" t="n">
         <v>1.91</v>
@@ -17346,7 +17346,7 @@
         <v>1.83</v>
       </c>
       <c r="AT83" t="n">
-        <v>1.17</v>
+        <v>1</v>
       </c>
       <c r="AU83" t="n">
         <v>1.44</v>
@@ -17749,7 +17749,7 @@
         <v>3</v>
       </c>
       <c r="AS85" t="n">
-        <v>1.14</v>
+        <v>1.38</v>
       </c>
       <c r="AT85" t="n">
         <v>2.17</v>
@@ -18358,7 +18358,7 @@
         <v>0.33</v>
       </c>
       <c r="AS88" t="n">
-        <v>1.43</v>
+        <v>1.25</v>
       </c>
       <c r="AT88" t="n">
         <v>1</v>
@@ -18970,7 +18970,7 @@
         <v>1.43</v>
       </c>
       <c r="AT91" t="n">
-        <v>1.29</v>
+        <v>1.25</v>
       </c>
       <c r="AU91" t="n">
         <v>1.27</v>
@@ -19982,7 +19982,7 @@
         <v>1.5</v>
       </c>
       <c r="AS96" t="n">
-        <v>1.29</v>
+        <v>1.25</v>
       </c>
       <c r="AT96" t="n">
         <v>1.17</v>
@@ -20388,7 +20388,7 @@
         <v>1.5</v>
       </c>
       <c r="AS98" t="n">
-        <v>1.43</v>
+        <v>1.38</v>
       </c>
       <c r="AT98" t="n">
         <v>1.17</v>
@@ -20797,7 +20797,7 @@
         <v>0.83</v>
       </c>
       <c r="AT100" t="n">
-        <v>1.17</v>
+        <v>1</v>
       </c>
       <c r="AU100" t="n">
         <v>1.57</v>
@@ -21000,7 +21000,7 @@
         <v>1.17</v>
       </c>
       <c r="AT101" t="n">
-        <v>1.29</v>
+        <v>1.25</v>
       </c>
       <c r="AU101" t="n">
         <v>1.12</v>
@@ -21609,7 +21609,7 @@
         <v>1</v>
       </c>
       <c r="AT104" t="n">
-        <v>0.83</v>
+        <v>0.86</v>
       </c>
       <c r="AU104" t="n">
         <v>1.17</v>
@@ -22012,7 +22012,7 @@
         <v>1.33</v>
       </c>
       <c r="AS106" t="n">
-        <v>1.67</v>
+        <v>1.57</v>
       </c>
       <c r="AT106" t="n">
         <v>1.86</v>
@@ -22215,7 +22215,7 @@
         <v>1.33</v>
       </c>
       <c r="AS107" t="n">
-        <v>1.14</v>
+        <v>1.38</v>
       </c>
       <c r="AT107" t="n">
         <v>1.17</v>
@@ -22827,7 +22827,7 @@
         <v>2</v>
       </c>
       <c r="AT110" t="n">
-        <v>1.33</v>
+        <v>1.29</v>
       </c>
       <c r="AU110" t="n">
         <v>1.2</v>
@@ -23433,10 +23433,10 @@
         <v>0.67</v>
       </c>
       <c r="AS113" t="n">
-        <v>1.43</v>
+        <v>1.38</v>
       </c>
       <c r="AT113" t="n">
-        <v>0.83</v>
+        <v>1.14</v>
       </c>
       <c r="AU113" t="n">
         <v>1.35</v>
@@ -25463,7 +25463,7 @@
         <v>2.33</v>
       </c>
       <c r="AS123" t="n">
-        <v>1.43</v>
+        <v>1.25</v>
       </c>
       <c r="AT123" t="n">
         <v>1.83</v>
@@ -25869,7 +25869,7 @@
         <v>1.33</v>
       </c>
       <c r="AS125" t="n">
-        <v>1.29</v>
+        <v>1.25</v>
       </c>
       <c r="AT125" t="n">
         <v>1.17</v>
@@ -26884,7 +26884,7 @@
         <v>0.75</v>
       </c>
       <c r="AS130" t="n">
-        <v>1.43</v>
+        <v>1.38</v>
       </c>
       <c r="AT130" t="n">
         <v>0.83</v>
@@ -27090,7 +27090,7 @@
         <v>1.43</v>
       </c>
       <c r="AT131" t="n">
-        <v>0.83</v>
+        <v>0.86</v>
       </c>
       <c r="AU131" t="n">
         <v>1.55</v>
@@ -27493,10 +27493,10 @@
         <v>1.5</v>
       </c>
       <c r="AS133" t="n">
-        <v>1.67</v>
+        <v>1.57</v>
       </c>
       <c r="AT133" t="n">
-        <v>1.17</v>
+        <v>1</v>
       </c>
       <c r="AU133" t="n">
         <v>1.55</v>
@@ -27902,7 +27902,7 @@
         <v>1</v>
       </c>
       <c r="AT135" t="n">
-        <v>1.33</v>
+        <v>1.29</v>
       </c>
       <c r="AU135" t="n">
         <v>1.38</v>
@@ -28105,7 +28105,7 @@
         <v>1.57</v>
       </c>
       <c r="AT136" t="n">
-        <v>0.83</v>
+        <v>1.14</v>
       </c>
       <c r="AU136" t="n">
         <v>1.38</v>
@@ -28511,7 +28511,7 @@
         <v>1.83</v>
       </c>
       <c r="AT138" t="n">
-        <v>1.29</v>
+        <v>1.25</v>
       </c>
       <c r="AU138" t="n">
         <v>1.49</v>
@@ -29117,7 +29117,7 @@
         <v>0.75</v>
       </c>
       <c r="AS141" t="n">
-        <v>1.14</v>
+        <v>1.38</v>
       </c>
       <c r="AT141" t="n">
         <v>1.17</v>
@@ -29726,7 +29726,7 @@
         <v>1.25</v>
       </c>
       <c r="AS144" t="n">
-        <v>1.43</v>
+        <v>1.25</v>
       </c>
       <c r="AT144" t="n">
         <v>0.83</v>
@@ -29929,7 +29929,7 @@
         <v>1.75</v>
       </c>
       <c r="AS145" t="n">
-        <v>1.29</v>
+        <v>1.25</v>
       </c>
       <c r="AT145" t="n">
         <v>2.17</v>
@@ -32365,7 +32365,7 @@
         <v>1.4</v>
       </c>
       <c r="AS157" t="n">
-        <v>1.14</v>
+        <v>1.38</v>
       </c>
       <c r="AT157" t="n">
         <v>1.86</v>
@@ -32771,7 +32771,7 @@
         <v>1.67</v>
       </c>
       <c r="AS159" t="n">
-        <v>1.67</v>
+        <v>1.57</v>
       </c>
       <c r="AT159" t="n">
         <v>1.86</v>
@@ -32977,7 +32977,7 @@
         <v>0.83</v>
       </c>
       <c r="AT160" t="n">
-        <v>1.29</v>
+        <v>1.25</v>
       </c>
       <c r="AU160" t="n">
         <v>1.48</v>
@@ -33177,10 +33177,10 @@
         <v>0.8</v>
       </c>
       <c r="AS161" t="n">
-        <v>1.43</v>
+        <v>1.38</v>
       </c>
       <c r="AT161" t="n">
-        <v>0.83</v>
+        <v>0.86</v>
       </c>
       <c r="AU161" t="n">
         <v>1.36</v>
@@ -33383,7 +33383,7 @@
         <v>0.5</v>
       </c>
       <c r="AT162" t="n">
-        <v>1.17</v>
+        <v>1</v>
       </c>
       <c r="AU162" t="n">
         <v>1.41</v>
@@ -33789,7 +33789,7 @@
         <v>1.43</v>
       </c>
       <c r="AT164" t="n">
-        <v>1.33</v>
+        <v>1.29</v>
       </c>
       <c r="AU164" t="n">
         <v>1.53</v>
@@ -34192,10 +34192,10 @@
         <v>1</v>
       </c>
       <c r="AS166" t="n">
-        <v>1.29</v>
+        <v>1.25</v>
       </c>
       <c r="AT166" t="n">
-        <v>0.83</v>
+        <v>1.14</v>
       </c>
       <c r="AU166" t="n">
         <v>1.67</v>
@@ -36425,7 +36425,7 @@
         <v>0.8</v>
       </c>
       <c r="AS177" t="n">
-        <v>1.43</v>
+        <v>1.25</v>
       </c>
       <c r="AT177" t="n">
         <v>0.83</v>
@@ -38713,6 +38713,1021 @@
       </c>
       <c r="BK188" t="n">
         <v>6</v>
+      </c>
+    </row>
+    <row r="189">
+      <c r="A189" s="1" t="n">
+        <v>188</v>
+      </c>
+      <c r="B189" t="n">
+        <v>4554595</v>
+      </c>
+      <c r="C189" t="inlineStr">
+        <is>
+          <t>Argentina Primera División</t>
+        </is>
+      </c>
+      <c r="D189" t="inlineStr">
+        <is>
+          <t>2023</t>
+        </is>
+      </c>
+      <c r="E189" s="2" t="n">
+        <v>45045.58333333334</v>
+      </c>
+      <c r="F189" t="n">
+        <v>14</v>
+      </c>
+      <c r="G189" t="inlineStr">
+        <is>
+          <t>Vélez Sarsfield</t>
+        </is>
+      </c>
+      <c r="H189" t="inlineStr">
+        <is>
+          <t>San Lorenzo</t>
+        </is>
+      </c>
+      <c r="I189" t="n">
+        <v>0</v>
+      </c>
+      <c r="J189" t="n">
+        <v>0</v>
+      </c>
+      <c r="K189" t="n">
+        <v>0</v>
+      </c>
+      <c r="L189" t="n">
+        <v>0</v>
+      </c>
+      <c r="M189" t="n">
+        <v>0</v>
+      </c>
+      <c r="N189" t="n">
+        <v>0</v>
+      </c>
+      <c r="O189" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="P189" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="Q189" t="n">
+        <v>3</v>
+      </c>
+      <c r="R189" t="n">
+        <v>7</v>
+      </c>
+      <c r="S189" t="n">
+        <v>10</v>
+      </c>
+      <c r="T189" t="n">
+        <v>3.3</v>
+      </c>
+      <c r="U189" t="n">
+        <v>1.9</v>
+      </c>
+      <c r="V189" t="n">
+        <v>4</v>
+      </c>
+      <c r="W189" t="n">
+        <v>1.59</v>
+      </c>
+      <c r="X189" t="n">
+        <v>2.25</v>
+      </c>
+      <c r="Y189" t="n">
+        <v>3.7</v>
+      </c>
+      <c r="Z189" t="n">
+        <v>1.24</v>
+      </c>
+      <c r="AA189" t="n">
+        <v>11.5</v>
+      </c>
+      <c r="AB189" t="n">
+        <v>1.01</v>
+      </c>
+      <c r="AC189" t="n">
+        <v>2.4</v>
+      </c>
+      <c r="AD189" t="n">
+        <v>3</v>
+      </c>
+      <c r="AE189" t="n">
+        <v>3.25</v>
+      </c>
+      <c r="AF189" t="n">
+        <v>1.12</v>
+      </c>
+      <c r="AG189" t="n">
+        <v>6.5</v>
+      </c>
+      <c r="AH189" t="n">
+        <v>1.57</v>
+      </c>
+      <c r="AI189" t="n">
+        <v>2.4</v>
+      </c>
+      <c r="AJ189" t="n">
+        <v>2.75</v>
+      </c>
+      <c r="AK189" t="n">
+        <v>1.44</v>
+      </c>
+      <c r="AL189" t="n">
+        <v>2.25</v>
+      </c>
+      <c r="AM189" t="n">
+        <v>1.62</v>
+      </c>
+      <c r="AN189" t="n">
+        <v>1.35</v>
+      </c>
+      <c r="AO189" t="n">
+        <v>1.33</v>
+      </c>
+      <c r="AP189" t="n">
+        <v>1.57</v>
+      </c>
+      <c r="AQ189" t="n">
+        <v>1.43</v>
+      </c>
+      <c r="AR189" t="n">
+        <v>1.33</v>
+      </c>
+      <c r="AS189" t="n">
+        <v>1.38</v>
+      </c>
+      <c r="AT189" t="n">
+        <v>1.29</v>
+      </c>
+      <c r="AU189" t="n">
+        <v>1.28</v>
+      </c>
+      <c r="AV189" t="n">
+        <v>1.3</v>
+      </c>
+      <c r="AW189" t="n">
+        <v>2.58</v>
+      </c>
+      <c r="AX189" t="n">
+        <v>1.91</v>
+      </c>
+      <c r="AY189" t="n">
+        <v>7.5</v>
+      </c>
+      <c r="AZ189" t="n">
+        <v>2.2</v>
+      </c>
+      <c r="BA189" t="n">
+        <v>1.33</v>
+      </c>
+      <c r="BB189" t="n">
+        <v>1.6</v>
+      </c>
+      <c r="BC189" t="n">
+        <v>2.04</v>
+      </c>
+      <c r="BD189" t="n">
+        <v>2.75</v>
+      </c>
+      <c r="BE189" t="n">
+        <v>3.85</v>
+      </c>
+      <c r="BF189" t="n">
+        <v>5</v>
+      </c>
+      <c r="BG189" t="n">
+        <v>4</v>
+      </c>
+      <c r="BH189" t="n">
+        <v>2</v>
+      </c>
+      <c r="BI189" t="n">
+        <v>4</v>
+      </c>
+      <c r="BJ189" t="n">
+        <v>7</v>
+      </c>
+      <c r="BK189" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="190">
+      <c r="A190" s="1" t="n">
+        <v>189</v>
+      </c>
+      <c r="B190" t="n">
+        <v>4554602</v>
+      </c>
+      <c r="C190" t="inlineStr">
+        <is>
+          <t>Argentina Primera División</t>
+        </is>
+      </c>
+      <c r="D190" t="inlineStr">
+        <is>
+          <t>2023</t>
+        </is>
+      </c>
+      <c r="E190" s="2" t="n">
+        <v>45045.6875</v>
+      </c>
+      <c r="F190" t="n">
+        <v>14</v>
+      </c>
+      <c r="G190" t="inlineStr">
+        <is>
+          <t>Gimnasia La Plata</t>
+        </is>
+      </c>
+      <c r="H190" t="inlineStr">
+        <is>
+          <t>Tigre</t>
+        </is>
+      </c>
+      <c r="I190" t="n">
+        <v>1</v>
+      </c>
+      <c r="J190" t="n">
+        <v>0</v>
+      </c>
+      <c r="K190" t="n">
+        <v>1</v>
+      </c>
+      <c r="L190" t="n">
+        <v>1</v>
+      </c>
+      <c r="M190" t="n">
+        <v>1</v>
+      </c>
+      <c r="N190" t="n">
+        <v>2</v>
+      </c>
+      <c r="O190" t="inlineStr">
+        <is>
+          <t>['44']</t>
+        </is>
+      </c>
+      <c r="P190" t="inlineStr">
+        <is>
+          <t>['90+5']</t>
+        </is>
+      </c>
+      <c r="Q190" t="n">
+        <v>3</v>
+      </c>
+      <c r="R190" t="n">
+        <v>5</v>
+      </c>
+      <c r="S190" t="n">
+        <v>8</v>
+      </c>
+      <c r="T190" t="n">
+        <v>3.5</v>
+      </c>
+      <c r="U190" t="n">
+        <v>1.93</v>
+      </c>
+      <c r="V190" t="n">
+        <v>3.1</v>
+      </c>
+      <c r="W190" t="n">
+        <v>1.49</v>
+      </c>
+      <c r="X190" t="n">
+        <v>2.4</v>
+      </c>
+      <c r="Y190" t="n">
+        <v>3.3</v>
+      </c>
+      <c r="Z190" t="n">
+        <v>1.28</v>
+      </c>
+      <c r="AA190" t="n">
+        <v>9.5</v>
+      </c>
+      <c r="AB190" t="n">
+        <v>1.05</v>
+      </c>
+      <c r="AC190" t="n">
+        <v>2.8</v>
+      </c>
+      <c r="AD190" t="n">
+        <v>3.25</v>
+      </c>
+      <c r="AE190" t="n">
+        <v>2.55</v>
+      </c>
+      <c r="AF190" t="n">
+        <v>1.08</v>
+      </c>
+      <c r="AG190" t="n">
+        <v>6.5</v>
+      </c>
+      <c r="AH190" t="n">
+        <v>1.42</v>
+      </c>
+      <c r="AI190" t="n">
+        <v>2.62</v>
+      </c>
+      <c r="AJ190" t="n">
+        <v>2.25</v>
+      </c>
+      <c r="AK190" t="n">
+        <v>1.57</v>
+      </c>
+      <c r="AL190" t="n">
+        <v>1.95</v>
+      </c>
+      <c r="AM190" t="n">
+        <v>1.73</v>
+      </c>
+      <c r="AN190" t="n">
+        <v>1.55</v>
+      </c>
+      <c r="AO190" t="n">
+        <v>1.33</v>
+      </c>
+      <c r="AP190" t="n">
+        <v>1.4</v>
+      </c>
+      <c r="AQ190" t="n">
+        <v>1.67</v>
+      </c>
+      <c r="AR190" t="n">
+        <v>1.29</v>
+      </c>
+      <c r="AS190" t="n">
+        <v>1.57</v>
+      </c>
+      <c r="AT190" t="n">
+        <v>1.25</v>
+      </c>
+      <c r="AU190" t="n">
+        <v>1.6</v>
+      </c>
+      <c r="AV190" t="n">
+        <v>1.61</v>
+      </c>
+      <c r="AW190" t="n">
+        <v>3.21</v>
+      </c>
+      <c r="AX190" t="n">
+        <v>2.28</v>
+      </c>
+      <c r="AY190" t="n">
+        <v>8</v>
+      </c>
+      <c r="AZ190" t="n">
+        <v>1.85</v>
+      </c>
+      <c r="BA190" t="n">
+        <v>1.2</v>
+      </c>
+      <c r="BB190" t="n">
+        <v>1.4</v>
+      </c>
+      <c r="BC190" t="n">
+        <v>1.72</v>
+      </c>
+      <c r="BD190" t="n">
+        <v>2.16</v>
+      </c>
+      <c r="BE190" t="n">
+        <v>2.84</v>
+      </c>
+      <c r="BF190" t="n">
+        <v>5</v>
+      </c>
+      <c r="BG190" t="n">
+        <v>9</v>
+      </c>
+      <c r="BH190" t="n">
+        <v>1</v>
+      </c>
+      <c r="BI190" t="n">
+        <v>5</v>
+      </c>
+      <c r="BJ190" t="n">
+        <v>6</v>
+      </c>
+      <c r="BK190" t="n">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="191">
+      <c r="A191" s="1" t="n">
+        <v>190</v>
+      </c>
+      <c r="B191" t="n">
+        <v>4554593</v>
+      </c>
+      <c r="C191" t="inlineStr">
+        <is>
+          <t>Argentina Primera División</t>
+        </is>
+      </c>
+      <c r="D191" t="inlineStr">
+        <is>
+          <t>2023</t>
+        </is>
+      </c>
+      <c r="E191" s="2" t="n">
+        <v>45045.79166666666</v>
+      </c>
+      <c r="F191" t="n">
+        <v>14</v>
+      </c>
+      <c r="G191" t="inlineStr">
+        <is>
+          <t>Banfield</t>
+        </is>
+      </c>
+      <c r="H191" t="inlineStr">
+        <is>
+          <t>Barracas Central</t>
+        </is>
+      </c>
+      <c r="I191" t="n">
+        <v>0</v>
+      </c>
+      <c r="J191" t="n">
+        <v>0</v>
+      </c>
+      <c r="K191" t="n">
+        <v>0</v>
+      </c>
+      <c r="L191" t="n">
+        <v>0</v>
+      </c>
+      <c r="M191" t="n">
+        <v>0</v>
+      </c>
+      <c r="N191" t="n">
+        <v>0</v>
+      </c>
+      <c r="O191" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="P191" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="Q191" t="n">
+        <v>1</v>
+      </c>
+      <c r="R191" t="n">
+        <v>2</v>
+      </c>
+      <c r="S191" t="n">
+        <v>3</v>
+      </c>
+      <c r="T191" t="n">
+        <v>2.35</v>
+      </c>
+      <c r="U191" t="n">
+        <v>2.1</v>
+      </c>
+      <c r="V191" t="n">
+        <v>4.75</v>
+      </c>
+      <c r="W191" t="n">
+        <v>1.43</v>
+      </c>
+      <c r="X191" t="n">
+        <v>2.6</v>
+      </c>
+      <c r="Y191" t="n">
+        <v>3</v>
+      </c>
+      <c r="Z191" t="n">
+        <v>1.33</v>
+      </c>
+      <c r="AA191" t="n">
+        <v>8.25</v>
+      </c>
+      <c r="AB191" t="n">
+        <v>1.06</v>
+      </c>
+      <c r="AC191" t="n">
+        <v>1.73</v>
+      </c>
+      <c r="AD191" t="n">
+        <v>3.75</v>
+      </c>
+      <c r="AE191" t="n">
+        <v>4.6</v>
+      </c>
+      <c r="AF191" t="n">
+        <v>1.06</v>
+      </c>
+      <c r="AG191" t="n">
+        <v>8.25</v>
+      </c>
+      <c r="AH191" t="n">
+        <v>1.35</v>
+      </c>
+      <c r="AI191" t="n">
+        <v>2.95</v>
+      </c>
+      <c r="AJ191" t="n">
+        <v>2.05</v>
+      </c>
+      <c r="AK191" t="n">
+        <v>1.68</v>
+      </c>
+      <c r="AL191" t="n">
+        <v>1.98</v>
+      </c>
+      <c r="AM191" t="n">
+        <v>1.68</v>
+      </c>
+      <c r="AN191" t="n">
+        <v>1.19</v>
+      </c>
+      <c r="AO191" t="n">
+        <v>1.25</v>
+      </c>
+      <c r="AP191" t="n">
+        <v>2.05</v>
+      </c>
+      <c r="AQ191" t="n">
+        <v>1.29</v>
+      </c>
+      <c r="AR191" t="n">
+        <v>0.83</v>
+      </c>
+      <c r="AS191" t="n">
+        <v>1.25</v>
+      </c>
+      <c r="AT191" t="n">
+        <v>0.86</v>
+      </c>
+      <c r="AU191" t="n">
+        <v>1.6</v>
+      </c>
+      <c r="AV191" t="n">
+        <v>1.11</v>
+      </c>
+      <c r="AW191" t="n">
+        <v>2.71</v>
+      </c>
+      <c r="AX191" t="n">
+        <v>1.41</v>
+      </c>
+      <c r="AY191" t="n">
+        <v>9</v>
+      </c>
+      <c r="AZ191" t="n">
+        <v>3.48</v>
+      </c>
+      <c r="BA191" t="n">
+        <v>1.27</v>
+      </c>
+      <c r="BB191" t="n">
+        <v>1.5</v>
+      </c>
+      <c r="BC191" t="n">
+        <v>1.87</v>
+      </c>
+      <c r="BD191" t="n">
+        <v>2.45</v>
+      </c>
+      <c r="BE191" t="n">
+        <v>3.4</v>
+      </c>
+      <c r="BF191" t="n">
+        <v>2</v>
+      </c>
+      <c r="BG191" t="n">
+        <v>4</v>
+      </c>
+      <c r="BH191" t="n">
+        <v>4</v>
+      </c>
+      <c r="BI191" t="n">
+        <v>4</v>
+      </c>
+      <c r="BJ191" t="n">
+        <v>6</v>
+      </c>
+      <c r="BK191" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="192">
+      <c r="A192" s="1" t="n">
+        <v>191</v>
+      </c>
+      <c r="B192" t="n">
+        <v>5019509</v>
+      </c>
+      <c r="C192" t="inlineStr">
+        <is>
+          <t>Argentina Primera División</t>
+        </is>
+      </c>
+      <c r="D192" t="inlineStr">
+        <is>
+          <t>2023</t>
+        </is>
+      </c>
+      <c r="E192" s="2" t="n">
+        <v>45045.79166666666</v>
+      </c>
+      <c r="F192" t="n">
+        <v>14</v>
+      </c>
+      <c r="G192" t="inlineStr">
+        <is>
+          <t>Instituto</t>
+        </is>
+      </c>
+      <c r="H192" t="inlineStr">
+        <is>
+          <t>Central Córdoba SdE</t>
+        </is>
+      </c>
+      <c r="I192" t="n">
+        <v>0</v>
+      </c>
+      <c r="J192" t="n">
+        <v>0</v>
+      </c>
+      <c r="K192" t="n">
+        <v>0</v>
+      </c>
+      <c r="L192" t="n">
+        <v>0</v>
+      </c>
+      <c r="M192" t="n">
+        <v>2</v>
+      </c>
+      <c r="N192" t="n">
+        <v>2</v>
+      </c>
+      <c r="O192" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="P192" t="inlineStr">
+        <is>
+          <t>['58', '90+3']</t>
+        </is>
+      </c>
+      <c r="Q192" t="n">
+        <v>6</v>
+      </c>
+      <c r="R192" t="n">
+        <v>1</v>
+      </c>
+      <c r="S192" t="n">
+        <v>7</v>
+      </c>
+      <c r="T192" t="n">
+        <v>2.7</v>
+      </c>
+      <c r="U192" t="n">
+        <v>1.95</v>
+      </c>
+      <c r="V192" t="n">
+        <v>4</v>
+      </c>
+      <c r="W192" t="n">
+        <v>1.49</v>
+      </c>
+      <c r="X192" t="n">
+        <v>2.4</v>
+      </c>
+      <c r="Y192" t="n">
+        <v>3.3</v>
+      </c>
+      <c r="Z192" t="n">
+        <v>1.28</v>
+      </c>
+      <c r="AA192" t="n">
+        <v>9.25</v>
+      </c>
+      <c r="AB192" t="n">
+        <v>1.05</v>
+      </c>
+      <c r="AC192" t="n">
+        <v>2.05</v>
+      </c>
+      <c r="AD192" t="n">
+        <v>3.2</v>
+      </c>
+      <c r="AE192" t="n">
+        <v>3.6</v>
+      </c>
+      <c r="AF192" t="n">
+        <v>1.08</v>
+      </c>
+      <c r="AG192" t="n">
+        <v>7</v>
+      </c>
+      <c r="AH192" t="n">
+        <v>1.43</v>
+      </c>
+      <c r="AI192" t="n">
+        <v>2.6</v>
+      </c>
+      <c r="AJ192" t="n">
+        <v>2.25</v>
+      </c>
+      <c r="AK192" t="n">
+        <v>1.55</v>
+      </c>
+      <c r="AL192" t="n">
+        <v>2.05</v>
+      </c>
+      <c r="AM192" t="n">
+        <v>1.68</v>
+      </c>
+      <c r="AN192" t="n">
+        <v>1.27</v>
+      </c>
+      <c r="AO192" t="n">
+        <v>1.33</v>
+      </c>
+      <c r="AP192" t="n">
+        <v>1.72</v>
+      </c>
+      <c r="AQ192" t="n">
+        <v>1.43</v>
+      </c>
+      <c r="AR192" t="n">
+        <v>0.83</v>
+      </c>
+      <c r="AS192" t="n">
+        <v>1.25</v>
+      </c>
+      <c r="AT192" t="n">
+        <v>1.14</v>
+      </c>
+      <c r="AU192" t="n">
+        <v>1.43</v>
+      </c>
+      <c r="AV192" t="n">
+        <v>1.18</v>
+      </c>
+      <c r="AW192" t="n">
+        <v>2.61</v>
+      </c>
+      <c r="AX192" t="n">
+        <v>1.51</v>
+      </c>
+      <c r="AY192" t="n">
+        <v>8.5</v>
+      </c>
+      <c r="AZ192" t="n">
+        <v>3.24</v>
+      </c>
+      <c r="BA192" t="n">
+        <v>1.36</v>
+      </c>
+      <c r="BB192" t="n">
+        <v>1.68</v>
+      </c>
+      <c r="BC192" t="n">
+        <v>2.12</v>
+      </c>
+      <c r="BD192" t="n">
+        <v>2.84</v>
+      </c>
+      <c r="BE192" t="n">
+        <v>3.98</v>
+      </c>
+      <c r="BF192" t="n">
+        <v>5</v>
+      </c>
+      <c r="BG192" t="n">
+        <v>3</v>
+      </c>
+      <c r="BH192" t="n">
+        <v>12</v>
+      </c>
+      <c r="BI192" t="n">
+        <v>2</v>
+      </c>
+      <c r="BJ192" t="n">
+        <v>17</v>
+      </c>
+      <c r="BK192" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="193">
+      <c r="A193" s="1" t="n">
+        <v>192</v>
+      </c>
+      <c r="B193" t="n">
+        <v>4554598</v>
+      </c>
+      <c r="C193" t="inlineStr">
+        <is>
+          <t>Argentina Primera División</t>
+        </is>
+      </c>
+      <c r="D193" t="inlineStr">
+        <is>
+          <t>2023</t>
+        </is>
+      </c>
+      <c r="E193" s="2" t="n">
+        <v>45045.89583333334</v>
+      </c>
+      <c r="F193" t="n">
+        <v>14</v>
+      </c>
+      <c r="G193" t="inlineStr">
+        <is>
+          <t>Boca Juniors</t>
+        </is>
+      </c>
+      <c r="H193" t="inlineStr">
+        <is>
+          <t>Racing Club</t>
+        </is>
+      </c>
+      <c r="I193" t="n">
+        <v>2</v>
+      </c>
+      <c r="J193" t="n">
+        <v>0</v>
+      </c>
+      <c r="K193" t="n">
+        <v>2</v>
+      </c>
+      <c r="L193" t="n">
+        <v>3</v>
+      </c>
+      <c r="M193" t="n">
+        <v>1</v>
+      </c>
+      <c r="N193" t="n">
+        <v>4</v>
+      </c>
+      <c r="O193" t="inlineStr">
+        <is>
+          <t>['3', '6', '90']</t>
+        </is>
+      </c>
+      <c r="P193" t="inlineStr">
+        <is>
+          <t>['69']</t>
+        </is>
+      </c>
+      <c r="Q193" t="n">
+        <v>4</v>
+      </c>
+      <c r="R193" t="n">
+        <v>6</v>
+      </c>
+      <c r="S193" t="n">
+        <v>10</v>
+      </c>
+      <c r="T193" t="n">
+        <v>3.15</v>
+      </c>
+      <c r="U193" t="n">
+        <v>1.89</v>
+      </c>
+      <c r="V193" t="n">
+        <v>3.8</v>
+      </c>
+      <c r="W193" t="n">
+        <v>1.48</v>
+      </c>
+      <c r="X193" t="n">
+        <v>2.58</v>
+      </c>
+      <c r="Y193" t="n">
+        <v>3.28</v>
+      </c>
+      <c r="Z193" t="n">
+        <v>1.31</v>
+      </c>
+      <c r="AA193" t="n">
+        <v>8</v>
+      </c>
+      <c r="AB193" t="n">
+        <v>1.05</v>
+      </c>
+      <c r="AC193" t="n">
+        <v>2.31</v>
+      </c>
+      <c r="AD193" t="n">
+        <v>3.15</v>
+      </c>
+      <c r="AE193" t="n">
+        <v>3.18</v>
+      </c>
+      <c r="AF193" t="n">
+        <v>1.05</v>
+      </c>
+      <c r="AG193" t="n">
+        <v>7.2</v>
+      </c>
+      <c r="AH193" t="n">
+        <v>1.42</v>
+      </c>
+      <c r="AI193" t="n">
+        <v>2.62</v>
+      </c>
+      <c r="AJ193" t="n">
+        <v>2.32</v>
+      </c>
+      <c r="AK193" t="n">
+        <v>1.62</v>
+      </c>
+      <c r="AL193" t="n">
+        <v>1.96</v>
+      </c>
+      <c r="AM193" t="n">
+        <v>1.79</v>
+      </c>
+      <c r="AN193" t="n">
+        <v>1.36</v>
+      </c>
+      <c r="AO193" t="n">
+        <v>1.38</v>
+      </c>
+      <c r="AP193" t="n">
+        <v>1.61</v>
+      </c>
+      <c r="AQ193" t="n">
+        <v>1.14</v>
+      </c>
+      <c r="AR193" t="n">
+        <v>1.17</v>
+      </c>
+      <c r="AS193" t="n">
+        <v>1.38</v>
+      </c>
+      <c r="AT193" t="n">
+        <v>1</v>
+      </c>
+      <c r="AU193" t="n">
+        <v>1.62</v>
+      </c>
+      <c r="AV193" t="n">
+        <v>1.31</v>
+      </c>
+      <c r="AW193" t="n">
+        <v>2.93</v>
+      </c>
+      <c r="AX193" t="n">
+        <v>1.81</v>
+      </c>
+      <c r="AY193" t="n">
+        <v>8.6</v>
+      </c>
+      <c r="AZ193" t="n">
+        <v>2.4</v>
+      </c>
+      <c r="BA193" t="n">
+        <v>1.33</v>
+      </c>
+      <c r="BB193" t="n">
+        <v>1.63</v>
+      </c>
+      <c r="BC193" t="n">
+        <v>2.09</v>
+      </c>
+      <c r="BD193" t="n">
+        <v>2.76</v>
+      </c>
+      <c r="BE193" t="n">
+        <v>3.74</v>
+      </c>
+      <c r="BF193" t="n">
+        <v>7</v>
+      </c>
+      <c r="BG193" t="n">
+        <v>5</v>
+      </c>
+      <c r="BH193" t="n">
+        <v>2</v>
+      </c>
+      <c r="BI193" t="n">
+        <v>3</v>
+      </c>
+      <c r="BJ193" t="n">
+        <v>9</v>
+      </c>
+      <c r="BK193" t="n">
+        <v>8</v>
       </c>
     </row>
   </sheetData>

--- a/Bases_de_Dados_(2022-2023)/Argentina Primera División_2023.xlsx
+++ b/Bases_de_Dados_(2022-2023)/Argentina Primera División_2023.xlsx
@@ -429,7 +429,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:BK193"/>
+  <dimension ref="A1:BK196"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1103,7 +1103,7 @@
         <v>0</v>
       </c>
       <c r="AS3" t="n">
-        <v>1.57</v>
+        <v>1.75</v>
       </c>
       <c r="AT3" t="n">
         <v>0.71</v>
@@ -1509,7 +1509,7 @@
         <v>0</v>
       </c>
       <c r="AS5" t="n">
-        <v>1.43</v>
+        <v>1.63</v>
       </c>
       <c r="AT5" t="n">
         <v>1</v>
@@ -2730,7 +2730,7 @@
         <v>1.57</v>
       </c>
       <c r="AT11" t="n">
-        <v>1.86</v>
+        <v>1.63</v>
       </c>
       <c r="AU11" t="n">
         <v>0</v>
@@ -3745,7 +3745,7 @@
         <v>1.67</v>
       </c>
       <c r="AT16" t="n">
-        <v>1</v>
+        <v>0.86</v>
       </c>
       <c r="AU16" t="n">
         <v>0</v>
@@ -5163,7 +5163,7 @@
         <v>0</v>
       </c>
       <c r="AS23" t="n">
-        <v>0.5</v>
+        <v>0.86</v>
       </c>
       <c r="AT23" t="n">
         <v>1.17</v>
@@ -5572,7 +5572,7 @@
         <v>1.83</v>
       </c>
       <c r="AT25" t="n">
-        <v>1.17</v>
+        <v>1</v>
       </c>
       <c r="AU25" t="n">
         <v>0</v>
@@ -6790,7 +6790,7 @@
         <v>1.43</v>
       </c>
       <c r="AT31" t="n">
-        <v>1.86</v>
+        <v>1.63</v>
       </c>
       <c r="AU31" t="n">
         <v>1.53</v>
@@ -7193,7 +7193,7 @@
         <v>1</v>
       </c>
       <c r="AS33" t="n">
-        <v>1.57</v>
+        <v>1.75</v>
       </c>
       <c r="AT33" t="n">
         <v>0.71</v>
@@ -7599,7 +7599,7 @@
         <v>0</v>
       </c>
       <c r="AS35" t="n">
-        <v>1.43</v>
+        <v>1.63</v>
       </c>
       <c r="AT35" t="n">
         <v>1.17</v>
@@ -10038,7 +10038,7 @@
         <v>2.17</v>
       </c>
       <c r="AT47" t="n">
-        <v>1</v>
+        <v>0.86</v>
       </c>
       <c r="AU47" t="n">
         <v>1.27</v>
@@ -10444,7 +10444,7 @@
         <v>2.17</v>
       </c>
       <c r="AT49" t="n">
-        <v>1.86</v>
+        <v>1.63</v>
       </c>
       <c r="AU49" t="n">
         <v>2.25</v>
@@ -11053,7 +11053,7 @@
         <v>0.83</v>
       </c>
       <c r="AT52" t="n">
-        <v>1.17</v>
+        <v>1</v>
       </c>
       <c r="AU52" t="n">
         <v>1.84</v>
@@ -11456,7 +11456,7 @@
         <v>3</v>
       </c>
       <c r="AS54" t="n">
-        <v>0.5</v>
+        <v>0.86</v>
       </c>
       <c r="AT54" t="n">
         <v>2.17</v>
@@ -11659,7 +11659,7 @@
         <v>1</v>
       </c>
       <c r="AS55" t="n">
-        <v>1.43</v>
+        <v>1.63</v>
       </c>
       <c r="AT55" t="n">
         <v>1.14</v>
@@ -13486,7 +13486,7 @@
         <v>0.5</v>
       </c>
       <c r="AS64" t="n">
-        <v>1.57</v>
+        <v>1.75</v>
       </c>
       <c r="AT64" t="n">
         <v>1</v>
@@ -15316,7 +15316,7 @@
         <v>1.43</v>
       </c>
       <c r="AT73" t="n">
-        <v>1</v>
+        <v>0.86</v>
       </c>
       <c r="AU73" t="n">
         <v>1.51</v>
@@ -15722,7 +15722,7 @@
         <v>1.57</v>
       </c>
       <c r="AT75" t="n">
-        <v>1.17</v>
+        <v>1</v>
       </c>
       <c r="AU75" t="n">
         <v>1.64</v>
@@ -16531,7 +16531,7 @@
         <v>1.5</v>
       </c>
       <c r="AS79" t="n">
-        <v>0.5</v>
+        <v>0.86</v>
       </c>
       <c r="AT79" t="n">
         <v>1.17</v>
@@ -17140,7 +17140,7 @@
         <v>0.5</v>
       </c>
       <c r="AS82" t="n">
-        <v>1.43</v>
+        <v>1.63</v>
       </c>
       <c r="AT82" t="n">
         <v>0.83</v>
@@ -17549,7 +17549,7 @@
         <v>1.17</v>
       </c>
       <c r="AT84" t="n">
-        <v>1.86</v>
+        <v>1.63</v>
       </c>
       <c r="AU84" t="n">
         <v>1.21</v>
@@ -18764,7 +18764,7 @@
         <v>3</v>
       </c>
       <c r="AS90" t="n">
-        <v>1.57</v>
+        <v>1.75</v>
       </c>
       <c r="AT90" t="n">
         <v>1.83</v>
@@ -21200,10 +21200,10 @@
         <v>0.67</v>
       </c>
       <c r="AS102" t="n">
-        <v>0.5</v>
+        <v>0.86</v>
       </c>
       <c r="AT102" t="n">
-        <v>1.17</v>
+        <v>1</v>
       </c>
       <c r="AU102" t="n">
         <v>1.71</v>
@@ -21812,7 +21812,7 @@
         <v>1.83</v>
       </c>
       <c r="AT105" t="n">
-        <v>1.86</v>
+        <v>1.63</v>
       </c>
       <c r="AU105" t="n">
         <v>1.52</v>
@@ -22418,7 +22418,7 @@
         <v>0</v>
       </c>
       <c r="AS108" t="n">
-        <v>1.43</v>
+        <v>1.63</v>
       </c>
       <c r="AT108" t="n">
         <v>0.83</v>
@@ -23233,7 +23233,7 @@
         <v>1.57</v>
       </c>
       <c r="AT112" t="n">
-        <v>1</v>
+        <v>0.86</v>
       </c>
       <c r="AU112" t="n">
         <v>1.67</v>
@@ -23636,7 +23636,7 @@
         <v>1.33</v>
       </c>
       <c r="AS114" t="n">
-        <v>1.57</v>
+        <v>1.75</v>
       </c>
       <c r="AT114" t="n">
         <v>0.83</v>
@@ -27087,7 +27087,7 @@
         <v>1</v>
       </c>
       <c r="AS131" t="n">
-        <v>1.43</v>
+        <v>1.63</v>
       </c>
       <c r="AT131" t="n">
         <v>0.86</v>
@@ -27699,7 +27699,7 @@
         <v>0.83</v>
       </c>
       <c r="AT134" t="n">
-        <v>1.86</v>
+        <v>1.63</v>
       </c>
       <c r="AU134" t="n">
         <v>1.47</v>
@@ -28102,7 +28102,7 @@
         <v>0.5</v>
       </c>
       <c r="AS136" t="n">
-        <v>1.57</v>
+        <v>1.75</v>
       </c>
       <c r="AT136" t="n">
         <v>1.14</v>
@@ -28305,7 +28305,7 @@
         <v>1</v>
       </c>
       <c r="AS137" t="n">
-        <v>0.5</v>
+        <v>0.86</v>
       </c>
       <c r="AT137" t="n">
         <v>1.86</v>
@@ -28714,7 +28714,7 @@
         <v>2</v>
       </c>
       <c r="AT139" t="n">
-        <v>1</v>
+        <v>0.86</v>
       </c>
       <c r="AU139" t="n">
         <v>1.19</v>
@@ -29120,7 +29120,7 @@
         <v>1.38</v>
       </c>
       <c r="AT141" t="n">
-        <v>1.17</v>
+        <v>1</v>
       </c>
       <c r="AU141" t="n">
         <v>1.67</v>
@@ -32162,7 +32162,7 @@
         <v>1.4</v>
       </c>
       <c r="AS156" t="n">
-        <v>1.57</v>
+        <v>1.75</v>
       </c>
       <c r="AT156" t="n">
         <v>1.17</v>
@@ -32774,7 +32774,7 @@
         <v>1.57</v>
       </c>
       <c r="AT159" t="n">
-        <v>1.86</v>
+        <v>1.63</v>
       </c>
       <c r="AU159" t="n">
         <v>1.6</v>
@@ -33380,7 +33380,7 @@
         <v>1.2</v>
       </c>
       <c r="AS162" t="n">
-        <v>0.5</v>
+        <v>0.86</v>
       </c>
       <c r="AT162" t="n">
         <v>1</v>
@@ -33786,7 +33786,7 @@
         <v>1.4</v>
       </c>
       <c r="AS164" t="n">
-        <v>1.43</v>
+        <v>1.63</v>
       </c>
       <c r="AT164" t="n">
         <v>1.29</v>
@@ -33992,7 +33992,7 @@
         <v>1.25</v>
       </c>
       <c r="AT165" t="n">
-        <v>1.17</v>
+        <v>1</v>
       </c>
       <c r="AU165" t="n">
         <v>1.64</v>
@@ -34601,7 +34601,7 @@
         <v>1</v>
       </c>
       <c r="AT168" t="n">
-        <v>1</v>
+        <v>0.86</v>
       </c>
       <c r="AU168" t="n">
         <v>1.48</v>
@@ -39728,6 +39728,615 @@
       </c>
       <c r="BK193" t="n">
         <v>8</v>
+      </c>
+    </row>
+    <row r="194">
+      <c r="A194" s="1" t="n">
+        <v>193</v>
+      </c>
+      <c r="B194" t="n">
+        <v>4554594</v>
+      </c>
+      <c r="C194" t="inlineStr">
+        <is>
+          <t>Argentina Primera División</t>
+        </is>
+      </c>
+      <c r="D194" t="inlineStr">
+        <is>
+          <t>2023</t>
+        </is>
+      </c>
+      <c r="E194" s="2" t="n">
+        <v>45046.64583333334</v>
+      </c>
+      <c r="F194" t="n">
+        <v>14</v>
+      </c>
+      <c r="G194" t="inlineStr">
+        <is>
+          <t>Defensa y Justicia</t>
+        </is>
+      </c>
+      <c r="H194" t="inlineStr">
+        <is>
+          <t>Colón</t>
+        </is>
+      </c>
+      <c r="I194" t="n">
+        <v>1</v>
+      </c>
+      <c r="J194" t="n">
+        <v>0</v>
+      </c>
+      <c r="K194" t="n">
+        <v>1</v>
+      </c>
+      <c r="L194" t="n">
+        <v>2</v>
+      </c>
+      <c r="M194" t="n">
+        <v>0</v>
+      </c>
+      <c r="N194" t="n">
+        <v>2</v>
+      </c>
+      <c r="O194" t="inlineStr">
+        <is>
+          <t>['23', '70']</t>
+        </is>
+      </c>
+      <c r="P194" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="Q194" t="n">
+        <v>6</v>
+      </c>
+      <c r="R194" t="n">
+        <v>4</v>
+      </c>
+      <c r="S194" t="n">
+        <v>10</v>
+      </c>
+      <c r="T194" t="n">
+        <v>3.07</v>
+      </c>
+      <c r="U194" t="n">
+        <v>2.11</v>
+      </c>
+      <c r="V194" t="n">
+        <v>3.97</v>
+      </c>
+      <c r="W194" t="n">
+        <v>1.47</v>
+      </c>
+      <c r="X194" t="n">
+        <v>2.7</v>
+      </c>
+      <c r="Y194" t="n">
+        <v>3.38</v>
+      </c>
+      <c r="Z194" t="n">
+        <v>1.33</v>
+      </c>
+      <c r="AA194" t="n">
+        <v>8.300000000000001</v>
+      </c>
+      <c r="AB194" t="n">
+        <v>1.06</v>
+      </c>
+      <c r="AC194" t="n">
+        <v>2.31</v>
+      </c>
+      <c r="AD194" t="n">
+        <v>3.3</v>
+      </c>
+      <c r="AE194" t="n">
+        <v>2.92</v>
+      </c>
+      <c r="AF194" t="n">
+        <v>1.04</v>
+      </c>
+      <c r="AG194" t="n">
+        <v>7.8</v>
+      </c>
+      <c r="AH194" t="n">
+        <v>1.42</v>
+      </c>
+      <c r="AI194" t="n">
+        <v>2.61</v>
+      </c>
+      <c r="AJ194" t="n">
+        <v>2.19</v>
+      </c>
+      <c r="AK194" t="n">
+        <v>1.69</v>
+      </c>
+      <c r="AL194" t="n">
+        <v>1.97</v>
+      </c>
+      <c r="AM194" t="n">
+        <v>1.81</v>
+      </c>
+      <c r="AN194" t="n">
+        <v>1.31</v>
+      </c>
+      <c r="AO194" t="n">
+        <v>1.31</v>
+      </c>
+      <c r="AP194" t="n">
+        <v>1.54</v>
+      </c>
+      <c r="AQ194" t="n">
+        <v>1.57</v>
+      </c>
+      <c r="AR194" t="n">
+        <v>1.17</v>
+      </c>
+      <c r="AS194" t="n">
+        <v>1.75</v>
+      </c>
+      <c r="AT194" t="n">
+        <v>1</v>
+      </c>
+      <c r="AU194" t="n">
+        <v>1.4</v>
+      </c>
+      <c r="AV194" t="n">
+        <v>1.16</v>
+      </c>
+      <c r="AW194" t="n">
+        <v>2.56</v>
+      </c>
+      <c r="AX194" t="n">
+        <v>1.91</v>
+      </c>
+      <c r="AY194" t="n">
+        <v>8</v>
+      </c>
+      <c r="AZ194" t="n">
+        <v>2.1</v>
+      </c>
+      <c r="BA194" t="n">
+        <v>1.21</v>
+      </c>
+      <c r="BB194" t="n">
+        <v>1.41</v>
+      </c>
+      <c r="BC194" t="n">
+        <v>1.73</v>
+      </c>
+      <c r="BD194" t="n">
+        <v>2.17</v>
+      </c>
+      <c r="BE194" t="n">
+        <v>2.84</v>
+      </c>
+      <c r="BF194" t="n">
+        <v>9</v>
+      </c>
+      <c r="BG194" t="n">
+        <v>2</v>
+      </c>
+      <c r="BH194" t="n">
+        <v>6</v>
+      </c>
+      <c r="BI194" t="n">
+        <v>4</v>
+      </c>
+      <c r="BJ194" t="n">
+        <v>15</v>
+      </c>
+      <c r="BK194" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="195">
+      <c r="A195" s="1" t="n">
+        <v>194</v>
+      </c>
+      <c r="B195" t="n">
+        <v>4554600</v>
+      </c>
+      <c r="C195" t="inlineStr">
+        <is>
+          <t>Argentina Primera División</t>
+        </is>
+      </c>
+      <c r="D195" t="inlineStr">
+        <is>
+          <t>2023</t>
+        </is>
+      </c>
+      <c r="E195" s="2" t="n">
+        <v>45046.75</v>
+      </c>
+      <c r="F195" t="n">
+        <v>14</v>
+      </c>
+      <c r="G195" t="inlineStr">
+        <is>
+          <t>Independiente</t>
+        </is>
+      </c>
+      <c r="H195" t="inlineStr">
+        <is>
+          <t>Belgrano</t>
+        </is>
+      </c>
+      <c r="I195" t="n">
+        <v>1</v>
+      </c>
+      <c r="J195" t="n">
+        <v>0</v>
+      </c>
+      <c r="K195" t="n">
+        <v>1</v>
+      </c>
+      <c r="L195" t="n">
+        <v>2</v>
+      </c>
+      <c r="M195" t="n">
+        <v>0</v>
+      </c>
+      <c r="N195" t="n">
+        <v>2</v>
+      </c>
+      <c r="O195" t="inlineStr">
+        <is>
+          <t>['9', '89']</t>
+        </is>
+      </c>
+      <c r="P195" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="Q195" t="n">
+        <v>3</v>
+      </c>
+      <c r="R195" t="n">
+        <v>3</v>
+      </c>
+      <c r="S195" t="n">
+        <v>6</v>
+      </c>
+      <c r="T195" t="n">
+        <v>3.1</v>
+      </c>
+      <c r="U195" t="n">
+        <v>1.91</v>
+      </c>
+      <c r="V195" t="n">
+        <v>4.1</v>
+      </c>
+      <c r="W195" t="n">
+        <v>1.54</v>
+      </c>
+      <c r="X195" t="n">
+        <v>2.33</v>
+      </c>
+      <c r="Y195" t="n">
+        <v>4</v>
+      </c>
+      <c r="Z195" t="n">
+        <v>1.23</v>
+      </c>
+      <c r="AA195" t="n">
+        <v>12.5</v>
+      </c>
+      <c r="AB195" t="n">
+        <v>1.03</v>
+      </c>
+      <c r="AC195" t="n">
+        <v>2.3</v>
+      </c>
+      <c r="AD195" t="n">
+        <v>3.1</v>
+      </c>
+      <c r="AE195" t="n">
+        <v>3.4</v>
+      </c>
+      <c r="AF195" t="n">
+        <v>1.1</v>
+      </c>
+      <c r="AG195" t="n">
+        <v>5.7</v>
+      </c>
+      <c r="AH195" t="n">
+        <v>1.56</v>
+      </c>
+      <c r="AI195" t="n">
+        <v>2.43</v>
+      </c>
+      <c r="AJ195" t="n">
+        <v>2.5</v>
+      </c>
+      <c r="AK195" t="n">
+        <v>1.45</v>
+      </c>
+      <c r="AL195" t="n">
+        <v>2.28</v>
+      </c>
+      <c r="AM195" t="n">
+        <v>1.6</v>
+      </c>
+      <c r="AN195" t="n">
+        <v>1.33</v>
+      </c>
+      <c r="AO195" t="n">
+        <v>1.38</v>
+      </c>
+      <c r="AP195" t="n">
+        <v>1.64</v>
+      </c>
+      <c r="AQ195" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="AR195" t="n">
+        <v>1.86</v>
+      </c>
+      <c r="AS195" t="n">
+        <v>0.86</v>
+      </c>
+      <c r="AT195" t="n">
+        <v>1.63</v>
+      </c>
+      <c r="AU195" t="n">
+        <v>1.38</v>
+      </c>
+      <c r="AV195" t="n">
+        <v>1.29</v>
+      </c>
+      <c r="AW195" t="n">
+        <v>2.67</v>
+      </c>
+      <c r="AX195" t="n">
+        <v>1.69</v>
+      </c>
+      <c r="AY195" t="n">
+        <v>8</v>
+      </c>
+      <c r="AZ195" t="n">
+        <v>2.63</v>
+      </c>
+      <c r="BA195" t="n">
+        <v>1.26</v>
+      </c>
+      <c r="BB195" t="n">
+        <v>1.5</v>
+      </c>
+      <c r="BC195" t="n">
+        <v>1.87</v>
+      </c>
+      <c r="BD195" t="n">
+        <v>2.41</v>
+      </c>
+      <c r="BE195" t="n">
+        <v>3.2</v>
+      </c>
+      <c r="BF195" t="n">
+        <v>8</v>
+      </c>
+      <c r="BG195" t="n">
+        <v>3</v>
+      </c>
+      <c r="BH195" t="n">
+        <v>4</v>
+      </c>
+      <c r="BI195" t="n">
+        <v>4</v>
+      </c>
+      <c r="BJ195" t="n">
+        <v>12</v>
+      </c>
+      <c r="BK195" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="196">
+      <c r="A196" s="1" t="n">
+        <v>195</v>
+      </c>
+      <c r="B196" t="n">
+        <v>4554597</v>
+      </c>
+      <c r="C196" t="inlineStr">
+        <is>
+          <t>Argentina Primera División</t>
+        </is>
+      </c>
+      <c r="D196" t="inlineStr">
+        <is>
+          <t>2023</t>
+        </is>
+      </c>
+      <c r="E196" s="2" t="n">
+        <v>45046.85416666666</v>
+      </c>
+      <c r="F196" t="n">
+        <v>14</v>
+      </c>
+      <c r="G196" t="inlineStr">
+        <is>
+          <t>Talleres Córdoba</t>
+        </is>
+      </c>
+      <c r="H196" t="inlineStr">
+        <is>
+          <t>Rosario Central</t>
+        </is>
+      </c>
+      <c r="I196" t="n">
+        <v>1</v>
+      </c>
+      <c r="J196" t="n">
+        <v>1</v>
+      </c>
+      <c r="K196" t="n">
+        <v>2</v>
+      </c>
+      <c r="L196" t="n">
+        <v>3</v>
+      </c>
+      <c r="M196" t="n">
+        <v>1</v>
+      </c>
+      <c r="N196" t="n">
+        <v>4</v>
+      </c>
+      <c r="O196" t="inlineStr">
+        <is>
+          <t>['1', '71', '72']</t>
+        </is>
+      </c>
+      <c r="P196" t="inlineStr">
+        <is>
+          <t>['40']</t>
+        </is>
+      </c>
+      <c r="Q196" t="n">
+        <v>2</v>
+      </c>
+      <c r="R196" t="n">
+        <v>2</v>
+      </c>
+      <c r="S196" t="n">
+        <v>4</v>
+      </c>
+      <c r="T196" t="n">
+        <v>2.58</v>
+      </c>
+      <c r="U196" t="n">
+        <v>1.99</v>
+      </c>
+      <c r="V196" t="n">
+        <v>4.75</v>
+      </c>
+      <c r="W196" t="n">
+        <v>1.5</v>
+      </c>
+      <c r="X196" t="n">
+        <v>2.5</v>
+      </c>
+      <c r="Y196" t="n">
+        <v>3.4</v>
+      </c>
+      <c r="Z196" t="n">
+        <v>1.3</v>
+      </c>
+      <c r="AA196" t="n">
+        <v>10</v>
+      </c>
+      <c r="AB196" t="n">
+        <v>1.06</v>
+      </c>
+      <c r="AC196" t="n">
+        <v>1.79</v>
+      </c>
+      <c r="AD196" t="n">
+        <v>3.33</v>
+      </c>
+      <c r="AE196" t="n">
+        <v>4.78</v>
+      </c>
+      <c r="AF196" t="n">
+        <v>1.07</v>
+      </c>
+      <c r="AG196" t="n">
+        <v>8.25</v>
+      </c>
+      <c r="AH196" t="n">
+        <v>1.41</v>
+      </c>
+      <c r="AI196" t="n">
+        <v>2.65</v>
+      </c>
+      <c r="AJ196" t="n">
+        <v>2.24</v>
+      </c>
+      <c r="AK196" t="n">
+        <v>1.55</v>
+      </c>
+      <c r="AL196" t="n">
+        <v>2.1</v>
+      </c>
+      <c r="AM196" t="n">
+        <v>1.67</v>
+      </c>
+      <c r="AN196" t="n">
+        <v>1.17</v>
+      </c>
+      <c r="AO196" t="n">
+        <v>1.32</v>
+      </c>
+      <c r="AP196" t="n">
+        <v>2</v>
+      </c>
+      <c r="AQ196" t="n">
+        <v>1.43</v>
+      </c>
+      <c r="AR196" t="n">
+        <v>1</v>
+      </c>
+      <c r="AS196" t="n">
+        <v>1.63</v>
+      </c>
+      <c r="AT196" t="n">
+        <v>0.86</v>
+      </c>
+      <c r="AU196" t="n">
+        <v>1.52</v>
+      </c>
+      <c r="AV196" t="n">
+        <v>1.3</v>
+      </c>
+      <c r="AW196" t="n">
+        <v>2.82</v>
+      </c>
+      <c r="AX196" t="n">
+        <v>1.55</v>
+      </c>
+      <c r="AY196" t="n">
+        <v>9.4</v>
+      </c>
+      <c r="AZ196" t="n">
+        <v>3</v>
+      </c>
+      <c r="BA196" t="n">
+        <v>1.24</v>
+      </c>
+      <c r="BB196" t="n">
+        <v>1.47</v>
+      </c>
+      <c r="BC196" t="n">
+        <v>1.83</v>
+      </c>
+      <c r="BD196" t="n">
+        <v>2.33</v>
+      </c>
+      <c r="BE196" t="n">
+        <v>3.08</v>
+      </c>
+      <c r="BF196" t="n">
+        <v>8</v>
+      </c>
+      <c r="BG196" t="n">
+        <v>5</v>
+      </c>
+      <c r="BH196" t="n">
+        <v>6</v>
+      </c>
+      <c r="BI196" t="n">
+        <v>4</v>
+      </c>
+      <c r="BJ196" t="n">
+        <v>14</v>
+      </c>
+      <c r="BK196" t="n">
+        <v>9</v>
       </c>
     </row>
   </sheetData>

--- a/Bases_de_Dados_(2022-2023)/Argentina Primera División_2023.xlsx
+++ b/Bases_de_Dados_(2022-2023)/Argentina Primera División_2023.xlsx
@@ -429,7 +429,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:BK196"/>
+  <dimension ref="A1:BK198"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -3133,7 +3133,7 @@
         <v>0</v>
       </c>
       <c r="AS13" t="n">
-        <v>1.14</v>
+        <v>1.38</v>
       </c>
       <c r="AT13" t="n">
         <v>1.25</v>
@@ -3542,7 +3542,7 @@
         <v>1.25</v>
       </c>
       <c r="AT15" t="n">
-        <v>0.43</v>
+        <v>0.5</v>
       </c>
       <c r="AU15" t="n">
         <v>0</v>
@@ -5569,7 +5569,7 @@
         <v>0</v>
       </c>
       <c r="AS25" t="n">
-        <v>1.83</v>
+        <v>1.71</v>
       </c>
       <c r="AT25" t="n">
         <v>1</v>
@@ -5978,7 +5978,7 @@
         <v>0.83</v>
       </c>
       <c r="AT27" t="n">
-        <v>1.17</v>
+        <v>1</v>
       </c>
       <c r="AU27" t="n">
         <v>0</v>
@@ -9020,10 +9020,10 @@
         <v>1</v>
       </c>
       <c r="AS42" t="n">
-        <v>1.14</v>
+        <v>1.38</v>
       </c>
       <c r="AT42" t="n">
-        <v>0.43</v>
+        <v>0.5</v>
       </c>
       <c r="AU42" t="n">
         <v>0.67</v>
@@ -9429,7 +9429,7 @@
         <v>1.57</v>
       </c>
       <c r="AT44" t="n">
-        <v>1.17</v>
+        <v>1</v>
       </c>
       <c r="AU44" t="n">
         <v>1.83</v>
@@ -10644,7 +10644,7 @@
         <v>1</v>
       </c>
       <c r="AS50" t="n">
-        <v>1.83</v>
+        <v>1.71</v>
       </c>
       <c r="AT50" t="n">
         <v>1.86</v>
@@ -12677,7 +12677,7 @@
         <v>2.71</v>
       </c>
       <c r="AT60" t="n">
-        <v>0.43</v>
+        <v>0.5</v>
       </c>
       <c r="AU60" t="n">
         <v>1.46</v>
@@ -14501,7 +14501,7 @@
         <v>0.5</v>
       </c>
       <c r="AS69" t="n">
-        <v>1.14</v>
+        <v>1.38</v>
       </c>
       <c r="AT69" t="n">
         <v>0.57</v>
@@ -16534,7 +16534,7 @@
         <v>0.86</v>
       </c>
       <c r="AT79" t="n">
-        <v>1.17</v>
+        <v>1</v>
       </c>
       <c r="AU79" t="n">
         <v>1.59</v>
@@ -17343,7 +17343,7 @@
         <v>1.5</v>
       </c>
       <c r="AS83" t="n">
-        <v>1.83</v>
+        <v>1.71</v>
       </c>
       <c r="AT83" t="n">
         <v>1</v>
@@ -17952,7 +17952,7 @@
         <v>1.67</v>
       </c>
       <c r="AS86" t="n">
-        <v>1.14</v>
+        <v>1.38</v>
       </c>
       <c r="AT86" t="n">
         <v>1</v>
@@ -20188,7 +20188,7 @@
         <v>2.43</v>
       </c>
       <c r="AT97" t="n">
-        <v>0.43</v>
+        <v>0.5</v>
       </c>
       <c r="AU97" t="n">
         <v>1.7</v>
@@ -21809,7 +21809,7 @@
         <v>1.75</v>
       </c>
       <c r="AS105" t="n">
-        <v>1.83</v>
+        <v>1.71</v>
       </c>
       <c r="AT105" t="n">
         <v>1.63</v>
@@ -22218,7 +22218,7 @@
         <v>1.38</v>
       </c>
       <c r="AT107" t="n">
-        <v>1.17</v>
+        <v>1</v>
       </c>
       <c r="AU107" t="n">
         <v>1.64</v>
@@ -24451,7 +24451,7 @@
         <v>2.5</v>
       </c>
       <c r="AT118" t="n">
-        <v>0.43</v>
+        <v>0.5</v>
       </c>
       <c r="AU118" t="n">
         <v>1.71</v>
@@ -24651,7 +24651,7 @@
         <v>1</v>
       </c>
       <c r="AS119" t="n">
-        <v>1.14</v>
+        <v>1.38</v>
       </c>
       <c r="AT119" t="n">
         <v>1.17</v>
@@ -26481,7 +26481,7 @@
         <v>1.25</v>
       </c>
       <c r="AT128" t="n">
-        <v>1.17</v>
+        <v>1</v>
       </c>
       <c r="AU128" t="n">
         <v>1.47</v>
@@ -28508,7 +28508,7 @@
         <v>1.4</v>
       </c>
       <c r="AS138" t="n">
-        <v>1.83</v>
+        <v>1.71</v>
       </c>
       <c r="AT138" t="n">
         <v>1.25</v>
@@ -29320,7 +29320,7 @@
         <v>1.75</v>
       </c>
       <c r="AS142" t="n">
-        <v>1.14</v>
+        <v>1.38</v>
       </c>
       <c r="AT142" t="n">
         <v>1.17</v>
@@ -29526,7 +29526,7 @@
         <v>2.17</v>
       </c>
       <c r="AT143" t="n">
-        <v>0.43</v>
+        <v>0.5</v>
       </c>
       <c r="AU143" t="n">
         <v>1.86</v>
@@ -32165,7 +32165,7 @@
         <v>1.75</v>
       </c>
       <c r="AT156" t="n">
-        <v>1.17</v>
+        <v>1</v>
       </c>
       <c r="AU156" t="n">
         <v>1.39</v>
@@ -34801,7 +34801,7 @@
         <v>1.33</v>
       </c>
       <c r="AS169" t="n">
-        <v>1.83</v>
+        <v>1.71</v>
       </c>
       <c r="AT169" t="n">
         <v>1.29</v>
@@ -35413,7 +35413,7 @@
         <v>1.17</v>
       </c>
       <c r="AT172" t="n">
-        <v>0.43</v>
+        <v>0.5</v>
       </c>
       <c r="AU172" t="n">
         <v>1.13</v>
@@ -37034,7 +37034,7 @@
         <v>2</v>
       </c>
       <c r="AS180" t="n">
-        <v>1.14</v>
+        <v>1.38</v>
       </c>
       <c r="AT180" t="n">
         <v>2.17</v>
@@ -40337,6 +40337,412 @@
       </c>
       <c r="BK196" t="n">
         <v>9</v>
+      </c>
+    </row>
+    <row r="197">
+      <c r="A197" s="1" t="n">
+        <v>196</v>
+      </c>
+      <c r="B197" t="n">
+        <v>5019512</v>
+      </c>
+      <c r="C197" t="inlineStr">
+        <is>
+          <t>Argentina Primera División</t>
+        </is>
+      </c>
+      <c r="D197" t="inlineStr">
+        <is>
+          <t>2023</t>
+        </is>
+      </c>
+      <c r="E197" s="2" t="n">
+        <v>45051.64583333334</v>
+      </c>
+      <c r="F197" t="n">
+        <v>15</v>
+      </c>
+      <c r="G197" t="inlineStr">
+        <is>
+          <t>Barracas Central</t>
+        </is>
+      </c>
+      <c r="H197" t="inlineStr">
+        <is>
+          <t>Instituto</t>
+        </is>
+      </c>
+      <c r="I197" t="n">
+        <v>1</v>
+      </c>
+      <c r="J197" t="n">
+        <v>0</v>
+      </c>
+      <c r="K197" t="n">
+        <v>1</v>
+      </c>
+      <c r="L197" t="n">
+        <v>3</v>
+      </c>
+      <c r="M197" t="n">
+        <v>0</v>
+      </c>
+      <c r="N197" t="n">
+        <v>3</v>
+      </c>
+      <c r="O197" t="inlineStr">
+        <is>
+          <t>['24', '63', '74']</t>
+        </is>
+      </c>
+      <c r="P197" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="Q197" t="n">
+        <v>8</v>
+      </c>
+      <c r="R197" t="n">
+        <v>11</v>
+      </c>
+      <c r="S197" t="n">
+        <v>19</v>
+      </c>
+      <c r="T197" t="n">
+        <v>3.95</v>
+      </c>
+      <c r="U197" t="n">
+        <v>2.05</v>
+      </c>
+      <c r="V197" t="n">
+        <v>3.22</v>
+      </c>
+      <c r="W197" t="n">
+        <v>1.52</v>
+      </c>
+      <c r="X197" t="n">
+        <v>2.57</v>
+      </c>
+      <c r="Y197" t="n">
+        <v>3.3</v>
+      </c>
+      <c r="Z197" t="n">
+        <v>1.25</v>
+      </c>
+      <c r="AA197" t="n">
+        <v>12</v>
+      </c>
+      <c r="AB197" t="n">
+        <v>1.04</v>
+      </c>
+      <c r="AC197" t="n">
+        <v>2.92</v>
+      </c>
+      <c r="AD197" t="n">
+        <v>3.05</v>
+      </c>
+      <c r="AE197" t="n">
+        <v>2.38</v>
+      </c>
+      <c r="AF197" t="n">
+        <v>1.09</v>
+      </c>
+      <c r="AG197" t="n">
+        <v>7.25</v>
+      </c>
+      <c r="AH197" t="n">
+        <v>1.48</v>
+      </c>
+      <c r="AI197" t="n">
+        <v>2.5</v>
+      </c>
+      <c r="AJ197" t="n">
+        <v>2.45</v>
+      </c>
+      <c r="AK197" t="n">
+        <v>1.48</v>
+      </c>
+      <c r="AL197" t="n">
+        <v>2.1</v>
+      </c>
+      <c r="AM197" t="n">
+        <v>1.68</v>
+      </c>
+      <c r="AN197" t="n">
+        <v>1.55</v>
+      </c>
+      <c r="AO197" t="n">
+        <v>1.3</v>
+      </c>
+      <c r="AP197" t="n">
+        <v>1.35</v>
+      </c>
+      <c r="AQ197" t="n">
+        <v>1.14</v>
+      </c>
+      <c r="AR197" t="n">
+        <v>1.17</v>
+      </c>
+      <c r="AS197" t="n">
+        <v>1.38</v>
+      </c>
+      <c r="AT197" t="n">
+        <v>1</v>
+      </c>
+      <c r="AU197" t="n">
+        <v>0.86</v>
+      </c>
+      <c r="AV197" t="n">
+        <v>1.31</v>
+      </c>
+      <c r="AW197" t="n">
+        <v>2.17</v>
+      </c>
+      <c r="AX197" t="n">
+        <v>2.6</v>
+      </c>
+      <c r="AY197" t="n">
+        <v>7</v>
+      </c>
+      <c r="AZ197" t="n">
+        <v>1.74</v>
+      </c>
+      <c r="BA197" t="n">
+        <v>1.27</v>
+      </c>
+      <c r="BB197" t="n">
+        <v>1.5</v>
+      </c>
+      <c r="BC197" t="n">
+        <v>1.95</v>
+      </c>
+      <c r="BD197" t="n">
+        <v>2.45</v>
+      </c>
+      <c r="BE197" t="n">
+        <v>3.4</v>
+      </c>
+      <c r="BF197" t="n">
+        <v>7</v>
+      </c>
+      <c r="BG197" t="n">
+        <v>6</v>
+      </c>
+      <c r="BH197" t="n">
+        <v>8</v>
+      </c>
+      <c r="BI197" t="n">
+        <v>8</v>
+      </c>
+      <c r="BJ197" t="n">
+        <v>15</v>
+      </c>
+      <c r="BK197" t="n">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="198">
+      <c r="A198" s="1" t="n">
+        <v>197</v>
+      </c>
+      <c r="B198" t="n">
+        <v>4554605</v>
+      </c>
+      <c r="C198" t="inlineStr">
+        <is>
+          <t>Argentina Primera División</t>
+        </is>
+      </c>
+      <c r="D198" t="inlineStr">
+        <is>
+          <t>2023</t>
+        </is>
+      </c>
+      <c r="E198" s="2" t="n">
+        <v>45051.64583333334</v>
+      </c>
+      <c r="F198" t="n">
+        <v>15</v>
+      </c>
+      <c r="G198" t="inlineStr">
+        <is>
+          <t>Godoy Cruz</t>
+        </is>
+      </c>
+      <c r="H198" t="inlineStr">
+        <is>
+          <t>Unión Santa Fe</t>
+        </is>
+      </c>
+      <c r="I198" t="n">
+        <v>0</v>
+      </c>
+      <c r="J198" t="n">
+        <v>0</v>
+      </c>
+      <c r="K198" t="n">
+        <v>0</v>
+      </c>
+      <c r="L198" t="n">
+        <v>0</v>
+      </c>
+      <c r="M198" t="n">
+        <v>0</v>
+      </c>
+      <c r="N198" t="n">
+        <v>0</v>
+      </c>
+      <c r="O198" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="P198" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="Q198" t="n">
+        <v>6</v>
+      </c>
+      <c r="R198" t="n">
+        <v>5</v>
+      </c>
+      <c r="S198" t="n">
+        <v>11</v>
+      </c>
+      <c r="T198" t="n">
+        <v>2.88</v>
+      </c>
+      <c r="U198" t="n">
+        <v>2</v>
+      </c>
+      <c r="V198" t="n">
+        <v>4.33</v>
+      </c>
+      <c r="W198" t="n">
+        <v>1.5</v>
+      </c>
+      <c r="X198" t="n">
+        <v>2.5</v>
+      </c>
+      <c r="Y198" t="n">
+        <v>3.4</v>
+      </c>
+      <c r="Z198" t="n">
+        <v>1.3</v>
+      </c>
+      <c r="AA198" t="n">
+        <v>10</v>
+      </c>
+      <c r="AB198" t="n">
+        <v>1.06</v>
+      </c>
+      <c r="AC198" t="n">
+        <v>2.1</v>
+      </c>
+      <c r="AD198" t="n">
+        <v>3.2</v>
+      </c>
+      <c r="AE198" t="n">
+        <v>3.6</v>
+      </c>
+      <c r="AF198" t="n">
+        <v>1.05</v>
+      </c>
+      <c r="AG198" t="n">
+        <v>8.75</v>
+      </c>
+      <c r="AH198" t="n">
+        <v>1.4</v>
+      </c>
+      <c r="AI198" t="n">
+        <v>2.85</v>
+      </c>
+      <c r="AJ198" t="n">
+        <v>2.3</v>
+      </c>
+      <c r="AK198" t="n">
+        <v>1.6</v>
+      </c>
+      <c r="AL198" t="n">
+        <v>2</v>
+      </c>
+      <c r="AM198" t="n">
+        <v>1.75</v>
+      </c>
+      <c r="AN198" t="n">
+        <v>1.28</v>
+      </c>
+      <c r="AO198" t="n">
+        <v>1.28</v>
+      </c>
+      <c r="AP198" t="n">
+        <v>1.62</v>
+      </c>
+      <c r="AQ198" t="n">
+        <v>1.83</v>
+      </c>
+      <c r="AR198" t="n">
+        <v>0.43</v>
+      </c>
+      <c r="AS198" t="n">
+        <v>1.71</v>
+      </c>
+      <c r="AT198" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="AU198" t="n">
+        <v>1.41</v>
+      </c>
+      <c r="AV198" t="n">
+        <v>1.06</v>
+      </c>
+      <c r="AW198" t="n">
+        <v>2.47</v>
+      </c>
+      <c r="AX198" t="n">
+        <v>1.92</v>
+      </c>
+      <c r="AY198" t="n">
+        <v>8.9</v>
+      </c>
+      <c r="AZ198" t="n">
+        <v>2.17</v>
+      </c>
+      <c r="BA198" t="n">
+        <v>1.24</v>
+      </c>
+      <c r="BB198" t="n">
+        <v>1.46</v>
+      </c>
+      <c r="BC198" t="n">
+        <v>1.82</v>
+      </c>
+      <c r="BD198" t="n">
+        <v>2.4</v>
+      </c>
+      <c r="BE198" t="n">
+        <v>3.3</v>
+      </c>
+      <c r="BF198" t="n">
+        <v>5</v>
+      </c>
+      <c r="BG198" t="n">
+        <v>6</v>
+      </c>
+      <c r="BH198" t="n">
+        <v>15</v>
+      </c>
+      <c r="BI198" t="n">
+        <v>7</v>
+      </c>
+      <c r="BJ198" t="n">
+        <v>20</v>
+      </c>
+      <c r="BK198" t="n">
+        <v>13</v>
       </c>
     </row>
   </sheetData>

--- a/Bases_de_Dados_(2022-2023)/Argentina Primera División_2023.xlsx
+++ b/Bases_de_Dados_(2022-2023)/Argentina Primera División_2023.xlsx
@@ -429,7 +429,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:BK198"/>
+  <dimension ref="A1:BK202"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1106,7 +1106,7 @@
         <v>1.75</v>
       </c>
       <c r="AT3" t="n">
-        <v>0.71</v>
+        <v>0.63</v>
       </c>
       <c r="AU3" t="n">
         <v>0</v>
@@ -2524,7 +2524,7 @@
         <v>0</v>
       </c>
       <c r="AS10" t="n">
-        <v>1</v>
+        <v>1.25</v>
       </c>
       <c r="AT10" t="n">
         <v>1.29</v>
@@ -2933,7 +2933,7 @@
         <v>1.38</v>
       </c>
       <c r="AT12" t="n">
-        <v>1</v>
+        <v>0.88</v>
       </c>
       <c r="AU12" t="n">
         <v>0</v>
@@ -4554,7 +4554,7 @@
         <v>3</v>
       </c>
       <c r="AS20" t="n">
-        <v>1.83</v>
+        <v>2</v>
       </c>
       <c r="AT20" t="n">
         <v>2.38</v>
@@ -4757,7 +4757,7 @@
         <v>0</v>
       </c>
       <c r="AS21" t="n">
-        <v>2.17</v>
+        <v>2.29</v>
       </c>
       <c r="AT21" t="n">
         <v>1.29</v>
@@ -4960,7 +4960,7 @@
         <v>0</v>
       </c>
       <c r="AS22" t="n">
-        <v>2.17</v>
+        <v>2</v>
       </c>
       <c r="AT22" t="n">
         <v>1</v>
@@ -6384,7 +6384,7 @@
         <v>1.57</v>
       </c>
       <c r="AT29" t="n">
-        <v>0.83</v>
+        <v>0.71</v>
       </c>
       <c r="AU29" t="n">
         <v>0</v>
@@ -6584,7 +6584,7 @@
         <v>1</v>
       </c>
       <c r="AS30" t="n">
-        <v>1</v>
+        <v>1.25</v>
       </c>
       <c r="AT30" t="n">
         <v>0.86</v>
@@ -7399,7 +7399,7 @@
         <v>1.25</v>
       </c>
       <c r="AT34" t="n">
-        <v>1</v>
+        <v>0.88</v>
       </c>
       <c r="AU34" t="n">
         <v>1.36</v>
@@ -8617,7 +8617,7 @@
         <v>1.25</v>
       </c>
       <c r="AT40" t="n">
-        <v>0.71</v>
+        <v>0.63</v>
       </c>
       <c r="AU40" t="n">
         <v>1.76</v>
@@ -10035,7 +10035,7 @@
         <v>1</v>
       </c>
       <c r="AS47" t="n">
-        <v>2.17</v>
+        <v>2.29</v>
       </c>
       <c r="AT47" t="n">
         <v>0.86</v>
@@ -10441,7 +10441,7 @@
         <v>2</v>
       </c>
       <c r="AS49" t="n">
-        <v>2.17</v>
+        <v>2</v>
       </c>
       <c r="AT49" t="n">
         <v>1.63</v>
@@ -10850,7 +10850,7 @@
         <v>2</v>
       </c>
       <c r="AT51" t="n">
-        <v>0.83</v>
+        <v>0.71</v>
       </c>
       <c r="AU51" t="n">
         <v>0.67</v>
@@ -12268,7 +12268,7 @@
         <v>2</v>
       </c>
       <c r="AS58" t="n">
-        <v>1.83</v>
+        <v>2</v>
       </c>
       <c r="AT58" t="n">
         <v>1.25</v>
@@ -13489,7 +13489,7 @@
         <v>1.75</v>
       </c>
       <c r="AT64" t="n">
-        <v>1</v>
+        <v>0.88</v>
       </c>
       <c r="AU64" t="n">
         <v>1.26</v>
@@ -13689,10 +13689,10 @@
         <v>2</v>
       </c>
       <c r="AS65" t="n">
-        <v>1</v>
+        <v>1.25</v>
       </c>
       <c r="AT65" t="n">
-        <v>0.71</v>
+        <v>0.63</v>
       </c>
       <c r="AU65" t="n">
         <v>2.06</v>
@@ -15922,7 +15922,7 @@
         <v>2</v>
       </c>
       <c r="AS76" t="n">
-        <v>2.17</v>
+        <v>2.29</v>
       </c>
       <c r="AT76" t="n">
         <v>2.38</v>
@@ -16128,7 +16128,7 @@
         <v>1</v>
       </c>
       <c r="AT77" t="n">
-        <v>0.83</v>
+        <v>0.71</v>
       </c>
       <c r="AU77" t="n">
         <v>1.19</v>
@@ -18155,7 +18155,7 @@
         <v>1</v>
       </c>
       <c r="AS87" t="n">
-        <v>2.17</v>
+        <v>2</v>
       </c>
       <c r="AT87" t="n">
         <v>0.5</v>
@@ -18361,7 +18361,7 @@
         <v>1.25</v>
       </c>
       <c r="AT88" t="n">
-        <v>1</v>
+        <v>0.88</v>
       </c>
       <c r="AU88" t="n">
         <v>1.59</v>
@@ -19170,7 +19170,7 @@
         <v>2</v>
       </c>
       <c r="AS92" t="n">
-        <v>1.83</v>
+        <v>2</v>
       </c>
       <c r="AT92" t="n">
         <v>1.29</v>
@@ -19782,7 +19782,7 @@
         <v>1.57</v>
       </c>
       <c r="AT95" t="n">
-        <v>0.71</v>
+        <v>0.63</v>
       </c>
       <c r="AU95" t="n">
         <v>1.86</v>
@@ -20591,7 +20591,7 @@
         <v>0.33</v>
       </c>
       <c r="AS99" t="n">
-        <v>1</v>
+        <v>1.25</v>
       </c>
       <c r="AT99" t="n">
         <v>0.71</v>
@@ -22421,7 +22421,7 @@
         <v>1.63</v>
       </c>
       <c r="AT108" t="n">
-        <v>0.83</v>
+        <v>0.71</v>
       </c>
       <c r="AU108" t="n">
         <v>1.46</v>
@@ -23027,7 +23027,7 @@
         <v>0.75</v>
       </c>
       <c r="AS111" t="n">
-        <v>2.17</v>
+        <v>2.29</v>
       </c>
       <c r="AT111" t="n">
         <v>0.75</v>
@@ -23839,7 +23839,7 @@
         <v>0.75</v>
       </c>
       <c r="AS115" t="n">
-        <v>2.17</v>
+        <v>2</v>
       </c>
       <c r="AT115" t="n">
         <v>1.25</v>
@@ -25060,7 +25060,7 @@
         <v>1.57</v>
       </c>
       <c r="AT121" t="n">
-        <v>0.71</v>
+        <v>0.63</v>
       </c>
       <c r="AU121" t="n">
         <v>1.76</v>
@@ -25666,10 +25666,10 @@
         <v>0.5</v>
       </c>
       <c r="AS124" t="n">
-        <v>1</v>
+        <v>1.25</v>
       </c>
       <c r="AT124" t="n">
-        <v>1</v>
+        <v>0.88</v>
       </c>
       <c r="AU124" t="n">
         <v>1.76</v>
@@ -26072,7 +26072,7 @@
         <v>1.25</v>
       </c>
       <c r="AS126" t="n">
-        <v>1.83</v>
+        <v>2</v>
       </c>
       <c r="AT126" t="n">
         <v>0.86</v>
@@ -26681,7 +26681,7 @@
         <v>0.8</v>
       </c>
       <c r="AS129" t="n">
-        <v>2.17</v>
+        <v>2.29</v>
       </c>
       <c r="AT129" t="n">
         <v>0.5</v>
@@ -26887,7 +26887,7 @@
         <v>1.38</v>
       </c>
       <c r="AT130" t="n">
-        <v>0.83</v>
+        <v>0.71</v>
       </c>
       <c r="AU130" t="n">
         <v>1.37</v>
@@ -29523,7 +29523,7 @@
         <v>0.6</v>
       </c>
       <c r="AS143" t="n">
-        <v>2.17</v>
+        <v>2</v>
       </c>
       <c r="AT143" t="n">
         <v>0.5</v>
@@ -30538,10 +30538,10 @@
         <v>1</v>
       </c>
       <c r="AS148" t="n">
-        <v>1.83</v>
+        <v>2</v>
       </c>
       <c r="AT148" t="n">
-        <v>0.71</v>
+        <v>0.63</v>
       </c>
       <c r="AU148" t="n">
         <v>1.09</v>
@@ -30947,7 +30947,7 @@
         <v>1.57</v>
       </c>
       <c r="AT150" t="n">
-        <v>1</v>
+        <v>0.88</v>
       </c>
       <c r="AU150" t="n">
         <v>1.74</v>
@@ -31553,7 +31553,7 @@
         <v>2.5</v>
       </c>
       <c r="AS153" t="n">
-        <v>1</v>
+        <v>1.25</v>
       </c>
       <c r="AT153" t="n">
         <v>1.83</v>
@@ -35004,7 +35004,7 @@
         <v>1</v>
       </c>
       <c r="AS170" t="n">
-        <v>1</v>
+        <v>1.25</v>
       </c>
       <c r="AT170" t="n">
         <v>0.83</v>
@@ -35207,7 +35207,7 @@
         <v>1</v>
       </c>
       <c r="AS171" t="n">
-        <v>2.17</v>
+        <v>2.29</v>
       </c>
       <c r="AT171" t="n">
         <v>0.86</v>
@@ -35613,7 +35613,7 @@
         <v>0.83</v>
       </c>
       <c r="AS173" t="n">
-        <v>1.83</v>
+        <v>2</v>
       </c>
       <c r="AT173" t="n">
         <v>0.71</v>
@@ -36428,7 +36428,7 @@
         <v>1.25</v>
       </c>
       <c r="AT177" t="n">
-        <v>0.83</v>
+        <v>0.71</v>
       </c>
       <c r="AU177" t="n">
         <v>1.42</v>
@@ -37240,7 +37240,7 @@
         <v>1.57</v>
       </c>
       <c r="AT181" t="n">
-        <v>1</v>
+        <v>0.88</v>
       </c>
       <c r="AU181" t="n">
         <v>1.71</v>
@@ -37440,7 +37440,7 @@
         <v>0.17</v>
       </c>
       <c r="AS182" t="n">
-        <v>2.17</v>
+        <v>2</v>
       </c>
       <c r="AT182" t="n">
         <v>0.57</v>
@@ -37646,7 +37646,7 @@
         <v>1.67</v>
       </c>
       <c r="AT183" t="n">
-        <v>0.71</v>
+        <v>0.63</v>
       </c>
       <c r="AU183" t="n">
         <v>1.74</v>
@@ -40743,6 +40743,818 @@
       </c>
       <c r="BK198" t="n">
         <v>13</v>
+      </c>
+    </row>
+    <row r="199">
+      <c r="A199" s="1" t="n">
+        <v>198</v>
+      </c>
+      <c r="B199" t="n">
+        <v>4554606</v>
+      </c>
+      <c r="C199" t="inlineStr">
+        <is>
+          <t>Argentina Primera División</t>
+        </is>
+      </c>
+      <c r="D199" t="inlineStr">
+        <is>
+          <t>2023</t>
+        </is>
+      </c>
+      <c r="E199" s="2" t="n">
+        <v>45052.64583333334</v>
+      </c>
+      <c r="F199" t="n">
+        <v>15</v>
+      </c>
+      <c r="G199" t="inlineStr">
+        <is>
+          <t>Lanús</t>
+        </is>
+      </c>
+      <c r="H199" t="inlineStr">
+        <is>
+          <t>Huracán</t>
+        </is>
+      </c>
+      <c r="I199" t="n">
+        <v>1</v>
+      </c>
+      <c r="J199" t="n">
+        <v>0</v>
+      </c>
+      <c r="K199" t="n">
+        <v>1</v>
+      </c>
+      <c r="L199" t="n">
+        <v>1</v>
+      </c>
+      <c r="M199" t="n">
+        <v>0</v>
+      </c>
+      <c r="N199" t="n">
+        <v>1</v>
+      </c>
+      <c r="O199" t="inlineStr">
+        <is>
+          <t>['45+2']</t>
+        </is>
+      </c>
+      <c r="P199" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="Q199" t="n">
+        <v>4</v>
+      </c>
+      <c r="R199" t="n">
+        <v>7</v>
+      </c>
+      <c r="S199" t="n">
+        <v>11</v>
+      </c>
+      <c r="T199" t="n">
+        <v>3</v>
+      </c>
+      <c r="U199" t="n">
+        <v>2</v>
+      </c>
+      <c r="V199" t="n">
+        <v>4</v>
+      </c>
+      <c r="W199" t="n">
+        <v>1.48</v>
+      </c>
+      <c r="X199" t="n">
+        <v>2.45</v>
+      </c>
+      <c r="Y199" t="n">
+        <v>3.35</v>
+      </c>
+      <c r="Z199" t="n">
+        <v>1.29</v>
+      </c>
+      <c r="AA199" t="n">
+        <v>9.4</v>
+      </c>
+      <c r="AB199" t="n">
+        <v>1.03</v>
+      </c>
+      <c r="AC199" t="n">
+        <v>2.25</v>
+      </c>
+      <c r="AD199" t="n">
+        <v>3.2</v>
+      </c>
+      <c r="AE199" t="n">
+        <v>3.3</v>
+      </c>
+      <c r="AF199" t="n">
+        <v>1.08</v>
+      </c>
+      <c r="AG199" t="n">
+        <v>8</v>
+      </c>
+      <c r="AH199" t="n">
+        <v>1.44</v>
+      </c>
+      <c r="AI199" t="n">
+        <v>2.75</v>
+      </c>
+      <c r="AJ199" t="n">
+        <v>2.35</v>
+      </c>
+      <c r="AK199" t="n">
+        <v>1.57</v>
+      </c>
+      <c r="AL199" t="n">
+        <v>2</v>
+      </c>
+      <c r="AM199" t="n">
+        <v>1.78</v>
+      </c>
+      <c r="AN199" t="n">
+        <v>1.33</v>
+      </c>
+      <c r="AO199" t="n">
+        <v>1.28</v>
+      </c>
+      <c r="AP199" t="n">
+        <v>1.66</v>
+      </c>
+      <c r="AQ199" t="n">
+        <v>2.17</v>
+      </c>
+      <c r="AR199" t="n">
+        <v>0.71</v>
+      </c>
+      <c r="AS199" t="n">
+        <v>2.29</v>
+      </c>
+      <c r="AT199" t="n">
+        <v>0.63</v>
+      </c>
+      <c r="AU199" t="n">
+        <v>1.23</v>
+      </c>
+      <c r="AV199" t="n">
+        <v>1.19</v>
+      </c>
+      <c r="AW199" t="n">
+        <v>2.42</v>
+      </c>
+      <c r="AX199" t="n">
+        <v>2</v>
+      </c>
+      <c r="AY199" t="n">
+        <v>7</v>
+      </c>
+      <c r="AZ199" t="n">
+        <v>2.2</v>
+      </c>
+      <c r="BA199" t="n">
+        <v>1.36</v>
+      </c>
+      <c r="BB199" t="n">
+        <v>1.67</v>
+      </c>
+      <c r="BC199" t="n">
+        <v>2.15</v>
+      </c>
+      <c r="BD199" t="n">
+        <v>2.95</v>
+      </c>
+      <c r="BE199" t="n">
+        <v>4.1</v>
+      </c>
+      <c r="BF199" t="n">
+        <v>6</v>
+      </c>
+      <c r="BG199" t="n">
+        <v>5</v>
+      </c>
+      <c r="BH199" t="n">
+        <v>7</v>
+      </c>
+      <c r="BI199" t="n">
+        <v>6</v>
+      </c>
+      <c r="BJ199" t="n">
+        <v>13</v>
+      </c>
+      <c r="BK199" t="n">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="200">
+      <c r="A200" s="1" t="n">
+        <v>199</v>
+      </c>
+      <c r="B200" t="n">
+        <v>4554610</v>
+      </c>
+      <c r="C200" t="inlineStr">
+        <is>
+          <t>Argentina Primera División</t>
+        </is>
+      </c>
+      <c r="D200" t="inlineStr">
+        <is>
+          <t>2023</t>
+        </is>
+      </c>
+      <c r="E200" s="2" t="n">
+        <v>45052.75</v>
+      </c>
+      <c r="F200" t="n">
+        <v>15</v>
+      </c>
+      <c r="G200" t="inlineStr">
+        <is>
+          <t>Belgrano</t>
+        </is>
+      </c>
+      <c r="H200" t="inlineStr">
+        <is>
+          <t>Atlético Tucumán</t>
+        </is>
+      </c>
+      <c r="I200" t="n">
+        <v>1</v>
+      </c>
+      <c r="J200" t="n">
+        <v>0</v>
+      </c>
+      <c r="K200" t="n">
+        <v>1</v>
+      </c>
+      <c r="L200" t="n">
+        <v>1</v>
+      </c>
+      <c r="M200" t="n">
+        <v>0</v>
+      </c>
+      <c r="N200" t="n">
+        <v>1</v>
+      </c>
+      <c r="O200" t="inlineStr">
+        <is>
+          <t>['33']</t>
+        </is>
+      </c>
+      <c r="P200" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="Q200" t="n">
+        <v>3</v>
+      </c>
+      <c r="R200" t="n">
+        <v>4</v>
+      </c>
+      <c r="S200" t="n">
+        <v>7</v>
+      </c>
+      <c r="T200" t="n">
+        <v>3.14</v>
+      </c>
+      <c r="U200" t="n">
+        <v>1.93</v>
+      </c>
+      <c r="V200" t="n">
+        <v>4</v>
+      </c>
+      <c r="W200" t="n">
+        <v>1.54</v>
+      </c>
+      <c r="X200" t="n">
+        <v>2.39</v>
+      </c>
+      <c r="Y200" t="n">
+        <v>3.56</v>
+      </c>
+      <c r="Z200" t="n">
+        <v>1.27</v>
+      </c>
+      <c r="AA200" t="n">
+        <v>9.9</v>
+      </c>
+      <c r="AB200" t="n">
+        <v>1.04</v>
+      </c>
+      <c r="AC200" t="n">
+        <v>2.44</v>
+      </c>
+      <c r="AD200" t="n">
+        <v>3.13</v>
+      </c>
+      <c r="AE200" t="n">
+        <v>3.1</v>
+      </c>
+      <c r="AF200" t="n">
+        <v>1.09</v>
+      </c>
+      <c r="AG200" t="n">
+        <v>7.5</v>
+      </c>
+      <c r="AH200" t="n">
+        <v>1.48</v>
+      </c>
+      <c r="AI200" t="n">
+        <v>2.5</v>
+      </c>
+      <c r="AJ200" t="n">
+        <v>2.45</v>
+      </c>
+      <c r="AK200" t="n">
+        <v>1.48</v>
+      </c>
+      <c r="AL200" t="n">
+        <v>2.08</v>
+      </c>
+      <c r="AM200" t="n">
+        <v>1.71</v>
+      </c>
+      <c r="AN200" t="n">
+        <v>1.36</v>
+      </c>
+      <c r="AO200" t="n">
+        <v>1.36</v>
+      </c>
+      <c r="AP200" t="n">
+        <v>1.56</v>
+      </c>
+      <c r="AQ200" t="n">
+        <v>1.83</v>
+      </c>
+      <c r="AR200" t="n">
+        <v>1</v>
+      </c>
+      <c r="AS200" t="n">
+        <v>2</v>
+      </c>
+      <c r="AT200" t="n">
+        <v>0.88</v>
+      </c>
+      <c r="AU200" t="n">
+        <v>1.17</v>
+      </c>
+      <c r="AV200" t="n">
+        <v>1.19</v>
+      </c>
+      <c r="AW200" t="n">
+        <v>2.36</v>
+      </c>
+      <c r="AX200" t="n">
+        <v>1.98</v>
+      </c>
+      <c r="AY200" t="n">
+        <v>7</v>
+      </c>
+      <c r="AZ200" t="n">
+        <v>2.2</v>
+      </c>
+      <c r="BA200" t="n">
+        <v>1.33</v>
+      </c>
+      <c r="BB200" t="n">
+        <v>1.6</v>
+      </c>
+      <c r="BC200" t="n">
+        <v>2.04</v>
+      </c>
+      <c r="BD200" t="n">
+        <v>2.75</v>
+      </c>
+      <c r="BE200" t="n">
+        <v>3.85</v>
+      </c>
+      <c r="BF200" t="n">
+        <v>5</v>
+      </c>
+      <c r="BG200" t="n">
+        <v>5</v>
+      </c>
+      <c r="BH200" t="n">
+        <v>7</v>
+      </c>
+      <c r="BI200" t="n">
+        <v>16</v>
+      </c>
+      <c r="BJ200" t="n">
+        <v>12</v>
+      </c>
+      <c r="BK200" t="n">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="201">
+      <c r="A201" s="1" t="n">
+        <v>200</v>
+      </c>
+      <c r="B201" t="n">
+        <v>4554616</v>
+      </c>
+      <c r="C201" t="inlineStr">
+        <is>
+          <t>Argentina Primera División</t>
+        </is>
+      </c>
+      <c r="D201" t="inlineStr">
+        <is>
+          <t>2023</t>
+        </is>
+      </c>
+      <c r="E201" s="2" t="n">
+        <v>45052.75</v>
+      </c>
+      <c r="F201" t="n">
+        <v>15</v>
+      </c>
+      <c r="G201" t="inlineStr">
+        <is>
+          <t>Colón</t>
+        </is>
+      </c>
+      <c r="H201" t="inlineStr">
+        <is>
+          <t>Banfield</t>
+        </is>
+      </c>
+      <c r="I201" t="n">
+        <v>2</v>
+      </c>
+      <c r="J201" t="n">
+        <v>0</v>
+      </c>
+      <c r="K201" t="n">
+        <v>2</v>
+      </c>
+      <c r="L201" t="n">
+        <v>2</v>
+      </c>
+      <c r="M201" t="n">
+        <v>0</v>
+      </c>
+      <c r="N201" t="n">
+        <v>2</v>
+      </c>
+      <c r="O201" t="inlineStr">
+        <is>
+          <t>['2', '45+2']</t>
+        </is>
+      </c>
+      <c r="P201" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="Q201" t="n">
+        <v>5</v>
+      </c>
+      <c r="R201" t="n">
+        <v>4</v>
+      </c>
+      <c r="S201" t="n">
+        <v>9</v>
+      </c>
+      <c r="T201" t="n">
+        <v>2.7</v>
+      </c>
+      <c r="U201" t="n">
+        <v>2</v>
+      </c>
+      <c r="V201" t="n">
+        <v>4.64</v>
+      </c>
+      <c r="W201" t="n">
+        <v>1.5</v>
+      </c>
+      <c r="X201" t="n">
+        <v>2.49</v>
+      </c>
+      <c r="Y201" t="n">
+        <v>3.34</v>
+      </c>
+      <c r="Z201" t="n">
+        <v>1.3</v>
+      </c>
+      <c r="AA201" t="n">
+        <v>9</v>
+      </c>
+      <c r="AB201" t="n">
+        <v>1.05</v>
+      </c>
+      <c r="AC201" t="n">
+        <v>2.06</v>
+      </c>
+      <c r="AD201" t="n">
+        <v>3.15</v>
+      </c>
+      <c r="AE201" t="n">
+        <v>3.47</v>
+      </c>
+      <c r="AF201" t="n">
+        <v>1.08</v>
+      </c>
+      <c r="AG201" t="n">
+        <v>8.25</v>
+      </c>
+      <c r="AH201" t="n">
+        <v>1.42</v>
+      </c>
+      <c r="AI201" t="n">
+        <v>2.65</v>
+      </c>
+      <c r="AJ201" t="n">
+        <v>2.3</v>
+      </c>
+      <c r="AK201" t="n">
+        <v>1.55</v>
+      </c>
+      <c r="AL201" t="n">
+        <v>2.02</v>
+      </c>
+      <c r="AM201" t="n">
+        <v>1.76</v>
+      </c>
+      <c r="AN201" t="n">
+        <v>1.27</v>
+      </c>
+      <c r="AO201" t="n">
+        <v>1.33</v>
+      </c>
+      <c r="AP201" t="n">
+        <v>1.77</v>
+      </c>
+      <c r="AQ201" t="n">
+        <v>1</v>
+      </c>
+      <c r="AR201" t="n">
+        <v>0.83</v>
+      </c>
+      <c r="AS201" t="n">
+        <v>1.25</v>
+      </c>
+      <c r="AT201" t="n">
+        <v>0.71</v>
+      </c>
+      <c r="AU201" t="n">
+        <v>1.64</v>
+      </c>
+      <c r="AV201" t="n">
+        <v>1.24</v>
+      </c>
+      <c r="AW201" t="n">
+        <v>2.88</v>
+      </c>
+      <c r="AX201" t="n">
+        <v>1.59</v>
+      </c>
+      <c r="AY201" t="n">
+        <v>8</v>
+      </c>
+      <c r="AZ201" t="n">
+        <v>2.9</v>
+      </c>
+      <c r="BA201" t="n">
+        <v>1.36</v>
+      </c>
+      <c r="BB201" t="n">
+        <v>1.67</v>
+      </c>
+      <c r="BC201" t="n">
+        <v>2.15</v>
+      </c>
+      <c r="BD201" t="n">
+        <v>2.95</v>
+      </c>
+      <c r="BE201" t="n">
+        <v>4.1</v>
+      </c>
+      <c r="BF201" t="n">
+        <v>7</v>
+      </c>
+      <c r="BG201" t="n">
+        <v>4</v>
+      </c>
+      <c r="BH201" t="n">
+        <v>6</v>
+      </c>
+      <c r="BI201" t="n">
+        <v>14</v>
+      </c>
+      <c r="BJ201" t="n">
+        <v>13</v>
+      </c>
+      <c r="BK201" t="n">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="202">
+      <c r="A202" s="1" t="n">
+        <v>201</v>
+      </c>
+      <c r="B202" t="n">
+        <v>4554609</v>
+      </c>
+      <c r="C202" t="inlineStr">
+        <is>
+          <t>Argentina Primera División</t>
+        </is>
+      </c>
+      <c r="D202" t="inlineStr">
+        <is>
+          <t>2023</t>
+        </is>
+      </c>
+      <c r="E202" s="2" t="n">
+        <v>45052.85416666666</v>
+      </c>
+      <c r="F202" t="n">
+        <v>15</v>
+      </c>
+      <c r="G202" t="inlineStr">
+        <is>
+          <t>Argentinos Juniors</t>
+        </is>
+      </c>
+      <c r="H202" t="inlineStr">
+        <is>
+          <t>Independiente</t>
+        </is>
+      </c>
+      <c r="I202" t="n">
+        <v>0</v>
+      </c>
+      <c r="J202" t="n">
+        <v>1</v>
+      </c>
+      <c r="K202" t="n">
+        <v>1</v>
+      </c>
+      <c r="L202" t="n">
+        <v>2</v>
+      </c>
+      <c r="M202" t="n">
+        <v>2</v>
+      </c>
+      <c r="N202" t="n">
+        <v>4</v>
+      </c>
+      <c r="O202" t="inlineStr">
+        <is>
+          <t>['79', '83']</t>
+        </is>
+      </c>
+      <c r="P202" t="inlineStr">
+        <is>
+          <t>['45+1', '65']</t>
+        </is>
+      </c>
+      <c r="Q202" t="n">
+        <v>8</v>
+      </c>
+      <c r="R202" t="n">
+        <v>3</v>
+      </c>
+      <c r="S202" t="n">
+        <v>11</v>
+      </c>
+      <c r="T202" t="n">
+        <v>2.29</v>
+      </c>
+      <c r="U202" t="n">
+        <v>2.06</v>
+      </c>
+      <c r="V202" t="n">
+        <v>6.1</v>
+      </c>
+      <c r="W202" t="n">
+        <v>1.49</v>
+      </c>
+      <c r="X202" t="n">
+        <v>2.52</v>
+      </c>
+      <c r="Y202" t="n">
+        <v>3.28</v>
+      </c>
+      <c r="Z202" t="n">
+        <v>1.31</v>
+      </c>
+      <c r="AA202" t="n">
+        <v>8.9</v>
+      </c>
+      <c r="AB202" t="n">
+        <v>1.05</v>
+      </c>
+      <c r="AC202" t="n">
+        <v>1.64</v>
+      </c>
+      <c r="AD202" t="n">
+        <v>3.55</v>
+      </c>
+      <c r="AE202" t="n">
+        <v>5</v>
+      </c>
+      <c r="AF202" t="n">
+        <v>1.07</v>
+      </c>
+      <c r="AG202" t="n">
+        <v>9</v>
+      </c>
+      <c r="AH202" t="n">
+        <v>1.4</v>
+      </c>
+      <c r="AI202" t="n">
+        <v>2.75</v>
+      </c>
+      <c r="AJ202" t="n">
+        <v>2.2</v>
+      </c>
+      <c r="AK202" t="n">
+        <v>1.6</v>
+      </c>
+      <c r="AL202" t="n">
+        <v>2.19</v>
+      </c>
+      <c r="AM202" t="n">
+        <v>1.64</v>
+      </c>
+      <c r="AN202" t="n">
+        <v>1.14</v>
+      </c>
+      <c r="AO202" t="n">
+        <v>1.28</v>
+      </c>
+      <c r="AP202" t="n">
+        <v>2.19</v>
+      </c>
+      <c r="AQ202" t="n">
+        <v>2.17</v>
+      </c>
+      <c r="AR202" t="n">
+        <v>1</v>
+      </c>
+      <c r="AS202" t="n">
+        <v>2</v>
+      </c>
+      <c r="AT202" t="n">
+        <v>1</v>
+      </c>
+      <c r="AU202" t="n">
+        <v>1.92</v>
+      </c>
+      <c r="AV202" t="n">
+        <v>0.97</v>
+      </c>
+      <c r="AW202" t="n">
+        <v>2.89</v>
+      </c>
+      <c r="AX202" t="n">
+        <v>1.46</v>
+      </c>
+      <c r="AY202" t="n">
+        <v>7.5</v>
+      </c>
+      <c r="AZ202" t="n">
+        <v>3.5</v>
+      </c>
+      <c r="BA202" t="n">
+        <v>1.36</v>
+      </c>
+      <c r="BB202" t="n">
+        <v>1.67</v>
+      </c>
+      <c r="BC202" t="n">
+        <v>2.15</v>
+      </c>
+      <c r="BD202" t="n">
+        <v>2.95</v>
+      </c>
+      <c r="BE202" t="n">
+        <v>4.1</v>
+      </c>
+      <c r="BF202" t="n">
+        <v>9</v>
+      </c>
+      <c r="BG202" t="n">
+        <v>6</v>
+      </c>
+      <c r="BH202" t="n">
+        <v>9</v>
+      </c>
+      <c r="BI202" t="n">
+        <v>9</v>
+      </c>
+      <c r="BJ202" t="n">
+        <v>18</v>
+      </c>
+      <c r="BK202" t="n">
+        <v>15</v>
       </c>
     </row>
   </sheetData>

--- a/Bases_de_Dados_(2022-2023)/Argentina Primera División_2023.xlsx
+++ b/Bases_de_Dados_(2022-2023)/Argentina Primera División_2023.xlsx
@@ -429,7 +429,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:BK202"/>
+  <dimension ref="A1:BK210"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -900,7 +900,7 @@
         <v>0</v>
       </c>
       <c r="AS2" t="n">
-        <v>2.43</v>
+        <v>2.5</v>
       </c>
       <c r="AT2" t="n">
         <v>0.75</v>
@@ -1306,7 +1306,7 @@
         <v>0</v>
       </c>
       <c r="AS4" t="n">
-        <v>2.71</v>
+        <v>2.5</v>
       </c>
       <c r="AT4" t="n">
         <v>0.5</v>
@@ -1712,7 +1712,7 @@
         <v>0</v>
       </c>
       <c r="AS6" t="n">
-        <v>1.57</v>
+        <v>1.75</v>
       </c>
       <c r="AT6" t="n">
         <v>1.25</v>
@@ -1915,7 +1915,7 @@
         <v>0</v>
       </c>
       <c r="AS7" t="n">
-        <v>1.43</v>
+        <v>1.25</v>
       </c>
       <c r="AT7" t="n">
         <v>2.38</v>
@@ -2121,7 +2121,7 @@
         <v>1.25</v>
       </c>
       <c r="AT8" t="n">
-        <v>0.71</v>
+        <v>0.75</v>
       </c>
       <c r="AU8" t="n">
         <v>0</v>
@@ -2324,7 +2324,7 @@
         <v>1.25</v>
       </c>
       <c r="AT9" t="n">
-        <v>0.86</v>
+        <v>1.13</v>
       </c>
       <c r="AU9" t="n">
         <v>0</v>
@@ -2727,7 +2727,7 @@
         <v>0</v>
       </c>
       <c r="AS11" t="n">
-        <v>1.57</v>
+        <v>1.38</v>
       </c>
       <c r="AT11" t="n">
         <v>1.63</v>
@@ -3339,7 +3339,7 @@
         <v>1.38</v>
       </c>
       <c r="AT14" t="n">
-        <v>0.57</v>
+        <v>0.88</v>
       </c>
       <c r="AU14" t="n">
         <v>0</v>
@@ -3742,7 +3742,7 @@
         <v>0</v>
       </c>
       <c r="AS16" t="n">
-        <v>1.67</v>
+        <v>1.57</v>
       </c>
       <c r="AT16" t="n">
         <v>0.86</v>
@@ -3948,7 +3948,7 @@
         <v>2</v>
       </c>
       <c r="AT17" t="n">
-        <v>0.83</v>
+        <v>0.71</v>
       </c>
       <c r="AU17" t="n">
         <v>0</v>
@@ -4148,7 +4148,7 @@
         <v>0</v>
       </c>
       <c r="AS18" t="n">
-        <v>1.17</v>
+        <v>1</v>
       </c>
       <c r="AT18" t="n">
         <v>1.86</v>
@@ -5166,7 +5166,7 @@
         <v>0.86</v>
       </c>
       <c r="AT23" t="n">
-        <v>1.17</v>
+        <v>1</v>
       </c>
       <c r="AU23" t="n">
         <v>0</v>
@@ -5775,7 +5775,7 @@
         <v>1</v>
       </c>
       <c r="AT26" t="n">
-        <v>1.83</v>
+        <v>2</v>
       </c>
       <c r="AU26" t="n">
         <v>0</v>
@@ -6181,7 +6181,7 @@
         <v>1.57</v>
       </c>
       <c r="AT28" t="n">
-        <v>2.17</v>
+        <v>2</v>
       </c>
       <c r="AU28" t="n">
         <v>0</v>
@@ -6587,7 +6587,7 @@
         <v>1.25</v>
       </c>
       <c r="AT30" t="n">
-        <v>0.86</v>
+        <v>1.13</v>
       </c>
       <c r="AU30" t="n">
         <v>1.17</v>
@@ -6787,7 +6787,7 @@
         <v>1</v>
       </c>
       <c r="AS31" t="n">
-        <v>1.43</v>
+        <v>1.25</v>
       </c>
       <c r="AT31" t="n">
         <v>1.63</v>
@@ -6990,7 +6990,7 @@
         <v>3</v>
       </c>
       <c r="AS32" t="n">
-        <v>2.71</v>
+        <v>2.5</v>
       </c>
       <c r="AT32" t="n">
         <v>1.25</v>
@@ -7196,7 +7196,7 @@
         <v>1.75</v>
       </c>
       <c r="AT33" t="n">
-        <v>0.71</v>
+        <v>0.75</v>
       </c>
       <c r="AU33" t="n">
         <v>1.74</v>
@@ -7602,7 +7602,7 @@
         <v>1.63</v>
       </c>
       <c r="AT35" t="n">
-        <v>1.17</v>
+        <v>1</v>
       </c>
       <c r="AU35" t="n">
         <v>1.05</v>
@@ -8005,7 +8005,7 @@
         <v>0</v>
       </c>
       <c r="AS37" t="n">
-        <v>2.43</v>
+        <v>2.5</v>
       </c>
       <c r="AT37" t="n">
         <v>0.5</v>
@@ -8211,7 +8211,7 @@
         <v>1.25</v>
       </c>
       <c r="AT38" t="n">
-        <v>0.57</v>
+        <v>0.88</v>
       </c>
       <c r="AU38" t="n">
         <v>1.72</v>
@@ -8411,7 +8411,7 @@
         <v>0</v>
       </c>
       <c r="AS39" t="n">
-        <v>2.5</v>
+        <v>2.57</v>
       </c>
       <c r="AT39" t="n">
         <v>0.75</v>
@@ -8817,7 +8817,7 @@
         <v>3</v>
       </c>
       <c r="AS41" t="n">
-        <v>1.57</v>
+        <v>1.38</v>
       </c>
       <c r="AT41" t="n">
         <v>1.25</v>
@@ -9223,7 +9223,7 @@
         <v>3</v>
       </c>
       <c r="AS43" t="n">
-        <v>1.57</v>
+        <v>1.75</v>
       </c>
       <c r="AT43" t="n">
         <v>1.29</v>
@@ -9629,7 +9629,7 @@
         <v>0</v>
       </c>
       <c r="AS45" t="n">
-        <v>1.17</v>
+        <v>1</v>
       </c>
       <c r="AT45" t="n">
         <v>1</v>
@@ -10238,7 +10238,7 @@
         <v>1.5</v>
       </c>
       <c r="AS48" t="n">
-        <v>1.67</v>
+        <v>1.57</v>
       </c>
       <c r="AT48" t="n">
         <v>2.38</v>
@@ -11256,7 +11256,7 @@
         <v>1.38</v>
       </c>
       <c r="AT53" t="n">
-        <v>1.17</v>
+        <v>1</v>
       </c>
       <c r="AU53" t="n">
         <v>1.66</v>
@@ -11459,7 +11459,7 @@
         <v>0.86</v>
       </c>
       <c r="AT54" t="n">
-        <v>2.17</v>
+        <v>2</v>
       </c>
       <c r="AU54" t="n">
         <v>1.63</v>
@@ -12068,7 +12068,7 @@
         <v>1</v>
       </c>
       <c r="AT57" t="n">
-        <v>0.83</v>
+        <v>0.71</v>
       </c>
       <c r="AU57" t="n">
         <v>1.13</v>
@@ -12471,7 +12471,7 @@
         <v>1.5</v>
       </c>
       <c r="AS59" t="n">
-        <v>2.43</v>
+        <v>2.5</v>
       </c>
       <c r="AT59" t="n">
         <v>1.25</v>
@@ -12674,7 +12674,7 @@
         <v>1</v>
       </c>
       <c r="AS60" t="n">
-        <v>2.71</v>
+        <v>2.5</v>
       </c>
       <c r="AT60" t="n">
         <v>0.5</v>
@@ -12880,7 +12880,7 @@
         <v>1.25</v>
       </c>
       <c r="AT61" t="n">
-        <v>1.83</v>
+        <v>2</v>
       </c>
       <c r="AU61" t="n">
         <v>1.14</v>
@@ -13080,10 +13080,10 @@
         <v>2</v>
       </c>
       <c r="AS62" t="n">
-        <v>1.57</v>
+        <v>1.75</v>
       </c>
       <c r="AT62" t="n">
-        <v>0.86</v>
+        <v>1.13</v>
       </c>
       <c r="AU62" t="n">
         <v>2.1</v>
@@ -13286,7 +13286,7 @@
         <v>1.38</v>
       </c>
       <c r="AT63" t="n">
-        <v>1.17</v>
+        <v>1</v>
       </c>
       <c r="AU63" t="n">
         <v>1.24</v>
@@ -13892,7 +13892,7 @@
         <v>0</v>
       </c>
       <c r="AS66" t="n">
-        <v>2.5</v>
+        <v>2.57</v>
       </c>
       <c r="AT66" t="n">
         <v>0.5</v>
@@ -14098,7 +14098,7 @@
         <v>1.25</v>
       </c>
       <c r="AT67" t="n">
-        <v>0.71</v>
+        <v>0.75</v>
       </c>
       <c r="AU67" t="n">
         <v>1.49</v>
@@ -14504,7 +14504,7 @@
         <v>1.38</v>
       </c>
       <c r="AT69" t="n">
-        <v>0.57</v>
+        <v>0.88</v>
       </c>
       <c r="AU69" t="n">
         <v>0.49</v>
@@ -14704,7 +14704,7 @@
         <v>3</v>
       </c>
       <c r="AS70" t="n">
-        <v>1.57</v>
+        <v>1.38</v>
       </c>
       <c r="AT70" t="n">
         <v>1.29</v>
@@ -14907,7 +14907,7 @@
         <v>0</v>
       </c>
       <c r="AS71" t="n">
-        <v>1.43</v>
+        <v>1.25</v>
       </c>
       <c r="AT71" t="n">
         <v>0.75</v>
@@ -16937,7 +16937,7 @@
         <v>0</v>
       </c>
       <c r="AS81" t="n">
-        <v>1.67</v>
+        <v>1.57</v>
       </c>
       <c r="AT81" t="n">
         <v>0.75</v>
@@ -17143,7 +17143,7 @@
         <v>1.63</v>
       </c>
       <c r="AT82" t="n">
-        <v>0.83</v>
+        <v>0.71</v>
       </c>
       <c r="AU82" t="n">
         <v>1.61</v>
@@ -17546,7 +17546,7 @@
         <v>1.33</v>
       </c>
       <c r="AS84" t="n">
-        <v>1.17</v>
+        <v>1</v>
       </c>
       <c r="AT84" t="n">
         <v>1.63</v>
@@ -17752,7 +17752,7 @@
         <v>1.38</v>
       </c>
       <c r="AT85" t="n">
-        <v>2.17</v>
+        <v>2</v>
       </c>
       <c r="AU85" t="n">
         <v>1.52</v>
@@ -18561,10 +18561,10 @@
         <v>0.33</v>
       </c>
       <c r="AS89" t="n">
-        <v>2.71</v>
+        <v>2.5</v>
       </c>
       <c r="AT89" t="n">
-        <v>0.57</v>
+        <v>0.88</v>
       </c>
       <c r="AU89" t="n">
         <v>1.5</v>
@@ -18767,7 +18767,7 @@
         <v>1.75</v>
       </c>
       <c r="AT90" t="n">
-        <v>1.83</v>
+        <v>2</v>
       </c>
       <c r="AU90" t="n">
         <v>1.33</v>
@@ -18967,7 +18967,7 @@
         <v>2.33</v>
       </c>
       <c r="AS91" t="n">
-        <v>1.43</v>
+        <v>1.25</v>
       </c>
       <c r="AT91" t="n">
         <v>1.25</v>
@@ -19373,10 +19373,10 @@
         <v>1.67</v>
       </c>
       <c r="AS93" t="n">
-        <v>1.57</v>
+        <v>1.38</v>
       </c>
       <c r="AT93" t="n">
-        <v>0.86</v>
+        <v>1.13</v>
       </c>
       <c r="AU93" t="n">
         <v>1.84</v>
@@ -19576,7 +19576,7 @@
         <v>1</v>
       </c>
       <c r="AS94" t="n">
-        <v>2.5</v>
+        <v>2.57</v>
       </c>
       <c r="AT94" t="n">
         <v>1.25</v>
@@ -19779,7 +19779,7 @@
         <v>1.67</v>
       </c>
       <c r="AS95" t="n">
-        <v>1.57</v>
+        <v>1.75</v>
       </c>
       <c r="AT95" t="n">
         <v>0.63</v>
@@ -19985,7 +19985,7 @@
         <v>1.25</v>
       </c>
       <c r="AT96" t="n">
-        <v>1.17</v>
+        <v>1</v>
       </c>
       <c r="AU96" t="n">
         <v>2.03</v>
@@ -20185,7 +20185,7 @@
         <v>0.67</v>
       </c>
       <c r="AS97" t="n">
-        <v>2.43</v>
+        <v>2.5</v>
       </c>
       <c r="AT97" t="n">
         <v>0.5</v>
@@ -20391,7 +20391,7 @@
         <v>1.38</v>
       </c>
       <c r="AT98" t="n">
-        <v>1.17</v>
+        <v>1</v>
       </c>
       <c r="AU98" t="n">
         <v>1.35</v>
@@ -20594,7 +20594,7 @@
         <v>1.25</v>
       </c>
       <c r="AT99" t="n">
-        <v>0.71</v>
+        <v>0.75</v>
       </c>
       <c r="AU99" t="n">
         <v>1.88</v>
@@ -20997,7 +20997,7 @@
         <v>1.75</v>
       </c>
       <c r="AS101" t="n">
-        <v>1.17</v>
+        <v>1</v>
       </c>
       <c r="AT101" t="n">
         <v>1.25</v>
@@ -21406,7 +21406,7 @@
         <v>1.25</v>
       </c>
       <c r="AT103" t="n">
-        <v>2.17</v>
+        <v>2</v>
       </c>
       <c r="AU103" t="n">
         <v>1.53</v>
@@ -23639,7 +23639,7 @@
         <v>1.75</v>
       </c>
       <c r="AT114" t="n">
-        <v>0.83</v>
+        <v>0.71</v>
       </c>
       <c r="AU114" t="n">
         <v>1.42</v>
@@ -24042,10 +24042,10 @@
         <v>0.25</v>
       </c>
       <c r="AS116" t="n">
-        <v>2.43</v>
+        <v>2.5</v>
       </c>
       <c r="AT116" t="n">
-        <v>0.57</v>
+        <v>0.88</v>
       </c>
       <c r="AU116" t="n">
         <v>1.68</v>
@@ -24245,10 +24245,10 @@
         <v>0.5</v>
       </c>
       <c r="AS117" t="n">
-        <v>1.57</v>
+        <v>1.75</v>
       </c>
       <c r="AT117" t="n">
-        <v>0.71</v>
+        <v>0.75</v>
       </c>
       <c r="AU117" t="n">
         <v>1.81</v>
@@ -24448,7 +24448,7 @@
         <v>0.75</v>
       </c>
       <c r="AS118" t="n">
-        <v>2.5</v>
+        <v>2.57</v>
       </c>
       <c r="AT118" t="n">
         <v>0.5</v>
@@ -24654,7 +24654,7 @@
         <v>1.38</v>
       </c>
       <c r="AT119" t="n">
-        <v>1.17</v>
+        <v>1</v>
       </c>
       <c r="AU119" t="n">
         <v>0.89</v>
@@ -24854,7 +24854,7 @@
         <v>1.5</v>
       </c>
       <c r="AS120" t="n">
-        <v>2.71</v>
+        <v>2.5</v>
       </c>
       <c r="AT120" t="n">
         <v>1</v>
@@ -25057,7 +25057,7 @@
         <v>1.25</v>
       </c>
       <c r="AS121" t="n">
-        <v>1.57</v>
+        <v>1.38</v>
       </c>
       <c r="AT121" t="n">
         <v>0.63</v>
@@ -25260,7 +25260,7 @@
         <v>1.75</v>
       </c>
       <c r="AS122" t="n">
-        <v>1.67</v>
+        <v>1.57</v>
       </c>
       <c r="AT122" t="n">
         <v>1.29</v>
@@ -25466,7 +25466,7 @@
         <v>1.25</v>
       </c>
       <c r="AT123" t="n">
-        <v>1.83</v>
+        <v>2</v>
       </c>
       <c r="AU123" t="n">
         <v>1.5</v>
@@ -25872,7 +25872,7 @@
         <v>1.25</v>
       </c>
       <c r="AT125" t="n">
-        <v>1.17</v>
+        <v>1</v>
       </c>
       <c r="AU125" t="n">
         <v>1.92</v>
@@ -26075,7 +26075,7 @@
         <v>2</v>
       </c>
       <c r="AT126" t="n">
-        <v>0.86</v>
+        <v>1.13</v>
       </c>
       <c r="AU126" t="n">
         <v>0.93</v>
@@ -26275,7 +26275,7 @@
         <v>1</v>
       </c>
       <c r="AS127" t="n">
-        <v>1.43</v>
+        <v>1.25</v>
       </c>
       <c r="AT127" t="n">
         <v>0.5</v>
@@ -29323,7 +29323,7 @@
         <v>1.38</v>
       </c>
       <c r="AT142" t="n">
-        <v>1.17</v>
+        <v>1</v>
       </c>
       <c r="AU142" t="n">
         <v>0.85</v>
@@ -29729,7 +29729,7 @@
         <v>1.25</v>
       </c>
       <c r="AT144" t="n">
-        <v>0.83</v>
+        <v>0.71</v>
       </c>
       <c r="AU144" t="n">
         <v>1.49</v>
@@ -29932,7 +29932,7 @@
         <v>1.25</v>
       </c>
       <c r="AT145" t="n">
-        <v>2.17</v>
+        <v>2</v>
       </c>
       <c r="AU145" t="n">
         <v>1.78</v>
@@ -30132,7 +30132,7 @@
         <v>1.4</v>
       </c>
       <c r="AS146" t="n">
-        <v>1.43</v>
+        <v>1.25</v>
       </c>
       <c r="AT146" t="n">
         <v>1.29</v>
@@ -30335,10 +30335,10 @@
         <v>1.5</v>
       </c>
       <c r="AS147" t="n">
-        <v>2.71</v>
+        <v>2.5</v>
       </c>
       <c r="AT147" t="n">
-        <v>1.17</v>
+        <v>1</v>
       </c>
       <c r="AU147" t="n">
         <v>1.55</v>
@@ -30741,10 +30741,10 @@
         <v>0.4</v>
       </c>
       <c r="AS149" t="n">
-        <v>1.57</v>
+        <v>1.38</v>
       </c>
       <c r="AT149" t="n">
-        <v>0.71</v>
+        <v>0.75</v>
       </c>
       <c r="AU149" t="n">
         <v>1.77</v>
@@ -30944,7 +30944,7 @@
         <v>0.6</v>
       </c>
       <c r="AS150" t="n">
-        <v>1.57</v>
+        <v>1.75</v>
       </c>
       <c r="AT150" t="n">
         <v>0.88</v>
@@ -31147,7 +31147,7 @@
         <v>1.4</v>
       </c>
       <c r="AS151" t="n">
-        <v>2.43</v>
+        <v>2.5</v>
       </c>
       <c r="AT151" t="n">
         <v>1</v>
@@ -31350,7 +31350,7 @@
         <v>0.6</v>
       </c>
       <c r="AS152" t="n">
-        <v>1.17</v>
+        <v>1</v>
       </c>
       <c r="AT152" t="n">
         <v>1.25</v>
@@ -31556,7 +31556,7 @@
         <v>1.25</v>
       </c>
       <c r="AT153" t="n">
-        <v>1.83</v>
+        <v>2</v>
       </c>
       <c r="AU153" t="n">
         <v>1.75</v>
@@ -31756,10 +31756,10 @@
         <v>0.2</v>
       </c>
       <c r="AS154" t="n">
-        <v>2.5</v>
+        <v>2.57</v>
       </c>
       <c r="AT154" t="n">
-        <v>0.57</v>
+        <v>0.88</v>
       </c>
       <c r="AU154" t="n">
         <v>1.74</v>
@@ -31959,10 +31959,10 @@
         <v>1.2</v>
       </c>
       <c r="AS155" t="n">
-        <v>1.67</v>
+        <v>1.57</v>
       </c>
       <c r="AT155" t="n">
-        <v>0.86</v>
+        <v>1.13</v>
       </c>
       <c r="AU155" t="n">
         <v>1.79</v>
@@ -35007,7 +35007,7 @@
         <v>1.25</v>
       </c>
       <c r="AT170" t="n">
-        <v>0.83</v>
+        <v>0.71</v>
       </c>
       <c r="AU170" t="n">
         <v>1.69</v>
@@ -35210,7 +35210,7 @@
         <v>2.29</v>
       </c>
       <c r="AT171" t="n">
-        <v>0.86</v>
+        <v>1.13</v>
       </c>
       <c r="AU171" t="n">
         <v>1.2</v>
@@ -35410,7 +35410,7 @@
         <v>0.5</v>
       </c>
       <c r="AS172" t="n">
-        <v>1.17</v>
+        <v>1</v>
       </c>
       <c r="AT172" t="n">
         <v>0.5</v>
@@ -35616,7 +35616,7 @@
         <v>2</v>
       </c>
       <c r="AT173" t="n">
-        <v>0.71</v>
+        <v>0.75</v>
       </c>
       <c r="AU173" t="n">
         <v>1.19</v>
@@ -35816,7 +35816,7 @@
         <v>1</v>
       </c>
       <c r="AS174" t="n">
-        <v>1.43</v>
+        <v>1.25</v>
       </c>
       <c r="AT174" t="n">
         <v>1.25</v>
@@ -36019,10 +36019,10 @@
         <v>1.4</v>
       </c>
       <c r="AS175" t="n">
-        <v>2.71</v>
+        <v>2.5</v>
       </c>
       <c r="AT175" t="n">
-        <v>1.17</v>
+        <v>1</v>
       </c>
       <c r="AU175" t="n">
         <v>1.44</v>
@@ -36222,10 +36222,10 @@
         <v>1.2</v>
       </c>
       <c r="AS176" t="n">
-        <v>2.43</v>
+        <v>2.5</v>
       </c>
       <c r="AT176" t="n">
-        <v>1.17</v>
+        <v>1</v>
       </c>
       <c r="AU176" t="n">
         <v>1.54</v>
@@ -36628,10 +36628,10 @@
         <v>2.2</v>
       </c>
       <c r="AS178" t="n">
-        <v>1.57</v>
+        <v>1.75</v>
       </c>
       <c r="AT178" t="n">
-        <v>1.83</v>
+        <v>2</v>
       </c>
       <c r="AU178" t="n">
         <v>1.61</v>
@@ -36831,7 +36831,7 @@
         <v>1.17</v>
       </c>
       <c r="AS179" t="n">
-        <v>2.5</v>
+        <v>2.57</v>
       </c>
       <c r="AT179" t="n">
         <v>1</v>
@@ -37037,7 +37037,7 @@
         <v>1.38</v>
       </c>
       <c r="AT180" t="n">
-        <v>2.17</v>
+        <v>2</v>
       </c>
       <c r="AU180" t="n">
         <v>0.85</v>
@@ -37237,7 +37237,7 @@
         <v>0.67</v>
       </c>
       <c r="AS181" t="n">
-        <v>1.57</v>
+        <v>1.38</v>
       </c>
       <c r="AT181" t="n">
         <v>0.88</v>
@@ -37443,7 +37443,7 @@
         <v>2</v>
       </c>
       <c r="AT182" t="n">
-        <v>0.57</v>
+        <v>0.88</v>
       </c>
       <c r="AU182" t="n">
         <v>1.88</v>
@@ -37643,7 +37643,7 @@
         <v>0.83</v>
       </c>
       <c r="AS183" t="n">
-        <v>1.67</v>
+        <v>1.57</v>
       </c>
       <c r="AT183" t="n">
         <v>0.63</v>
@@ -41555,6 +41555,1630 @@
       </c>
       <c r="BK202" t="n">
         <v>15</v>
+      </c>
+    </row>
+    <row r="203">
+      <c r="A203" s="1" t="n">
+        <v>202</v>
+      </c>
+      <c r="B203" t="n">
+        <v>4554613</v>
+      </c>
+      <c r="C203" t="inlineStr">
+        <is>
+          <t>Argentina Primera División</t>
+        </is>
+      </c>
+      <c r="D203" t="inlineStr">
+        <is>
+          <t>2023</t>
+        </is>
+      </c>
+      <c r="E203" s="2" t="n">
+        <v>45053.58333333334</v>
+      </c>
+      <c r="F203" t="n">
+        <v>15</v>
+      </c>
+      <c r="G203" t="inlineStr">
+        <is>
+          <t>Rosario Central</t>
+        </is>
+      </c>
+      <c r="H203" t="inlineStr">
+        <is>
+          <t>Platense</t>
+        </is>
+      </c>
+      <c r="I203" t="n">
+        <v>2</v>
+      </c>
+      <c r="J203" t="n">
+        <v>0</v>
+      </c>
+      <c r="K203" t="n">
+        <v>2</v>
+      </c>
+      <c r="L203" t="n">
+        <v>4</v>
+      </c>
+      <c r="M203" t="n">
+        <v>0</v>
+      </c>
+      <c r="N203" t="n">
+        <v>4</v>
+      </c>
+      <c r="O203" t="inlineStr">
+        <is>
+          <t>['12', '20', '66', '90+2']</t>
+        </is>
+      </c>
+      <c r="P203" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="Q203" t="n">
+        <v>6</v>
+      </c>
+      <c r="R203" t="n">
+        <v>3</v>
+      </c>
+      <c r="S203" t="n">
+        <v>9</v>
+      </c>
+      <c r="T203" t="n">
+        <v>2.7</v>
+      </c>
+      <c r="U203" t="n">
+        <v>1.91</v>
+      </c>
+      <c r="V203" t="n">
+        <v>4.75</v>
+      </c>
+      <c r="W203" t="n">
+        <v>1.53</v>
+      </c>
+      <c r="X203" t="n">
+        <v>2.38</v>
+      </c>
+      <c r="Y203" t="n">
+        <v>3.75</v>
+      </c>
+      <c r="Z203" t="n">
+        <v>1.25</v>
+      </c>
+      <c r="AA203" t="n">
+        <v>11</v>
+      </c>
+      <c r="AB203" t="n">
+        <v>1.05</v>
+      </c>
+      <c r="AC203" t="n">
+        <v>2.03</v>
+      </c>
+      <c r="AD203" t="n">
+        <v>3.1</v>
+      </c>
+      <c r="AE203" t="n">
+        <v>3.63</v>
+      </c>
+      <c r="AF203" t="n">
+        <v>1.06</v>
+      </c>
+      <c r="AG203" t="n">
+        <v>6.5</v>
+      </c>
+      <c r="AH203" t="n">
+        <v>1.48</v>
+      </c>
+      <c r="AI203" t="n">
+        <v>2.45</v>
+      </c>
+      <c r="AJ203" t="n">
+        <v>2.45</v>
+      </c>
+      <c r="AK203" t="n">
+        <v>1.5</v>
+      </c>
+      <c r="AL203" t="n">
+        <v>2.1</v>
+      </c>
+      <c r="AM203" t="n">
+        <v>1.67</v>
+      </c>
+      <c r="AN203" t="n">
+        <v>1.25</v>
+      </c>
+      <c r="AO203" t="n">
+        <v>1.3</v>
+      </c>
+      <c r="AP203" t="n">
+        <v>1.8</v>
+      </c>
+      <c r="AQ203" t="n">
+        <v>2.43</v>
+      </c>
+      <c r="AR203" t="n">
+        <v>1.17</v>
+      </c>
+      <c r="AS203" t="n">
+        <v>2.5</v>
+      </c>
+      <c r="AT203" t="n">
+        <v>1</v>
+      </c>
+      <c r="AU203" t="n">
+        <v>1.48</v>
+      </c>
+      <c r="AV203" t="n">
+        <v>1.07</v>
+      </c>
+      <c r="AW203" t="n">
+        <v>2.55</v>
+      </c>
+      <c r="AX203" t="n">
+        <v>1.54</v>
+      </c>
+      <c r="AY203" t="n">
+        <v>7.5</v>
+      </c>
+      <c r="AZ203" t="n">
+        <v>3.1</v>
+      </c>
+      <c r="BA203" t="n">
+        <v>1.25</v>
+      </c>
+      <c r="BB203" t="n">
+        <v>1.47</v>
+      </c>
+      <c r="BC203" t="n">
+        <v>1.8</v>
+      </c>
+      <c r="BD203" t="n">
+        <v>2.38</v>
+      </c>
+      <c r="BE203" t="n">
+        <v>3.25</v>
+      </c>
+      <c r="BF203" t="n">
+        <v>8</v>
+      </c>
+      <c r="BG203" t="n">
+        <v>5</v>
+      </c>
+      <c r="BH203" t="n">
+        <v>3</v>
+      </c>
+      <c r="BI203" t="n">
+        <v>9</v>
+      </c>
+      <c r="BJ203" t="n">
+        <v>11</v>
+      </c>
+      <c r="BK203" t="n">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="204">
+      <c r="A204" s="1" t="n">
+        <v>203</v>
+      </c>
+      <c r="B204" t="n">
+        <v>4554611</v>
+      </c>
+      <c r="C204" t="inlineStr">
+        <is>
+          <t>Argentina Primera División</t>
+        </is>
+      </c>
+      <c r="D204" t="inlineStr">
+        <is>
+          <t>2023</t>
+        </is>
+      </c>
+      <c r="E204" s="2" t="n">
+        <v>45053.72916666666</v>
+      </c>
+      <c r="F204" t="n">
+        <v>15</v>
+      </c>
+      <c r="G204" t="inlineStr">
+        <is>
+          <t>River Plate</t>
+        </is>
+      </c>
+      <c r="H204" t="inlineStr">
+        <is>
+          <t>Boca Juniors</t>
+        </is>
+      </c>
+      <c r="I204" t="n">
+        <v>0</v>
+      </c>
+      <c r="J204" t="n">
+        <v>0</v>
+      </c>
+      <c r="K204" t="n">
+        <v>0</v>
+      </c>
+      <c r="L204" t="n">
+        <v>1</v>
+      </c>
+      <c r="M204" t="n">
+        <v>0</v>
+      </c>
+      <c r="N204" t="n">
+        <v>1</v>
+      </c>
+      <c r="O204" t="inlineStr">
+        <is>
+          <t>['90+3']</t>
+        </is>
+      </c>
+      <c r="P204" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="Q204" t="n">
+        <v>8</v>
+      </c>
+      <c r="R204" t="n">
+        <v>0</v>
+      </c>
+      <c r="S204" t="n">
+        <v>8</v>
+      </c>
+      <c r="T204" t="n">
+        <v>2.28</v>
+      </c>
+      <c r="U204" t="n">
+        <v>2.26</v>
+      </c>
+      <c r="V204" t="n">
+        <v>5.79</v>
+      </c>
+      <c r="W204" t="n">
+        <v>1.4</v>
+      </c>
+      <c r="X204" t="n">
+        <v>2.7</v>
+      </c>
+      <c r="Y204" t="n">
+        <v>2.8</v>
+      </c>
+      <c r="Z204" t="n">
+        <v>1.38</v>
+      </c>
+      <c r="AA204" t="n">
+        <v>6.5</v>
+      </c>
+      <c r="AB204" t="n">
+        <v>1.08</v>
+      </c>
+      <c r="AC204" t="n">
+        <v>1.6</v>
+      </c>
+      <c r="AD204" t="n">
+        <v>3.75</v>
+      </c>
+      <c r="AE204" t="n">
+        <v>4.75</v>
+      </c>
+      <c r="AF204" t="n">
+        <v>1.05</v>
+      </c>
+      <c r="AG204" t="n">
+        <v>11</v>
+      </c>
+      <c r="AH204" t="n">
+        <v>1.33</v>
+      </c>
+      <c r="AI204" t="n">
+        <v>3.3</v>
+      </c>
+      <c r="AJ204" t="n">
+        <v>1.91</v>
+      </c>
+      <c r="AK204" t="n">
+        <v>1.8</v>
+      </c>
+      <c r="AL204" t="n">
+        <v>2</v>
+      </c>
+      <c r="AM204" t="n">
+        <v>1.78</v>
+      </c>
+      <c r="AN204" t="n">
+        <v>1.17</v>
+      </c>
+      <c r="AO204" t="n">
+        <v>1.25</v>
+      </c>
+      <c r="AP204" t="n">
+        <v>2.25</v>
+      </c>
+      <c r="AQ204" t="n">
+        <v>2.5</v>
+      </c>
+      <c r="AR204" t="n">
+        <v>1.17</v>
+      </c>
+      <c r="AS204" t="n">
+        <v>2.57</v>
+      </c>
+      <c r="AT204" t="n">
+        <v>1</v>
+      </c>
+      <c r="AU204" t="n">
+        <v>1.86</v>
+      </c>
+      <c r="AV204" t="n">
+        <v>1.3</v>
+      </c>
+      <c r="AW204" t="n">
+        <v>3.16</v>
+      </c>
+      <c r="AX204" t="n">
+        <v>1.45</v>
+      </c>
+      <c r="AY204" t="n">
+        <v>8</v>
+      </c>
+      <c r="AZ204" t="n">
+        <v>3.5</v>
+      </c>
+      <c r="BA204" t="n">
+        <v>1.29</v>
+      </c>
+      <c r="BB204" t="n">
+        <v>1.53</v>
+      </c>
+      <c r="BC204" t="n">
+        <v>2</v>
+      </c>
+      <c r="BD204" t="n">
+        <v>2.55</v>
+      </c>
+      <c r="BE204" t="n">
+        <v>3.5</v>
+      </c>
+      <c r="BF204" t="n">
+        <v>6</v>
+      </c>
+      <c r="BG204" t="n">
+        <v>3</v>
+      </c>
+      <c r="BH204" t="n">
+        <v>10</v>
+      </c>
+      <c r="BI204" t="n">
+        <v>3</v>
+      </c>
+      <c r="BJ204" t="n">
+        <v>16</v>
+      </c>
+      <c r="BK204" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="205">
+      <c r="A205" s="1" t="n">
+        <v>204</v>
+      </c>
+      <c r="B205" t="n">
+        <v>4554608</v>
+      </c>
+      <c r="C205" t="inlineStr">
+        <is>
+          <t>Argentina Primera División</t>
+        </is>
+      </c>
+      <c r="D205" t="inlineStr">
+        <is>
+          <t>2023</t>
+        </is>
+      </c>
+      <c r="E205" s="2" t="n">
+        <v>45053.875</v>
+      </c>
+      <c r="F205" t="n">
+        <v>15</v>
+      </c>
+      <c r="G205" t="inlineStr">
+        <is>
+          <t>Tigre</t>
+        </is>
+      </c>
+      <c r="H205" t="inlineStr">
+        <is>
+          <t>Newell's Old Boys</t>
+        </is>
+      </c>
+      <c r="I205" t="n">
+        <v>2</v>
+      </c>
+      <c r="J205" t="n">
+        <v>1</v>
+      </c>
+      <c r="K205" t="n">
+        <v>3</v>
+      </c>
+      <c r="L205" t="n">
+        <v>2</v>
+      </c>
+      <c r="M205" t="n">
+        <v>2</v>
+      </c>
+      <c r="N205" t="n">
+        <v>4</v>
+      </c>
+      <c r="O205" t="inlineStr">
+        <is>
+          <t>['7', '14']</t>
+        </is>
+      </c>
+      <c r="P205" t="inlineStr">
+        <is>
+          <t>['2', '87']</t>
+        </is>
+      </c>
+      <c r="Q205" t="n">
+        <v>1</v>
+      </c>
+      <c r="R205" t="n">
+        <v>5</v>
+      </c>
+      <c r="S205" t="n">
+        <v>6</v>
+      </c>
+      <c r="T205" t="n">
+        <v>2.88</v>
+      </c>
+      <c r="U205" t="n">
+        <v>1.95</v>
+      </c>
+      <c r="V205" t="n">
+        <v>4.5</v>
+      </c>
+      <c r="W205" t="n">
+        <v>1.53</v>
+      </c>
+      <c r="X205" t="n">
+        <v>2.38</v>
+      </c>
+      <c r="Y205" t="n">
+        <v>3.75</v>
+      </c>
+      <c r="Z205" t="n">
+        <v>1.25</v>
+      </c>
+      <c r="AA205" t="n">
+        <v>11</v>
+      </c>
+      <c r="AB205" t="n">
+        <v>1.05</v>
+      </c>
+      <c r="AC205" t="n">
+        <v>2.13</v>
+      </c>
+      <c r="AD205" t="n">
+        <v>3.07</v>
+      </c>
+      <c r="AE205" t="n">
+        <v>3.42</v>
+      </c>
+      <c r="AF205" t="n">
+        <v>1.09</v>
+      </c>
+      <c r="AG205" t="n">
+        <v>7.5</v>
+      </c>
+      <c r="AH205" t="n">
+        <v>1.5</v>
+      </c>
+      <c r="AI205" t="n">
+        <v>2.55</v>
+      </c>
+      <c r="AJ205" t="n">
+        <v>2.4</v>
+      </c>
+      <c r="AK205" t="n">
+        <v>1.5</v>
+      </c>
+      <c r="AL205" t="n">
+        <v>2.1</v>
+      </c>
+      <c r="AM205" t="n">
+        <v>1.67</v>
+      </c>
+      <c r="AN205" t="n">
+        <v>1.3</v>
+      </c>
+      <c r="AO205" t="n">
+        <v>1.3</v>
+      </c>
+      <c r="AP205" t="n">
+        <v>1.65</v>
+      </c>
+      <c r="AQ205" t="n">
+        <v>1.67</v>
+      </c>
+      <c r="AR205" t="n">
+        <v>0.71</v>
+      </c>
+      <c r="AS205" t="n">
+        <v>1.57</v>
+      </c>
+      <c r="AT205" t="n">
+        <v>0.75</v>
+      </c>
+      <c r="AU205" t="n">
+        <v>1.66</v>
+      </c>
+      <c r="AV205" t="n">
+        <v>1.42</v>
+      </c>
+      <c r="AW205" t="n">
+        <v>3.08</v>
+      </c>
+      <c r="AX205" t="n">
+        <v>1.62</v>
+      </c>
+      <c r="AY205" t="n">
+        <v>7</v>
+      </c>
+      <c r="AZ205" t="n">
+        <v>2.88</v>
+      </c>
+      <c r="BA205" t="n">
+        <v>1.36</v>
+      </c>
+      <c r="BB205" t="n">
+        <v>1.66</v>
+      </c>
+      <c r="BC205" t="n">
+        <v>2.12</v>
+      </c>
+      <c r="BD205" t="n">
+        <v>2.88</v>
+      </c>
+      <c r="BE205" t="n">
+        <v>4.1</v>
+      </c>
+      <c r="BF205" t="n">
+        <v>4</v>
+      </c>
+      <c r="BG205" t="n">
+        <v>7</v>
+      </c>
+      <c r="BH205" t="n">
+        <v>6</v>
+      </c>
+      <c r="BI205" t="n">
+        <v>9</v>
+      </c>
+      <c r="BJ205" t="n">
+        <v>10</v>
+      </c>
+      <c r="BK205" t="n">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="206">
+      <c r="A206" s="1" t="n">
+        <v>205</v>
+      </c>
+      <c r="B206" t="n">
+        <v>4554614</v>
+      </c>
+      <c r="C206" t="inlineStr">
+        <is>
+          <t>Argentina Primera División</t>
+        </is>
+      </c>
+      <c r="D206" t="inlineStr">
+        <is>
+          <t>2023</t>
+        </is>
+      </c>
+      <c r="E206" s="2" t="n">
+        <v>45053.875</v>
+      </c>
+      <c r="F206" t="n">
+        <v>15</v>
+      </c>
+      <c r="G206" t="inlineStr">
+        <is>
+          <t>Estudiantes</t>
+        </is>
+      </c>
+      <c r="H206" t="inlineStr">
+        <is>
+          <t>Vélez Sarsfield</t>
+        </is>
+      </c>
+      <c r="I206" t="n">
+        <v>0</v>
+      </c>
+      <c r="J206" t="n">
+        <v>0</v>
+      </c>
+      <c r="K206" t="n">
+        <v>0</v>
+      </c>
+      <c r="L206" t="n">
+        <v>2</v>
+      </c>
+      <c r="M206" t="n">
+        <v>0</v>
+      </c>
+      <c r="N206" t="n">
+        <v>2</v>
+      </c>
+      <c r="O206" t="inlineStr">
+        <is>
+          <t>['59', '90+1']</t>
+        </is>
+      </c>
+      <c r="P206" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="Q206" t="n">
+        <v>5</v>
+      </c>
+      <c r="R206" t="n">
+        <v>6</v>
+      </c>
+      <c r="S206" t="n">
+        <v>11</v>
+      </c>
+      <c r="T206" t="n">
+        <v>2.75</v>
+      </c>
+      <c r="U206" t="n">
+        <v>1.95</v>
+      </c>
+      <c r="V206" t="n">
+        <v>5</v>
+      </c>
+      <c r="W206" t="n">
+        <v>1.57</v>
+      </c>
+      <c r="X206" t="n">
+        <v>2.25</v>
+      </c>
+      <c r="Y206" t="n">
+        <v>3.75</v>
+      </c>
+      <c r="Z206" t="n">
+        <v>1.25</v>
+      </c>
+      <c r="AA206" t="n">
+        <v>11</v>
+      </c>
+      <c r="AB206" t="n">
+        <v>1.05</v>
+      </c>
+      <c r="AC206" t="n">
+        <v>1.93</v>
+      </c>
+      <c r="AD206" t="n">
+        <v>3.35</v>
+      </c>
+      <c r="AE206" t="n">
+        <v>4.35</v>
+      </c>
+      <c r="AF206" t="n">
+        <v>1.1</v>
+      </c>
+      <c r="AG206" t="n">
+        <v>7.5</v>
+      </c>
+      <c r="AH206" t="n">
+        <v>1.48</v>
+      </c>
+      <c r="AI206" t="n">
+        <v>2.45</v>
+      </c>
+      <c r="AJ206" t="n">
+        <v>2.5</v>
+      </c>
+      <c r="AK206" t="n">
+        <v>1.5</v>
+      </c>
+      <c r="AL206" t="n">
+        <v>2.2</v>
+      </c>
+      <c r="AM206" t="n">
+        <v>1.62</v>
+      </c>
+      <c r="AN206" t="n">
+        <v>1.23</v>
+      </c>
+      <c r="AO206" t="n">
+        <v>1.32</v>
+      </c>
+      <c r="AP206" t="n">
+        <v>1.82</v>
+      </c>
+      <c r="AQ206" t="n">
+        <v>1.57</v>
+      </c>
+      <c r="AR206" t="n">
+        <v>0.83</v>
+      </c>
+      <c r="AS206" t="n">
+        <v>1.75</v>
+      </c>
+      <c r="AT206" t="n">
+        <v>0.71</v>
+      </c>
+      <c r="AU206" t="n">
+        <v>1.52</v>
+      </c>
+      <c r="AV206" t="n">
+        <v>1.02</v>
+      </c>
+      <c r="AW206" t="n">
+        <v>2.54</v>
+      </c>
+      <c r="AX206" t="n">
+        <v>1.64</v>
+      </c>
+      <c r="AY206" t="n">
+        <v>8</v>
+      </c>
+      <c r="AZ206" t="n">
+        <v>2.77</v>
+      </c>
+      <c r="BA206" t="n">
+        <v>1.45</v>
+      </c>
+      <c r="BB206" t="n">
+        <v>1.8</v>
+      </c>
+      <c r="BC206" t="n">
+        <v>2.4</v>
+      </c>
+      <c r="BD206" t="n">
+        <v>3.35</v>
+      </c>
+      <c r="BE206" t="n">
+        <v>4.8</v>
+      </c>
+      <c r="BF206" t="n">
+        <v>7</v>
+      </c>
+      <c r="BG206" t="n">
+        <v>3</v>
+      </c>
+      <c r="BH206" t="n">
+        <v>10</v>
+      </c>
+      <c r="BI206" t="n">
+        <v>5</v>
+      </c>
+      <c r="BJ206" t="n">
+        <v>17</v>
+      </c>
+      <c r="BK206" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="207">
+      <c r="A207" s="1" t="n">
+        <v>206</v>
+      </c>
+      <c r="B207" t="n">
+        <v>4554607</v>
+      </c>
+      <c r="C207" t="inlineStr">
+        <is>
+          <t>Argentina Primera División</t>
+        </is>
+      </c>
+      <c r="D207" t="inlineStr">
+        <is>
+          <t>2023</t>
+        </is>
+      </c>
+      <c r="E207" s="2" t="n">
+        <v>45054.64583333334</v>
+      </c>
+      <c r="F207" t="n">
+        <v>15</v>
+      </c>
+      <c r="G207" t="inlineStr">
+        <is>
+          <t>Arsenal de Sarandí</t>
+        </is>
+      </c>
+      <c r="H207" t="inlineStr">
+        <is>
+          <t>Gimnasia La Plata</t>
+        </is>
+      </c>
+      <c r="I207" t="n">
+        <v>0</v>
+      </c>
+      <c r="J207" t="n">
+        <v>1</v>
+      </c>
+      <c r="K207" t="n">
+        <v>1</v>
+      </c>
+      <c r="L207" t="n">
+        <v>0</v>
+      </c>
+      <c r="M207" t="n">
+        <v>1</v>
+      </c>
+      <c r="N207" t="n">
+        <v>1</v>
+      </c>
+      <c r="O207" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="P207" t="inlineStr">
+        <is>
+          <t>['43']</t>
+        </is>
+      </c>
+      <c r="Q207" t="n">
+        <v>-1</v>
+      </c>
+      <c r="R207" t="n">
+        <v>-1</v>
+      </c>
+      <c r="S207" t="n">
+        <v>-1</v>
+      </c>
+      <c r="T207" t="n">
+        <v>3.1</v>
+      </c>
+      <c r="U207" t="n">
+        <v>1.9</v>
+      </c>
+      <c r="V207" t="n">
+        <v>3.6</v>
+      </c>
+      <c r="W207" t="n">
+        <v>1.47</v>
+      </c>
+      <c r="X207" t="n">
+        <v>2.45</v>
+      </c>
+      <c r="Y207" t="n">
+        <v>3.3</v>
+      </c>
+      <c r="Z207" t="n">
+        <v>1.28</v>
+      </c>
+      <c r="AA207" t="n">
+        <v>8</v>
+      </c>
+      <c r="AB207" t="n">
+        <v>1.05</v>
+      </c>
+      <c r="AC207" t="n">
+        <v>2.49</v>
+      </c>
+      <c r="AD207" t="n">
+        <v>3.11</v>
+      </c>
+      <c r="AE207" t="n">
+        <v>2.93</v>
+      </c>
+      <c r="AF207" t="n">
+        <v>1.06</v>
+      </c>
+      <c r="AG207" t="n">
+        <v>7</v>
+      </c>
+      <c r="AH207" t="n">
+        <v>1.4</v>
+      </c>
+      <c r="AI207" t="n">
+        <v>2.7</v>
+      </c>
+      <c r="AJ207" t="n">
+        <v>2.25</v>
+      </c>
+      <c r="AK207" t="n">
+        <v>1.55</v>
+      </c>
+      <c r="AL207" t="n">
+        <v>1.95</v>
+      </c>
+      <c r="AM207" t="n">
+        <v>1.75</v>
+      </c>
+      <c r="AN207" t="n">
+        <v>1.37</v>
+      </c>
+      <c r="AO207" t="n">
+        <v>1.37</v>
+      </c>
+      <c r="AP207" t="n">
+        <v>1.42</v>
+      </c>
+      <c r="AQ207" t="n">
+        <v>1.17</v>
+      </c>
+      <c r="AR207" t="n">
+        <v>0.57</v>
+      </c>
+      <c r="AS207" t="n">
+        <v>1</v>
+      </c>
+      <c r="AT207" t="n">
+        <v>0.88</v>
+      </c>
+      <c r="AU207" t="n">
+        <v>1.15</v>
+      </c>
+      <c r="AV207" t="n">
+        <v>1.26</v>
+      </c>
+      <c r="AW207" t="n">
+        <v>2.41</v>
+      </c>
+      <c r="AX207" t="n">
+        <v>1.75</v>
+      </c>
+      <c r="AY207" t="n">
+        <v>8</v>
+      </c>
+      <c r="AZ207" t="n">
+        <v>2.42</v>
+      </c>
+      <c r="BA207" t="n">
+        <v>1.27</v>
+      </c>
+      <c r="BB207" t="n">
+        <v>1.5</v>
+      </c>
+      <c r="BC207" t="n">
+        <v>1.95</v>
+      </c>
+      <c r="BD207" t="n">
+        <v>2.45</v>
+      </c>
+      <c r="BE207" t="n">
+        <v>3.4</v>
+      </c>
+      <c r="BF207" t="n">
+        <v>-1</v>
+      </c>
+      <c r="BG207" t="n">
+        <v>-1</v>
+      </c>
+      <c r="BH207" t="n">
+        <v>-1</v>
+      </c>
+      <c r="BI207" t="n">
+        <v>-1</v>
+      </c>
+      <c r="BJ207" t="n">
+        <v>-1</v>
+      </c>
+      <c r="BK207" t="n">
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="208">
+      <c r="A208" s="1" t="n">
+        <v>207</v>
+      </c>
+      <c r="B208" t="n">
+        <v>4554615</v>
+      </c>
+      <c r="C208" t="inlineStr">
+        <is>
+          <t>Argentina Primera División</t>
+        </is>
+      </c>
+      <c r="D208" t="inlineStr">
+        <is>
+          <t>2023</t>
+        </is>
+      </c>
+      <c r="E208" s="2" t="n">
+        <v>45054.70833333334</v>
+      </c>
+      <c r="F208" t="n">
+        <v>15</v>
+      </c>
+      <c r="G208" t="inlineStr">
+        <is>
+          <t>San Lorenzo</t>
+        </is>
+      </c>
+      <c r="H208" t="inlineStr">
+        <is>
+          <t>Defensa y Justicia</t>
+        </is>
+      </c>
+      <c r="I208" t="n">
+        <v>0</v>
+      </c>
+      <c r="J208" t="n">
+        <v>0</v>
+      </c>
+      <c r="K208" t="n">
+        <v>0</v>
+      </c>
+      <c r="L208" t="n">
+        <v>0</v>
+      </c>
+      <c r="M208" t="n">
+        <v>0</v>
+      </c>
+      <c r="N208" t="n">
+        <v>0</v>
+      </c>
+      <c r="O208" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="P208" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="Q208" t="n">
+        <v>9</v>
+      </c>
+      <c r="R208" t="n">
+        <v>1</v>
+      </c>
+      <c r="S208" t="n">
+        <v>10</v>
+      </c>
+      <c r="T208" t="n">
+        <v>2.9</v>
+      </c>
+      <c r="U208" t="n">
+        <v>1.9</v>
+      </c>
+      <c r="V208" t="n">
+        <v>3.9</v>
+      </c>
+      <c r="W208" t="n">
+        <v>1.58</v>
+      </c>
+      <c r="X208" t="n">
+        <v>2.2</v>
+      </c>
+      <c r="Y208" t="n">
+        <v>3.8</v>
+      </c>
+      <c r="Z208" t="n">
+        <v>1.22</v>
+      </c>
+      <c r="AA208" t="n">
+        <v>11.5</v>
+      </c>
+      <c r="AB208" t="n">
+        <v>1.03</v>
+      </c>
+      <c r="AC208" t="n">
+        <v>2.15</v>
+      </c>
+      <c r="AD208" t="n">
+        <v>2.97</v>
+      </c>
+      <c r="AE208" t="n">
+        <v>3.8</v>
+      </c>
+      <c r="AF208" t="n">
+        <v>1.11</v>
+      </c>
+      <c r="AG208" t="n">
+        <v>6</v>
+      </c>
+      <c r="AH208" t="n">
+        <v>1.52</v>
+      </c>
+      <c r="AI208" t="n">
+        <v>2.4</v>
+      </c>
+      <c r="AJ208" t="n">
+        <v>2.53</v>
+      </c>
+      <c r="AK208" t="n">
+        <v>1.44</v>
+      </c>
+      <c r="AL208" t="n">
+        <v>2.15</v>
+      </c>
+      <c r="AM208" t="n">
+        <v>1.62</v>
+      </c>
+      <c r="AN208" t="n">
+        <v>1.25</v>
+      </c>
+      <c r="AO208" t="n">
+        <v>1.4</v>
+      </c>
+      <c r="AP208" t="n">
+        <v>1.55</v>
+      </c>
+      <c r="AQ208" t="n">
+        <v>2.71</v>
+      </c>
+      <c r="AR208" t="n">
+        <v>2.17</v>
+      </c>
+      <c r="AS208" t="n">
+        <v>2.5</v>
+      </c>
+      <c r="AT208" t="n">
+        <v>2</v>
+      </c>
+      <c r="AU208" t="n">
+        <v>1.4</v>
+      </c>
+      <c r="AV208" t="n">
+        <v>1.39</v>
+      </c>
+      <c r="AW208" t="n">
+        <v>2.79</v>
+      </c>
+      <c r="AX208" t="n">
+        <v>1.45</v>
+      </c>
+      <c r="AY208" t="n">
+        <v>8.5</v>
+      </c>
+      <c r="AZ208" t="n">
+        <v>3.46</v>
+      </c>
+      <c r="BA208" t="n">
+        <v>1.27</v>
+      </c>
+      <c r="BB208" t="n">
+        <v>1.5</v>
+      </c>
+      <c r="BC208" t="n">
+        <v>1.93</v>
+      </c>
+      <c r="BD208" t="n">
+        <v>2.45</v>
+      </c>
+      <c r="BE208" t="n">
+        <v>3.4</v>
+      </c>
+      <c r="BF208" t="n">
+        <v>4</v>
+      </c>
+      <c r="BG208" t="n">
+        <v>3</v>
+      </c>
+      <c r="BH208" t="n">
+        <v>9</v>
+      </c>
+      <c r="BI208" t="n">
+        <v>6</v>
+      </c>
+      <c r="BJ208" t="n">
+        <v>13</v>
+      </c>
+      <c r="BK208" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="209">
+      <c r="A209" s="1" t="n">
+        <v>208</v>
+      </c>
+      <c r="B209" t="n">
+        <v>4554612</v>
+      </c>
+      <c r="C209" t="inlineStr">
+        <is>
+          <t>Argentina Primera División</t>
+        </is>
+      </c>
+      <c r="D209" t="inlineStr">
+        <is>
+          <t>2023</t>
+        </is>
+      </c>
+      <c r="E209" s="2" t="n">
+        <v>45054.8125</v>
+      </c>
+      <c r="F209" t="n">
+        <v>15</v>
+      </c>
+      <c r="G209" t="inlineStr">
+        <is>
+          <t>Racing Club</t>
+        </is>
+      </c>
+      <c r="H209" t="inlineStr">
+        <is>
+          <t>Talleres Córdoba</t>
+        </is>
+      </c>
+      <c r="I209" t="n">
+        <v>0</v>
+      </c>
+      <c r="J209" t="n">
+        <v>2</v>
+      </c>
+      <c r="K209" t="n">
+        <v>2</v>
+      </c>
+      <c r="L209" t="n">
+        <v>2</v>
+      </c>
+      <c r="M209" t="n">
+        <v>4</v>
+      </c>
+      <c r="N209" t="n">
+        <v>6</v>
+      </c>
+      <c r="O209" t="inlineStr">
+        <is>
+          <t>['54', '66']</t>
+        </is>
+      </c>
+      <c r="P209" t="inlineStr">
+        <is>
+          <t>['5', '24', '50', '76']</t>
+        </is>
+      </c>
+      <c r="Q209" t="n">
+        <v>5</v>
+      </c>
+      <c r="R209" t="n">
+        <v>4</v>
+      </c>
+      <c r="S209" t="n">
+        <v>9</v>
+      </c>
+      <c r="T209" t="n">
+        <v>2.73</v>
+      </c>
+      <c r="U209" t="n">
+        <v>2.07</v>
+      </c>
+      <c r="V209" t="n">
+        <v>4.24</v>
+      </c>
+      <c r="W209" t="n">
+        <v>1.44</v>
+      </c>
+      <c r="X209" t="n">
+        <v>2.68</v>
+      </c>
+      <c r="Y209" t="n">
+        <v>3.05</v>
+      </c>
+      <c r="Z209" t="n">
+        <v>1.35</v>
+      </c>
+      <c r="AA209" t="n">
+        <v>8</v>
+      </c>
+      <c r="AB209" t="n">
+        <v>1.06</v>
+      </c>
+      <c r="AC209" t="n">
+        <v>2.13</v>
+      </c>
+      <c r="AD209" t="n">
+        <v>3.39</v>
+      </c>
+      <c r="AE209" t="n">
+        <v>3.34</v>
+      </c>
+      <c r="AF209" t="n">
+        <v>1.03</v>
+      </c>
+      <c r="AG209" t="n">
+        <v>8</v>
+      </c>
+      <c r="AH209" t="n">
+        <v>1.33</v>
+      </c>
+      <c r="AI209" t="n">
+        <v>2.96</v>
+      </c>
+      <c r="AJ209" t="n">
+        <v>2.1</v>
+      </c>
+      <c r="AK209" t="n">
+        <v>1.65</v>
+      </c>
+      <c r="AL209" t="n">
+        <v>1.87</v>
+      </c>
+      <c r="AM209" t="n">
+        <v>1.89</v>
+      </c>
+      <c r="AN209" t="n">
+        <v>1.3</v>
+      </c>
+      <c r="AO209" t="n">
+        <v>1.33</v>
+      </c>
+      <c r="AP209" t="n">
+        <v>1.67</v>
+      </c>
+      <c r="AQ209" t="n">
+        <v>1.57</v>
+      </c>
+      <c r="AR209" t="n">
+        <v>1.83</v>
+      </c>
+      <c r="AS209" t="n">
+        <v>1.38</v>
+      </c>
+      <c r="AT209" t="n">
+        <v>2</v>
+      </c>
+      <c r="AU209" t="n">
+        <v>1.72</v>
+      </c>
+      <c r="AV209" t="n">
+        <v>1.11</v>
+      </c>
+      <c r="AW209" t="n">
+        <v>2.83</v>
+      </c>
+      <c r="AX209" t="n">
+        <v>1.75</v>
+      </c>
+      <c r="AY209" t="n">
+        <v>8</v>
+      </c>
+      <c r="AZ209" t="n">
+        <v>2.52</v>
+      </c>
+      <c r="BA209" t="n">
+        <v>1.27</v>
+      </c>
+      <c r="BB209" t="n">
+        <v>1.5</v>
+      </c>
+      <c r="BC209" t="n">
+        <v>1.93</v>
+      </c>
+      <c r="BD209" t="n">
+        <v>2.45</v>
+      </c>
+      <c r="BE209" t="n">
+        <v>3.4</v>
+      </c>
+      <c r="BF209" t="n">
+        <v>9</v>
+      </c>
+      <c r="BG209" t="n">
+        <v>8</v>
+      </c>
+      <c r="BH209" t="n">
+        <v>8</v>
+      </c>
+      <c r="BI209" t="n">
+        <v>12</v>
+      </c>
+      <c r="BJ209" t="n">
+        <v>17</v>
+      </c>
+      <c r="BK209" t="n">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="210">
+      <c r="A210" s="1" t="n">
+        <v>209</v>
+      </c>
+      <c r="B210" t="n">
+        <v>5019511</v>
+      </c>
+      <c r="C210" t="inlineStr">
+        <is>
+          <t>Argentina Primera División</t>
+        </is>
+      </c>
+      <c r="D210" t="inlineStr">
+        <is>
+          <t>2023</t>
+        </is>
+      </c>
+      <c r="E210" s="2" t="n">
+        <v>45054.89583333334</v>
+      </c>
+      <c r="F210" t="n">
+        <v>15</v>
+      </c>
+      <c r="G210" t="inlineStr">
+        <is>
+          <t>Central Córdoba SdE</t>
+        </is>
+      </c>
+      <c r="H210" t="inlineStr">
+        <is>
+          <t>Sarmiento</t>
+        </is>
+      </c>
+      <c r="I210" t="n">
+        <v>0</v>
+      </c>
+      <c r="J210" t="n">
+        <v>1</v>
+      </c>
+      <c r="K210" t="n">
+        <v>1</v>
+      </c>
+      <c r="L210" t="n">
+        <v>0</v>
+      </c>
+      <c r="M210" t="n">
+        <v>1</v>
+      </c>
+      <c r="N210" t="n">
+        <v>1</v>
+      </c>
+      <c r="O210" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="P210" t="inlineStr">
+        <is>
+          <t>['44']</t>
+        </is>
+      </c>
+      <c r="Q210" t="n">
+        <v>7</v>
+      </c>
+      <c r="R210" t="n">
+        <v>4</v>
+      </c>
+      <c r="S210" t="n">
+        <v>11</v>
+      </c>
+      <c r="T210" t="n">
+        <v>3.1</v>
+      </c>
+      <c r="U210" t="n">
+        <v>1.95</v>
+      </c>
+      <c r="V210" t="n">
+        <v>4.2</v>
+      </c>
+      <c r="W210" t="n">
+        <v>1.5</v>
+      </c>
+      <c r="X210" t="n">
+        <v>2.4</v>
+      </c>
+      <c r="Y210" t="n">
+        <v>3.45</v>
+      </c>
+      <c r="Z210" t="n">
+        <v>1.27</v>
+      </c>
+      <c r="AA210" t="n">
+        <v>9.85</v>
+      </c>
+      <c r="AB210" t="n">
+        <v>1.03</v>
+      </c>
+      <c r="AC210" t="n">
+        <v>2.19</v>
+      </c>
+      <c r="AD210" t="n">
+        <v>3.08</v>
+      </c>
+      <c r="AE210" t="n">
+        <v>3.53</v>
+      </c>
+      <c r="AF210" t="n">
+        <v>1.08</v>
+      </c>
+      <c r="AG210" t="n">
+        <v>6.2</v>
+      </c>
+      <c r="AH210" t="n">
+        <v>1.45</v>
+      </c>
+      <c r="AI210" t="n">
+        <v>2.5</v>
+      </c>
+      <c r="AJ210" t="n">
+        <v>2.4</v>
+      </c>
+      <c r="AK210" t="n">
+        <v>1.5</v>
+      </c>
+      <c r="AL210" t="n">
+        <v>2.05</v>
+      </c>
+      <c r="AM210" t="n">
+        <v>1.72</v>
+      </c>
+      <c r="AN210" t="n">
+        <v>1.28</v>
+      </c>
+      <c r="AO210" t="n">
+        <v>1.37</v>
+      </c>
+      <c r="AP210" t="n">
+        <v>1.52</v>
+      </c>
+      <c r="AQ210" t="n">
+        <v>1.43</v>
+      </c>
+      <c r="AR210" t="n">
+        <v>0.86</v>
+      </c>
+      <c r="AS210" t="n">
+        <v>1.25</v>
+      </c>
+      <c r="AT210" t="n">
+        <v>1.13</v>
+      </c>
+      <c r="AU210" t="n">
+        <v>1.3</v>
+      </c>
+      <c r="AV210" t="n">
+        <v>1.16</v>
+      </c>
+      <c r="AW210" t="n">
+        <v>2.46</v>
+      </c>
+      <c r="AX210" t="n">
+        <v>1.81</v>
+      </c>
+      <c r="AY210" t="n">
+        <v>9</v>
+      </c>
+      <c r="AZ210" t="n">
+        <v>2.37</v>
+      </c>
+      <c r="BA210" t="n">
+        <v>1.21</v>
+      </c>
+      <c r="BB210" t="n">
+        <v>1.41</v>
+      </c>
+      <c r="BC210" t="n">
+        <v>1.73</v>
+      </c>
+      <c r="BD210" t="n">
+        <v>2.17</v>
+      </c>
+      <c r="BE210" t="n">
+        <v>2.84</v>
+      </c>
+      <c r="BF210" t="n">
+        <v>6</v>
+      </c>
+      <c r="BG210" t="n">
+        <v>4</v>
+      </c>
+      <c r="BH210" t="n">
+        <v>18</v>
+      </c>
+      <c r="BI210" t="n">
+        <v>13</v>
+      </c>
+      <c r="BJ210" t="n">
+        <v>24</v>
+      </c>
+      <c r="BK210" t="n">
+        <v>17</v>
       </c>
     </row>
   </sheetData>

--- a/Bases_de_Dados_(2022-2023)/Argentina Primera División_2023.xlsx
+++ b/Bases_de_Dados_(2022-2023)/Argentina Primera División_2023.xlsx
@@ -42431,13 +42431,13 @@
         </is>
       </c>
       <c r="Q207" t="n">
-        <v>-1</v>
+        <v>3</v>
       </c>
       <c r="R207" t="n">
-        <v>-1</v>
+        <v>4</v>
       </c>
       <c r="S207" t="n">
-        <v>-1</v>
+        <v>7</v>
       </c>
       <c r="T207" t="n">
         <v>3.1</v>
@@ -42554,22 +42554,22 @@
         <v>3.4</v>
       </c>
       <c r="BF207" t="n">
-        <v>-1</v>
+        <v>3</v>
       </c>
       <c r="BG207" t="n">
-        <v>-1</v>
+        <v>6</v>
       </c>
       <c r="BH207" t="n">
-        <v>-1</v>
+        <v>7</v>
       </c>
       <c r="BI207" t="n">
-        <v>-1</v>
+        <v>10</v>
       </c>
       <c r="BJ207" t="n">
-        <v>-1</v>
+        <v>10</v>
       </c>
       <c r="BK207" t="n">
-        <v>-1</v>
+        <v>16</v>
       </c>
     </row>
     <row r="208">

--- a/Bases_de_Dados_(2022-2023)/Argentina Primera División_2023.xlsx
+++ b/Bases_de_Dados_(2022-2023)/Argentina Primera División_2023.xlsx
@@ -429,7 +429,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:BK210"/>
+  <dimension ref="A1:BK212"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -903,7 +903,7 @@
         <v>2.5</v>
       </c>
       <c r="AT2" t="n">
-        <v>0.75</v>
+        <v>1</v>
       </c>
       <c r="AU2" t="n">
         <v>0</v>
@@ -3136,7 +3136,7 @@
         <v>1.38</v>
       </c>
       <c r="AT13" t="n">
-        <v>1.25</v>
+        <v>1.22</v>
       </c>
       <c r="AU13" t="n">
         <v>0</v>
@@ -5772,7 +5772,7 @@
         <v>0</v>
       </c>
       <c r="AS26" t="n">
-        <v>1</v>
+        <v>0.88</v>
       </c>
       <c r="AT26" t="n">
         <v>2</v>
@@ -6381,7 +6381,7 @@
         <v>0</v>
       </c>
       <c r="AS29" t="n">
-        <v>1.57</v>
+        <v>1.5</v>
       </c>
       <c r="AT29" t="n">
         <v>0.71</v>
@@ -6993,7 +6993,7 @@
         <v>2.5</v>
       </c>
       <c r="AT32" t="n">
-        <v>1.25</v>
+        <v>1.22</v>
       </c>
       <c r="AU32" t="n">
         <v>1.4</v>
@@ -8414,7 +8414,7 @@
         <v>2.57</v>
       </c>
       <c r="AT39" t="n">
-        <v>0.75</v>
+        <v>1</v>
       </c>
       <c r="AU39" t="n">
         <v>0</v>
@@ -9832,7 +9832,7 @@
         <v>3</v>
       </c>
       <c r="AS46" t="n">
-        <v>1.57</v>
+        <v>1.5</v>
       </c>
       <c r="AT46" t="n">
         <v>0.86</v>
@@ -12065,7 +12065,7 @@
         <v>0</v>
       </c>
       <c r="AS57" t="n">
-        <v>1</v>
+        <v>0.88</v>
       </c>
       <c r="AT57" t="n">
         <v>0.71</v>
@@ -12474,7 +12474,7 @@
         <v>2.5</v>
       </c>
       <c r="AT59" t="n">
-        <v>1.25</v>
+        <v>1.22</v>
       </c>
       <c r="AU59" t="n">
         <v>2.03</v>
@@ -14910,7 +14910,7 @@
         <v>1.25</v>
       </c>
       <c r="AT71" t="n">
-        <v>0.75</v>
+        <v>1</v>
       </c>
       <c r="AU71" t="n">
         <v>1.42</v>
@@ -16125,7 +16125,7 @@
         <v>0</v>
       </c>
       <c r="AS77" t="n">
-        <v>1</v>
+        <v>0.88</v>
       </c>
       <c r="AT77" t="n">
         <v>0.71</v>
@@ -16734,7 +16734,7 @@
         <v>1.5</v>
       </c>
       <c r="AS80" t="n">
-        <v>1.57</v>
+        <v>1.5</v>
       </c>
       <c r="AT80" t="n">
         <v>1.29</v>
@@ -16940,7 +16940,7 @@
         <v>1.57</v>
       </c>
       <c r="AT81" t="n">
-        <v>0.75</v>
+        <v>1</v>
       </c>
       <c r="AU81" t="n">
         <v>2.17</v>
@@ -19579,7 +19579,7 @@
         <v>2.57</v>
       </c>
       <c r="AT94" t="n">
-        <v>1.25</v>
+        <v>1.22</v>
       </c>
       <c r="AU94" t="n">
         <v>1.81</v>
@@ -21606,7 +21606,7 @@
         <v>1</v>
       </c>
       <c r="AS104" t="n">
-        <v>1</v>
+        <v>0.88</v>
       </c>
       <c r="AT104" t="n">
         <v>0.86</v>
@@ -23030,7 +23030,7 @@
         <v>2.29</v>
       </c>
       <c r="AT111" t="n">
-        <v>0.75</v>
+        <v>1</v>
       </c>
       <c r="AU111" t="n">
         <v>1.37</v>
@@ -23230,7 +23230,7 @@
         <v>0.33</v>
       </c>
       <c r="AS112" t="n">
-        <v>1.57</v>
+        <v>1.5</v>
       </c>
       <c r="AT112" t="n">
         <v>0.86</v>
@@ -23842,7 +23842,7 @@
         <v>2</v>
       </c>
       <c r="AT115" t="n">
-        <v>1.25</v>
+        <v>1.22</v>
       </c>
       <c r="AU115" t="n">
         <v>1.94</v>
@@ -27293,7 +27293,7 @@
         <v>1.43</v>
       </c>
       <c r="AT132" t="n">
-        <v>0.75</v>
+        <v>1</v>
       </c>
       <c r="AU132" t="n">
         <v>1.81</v>
@@ -27899,7 +27899,7 @@
         <v>1</v>
       </c>
       <c r="AS135" t="n">
-        <v>1</v>
+        <v>0.88</v>
       </c>
       <c r="AT135" t="n">
         <v>1.29</v>
@@ -28914,7 +28914,7 @@
         <v>2.4</v>
       </c>
       <c r="AS140" t="n">
-        <v>1.57</v>
+        <v>1.5</v>
       </c>
       <c r="AT140" t="n">
         <v>2.38</v>
@@ -31353,7 +31353,7 @@
         <v>1</v>
       </c>
       <c r="AT152" t="n">
-        <v>1.25</v>
+        <v>1.22</v>
       </c>
       <c r="AU152" t="n">
         <v>1.17</v>
@@ -32568,10 +32568,10 @@
         <v>0.67</v>
       </c>
       <c r="AS158" t="n">
-        <v>1.57</v>
+        <v>1.5</v>
       </c>
       <c r="AT158" t="n">
-        <v>0.75</v>
+        <v>1</v>
       </c>
       <c r="AU158" t="n">
         <v>1.37</v>
@@ -34598,7 +34598,7 @@
         <v>1</v>
       </c>
       <c r="AS168" t="n">
-        <v>1</v>
+        <v>0.88</v>
       </c>
       <c r="AT168" t="n">
         <v>0.86</v>
@@ -35819,7 +35819,7 @@
         <v>1.25</v>
       </c>
       <c r="AT174" t="n">
-        <v>1.25</v>
+        <v>1.22</v>
       </c>
       <c r="AU174" t="n">
         <v>1.36</v>
@@ -38052,7 +38052,7 @@
         <v>1.43</v>
       </c>
       <c r="AT185" t="n">
-        <v>1.25</v>
+        <v>1.22</v>
       </c>
       <c r="AU185" t="n">
         <v>1.75</v>
@@ -38255,7 +38255,7 @@
         <v>2</v>
       </c>
       <c r="AT186" t="n">
-        <v>0.75</v>
+        <v>1</v>
       </c>
       <c r="AU186" t="n">
         <v>1.09</v>
@@ -38455,7 +38455,7 @@
         <v>0.57</v>
       </c>
       <c r="AS187" t="n">
-        <v>1.57</v>
+        <v>1.5</v>
       </c>
       <c r="AT187" t="n">
         <v>0.5</v>
@@ -38658,7 +38658,7 @@
         <v>2.57</v>
       </c>
       <c r="AS188" t="n">
-        <v>1</v>
+        <v>0.88</v>
       </c>
       <c r="AT188" t="n">
         <v>2.38</v>
@@ -43178,6 +43178,412 @@
         <v>24</v>
       </c>
       <c r="BK210" t="n">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="211">
+      <c r="A211" s="1" t="n">
+        <v>210</v>
+      </c>
+      <c r="B211" t="n">
+        <v>4554628</v>
+      </c>
+      <c r="C211" t="inlineStr">
+        <is>
+          <t>Argentina Primera División</t>
+        </is>
+      </c>
+      <c r="D211" t="inlineStr">
+        <is>
+          <t>2023</t>
+        </is>
+      </c>
+      <c r="E211" s="2" t="n">
+        <v>45058.83333333334</v>
+      </c>
+      <c r="F211" t="n">
+        <v>16</v>
+      </c>
+      <c r="G211" t="inlineStr">
+        <is>
+          <t>Huracán</t>
+        </is>
+      </c>
+      <c r="H211" t="inlineStr">
+        <is>
+          <t>Godoy Cruz</t>
+        </is>
+      </c>
+      <c r="I211" t="n">
+        <v>0</v>
+      </c>
+      <c r="J211" t="n">
+        <v>0</v>
+      </c>
+      <c r="K211" t="n">
+        <v>0</v>
+      </c>
+      <c r="L211" t="n">
+        <v>0</v>
+      </c>
+      <c r="M211" t="n">
+        <v>0</v>
+      </c>
+      <c r="N211" t="n">
+        <v>0</v>
+      </c>
+      <c r="O211" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="P211" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="Q211" t="n">
+        <v>2</v>
+      </c>
+      <c r="R211" t="n">
+        <v>4</v>
+      </c>
+      <c r="S211" t="n">
+        <v>6</v>
+      </c>
+      <c r="T211" t="n">
+        <v>2.85</v>
+      </c>
+      <c r="U211" t="n">
+        <v>1.91</v>
+      </c>
+      <c r="V211" t="n">
+        <v>4.76</v>
+      </c>
+      <c r="W211" t="n">
+        <v>1.55</v>
+      </c>
+      <c r="X211" t="n">
+        <v>2.38</v>
+      </c>
+      <c r="Y211" t="n">
+        <v>3.34</v>
+      </c>
+      <c r="Z211" t="n">
+        <v>1.3</v>
+      </c>
+      <c r="AA211" t="n">
+        <v>9.199999999999999</v>
+      </c>
+      <c r="AB211" t="n">
+        <v>1.04</v>
+      </c>
+      <c r="AC211" t="n">
+        <v>2.15</v>
+      </c>
+      <c r="AD211" t="n">
+        <v>3.1</v>
+      </c>
+      <c r="AE211" t="n">
+        <v>3.6</v>
+      </c>
+      <c r="AF211" t="n">
+        <v>1.08</v>
+      </c>
+      <c r="AG211" t="n">
+        <v>8.5</v>
+      </c>
+      <c r="AH211" t="n">
+        <v>1.44</v>
+      </c>
+      <c r="AI211" t="n">
+        <v>2.8</v>
+      </c>
+      <c r="AJ211" t="n">
+        <v>2.3</v>
+      </c>
+      <c r="AK211" t="n">
+        <v>1.57</v>
+      </c>
+      <c r="AL211" t="n">
+        <v>2.02</v>
+      </c>
+      <c r="AM211" t="n">
+        <v>1.76</v>
+      </c>
+      <c r="AN211" t="n">
+        <v>1.28</v>
+      </c>
+      <c r="AO211" t="n">
+        <v>1.28</v>
+      </c>
+      <c r="AP211" t="n">
+        <v>1.72</v>
+      </c>
+      <c r="AQ211" t="n">
+        <v>1.57</v>
+      </c>
+      <c r="AR211" t="n">
+        <v>1.25</v>
+      </c>
+      <c r="AS211" t="n">
+        <v>1.5</v>
+      </c>
+      <c r="AT211" t="n">
+        <v>1.22</v>
+      </c>
+      <c r="AU211" t="n">
+        <v>1.32</v>
+      </c>
+      <c r="AV211" t="n">
+        <v>1.39</v>
+      </c>
+      <c r="AW211" t="n">
+        <v>2.71</v>
+      </c>
+      <c r="AX211" t="n">
+        <v>1.49</v>
+      </c>
+      <c r="AY211" t="n">
+        <v>7.5</v>
+      </c>
+      <c r="AZ211" t="n">
+        <v>3.3</v>
+      </c>
+      <c r="BA211" t="n">
+        <v>1.27</v>
+      </c>
+      <c r="BB211" t="n">
+        <v>1.5</v>
+      </c>
+      <c r="BC211" t="n">
+        <v>1.87</v>
+      </c>
+      <c r="BD211" t="n">
+        <v>2.45</v>
+      </c>
+      <c r="BE211" t="n">
+        <v>3.4</v>
+      </c>
+      <c r="BF211" t="n">
+        <v>4</v>
+      </c>
+      <c r="BG211" t="n">
+        <v>5</v>
+      </c>
+      <c r="BH211" t="n">
+        <v>6</v>
+      </c>
+      <c r="BI211" t="n">
+        <v>3</v>
+      </c>
+      <c r="BJ211" t="n">
+        <v>10</v>
+      </c>
+      <c r="BK211" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="212">
+      <c r="A212" s="1" t="n">
+        <v>211</v>
+      </c>
+      <c r="B212" t="n">
+        <v>4554624</v>
+      </c>
+      <c r="C212" t="inlineStr">
+        <is>
+          <t>Argentina Primera División</t>
+        </is>
+      </c>
+      <c r="D212" t="inlineStr">
+        <is>
+          <t>2023</t>
+        </is>
+      </c>
+      <c r="E212" s="2" t="n">
+        <v>45058.89583333334</v>
+      </c>
+      <c r="F212" t="n">
+        <v>16</v>
+      </c>
+      <c r="G212" t="inlineStr">
+        <is>
+          <t>Atlético Tucumán</t>
+        </is>
+      </c>
+      <c r="H212" t="inlineStr">
+        <is>
+          <t>Argentinos Juniors</t>
+        </is>
+      </c>
+      <c r="I212" t="n">
+        <v>1</v>
+      </c>
+      <c r="J212" t="n">
+        <v>1</v>
+      </c>
+      <c r="K212" t="n">
+        <v>2</v>
+      </c>
+      <c r="L212" t="n">
+        <v>1</v>
+      </c>
+      <c r="M212" t="n">
+        <v>2</v>
+      </c>
+      <c r="N212" t="n">
+        <v>3</v>
+      </c>
+      <c r="O212" t="inlineStr">
+        <is>
+          <t>['43']</t>
+        </is>
+      </c>
+      <c r="P212" t="inlineStr">
+        <is>
+          <t>['14', '47']</t>
+        </is>
+      </c>
+      <c r="Q212" t="n">
+        <v>2</v>
+      </c>
+      <c r="R212" t="n">
+        <v>4</v>
+      </c>
+      <c r="S212" t="n">
+        <v>6</v>
+      </c>
+      <c r="T212" t="n">
+        <v>3.4</v>
+      </c>
+      <c r="U212" t="n">
+        <v>1.91</v>
+      </c>
+      <c r="V212" t="n">
+        <v>3.25</v>
+      </c>
+      <c r="W212" t="n">
+        <v>1.5</v>
+      </c>
+      <c r="X212" t="n">
+        <v>2.49</v>
+      </c>
+      <c r="Y212" t="n">
+        <v>3.3</v>
+      </c>
+      <c r="Z212" t="n">
+        <v>1.3</v>
+      </c>
+      <c r="AA212" t="n">
+        <v>10</v>
+      </c>
+      <c r="AB212" t="n">
+        <v>1.05</v>
+      </c>
+      <c r="AC212" t="n">
+        <v>2.75</v>
+      </c>
+      <c r="AD212" t="n">
+        <v>3.1</v>
+      </c>
+      <c r="AE212" t="n">
+        <v>2.6</v>
+      </c>
+      <c r="AF212" t="n">
+        <v>1.09</v>
+      </c>
+      <c r="AG212" t="n">
+        <v>8.25</v>
+      </c>
+      <c r="AH212" t="n">
+        <v>1.4</v>
+      </c>
+      <c r="AI212" t="n">
+        <v>2.7</v>
+      </c>
+      <c r="AJ212" t="n">
+        <v>2.25</v>
+      </c>
+      <c r="AK212" t="n">
+        <v>1.58</v>
+      </c>
+      <c r="AL212" t="n">
+        <v>2</v>
+      </c>
+      <c r="AM212" t="n">
+        <v>1.73</v>
+      </c>
+      <c r="AN212" t="n">
+        <v>1.5</v>
+      </c>
+      <c r="AO212" t="n">
+        <v>1.36</v>
+      </c>
+      <c r="AP212" t="n">
+        <v>1.4</v>
+      </c>
+      <c r="AQ212" t="n">
+        <v>1</v>
+      </c>
+      <c r="AR212" t="n">
+        <v>0.75</v>
+      </c>
+      <c r="AS212" t="n">
+        <v>0.88</v>
+      </c>
+      <c r="AT212" t="n">
+        <v>1</v>
+      </c>
+      <c r="AU212" t="n">
+        <v>1.45</v>
+      </c>
+      <c r="AV212" t="n">
+        <v>1.52</v>
+      </c>
+      <c r="AW212" t="n">
+        <v>2.97</v>
+      </c>
+      <c r="AX212" t="n">
+        <v>2.2</v>
+      </c>
+      <c r="AY212" t="n">
+        <v>7</v>
+      </c>
+      <c r="AZ212" t="n">
+        <v>2</v>
+      </c>
+      <c r="BA212" t="n">
+        <v>1.36</v>
+      </c>
+      <c r="BB212" t="n">
+        <v>1.67</v>
+      </c>
+      <c r="BC212" t="n">
+        <v>2.15</v>
+      </c>
+      <c r="BD212" t="n">
+        <v>2.95</v>
+      </c>
+      <c r="BE212" t="n">
+        <v>4.1</v>
+      </c>
+      <c r="BF212" t="n">
+        <v>4</v>
+      </c>
+      <c r="BG212" t="n">
+        <v>9</v>
+      </c>
+      <c r="BH212" t="n">
+        <v>8</v>
+      </c>
+      <c r="BI212" t="n">
+        <v>8</v>
+      </c>
+      <c r="BJ212" t="n">
+        <v>12</v>
+      </c>
+      <c r="BK212" t="n">
         <v>17</v>
       </c>
     </row>

--- a/Bases_de_Dados_(2022-2023)/Argentina Primera División_2023.xlsx
+++ b/Bases_de_Dados_(2022-2023)/Argentina Primera División_2023.xlsx
@@ -429,7 +429,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:BK212"/>
+  <dimension ref="A1:BK224"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1103,7 +1103,7 @@
         <v>0</v>
       </c>
       <c r="AS3" t="n">
-        <v>1.75</v>
+        <v>1.67</v>
       </c>
       <c r="AT3" t="n">
         <v>0.63</v>
@@ -1309,7 +1309,7 @@
         <v>2.5</v>
       </c>
       <c r="AT4" t="n">
-        <v>0.5</v>
+        <v>0.44</v>
       </c>
       <c r="AU4" t="n">
         <v>0</v>
@@ -1509,7 +1509,7 @@
         <v>0</v>
       </c>
       <c r="AS5" t="n">
-        <v>1.63</v>
+        <v>1.78</v>
       </c>
       <c r="AT5" t="n">
         <v>1</v>
@@ -1715,7 +1715,7 @@
         <v>1.75</v>
       </c>
       <c r="AT6" t="n">
-        <v>1.25</v>
+        <v>1.11</v>
       </c>
       <c r="AU6" t="n">
         <v>0</v>
@@ -1918,7 +1918,7 @@
         <v>1.25</v>
       </c>
       <c r="AT7" t="n">
-        <v>2.38</v>
+        <v>2.11</v>
       </c>
       <c r="AU7" t="n">
         <v>0</v>
@@ -2118,7 +2118,7 @@
         <v>0</v>
       </c>
       <c r="AS8" t="n">
-        <v>1.25</v>
+        <v>1.44</v>
       </c>
       <c r="AT8" t="n">
         <v>0.75</v>
@@ -2321,10 +2321,10 @@
         <v>0</v>
       </c>
       <c r="AS9" t="n">
-        <v>1.25</v>
+        <v>1.44</v>
       </c>
       <c r="AT9" t="n">
-        <v>1.13</v>
+        <v>1.33</v>
       </c>
       <c r="AU9" t="n">
         <v>0</v>
@@ -2527,7 +2527,7 @@
         <v>1.25</v>
       </c>
       <c r="AT10" t="n">
-        <v>1.29</v>
+        <v>1.13</v>
       </c>
       <c r="AU10" t="n">
         <v>0</v>
@@ -2730,7 +2730,7 @@
         <v>1.38</v>
       </c>
       <c r="AT11" t="n">
-        <v>1.63</v>
+        <v>1.44</v>
       </c>
       <c r="AU11" t="n">
         <v>0</v>
@@ -2930,7 +2930,7 @@
         <v>0</v>
       </c>
       <c r="AS12" t="n">
-        <v>1.38</v>
+        <v>1.56</v>
       </c>
       <c r="AT12" t="n">
         <v>0.88</v>
@@ -3133,7 +3133,7 @@
         <v>0</v>
       </c>
       <c r="AS13" t="n">
-        <v>1.38</v>
+        <v>1.33</v>
       </c>
       <c r="AT13" t="n">
         <v>1.22</v>
@@ -3336,7 +3336,7 @@
         <v>0</v>
       </c>
       <c r="AS14" t="n">
-        <v>1.38</v>
+        <v>1.33</v>
       </c>
       <c r="AT14" t="n">
         <v>0.88</v>
@@ -3539,7 +3539,7 @@
         <v>0</v>
       </c>
       <c r="AS15" t="n">
-        <v>1.25</v>
+        <v>1.11</v>
       </c>
       <c r="AT15" t="n">
         <v>0.5</v>
@@ -3745,7 +3745,7 @@
         <v>1.57</v>
       </c>
       <c r="AT16" t="n">
-        <v>0.86</v>
+        <v>0.88</v>
       </c>
       <c r="AU16" t="n">
         <v>0</v>
@@ -3945,7 +3945,7 @@
         <v>0</v>
       </c>
       <c r="AS17" t="n">
-        <v>2</v>
+        <v>2.13</v>
       </c>
       <c r="AT17" t="n">
         <v>0.71</v>
@@ -4151,7 +4151,7 @@
         <v>1</v>
       </c>
       <c r="AT18" t="n">
-        <v>1.86</v>
+        <v>1.75</v>
       </c>
       <c r="AU18" t="n">
         <v>0</v>
@@ -4557,7 +4557,7 @@
         <v>2</v>
       </c>
       <c r="AT20" t="n">
-        <v>2.38</v>
+        <v>2.11</v>
       </c>
       <c r="AU20" t="n">
         <v>0</v>
@@ -4760,7 +4760,7 @@
         <v>2.29</v>
       </c>
       <c r="AT21" t="n">
-        <v>1.29</v>
+        <v>1.5</v>
       </c>
       <c r="AU21" t="n">
         <v>0</v>
@@ -4963,7 +4963,7 @@
         <v>2</v>
       </c>
       <c r="AT22" t="n">
-        <v>1</v>
+        <v>0.88</v>
       </c>
       <c r="AU22" t="n">
         <v>0</v>
@@ -5163,7 +5163,7 @@
         <v>0</v>
       </c>
       <c r="AS23" t="n">
-        <v>0.86</v>
+        <v>1.13</v>
       </c>
       <c r="AT23" t="n">
         <v>1</v>
@@ -5366,10 +5366,10 @@
         <v>0</v>
       </c>
       <c r="AS24" t="n">
-        <v>1.38</v>
+        <v>1.56</v>
       </c>
       <c r="AT24" t="n">
-        <v>1.14</v>
+        <v>1.13</v>
       </c>
       <c r="AU24" t="n">
         <v>1.71</v>
@@ -5572,7 +5572,7 @@
         <v>1.71</v>
       </c>
       <c r="AT25" t="n">
-        <v>1</v>
+        <v>0.88</v>
       </c>
       <c r="AU25" t="n">
         <v>0</v>
@@ -5975,7 +5975,7 @@
         <v>0</v>
       </c>
       <c r="AS27" t="n">
-        <v>0.83</v>
+        <v>0.71</v>
       </c>
       <c r="AT27" t="n">
         <v>1</v>
@@ -6178,7 +6178,7 @@
         <v>0</v>
       </c>
       <c r="AS28" t="n">
-        <v>1.57</v>
+        <v>1.75</v>
       </c>
       <c r="AT28" t="n">
         <v>2</v>
@@ -6587,7 +6587,7 @@
         <v>1.25</v>
       </c>
       <c r="AT30" t="n">
-        <v>1.13</v>
+        <v>1.33</v>
       </c>
       <c r="AU30" t="n">
         <v>1.17</v>
@@ -6790,7 +6790,7 @@
         <v>1.25</v>
       </c>
       <c r="AT31" t="n">
-        <v>1.63</v>
+        <v>1.44</v>
       </c>
       <c r="AU31" t="n">
         <v>1.53</v>
@@ -7193,7 +7193,7 @@
         <v>1</v>
       </c>
       <c r="AS33" t="n">
-        <v>1.75</v>
+        <v>1.67</v>
       </c>
       <c r="AT33" t="n">
         <v>0.75</v>
@@ -7396,7 +7396,7 @@
         <v>0</v>
       </c>
       <c r="AS34" t="n">
-        <v>1.25</v>
+        <v>1.44</v>
       </c>
       <c r="AT34" t="n">
         <v>0.88</v>
@@ -7599,7 +7599,7 @@
         <v>0</v>
       </c>
       <c r="AS35" t="n">
-        <v>1.63</v>
+        <v>1.78</v>
       </c>
       <c r="AT35" t="n">
         <v>1</v>
@@ -7802,7 +7802,7 @@
         <v>3</v>
       </c>
       <c r="AS36" t="n">
-        <v>1.38</v>
+        <v>1.33</v>
       </c>
       <c r="AT36" t="n">
         <v>1</v>
@@ -8008,7 +8008,7 @@
         <v>2.5</v>
       </c>
       <c r="AT37" t="n">
-        <v>0.5</v>
+        <v>0.44</v>
       </c>
       <c r="AU37" t="n">
         <v>1.18</v>
@@ -8208,7 +8208,7 @@
         <v>0</v>
       </c>
       <c r="AS38" t="n">
-        <v>1.25</v>
+        <v>1.11</v>
       </c>
       <c r="AT38" t="n">
         <v>0.88</v>
@@ -8614,7 +8614,7 @@
         <v>3</v>
       </c>
       <c r="AS40" t="n">
-        <v>1.25</v>
+        <v>1.44</v>
       </c>
       <c r="AT40" t="n">
         <v>0.63</v>
@@ -8820,7 +8820,7 @@
         <v>1.38</v>
       </c>
       <c r="AT41" t="n">
-        <v>1.25</v>
+        <v>1.11</v>
       </c>
       <c r="AU41" t="n">
         <v>2.1</v>
@@ -9020,7 +9020,7 @@
         <v>1</v>
       </c>
       <c r="AS42" t="n">
-        <v>1.38</v>
+        <v>1.33</v>
       </c>
       <c r="AT42" t="n">
         <v>0.5</v>
@@ -9226,7 +9226,7 @@
         <v>1.75</v>
       </c>
       <c r="AT43" t="n">
-        <v>1.29</v>
+        <v>1.13</v>
       </c>
       <c r="AU43" t="n">
         <v>1.92</v>
@@ -9426,7 +9426,7 @@
         <v>3</v>
       </c>
       <c r="AS44" t="n">
-        <v>1.57</v>
+        <v>1.75</v>
       </c>
       <c r="AT44" t="n">
         <v>1</v>
@@ -9632,7 +9632,7 @@
         <v>1</v>
       </c>
       <c r="AT45" t="n">
-        <v>1</v>
+        <v>0.88</v>
       </c>
       <c r="AU45" t="n">
         <v>1.23</v>
@@ -10038,7 +10038,7 @@
         <v>2.29</v>
       </c>
       <c r="AT47" t="n">
-        <v>0.86</v>
+        <v>0.88</v>
       </c>
       <c r="AU47" t="n">
         <v>1.27</v>
@@ -10241,7 +10241,7 @@
         <v>1.57</v>
       </c>
       <c r="AT48" t="n">
-        <v>2.38</v>
+        <v>2.11</v>
       </c>
       <c r="AU48" t="n">
         <v>2.98</v>
@@ -10444,7 +10444,7 @@
         <v>2</v>
       </c>
       <c r="AT49" t="n">
-        <v>1.63</v>
+        <v>1.44</v>
       </c>
       <c r="AU49" t="n">
         <v>2.25</v>
@@ -10647,7 +10647,7 @@
         <v>1.71</v>
       </c>
       <c r="AT50" t="n">
-        <v>1.86</v>
+        <v>1.75</v>
       </c>
       <c r="AU50" t="n">
         <v>1.84</v>
@@ -10847,7 +10847,7 @@
         <v>0</v>
       </c>
       <c r="AS51" t="n">
-        <v>2</v>
+        <v>2.13</v>
       </c>
       <c r="AT51" t="n">
         <v>0.71</v>
@@ -11050,10 +11050,10 @@
         <v>0</v>
       </c>
       <c r="AS52" t="n">
-        <v>0.83</v>
+        <v>0.71</v>
       </c>
       <c r="AT52" t="n">
-        <v>1</v>
+        <v>0.88</v>
       </c>
       <c r="AU52" t="n">
         <v>1.84</v>
@@ -11253,7 +11253,7 @@
         <v>3</v>
       </c>
       <c r="AS53" t="n">
-        <v>1.38</v>
+        <v>1.56</v>
       </c>
       <c r="AT53" t="n">
         <v>1</v>
@@ -11456,7 +11456,7 @@
         <v>3</v>
       </c>
       <c r="AS54" t="n">
-        <v>0.86</v>
+        <v>1.13</v>
       </c>
       <c r="AT54" t="n">
         <v>2</v>
@@ -11659,10 +11659,10 @@
         <v>1</v>
       </c>
       <c r="AS55" t="n">
-        <v>1.63</v>
+        <v>1.78</v>
       </c>
       <c r="AT55" t="n">
-        <v>1.14</v>
+        <v>1.13</v>
       </c>
       <c r="AU55" t="n">
         <v>1.5</v>
@@ -11865,7 +11865,7 @@
         <v>1.43</v>
       </c>
       <c r="AT56" t="n">
-        <v>1.29</v>
+        <v>1.5</v>
       </c>
       <c r="AU56" t="n">
         <v>1.24</v>
@@ -12271,7 +12271,7 @@
         <v>2</v>
       </c>
       <c r="AT58" t="n">
-        <v>1.25</v>
+        <v>1.11</v>
       </c>
       <c r="AU58" t="n">
         <v>0.67</v>
@@ -12877,7 +12877,7 @@
         <v>3</v>
       </c>
       <c r="AS61" t="n">
-        <v>1.25</v>
+        <v>1.44</v>
       </c>
       <c r="AT61" t="n">
         <v>2</v>
@@ -13083,7 +13083,7 @@
         <v>1.75</v>
       </c>
       <c r="AT62" t="n">
-        <v>1.13</v>
+        <v>1.33</v>
       </c>
       <c r="AU62" t="n">
         <v>2.1</v>
@@ -13283,7 +13283,7 @@
         <v>0</v>
       </c>
       <c r="AS63" t="n">
-        <v>1.38</v>
+        <v>1.33</v>
       </c>
       <c r="AT63" t="n">
         <v>1</v>
@@ -13486,7 +13486,7 @@
         <v>0.5</v>
       </c>
       <c r="AS64" t="n">
-        <v>1.75</v>
+        <v>1.67</v>
       </c>
       <c r="AT64" t="n">
         <v>0.88</v>
@@ -13895,7 +13895,7 @@
         <v>2.57</v>
       </c>
       <c r="AT66" t="n">
-        <v>0.5</v>
+        <v>0.44</v>
       </c>
       <c r="AU66" t="n">
         <v>1.25</v>
@@ -14095,7 +14095,7 @@
         <v>0.5</v>
       </c>
       <c r="AS67" t="n">
-        <v>1.25</v>
+        <v>1.44</v>
       </c>
       <c r="AT67" t="n">
         <v>0.75</v>
@@ -14298,7 +14298,7 @@
         <v>2</v>
       </c>
       <c r="AS68" t="n">
-        <v>1.25</v>
+        <v>1.11</v>
       </c>
       <c r="AT68" t="n">
         <v>1</v>
@@ -14501,7 +14501,7 @@
         <v>0.5</v>
       </c>
       <c r="AS69" t="n">
-        <v>1.38</v>
+        <v>1.33</v>
       </c>
       <c r="AT69" t="n">
         <v>0.88</v>
@@ -14707,7 +14707,7 @@
         <v>1.38</v>
       </c>
       <c r="AT70" t="n">
-        <v>1.29</v>
+        <v>1.13</v>
       </c>
       <c r="AU70" t="n">
         <v>1.87</v>
@@ -15110,10 +15110,10 @@
         <v>2</v>
       </c>
       <c r="AS72" t="n">
-        <v>0.83</v>
+        <v>0.71</v>
       </c>
       <c r="AT72" t="n">
-        <v>1.86</v>
+        <v>1.75</v>
       </c>
       <c r="AU72" t="n">
         <v>1.44</v>
@@ -15316,7 +15316,7 @@
         <v>1.43</v>
       </c>
       <c r="AT73" t="n">
-        <v>0.86</v>
+        <v>0.88</v>
       </c>
       <c r="AU73" t="n">
         <v>1.51</v>
@@ -15516,10 +15516,10 @@
         <v>0.5</v>
       </c>
       <c r="AS74" t="n">
-        <v>1.25</v>
+        <v>1.44</v>
       </c>
       <c r="AT74" t="n">
-        <v>1.14</v>
+        <v>1.13</v>
       </c>
       <c r="AU74" t="n">
         <v>1.4</v>
@@ -15719,10 +15719,10 @@
         <v>0.5</v>
       </c>
       <c r="AS75" t="n">
-        <v>1.57</v>
+        <v>1.75</v>
       </c>
       <c r="AT75" t="n">
-        <v>1</v>
+        <v>0.88</v>
       </c>
       <c r="AU75" t="n">
         <v>1.64</v>
@@ -15925,7 +15925,7 @@
         <v>2.29</v>
       </c>
       <c r="AT76" t="n">
-        <v>2.38</v>
+        <v>2.11</v>
       </c>
       <c r="AU76" t="n">
         <v>1.43</v>
@@ -16328,7 +16328,7 @@
         <v>1.5</v>
       </c>
       <c r="AS78" t="n">
-        <v>2</v>
+        <v>2.13</v>
       </c>
       <c r="AT78" t="n">
         <v>0.86</v>
@@ -16531,7 +16531,7 @@
         <v>1.5</v>
       </c>
       <c r="AS79" t="n">
-        <v>0.86</v>
+        <v>1.13</v>
       </c>
       <c r="AT79" t="n">
         <v>1</v>
@@ -16737,7 +16737,7 @@
         <v>1.5</v>
       </c>
       <c r="AT80" t="n">
-        <v>1.29</v>
+        <v>1.5</v>
       </c>
       <c r="AU80" t="n">
         <v>1.91</v>
@@ -17140,7 +17140,7 @@
         <v>0.5</v>
       </c>
       <c r="AS82" t="n">
-        <v>1.63</v>
+        <v>1.78</v>
       </c>
       <c r="AT82" t="n">
         <v>0.71</v>
@@ -17346,7 +17346,7 @@
         <v>1.71</v>
       </c>
       <c r="AT83" t="n">
-        <v>1</v>
+        <v>0.88</v>
       </c>
       <c r="AU83" t="n">
         <v>1.44</v>
@@ -17549,7 +17549,7 @@
         <v>1</v>
       </c>
       <c r="AT84" t="n">
-        <v>1.63</v>
+        <v>1.44</v>
       </c>
       <c r="AU84" t="n">
         <v>1.21</v>
@@ -17749,7 +17749,7 @@
         <v>3</v>
       </c>
       <c r="AS85" t="n">
-        <v>1.38</v>
+        <v>1.56</v>
       </c>
       <c r="AT85" t="n">
         <v>2</v>
@@ -17952,7 +17952,7 @@
         <v>1.67</v>
       </c>
       <c r="AS86" t="n">
-        <v>1.38</v>
+        <v>1.33</v>
       </c>
       <c r="AT86" t="n">
         <v>1</v>
@@ -18158,7 +18158,7 @@
         <v>2</v>
       </c>
       <c r="AT87" t="n">
-        <v>0.5</v>
+        <v>0.44</v>
       </c>
       <c r="AU87" t="n">
         <v>1.81</v>
@@ -18358,7 +18358,7 @@
         <v>0.33</v>
       </c>
       <c r="AS88" t="n">
-        <v>1.25</v>
+        <v>1.44</v>
       </c>
       <c r="AT88" t="n">
         <v>0.88</v>
@@ -18764,7 +18764,7 @@
         <v>3</v>
       </c>
       <c r="AS90" t="n">
-        <v>1.75</v>
+        <v>1.67</v>
       </c>
       <c r="AT90" t="n">
         <v>2</v>
@@ -18970,7 +18970,7 @@
         <v>1.25</v>
       </c>
       <c r="AT91" t="n">
-        <v>1.25</v>
+        <v>1.11</v>
       </c>
       <c r="AU91" t="n">
         <v>1.27</v>
@@ -19173,7 +19173,7 @@
         <v>2</v>
       </c>
       <c r="AT92" t="n">
-        <v>1.29</v>
+        <v>1.13</v>
       </c>
       <c r="AU92" t="n">
         <v>0.97</v>
@@ -19376,7 +19376,7 @@
         <v>1.38</v>
       </c>
       <c r="AT93" t="n">
-        <v>1.13</v>
+        <v>1.33</v>
       </c>
       <c r="AU93" t="n">
         <v>1.84</v>
@@ -19982,7 +19982,7 @@
         <v>1.5</v>
       </c>
       <c r="AS96" t="n">
-        <v>1.25</v>
+        <v>1.11</v>
       </c>
       <c r="AT96" t="n">
         <v>1</v>
@@ -20388,7 +20388,7 @@
         <v>1.5</v>
       </c>
       <c r="AS98" t="n">
-        <v>1.38</v>
+        <v>1.33</v>
       </c>
       <c r="AT98" t="n">
         <v>1</v>
@@ -20794,10 +20794,10 @@
         <v>1</v>
       </c>
       <c r="AS100" t="n">
-        <v>0.83</v>
+        <v>0.71</v>
       </c>
       <c r="AT100" t="n">
-        <v>1</v>
+        <v>0.88</v>
       </c>
       <c r="AU100" t="n">
         <v>1.57</v>
@@ -21000,7 +21000,7 @@
         <v>1</v>
       </c>
       <c r="AT101" t="n">
-        <v>1.25</v>
+        <v>1.11</v>
       </c>
       <c r="AU101" t="n">
         <v>1.12</v>
@@ -21200,10 +21200,10 @@
         <v>0.67</v>
       </c>
       <c r="AS102" t="n">
-        <v>0.86</v>
+        <v>1.13</v>
       </c>
       <c r="AT102" t="n">
-        <v>1</v>
+        <v>0.88</v>
       </c>
       <c r="AU102" t="n">
         <v>1.71</v>
@@ -21403,7 +21403,7 @@
         <v>2.33</v>
       </c>
       <c r="AS103" t="n">
-        <v>1.25</v>
+        <v>1.44</v>
       </c>
       <c r="AT103" t="n">
         <v>2</v>
@@ -21812,7 +21812,7 @@
         <v>1.71</v>
       </c>
       <c r="AT105" t="n">
-        <v>1.63</v>
+        <v>1.44</v>
       </c>
       <c r="AU105" t="n">
         <v>1.52</v>
@@ -22012,10 +22012,10 @@
         <v>1.33</v>
       </c>
       <c r="AS106" t="n">
-        <v>1.57</v>
+        <v>1.75</v>
       </c>
       <c r="AT106" t="n">
-        <v>1.86</v>
+        <v>1.75</v>
       </c>
       <c r="AU106" t="n">
         <v>1.56</v>
@@ -22215,7 +22215,7 @@
         <v>1.33</v>
       </c>
       <c r="AS107" t="n">
-        <v>1.38</v>
+        <v>1.56</v>
       </c>
       <c r="AT107" t="n">
         <v>1</v>
@@ -22418,7 +22418,7 @@
         <v>0</v>
       </c>
       <c r="AS108" t="n">
-        <v>1.63</v>
+        <v>1.78</v>
       </c>
       <c r="AT108" t="n">
         <v>0.71</v>
@@ -22624,7 +22624,7 @@
         <v>1.43</v>
       </c>
       <c r="AT109" t="n">
-        <v>2.38</v>
+        <v>2.11</v>
       </c>
       <c r="AU109" t="n">
         <v>1.99</v>
@@ -22824,10 +22824,10 @@
         <v>1.33</v>
       </c>
       <c r="AS110" t="n">
-        <v>2</v>
+        <v>2.13</v>
       </c>
       <c r="AT110" t="n">
-        <v>1.29</v>
+        <v>1.5</v>
       </c>
       <c r="AU110" t="n">
         <v>1.2</v>
@@ -23233,7 +23233,7 @@
         <v>1.5</v>
       </c>
       <c r="AT112" t="n">
-        <v>0.86</v>
+        <v>0.88</v>
       </c>
       <c r="AU112" t="n">
         <v>1.67</v>
@@ -23433,10 +23433,10 @@
         <v>0.67</v>
       </c>
       <c r="AS113" t="n">
-        <v>1.38</v>
+        <v>1.33</v>
       </c>
       <c r="AT113" t="n">
-        <v>1.14</v>
+        <v>1.13</v>
       </c>
       <c r="AU113" t="n">
         <v>1.35</v>
@@ -23636,7 +23636,7 @@
         <v>1.33</v>
       </c>
       <c r="AS114" t="n">
-        <v>1.75</v>
+        <v>1.67</v>
       </c>
       <c r="AT114" t="n">
         <v>0.71</v>
@@ -24651,7 +24651,7 @@
         <v>1</v>
       </c>
       <c r="AS119" t="n">
-        <v>1.38</v>
+        <v>1.33</v>
       </c>
       <c r="AT119" t="n">
         <v>1</v>
@@ -25263,7 +25263,7 @@
         <v>1.57</v>
       </c>
       <c r="AT122" t="n">
-        <v>1.29</v>
+        <v>1.13</v>
       </c>
       <c r="AU122" t="n">
         <v>1.77</v>
@@ -25463,7 +25463,7 @@
         <v>2.33</v>
       </c>
       <c r="AS123" t="n">
-        <v>1.25</v>
+        <v>1.44</v>
       </c>
       <c r="AT123" t="n">
         <v>2</v>
@@ -25869,7 +25869,7 @@
         <v>1.33</v>
       </c>
       <c r="AS125" t="n">
-        <v>1.25</v>
+        <v>1.11</v>
       </c>
       <c r="AT125" t="n">
         <v>1</v>
@@ -26075,7 +26075,7 @@
         <v>2</v>
       </c>
       <c r="AT126" t="n">
-        <v>1.13</v>
+        <v>1.33</v>
       </c>
       <c r="AU126" t="n">
         <v>0.93</v>
@@ -26278,7 +26278,7 @@
         <v>1.25</v>
       </c>
       <c r="AT127" t="n">
-        <v>0.5</v>
+        <v>0.44</v>
       </c>
       <c r="AU127" t="n">
         <v>1.29</v>
@@ -26478,7 +26478,7 @@
         <v>1.75</v>
       </c>
       <c r="AS128" t="n">
-        <v>1.25</v>
+        <v>1.44</v>
       </c>
       <c r="AT128" t="n">
         <v>1</v>
@@ -26684,7 +26684,7 @@
         <v>2.29</v>
       </c>
       <c r="AT129" t="n">
-        <v>0.5</v>
+        <v>0.44</v>
       </c>
       <c r="AU129" t="n">
         <v>1.27</v>
@@ -26884,7 +26884,7 @@
         <v>0.75</v>
       </c>
       <c r="AS130" t="n">
-        <v>1.38</v>
+        <v>1.33</v>
       </c>
       <c r="AT130" t="n">
         <v>0.71</v>
@@ -27087,7 +27087,7 @@
         <v>1</v>
       </c>
       <c r="AS131" t="n">
-        <v>1.63</v>
+        <v>1.78</v>
       </c>
       <c r="AT131" t="n">
         <v>0.86</v>
@@ -27493,10 +27493,10 @@
         <v>1.5</v>
       </c>
       <c r="AS133" t="n">
-        <v>1.57</v>
+        <v>1.75</v>
       </c>
       <c r="AT133" t="n">
-        <v>1</v>
+        <v>0.88</v>
       </c>
       <c r="AU133" t="n">
         <v>1.55</v>
@@ -27696,10 +27696,10 @@
         <v>1.4</v>
       </c>
       <c r="AS134" t="n">
-        <v>0.83</v>
+        <v>0.71</v>
       </c>
       <c r="AT134" t="n">
-        <v>1.63</v>
+        <v>1.44</v>
       </c>
       <c r="AU134" t="n">
         <v>1.47</v>
@@ -27902,7 +27902,7 @@
         <v>0.88</v>
       </c>
       <c r="AT135" t="n">
-        <v>1.29</v>
+        <v>1.5</v>
       </c>
       <c r="AU135" t="n">
         <v>1.38</v>
@@ -28102,10 +28102,10 @@
         <v>0.5</v>
       </c>
       <c r="AS136" t="n">
-        <v>1.75</v>
+        <v>1.67</v>
       </c>
       <c r="AT136" t="n">
-        <v>1.14</v>
+        <v>1.13</v>
       </c>
       <c r="AU136" t="n">
         <v>1.38</v>
@@ -28305,10 +28305,10 @@
         <v>1</v>
       </c>
       <c r="AS137" t="n">
-        <v>0.86</v>
+        <v>1.13</v>
       </c>
       <c r="AT137" t="n">
-        <v>1.86</v>
+        <v>1.75</v>
       </c>
       <c r="AU137" t="n">
         <v>1.61</v>
@@ -28511,7 +28511,7 @@
         <v>1.71</v>
       </c>
       <c r="AT138" t="n">
-        <v>1.25</v>
+        <v>1.11</v>
       </c>
       <c r="AU138" t="n">
         <v>1.49</v>
@@ -28711,10 +28711,10 @@
         <v>1</v>
       </c>
       <c r="AS139" t="n">
-        <v>2</v>
+        <v>2.13</v>
       </c>
       <c r="AT139" t="n">
-        <v>0.86</v>
+        <v>0.88</v>
       </c>
       <c r="AU139" t="n">
         <v>1.19</v>
@@ -28917,7 +28917,7 @@
         <v>1.5</v>
       </c>
       <c r="AT140" t="n">
-        <v>2.38</v>
+        <v>2.11</v>
       </c>
       <c r="AU140" t="n">
         <v>1.52</v>
@@ -29117,10 +29117,10 @@
         <v>0.75</v>
       </c>
       <c r="AS141" t="n">
-        <v>1.38</v>
+        <v>1.56</v>
       </c>
       <c r="AT141" t="n">
-        <v>1</v>
+        <v>0.88</v>
       </c>
       <c r="AU141" t="n">
         <v>1.67</v>
@@ -29320,7 +29320,7 @@
         <v>1.75</v>
       </c>
       <c r="AS142" t="n">
-        <v>1.38</v>
+        <v>1.33</v>
       </c>
       <c r="AT142" t="n">
         <v>1</v>
@@ -29726,7 +29726,7 @@
         <v>1.25</v>
       </c>
       <c r="AS144" t="n">
-        <v>1.25</v>
+        <v>1.44</v>
       </c>
       <c r="AT144" t="n">
         <v>0.71</v>
@@ -29929,7 +29929,7 @@
         <v>1.75</v>
       </c>
       <c r="AS145" t="n">
-        <v>1.25</v>
+        <v>1.11</v>
       </c>
       <c r="AT145" t="n">
         <v>2</v>
@@ -30135,7 +30135,7 @@
         <v>1.25</v>
       </c>
       <c r="AT146" t="n">
-        <v>1.29</v>
+        <v>1.13</v>
       </c>
       <c r="AU146" t="n">
         <v>1.4</v>
@@ -31962,7 +31962,7 @@
         <v>1.57</v>
       </c>
       <c r="AT155" t="n">
-        <v>1.13</v>
+        <v>1.33</v>
       </c>
       <c r="AU155" t="n">
         <v>1.79</v>
@@ -32162,7 +32162,7 @@
         <v>1.4</v>
       </c>
       <c r="AS156" t="n">
-        <v>1.75</v>
+        <v>1.67</v>
       </c>
       <c r="AT156" t="n">
         <v>1</v>
@@ -32365,10 +32365,10 @@
         <v>1.4</v>
       </c>
       <c r="AS157" t="n">
-        <v>1.38</v>
+        <v>1.56</v>
       </c>
       <c r="AT157" t="n">
-        <v>1.86</v>
+        <v>1.75</v>
       </c>
       <c r="AU157" t="n">
         <v>1.74</v>
@@ -32771,10 +32771,10 @@
         <v>1.67</v>
       </c>
       <c r="AS159" t="n">
-        <v>1.57</v>
+        <v>1.75</v>
       </c>
       <c r="AT159" t="n">
-        <v>1.63</v>
+        <v>1.44</v>
       </c>
       <c r="AU159" t="n">
         <v>1.6</v>
@@ -32974,10 +32974,10 @@
         <v>1.33</v>
       </c>
       <c r="AS160" t="n">
-        <v>0.83</v>
+        <v>0.71</v>
       </c>
       <c r="AT160" t="n">
-        <v>1.25</v>
+        <v>1.11</v>
       </c>
       <c r="AU160" t="n">
         <v>1.48</v>
@@ -33177,7 +33177,7 @@
         <v>0.8</v>
       </c>
       <c r="AS161" t="n">
-        <v>1.38</v>
+        <v>1.33</v>
       </c>
       <c r="AT161" t="n">
         <v>0.86</v>
@@ -33380,10 +33380,10 @@
         <v>1.2</v>
       </c>
       <c r="AS162" t="n">
-        <v>0.86</v>
+        <v>1.13</v>
       </c>
       <c r="AT162" t="n">
-        <v>1</v>
+        <v>0.88</v>
       </c>
       <c r="AU162" t="n">
         <v>1.41</v>
@@ -33583,10 +33583,10 @@
         <v>2.5</v>
       </c>
       <c r="AS163" t="n">
-        <v>2</v>
+        <v>2.13</v>
       </c>
       <c r="AT163" t="n">
-        <v>2.38</v>
+        <v>2.11</v>
       </c>
       <c r="AU163" t="n">
         <v>1.07</v>
@@ -33786,10 +33786,10 @@
         <v>1.4</v>
       </c>
       <c r="AS164" t="n">
-        <v>1.63</v>
+        <v>1.78</v>
       </c>
       <c r="AT164" t="n">
-        <v>1.29</v>
+        <v>1.5</v>
       </c>
       <c r="AU164" t="n">
         <v>1.53</v>
@@ -33989,10 +33989,10 @@
         <v>1.2</v>
       </c>
       <c r="AS165" t="n">
-        <v>1.25</v>
+        <v>1.44</v>
       </c>
       <c r="AT165" t="n">
-        <v>1</v>
+        <v>0.88</v>
       </c>
       <c r="AU165" t="n">
         <v>1.64</v>
@@ -34192,10 +34192,10 @@
         <v>1</v>
       </c>
       <c r="AS166" t="n">
-        <v>1.25</v>
+        <v>1.11</v>
       </c>
       <c r="AT166" t="n">
-        <v>1.14</v>
+        <v>1.13</v>
       </c>
       <c r="AU166" t="n">
         <v>1.67</v>
@@ -34398,7 +34398,7 @@
         <v>1.43</v>
       </c>
       <c r="AT167" t="n">
-        <v>0.5</v>
+        <v>0.44</v>
       </c>
       <c r="AU167" t="n">
         <v>1.79</v>
@@ -34601,7 +34601,7 @@
         <v>0.88</v>
       </c>
       <c r="AT168" t="n">
-        <v>0.86</v>
+        <v>0.88</v>
       </c>
       <c r="AU168" t="n">
         <v>1.48</v>
@@ -34804,7 +34804,7 @@
         <v>1.71</v>
       </c>
       <c r="AT169" t="n">
-        <v>1.29</v>
+        <v>1.13</v>
       </c>
       <c r="AU169" t="n">
         <v>1.4</v>
@@ -35210,7 +35210,7 @@
         <v>2.29</v>
       </c>
       <c r="AT171" t="n">
-        <v>1.13</v>
+        <v>1.33</v>
       </c>
       <c r="AU171" t="n">
         <v>1.2</v>
@@ -36425,7 +36425,7 @@
         <v>0.8</v>
       </c>
       <c r="AS177" t="n">
-        <v>1.25</v>
+        <v>1.44</v>
       </c>
       <c r="AT177" t="n">
         <v>0.71</v>
@@ -37034,7 +37034,7 @@
         <v>2</v>
       </c>
       <c r="AS180" t="n">
-        <v>1.38</v>
+        <v>1.33</v>
       </c>
       <c r="AT180" t="n">
         <v>2</v>
@@ -37846,10 +37846,10 @@
         <v>1.67</v>
       </c>
       <c r="AS184" t="n">
-        <v>1.25</v>
+        <v>1.44</v>
       </c>
       <c r="AT184" t="n">
-        <v>1.86</v>
+        <v>1.75</v>
       </c>
       <c r="AU184" t="n">
         <v>1.54</v>
@@ -38252,7 +38252,7 @@
         <v>0.71</v>
       </c>
       <c r="AS186" t="n">
-        <v>2</v>
+        <v>2.13</v>
       </c>
       <c r="AT186" t="n">
         <v>1</v>
@@ -38458,7 +38458,7 @@
         <v>1.5</v>
       </c>
       <c r="AT187" t="n">
-        <v>0.5</v>
+        <v>0.44</v>
       </c>
       <c r="AU187" t="n">
         <v>1.32</v>
@@ -38661,7 +38661,7 @@
         <v>0.88</v>
       </c>
       <c r="AT188" t="n">
-        <v>2.38</v>
+        <v>2.11</v>
       </c>
       <c r="AU188" t="n">
         <v>1.5</v>
@@ -38861,10 +38861,10 @@
         <v>1.33</v>
       </c>
       <c r="AS189" t="n">
-        <v>1.38</v>
+        <v>1.33</v>
       </c>
       <c r="AT189" t="n">
-        <v>1.29</v>
+        <v>1.5</v>
       </c>
       <c r="AU189" t="n">
         <v>1.28</v>
@@ -39064,10 +39064,10 @@
         <v>1.29</v>
       </c>
       <c r="AS190" t="n">
-        <v>1.57</v>
+        <v>1.75</v>
       </c>
       <c r="AT190" t="n">
-        <v>1.25</v>
+        <v>1.11</v>
       </c>
       <c r="AU190" t="n">
         <v>1.6</v>
@@ -39267,7 +39267,7 @@
         <v>0.83</v>
       </c>
       <c r="AS191" t="n">
-        <v>1.25</v>
+        <v>1.11</v>
       </c>
       <c r="AT191" t="n">
         <v>0.86</v>
@@ -39470,10 +39470,10 @@
         <v>0.83</v>
       </c>
       <c r="AS192" t="n">
-        <v>1.25</v>
+        <v>1.44</v>
       </c>
       <c r="AT192" t="n">
-        <v>1.14</v>
+        <v>1.13</v>
       </c>
       <c r="AU192" t="n">
         <v>1.43</v>
@@ -39673,10 +39673,10 @@
         <v>1.17</v>
       </c>
       <c r="AS193" t="n">
-        <v>1.38</v>
+        <v>1.56</v>
       </c>
       <c r="AT193" t="n">
-        <v>1</v>
+        <v>0.88</v>
       </c>
       <c r="AU193" t="n">
         <v>1.62</v>
@@ -39876,10 +39876,10 @@
         <v>1.17</v>
       </c>
       <c r="AS194" t="n">
-        <v>1.75</v>
+        <v>1.67</v>
       </c>
       <c r="AT194" t="n">
-        <v>1</v>
+        <v>0.88</v>
       </c>
       <c r="AU194" t="n">
         <v>1.4</v>
@@ -40079,10 +40079,10 @@
         <v>1.86</v>
       </c>
       <c r="AS195" t="n">
-        <v>0.86</v>
+        <v>1.13</v>
       </c>
       <c r="AT195" t="n">
-        <v>1.63</v>
+        <v>1.44</v>
       </c>
       <c r="AU195" t="n">
         <v>1.38</v>
@@ -40282,10 +40282,10 @@
         <v>1</v>
       </c>
       <c r="AS196" t="n">
-        <v>1.63</v>
+        <v>1.78</v>
       </c>
       <c r="AT196" t="n">
-        <v>0.86</v>
+        <v>0.88</v>
       </c>
       <c r="AU196" t="n">
         <v>1.52</v>
@@ -40485,7 +40485,7 @@
         <v>1.17</v>
       </c>
       <c r="AS197" t="n">
-        <v>1.38</v>
+        <v>1.33</v>
       </c>
       <c r="AT197" t="n">
         <v>1</v>
@@ -43127,7 +43127,7 @@
         <v>1.25</v>
       </c>
       <c r="AT210" t="n">
-        <v>1.13</v>
+        <v>1.33</v>
       </c>
       <c r="AU210" t="n">
         <v>1.3</v>
@@ -43585,6 +43585,2442 @@
       </c>
       <c r="BK212" t="n">
         <v>17</v>
+      </c>
+    </row>
+    <row r="213">
+      <c r="A213" s="1" t="n">
+        <v>212</v>
+      </c>
+      <c r="B213" t="n">
+        <v>4554625</v>
+      </c>
+      <c r="C213" t="inlineStr">
+        <is>
+          <t>Argentina Primera División</t>
+        </is>
+      </c>
+      <c r="D213" t="inlineStr">
+        <is>
+          <t>2023</t>
+        </is>
+      </c>
+      <c r="E213" s="2" t="n">
+        <v>45059.64583333334</v>
+      </c>
+      <c r="F213" t="n">
+        <v>16</v>
+      </c>
+      <c r="G213" t="inlineStr">
+        <is>
+          <t>Independiente</t>
+        </is>
+      </c>
+      <c r="H213" t="inlineStr">
+        <is>
+          <t>Tigre</t>
+        </is>
+      </c>
+      <c r="I213" t="n">
+        <v>1</v>
+      </c>
+      <c r="J213" t="n">
+        <v>1</v>
+      </c>
+      <c r="K213" t="n">
+        <v>2</v>
+      </c>
+      <c r="L213" t="n">
+        <v>2</v>
+      </c>
+      <c r="M213" t="n">
+        <v>1</v>
+      </c>
+      <c r="N213" t="n">
+        <v>3</v>
+      </c>
+      <c r="O213" t="inlineStr">
+        <is>
+          <t>['5', '90+5']</t>
+        </is>
+      </c>
+      <c r="P213" t="inlineStr">
+        <is>
+          <t>['31']</t>
+        </is>
+      </c>
+      <c r="Q213" t="n">
+        <v>12</v>
+      </c>
+      <c r="R213" t="n">
+        <v>3</v>
+      </c>
+      <c r="S213" t="n">
+        <v>15</v>
+      </c>
+      <c r="T213" t="n">
+        <v>3.4</v>
+      </c>
+      <c r="U213" t="n">
+        <v>2</v>
+      </c>
+      <c r="V213" t="n">
+        <v>3.5</v>
+      </c>
+      <c r="W213" t="n">
+        <v>1.55</v>
+      </c>
+      <c r="X213" t="n">
+        <v>2.38</v>
+      </c>
+      <c r="Y213" t="n">
+        <v>3.34</v>
+      </c>
+      <c r="Z213" t="n">
+        <v>1.3</v>
+      </c>
+      <c r="AA213" t="n">
+        <v>9</v>
+      </c>
+      <c r="AB213" t="n">
+        <v>1.05</v>
+      </c>
+      <c r="AC213" t="n">
+        <v>2.7</v>
+      </c>
+      <c r="AD213" t="n">
+        <v>3.1</v>
+      </c>
+      <c r="AE213" t="n">
+        <v>2.75</v>
+      </c>
+      <c r="AF213" t="n">
+        <v>1.08</v>
+      </c>
+      <c r="AG213" t="n">
+        <v>8.5</v>
+      </c>
+      <c r="AH213" t="n">
+        <v>1.4</v>
+      </c>
+      <c r="AI213" t="n">
+        <v>2.95</v>
+      </c>
+      <c r="AJ213" t="n">
+        <v>2.2</v>
+      </c>
+      <c r="AK213" t="n">
+        <v>1.66</v>
+      </c>
+      <c r="AL213" t="n">
+        <v>1.94</v>
+      </c>
+      <c r="AM213" t="n">
+        <v>1.82</v>
+      </c>
+      <c r="AN213" t="n">
+        <v>1.45</v>
+      </c>
+      <c r="AO213" t="n">
+        <v>1.3</v>
+      </c>
+      <c r="AP213" t="n">
+        <v>1.47</v>
+      </c>
+      <c r="AQ213" t="n">
+        <v>0.86</v>
+      </c>
+      <c r="AR213" t="n">
+        <v>1.25</v>
+      </c>
+      <c r="AS213" t="n">
+        <v>1.13</v>
+      </c>
+      <c r="AT213" t="n">
+        <v>1.11</v>
+      </c>
+      <c r="AU213" t="n">
+        <v>1.42</v>
+      </c>
+      <c r="AV213" t="n">
+        <v>1.65</v>
+      </c>
+      <c r="AW213" t="n">
+        <v>3.07</v>
+      </c>
+      <c r="AX213" t="n">
+        <v>2.08</v>
+      </c>
+      <c r="AY213" t="n">
+        <v>7</v>
+      </c>
+      <c r="AZ213" t="n">
+        <v>2.08</v>
+      </c>
+      <c r="BA213" t="n">
+        <v>1.33</v>
+      </c>
+      <c r="BB213" t="n">
+        <v>1.6</v>
+      </c>
+      <c r="BC213" t="n">
+        <v>2.04</v>
+      </c>
+      <c r="BD213" t="n">
+        <v>2.75</v>
+      </c>
+      <c r="BE213" t="n">
+        <v>3.85</v>
+      </c>
+      <c r="BF213" t="n">
+        <v>5</v>
+      </c>
+      <c r="BG213" t="n">
+        <v>5</v>
+      </c>
+      <c r="BH213" t="n">
+        <v>10</v>
+      </c>
+      <c r="BI213" t="n">
+        <v>5</v>
+      </c>
+      <c r="BJ213" t="n">
+        <v>15</v>
+      </c>
+      <c r="BK213" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="214">
+      <c r="A214" s="1" t="n">
+        <v>213</v>
+      </c>
+      <c r="B214" t="n">
+        <v>4554618</v>
+      </c>
+      <c r="C214" t="inlineStr">
+        <is>
+          <t>Argentina Primera División</t>
+        </is>
+      </c>
+      <c r="D214" t="inlineStr">
+        <is>
+          <t>2023</t>
+        </is>
+      </c>
+      <c r="E214" s="2" t="n">
+        <v>45059.75</v>
+      </c>
+      <c r="F214" t="n">
+        <v>16</v>
+      </c>
+      <c r="G214" t="inlineStr">
+        <is>
+          <t>Banfield</t>
+        </is>
+      </c>
+      <c r="H214" t="inlineStr">
+        <is>
+          <t>San Lorenzo</t>
+        </is>
+      </c>
+      <c r="I214" t="n">
+        <v>1</v>
+      </c>
+      <c r="J214" t="n">
+        <v>1</v>
+      </c>
+      <c r="K214" t="n">
+        <v>2</v>
+      </c>
+      <c r="L214" t="n">
+        <v>1</v>
+      </c>
+      <c r="M214" t="n">
+        <v>2</v>
+      </c>
+      <c r="N214" t="n">
+        <v>3</v>
+      </c>
+      <c r="O214" t="inlineStr">
+        <is>
+          <t>['28']</t>
+        </is>
+      </c>
+      <c r="P214" t="inlineStr">
+        <is>
+          <t>['12', '90+4']</t>
+        </is>
+      </c>
+      <c r="Q214" t="n">
+        <v>9</v>
+      </c>
+      <c r="R214" t="n">
+        <v>1</v>
+      </c>
+      <c r="S214" t="n">
+        <v>10</v>
+      </c>
+      <c r="T214" t="n">
+        <v>3.75</v>
+      </c>
+      <c r="U214" t="n">
+        <v>1.9</v>
+      </c>
+      <c r="V214" t="n">
+        <v>3.5</v>
+      </c>
+      <c r="W214" t="n">
+        <v>1.62</v>
+      </c>
+      <c r="X214" t="n">
+        <v>2.23</v>
+      </c>
+      <c r="Y214" t="n">
+        <v>3.72</v>
+      </c>
+      <c r="Z214" t="n">
+        <v>1.25</v>
+      </c>
+      <c r="AA214" t="n">
+        <v>10.5</v>
+      </c>
+      <c r="AB214" t="n">
+        <v>1.03</v>
+      </c>
+      <c r="AC214" t="n">
+        <v>2.93</v>
+      </c>
+      <c r="AD214" t="n">
+        <v>2.86</v>
+      </c>
+      <c r="AE214" t="n">
+        <v>2.73</v>
+      </c>
+      <c r="AF214" t="n">
+        <v>1.12</v>
+      </c>
+      <c r="AG214" t="n">
+        <v>7</v>
+      </c>
+      <c r="AH214" t="n">
+        <v>1.53</v>
+      </c>
+      <c r="AI214" t="n">
+        <v>2.3</v>
+      </c>
+      <c r="AJ214" t="n">
+        <v>2.76</v>
+      </c>
+      <c r="AK214" t="n">
+        <v>1.37</v>
+      </c>
+      <c r="AL214" t="n">
+        <v>2.14</v>
+      </c>
+      <c r="AM214" t="n">
+        <v>1.67</v>
+      </c>
+      <c r="AN214" t="n">
+        <v>1.47</v>
+      </c>
+      <c r="AO214" t="n">
+        <v>1.35</v>
+      </c>
+      <c r="AP214" t="n">
+        <v>1.42</v>
+      </c>
+      <c r="AQ214" t="n">
+        <v>1.25</v>
+      </c>
+      <c r="AR214" t="n">
+        <v>1.29</v>
+      </c>
+      <c r="AS214" t="n">
+        <v>1.11</v>
+      </c>
+      <c r="AT214" t="n">
+        <v>1.5</v>
+      </c>
+      <c r="AU214" t="n">
+        <v>1.49</v>
+      </c>
+      <c r="AV214" t="n">
+        <v>1.27</v>
+      </c>
+      <c r="AW214" t="n">
+        <v>2.76</v>
+      </c>
+      <c r="AX214" t="n">
+        <v>1.9</v>
+      </c>
+      <c r="AY214" t="n">
+        <v>7</v>
+      </c>
+      <c r="AZ214" t="n">
+        <v>2.3</v>
+      </c>
+      <c r="BA214" t="n">
+        <v>1.29</v>
+      </c>
+      <c r="BB214" t="n">
+        <v>1.53</v>
+      </c>
+      <c r="BC214" t="n">
+        <v>1.92</v>
+      </c>
+      <c r="BD214" t="n">
+        <v>2.55</v>
+      </c>
+      <c r="BE214" t="n">
+        <v>3.5</v>
+      </c>
+      <c r="BF214" t="n">
+        <v>3</v>
+      </c>
+      <c r="BG214" t="n">
+        <v>5</v>
+      </c>
+      <c r="BH214" t="n">
+        <v>10</v>
+      </c>
+      <c r="BI214" t="n">
+        <v>4</v>
+      </c>
+      <c r="BJ214" t="n">
+        <v>13</v>
+      </c>
+      <c r="BK214" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="215">
+      <c r="A215" s="1" t="n">
+        <v>214</v>
+      </c>
+      <c r="B215" t="n">
+        <v>4554626</v>
+      </c>
+      <c r="C215" t="inlineStr">
+        <is>
+          <t>Argentina Primera División</t>
+        </is>
+      </c>
+      <c r="D215" t="inlineStr">
+        <is>
+          <t>2023</t>
+        </is>
+      </c>
+      <c r="E215" s="2" t="n">
+        <v>45059.85416666666</v>
+      </c>
+      <c r="F215" t="n">
+        <v>16</v>
+      </c>
+      <c r="G215" t="inlineStr">
+        <is>
+          <t>Newell's Old Boys</t>
+        </is>
+      </c>
+      <c r="H215" t="inlineStr">
+        <is>
+          <t>Arsenal de Sarandí</t>
+        </is>
+      </c>
+      <c r="I215" t="n">
+        <v>1</v>
+      </c>
+      <c r="J215" t="n">
+        <v>0</v>
+      </c>
+      <c r="K215" t="n">
+        <v>1</v>
+      </c>
+      <c r="L215" t="n">
+        <v>2</v>
+      </c>
+      <c r="M215" t="n">
+        <v>0</v>
+      </c>
+      <c r="N215" t="n">
+        <v>2</v>
+      </c>
+      <c r="O215" t="inlineStr">
+        <is>
+          <t>['33', '89']</t>
+        </is>
+      </c>
+      <c r="P215" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="Q215" t="n">
+        <v>4</v>
+      </c>
+      <c r="R215" t="n">
+        <v>3</v>
+      </c>
+      <c r="S215" t="n">
+        <v>7</v>
+      </c>
+      <c r="T215" t="n">
+        <v>2.2</v>
+      </c>
+      <c r="U215" t="n">
+        <v>2.09</v>
+      </c>
+      <c r="V215" t="n">
+        <v>6.55</v>
+      </c>
+      <c r="W215" t="n">
+        <v>1.48</v>
+      </c>
+      <c r="X215" t="n">
+        <v>2.55</v>
+      </c>
+      <c r="Y215" t="n">
+        <v>3.22</v>
+      </c>
+      <c r="Z215" t="n">
+        <v>1.32</v>
+      </c>
+      <c r="AA215" t="n">
+        <v>8.699999999999999</v>
+      </c>
+      <c r="AB215" t="n">
+        <v>1.05</v>
+      </c>
+      <c r="AC215" t="n">
+        <v>1.63</v>
+      </c>
+      <c r="AD215" t="n">
+        <v>3.74</v>
+      </c>
+      <c r="AE215" t="n">
+        <v>5.75</v>
+      </c>
+      <c r="AF215" t="n">
+        <v>1.07</v>
+      </c>
+      <c r="AG215" t="n">
+        <v>8.5</v>
+      </c>
+      <c r="AH215" t="n">
+        <v>1.42</v>
+      </c>
+      <c r="AI215" t="n">
+        <v>2.85</v>
+      </c>
+      <c r="AJ215" t="n">
+        <v>2.25</v>
+      </c>
+      <c r="AK215" t="n">
+        <v>1.57</v>
+      </c>
+      <c r="AL215" t="n">
+        <v>2.23</v>
+      </c>
+      <c r="AM215" t="n">
+        <v>1.62</v>
+      </c>
+      <c r="AN215" t="n">
+        <v>1.11</v>
+      </c>
+      <c r="AO215" t="n">
+        <v>1.25</v>
+      </c>
+      <c r="AP215" t="n">
+        <v>2.25</v>
+      </c>
+      <c r="AQ215" t="n">
+        <v>2</v>
+      </c>
+      <c r="AR215" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="AS215" t="n">
+        <v>2.13</v>
+      </c>
+      <c r="AT215" t="n">
+        <v>0.44</v>
+      </c>
+      <c r="AU215" t="n">
+        <v>1.1</v>
+      </c>
+      <c r="AV215" t="n">
+        <v>1.13</v>
+      </c>
+      <c r="AW215" t="n">
+        <v>2.23</v>
+      </c>
+      <c r="AX215" t="n">
+        <v>1.45</v>
+      </c>
+      <c r="AY215" t="n">
+        <v>8.5</v>
+      </c>
+      <c r="AZ215" t="n">
+        <v>3.32</v>
+      </c>
+      <c r="BA215" t="n">
+        <v>1.29</v>
+      </c>
+      <c r="BB215" t="n">
+        <v>1.62</v>
+      </c>
+      <c r="BC215" t="n">
+        <v>1.99</v>
+      </c>
+      <c r="BD215" t="n">
+        <v>2.48</v>
+      </c>
+      <c r="BE215" t="n">
+        <v>3.48</v>
+      </c>
+      <c r="BF215" t="n">
+        <v>8</v>
+      </c>
+      <c r="BG215" t="n">
+        <v>4</v>
+      </c>
+      <c r="BH215" t="n">
+        <v>9</v>
+      </c>
+      <c r="BI215" t="n">
+        <v>1</v>
+      </c>
+      <c r="BJ215" t="n">
+        <v>17</v>
+      </c>
+      <c r="BK215" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="216">
+      <c r="A216" s="1" t="n">
+        <v>215</v>
+      </c>
+      <c r="B216" t="n">
+        <v>5019513</v>
+      </c>
+      <c r="C216" t="inlineStr">
+        <is>
+          <t>Argentina Primera División</t>
+        </is>
+      </c>
+      <c r="D216" t="inlineStr">
+        <is>
+          <t>2023</t>
+        </is>
+      </c>
+      <c r="E216" s="2" t="n">
+        <v>45059.85416666666</v>
+      </c>
+      <c r="F216" t="n">
+        <v>16</v>
+      </c>
+      <c r="G216" t="inlineStr">
+        <is>
+          <t>Instituto</t>
+        </is>
+      </c>
+      <c r="H216" t="inlineStr">
+        <is>
+          <t>Colón</t>
+        </is>
+      </c>
+      <c r="I216" t="n">
+        <v>0</v>
+      </c>
+      <c r="J216" t="n">
+        <v>0</v>
+      </c>
+      <c r="K216" t="n">
+        <v>0</v>
+      </c>
+      <c r="L216" t="n">
+        <v>1</v>
+      </c>
+      <c r="M216" t="n">
+        <v>0</v>
+      </c>
+      <c r="N216" t="n">
+        <v>1</v>
+      </c>
+      <c r="O216" t="inlineStr">
+        <is>
+          <t>['90+2']</t>
+        </is>
+      </c>
+      <c r="P216" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="Q216" t="n">
+        <v>9</v>
+      </c>
+      <c r="R216" t="n">
+        <v>4</v>
+      </c>
+      <c r="S216" t="n">
+        <v>13</v>
+      </c>
+      <c r="T216" t="n">
+        <v>2.95</v>
+      </c>
+      <c r="U216" t="n">
+        <v>1.9</v>
+      </c>
+      <c r="V216" t="n">
+        <v>4</v>
+      </c>
+      <c r="W216" t="n">
+        <v>1.52</v>
+      </c>
+      <c r="X216" t="n">
+        <v>2.35</v>
+      </c>
+      <c r="Y216" t="n">
+        <v>3.4</v>
+      </c>
+      <c r="Z216" t="n">
+        <v>1.27</v>
+      </c>
+      <c r="AA216" t="n">
+        <v>11</v>
+      </c>
+      <c r="AB216" t="n">
+        <v>1.03</v>
+      </c>
+      <c r="AC216" t="n">
+        <v>2.16</v>
+      </c>
+      <c r="AD216" t="n">
+        <v>3.18</v>
+      </c>
+      <c r="AE216" t="n">
+        <v>3.5</v>
+      </c>
+      <c r="AF216" t="n">
+        <v>1.08</v>
+      </c>
+      <c r="AG216" t="n">
+        <v>8</v>
+      </c>
+      <c r="AH216" t="n">
+        <v>1.45</v>
+      </c>
+      <c r="AI216" t="n">
+        <v>2.6</v>
+      </c>
+      <c r="AJ216" t="n">
+        <v>2.35</v>
+      </c>
+      <c r="AK216" t="n">
+        <v>1.52</v>
+      </c>
+      <c r="AL216" t="n">
+        <v>2.05</v>
+      </c>
+      <c r="AM216" t="n">
+        <v>1.7</v>
+      </c>
+      <c r="AN216" t="n">
+        <v>1.32</v>
+      </c>
+      <c r="AO216" t="n">
+        <v>1.3</v>
+      </c>
+      <c r="AP216" t="n">
+        <v>1.62</v>
+      </c>
+      <c r="AQ216" t="n">
+        <v>1.25</v>
+      </c>
+      <c r="AR216" t="n">
+        <v>1</v>
+      </c>
+      <c r="AS216" t="n">
+        <v>1.44</v>
+      </c>
+      <c r="AT216" t="n">
+        <v>0.88</v>
+      </c>
+      <c r="AU216" t="n">
+        <v>1.49</v>
+      </c>
+      <c r="AV216" t="n">
+        <v>1.12</v>
+      </c>
+      <c r="AW216" t="n">
+        <v>2.61</v>
+      </c>
+      <c r="AX216" t="n">
+        <v>1.55</v>
+      </c>
+      <c r="AY216" t="n">
+        <v>8</v>
+      </c>
+      <c r="AZ216" t="n">
+        <v>3.02</v>
+      </c>
+      <c r="BA216" t="n">
+        <v>1.3</v>
+      </c>
+      <c r="BB216" t="n">
+        <v>1.64</v>
+      </c>
+      <c r="BC216" t="n">
+        <v>2.01</v>
+      </c>
+      <c r="BD216" t="n">
+        <v>2.58</v>
+      </c>
+      <c r="BE216" t="n">
+        <v>3.48</v>
+      </c>
+      <c r="BF216" t="n">
+        <v>5</v>
+      </c>
+      <c r="BG216" t="n">
+        <v>4</v>
+      </c>
+      <c r="BH216" t="n">
+        <v>14</v>
+      </c>
+      <c r="BI216" t="n">
+        <v>4</v>
+      </c>
+      <c r="BJ216" t="n">
+        <v>19</v>
+      </c>
+      <c r="BK216" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="217">
+      <c r="A217" s="1" t="n">
+        <v>216</v>
+      </c>
+      <c r="B217" t="n">
+        <v>4554619</v>
+      </c>
+      <c r="C217" t="inlineStr">
+        <is>
+          <t>Argentina Primera División</t>
+        </is>
+      </c>
+      <c r="D217" t="inlineStr">
+        <is>
+          <t>2023</t>
+        </is>
+      </c>
+      <c r="E217" s="2" t="n">
+        <v>45060.58333333334</v>
+      </c>
+      <c r="F217" t="n">
+        <v>16</v>
+      </c>
+      <c r="G217" t="inlineStr">
+        <is>
+          <t>Defensa y Justicia</t>
+        </is>
+      </c>
+      <c r="H217" t="inlineStr">
+        <is>
+          <t>Estudiantes</t>
+        </is>
+      </c>
+      <c r="I217" t="n">
+        <v>1</v>
+      </c>
+      <c r="J217" t="n">
+        <v>1</v>
+      </c>
+      <c r="K217" t="n">
+        <v>2</v>
+      </c>
+      <c r="L217" t="n">
+        <v>1</v>
+      </c>
+      <c r="M217" t="n">
+        <v>1</v>
+      </c>
+      <c r="N217" t="n">
+        <v>2</v>
+      </c>
+      <c r="O217" t="inlineStr">
+        <is>
+          <t>['37']</t>
+        </is>
+      </c>
+      <c r="P217" t="inlineStr">
+        <is>
+          <t>['45+2']</t>
+        </is>
+      </c>
+      <c r="Q217" t="n">
+        <v>3</v>
+      </c>
+      <c r="R217" t="n">
+        <v>3</v>
+      </c>
+      <c r="S217" t="n">
+        <v>6</v>
+      </c>
+      <c r="T217" t="n">
+        <v>3.1</v>
+      </c>
+      <c r="U217" t="n">
+        <v>1.95</v>
+      </c>
+      <c r="V217" t="n">
+        <v>3.75</v>
+      </c>
+      <c r="W217" t="n">
+        <v>1.5</v>
+      </c>
+      <c r="X217" t="n">
+        <v>2.4</v>
+      </c>
+      <c r="Y217" t="n">
+        <v>3.3</v>
+      </c>
+      <c r="Z217" t="n">
+        <v>1.29</v>
+      </c>
+      <c r="AA217" t="n">
+        <v>8</v>
+      </c>
+      <c r="AB217" t="n">
+        <v>1.05</v>
+      </c>
+      <c r="AC217" t="n">
+        <v>2.45</v>
+      </c>
+      <c r="AD217" t="n">
+        <v>2.9</v>
+      </c>
+      <c r="AE217" t="n">
+        <v>2.75</v>
+      </c>
+      <c r="AF217" t="n">
+        <v>1.08</v>
+      </c>
+      <c r="AG217" t="n">
+        <v>6.5</v>
+      </c>
+      <c r="AH217" t="n">
+        <v>1.42</v>
+      </c>
+      <c r="AI217" t="n">
+        <v>2.62</v>
+      </c>
+      <c r="AJ217" t="n">
+        <v>2.3</v>
+      </c>
+      <c r="AK217" t="n">
+        <v>1.57</v>
+      </c>
+      <c r="AL217" t="n">
+        <v>1.95</v>
+      </c>
+      <c r="AM217" t="n">
+        <v>1.75</v>
+      </c>
+      <c r="AN217" t="n">
+        <v>1.43</v>
+      </c>
+      <c r="AO217" t="n">
+        <v>1.38</v>
+      </c>
+      <c r="AP217" t="n">
+        <v>1.5</v>
+      </c>
+      <c r="AQ217" t="n">
+        <v>1.75</v>
+      </c>
+      <c r="AR217" t="n">
+        <v>1.86</v>
+      </c>
+      <c r="AS217" t="n">
+        <v>1.67</v>
+      </c>
+      <c r="AT217" t="n">
+        <v>1.75</v>
+      </c>
+      <c r="AU217" t="n">
+        <v>1.48</v>
+      </c>
+      <c r="AV217" t="n">
+        <v>1.4</v>
+      </c>
+      <c r="AW217" t="n">
+        <v>2.88</v>
+      </c>
+      <c r="AX217" t="n">
+        <v>2.1</v>
+      </c>
+      <c r="AY217" t="n">
+        <v>8</v>
+      </c>
+      <c r="AZ217" t="n">
+        <v>1.91</v>
+      </c>
+      <c r="BA217" t="n">
+        <v>1.22</v>
+      </c>
+      <c r="BB217" t="n">
+        <v>1.42</v>
+      </c>
+      <c r="BC217" t="n">
+        <v>1.83</v>
+      </c>
+      <c r="BD217" t="n">
+        <v>2.3</v>
+      </c>
+      <c r="BE217" t="n">
+        <v>3.1</v>
+      </c>
+      <c r="BF217" t="n">
+        <v>3</v>
+      </c>
+      <c r="BG217" t="n">
+        <v>9</v>
+      </c>
+      <c r="BH217" t="n">
+        <v>5</v>
+      </c>
+      <c r="BI217" t="n">
+        <v>14</v>
+      </c>
+      <c r="BJ217" t="n">
+        <v>8</v>
+      </c>
+      <c r="BK217" t="n">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="218">
+      <c r="A218" s="1" t="n">
+        <v>217</v>
+      </c>
+      <c r="B218" t="n">
+        <v>4554621</v>
+      </c>
+      <c r="C218" t="inlineStr">
+        <is>
+          <t>Argentina Primera División</t>
+        </is>
+      </c>
+      <c r="D218" t="inlineStr">
+        <is>
+          <t>2023</t>
+        </is>
+      </c>
+      <c r="E218" s="2" t="n">
+        <v>45060.6875</v>
+      </c>
+      <c r="F218" t="n">
+        <v>16</v>
+      </c>
+      <c r="G218" t="inlineStr">
+        <is>
+          <t>Platense</t>
+        </is>
+      </c>
+      <c r="H218" t="inlineStr">
+        <is>
+          <t>Racing Club</t>
+        </is>
+      </c>
+      <c r="I218" t="n">
+        <v>2</v>
+      </c>
+      <c r="J218" t="n">
+        <v>0</v>
+      </c>
+      <c r="K218" t="n">
+        <v>2</v>
+      </c>
+      <c r="L218" t="n">
+        <v>3</v>
+      </c>
+      <c r="M218" t="n">
+        <v>0</v>
+      </c>
+      <c r="N218" t="n">
+        <v>3</v>
+      </c>
+      <c r="O218" t="inlineStr">
+        <is>
+          <t>['5', '24', '90+6']</t>
+        </is>
+      </c>
+      <c r="P218" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="Q218" t="n">
+        <v>7</v>
+      </c>
+      <c r="R218" t="n">
+        <v>3</v>
+      </c>
+      <c r="S218" t="n">
+        <v>10</v>
+      </c>
+      <c r="T218" t="n">
+        <v>3.7</v>
+      </c>
+      <c r="U218" t="n">
+        <v>1.93</v>
+      </c>
+      <c r="V218" t="n">
+        <v>3</v>
+      </c>
+      <c r="W218" t="n">
+        <v>1.5</v>
+      </c>
+      <c r="X218" t="n">
+        <v>2.4</v>
+      </c>
+      <c r="Y218" t="n">
+        <v>3.25</v>
+      </c>
+      <c r="Z218" t="n">
+        <v>1.29</v>
+      </c>
+      <c r="AA218" t="n">
+        <v>9</v>
+      </c>
+      <c r="AB218" t="n">
+        <v>1.05</v>
+      </c>
+      <c r="AC218" t="n">
+        <v>3.2</v>
+      </c>
+      <c r="AD218" t="n">
+        <v>2.9</v>
+      </c>
+      <c r="AE218" t="n">
+        <v>2.2</v>
+      </c>
+      <c r="AF218" t="n">
+        <v>1.08</v>
+      </c>
+      <c r="AG218" t="n">
+        <v>8.5</v>
+      </c>
+      <c r="AH218" t="n">
+        <v>1.44</v>
+      </c>
+      <c r="AI218" t="n">
+        <v>2.75</v>
+      </c>
+      <c r="AJ218" t="n">
+        <v>2.3</v>
+      </c>
+      <c r="AK218" t="n">
+        <v>1.57</v>
+      </c>
+      <c r="AL218" t="n">
+        <v>1.95</v>
+      </c>
+      <c r="AM218" t="n">
+        <v>1.73</v>
+      </c>
+      <c r="AN218" t="n">
+        <v>1.68</v>
+      </c>
+      <c r="AO218" t="n">
+        <v>1.28</v>
+      </c>
+      <c r="AP218" t="n">
+        <v>1.3</v>
+      </c>
+      <c r="AQ218" t="n">
+        <v>1.25</v>
+      </c>
+      <c r="AR218" t="n">
+        <v>1</v>
+      </c>
+      <c r="AS218" t="n">
+        <v>1.44</v>
+      </c>
+      <c r="AT218" t="n">
+        <v>0.88</v>
+      </c>
+      <c r="AU218" t="n">
+        <v>1.48</v>
+      </c>
+      <c r="AV218" t="n">
+        <v>1.29</v>
+      </c>
+      <c r="AW218" t="n">
+        <v>2.77</v>
+      </c>
+      <c r="AX218" t="n">
+        <v>2.1</v>
+      </c>
+      <c r="AY218" t="n">
+        <v>7.5</v>
+      </c>
+      <c r="AZ218" t="n">
+        <v>1.91</v>
+      </c>
+      <c r="BA218" t="n">
+        <v>1.33</v>
+      </c>
+      <c r="BB218" t="n">
+        <v>1.58</v>
+      </c>
+      <c r="BC218" t="n">
+        <v>1.93</v>
+      </c>
+      <c r="BD218" t="n">
+        <v>2.39</v>
+      </c>
+      <c r="BE218" t="n">
+        <v>3.74</v>
+      </c>
+      <c r="BF218" t="n">
+        <v>6</v>
+      </c>
+      <c r="BG218" t="n">
+        <v>3</v>
+      </c>
+      <c r="BH218" t="n">
+        <v>10</v>
+      </c>
+      <c r="BI218" t="n">
+        <v>5</v>
+      </c>
+      <c r="BJ218" t="n">
+        <v>16</v>
+      </c>
+      <c r="BK218" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="219">
+      <c r="A219" s="1" t="n">
+        <v>218</v>
+      </c>
+      <c r="B219" t="n">
+        <v>4554623</v>
+      </c>
+      <c r="C219" t="inlineStr">
+        <is>
+          <t>Argentina Primera División</t>
+        </is>
+      </c>
+      <c r="D219" t="inlineStr">
+        <is>
+          <t>2023</t>
+        </is>
+      </c>
+      <c r="E219" s="2" t="n">
+        <v>45060.79166666666</v>
+      </c>
+      <c r="F219" t="n">
+        <v>16</v>
+      </c>
+      <c r="G219" t="inlineStr">
+        <is>
+          <t>Boca Juniors</t>
+        </is>
+      </c>
+      <c r="H219" t="inlineStr">
+        <is>
+          <t>Belgrano</t>
+        </is>
+      </c>
+      <c r="I219" t="n">
+        <v>0</v>
+      </c>
+      <c r="J219" t="n">
+        <v>0</v>
+      </c>
+      <c r="K219" t="n">
+        <v>0</v>
+      </c>
+      <c r="L219" t="n">
+        <v>2</v>
+      </c>
+      <c r="M219" t="n">
+        <v>0</v>
+      </c>
+      <c r="N219" t="n">
+        <v>2</v>
+      </c>
+      <c r="O219" t="inlineStr">
+        <is>
+          <t>['49', '52']</t>
+        </is>
+      </c>
+      <c r="P219" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="Q219" t="n">
+        <v>9</v>
+      </c>
+      <c r="R219" t="n">
+        <v>2</v>
+      </c>
+      <c r="S219" t="n">
+        <v>11</v>
+      </c>
+      <c r="T219" t="n">
+        <v>2.86</v>
+      </c>
+      <c r="U219" t="n">
+        <v>2.04</v>
+      </c>
+      <c r="V219" t="n">
+        <v>4.81</v>
+      </c>
+      <c r="W219" t="n">
+        <v>1.5</v>
+      </c>
+      <c r="X219" t="n">
+        <v>2.4</v>
+      </c>
+      <c r="Y219" t="n">
+        <v>3.6</v>
+      </c>
+      <c r="Z219" t="n">
+        <v>1.25</v>
+      </c>
+      <c r="AA219" t="n">
+        <v>9.800000000000001</v>
+      </c>
+      <c r="AB219" t="n">
+        <v>1.04</v>
+      </c>
+      <c r="AC219" t="n">
+        <v>2</v>
+      </c>
+      <c r="AD219" t="n">
+        <v>2.9</v>
+      </c>
+      <c r="AE219" t="n">
+        <v>3.6</v>
+      </c>
+      <c r="AF219" t="n">
+        <v>1.07</v>
+      </c>
+      <c r="AG219" t="n">
+        <v>6.5</v>
+      </c>
+      <c r="AH219" t="n">
+        <v>1.46</v>
+      </c>
+      <c r="AI219" t="n">
+        <v>2.48</v>
+      </c>
+      <c r="AJ219" t="n">
+        <v>2.4</v>
+      </c>
+      <c r="AK219" t="n">
+        <v>1.5</v>
+      </c>
+      <c r="AL219" t="n">
+        <v>2.16</v>
+      </c>
+      <c r="AM219" t="n">
+        <v>1.65</v>
+      </c>
+      <c r="AN219" t="n">
+        <v>1.17</v>
+      </c>
+      <c r="AO219" t="n">
+        <v>1.35</v>
+      </c>
+      <c r="AP219" t="n">
+        <v>1.72</v>
+      </c>
+      <c r="AQ219" t="n">
+        <v>1.38</v>
+      </c>
+      <c r="AR219" t="n">
+        <v>1.63</v>
+      </c>
+      <c r="AS219" t="n">
+        <v>1.56</v>
+      </c>
+      <c r="AT219" t="n">
+        <v>1.44</v>
+      </c>
+      <c r="AU219" t="n">
+        <v>1.59</v>
+      </c>
+      <c r="AV219" t="n">
+        <v>1.25</v>
+      </c>
+      <c r="AW219" t="n">
+        <v>2.84</v>
+      </c>
+      <c r="AX219" t="n">
+        <v>1.64</v>
+      </c>
+      <c r="AY219" t="n">
+        <v>8</v>
+      </c>
+      <c r="AZ219" t="n">
+        <v>2.77</v>
+      </c>
+      <c r="BA219" t="n">
+        <v>1.3</v>
+      </c>
+      <c r="BB219" t="n">
+        <v>1.57</v>
+      </c>
+      <c r="BC219" t="n">
+        <v>2</v>
+      </c>
+      <c r="BD219" t="n">
+        <v>2.38</v>
+      </c>
+      <c r="BE219" t="n">
+        <v>3.56</v>
+      </c>
+      <c r="BF219" t="n">
+        <v>6</v>
+      </c>
+      <c r="BG219" t="n">
+        <v>2</v>
+      </c>
+      <c r="BH219" t="n">
+        <v>17</v>
+      </c>
+      <c r="BI219" t="n">
+        <v>6</v>
+      </c>
+      <c r="BJ219" t="n">
+        <v>23</v>
+      </c>
+      <c r="BK219" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="220">
+      <c r="A220" s="1" t="n">
+        <v>219</v>
+      </c>
+      <c r="B220" t="n">
+        <v>4554622</v>
+      </c>
+      <c r="C220" t="inlineStr">
+        <is>
+          <t>Argentina Primera División</t>
+        </is>
+      </c>
+      <c r="D220" t="inlineStr">
+        <is>
+          <t>2023</t>
+        </is>
+      </c>
+      <c r="E220" s="2" t="n">
+        <v>45060.89583333334</v>
+      </c>
+      <c r="F220" t="n">
+        <v>16</v>
+      </c>
+      <c r="G220" t="inlineStr">
+        <is>
+          <t>Talleres Córdoba</t>
+        </is>
+      </c>
+      <c r="H220" t="inlineStr">
+        <is>
+          <t>River Plate</t>
+        </is>
+      </c>
+      <c r="I220" t="n">
+        <v>0</v>
+      </c>
+      <c r="J220" t="n">
+        <v>0</v>
+      </c>
+      <c r="K220" t="n">
+        <v>0</v>
+      </c>
+      <c r="L220" t="n">
+        <v>2</v>
+      </c>
+      <c r="M220" t="n">
+        <v>1</v>
+      </c>
+      <c r="N220" t="n">
+        <v>3</v>
+      </c>
+      <c r="O220" t="inlineStr">
+        <is>
+          <t>['63', '73']</t>
+        </is>
+      </c>
+      <c r="P220" t="inlineStr">
+        <is>
+          <t>['79']</t>
+        </is>
+      </c>
+      <c r="Q220" t="n">
+        <v>3</v>
+      </c>
+      <c r="R220" t="n">
+        <v>5</v>
+      </c>
+      <c r="S220" t="n">
+        <v>8</v>
+      </c>
+      <c r="T220" t="n">
+        <v>4.03</v>
+      </c>
+      <c r="U220" t="n">
+        <v>2.15</v>
+      </c>
+      <c r="V220" t="n">
+        <v>2.97</v>
+      </c>
+      <c r="W220" t="n">
+        <v>1.45</v>
+      </c>
+      <c r="X220" t="n">
+        <v>2.78</v>
+      </c>
+      <c r="Y220" t="n">
+        <v>3.26</v>
+      </c>
+      <c r="Z220" t="n">
+        <v>1.35</v>
+      </c>
+      <c r="AA220" t="n">
+        <v>7</v>
+      </c>
+      <c r="AB220" t="n">
+        <v>1.07</v>
+      </c>
+      <c r="AC220" t="n">
+        <v>3.28</v>
+      </c>
+      <c r="AD220" t="n">
+        <v>3.34</v>
+      </c>
+      <c r="AE220" t="n">
+        <v>2.22</v>
+      </c>
+      <c r="AF220" t="n">
+        <v>1.06</v>
+      </c>
+      <c r="AG220" t="n">
+        <v>7.5</v>
+      </c>
+      <c r="AH220" t="n">
+        <v>1.33</v>
+      </c>
+      <c r="AI220" t="n">
+        <v>3</v>
+      </c>
+      <c r="AJ220" t="n">
+        <v>2.1</v>
+      </c>
+      <c r="AK220" t="n">
+        <v>1.65</v>
+      </c>
+      <c r="AL220" t="n">
+        <v>1.85</v>
+      </c>
+      <c r="AM220" t="n">
+        <v>1.85</v>
+      </c>
+      <c r="AN220" t="n">
+        <v>1.55</v>
+      </c>
+      <c r="AO220" t="n">
+        <v>1.29</v>
+      </c>
+      <c r="AP220" t="n">
+        <v>1.32</v>
+      </c>
+      <c r="AQ220" t="n">
+        <v>1.63</v>
+      </c>
+      <c r="AR220" t="n">
+        <v>2.38</v>
+      </c>
+      <c r="AS220" t="n">
+        <v>1.78</v>
+      </c>
+      <c r="AT220" t="n">
+        <v>2.11</v>
+      </c>
+      <c r="AU220" t="n">
+        <v>1.55</v>
+      </c>
+      <c r="AV220" t="n">
+        <v>1.66</v>
+      </c>
+      <c r="AW220" t="n">
+        <v>3.21</v>
+      </c>
+      <c r="AX220" t="n">
+        <v>2.1</v>
+      </c>
+      <c r="AY220" t="n">
+        <v>8</v>
+      </c>
+      <c r="AZ220" t="n">
+        <v>1.95</v>
+      </c>
+      <c r="BA220" t="n">
+        <v>1.22</v>
+      </c>
+      <c r="BB220" t="n">
+        <v>1.53</v>
+      </c>
+      <c r="BC220" t="n">
+        <v>1.88</v>
+      </c>
+      <c r="BD220" t="n">
+        <v>2.32</v>
+      </c>
+      <c r="BE220" t="n">
+        <v>3</v>
+      </c>
+      <c r="BF220" t="n">
+        <v>5</v>
+      </c>
+      <c r="BG220" t="n">
+        <v>6</v>
+      </c>
+      <c r="BH220" t="n">
+        <v>7</v>
+      </c>
+      <c r="BI220" t="n">
+        <v>10</v>
+      </c>
+      <c r="BJ220" t="n">
+        <v>12</v>
+      </c>
+      <c r="BK220" t="n">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="221">
+      <c r="A221" s="1" t="n">
+        <v>220</v>
+      </c>
+      <c r="B221" t="n">
+        <v>4554617</v>
+      </c>
+      <c r="C221" t="inlineStr">
+        <is>
+          <t>Argentina Primera División</t>
+        </is>
+      </c>
+      <c r="D221" t="inlineStr">
+        <is>
+          <t>2023</t>
+        </is>
+      </c>
+      <c r="E221" s="2" t="n">
+        <v>45061.64583333334</v>
+      </c>
+      <c r="F221" t="n">
+        <v>16</v>
+      </c>
+      <c r="G221" t="inlineStr">
+        <is>
+          <t>Barracas Central</t>
+        </is>
+      </c>
+      <c r="H221" t="inlineStr">
+        <is>
+          <t>Central Córdoba SdE</t>
+        </is>
+      </c>
+      <c r="I221" t="n">
+        <v>0</v>
+      </c>
+      <c r="J221" t="n">
+        <v>2</v>
+      </c>
+      <c r="K221" t="n">
+        <v>2</v>
+      </c>
+      <c r="L221" t="n">
+        <v>2</v>
+      </c>
+      <c r="M221" t="n">
+        <v>2</v>
+      </c>
+      <c r="N221" t="n">
+        <v>4</v>
+      </c>
+      <c r="O221" t="inlineStr">
+        <is>
+          <t>['59', '88']</t>
+        </is>
+      </c>
+      <c r="P221" t="inlineStr">
+        <is>
+          <t>['13', '37']</t>
+        </is>
+      </c>
+      <c r="Q221" t="n">
+        <v>4</v>
+      </c>
+      <c r="R221" t="n">
+        <v>4</v>
+      </c>
+      <c r="S221" t="n">
+        <v>8</v>
+      </c>
+      <c r="T221" t="n">
+        <v>3.6</v>
+      </c>
+      <c r="U221" t="n">
+        <v>2</v>
+      </c>
+      <c r="V221" t="n">
+        <v>3</v>
+      </c>
+      <c r="W221" t="n">
+        <v>1.52</v>
+      </c>
+      <c r="X221" t="n">
+        <v>2.44</v>
+      </c>
+      <c r="Y221" t="n">
+        <v>3.22</v>
+      </c>
+      <c r="Z221" t="n">
+        <v>1.32</v>
+      </c>
+      <c r="AA221" t="n">
+        <v>8.699999999999999</v>
+      </c>
+      <c r="AB221" t="n">
+        <v>1.05</v>
+      </c>
+      <c r="AC221" t="n">
+        <v>2.63</v>
+      </c>
+      <c r="AD221" t="n">
+        <v>3.19</v>
+      </c>
+      <c r="AE221" t="n">
+        <v>2.85</v>
+      </c>
+      <c r="AF221" t="n">
+        <v>1.07</v>
+      </c>
+      <c r="AG221" t="n">
+        <v>7</v>
+      </c>
+      <c r="AH221" t="n">
+        <v>1.4</v>
+      </c>
+      <c r="AI221" t="n">
+        <v>2.7</v>
+      </c>
+      <c r="AJ221" t="n">
+        <v>2.25</v>
+      </c>
+      <c r="AK221" t="n">
+        <v>1.62</v>
+      </c>
+      <c r="AL221" t="n">
+        <v>1.95</v>
+      </c>
+      <c r="AM221" t="n">
+        <v>1.8</v>
+      </c>
+      <c r="AN221" t="n">
+        <v>1.41</v>
+      </c>
+      <c r="AO221" t="n">
+        <v>1.38</v>
+      </c>
+      <c r="AP221" t="n">
+        <v>1.49</v>
+      </c>
+      <c r="AQ221" t="n">
+        <v>1.38</v>
+      </c>
+      <c r="AR221" t="n">
+        <v>1.14</v>
+      </c>
+      <c r="AS221" t="n">
+        <v>1.33</v>
+      </c>
+      <c r="AT221" t="n">
+        <v>1.13</v>
+      </c>
+      <c r="AU221" t="n">
+        <v>0.98</v>
+      </c>
+      <c r="AV221" t="n">
+        <v>1.12</v>
+      </c>
+      <c r="AW221" t="n">
+        <v>2.1</v>
+      </c>
+      <c r="AX221" t="n">
+        <v>1.87</v>
+      </c>
+      <c r="AY221" t="n">
+        <v>9.1</v>
+      </c>
+      <c r="AZ221" t="n">
+        <v>2.27</v>
+      </c>
+      <c r="BA221" t="n">
+        <v>1.22</v>
+      </c>
+      <c r="BB221" t="n">
+        <v>1.45</v>
+      </c>
+      <c r="BC221" t="n">
+        <v>1.79</v>
+      </c>
+      <c r="BD221" t="n">
+        <v>2.27</v>
+      </c>
+      <c r="BE221" t="n">
+        <v>3.04</v>
+      </c>
+      <c r="BF221" t="n">
+        <v>6</v>
+      </c>
+      <c r="BG221" t="n">
+        <v>5</v>
+      </c>
+      <c r="BH221" t="n">
+        <v>16</v>
+      </c>
+      <c r="BI221" t="n">
+        <v>6</v>
+      </c>
+      <c r="BJ221" t="n">
+        <v>22</v>
+      </c>
+      <c r="BK221" t="n">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="222">
+      <c r="A222" s="1" t="n">
+        <v>221</v>
+      </c>
+      <c r="B222" t="n">
+        <v>5019514</v>
+      </c>
+      <c r="C222" t="inlineStr">
+        <is>
+          <t>Argentina Primera División</t>
+        </is>
+      </c>
+      <c r="D222" t="inlineStr">
+        <is>
+          <t>2023</t>
+        </is>
+      </c>
+      <c r="E222" s="2" t="n">
+        <v>45061.64583333334</v>
+      </c>
+      <c r="F222" t="n">
+        <v>16</v>
+      </c>
+      <c r="G222" t="inlineStr">
+        <is>
+          <t>Unión Santa Fe</t>
+        </is>
+      </c>
+      <c r="H222" t="inlineStr">
+        <is>
+          <t>Sarmiento</t>
+        </is>
+      </c>
+      <c r="I222" t="n">
+        <v>0</v>
+      </c>
+      <c r="J222" t="n">
+        <v>1</v>
+      </c>
+      <c r="K222" t="n">
+        <v>1</v>
+      </c>
+      <c r="L222" t="n">
+        <v>0</v>
+      </c>
+      <c r="M222" t="n">
+        <v>2</v>
+      </c>
+      <c r="N222" t="n">
+        <v>2</v>
+      </c>
+      <c r="O222" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="P222" t="inlineStr">
+        <is>
+          <t>['17', '54']</t>
+        </is>
+      </c>
+      <c r="Q222" t="n">
+        <v>14</v>
+      </c>
+      <c r="R222" t="n">
+        <v>5</v>
+      </c>
+      <c r="S222" t="n">
+        <v>19</v>
+      </c>
+      <c r="T222" t="n">
+        <v>2.88</v>
+      </c>
+      <c r="U222" t="n">
+        <v>2</v>
+      </c>
+      <c r="V222" t="n">
+        <v>4.33</v>
+      </c>
+      <c r="W222" t="n">
+        <v>1.5</v>
+      </c>
+      <c r="X222" t="n">
+        <v>2.5</v>
+      </c>
+      <c r="Y222" t="n">
+        <v>3.4</v>
+      </c>
+      <c r="Z222" t="n">
+        <v>1.3</v>
+      </c>
+      <c r="AA222" t="n">
+        <v>10</v>
+      </c>
+      <c r="AB222" t="n">
+        <v>1.06</v>
+      </c>
+      <c r="AC222" t="n">
+        <v>2.13</v>
+      </c>
+      <c r="AD222" t="n">
+        <v>3.26</v>
+      </c>
+      <c r="AE222" t="n">
+        <v>3.73</v>
+      </c>
+      <c r="AF222" t="n">
+        <v>1.1</v>
+      </c>
+      <c r="AG222" t="n">
+        <v>6.5</v>
+      </c>
+      <c r="AH222" t="n">
+        <v>1.44</v>
+      </c>
+      <c r="AI222" t="n">
+        <v>2.62</v>
+      </c>
+      <c r="AJ222" t="n">
+        <v>2.3</v>
+      </c>
+      <c r="AK222" t="n">
+        <v>1.6</v>
+      </c>
+      <c r="AL222" t="n">
+        <v>2</v>
+      </c>
+      <c r="AM222" t="n">
+        <v>1.75</v>
+      </c>
+      <c r="AN222" t="n">
+        <v>1.28</v>
+      </c>
+      <c r="AO222" t="n">
+        <v>1.34</v>
+      </c>
+      <c r="AP222" t="n">
+        <v>1.71</v>
+      </c>
+      <c r="AQ222" t="n">
+        <v>0.83</v>
+      </c>
+      <c r="AR222" t="n">
+        <v>1.13</v>
+      </c>
+      <c r="AS222" t="n">
+        <v>0.71</v>
+      </c>
+      <c r="AT222" t="n">
+        <v>1.33</v>
+      </c>
+      <c r="AU222" t="n">
+        <v>1.54</v>
+      </c>
+      <c r="AV222" t="n">
+        <v>1.23</v>
+      </c>
+      <c r="AW222" t="n">
+        <v>2.77</v>
+      </c>
+      <c r="AX222" t="n">
+        <v>1.34</v>
+      </c>
+      <c r="AY222" t="n">
+        <v>10</v>
+      </c>
+      <c r="AZ222" t="n">
+        <v>3.84</v>
+      </c>
+      <c r="BA222" t="n">
+        <v>1.12</v>
+      </c>
+      <c r="BB222" t="n">
+        <v>1.23</v>
+      </c>
+      <c r="BC222" t="n">
+        <v>1.42</v>
+      </c>
+      <c r="BD222" t="n">
+        <v>1.73</v>
+      </c>
+      <c r="BE222" t="n">
+        <v>2.18</v>
+      </c>
+      <c r="BF222" t="n">
+        <v>7</v>
+      </c>
+      <c r="BG222" t="n">
+        <v>6</v>
+      </c>
+      <c r="BH222" t="n">
+        <v>13</v>
+      </c>
+      <c r="BI222" t="n">
+        <v>5</v>
+      </c>
+      <c r="BJ222" t="n">
+        <v>20</v>
+      </c>
+      <c r="BK222" t="n">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="223">
+      <c r="A223" s="1" t="n">
+        <v>222</v>
+      </c>
+      <c r="B223" t="n">
+        <v>4554627</v>
+      </c>
+      <c r="C223" t="inlineStr">
+        <is>
+          <t>Argentina Primera División</t>
+        </is>
+      </c>
+      <c r="D223" t="inlineStr">
+        <is>
+          <t>2023</t>
+        </is>
+      </c>
+      <c r="E223" s="2" t="n">
+        <v>45061.75</v>
+      </c>
+      <c r="F223" t="n">
+        <v>16</v>
+      </c>
+      <c r="G223" t="inlineStr">
+        <is>
+          <t>Gimnasia La Plata</t>
+        </is>
+      </c>
+      <c r="H223" t="inlineStr">
+        <is>
+          <t>Lanús</t>
+        </is>
+      </c>
+      <c r="I223" t="n">
+        <v>0</v>
+      </c>
+      <c r="J223" t="n">
+        <v>0</v>
+      </c>
+      <c r="K223" t="n">
+        <v>0</v>
+      </c>
+      <c r="L223" t="n">
+        <v>1</v>
+      </c>
+      <c r="M223" t="n">
+        <v>0</v>
+      </c>
+      <c r="N223" t="n">
+        <v>1</v>
+      </c>
+      <c r="O223" t="inlineStr">
+        <is>
+          <t>['90+2']</t>
+        </is>
+      </c>
+      <c r="P223" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="Q223" t="n">
+        <v>4</v>
+      </c>
+      <c r="R223" t="n">
+        <v>5</v>
+      </c>
+      <c r="S223" t="n">
+        <v>9</v>
+      </c>
+      <c r="T223" t="n">
+        <v>3.75</v>
+      </c>
+      <c r="U223" t="n">
+        <v>1.95</v>
+      </c>
+      <c r="V223" t="n">
+        <v>3.25</v>
+      </c>
+      <c r="W223" t="n">
+        <v>1.53</v>
+      </c>
+      <c r="X223" t="n">
+        <v>2.38</v>
+      </c>
+      <c r="Y223" t="n">
+        <v>3.5</v>
+      </c>
+      <c r="Z223" t="n">
+        <v>1.29</v>
+      </c>
+      <c r="AA223" t="n">
+        <v>11</v>
+      </c>
+      <c r="AB223" t="n">
+        <v>1.05</v>
+      </c>
+      <c r="AC223" t="n">
+        <v>2.89</v>
+      </c>
+      <c r="AD223" t="n">
+        <v>3</v>
+      </c>
+      <c r="AE223" t="n">
+        <v>2.43</v>
+      </c>
+      <c r="AF223" t="n">
+        <v>1.1</v>
+      </c>
+      <c r="AG223" t="n">
+        <v>6.5</v>
+      </c>
+      <c r="AH223" t="n">
+        <v>1.5</v>
+      </c>
+      <c r="AI223" t="n">
+        <v>2.5</v>
+      </c>
+      <c r="AJ223" t="n">
+        <v>2.35</v>
+      </c>
+      <c r="AK223" t="n">
+        <v>1.52</v>
+      </c>
+      <c r="AL223" t="n">
+        <v>2.05</v>
+      </c>
+      <c r="AM223" t="n">
+        <v>1.7</v>
+      </c>
+      <c r="AN223" t="n">
+        <v>1.53</v>
+      </c>
+      <c r="AO223" t="n">
+        <v>1.38</v>
+      </c>
+      <c r="AP223" t="n">
+        <v>1.38</v>
+      </c>
+      <c r="AQ223" t="n">
+        <v>1.57</v>
+      </c>
+      <c r="AR223" t="n">
+        <v>1.29</v>
+      </c>
+      <c r="AS223" t="n">
+        <v>1.75</v>
+      </c>
+      <c r="AT223" t="n">
+        <v>1.13</v>
+      </c>
+      <c r="AU223" t="n">
+        <v>1.53</v>
+      </c>
+      <c r="AV223" t="n">
+        <v>1.33</v>
+      </c>
+      <c r="AW223" t="n">
+        <v>2.86</v>
+      </c>
+      <c r="AX223" t="n">
+        <v>2.03</v>
+      </c>
+      <c r="AY223" t="n">
+        <v>9</v>
+      </c>
+      <c r="AZ223" t="n">
+        <v>2.04</v>
+      </c>
+      <c r="BA223" t="n">
+        <v>1.2</v>
+      </c>
+      <c r="BB223" t="n">
+        <v>1.4</v>
+      </c>
+      <c r="BC223" t="n">
+        <v>1.71</v>
+      </c>
+      <c r="BD223" t="n">
+        <v>2.19</v>
+      </c>
+      <c r="BE223" t="n">
+        <v>2.89</v>
+      </c>
+      <c r="BF223" t="n">
+        <v>3</v>
+      </c>
+      <c r="BG223" t="n">
+        <v>5</v>
+      </c>
+      <c r="BH223" t="n">
+        <v>9</v>
+      </c>
+      <c r="BI223" t="n">
+        <v>12</v>
+      </c>
+      <c r="BJ223" t="n">
+        <v>12</v>
+      </c>
+      <c r="BK223" t="n">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="224">
+      <c r="A224" s="1" t="n">
+        <v>223</v>
+      </c>
+      <c r="B224" t="n">
+        <v>4554620</v>
+      </c>
+      <c r="C224" t="inlineStr">
+        <is>
+          <t>Argentina Primera División</t>
+        </is>
+      </c>
+      <c r="D224" t="inlineStr">
+        <is>
+          <t>2023</t>
+        </is>
+      </c>
+      <c r="E224" s="2" t="n">
+        <v>45061.85416666666</v>
+      </c>
+      <c r="F224" t="n">
+        <v>16</v>
+      </c>
+      <c r="G224" t="inlineStr">
+        <is>
+          <t>Vélez Sarsfield</t>
+        </is>
+      </c>
+      <c r="H224" t="inlineStr">
+        <is>
+          <t>Rosario Central</t>
+        </is>
+      </c>
+      <c r="I224" t="n">
+        <v>0</v>
+      </c>
+      <c r="J224" t="n">
+        <v>0</v>
+      </c>
+      <c r="K224" t="n">
+        <v>0</v>
+      </c>
+      <c r="L224" t="n">
+        <v>0</v>
+      </c>
+      <c r="M224" t="n">
+        <v>0</v>
+      </c>
+      <c r="N224" t="n">
+        <v>0</v>
+      </c>
+      <c r="O224" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="P224" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="Q224" t="n">
+        <v>3</v>
+      </c>
+      <c r="R224" t="n">
+        <v>4</v>
+      </c>
+      <c r="S224" t="n">
+        <v>7</v>
+      </c>
+      <c r="T224" t="n">
+        <v>3</v>
+      </c>
+      <c r="U224" t="n">
+        <v>1.95</v>
+      </c>
+      <c r="V224" t="n">
+        <v>4.33</v>
+      </c>
+      <c r="W224" t="n">
+        <v>1.53</v>
+      </c>
+      <c r="X224" t="n">
+        <v>2.38</v>
+      </c>
+      <c r="Y224" t="n">
+        <v>3.75</v>
+      </c>
+      <c r="Z224" t="n">
+        <v>1.25</v>
+      </c>
+      <c r="AA224" t="n">
+        <v>11</v>
+      </c>
+      <c r="AB224" t="n">
+        <v>1.05</v>
+      </c>
+      <c r="AC224" t="n">
+        <v>2.16</v>
+      </c>
+      <c r="AD224" t="n">
+        <v>3.1</v>
+      </c>
+      <c r="AE224" t="n">
+        <v>3.3</v>
+      </c>
+      <c r="AF224" t="n">
+        <v>1.09</v>
+      </c>
+      <c r="AG224" t="n">
+        <v>6.75</v>
+      </c>
+      <c r="AH224" t="n">
+        <v>1.46</v>
+      </c>
+      <c r="AI224" t="n">
+        <v>2.5</v>
+      </c>
+      <c r="AJ224" t="n">
+        <v>2.35</v>
+      </c>
+      <c r="AK224" t="n">
+        <v>1.52</v>
+      </c>
+      <c r="AL224" t="n">
+        <v>2.1</v>
+      </c>
+      <c r="AM224" t="n">
+        <v>1.67</v>
+      </c>
+      <c r="AN224" t="n">
+        <v>1.29</v>
+      </c>
+      <c r="AO224" t="n">
+        <v>1.33</v>
+      </c>
+      <c r="AP224" t="n">
+        <v>1.66</v>
+      </c>
+      <c r="AQ224" t="n">
+        <v>1.38</v>
+      </c>
+      <c r="AR224" t="n">
+        <v>0.86</v>
+      </c>
+      <c r="AS224" t="n">
+        <v>1.33</v>
+      </c>
+      <c r="AT224" t="n">
+        <v>0.88</v>
+      </c>
+      <c r="AU224" t="n">
+        <v>1.26</v>
+      </c>
+      <c r="AV224" t="n">
+        <v>1.29</v>
+      </c>
+      <c r="AW224" t="n">
+        <v>2.55</v>
+      </c>
+      <c r="AX224" t="n">
+        <v>1.77</v>
+      </c>
+      <c r="AY224" t="n">
+        <v>9</v>
+      </c>
+      <c r="AZ224" t="n">
+        <v>2.44</v>
+      </c>
+      <c r="BA224" t="n">
+        <v>1.24</v>
+      </c>
+      <c r="BB224" t="n">
+        <v>1.47</v>
+      </c>
+      <c r="BC224" t="n">
+        <v>1.83</v>
+      </c>
+      <c r="BD224" t="n">
+        <v>2.34</v>
+      </c>
+      <c r="BE224" t="n">
+        <v>3.08</v>
+      </c>
+      <c r="BF224" t="n">
+        <v>3</v>
+      </c>
+      <c r="BG224" t="n">
+        <v>3</v>
+      </c>
+      <c r="BH224" t="n">
+        <v>13</v>
+      </c>
+      <c r="BI224" t="n">
+        <v>5</v>
+      </c>
+      <c r="BJ224" t="n">
+        <v>16</v>
+      </c>
+      <c r="BK224" t="n">
+        <v>8</v>
       </c>
     </row>
   </sheetData>

--- a/Bases_de_Dados_(2022-2023)/Argentina Primera División_2023.xlsx
+++ b/Bases_de_Dados_(2022-2023)/Argentina Primera División_2023.xlsx
@@ -429,7 +429,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:BK224"/>
+  <dimension ref="A1:BK233"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -900,7 +900,7 @@
         <v>0</v>
       </c>
       <c r="AS2" t="n">
-        <v>2.5</v>
+        <v>2.56</v>
       </c>
       <c r="AT2" t="n">
         <v>1</v>
@@ -1306,7 +1306,7 @@
         <v>0</v>
       </c>
       <c r="AS4" t="n">
-        <v>2.5</v>
+        <v>2.56</v>
       </c>
       <c r="AT4" t="n">
         <v>0.44</v>
@@ -1512,7 +1512,7 @@
         <v>1.78</v>
       </c>
       <c r="AT5" t="n">
-        <v>1</v>
+        <v>0.89</v>
       </c>
       <c r="AU5" t="n">
         <v>0</v>
@@ -1712,7 +1712,7 @@
         <v>0</v>
       </c>
       <c r="AS6" t="n">
-        <v>1.75</v>
+        <v>1.89</v>
       </c>
       <c r="AT6" t="n">
         <v>1.11</v>
@@ -1915,7 +1915,7 @@
         <v>0</v>
       </c>
       <c r="AS7" t="n">
-        <v>1.25</v>
+        <v>1.11</v>
       </c>
       <c r="AT7" t="n">
         <v>2.11</v>
@@ -2121,7 +2121,7 @@
         <v>1.44</v>
       </c>
       <c r="AT8" t="n">
-        <v>0.75</v>
+        <v>0.67</v>
       </c>
       <c r="AU8" t="n">
         <v>0</v>
@@ -2933,7 +2933,7 @@
         <v>1.56</v>
       </c>
       <c r="AT12" t="n">
-        <v>0.88</v>
+        <v>0.89</v>
       </c>
       <c r="AU12" t="n">
         <v>0</v>
@@ -3339,7 +3339,7 @@
         <v>1.33</v>
       </c>
       <c r="AT14" t="n">
-        <v>0.88</v>
+        <v>0.78</v>
       </c>
       <c r="AU14" t="n">
         <v>0</v>
@@ -3542,7 +3542,7 @@
         <v>1.11</v>
       </c>
       <c r="AT15" t="n">
-        <v>0.5</v>
+        <v>0.78</v>
       </c>
       <c r="AU15" t="n">
         <v>0</v>
@@ -3742,7 +3742,7 @@
         <v>0</v>
       </c>
       <c r="AS16" t="n">
-        <v>1.57</v>
+        <v>1.5</v>
       </c>
       <c r="AT16" t="n">
         <v>0.88</v>
@@ -4148,7 +4148,7 @@
         <v>0</v>
       </c>
       <c r="AS18" t="n">
-        <v>1</v>
+        <v>1.25</v>
       </c>
       <c r="AT18" t="n">
         <v>1.75</v>
@@ -4757,7 +4757,7 @@
         <v>0</v>
       </c>
       <c r="AS21" t="n">
-        <v>2.29</v>
+        <v>2.38</v>
       </c>
       <c r="AT21" t="n">
         <v>1.5</v>
@@ -4960,7 +4960,7 @@
         <v>0</v>
       </c>
       <c r="AS22" t="n">
-        <v>2</v>
+        <v>1.75</v>
       </c>
       <c r="AT22" t="n">
         <v>0.88</v>
@@ -5569,7 +5569,7 @@
         <v>0</v>
       </c>
       <c r="AS25" t="n">
-        <v>1.71</v>
+        <v>1.88</v>
       </c>
       <c r="AT25" t="n">
         <v>0.88</v>
@@ -5978,7 +5978,7 @@
         <v>0.71</v>
       </c>
       <c r="AT27" t="n">
-        <v>1</v>
+        <v>0.88</v>
       </c>
       <c r="AU27" t="n">
         <v>0</v>
@@ -6181,7 +6181,7 @@
         <v>1.75</v>
       </c>
       <c r="AT28" t="n">
-        <v>2</v>
+        <v>1.75</v>
       </c>
       <c r="AU28" t="n">
         <v>0</v>
@@ -6384,7 +6384,7 @@
         <v>1.5</v>
       </c>
       <c r="AT29" t="n">
-        <v>0.71</v>
+        <v>0.63</v>
       </c>
       <c r="AU29" t="n">
         <v>0</v>
@@ -6787,7 +6787,7 @@
         <v>1</v>
       </c>
       <c r="AS31" t="n">
-        <v>1.25</v>
+        <v>1.11</v>
       </c>
       <c r="AT31" t="n">
         <v>1.44</v>
@@ -6990,7 +6990,7 @@
         <v>3</v>
       </c>
       <c r="AS32" t="n">
-        <v>2.5</v>
+        <v>2.56</v>
       </c>
       <c r="AT32" t="n">
         <v>1.22</v>
@@ -7196,7 +7196,7 @@
         <v>1.67</v>
       </c>
       <c r="AT33" t="n">
-        <v>0.75</v>
+        <v>0.67</v>
       </c>
       <c r="AU33" t="n">
         <v>1.74</v>
@@ -7399,7 +7399,7 @@
         <v>1.44</v>
       </c>
       <c r="AT34" t="n">
-        <v>0.88</v>
+        <v>0.89</v>
       </c>
       <c r="AU34" t="n">
         <v>1.36</v>
@@ -7602,7 +7602,7 @@
         <v>1.78</v>
       </c>
       <c r="AT35" t="n">
-        <v>1</v>
+        <v>1.25</v>
       </c>
       <c r="AU35" t="n">
         <v>1.05</v>
@@ -7805,7 +7805,7 @@
         <v>1.33</v>
       </c>
       <c r="AT36" t="n">
-        <v>1</v>
+        <v>0.89</v>
       </c>
       <c r="AU36" t="n">
         <v>1.26</v>
@@ -8005,7 +8005,7 @@
         <v>0</v>
       </c>
       <c r="AS37" t="n">
-        <v>2.5</v>
+        <v>2.56</v>
       </c>
       <c r="AT37" t="n">
         <v>0.44</v>
@@ -8211,7 +8211,7 @@
         <v>1.11</v>
       </c>
       <c r="AT38" t="n">
-        <v>0.88</v>
+        <v>0.78</v>
       </c>
       <c r="AU38" t="n">
         <v>1.72</v>
@@ -9023,7 +9023,7 @@
         <v>1.33</v>
       </c>
       <c r="AT42" t="n">
-        <v>0.5</v>
+        <v>0.78</v>
       </c>
       <c r="AU42" t="n">
         <v>0.67</v>
@@ -9223,7 +9223,7 @@
         <v>3</v>
       </c>
       <c r="AS43" t="n">
-        <v>1.75</v>
+        <v>1.89</v>
       </c>
       <c r="AT43" t="n">
         <v>1.13</v>
@@ -9429,7 +9429,7 @@
         <v>1.75</v>
       </c>
       <c r="AT44" t="n">
-        <v>1</v>
+        <v>0.88</v>
       </c>
       <c r="AU44" t="n">
         <v>1.83</v>
@@ -9629,7 +9629,7 @@
         <v>0</v>
       </c>
       <c r="AS45" t="n">
-        <v>1</v>
+        <v>1.25</v>
       </c>
       <c r="AT45" t="n">
         <v>0.88</v>
@@ -10035,7 +10035,7 @@
         <v>1</v>
       </c>
       <c r="AS47" t="n">
-        <v>2.29</v>
+        <v>2.38</v>
       </c>
       <c r="AT47" t="n">
         <v>0.88</v>
@@ -10238,7 +10238,7 @@
         <v>1.5</v>
       </c>
       <c r="AS48" t="n">
-        <v>1.57</v>
+        <v>1.5</v>
       </c>
       <c r="AT48" t="n">
         <v>2.11</v>
@@ -10441,7 +10441,7 @@
         <v>2</v>
       </c>
       <c r="AS49" t="n">
-        <v>2</v>
+        <v>1.75</v>
       </c>
       <c r="AT49" t="n">
         <v>1.44</v>
@@ -10644,7 +10644,7 @@
         <v>1</v>
       </c>
       <c r="AS50" t="n">
-        <v>1.71</v>
+        <v>1.88</v>
       </c>
       <c r="AT50" t="n">
         <v>1.75</v>
@@ -10850,7 +10850,7 @@
         <v>2.13</v>
       </c>
       <c r="AT51" t="n">
-        <v>0.71</v>
+        <v>0.63</v>
       </c>
       <c r="AU51" t="n">
         <v>0.67</v>
@@ -11459,7 +11459,7 @@
         <v>1.13</v>
       </c>
       <c r="AT54" t="n">
-        <v>2</v>
+        <v>1.75</v>
       </c>
       <c r="AU54" t="n">
         <v>1.63</v>
@@ -12471,7 +12471,7 @@
         <v>1.5</v>
       </c>
       <c r="AS59" t="n">
-        <v>2.5</v>
+        <v>2.56</v>
       </c>
       <c r="AT59" t="n">
         <v>1.22</v>
@@ -12674,10 +12674,10 @@
         <v>1</v>
       </c>
       <c r="AS60" t="n">
-        <v>2.5</v>
+        <v>2.56</v>
       </c>
       <c r="AT60" t="n">
-        <v>0.5</v>
+        <v>0.78</v>
       </c>
       <c r="AU60" t="n">
         <v>1.46</v>
@@ -13080,7 +13080,7 @@
         <v>2</v>
       </c>
       <c r="AS62" t="n">
-        <v>1.75</v>
+        <v>1.89</v>
       </c>
       <c r="AT62" t="n">
         <v>1.33</v>
@@ -13286,7 +13286,7 @@
         <v>1.33</v>
       </c>
       <c r="AT63" t="n">
-        <v>1</v>
+        <v>1.25</v>
       </c>
       <c r="AU63" t="n">
         <v>1.24</v>
@@ -13489,7 +13489,7 @@
         <v>1.67</v>
       </c>
       <c r="AT64" t="n">
-        <v>0.88</v>
+        <v>0.89</v>
       </c>
       <c r="AU64" t="n">
         <v>1.26</v>
@@ -14098,7 +14098,7 @@
         <v>1.44</v>
       </c>
       <c r="AT67" t="n">
-        <v>0.75</v>
+        <v>0.67</v>
       </c>
       <c r="AU67" t="n">
         <v>1.49</v>
@@ -14301,7 +14301,7 @@
         <v>1.11</v>
       </c>
       <c r="AT68" t="n">
-        <v>1</v>
+        <v>0.89</v>
       </c>
       <c r="AU68" t="n">
         <v>2.03</v>
@@ -14504,7 +14504,7 @@
         <v>1.33</v>
       </c>
       <c r="AT69" t="n">
-        <v>0.88</v>
+        <v>0.78</v>
       </c>
       <c r="AU69" t="n">
         <v>0.49</v>
@@ -14907,7 +14907,7 @@
         <v>0</v>
       </c>
       <c r="AS71" t="n">
-        <v>1.25</v>
+        <v>1.11</v>
       </c>
       <c r="AT71" t="n">
         <v>1</v>
@@ -15922,7 +15922,7 @@
         <v>2</v>
       </c>
       <c r="AS76" t="n">
-        <v>2.29</v>
+        <v>2.38</v>
       </c>
       <c r="AT76" t="n">
         <v>2.11</v>
@@ -16128,7 +16128,7 @@
         <v>0.88</v>
       </c>
       <c r="AT77" t="n">
-        <v>0.71</v>
+        <v>0.63</v>
       </c>
       <c r="AU77" t="n">
         <v>1.19</v>
@@ -16534,7 +16534,7 @@
         <v>1.13</v>
       </c>
       <c r="AT79" t="n">
-        <v>1</v>
+        <v>0.88</v>
       </c>
       <c r="AU79" t="n">
         <v>1.59</v>
@@ -16937,7 +16937,7 @@
         <v>0</v>
       </c>
       <c r="AS81" t="n">
-        <v>1.57</v>
+        <v>1.5</v>
       </c>
       <c r="AT81" t="n">
         <v>1</v>
@@ -17343,7 +17343,7 @@
         <v>1.5</v>
       </c>
       <c r="AS83" t="n">
-        <v>1.71</v>
+        <v>1.88</v>
       </c>
       <c r="AT83" t="n">
         <v>0.88</v>
@@ -17546,7 +17546,7 @@
         <v>1.33</v>
       </c>
       <c r="AS84" t="n">
-        <v>1</v>
+        <v>1.25</v>
       </c>
       <c r="AT84" t="n">
         <v>1.44</v>
@@ -17752,7 +17752,7 @@
         <v>1.56</v>
       </c>
       <c r="AT85" t="n">
-        <v>2</v>
+        <v>1.75</v>
       </c>
       <c r="AU85" t="n">
         <v>1.52</v>
@@ -17955,7 +17955,7 @@
         <v>1.33</v>
       </c>
       <c r="AT86" t="n">
-        <v>1</v>
+        <v>0.89</v>
       </c>
       <c r="AU86" t="n">
         <v>0.74</v>
@@ -18155,7 +18155,7 @@
         <v>1</v>
       </c>
       <c r="AS87" t="n">
-        <v>2</v>
+        <v>1.75</v>
       </c>
       <c r="AT87" t="n">
         <v>0.44</v>
@@ -18361,7 +18361,7 @@
         <v>1.44</v>
       </c>
       <c r="AT88" t="n">
-        <v>0.88</v>
+        <v>0.89</v>
       </c>
       <c r="AU88" t="n">
         <v>1.59</v>
@@ -18561,10 +18561,10 @@
         <v>0.33</v>
       </c>
       <c r="AS89" t="n">
-        <v>2.5</v>
+        <v>2.56</v>
       </c>
       <c r="AT89" t="n">
-        <v>0.88</v>
+        <v>0.78</v>
       </c>
       <c r="AU89" t="n">
         <v>1.5</v>
@@ -18967,7 +18967,7 @@
         <v>2.33</v>
       </c>
       <c r="AS91" t="n">
-        <v>1.25</v>
+        <v>1.11</v>
       </c>
       <c r="AT91" t="n">
         <v>1.11</v>
@@ -19779,7 +19779,7 @@
         <v>1.67</v>
       </c>
       <c r="AS95" t="n">
-        <v>1.75</v>
+        <v>1.89</v>
       </c>
       <c r="AT95" t="n">
         <v>0.63</v>
@@ -19985,7 +19985,7 @@
         <v>1.11</v>
       </c>
       <c r="AT96" t="n">
-        <v>1</v>
+        <v>1.25</v>
       </c>
       <c r="AU96" t="n">
         <v>2.03</v>
@@ -20185,10 +20185,10 @@
         <v>0.67</v>
       </c>
       <c r="AS97" t="n">
-        <v>2.5</v>
+        <v>2.56</v>
       </c>
       <c r="AT97" t="n">
-        <v>0.5</v>
+        <v>0.78</v>
       </c>
       <c r="AU97" t="n">
         <v>1.7</v>
@@ -20594,7 +20594,7 @@
         <v>1.25</v>
       </c>
       <c r="AT99" t="n">
-        <v>0.75</v>
+        <v>0.67</v>
       </c>
       <c r="AU99" t="n">
         <v>1.88</v>
@@ -20997,7 +20997,7 @@
         <v>1.75</v>
       </c>
       <c r="AS101" t="n">
-        <v>1</v>
+        <v>1.25</v>
       </c>
       <c r="AT101" t="n">
         <v>1.11</v>
@@ -21406,7 +21406,7 @@
         <v>1.44</v>
       </c>
       <c r="AT103" t="n">
-        <v>2</v>
+        <v>1.75</v>
       </c>
       <c r="AU103" t="n">
         <v>1.53</v>
@@ -21809,7 +21809,7 @@
         <v>1.75</v>
       </c>
       <c r="AS105" t="n">
-        <v>1.71</v>
+        <v>1.88</v>
       </c>
       <c r="AT105" t="n">
         <v>1.44</v>
@@ -22218,7 +22218,7 @@
         <v>1.56</v>
       </c>
       <c r="AT107" t="n">
-        <v>1</v>
+        <v>0.88</v>
       </c>
       <c r="AU107" t="n">
         <v>1.64</v>
@@ -22421,7 +22421,7 @@
         <v>1.78</v>
       </c>
       <c r="AT108" t="n">
-        <v>0.71</v>
+        <v>0.63</v>
       </c>
       <c r="AU108" t="n">
         <v>1.46</v>
@@ -23027,7 +23027,7 @@
         <v>0.75</v>
       </c>
       <c r="AS111" t="n">
-        <v>2.29</v>
+        <v>2.38</v>
       </c>
       <c r="AT111" t="n">
         <v>1</v>
@@ -23839,7 +23839,7 @@
         <v>0.75</v>
       </c>
       <c r="AS115" t="n">
-        <v>2</v>
+        <v>1.75</v>
       </c>
       <c r="AT115" t="n">
         <v>1.22</v>
@@ -24042,10 +24042,10 @@
         <v>0.25</v>
       </c>
       <c r="AS116" t="n">
-        <v>2.5</v>
+        <v>2.56</v>
       </c>
       <c r="AT116" t="n">
-        <v>0.88</v>
+        <v>0.78</v>
       </c>
       <c r="AU116" t="n">
         <v>1.68</v>
@@ -24245,10 +24245,10 @@
         <v>0.5</v>
       </c>
       <c r="AS117" t="n">
-        <v>1.75</v>
+        <v>1.89</v>
       </c>
       <c r="AT117" t="n">
-        <v>0.75</v>
+        <v>0.67</v>
       </c>
       <c r="AU117" t="n">
         <v>1.81</v>
@@ -24451,7 +24451,7 @@
         <v>2.57</v>
       </c>
       <c r="AT118" t="n">
-        <v>0.5</v>
+        <v>0.78</v>
       </c>
       <c r="AU118" t="n">
         <v>1.71</v>
@@ -24654,7 +24654,7 @@
         <v>1.33</v>
       </c>
       <c r="AT119" t="n">
-        <v>1</v>
+        <v>1.25</v>
       </c>
       <c r="AU119" t="n">
         <v>0.89</v>
@@ -24854,10 +24854,10 @@
         <v>1.5</v>
       </c>
       <c r="AS120" t="n">
-        <v>2.5</v>
+        <v>2.56</v>
       </c>
       <c r="AT120" t="n">
-        <v>1</v>
+        <v>0.89</v>
       </c>
       <c r="AU120" t="n">
         <v>1.52</v>
@@ -25260,7 +25260,7 @@
         <v>1.75</v>
       </c>
       <c r="AS122" t="n">
-        <v>1.57</v>
+        <v>1.5</v>
       </c>
       <c r="AT122" t="n">
         <v>1.13</v>
@@ -25669,7 +25669,7 @@
         <v>1.25</v>
       </c>
       <c r="AT124" t="n">
-        <v>0.88</v>
+        <v>0.89</v>
       </c>
       <c r="AU124" t="n">
         <v>1.76</v>
@@ -26275,7 +26275,7 @@
         <v>1</v>
       </c>
       <c r="AS127" t="n">
-        <v>1.25</v>
+        <v>1.11</v>
       </c>
       <c r="AT127" t="n">
         <v>0.44</v>
@@ -26481,7 +26481,7 @@
         <v>1.44</v>
       </c>
       <c r="AT128" t="n">
-        <v>1</v>
+        <v>0.88</v>
       </c>
       <c r="AU128" t="n">
         <v>1.47</v>
@@ -26681,7 +26681,7 @@
         <v>0.8</v>
       </c>
       <c r="AS129" t="n">
-        <v>2.29</v>
+        <v>2.38</v>
       </c>
       <c r="AT129" t="n">
         <v>0.44</v>
@@ -26887,7 +26887,7 @@
         <v>1.33</v>
       </c>
       <c r="AT130" t="n">
-        <v>0.71</v>
+        <v>0.63</v>
       </c>
       <c r="AU130" t="n">
         <v>1.37</v>
@@ -28508,7 +28508,7 @@
         <v>1.4</v>
       </c>
       <c r="AS138" t="n">
-        <v>1.71</v>
+        <v>1.88</v>
       </c>
       <c r="AT138" t="n">
         <v>1.11</v>
@@ -29523,10 +29523,10 @@
         <v>0.6</v>
       </c>
       <c r="AS143" t="n">
-        <v>2</v>
+        <v>1.75</v>
       </c>
       <c r="AT143" t="n">
-        <v>0.5</v>
+        <v>0.78</v>
       </c>
       <c r="AU143" t="n">
         <v>1.86</v>
@@ -29932,7 +29932,7 @@
         <v>1.11</v>
       </c>
       <c r="AT145" t="n">
-        <v>2</v>
+        <v>1.75</v>
       </c>
       <c r="AU145" t="n">
         <v>1.78</v>
@@ -30132,7 +30132,7 @@
         <v>1.4</v>
       </c>
       <c r="AS146" t="n">
-        <v>1.25</v>
+        <v>1.11</v>
       </c>
       <c r="AT146" t="n">
         <v>1.13</v>
@@ -30335,10 +30335,10 @@
         <v>1.5</v>
       </c>
       <c r="AS147" t="n">
-        <v>2.5</v>
+        <v>2.56</v>
       </c>
       <c r="AT147" t="n">
-        <v>1</v>
+        <v>1.25</v>
       </c>
       <c r="AU147" t="n">
         <v>1.55</v>
@@ -30744,7 +30744,7 @@
         <v>1.38</v>
       </c>
       <c r="AT149" t="n">
-        <v>0.75</v>
+        <v>0.67</v>
       </c>
       <c r="AU149" t="n">
         <v>1.77</v>
@@ -30944,10 +30944,10 @@
         <v>0.6</v>
       </c>
       <c r="AS150" t="n">
-        <v>1.75</v>
+        <v>1.89</v>
       </c>
       <c r="AT150" t="n">
-        <v>0.88</v>
+        <v>0.89</v>
       </c>
       <c r="AU150" t="n">
         <v>1.74</v>
@@ -31147,10 +31147,10 @@
         <v>1.4</v>
       </c>
       <c r="AS151" t="n">
-        <v>2.5</v>
+        <v>2.56</v>
       </c>
       <c r="AT151" t="n">
-        <v>1</v>
+        <v>0.89</v>
       </c>
       <c r="AU151" t="n">
         <v>1.65</v>
@@ -31350,7 +31350,7 @@
         <v>0.6</v>
       </c>
       <c r="AS152" t="n">
-        <v>1</v>
+        <v>1.25</v>
       </c>
       <c r="AT152" t="n">
         <v>1.22</v>
@@ -31759,7 +31759,7 @@
         <v>2.57</v>
       </c>
       <c r="AT154" t="n">
-        <v>0.88</v>
+        <v>0.78</v>
       </c>
       <c r="AU154" t="n">
         <v>1.74</v>
@@ -31959,7 +31959,7 @@
         <v>1.2</v>
       </c>
       <c r="AS155" t="n">
-        <v>1.57</v>
+        <v>1.5</v>
       </c>
       <c r="AT155" t="n">
         <v>1.33</v>
@@ -32165,7 +32165,7 @@
         <v>1.67</v>
       </c>
       <c r="AT156" t="n">
-        <v>1</v>
+        <v>0.88</v>
       </c>
       <c r="AU156" t="n">
         <v>1.39</v>
@@ -34801,7 +34801,7 @@
         <v>1.33</v>
       </c>
       <c r="AS169" t="n">
-        <v>1.71</v>
+        <v>1.88</v>
       </c>
       <c r="AT169" t="n">
         <v>1.13</v>
@@ -35207,7 +35207,7 @@
         <v>1</v>
       </c>
       <c r="AS171" t="n">
-        <v>2.29</v>
+        <v>2.38</v>
       </c>
       <c r="AT171" t="n">
         <v>1.33</v>
@@ -35410,10 +35410,10 @@
         <v>0.5</v>
       </c>
       <c r="AS172" t="n">
-        <v>1</v>
+        <v>1.25</v>
       </c>
       <c r="AT172" t="n">
-        <v>0.5</v>
+        <v>0.78</v>
       </c>
       <c r="AU172" t="n">
         <v>1.13</v>
@@ -35616,7 +35616,7 @@
         <v>2</v>
       </c>
       <c r="AT173" t="n">
-        <v>0.75</v>
+        <v>0.67</v>
       </c>
       <c r="AU173" t="n">
         <v>1.19</v>
@@ -35816,7 +35816,7 @@
         <v>1</v>
       </c>
       <c r="AS174" t="n">
-        <v>1.25</v>
+        <v>1.11</v>
       </c>
       <c r="AT174" t="n">
         <v>1.22</v>
@@ -36019,7 +36019,7 @@
         <v>1.4</v>
       </c>
       <c r="AS175" t="n">
-        <v>2.5</v>
+        <v>2.56</v>
       </c>
       <c r="AT175" t="n">
         <v>1</v>
@@ -36222,10 +36222,10 @@
         <v>1.2</v>
       </c>
       <c r="AS176" t="n">
-        <v>2.5</v>
+        <v>2.56</v>
       </c>
       <c r="AT176" t="n">
-        <v>1</v>
+        <v>1.25</v>
       </c>
       <c r="AU176" t="n">
         <v>1.54</v>
@@ -36428,7 +36428,7 @@
         <v>1.44</v>
       </c>
       <c r="AT177" t="n">
-        <v>0.71</v>
+        <v>0.63</v>
       </c>
       <c r="AU177" t="n">
         <v>1.42</v>
@@ -36628,7 +36628,7 @@
         <v>2.2</v>
       </c>
       <c r="AS178" t="n">
-        <v>1.75</v>
+        <v>1.89</v>
       </c>
       <c r="AT178" t="n">
         <v>2</v>
@@ -36834,7 +36834,7 @@
         <v>2.57</v>
       </c>
       <c r="AT179" t="n">
-        <v>1</v>
+        <v>0.89</v>
       </c>
       <c r="AU179" t="n">
         <v>1.8</v>
@@ -37037,7 +37037,7 @@
         <v>1.33</v>
       </c>
       <c r="AT180" t="n">
-        <v>2</v>
+        <v>1.75</v>
       </c>
       <c r="AU180" t="n">
         <v>0.85</v>
@@ -37240,7 +37240,7 @@
         <v>1.38</v>
       </c>
       <c r="AT181" t="n">
-        <v>0.88</v>
+        <v>0.89</v>
       </c>
       <c r="AU181" t="n">
         <v>1.71</v>
@@ -37440,10 +37440,10 @@
         <v>0.17</v>
       </c>
       <c r="AS182" t="n">
-        <v>2</v>
+        <v>1.75</v>
       </c>
       <c r="AT182" t="n">
-        <v>0.88</v>
+        <v>0.78</v>
       </c>
       <c r="AU182" t="n">
         <v>1.88</v>
@@ -37643,7 +37643,7 @@
         <v>0.83</v>
       </c>
       <c r="AS183" t="n">
-        <v>1.57</v>
+        <v>1.5</v>
       </c>
       <c r="AT183" t="n">
         <v>0.63</v>
@@ -40488,7 +40488,7 @@
         <v>1.33</v>
       </c>
       <c r="AT197" t="n">
-        <v>1</v>
+        <v>0.88</v>
       </c>
       <c r="AU197" t="n">
         <v>0.86</v>
@@ -40688,10 +40688,10 @@
         <v>0.43</v>
       </c>
       <c r="AS198" t="n">
-        <v>1.71</v>
+        <v>1.88</v>
       </c>
       <c r="AT198" t="n">
-        <v>0.5</v>
+        <v>0.78</v>
       </c>
       <c r="AU198" t="n">
         <v>1.41</v>
@@ -40891,7 +40891,7 @@
         <v>0.71</v>
       </c>
       <c r="AS199" t="n">
-        <v>2.29</v>
+        <v>2.38</v>
       </c>
       <c r="AT199" t="n">
         <v>0.63</v>
@@ -41097,7 +41097,7 @@
         <v>2</v>
       </c>
       <c r="AT200" t="n">
-        <v>0.88</v>
+        <v>0.89</v>
       </c>
       <c r="AU200" t="n">
         <v>1.17</v>
@@ -41300,7 +41300,7 @@
         <v>1.25</v>
       </c>
       <c r="AT201" t="n">
-        <v>0.71</v>
+        <v>0.63</v>
       </c>
       <c r="AU201" t="n">
         <v>1.64</v>
@@ -41500,10 +41500,10 @@
         <v>1</v>
       </c>
       <c r="AS202" t="n">
-        <v>2</v>
+        <v>1.75</v>
       </c>
       <c r="AT202" t="n">
-        <v>1</v>
+        <v>0.89</v>
       </c>
       <c r="AU202" t="n">
         <v>1.92</v>
@@ -41703,7 +41703,7 @@
         <v>1.17</v>
       </c>
       <c r="AS203" t="n">
-        <v>2.5</v>
+        <v>2.56</v>
       </c>
       <c r="AT203" t="n">
         <v>1</v>
@@ -41909,7 +41909,7 @@
         <v>2.57</v>
       </c>
       <c r="AT204" t="n">
-        <v>1</v>
+        <v>1.25</v>
       </c>
       <c r="AU204" t="n">
         <v>1.86</v>
@@ -42109,10 +42109,10 @@
         <v>0.71</v>
       </c>
       <c r="AS205" t="n">
-        <v>1.57</v>
+        <v>1.5</v>
       </c>
       <c r="AT205" t="n">
-        <v>0.75</v>
+        <v>0.67</v>
       </c>
       <c r="AU205" t="n">
         <v>1.66</v>
@@ -42312,7 +42312,7 @@
         <v>0.83</v>
       </c>
       <c r="AS206" t="n">
-        <v>1.75</v>
+        <v>1.89</v>
       </c>
       <c r="AT206" t="n">
         <v>0.71</v>
@@ -42515,10 +42515,10 @@
         <v>0.57</v>
       </c>
       <c r="AS207" t="n">
-        <v>1</v>
+        <v>1.25</v>
       </c>
       <c r="AT207" t="n">
-        <v>0.88</v>
+        <v>0.78</v>
       </c>
       <c r="AU207" t="n">
         <v>1.15</v>
@@ -42718,10 +42718,10 @@
         <v>2.17</v>
       </c>
       <c r="AS208" t="n">
-        <v>2.5</v>
+        <v>2.56</v>
       </c>
       <c r="AT208" t="n">
-        <v>2</v>
+        <v>1.75</v>
       </c>
       <c r="AU208" t="n">
         <v>1.4</v>
@@ -43124,7 +43124,7 @@
         <v>0.86</v>
       </c>
       <c r="AS210" t="n">
-        <v>1.25</v>
+        <v>1.11</v>
       </c>
       <c r="AT210" t="n">
         <v>1.33</v>
@@ -46021,6 +46021,1833 @@
       </c>
       <c r="BK224" t="n">
         <v>8</v>
+      </c>
+    </row>
+    <row r="225">
+      <c r="A225" s="1" t="n">
+        <v>224</v>
+      </c>
+      <c r="B225" t="n">
+        <v>4554632</v>
+      </c>
+      <c r="C225" t="inlineStr">
+        <is>
+          <t>Argentina Primera División</t>
+        </is>
+      </c>
+      <c r="D225" t="inlineStr">
+        <is>
+          <t>2023</t>
+        </is>
+      </c>
+      <c r="E225" s="2" t="n">
+        <v>45064.875</v>
+      </c>
+      <c r="F225" t="n">
+        <v>17</v>
+      </c>
+      <c r="G225" t="inlineStr">
+        <is>
+          <t>Arsenal de Sarandí</t>
+        </is>
+      </c>
+      <c r="H225" t="inlineStr">
+        <is>
+          <t>Independiente</t>
+        </is>
+      </c>
+      <c r="I225" t="n">
+        <v>1</v>
+      </c>
+      <c r="J225" t="n">
+        <v>0</v>
+      </c>
+      <c r="K225" t="n">
+        <v>1</v>
+      </c>
+      <c r="L225" t="n">
+        <v>2</v>
+      </c>
+      <c r="M225" t="n">
+        <v>1</v>
+      </c>
+      <c r="N225" t="n">
+        <v>3</v>
+      </c>
+      <c r="O225" t="inlineStr">
+        <is>
+          <t>['8', '63']</t>
+        </is>
+      </c>
+      <c r="P225" t="inlineStr">
+        <is>
+          <t>['77']</t>
+        </is>
+      </c>
+      <c r="Q225" t="n">
+        <v>3</v>
+      </c>
+      <c r="R225" t="n">
+        <v>3</v>
+      </c>
+      <c r="S225" t="n">
+        <v>6</v>
+      </c>
+      <c r="T225" t="n">
+        <v>3.75</v>
+      </c>
+      <c r="U225" t="n">
+        <v>1.95</v>
+      </c>
+      <c r="V225" t="n">
+        <v>3.3</v>
+      </c>
+      <c r="W225" t="n">
+        <v>1.52</v>
+      </c>
+      <c r="X225" t="n">
+        <v>2.4</v>
+      </c>
+      <c r="Y225" t="n">
+        <v>3.6</v>
+      </c>
+      <c r="Z225" t="n">
+        <v>1.25</v>
+      </c>
+      <c r="AA225" t="n">
+        <v>9.85</v>
+      </c>
+      <c r="AB225" t="n">
+        <v>1.03</v>
+      </c>
+      <c r="AC225" t="n">
+        <v>3.2</v>
+      </c>
+      <c r="AD225" t="n">
+        <v>3.1</v>
+      </c>
+      <c r="AE225" t="n">
+        <v>2.3</v>
+      </c>
+      <c r="AF225" t="n">
+        <v>1.1</v>
+      </c>
+      <c r="AG225" t="n">
+        <v>7.5</v>
+      </c>
+      <c r="AH225" t="n">
+        <v>1.5</v>
+      </c>
+      <c r="AI225" t="n">
+        <v>2.6</v>
+      </c>
+      <c r="AJ225" t="n">
+        <v>2.3</v>
+      </c>
+      <c r="AK225" t="n">
+        <v>1.55</v>
+      </c>
+      <c r="AL225" t="n">
+        <v>2.05</v>
+      </c>
+      <c r="AM225" t="n">
+        <v>1.72</v>
+      </c>
+      <c r="AN225" t="n">
+        <v>1.57</v>
+      </c>
+      <c r="AO225" t="n">
+        <v>1.3</v>
+      </c>
+      <c r="AP225" t="n">
+        <v>1.38</v>
+      </c>
+      <c r="AQ225" t="n">
+        <v>1</v>
+      </c>
+      <c r="AR225" t="n">
+        <v>1</v>
+      </c>
+      <c r="AS225" t="n">
+        <v>1.25</v>
+      </c>
+      <c r="AT225" t="n">
+        <v>0.89</v>
+      </c>
+      <c r="AU225" t="n">
+        <v>1.15</v>
+      </c>
+      <c r="AV225" t="n">
+        <v>1.06</v>
+      </c>
+      <c r="AW225" t="n">
+        <v>2.21</v>
+      </c>
+      <c r="AX225" t="n">
+        <v>2.05</v>
+      </c>
+      <c r="AY225" t="n">
+        <v>7.5</v>
+      </c>
+      <c r="AZ225" t="n">
+        <v>2.05</v>
+      </c>
+      <c r="BA225" t="n">
+        <v>1.34</v>
+      </c>
+      <c r="BB225" t="n">
+        <v>1.63</v>
+      </c>
+      <c r="BC225" t="n">
+        <v>2.1</v>
+      </c>
+      <c r="BD225" t="n">
+        <v>2.6</v>
+      </c>
+      <c r="BE225" t="n">
+        <v>3.56</v>
+      </c>
+      <c r="BF225" t="n">
+        <v>6</v>
+      </c>
+      <c r="BG225" t="n">
+        <v>5</v>
+      </c>
+      <c r="BH225" t="n">
+        <v>2</v>
+      </c>
+      <c r="BI225" t="n">
+        <v>7</v>
+      </c>
+      <c r="BJ225" t="n">
+        <v>8</v>
+      </c>
+      <c r="BK225" t="n">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="226">
+      <c r="A226" s="1" t="n">
+        <v>225</v>
+      </c>
+      <c r="B226" t="n">
+        <v>4554630</v>
+      </c>
+      <c r="C226" t="inlineStr">
+        <is>
+          <t>Argentina Primera División</t>
+        </is>
+      </c>
+      <c r="D226" t="inlineStr">
+        <is>
+          <t>2023</t>
+        </is>
+      </c>
+      <c r="E226" s="2" t="n">
+        <v>45065.64583333334</v>
+      </c>
+      <c r="F226" t="n">
+        <v>17</v>
+      </c>
+      <c r="G226" t="inlineStr">
+        <is>
+          <t>Godoy Cruz</t>
+        </is>
+      </c>
+      <c r="H226" t="inlineStr">
+        <is>
+          <t>Gimnasia La Plata</t>
+        </is>
+      </c>
+      <c r="I226" t="n">
+        <v>1</v>
+      </c>
+      <c r="J226" t="n">
+        <v>0</v>
+      </c>
+      <c r="K226" t="n">
+        <v>1</v>
+      </c>
+      <c r="L226" t="n">
+        <v>2</v>
+      </c>
+      <c r="M226" t="n">
+        <v>0</v>
+      </c>
+      <c r="N226" t="n">
+        <v>2</v>
+      </c>
+      <c r="O226" t="inlineStr">
+        <is>
+          <t>['31', '90+3']</t>
+        </is>
+      </c>
+      <c r="P226" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="Q226" t="n">
+        <v>9</v>
+      </c>
+      <c r="R226" t="n">
+        <v>2</v>
+      </c>
+      <c r="S226" t="n">
+        <v>11</v>
+      </c>
+      <c r="T226" t="n">
+        <v>2.65</v>
+      </c>
+      <c r="U226" t="n">
+        <v>2</v>
+      </c>
+      <c r="V226" t="n">
+        <v>4.75</v>
+      </c>
+      <c r="W226" t="n">
+        <v>1.47</v>
+      </c>
+      <c r="X226" t="n">
+        <v>2.5</v>
+      </c>
+      <c r="Y226" t="n">
+        <v>3.25</v>
+      </c>
+      <c r="Z226" t="n">
+        <v>1.3</v>
+      </c>
+      <c r="AA226" t="n">
+        <v>9.300000000000001</v>
+      </c>
+      <c r="AB226" t="n">
+        <v>1.03</v>
+      </c>
+      <c r="AC226" t="n">
+        <v>1.96</v>
+      </c>
+      <c r="AD226" t="n">
+        <v>3.42</v>
+      </c>
+      <c r="AE226" t="n">
+        <v>3.96</v>
+      </c>
+      <c r="AF226" t="n">
+        <v>1.08</v>
+      </c>
+      <c r="AG226" t="n">
+        <v>8.75</v>
+      </c>
+      <c r="AH226" t="n">
+        <v>1.44</v>
+      </c>
+      <c r="AI226" t="n">
+        <v>2.75</v>
+      </c>
+      <c r="AJ226" t="n">
+        <v>2.19</v>
+      </c>
+      <c r="AK226" t="n">
+        <v>1.58</v>
+      </c>
+      <c r="AL226" t="n">
+        <v>2.05</v>
+      </c>
+      <c r="AM226" t="n">
+        <v>1.72</v>
+      </c>
+      <c r="AN226" t="n">
+        <v>1.28</v>
+      </c>
+      <c r="AO226" t="n">
+        <v>1.25</v>
+      </c>
+      <c r="AP226" t="n">
+        <v>1.87</v>
+      </c>
+      <c r="AQ226" t="n">
+        <v>1.71</v>
+      </c>
+      <c r="AR226" t="n">
+        <v>0.88</v>
+      </c>
+      <c r="AS226" t="n">
+        <v>1.88</v>
+      </c>
+      <c r="AT226" t="n">
+        <v>0.78</v>
+      </c>
+      <c r="AU226" t="n">
+        <v>1.51</v>
+      </c>
+      <c r="AV226" t="n">
+        <v>1.34</v>
+      </c>
+      <c r="AW226" t="n">
+        <v>2.85</v>
+      </c>
+      <c r="AX226" t="n">
+        <v>1.55</v>
+      </c>
+      <c r="AY226" t="n">
+        <v>9</v>
+      </c>
+      <c r="AZ226" t="n">
+        <v>2.9</v>
+      </c>
+      <c r="BA226" t="n">
+        <v>1.12</v>
+      </c>
+      <c r="BB226" t="n">
+        <v>1.22</v>
+      </c>
+      <c r="BC226" t="n">
+        <v>1.41</v>
+      </c>
+      <c r="BD226" t="n">
+        <v>1.71</v>
+      </c>
+      <c r="BE226" t="n">
+        <v>2.2</v>
+      </c>
+      <c r="BF226" t="n">
+        <v>6</v>
+      </c>
+      <c r="BG226" t="n">
+        <v>2</v>
+      </c>
+      <c r="BH226" t="n">
+        <v>13</v>
+      </c>
+      <c r="BI226" t="n">
+        <v>6</v>
+      </c>
+      <c r="BJ226" t="n">
+        <v>19</v>
+      </c>
+      <c r="BK226" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="227">
+      <c r="A227" s="1" t="n">
+        <v>226</v>
+      </c>
+      <c r="B227" t="n">
+        <v>4554638</v>
+      </c>
+      <c r="C227" t="inlineStr">
+        <is>
+          <t>Argentina Primera División</t>
+        </is>
+      </c>
+      <c r="D227" t="inlineStr">
+        <is>
+          <t>2023</t>
+        </is>
+      </c>
+      <c r="E227" s="2" t="n">
+        <v>45065.79166666666</v>
+      </c>
+      <c r="F227" t="n">
+        <v>17</v>
+      </c>
+      <c r="G227" t="inlineStr">
+        <is>
+          <t>Rosario Central</t>
+        </is>
+      </c>
+      <c r="H227" t="inlineStr">
+        <is>
+          <t>Defensa y Justicia</t>
+        </is>
+      </c>
+      <c r="I227" t="n">
+        <v>1</v>
+      </c>
+      <c r="J227" t="n">
+        <v>1</v>
+      </c>
+      <c r="K227" t="n">
+        <v>2</v>
+      </c>
+      <c r="L227" t="n">
+        <v>2</v>
+      </c>
+      <c r="M227" t="n">
+        <v>1</v>
+      </c>
+      <c r="N227" t="n">
+        <v>3</v>
+      </c>
+      <c r="O227" t="inlineStr">
+        <is>
+          <t>['13', '55']</t>
+        </is>
+      </c>
+      <c r="P227" t="inlineStr">
+        <is>
+          <t>['10']</t>
+        </is>
+      </c>
+      <c r="Q227" t="n">
+        <v>6</v>
+      </c>
+      <c r="R227" t="n">
+        <v>5</v>
+      </c>
+      <c r="S227" t="n">
+        <v>11</v>
+      </c>
+      <c r="T227" t="n">
+        <v>3.2</v>
+      </c>
+      <c r="U227" t="n">
+        <v>1.95</v>
+      </c>
+      <c r="V227" t="n">
+        <v>4</v>
+      </c>
+      <c r="W227" t="n">
+        <v>1.54</v>
+      </c>
+      <c r="X227" t="n">
+        <v>2.35</v>
+      </c>
+      <c r="Y227" t="n">
+        <v>3.6</v>
+      </c>
+      <c r="Z227" t="n">
+        <v>1.25</v>
+      </c>
+      <c r="AA227" t="n">
+        <v>9.85</v>
+      </c>
+      <c r="AB227" t="n">
+        <v>1.03</v>
+      </c>
+      <c r="AC227" t="n">
+        <v>2.36</v>
+      </c>
+      <c r="AD227" t="n">
+        <v>3.14</v>
+      </c>
+      <c r="AE227" t="n">
+        <v>3.22</v>
+      </c>
+      <c r="AF227" t="n">
+        <v>1.09</v>
+      </c>
+      <c r="AG227" t="n">
+        <v>7.5</v>
+      </c>
+      <c r="AH227" t="n">
+        <v>1.45</v>
+      </c>
+      <c r="AI227" t="n">
+        <v>2.55</v>
+      </c>
+      <c r="AJ227" t="n">
+        <v>2.39</v>
+      </c>
+      <c r="AK227" t="n">
+        <v>1.49</v>
+      </c>
+      <c r="AL227" t="n">
+        <v>2.08</v>
+      </c>
+      <c r="AM227" t="n">
+        <v>1.71</v>
+      </c>
+      <c r="AN227" t="n">
+        <v>1.33</v>
+      </c>
+      <c r="AO227" t="n">
+        <v>1.33</v>
+      </c>
+      <c r="AP227" t="n">
+        <v>1.6</v>
+      </c>
+      <c r="AQ227" t="n">
+        <v>2.5</v>
+      </c>
+      <c r="AR227" t="n">
+        <v>2</v>
+      </c>
+      <c r="AS227" t="n">
+        <v>2.56</v>
+      </c>
+      <c r="AT227" t="n">
+        <v>1.75</v>
+      </c>
+      <c r="AU227" t="n">
+        <v>1.49</v>
+      </c>
+      <c r="AV227" t="n">
+        <v>1.34</v>
+      </c>
+      <c r="AW227" t="n">
+        <v>2.83</v>
+      </c>
+      <c r="AX227" t="n">
+        <v>1.37</v>
+      </c>
+      <c r="AY227" t="n">
+        <v>8.5</v>
+      </c>
+      <c r="AZ227" t="n">
+        <v>3.85</v>
+      </c>
+      <c r="BA227" t="n">
+        <v>1.12</v>
+      </c>
+      <c r="BB227" t="n">
+        <v>1.23</v>
+      </c>
+      <c r="BC227" t="n">
+        <v>1.42</v>
+      </c>
+      <c r="BD227" t="n">
+        <v>1.73</v>
+      </c>
+      <c r="BE227" t="n">
+        <v>2.18</v>
+      </c>
+      <c r="BF227" t="n">
+        <v>8</v>
+      </c>
+      <c r="BG227" t="n">
+        <v>8</v>
+      </c>
+      <c r="BH227" t="n">
+        <v>18</v>
+      </c>
+      <c r="BI227" t="n">
+        <v>11</v>
+      </c>
+      <c r="BJ227" t="n">
+        <v>26</v>
+      </c>
+      <c r="BK227" t="n">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="228">
+      <c r="A228" s="1" t="n">
+        <v>227</v>
+      </c>
+      <c r="B228" t="n">
+        <v>4554639</v>
+      </c>
+      <c r="C228" t="inlineStr">
+        <is>
+          <t>Argentina Primera División</t>
+        </is>
+      </c>
+      <c r="D228" t="inlineStr">
+        <is>
+          <t>2023</t>
+        </is>
+      </c>
+      <c r="E228" s="2" t="n">
+        <v>45065.79166666666</v>
+      </c>
+      <c r="F228" t="n">
+        <v>17</v>
+      </c>
+      <c r="G228" t="inlineStr">
+        <is>
+          <t>Estudiantes</t>
+        </is>
+      </c>
+      <c r="H228" t="inlineStr">
+        <is>
+          <t>Banfield</t>
+        </is>
+      </c>
+      <c r="I228" t="n">
+        <v>0</v>
+      </c>
+      <c r="J228" t="n">
+        <v>0</v>
+      </c>
+      <c r="K228" t="n">
+        <v>0</v>
+      </c>
+      <c r="L228" t="n">
+        <v>1</v>
+      </c>
+      <c r="M228" t="n">
+        <v>0</v>
+      </c>
+      <c r="N228" t="n">
+        <v>1</v>
+      </c>
+      <c r="O228" t="inlineStr">
+        <is>
+          <t>['52']</t>
+        </is>
+      </c>
+      <c r="P228" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="Q228" t="n">
+        <v>3</v>
+      </c>
+      <c r="R228" t="n">
+        <v>7</v>
+      </c>
+      <c r="S228" t="n">
+        <v>10</v>
+      </c>
+      <c r="T228" t="n">
+        <v>2.45</v>
+      </c>
+      <c r="U228" t="n">
+        <v>1.95</v>
+      </c>
+      <c r="V228" t="n">
+        <v>5.25</v>
+      </c>
+      <c r="W228" t="n">
+        <v>1.55</v>
+      </c>
+      <c r="X228" t="n">
+        <v>2.3</v>
+      </c>
+      <c r="Y228" t="n">
+        <v>3.5</v>
+      </c>
+      <c r="Z228" t="n">
+        <v>1.25</v>
+      </c>
+      <c r="AA228" t="n">
+        <v>12</v>
+      </c>
+      <c r="AB228" t="n">
+        <v>1.04</v>
+      </c>
+      <c r="AC228" t="n">
+        <v>1.81</v>
+      </c>
+      <c r="AD228" t="n">
+        <v>3.25</v>
+      </c>
+      <c r="AE228" t="n">
+        <v>4.37</v>
+      </c>
+      <c r="AF228" t="n">
+        <v>1.09</v>
+      </c>
+      <c r="AG228" t="n">
+        <v>7.25</v>
+      </c>
+      <c r="AH228" t="n">
+        <v>1.48</v>
+      </c>
+      <c r="AI228" t="n">
+        <v>2.45</v>
+      </c>
+      <c r="AJ228" t="n">
+        <v>2.45</v>
+      </c>
+      <c r="AK228" t="n">
+        <v>1.48</v>
+      </c>
+      <c r="AL228" t="n">
+        <v>2.27</v>
+      </c>
+      <c r="AM228" t="n">
+        <v>1.6</v>
+      </c>
+      <c r="AN228" t="n">
+        <v>1.18</v>
+      </c>
+      <c r="AO228" t="n">
+        <v>1.27</v>
+      </c>
+      <c r="AP228" t="n">
+        <v>1.9</v>
+      </c>
+      <c r="AQ228" t="n">
+        <v>1.75</v>
+      </c>
+      <c r="AR228" t="n">
+        <v>0.71</v>
+      </c>
+      <c r="AS228" t="n">
+        <v>1.89</v>
+      </c>
+      <c r="AT228" t="n">
+        <v>0.63</v>
+      </c>
+      <c r="AU228" t="n">
+        <v>1.56</v>
+      </c>
+      <c r="AV228" t="n">
+        <v>1.33</v>
+      </c>
+      <c r="AW228" t="n">
+        <v>2.89</v>
+      </c>
+      <c r="AX228" t="n">
+        <v>1.41</v>
+      </c>
+      <c r="AY228" t="n">
+        <v>8.5</v>
+      </c>
+      <c r="AZ228" t="n">
+        <v>3.66</v>
+      </c>
+      <c r="BA228" t="n">
+        <v>1.36</v>
+      </c>
+      <c r="BB228" t="n">
+        <v>1.67</v>
+      </c>
+      <c r="BC228" t="n">
+        <v>2.15</v>
+      </c>
+      <c r="BD228" t="n">
+        <v>2.95</v>
+      </c>
+      <c r="BE228" t="n">
+        <v>4.1</v>
+      </c>
+      <c r="BF228" t="n">
+        <v>4</v>
+      </c>
+      <c r="BG228" t="n">
+        <v>3</v>
+      </c>
+      <c r="BH228" t="n">
+        <v>4</v>
+      </c>
+      <c r="BI228" t="n">
+        <v>1</v>
+      </c>
+      <c r="BJ228" t="n">
+        <v>8</v>
+      </c>
+      <c r="BK228" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="229">
+      <c r="A229" s="1" t="n">
+        <v>228</v>
+      </c>
+      <c r="B229" t="n">
+        <v>4554629</v>
+      </c>
+      <c r="C229" t="inlineStr">
+        <is>
+          <t>Argentina Primera División</t>
+        </is>
+      </c>
+      <c r="D229" t="inlineStr">
+        <is>
+          <t>2023</t>
+        </is>
+      </c>
+      <c r="E229" s="2" t="n">
+        <v>45065.79166666666</v>
+      </c>
+      <c r="F229" t="n">
+        <v>17</v>
+      </c>
+      <c r="G229" t="inlineStr">
+        <is>
+          <t>Central Córdoba SdE</t>
+        </is>
+      </c>
+      <c r="H229" t="inlineStr">
+        <is>
+          <t>Unión Santa Fe</t>
+        </is>
+      </c>
+      <c r="I229" t="n">
+        <v>0</v>
+      </c>
+      <c r="J229" t="n">
+        <v>0</v>
+      </c>
+      <c r="K229" t="n">
+        <v>0</v>
+      </c>
+      <c r="L229" t="n">
+        <v>0</v>
+      </c>
+      <c r="M229" t="n">
+        <v>1</v>
+      </c>
+      <c r="N229" t="n">
+        <v>1</v>
+      </c>
+      <c r="O229" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="P229" t="inlineStr">
+        <is>
+          <t>['87']</t>
+        </is>
+      </c>
+      <c r="Q229" t="n">
+        <v>7</v>
+      </c>
+      <c r="R229" t="n">
+        <v>2</v>
+      </c>
+      <c r="S229" t="n">
+        <v>9</v>
+      </c>
+      <c r="T229" t="n">
+        <v>3.22</v>
+      </c>
+      <c r="U229" t="n">
+        <v>1.95</v>
+      </c>
+      <c r="V229" t="n">
+        <v>3.82</v>
+      </c>
+      <c r="W229" t="n">
+        <v>1.52</v>
+      </c>
+      <c r="X229" t="n">
+        <v>2.44</v>
+      </c>
+      <c r="Y229" t="n">
+        <v>3.44</v>
+      </c>
+      <c r="Z229" t="n">
+        <v>1.29</v>
+      </c>
+      <c r="AA229" t="n">
+        <v>9.4</v>
+      </c>
+      <c r="AB229" t="n">
+        <v>1.04</v>
+      </c>
+      <c r="AC229" t="n">
+        <v>2.51</v>
+      </c>
+      <c r="AD229" t="n">
+        <v>3.14</v>
+      </c>
+      <c r="AE229" t="n">
+        <v>2.96</v>
+      </c>
+      <c r="AF229" t="n">
+        <v>1.1</v>
+      </c>
+      <c r="AG229" t="n">
+        <v>6.5</v>
+      </c>
+      <c r="AH229" t="n">
+        <v>1.44</v>
+      </c>
+      <c r="AI229" t="n">
+        <v>2.62</v>
+      </c>
+      <c r="AJ229" t="n">
+        <v>2.3</v>
+      </c>
+      <c r="AK229" t="n">
+        <v>1.52</v>
+      </c>
+      <c r="AL229" t="n">
+        <v>2.02</v>
+      </c>
+      <c r="AM229" t="n">
+        <v>1.76</v>
+      </c>
+      <c r="AN229" t="n">
+        <v>1.42</v>
+      </c>
+      <c r="AO229" t="n">
+        <v>1.3</v>
+      </c>
+      <c r="AP229" t="n">
+        <v>1.53</v>
+      </c>
+      <c r="AQ229" t="n">
+        <v>1.25</v>
+      </c>
+      <c r="AR229" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="AS229" t="n">
+        <v>1.11</v>
+      </c>
+      <c r="AT229" t="n">
+        <v>0.78</v>
+      </c>
+      <c r="AU229" t="n">
+        <v>1.45</v>
+      </c>
+      <c r="AV229" t="n">
+        <v>1.12</v>
+      </c>
+      <c r="AW229" t="n">
+        <v>2.57</v>
+      </c>
+      <c r="AX229" t="n">
+        <v>2.44</v>
+      </c>
+      <c r="AY229" t="n">
+        <v>8</v>
+      </c>
+      <c r="AZ229" t="n">
+        <v>1.75</v>
+      </c>
+      <c r="BA229" t="n">
+        <v>1.23</v>
+      </c>
+      <c r="BB229" t="n">
+        <v>1.44</v>
+      </c>
+      <c r="BC229" t="n">
+        <v>1.83</v>
+      </c>
+      <c r="BD229" t="n">
+        <v>2.35</v>
+      </c>
+      <c r="BE229" t="n">
+        <v>3.25</v>
+      </c>
+      <c r="BF229" t="n">
+        <v>8</v>
+      </c>
+      <c r="BG229" t="n">
+        <v>4</v>
+      </c>
+      <c r="BH229" t="n">
+        <v>18</v>
+      </c>
+      <c r="BI229" t="n">
+        <v>7</v>
+      </c>
+      <c r="BJ229" t="n">
+        <v>26</v>
+      </c>
+      <c r="BK229" t="n">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="230">
+      <c r="A230" s="1" t="n">
+        <v>229</v>
+      </c>
+      <c r="B230" t="n">
+        <v>4554634</v>
+      </c>
+      <c r="C230" t="inlineStr">
+        <is>
+          <t>Argentina Primera División</t>
+        </is>
+      </c>
+      <c r="D230" t="inlineStr">
+        <is>
+          <t>2023</t>
+        </is>
+      </c>
+      <c r="E230" s="2" t="n">
+        <v>45065.89583333334</v>
+      </c>
+      <c r="F230" t="n">
+        <v>17</v>
+      </c>
+      <c r="G230" t="inlineStr">
+        <is>
+          <t>Argentinos Juniors</t>
+        </is>
+      </c>
+      <c r="H230" t="inlineStr">
+        <is>
+          <t>Boca Juniors</t>
+        </is>
+      </c>
+      <c r="I230" t="n">
+        <v>0</v>
+      </c>
+      <c r="J230" t="n">
+        <v>0</v>
+      </c>
+      <c r="K230" t="n">
+        <v>0</v>
+      </c>
+      <c r="L230" t="n">
+        <v>0</v>
+      </c>
+      <c r="M230" t="n">
+        <v>1</v>
+      </c>
+      <c r="N230" t="n">
+        <v>1</v>
+      </c>
+      <c r="O230" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="P230" t="inlineStr">
+        <is>
+          <t>['89']</t>
+        </is>
+      </c>
+      <c r="Q230" t="n">
+        <v>5</v>
+      </c>
+      <c r="R230" t="n">
+        <v>2</v>
+      </c>
+      <c r="S230" t="n">
+        <v>7</v>
+      </c>
+      <c r="T230" t="n">
+        <v>2.85</v>
+      </c>
+      <c r="U230" t="n">
+        <v>2</v>
+      </c>
+      <c r="V230" t="n">
+        <v>4.5</v>
+      </c>
+      <c r="W230" t="n">
+        <v>1.5</v>
+      </c>
+      <c r="X230" t="n">
+        <v>2.4</v>
+      </c>
+      <c r="Y230" t="n">
+        <v>3.45</v>
+      </c>
+      <c r="Z230" t="n">
+        <v>1.27</v>
+      </c>
+      <c r="AA230" t="n">
+        <v>9.4</v>
+      </c>
+      <c r="AB230" t="n">
+        <v>1.03</v>
+      </c>
+      <c r="AC230" t="n">
+        <v>2.05</v>
+      </c>
+      <c r="AD230" t="n">
+        <v>3.25</v>
+      </c>
+      <c r="AE230" t="n">
+        <v>3.75</v>
+      </c>
+      <c r="AF230" t="n">
+        <v>1.09</v>
+      </c>
+      <c r="AG230" t="n">
+        <v>8</v>
+      </c>
+      <c r="AH230" t="n">
+        <v>1.47</v>
+      </c>
+      <c r="AI230" t="n">
+        <v>2.7</v>
+      </c>
+      <c r="AJ230" t="n">
+        <v>2.4</v>
+      </c>
+      <c r="AK230" t="n">
+        <v>1.55</v>
+      </c>
+      <c r="AL230" t="n">
+        <v>2.05</v>
+      </c>
+      <c r="AM230" t="n">
+        <v>1.72</v>
+      </c>
+      <c r="AN230" t="n">
+        <v>1.25</v>
+      </c>
+      <c r="AO230" t="n">
+        <v>1.3</v>
+      </c>
+      <c r="AP230" t="n">
+        <v>1.75</v>
+      </c>
+      <c r="AQ230" t="n">
+        <v>2</v>
+      </c>
+      <c r="AR230" t="n">
+        <v>1</v>
+      </c>
+      <c r="AS230" t="n">
+        <v>1.75</v>
+      </c>
+      <c r="AT230" t="n">
+        <v>1.25</v>
+      </c>
+      <c r="AU230" t="n">
+        <v>1.95</v>
+      </c>
+      <c r="AV230" t="n">
+        <v>1.22</v>
+      </c>
+      <c r="AW230" t="n">
+        <v>3.17</v>
+      </c>
+      <c r="AX230" t="n">
+        <v>1.64</v>
+      </c>
+      <c r="AY230" t="n">
+        <v>7.5</v>
+      </c>
+      <c r="AZ230" t="n">
+        <v>2.78</v>
+      </c>
+      <c r="BA230" t="n">
+        <v>1.5</v>
+      </c>
+      <c r="BB230" t="n">
+        <v>1.98</v>
+      </c>
+      <c r="BC230" t="n">
+        <v>2.6</v>
+      </c>
+      <c r="BD230" t="n">
+        <v>3.65</v>
+      </c>
+      <c r="BE230" t="n">
+        <v>5.3</v>
+      </c>
+      <c r="BF230" t="n">
+        <v>2</v>
+      </c>
+      <c r="BG230" t="n">
+        <v>4</v>
+      </c>
+      <c r="BH230" t="n">
+        <v>20</v>
+      </c>
+      <c r="BI230" t="n">
+        <v>2</v>
+      </c>
+      <c r="BJ230" t="n">
+        <v>22</v>
+      </c>
+      <c r="BK230" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="231">
+      <c r="A231" s="1" t="n">
+        <v>230</v>
+      </c>
+      <c r="B231" t="n">
+        <v>5019516</v>
+      </c>
+      <c r="C231" t="inlineStr">
+        <is>
+          <t>Argentina Primera División</t>
+        </is>
+      </c>
+      <c r="D231" t="inlineStr">
+        <is>
+          <t>2023</t>
+        </is>
+      </c>
+      <c r="E231" s="2" t="n">
+        <v>45066.58333333334</v>
+      </c>
+      <c r="F231" t="n">
+        <v>17</v>
+      </c>
+      <c r="G231" t="inlineStr">
+        <is>
+          <t>San Lorenzo</t>
+        </is>
+      </c>
+      <c r="H231" t="inlineStr">
+        <is>
+          <t>Instituto</t>
+        </is>
+      </c>
+      <c r="I231" t="n">
+        <v>0</v>
+      </c>
+      <c r="J231" t="n">
+        <v>0</v>
+      </c>
+      <c r="K231" t="n">
+        <v>0</v>
+      </c>
+      <c r="L231" t="n">
+        <v>2</v>
+      </c>
+      <c r="M231" t="n">
+        <v>0</v>
+      </c>
+      <c r="N231" t="n">
+        <v>2</v>
+      </c>
+      <c r="O231" t="inlineStr">
+        <is>
+          <t>['71', '87']</t>
+        </is>
+      </c>
+      <c r="P231" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="Q231" t="n">
+        <v>7</v>
+      </c>
+      <c r="R231" t="n">
+        <v>0</v>
+      </c>
+      <c r="S231" t="n">
+        <v>7</v>
+      </c>
+      <c r="T231" t="n">
+        <v>2.8</v>
+      </c>
+      <c r="U231" t="n">
+        <v>1.83</v>
+      </c>
+      <c r="V231" t="n">
+        <v>4.6</v>
+      </c>
+      <c r="W231" t="n">
+        <v>1.61</v>
+      </c>
+      <c r="X231" t="n">
+        <v>2.15</v>
+      </c>
+      <c r="Y231" t="n">
+        <v>4</v>
+      </c>
+      <c r="Z231" t="n">
+        <v>1.21</v>
+      </c>
+      <c r="AA231" t="n">
+        <v>12.5</v>
+      </c>
+      <c r="AB231" t="n">
+        <v>1.03</v>
+      </c>
+      <c r="AC231" t="n">
+        <v>1.95</v>
+      </c>
+      <c r="AD231" t="n">
+        <v>3</v>
+      </c>
+      <c r="AE231" t="n">
+        <v>4.2</v>
+      </c>
+      <c r="AF231" t="n">
+        <v>1.12</v>
+      </c>
+      <c r="AG231" t="n">
+        <v>6</v>
+      </c>
+      <c r="AH231" t="n">
+        <v>1.62</v>
+      </c>
+      <c r="AI231" t="n">
+        <v>2.3</v>
+      </c>
+      <c r="AJ231" t="n">
+        <v>2.9</v>
+      </c>
+      <c r="AK231" t="n">
+        <v>1.4</v>
+      </c>
+      <c r="AL231" t="n">
+        <v>2.4</v>
+      </c>
+      <c r="AM231" t="n">
+        <v>1.5</v>
+      </c>
+      <c r="AN231" t="n">
+        <v>1.24</v>
+      </c>
+      <c r="AO231" t="n">
+        <v>1.35</v>
+      </c>
+      <c r="AP231" t="n">
+        <v>1.75</v>
+      </c>
+      <c r="AQ231" t="n">
+        <v>2.5</v>
+      </c>
+      <c r="AR231" t="n">
+        <v>1</v>
+      </c>
+      <c r="AS231" t="n">
+        <v>2.56</v>
+      </c>
+      <c r="AT231" t="n">
+        <v>0.88</v>
+      </c>
+      <c r="AU231" t="n">
+        <v>1.41</v>
+      </c>
+      <c r="AV231" t="n">
+        <v>1.36</v>
+      </c>
+      <c r="AW231" t="n">
+        <v>2.77</v>
+      </c>
+      <c r="AX231" t="n">
+        <v>1.69</v>
+      </c>
+      <c r="AY231" t="n">
+        <v>7.5</v>
+      </c>
+      <c r="AZ231" t="n">
+        <v>2.66</v>
+      </c>
+      <c r="BA231" t="n">
+        <v>1.48</v>
+      </c>
+      <c r="BB231" t="n">
+        <v>1.9</v>
+      </c>
+      <c r="BC231" t="n">
+        <v>2.5</v>
+      </c>
+      <c r="BD231" t="n">
+        <v>3.5</v>
+      </c>
+      <c r="BE231" t="n">
+        <v>5.1</v>
+      </c>
+      <c r="BF231" t="n">
+        <v>6</v>
+      </c>
+      <c r="BG231" t="n">
+        <v>2</v>
+      </c>
+      <c r="BH231" t="n">
+        <v>4</v>
+      </c>
+      <c r="BI231" t="n">
+        <v>4</v>
+      </c>
+      <c r="BJ231" t="n">
+        <v>10</v>
+      </c>
+      <c r="BK231" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="232">
+      <c r="A232" s="1" t="n">
+        <v>231</v>
+      </c>
+      <c r="B232" t="n">
+        <v>4554631</v>
+      </c>
+      <c r="C232" t="inlineStr">
+        <is>
+          <t>Argentina Primera División</t>
+        </is>
+      </c>
+      <c r="D232" t="inlineStr">
+        <is>
+          <t>2023</t>
+        </is>
+      </c>
+      <c r="E232" s="2" t="n">
+        <v>45066.89583333334</v>
+      </c>
+      <c r="F232" t="n">
+        <v>17</v>
+      </c>
+      <c r="G232" t="inlineStr">
+        <is>
+          <t>Lanús</t>
+        </is>
+      </c>
+      <c r="H232" t="inlineStr">
+        <is>
+          <t>Newell's Old Boys</t>
+        </is>
+      </c>
+      <c r="I232" t="n">
+        <v>1</v>
+      </c>
+      <c r="J232" t="n">
+        <v>0</v>
+      </c>
+      <c r="K232" t="n">
+        <v>1</v>
+      </c>
+      <c r="L232" t="n">
+        <v>1</v>
+      </c>
+      <c r="M232" t="n">
+        <v>0</v>
+      </c>
+      <c r="N232" t="n">
+        <v>1</v>
+      </c>
+      <c r="O232" t="inlineStr">
+        <is>
+          <t>['15']</t>
+        </is>
+      </c>
+      <c r="P232" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="Q232" t="n">
+        <v>10</v>
+      </c>
+      <c r="R232" t="n">
+        <v>3</v>
+      </c>
+      <c r="S232" t="n">
+        <v>13</v>
+      </c>
+      <c r="T232" t="n">
+        <v>3.2</v>
+      </c>
+      <c r="U232" t="n">
+        <v>1.91</v>
+      </c>
+      <c r="V232" t="n">
+        <v>4</v>
+      </c>
+      <c r="W232" t="n">
+        <v>1.57</v>
+      </c>
+      <c r="X232" t="n">
+        <v>2.25</v>
+      </c>
+      <c r="Y232" t="n">
+        <v>3.75</v>
+      </c>
+      <c r="Z232" t="n">
+        <v>1.25</v>
+      </c>
+      <c r="AA232" t="n">
+        <v>13</v>
+      </c>
+      <c r="AB232" t="n">
+        <v>1.04</v>
+      </c>
+      <c r="AC232" t="n">
+        <v>2.26</v>
+      </c>
+      <c r="AD232" t="n">
+        <v>3.1</v>
+      </c>
+      <c r="AE232" t="n">
+        <v>3.44</v>
+      </c>
+      <c r="AF232" t="n">
+        <v>1.09</v>
+      </c>
+      <c r="AG232" t="n">
+        <v>7.25</v>
+      </c>
+      <c r="AH232" t="n">
+        <v>1.5</v>
+      </c>
+      <c r="AI232" t="n">
+        <v>2.45</v>
+      </c>
+      <c r="AJ232" t="n">
+        <v>2.45</v>
+      </c>
+      <c r="AK232" t="n">
+        <v>1.48</v>
+      </c>
+      <c r="AL232" t="n">
+        <v>2.2</v>
+      </c>
+      <c r="AM232" t="n">
+        <v>1.62</v>
+      </c>
+      <c r="AN232" t="n">
+        <v>1.32</v>
+      </c>
+      <c r="AO232" t="n">
+        <v>1.32</v>
+      </c>
+      <c r="AP232" t="n">
+        <v>1.6</v>
+      </c>
+      <c r="AQ232" t="n">
+        <v>2.29</v>
+      </c>
+      <c r="AR232" t="n">
+        <v>0.75</v>
+      </c>
+      <c r="AS232" t="n">
+        <v>2.38</v>
+      </c>
+      <c r="AT232" t="n">
+        <v>0.67</v>
+      </c>
+      <c r="AU232" t="n">
+        <v>1.28</v>
+      </c>
+      <c r="AV232" t="n">
+        <v>1.49</v>
+      </c>
+      <c r="AW232" t="n">
+        <v>2.77</v>
+      </c>
+      <c r="AX232" t="n">
+        <v>1.91</v>
+      </c>
+      <c r="AY232" t="n">
+        <v>7.5</v>
+      </c>
+      <c r="AZ232" t="n">
+        <v>2.25</v>
+      </c>
+      <c r="BA232" t="n">
+        <v>1.5</v>
+      </c>
+      <c r="BB232" t="n">
+        <v>2</v>
+      </c>
+      <c r="BC232" t="n">
+        <v>2.6</v>
+      </c>
+      <c r="BD232" t="n">
+        <v>3.65</v>
+      </c>
+      <c r="BE232" t="n">
+        <v>5.3</v>
+      </c>
+      <c r="BF232" t="n">
+        <v>6</v>
+      </c>
+      <c r="BG232" t="n">
+        <v>3</v>
+      </c>
+      <c r="BH232" t="n">
+        <v>8</v>
+      </c>
+      <c r="BI232" t="n">
+        <v>6</v>
+      </c>
+      <c r="BJ232" t="n">
+        <v>14</v>
+      </c>
+      <c r="BK232" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="233">
+      <c r="A233" s="1" t="n">
+        <v>232</v>
+      </c>
+      <c r="B233" t="n">
+        <v>4554633</v>
+      </c>
+      <c r="C233" t="inlineStr">
+        <is>
+          <t>Argentina Primera División</t>
+        </is>
+      </c>
+      <c r="D233" t="inlineStr">
+        <is>
+          <t>2023</t>
+        </is>
+      </c>
+      <c r="E233" s="2" t="n">
+        <v>45066.89583333334</v>
+      </c>
+      <c r="F233" t="n">
+        <v>17</v>
+      </c>
+      <c r="G233" t="inlineStr">
+        <is>
+          <t>Tigre</t>
+        </is>
+      </c>
+      <c r="H233" t="inlineStr">
+        <is>
+          <t>Atlético Tucumán</t>
+        </is>
+      </c>
+      <c r="I233" t="n">
+        <v>0</v>
+      </c>
+      <c r="J233" t="n">
+        <v>0</v>
+      </c>
+      <c r="K233" t="n">
+        <v>0</v>
+      </c>
+      <c r="L233" t="n">
+        <v>0</v>
+      </c>
+      <c r="M233" t="n">
+        <v>0</v>
+      </c>
+      <c r="N233" t="n">
+        <v>0</v>
+      </c>
+      <c r="O233" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="P233" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="Q233" t="n">
+        <v>5</v>
+      </c>
+      <c r="R233" t="n">
+        <v>4</v>
+      </c>
+      <c r="S233" t="n">
+        <v>9</v>
+      </c>
+      <c r="T233" t="n">
+        <v>2.75</v>
+      </c>
+      <c r="U233" t="n">
+        <v>2.05</v>
+      </c>
+      <c r="V233" t="n">
+        <v>4.33</v>
+      </c>
+      <c r="W233" t="n">
+        <v>1.44</v>
+      </c>
+      <c r="X233" t="n">
+        <v>2.63</v>
+      </c>
+      <c r="Y233" t="n">
+        <v>3.25</v>
+      </c>
+      <c r="Z233" t="n">
+        <v>1.33</v>
+      </c>
+      <c r="AA233" t="n">
+        <v>9</v>
+      </c>
+      <c r="AB233" t="n">
+        <v>1.07</v>
+      </c>
+      <c r="AC233" t="n">
+        <v>2.08</v>
+      </c>
+      <c r="AD233" t="n">
+        <v>3.25</v>
+      </c>
+      <c r="AE233" t="n">
+        <v>3.63</v>
+      </c>
+      <c r="AF233" t="n">
+        <v>1.07</v>
+      </c>
+      <c r="AG233" t="n">
+        <v>7</v>
+      </c>
+      <c r="AH233" t="n">
+        <v>1.36</v>
+      </c>
+      <c r="AI233" t="n">
+        <v>2.9</v>
+      </c>
+      <c r="AJ233" t="n">
+        <v>2.15</v>
+      </c>
+      <c r="AK233" t="n">
+        <v>1.65</v>
+      </c>
+      <c r="AL233" t="n">
+        <v>1.95</v>
+      </c>
+      <c r="AM233" t="n">
+        <v>1.8</v>
+      </c>
+      <c r="AN233" t="n">
+        <v>1.3</v>
+      </c>
+      <c r="AO233" t="n">
+        <v>1.28</v>
+      </c>
+      <c r="AP233" t="n">
+        <v>1.75</v>
+      </c>
+      <c r="AQ233" t="n">
+        <v>1.57</v>
+      </c>
+      <c r="AR233" t="n">
+        <v>0.88</v>
+      </c>
+      <c r="AS233" t="n">
+        <v>1.5</v>
+      </c>
+      <c r="AT233" t="n">
+        <v>0.89</v>
+      </c>
+      <c r="AU233" t="n">
+        <v>1.58</v>
+      </c>
+      <c r="AV233" t="n">
+        <v>1.32</v>
+      </c>
+      <c r="AW233" t="n">
+        <v>2.9</v>
+      </c>
+      <c r="AX233" t="n">
+        <v>1.75</v>
+      </c>
+      <c r="AY233" t="n">
+        <v>7.5</v>
+      </c>
+      <c r="AZ233" t="n">
+        <v>2.45</v>
+      </c>
+      <c r="BA233" t="n">
+        <v>1.43</v>
+      </c>
+      <c r="BB233" t="n">
+        <v>1.83</v>
+      </c>
+      <c r="BC233" t="n">
+        <v>2.4</v>
+      </c>
+      <c r="BD233" t="n">
+        <v>3.4</v>
+      </c>
+      <c r="BE233" t="n">
+        <v>4.8</v>
+      </c>
+      <c r="BF233" t="n">
+        <v>6</v>
+      </c>
+      <c r="BG233" t="n">
+        <v>2</v>
+      </c>
+      <c r="BH233" t="n">
+        <v>16</v>
+      </c>
+      <c r="BI233" t="n">
+        <v>8</v>
+      </c>
+      <c r="BJ233" t="n">
+        <v>22</v>
+      </c>
+      <c r="BK233" t="n">
+        <v>10</v>
       </c>
     </row>
   </sheetData>

--- a/Bases_de_Dados_(2022-2023)/Argentina Primera División_2023.xlsx
+++ b/Bases_de_Dados_(2022-2023)/Argentina Primera División_2023.xlsx
@@ -429,7 +429,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:BK233"/>
+  <dimension ref="A1:BK237"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1106,7 +1106,7 @@
         <v>1.67</v>
       </c>
       <c r="AT3" t="n">
-        <v>0.63</v>
+        <v>0.67</v>
       </c>
       <c r="AU3" t="n">
         <v>0</v>
@@ -2524,7 +2524,7 @@
         <v>0</v>
       </c>
       <c r="AS10" t="n">
-        <v>1.25</v>
+        <v>1.22</v>
       </c>
       <c r="AT10" t="n">
         <v>1.13</v>
@@ -4351,10 +4351,10 @@
         <v>0</v>
       </c>
       <c r="AS19" t="n">
-        <v>1.43</v>
+        <v>1.38</v>
       </c>
       <c r="AT19" t="n">
-        <v>0.86</v>
+        <v>0.88</v>
       </c>
       <c r="AU19" t="n">
         <v>0</v>
@@ -4554,7 +4554,7 @@
         <v>3</v>
       </c>
       <c r="AS20" t="n">
-        <v>2</v>
+        <v>1.88</v>
       </c>
       <c r="AT20" t="n">
         <v>2.11</v>
@@ -5166,7 +5166,7 @@
         <v>1.13</v>
       </c>
       <c r="AT23" t="n">
-        <v>1</v>
+        <v>0.88</v>
       </c>
       <c r="AU23" t="n">
         <v>0</v>
@@ -5775,7 +5775,7 @@
         <v>0.88</v>
       </c>
       <c r="AT26" t="n">
-        <v>2</v>
+        <v>1.88</v>
       </c>
       <c r="AU26" t="n">
         <v>0</v>
@@ -6584,7 +6584,7 @@
         <v>1</v>
       </c>
       <c r="AS30" t="n">
-        <v>1.25</v>
+        <v>1.22</v>
       </c>
       <c r="AT30" t="n">
         <v>1.33</v>
@@ -8411,7 +8411,7 @@
         <v>0</v>
       </c>
       <c r="AS39" t="n">
-        <v>2.57</v>
+        <v>2.63</v>
       </c>
       <c r="AT39" t="n">
         <v>1</v>
@@ -8617,7 +8617,7 @@
         <v>1.44</v>
       </c>
       <c r="AT40" t="n">
-        <v>0.63</v>
+        <v>0.67</v>
       </c>
       <c r="AU40" t="n">
         <v>1.76</v>
@@ -9835,7 +9835,7 @@
         <v>1.5</v>
       </c>
       <c r="AT46" t="n">
-        <v>0.86</v>
+        <v>0.88</v>
       </c>
       <c r="AU46" t="n">
         <v>2.16</v>
@@ -11256,7 +11256,7 @@
         <v>1.56</v>
       </c>
       <c r="AT53" t="n">
-        <v>1</v>
+        <v>0.88</v>
       </c>
       <c r="AU53" t="n">
         <v>1.66</v>
@@ -11862,7 +11862,7 @@
         <v>0</v>
       </c>
       <c r="AS56" t="n">
-        <v>1.43</v>
+        <v>1.38</v>
       </c>
       <c r="AT56" t="n">
         <v>1.5</v>
@@ -12268,7 +12268,7 @@
         <v>2</v>
       </c>
       <c r="AS58" t="n">
-        <v>2</v>
+        <v>1.88</v>
       </c>
       <c r="AT58" t="n">
         <v>1.11</v>
@@ -12880,7 +12880,7 @@
         <v>1.44</v>
       </c>
       <c r="AT61" t="n">
-        <v>2</v>
+        <v>1.88</v>
       </c>
       <c r="AU61" t="n">
         <v>1.14</v>
@@ -13689,10 +13689,10 @@
         <v>2</v>
       </c>
       <c r="AS65" t="n">
-        <v>1.25</v>
+        <v>1.22</v>
       </c>
       <c r="AT65" t="n">
-        <v>0.63</v>
+        <v>0.67</v>
       </c>
       <c r="AU65" t="n">
         <v>2.06</v>
@@ -13892,7 +13892,7 @@
         <v>0</v>
       </c>
       <c r="AS66" t="n">
-        <v>2.57</v>
+        <v>2.63</v>
       </c>
       <c r="AT66" t="n">
         <v>0.44</v>
@@ -15313,7 +15313,7 @@
         <v>0.5</v>
       </c>
       <c r="AS73" t="n">
-        <v>1.43</v>
+        <v>1.38</v>
       </c>
       <c r="AT73" t="n">
         <v>0.88</v>
@@ -16331,7 +16331,7 @@
         <v>2.13</v>
       </c>
       <c r="AT78" t="n">
-        <v>0.86</v>
+        <v>0.88</v>
       </c>
       <c r="AU78" t="n">
         <v>0.82</v>
@@ -18767,7 +18767,7 @@
         <v>1.67</v>
       </c>
       <c r="AT90" t="n">
-        <v>2</v>
+        <v>1.88</v>
       </c>
       <c r="AU90" t="n">
         <v>1.33</v>
@@ -19170,7 +19170,7 @@
         <v>2</v>
       </c>
       <c r="AS92" t="n">
-        <v>2</v>
+        <v>1.88</v>
       </c>
       <c r="AT92" t="n">
         <v>1.13</v>
@@ -19576,7 +19576,7 @@
         <v>1</v>
       </c>
       <c r="AS94" t="n">
-        <v>2.57</v>
+        <v>2.63</v>
       </c>
       <c r="AT94" t="n">
         <v>1.22</v>
@@ -19782,7 +19782,7 @@
         <v>1.89</v>
       </c>
       <c r="AT95" t="n">
-        <v>0.63</v>
+        <v>0.67</v>
       </c>
       <c r="AU95" t="n">
         <v>1.86</v>
@@ -20391,7 +20391,7 @@
         <v>1.33</v>
       </c>
       <c r="AT98" t="n">
-        <v>1</v>
+        <v>0.88</v>
       </c>
       <c r="AU98" t="n">
         <v>1.35</v>
@@ -20591,7 +20591,7 @@
         <v>0.33</v>
       </c>
       <c r="AS99" t="n">
-        <v>1.25</v>
+        <v>1.22</v>
       </c>
       <c r="AT99" t="n">
         <v>0.67</v>
@@ -21609,7 +21609,7 @@
         <v>0.88</v>
       </c>
       <c r="AT104" t="n">
-        <v>0.86</v>
+        <v>0.88</v>
       </c>
       <c r="AU104" t="n">
         <v>1.17</v>
@@ -22621,7 +22621,7 @@
         <v>2.25</v>
       </c>
       <c r="AS109" t="n">
-        <v>1.43</v>
+        <v>1.38</v>
       </c>
       <c r="AT109" t="n">
         <v>2.11</v>
@@ -24448,7 +24448,7 @@
         <v>0.75</v>
       </c>
       <c r="AS118" t="n">
-        <v>2.57</v>
+        <v>2.63</v>
       </c>
       <c r="AT118" t="n">
         <v>0.78</v>
@@ -25060,7 +25060,7 @@
         <v>1.38</v>
       </c>
       <c r="AT121" t="n">
-        <v>0.63</v>
+        <v>0.67</v>
       </c>
       <c r="AU121" t="n">
         <v>1.76</v>
@@ -25466,7 +25466,7 @@
         <v>1.44</v>
       </c>
       <c r="AT123" t="n">
-        <v>2</v>
+        <v>1.88</v>
       </c>
       <c r="AU123" t="n">
         <v>1.5</v>
@@ -25666,7 +25666,7 @@
         <v>0.5</v>
       </c>
       <c r="AS124" t="n">
-        <v>1.25</v>
+        <v>1.22</v>
       </c>
       <c r="AT124" t="n">
         <v>0.89</v>
@@ -25872,7 +25872,7 @@
         <v>1.11</v>
       </c>
       <c r="AT125" t="n">
-        <v>1</v>
+        <v>0.88</v>
       </c>
       <c r="AU125" t="n">
         <v>1.92</v>
@@ -26072,7 +26072,7 @@
         <v>1.25</v>
       </c>
       <c r="AS126" t="n">
-        <v>2</v>
+        <v>1.88</v>
       </c>
       <c r="AT126" t="n">
         <v>1.33</v>
@@ -27090,7 +27090,7 @@
         <v>1.78</v>
       </c>
       <c r="AT131" t="n">
-        <v>0.86</v>
+        <v>0.88</v>
       </c>
       <c r="AU131" t="n">
         <v>1.55</v>
@@ -27290,7 +27290,7 @@
         <v>0.8</v>
       </c>
       <c r="AS132" t="n">
-        <v>1.43</v>
+        <v>1.38</v>
       </c>
       <c r="AT132" t="n">
         <v>1</v>
@@ -29323,7 +29323,7 @@
         <v>1.33</v>
       </c>
       <c r="AT142" t="n">
-        <v>1</v>
+        <v>0.88</v>
       </c>
       <c r="AU142" t="n">
         <v>0.85</v>
@@ -30538,10 +30538,10 @@
         <v>1</v>
       </c>
       <c r="AS148" t="n">
-        <v>2</v>
+        <v>1.88</v>
       </c>
       <c r="AT148" t="n">
-        <v>0.63</v>
+        <v>0.67</v>
       </c>
       <c r="AU148" t="n">
         <v>1.09</v>
@@ -31553,10 +31553,10 @@
         <v>2.5</v>
       </c>
       <c r="AS153" t="n">
-        <v>1.25</v>
+        <v>1.22</v>
       </c>
       <c r="AT153" t="n">
-        <v>2</v>
+        <v>1.88</v>
       </c>
       <c r="AU153" t="n">
         <v>1.75</v>
@@ -31756,7 +31756,7 @@
         <v>0.2</v>
       </c>
       <c r="AS154" t="n">
-        <v>2.57</v>
+        <v>2.63</v>
       </c>
       <c r="AT154" t="n">
         <v>0.78</v>
@@ -33180,7 +33180,7 @@
         <v>1.33</v>
       </c>
       <c r="AT161" t="n">
-        <v>0.86</v>
+        <v>0.88</v>
       </c>
       <c r="AU161" t="n">
         <v>1.36</v>
@@ -34395,7 +34395,7 @@
         <v>0.67</v>
       </c>
       <c r="AS167" t="n">
-        <v>1.43</v>
+        <v>1.38</v>
       </c>
       <c r="AT167" t="n">
         <v>0.44</v>
@@ -35004,7 +35004,7 @@
         <v>1</v>
       </c>
       <c r="AS170" t="n">
-        <v>1.25</v>
+        <v>1.22</v>
       </c>
       <c r="AT170" t="n">
         <v>0.71</v>
@@ -35613,7 +35613,7 @@
         <v>0.83</v>
       </c>
       <c r="AS173" t="n">
-        <v>2</v>
+        <v>1.88</v>
       </c>
       <c r="AT173" t="n">
         <v>0.67</v>
@@ -36022,7 +36022,7 @@
         <v>2.56</v>
       </c>
       <c r="AT175" t="n">
-        <v>1</v>
+        <v>0.88</v>
       </c>
       <c r="AU175" t="n">
         <v>1.44</v>
@@ -36631,7 +36631,7 @@
         <v>1.89</v>
       </c>
       <c r="AT178" t="n">
-        <v>2</v>
+        <v>1.88</v>
       </c>
       <c r="AU178" t="n">
         <v>1.61</v>
@@ -36831,7 +36831,7 @@
         <v>1.17</v>
       </c>
       <c r="AS179" t="n">
-        <v>2.57</v>
+        <v>2.63</v>
       </c>
       <c r="AT179" t="n">
         <v>0.89</v>
@@ -37646,7 +37646,7 @@
         <v>1.5</v>
       </c>
       <c r="AT183" t="n">
-        <v>0.63</v>
+        <v>0.67</v>
       </c>
       <c r="AU183" t="n">
         <v>1.74</v>
@@ -38049,7 +38049,7 @@
         <v>1.29</v>
       </c>
       <c r="AS185" t="n">
-        <v>1.43</v>
+        <v>1.38</v>
       </c>
       <c r="AT185" t="n">
         <v>1.22</v>
@@ -39270,7 +39270,7 @@
         <v>1.11</v>
       </c>
       <c r="AT191" t="n">
-        <v>0.86</v>
+        <v>0.88</v>
       </c>
       <c r="AU191" t="n">
         <v>1.6</v>
@@ -40894,7 +40894,7 @@
         <v>2.38</v>
       </c>
       <c r="AT199" t="n">
-        <v>0.63</v>
+        <v>0.67</v>
       </c>
       <c r="AU199" t="n">
         <v>1.23</v>
@@ -41094,7 +41094,7 @@
         <v>1</v>
       </c>
       <c r="AS200" t="n">
-        <v>2</v>
+        <v>1.88</v>
       </c>
       <c r="AT200" t="n">
         <v>0.89</v>
@@ -41297,7 +41297,7 @@
         <v>0.83</v>
       </c>
       <c r="AS201" t="n">
-        <v>1.25</v>
+        <v>1.22</v>
       </c>
       <c r="AT201" t="n">
         <v>0.63</v>
@@ -41706,7 +41706,7 @@
         <v>2.56</v>
       </c>
       <c r="AT203" t="n">
-        <v>1</v>
+        <v>0.88</v>
       </c>
       <c r="AU203" t="n">
         <v>1.48</v>
@@ -41906,7 +41906,7 @@
         <v>1.17</v>
       </c>
       <c r="AS204" t="n">
-        <v>2.57</v>
+        <v>2.63</v>
       </c>
       <c r="AT204" t="n">
         <v>1.25</v>
@@ -42924,7 +42924,7 @@
         <v>1.38</v>
       </c>
       <c r="AT209" t="n">
-        <v>2</v>
+        <v>1.88</v>
       </c>
       <c r="AU209" t="n">
         <v>1.72</v>
@@ -47848,6 +47848,818 @@
       </c>
       <c r="BK233" t="n">
         <v>10</v>
+      </c>
+    </row>
+    <row r="234">
+      <c r="A234" s="1" t="n">
+        <v>233</v>
+      </c>
+      <c r="B234" t="n">
+        <v>4554635</v>
+      </c>
+      <c r="C234" t="inlineStr">
+        <is>
+          <t>Argentina Primera División</t>
+        </is>
+      </c>
+      <c r="D234" t="inlineStr">
+        <is>
+          <t>2023</t>
+        </is>
+      </c>
+      <c r="E234" s="2" t="n">
+        <v>45067.64583333334</v>
+      </c>
+      <c r="F234" t="n">
+        <v>17</v>
+      </c>
+      <c r="G234" t="inlineStr">
+        <is>
+          <t>Belgrano</t>
+        </is>
+      </c>
+      <c r="H234" t="inlineStr">
+        <is>
+          <t>Talleres Córdoba</t>
+        </is>
+      </c>
+      <c r="I234" t="n">
+        <v>1</v>
+      </c>
+      <c r="J234" t="n">
+        <v>0</v>
+      </c>
+      <c r="K234" t="n">
+        <v>1</v>
+      </c>
+      <c r="L234" t="n">
+        <v>1</v>
+      </c>
+      <c r="M234" t="n">
+        <v>1</v>
+      </c>
+      <c r="N234" t="n">
+        <v>2</v>
+      </c>
+      <c r="O234" t="inlineStr">
+        <is>
+          <t>['45+2']</t>
+        </is>
+      </c>
+      <c r="P234" t="inlineStr">
+        <is>
+          <t>['54']</t>
+        </is>
+      </c>
+      <c r="Q234" t="n">
+        <v>-1</v>
+      </c>
+      <c r="R234" t="n">
+        <v>-1</v>
+      </c>
+      <c r="S234" t="n">
+        <v>-1</v>
+      </c>
+      <c r="T234" t="n">
+        <v>4</v>
+      </c>
+      <c r="U234" t="n">
+        <v>1.95</v>
+      </c>
+      <c r="V234" t="n">
+        <v>3.2</v>
+      </c>
+      <c r="W234" t="n">
+        <v>1.53</v>
+      </c>
+      <c r="X234" t="n">
+        <v>2.38</v>
+      </c>
+      <c r="Y234" t="n">
+        <v>3.75</v>
+      </c>
+      <c r="Z234" t="n">
+        <v>1.25</v>
+      </c>
+      <c r="AA234" t="n">
+        <v>11</v>
+      </c>
+      <c r="AB234" t="n">
+        <v>1.05</v>
+      </c>
+      <c r="AC234" t="n">
+        <v>2.9</v>
+      </c>
+      <c r="AD234" t="n">
+        <v>2.8</v>
+      </c>
+      <c r="AE234" t="n">
+        <v>2.35</v>
+      </c>
+      <c r="AF234" t="n">
+        <v>1.1</v>
+      </c>
+      <c r="AG234" t="n">
+        <v>5.8</v>
+      </c>
+      <c r="AH234" t="n">
+        <v>1.42</v>
+      </c>
+      <c r="AI234" t="n">
+        <v>2.6</v>
+      </c>
+      <c r="AJ234" t="n">
+        <v>2.45</v>
+      </c>
+      <c r="AK234" t="n">
+        <v>1.5</v>
+      </c>
+      <c r="AL234" t="n">
+        <v>2.05</v>
+      </c>
+      <c r="AM234" t="n">
+        <v>1.7</v>
+      </c>
+      <c r="AN234" t="n">
+        <v>1.55</v>
+      </c>
+      <c r="AO234" t="n">
+        <v>1.4</v>
+      </c>
+      <c r="AP234" t="n">
+        <v>1.35</v>
+      </c>
+      <c r="AQ234" t="n">
+        <v>2</v>
+      </c>
+      <c r="AR234" t="n">
+        <v>2</v>
+      </c>
+      <c r="AS234" t="n">
+        <v>1.88</v>
+      </c>
+      <c r="AT234" t="n">
+        <v>1.88</v>
+      </c>
+      <c r="AU234" t="n">
+        <v>1.19</v>
+      </c>
+      <c r="AV234" t="n">
+        <v>1.24</v>
+      </c>
+      <c r="AW234" t="n">
+        <v>2.43</v>
+      </c>
+      <c r="AX234" t="n">
+        <v>2.2</v>
+      </c>
+      <c r="AY234" t="n">
+        <v>7.5</v>
+      </c>
+      <c r="AZ234" t="n">
+        <v>1.91</v>
+      </c>
+      <c r="BA234" t="n">
+        <v>1.36</v>
+      </c>
+      <c r="BB234" t="n">
+        <v>1.66</v>
+      </c>
+      <c r="BC234" t="n">
+        <v>2.12</v>
+      </c>
+      <c r="BD234" t="n">
+        <v>2.9</v>
+      </c>
+      <c r="BE234" t="n">
+        <v>4.1</v>
+      </c>
+      <c r="BF234" t="n">
+        <v>-1</v>
+      </c>
+      <c r="BG234" t="n">
+        <v>-1</v>
+      </c>
+      <c r="BH234" t="n">
+        <v>-1</v>
+      </c>
+      <c r="BI234" t="n">
+        <v>-1</v>
+      </c>
+      <c r="BJ234" t="n">
+        <v>-1</v>
+      </c>
+      <c r="BK234" t="n">
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="235">
+      <c r="A235" s="1" t="n">
+        <v>234</v>
+      </c>
+      <c r="B235" t="n">
+        <v>5019515</v>
+      </c>
+      <c r="C235" t="inlineStr">
+        <is>
+          <t>Argentina Primera División</t>
+        </is>
+      </c>
+      <c r="D235" t="inlineStr">
+        <is>
+          <t>2023</t>
+        </is>
+      </c>
+      <c r="E235" s="2" t="n">
+        <v>45067.75</v>
+      </c>
+      <c r="F235" t="n">
+        <v>17</v>
+      </c>
+      <c r="G235" t="inlineStr">
+        <is>
+          <t>Sarmiento</t>
+        </is>
+      </c>
+      <c r="H235" t="inlineStr">
+        <is>
+          <t>Huracán</t>
+        </is>
+      </c>
+      <c r="I235" t="n">
+        <v>0</v>
+      </c>
+      <c r="J235" t="n">
+        <v>0</v>
+      </c>
+      <c r="K235" t="n">
+        <v>0</v>
+      </c>
+      <c r="L235" t="n">
+        <v>0</v>
+      </c>
+      <c r="M235" t="n">
+        <v>0</v>
+      </c>
+      <c r="N235" t="n">
+        <v>0</v>
+      </c>
+      <c r="O235" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="P235" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="Q235" t="n">
+        <v>5</v>
+      </c>
+      <c r="R235" t="n">
+        <v>2</v>
+      </c>
+      <c r="S235" t="n">
+        <v>7</v>
+      </c>
+      <c r="T235" t="n">
+        <v>3.6</v>
+      </c>
+      <c r="U235" t="n">
+        <v>1.95</v>
+      </c>
+      <c r="V235" t="n">
+        <v>3.5</v>
+      </c>
+      <c r="W235" t="n">
+        <v>1.57</v>
+      </c>
+      <c r="X235" t="n">
+        <v>2.25</v>
+      </c>
+      <c r="Y235" t="n">
+        <v>3.75</v>
+      </c>
+      <c r="Z235" t="n">
+        <v>1.25</v>
+      </c>
+      <c r="AA235" t="n">
+        <v>11</v>
+      </c>
+      <c r="AB235" t="n">
+        <v>1.05</v>
+      </c>
+      <c r="AC235" t="n">
+        <v>2.55</v>
+      </c>
+      <c r="AD235" t="n">
+        <v>2.8</v>
+      </c>
+      <c r="AE235" t="n">
+        <v>2.7</v>
+      </c>
+      <c r="AF235" t="n">
+        <v>1.1</v>
+      </c>
+      <c r="AG235" t="n">
+        <v>5.8</v>
+      </c>
+      <c r="AH235" t="n">
+        <v>1.42</v>
+      </c>
+      <c r="AI235" t="n">
+        <v>2.6</v>
+      </c>
+      <c r="AJ235" t="n">
+        <v>2.45</v>
+      </c>
+      <c r="AK235" t="n">
+        <v>1.5</v>
+      </c>
+      <c r="AL235" t="n">
+        <v>2.05</v>
+      </c>
+      <c r="AM235" t="n">
+        <v>1.7</v>
+      </c>
+      <c r="AN235" t="n">
+        <v>1.3</v>
+      </c>
+      <c r="AO235" t="n">
+        <v>1.42</v>
+      </c>
+      <c r="AP235" t="n">
+        <v>1.45</v>
+      </c>
+      <c r="AQ235" t="n">
+        <v>1.43</v>
+      </c>
+      <c r="AR235" t="n">
+        <v>0.63</v>
+      </c>
+      <c r="AS235" t="n">
+        <v>1.38</v>
+      </c>
+      <c r="AT235" t="n">
+        <v>0.67</v>
+      </c>
+      <c r="AU235" t="n">
+        <v>1.66</v>
+      </c>
+      <c r="AV235" t="n">
+        <v>1.24</v>
+      </c>
+      <c r="AW235" t="n">
+        <v>2.9</v>
+      </c>
+      <c r="AX235" t="n">
+        <v>2.42</v>
+      </c>
+      <c r="AY235" t="n">
+        <v>8</v>
+      </c>
+      <c r="AZ235" t="n">
+        <v>1.75</v>
+      </c>
+      <c r="BA235" t="n">
+        <v>1.16</v>
+      </c>
+      <c r="BB235" t="n">
+        <v>1.3</v>
+      </c>
+      <c r="BC235" t="n">
+        <v>1.55</v>
+      </c>
+      <c r="BD235" t="n">
+        <v>2</v>
+      </c>
+      <c r="BE235" t="n">
+        <v>2.5</v>
+      </c>
+      <c r="BF235" t="n">
+        <v>7</v>
+      </c>
+      <c r="BG235" t="n">
+        <v>7</v>
+      </c>
+      <c r="BH235" t="n">
+        <v>8</v>
+      </c>
+      <c r="BI235" t="n">
+        <v>16</v>
+      </c>
+      <c r="BJ235" t="n">
+        <v>15</v>
+      </c>
+      <c r="BK235" t="n">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="236">
+      <c r="A236" s="1" t="n">
+        <v>235</v>
+      </c>
+      <c r="B236" t="n">
+        <v>4554640</v>
+      </c>
+      <c r="C236" t="inlineStr">
+        <is>
+          <t>Argentina Primera División</t>
+        </is>
+      </c>
+      <c r="D236" t="inlineStr">
+        <is>
+          <t>2023</t>
+        </is>
+      </c>
+      <c r="E236" s="2" t="n">
+        <v>45067.75</v>
+      </c>
+      <c r="F236" t="n">
+        <v>17</v>
+      </c>
+      <c r="G236" t="inlineStr">
+        <is>
+          <t>Colón</t>
+        </is>
+      </c>
+      <c r="H236" t="inlineStr">
+        <is>
+          <t>Barracas Central</t>
+        </is>
+      </c>
+      <c r="I236" t="n">
+        <v>1</v>
+      </c>
+      <c r="J236" t="n">
+        <v>0</v>
+      </c>
+      <c r="K236" t="n">
+        <v>1</v>
+      </c>
+      <c r="L236" t="n">
+        <v>1</v>
+      </c>
+      <c r="M236" t="n">
+        <v>1</v>
+      </c>
+      <c r="N236" t="n">
+        <v>2</v>
+      </c>
+      <c r="O236" t="inlineStr">
+        <is>
+          <t>['40']</t>
+        </is>
+      </c>
+      <c r="P236" t="inlineStr">
+        <is>
+          <t>['61']</t>
+        </is>
+      </c>
+      <c r="Q236" t="n">
+        <v>9</v>
+      </c>
+      <c r="R236" t="n">
+        <v>4</v>
+      </c>
+      <c r="S236" t="n">
+        <v>13</v>
+      </c>
+      <c r="T236" t="n">
+        <v>2.4</v>
+      </c>
+      <c r="U236" t="n">
+        <v>2.05</v>
+      </c>
+      <c r="V236" t="n">
+        <v>5.5</v>
+      </c>
+      <c r="W236" t="n">
+        <v>1.5</v>
+      </c>
+      <c r="X236" t="n">
+        <v>2.5</v>
+      </c>
+      <c r="Y236" t="n">
+        <v>3.4</v>
+      </c>
+      <c r="Z236" t="n">
+        <v>1.3</v>
+      </c>
+      <c r="AA236" t="n">
+        <v>10</v>
+      </c>
+      <c r="AB236" t="n">
+        <v>1.06</v>
+      </c>
+      <c r="AC236" t="n">
+        <v>1.75</v>
+      </c>
+      <c r="AD236" t="n">
+        <v>3.1</v>
+      </c>
+      <c r="AE236" t="n">
+        <v>4.4</v>
+      </c>
+      <c r="AF236" t="n">
+        <v>1.08</v>
+      </c>
+      <c r="AG236" t="n">
+        <v>9</v>
+      </c>
+      <c r="AH236" t="n">
+        <v>1.41</v>
+      </c>
+      <c r="AI236" t="n">
+        <v>2.88</v>
+      </c>
+      <c r="AJ236" t="n">
+        <v>2.25</v>
+      </c>
+      <c r="AK236" t="n">
+        <v>1.57</v>
+      </c>
+      <c r="AL236" t="n">
+        <v>2.1</v>
+      </c>
+      <c r="AM236" t="n">
+        <v>1.67</v>
+      </c>
+      <c r="AN236" t="n">
+        <v>1.2</v>
+      </c>
+      <c r="AO236" t="n">
+        <v>1.3</v>
+      </c>
+      <c r="AP236" t="n">
+        <v>2</v>
+      </c>
+      <c r="AQ236" t="n">
+        <v>1.25</v>
+      </c>
+      <c r="AR236" t="n">
+        <v>0.86</v>
+      </c>
+      <c r="AS236" t="n">
+        <v>1.22</v>
+      </c>
+      <c r="AT236" t="n">
+        <v>0.88</v>
+      </c>
+      <c r="AU236" t="n">
+        <v>1.63</v>
+      </c>
+      <c r="AV236" t="n">
+        <v>1.1</v>
+      </c>
+      <c r="AW236" t="n">
+        <v>2.73</v>
+      </c>
+      <c r="AX236" t="n">
+        <v>1.51</v>
+      </c>
+      <c r="AY236" t="n">
+        <v>8.5</v>
+      </c>
+      <c r="AZ236" t="n">
+        <v>3.16</v>
+      </c>
+      <c r="BA236" t="n">
+        <v>1.27</v>
+      </c>
+      <c r="BB236" t="n">
+        <v>1.5</v>
+      </c>
+      <c r="BC236" t="n">
+        <v>1.95</v>
+      </c>
+      <c r="BD236" t="n">
+        <v>2.45</v>
+      </c>
+      <c r="BE236" t="n">
+        <v>3.4</v>
+      </c>
+      <c r="BF236" t="n">
+        <v>5</v>
+      </c>
+      <c r="BG236" t="n">
+        <v>4</v>
+      </c>
+      <c r="BH236" t="n">
+        <v>7</v>
+      </c>
+      <c r="BI236" t="n">
+        <v>5</v>
+      </c>
+      <c r="BJ236" t="n">
+        <v>12</v>
+      </c>
+      <c r="BK236" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="237">
+      <c r="A237" s="1" t="n">
+        <v>236</v>
+      </c>
+      <c r="B237" t="n">
+        <v>4554636</v>
+      </c>
+      <c r="C237" t="inlineStr">
+        <is>
+          <t>Argentina Primera División</t>
+        </is>
+      </c>
+      <c r="D237" t="inlineStr">
+        <is>
+          <t>2023</t>
+        </is>
+      </c>
+      <c r="E237" s="2" t="n">
+        <v>45067.85416666666</v>
+      </c>
+      <c r="F237" t="n">
+        <v>17</v>
+      </c>
+      <c r="G237" t="inlineStr">
+        <is>
+          <t>River Plate</t>
+        </is>
+      </c>
+      <c r="H237" t="inlineStr">
+        <is>
+          <t>Platense</t>
+        </is>
+      </c>
+      <c r="I237" t="n">
+        <v>1</v>
+      </c>
+      <c r="J237" t="n">
+        <v>1</v>
+      </c>
+      <c r="K237" t="n">
+        <v>2</v>
+      </c>
+      <c r="L237" t="n">
+        <v>2</v>
+      </c>
+      <c r="M237" t="n">
+        <v>1</v>
+      </c>
+      <c r="N237" t="n">
+        <v>3</v>
+      </c>
+      <c r="O237" t="inlineStr">
+        <is>
+          <t>['2', '55']</t>
+        </is>
+      </c>
+      <c r="P237" t="inlineStr">
+        <is>
+          <t>['12']</t>
+        </is>
+      </c>
+      <c r="Q237" t="n">
+        <v>7</v>
+      </c>
+      <c r="R237" t="n">
+        <v>5</v>
+      </c>
+      <c r="S237" t="n">
+        <v>12</v>
+      </c>
+      <c r="T237" t="n">
+        <v>1.83</v>
+      </c>
+      <c r="U237" t="n">
+        <v>2.38</v>
+      </c>
+      <c r="V237" t="n">
+        <v>9</v>
+      </c>
+      <c r="W237" t="n">
+        <v>1.36</v>
+      </c>
+      <c r="X237" t="n">
+        <v>3</v>
+      </c>
+      <c r="Y237" t="n">
+        <v>2.75</v>
+      </c>
+      <c r="Z237" t="n">
+        <v>1.4</v>
+      </c>
+      <c r="AA237" t="n">
+        <v>7</v>
+      </c>
+      <c r="AB237" t="n">
+        <v>1.1</v>
+      </c>
+      <c r="AC237" t="n">
+        <v>1.29</v>
+      </c>
+      <c r="AD237" t="n">
+        <v>5.14</v>
+      </c>
+      <c r="AE237" t="n">
+        <v>10.05</v>
+      </c>
+      <c r="AF237" t="n">
+        <v>1.04</v>
+      </c>
+      <c r="AG237" t="n">
+        <v>12</v>
+      </c>
+      <c r="AH237" t="n">
+        <v>1.28</v>
+      </c>
+      <c r="AI237" t="n">
+        <v>3.6</v>
+      </c>
+      <c r="AJ237" t="n">
+        <v>1.87</v>
+      </c>
+      <c r="AK237" t="n">
+        <v>1.89</v>
+      </c>
+      <c r="AL237" t="n">
+        <v>2.25</v>
+      </c>
+      <c r="AM237" t="n">
+        <v>1.57</v>
+      </c>
+      <c r="AN237" t="n">
+        <v>1.07</v>
+      </c>
+      <c r="AO237" t="n">
+        <v>1.14</v>
+      </c>
+      <c r="AP237" t="n">
+        <v>3.15</v>
+      </c>
+      <c r="AQ237" t="n">
+        <v>2.57</v>
+      </c>
+      <c r="AR237" t="n">
+        <v>1</v>
+      </c>
+      <c r="AS237" t="n">
+        <v>2.63</v>
+      </c>
+      <c r="AT237" t="n">
+        <v>0.88</v>
+      </c>
+      <c r="AU237" t="n">
+        <v>1.86</v>
+      </c>
+      <c r="AV237" t="n">
+        <v>1.15</v>
+      </c>
+      <c r="AW237" t="n">
+        <v>3.01</v>
+      </c>
+      <c r="AX237" t="n">
+        <v>1.18</v>
+      </c>
+      <c r="AY237" t="n">
+        <v>11</v>
+      </c>
+      <c r="AZ237" t="n">
+        <v>6.15</v>
+      </c>
+      <c r="BA237" t="n">
+        <v>1.22</v>
+      </c>
+      <c r="BB237" t="n">
+        <v>1.41</v>
+      </c>
+      <c r="BC237" t="n">
+        <v>1.73</v>
+      </c>
+      <c r="BD237" t="n">
+        <v>2.23</v>
+      </c>
+      <c r="BE237" t="n">
+        <v>3</v>
+      </c>
+      <c r="BF237" t="n">
+        <v>6</v>
+      </c>
+      <c r="BG237" t="n">
+        <v>4</v>
+      </c>
+      <c r="BH237" t="n">
+        <v>13</v>
+      </c>
+      <c r="BI237" t="n">
+        <v>9</v>
+      </c>
+      <c r="BJ237" t="n">
+        <v>19</v>
+      </c>
+      <c r="BK237" t="n">
+        <v>13</v>
       </c>
     </row>
   </sheetData>

--- a/Bases_de_Dados_(2022-2023)/Argentina Primera División_2023.xlsx
+++ b/Bases_de_Dados_(2022-2023)/Argentina Primera División_2023.xlsx
@@ -47912,13 +47912,13 @@
         </is>
       </c>
       <c r="Q234" t="n">
-        <v>-1</v>
+        <v>5</v>
       </c>
       <c r="R234" t="n">
-        <v>-1</v>
+        <v>5</v>
       </c>
       <c r="S234" t="n">
-        <v>-1</v>
+        <v>10</v>
       </c>
       <c r="T234" t="n">
         <v>4</v>
@@ -48035,22 +48035,22 @@
         <v>4.1</v>
       </c>
       <c r="BF234" t="n">
-        <v>-1</v>
+        <v>5</v>
       </c>
       <c r="BG234" t="n">
-        <v>-1</v>
+        <v>8</v>
       </c>
       <c r="BH234" t="n">
-        <v>-1</v>
+        <v>9</v>
       </c>
       <c r="BI234" t="n">
-        <v>-1</v>
+        <v>9</v>
       </c>
       <c r="BJ234" t="n">
-        <v>-1</v>
+        <v>14</v>
       </c>
       <c r="BK234" t="n">
-        <v>-1</v>
+        <v>17</v>
       </c>
     </row>
     <row r="235">

--- a/Bases_de_Dados_(2022-2023)/Argentina Primera División_2023.xlsx
+++ b/Bases_de_Dados_(2022-2023)/Argentina Primera División_2023.xlsx
@@ -429,7 +429,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:BK237"/>
+  <dimension ref="A1:BK246"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -903,7 +903,7 @@
         <v>2.56</v>
       </c>
       <c r="AT2" t="n">
-        <v>1</v>
+        <v>0.9</v>
       </c>
       <c r="AU2" t="n">
         <v>0</v>
@@ -1103,7 +1103,7 @@
         <v>0</v>
       </c>
       <c r="AS3" t="n">
-        <v>1.67</v>
+        <v>1.6</v>
       </c>
       <c r="AT3" t="n">
         <v>0.67</v>
@@ -1309,7 +1309,7 @@
         <v>2.56</v>
       </c>
       <c r="AT4" t="n">
-        <v>0.44</v>
+        <v>0.4</v>
       </c>
       <c r="AU4" t="n">
         <v>0</v>
@@ -1509,7 +1509,7 @@
         <v>0</v>
       </c>
       <c r="AS5" t="n">
-        <v>1.78</v>
+        <v>1.9</v>
       </c>
       <c r="AT5" t="n">
         <v>0.89</v>
@@ -1715,7 +1715,7 @@
         <v>1.89</v>
       </c>
       <c r="AT6" t="n">
-        <v>1.11</v>
+        <v>1</v>
       </c>
       <c r="AU6" t="n">
         <v>0</v>
@@ -2118,7 +2118,7 @@
         <v>0</v>
       </c>
       <c r="AS8" t="n">
-        <v>1.44</v>
+        <v>1.6</v>
       </c>
       <c r="AT8" t="n">
         <v>0.67</v>
@@ -2324,7 +2324,7 @@
         <v>1.44</v>
       </c>
       <c r="AT9" t="n">
-        <v>1.33</v>
+        <v>1.3</v>
       </c>
       <c r="AU9" t="n">
         <v>0</v>
@@ -2527,7 +2527,7 @@
         <v>1.22</v>
       </c>
       <c r="AT10" t="n">
-        <v>1.13</v>
+        <v>1.11</v>
       </c>
       <c r="AU10" t="n">
         <v>0</v>
@@ -2730,7 +2730,7 @@
         <v>1.38</v>
       </c>
       <c r="AT11" t="n">
-        <v>1.44</v>
+        <v>1.3</v>
       </c>
       <c r="AU11" t="n">
         <v>0</v>
@@ -2930,7 +2930,7 @@
         <v>0</v>
       </c>
       <c r="AS12" t="n">
-        <v>1.56</v>
+        <v>1.7</v>
       </c>
       <c r="AT12" t="n">
         <v>0.89</v>
@@ -3133,10 +3133,10 @@
         <v>0</v>
       </c>
       <c r="AS13" t="n">
-        <v>1.33</v>
+        <v>1.5</v>
       </c>
       <c r="AT13" t="n">
-        <v>1.22</v>
+        <v>1.1</v>
       </c>
       <c r="AU13" t="n">
         <v>0</v>
@@ -3945,7 +3945,7 @@
         <v>0</v>
       </c>
       <c r="AS17" t="n">
-        <v>2.13</v>
+        <v>2.22</v>
       </c>
       <c r="AT17" t="n">
         <v>0.71</v>
@@ -4760,7 +4760,7 @@
         <v>2.38</v>
       </c>
       <c r="AT21" t="n">
-        <v>1.5</v>
+        <v>1.33</v>
       </c>
       <c r="AU21" t="n">
         <v>0</v>
@@ -4963,7 +4963,7 @@
         <v>1.75</v>
       </c>
       <c r="AT22" t="n">
-        <v>0.88</v>
+        <v>0.89</v>
       </c>
       <c r="AU22" t="n">
         <v>0</v>
@@ -5163,7 +5163,7 @@
         <v>0</v>
       </c>
       <c r="AS23" t="n">
-        <v>1.13</v>
+        <v>1.11</v>
       </c>
       <c r="AT23" t="n">
         <v>0.88</v>
@@ -5366,7 +5366,7 @@
         <v>0</v>
       </c>
       <c r="AS24" t="n">
-        <v>1.56</v>
+        <v>1.7</v>
       </c>
       <c r="AT24" t="n">
         <v>1.13</v>
@@ -5772,7 +5772,7 @@
         <v>0</v>
       </c>
       <c r="AS26" t="n">
-        <v>0.88</v>
+        <v>1.11</v>
       </c>
       <c r="AT26" t="n">
         <v>1.88</v>
@@ -6178,7 +6178,7 @@
         <v>0</v>
       </c>
       <c r="AS28" t="n">
-        <v>1.75</v>
+        <v>1.67</v>
       </c>
       <c r="AT28" t="n">
         <v>1.75</v>
@@ -6587,7 +6587,7 @@
         <v>1.22</v>
       </c>
       <c r="AT30" t="n">
-        <v>1.33</v>
+        <v>1.3</v>
       </c>
       <c r="AU30" t="n">
         <v>1.17</v>
@@ -6790,7 +6790,7 @@
         <v>1.11</v>
       </c>
       <c r="AT31" t="n">
-        <v>1.44</v>
+        <v>1.3</v>
       </c>
       <c r="AU31" t="n">
         <v>1.53</v>
@@ -6993,7 +6993,7 @@
         <v>2.56</v>
       </c>
       <c r="AT32" t="n">
-        <v>1.22</v>
+        <v>1.1</v>
       </c>
       <c r="AU32" t="n">
         <v>1.4</v>
@@ -7193,7 +7193,7 @@
         <v>1</v>
       </c>
       <c r="AS33" t="n">
-        <v>1.67</v>
+        <v>1.6</v>
       </c>
       <c r="AT33" t="n">
         <v>0.67</v>
@@ -7396,7 +7396,7 @@
         <v>0</v>
       </c>
       <c r="AS34" t="n">
-        <v>1.44</v>
+        <v>1.6</v>
       </c>
       <c r="AT34" t="n">
         <v>0.89</v>
@@ -7599,7 +7599,7 @@
         <v>0</v>
       </c>
       <c r="AS35" t="n">
-        <v>1.78</v>
+        <v>1.9</v>
       </c>
       <c r="AT35" t="n">
         <v>1.25</v>
@@ -8008,7 +8008,7 @@
         <v>2.56</v>
       </c>
       <c r="AT37" t="n">
-        <v>0.44</v>
+        <v>0.4</v>
       </c>
       <c r="AU37" t="n">
         <v>1.18</v>
@@ -8414,7 +8414,7 @@
         <v>2.63</v>
       </c>
       <c r="AT39" t="n">
-        <v>1</v>
+        <v>0.9</v>
       </c>
       <c r="AU39" t="n">
         <v>0</v>
@@ -8820,7 +8820,7 @@
         <v>1.38</v>
       </c>
       <c r="AT41" t="n">
-        <v>1.11</v>
+        <v>1</v>
       </c>
       <c r="AU41" t="n">
         <v>2.1</v>
@@ -9020,7 +9020,7 @@
         <v>1</v>
       </c>
       <c r="AS42" t="n">
-        <v>1.33</v>
+        <v>1.5</v>
       </c>
       <c r="AT42" t="n">
         <v>0.78</v>
@@ -9226,7 +9226,7 @@
         <v>1.89</v>
       </c>
       <c r="AT43" t="n">
-        <v>1.13</v>
+        <v>1.11</v>
       </c>
       <c r="AU43" t="n">
         <v>1.92</v>
@@ -9426,7 +9426,7 @@
         <v>3</v>
       </c>
       <c r="AS44" t="n">
-        <v>1.75</v>
+        <v>1.67</v>
       </c>
       <c r="AT44" t="n">
         <v>0.88</v>
@@ -9632,7 +9632,7 @@
         <v>1.25</v>
       </c>
       <c r="AT45" t="n">
-        <v>0.88</v>
+        <v>0.89</v>
       </c>
       <c r="AU45" t="n">
         <v>1.23</v>
@@ -10444,7 +10444,7 @@
         <v>1.75</v>
       </c>
       <c r="AT49" t="n">
-        <v>1.44</v>
+        <v>1.3</v>
       </c>
       <c r="AU49" t="n">
         <v>2.25</v>
@@ -10847,7 +10847,7 @@
         <v>0</v>
       </c>
       <c r="AS51" t="n">
-        <v>2.13</v>
+        <v>2.22</v>
       </c>
       <c r="AT51" t="n">
         <v>0.63</v>
@@ -11253,7 +11253,7 @@
         <v>3</v>
       </c>
       <c r="AS53" t="n">
-        <v>1.56</v>
+        <v>1.7</v>
       </c>
       <c r="AT53" t="n">
         <v>0.88</v>
@@ -11456,7 +11456,7 @@
         <v>3</v>
       </c>
       <c r="AS54" t="n">
-        <v>1.13</v>
+        <v>1.11</v>
       </c>
       <c r="AT54" t="n">
         <v>1.75</v>
@@ -11659,7 +11659,7 @@
         <v>1</v>
       </c>
       <c r="AS55" t="n">
-        <v>1.78</v>
+        <v>1.9</v>
       </c>
       <c r="AT55" t="n">
         <v>1.13</v>
@@ -11865,7 +11865,7 @@
         <v>1.38</v>
       </c>
       <c r="AT56" t="n">
-        <v>1.5</v>
+        <v>1.33</v>
       </c>
       <c r="AU56" t="n">
         <v>1.24</v>
@@ -12065,7 +12065,7 @@
         <v>0</v>
       </c>
       <c r="AS57" t="n">
-        <v>0.88</v>
+        <v>1.11</v>
       </c>
       <c r="AT57" t="n">
         <v>0.71</v>
@@ -12271,7 +12271,7 @@
         <v>1.88</v>
       </c>
       <c r="AT58" t="n">
-        <v>1.11</v>
+        <v>1</v>
       </c>
       <c r="AU58" t="n">
         <v>0.67</v>
@@ -12474,7 +12474,7 @@
         <v>2.56</v>
       </c>
       <c r="AT59" t="n">
-        <v>1.22</v>
+        <v>1.1</v>
       </c>
       <c r="AU59" t="n">
         <v>2.03</v>
@@ -12877,7 +12877,7 @@
         <v>3</v>
       </c>
       <c r="AS61" t="n">
-        <v>1.44</v>
+        <v>1.6</v>
       </c>
       <c r="AT61" t="n">
         <v>1.88</v>
@@ -13083,7 +13083,7 @@
         <v>1.89</v>
       </c>
       <c r="AT62" t="n">
-        <v>1.33</v>
+        <v>1.3</v>
       </c>
       <c r="AU62" t="n">
         <v>2.1</v>
@@ -13486,7 +13486,7 @@
         <v>0.5</v>
       </c>
       <c r="AS64" t="n">
-        <v>1.67</v>
+        <v>1.6</v>
       </c>
       <c r="AT64" t="n">
         <v>0.89</v>
@@ -13895,7 +13895,7 @@
         <v>2.63</v>
       </c>
       <c r="AT66" t="n">
-        <v>0.44</v>
+        <v>0.4</v>
       </c>
       <c r="AU66" t="n">
         <v>1.25</v>
@@ -14501,7 +14501,7 @@
         <v>0.5</v>
       </c>
       <c r="AS69" t="n">
-        <v>1.33</v>
+        <v>1.5</v>
       </c>
       <c r="AT69" t="n">
         <v>0.78</v>
@@ -14707,7 +14707,7 @@
         <v>1.38</v>
       </c>
       <c r="AT70" t="n">
-        <v>1.13</v>
+        <v>1.11</v>
       </c>
       <c r="AU70" t="n">
         <v>1.87</v>
@@ -14910,7 +14910,7 @@
         <v>1.11</v>
       </c>
       <c r="AT71" t="n">
-        <v>1</v>
+        <v>0.9</v>
       </c>
       <c r="AU71" t="n">
         <v>1.42</v>
@@ -15516,7 +15516,7 @@
         <v>0.5</v>
       </c>
       <c r="AS74" t="n">
-        <v>1.44</v>
+        <v>1.6</v>
       </c>
       <c r="AT74" t="n">
         <v>1.13</v>
@@ -15719,7 +15719,7 @@
         <v>0.5</v>
       </c>
       <c r="AS75" t="n">
-        <v>1.75</v>
+        <v>1.67</v>
       </c>
       <c r="AT75" t="n">
         <v>0.88</v>
@@ -16125,7 +16125,7 @@
         <v>0</v>
       </c>
       <c r="AS77" t="n">
-        <v>0.88</v>
+        <v>1.11</v>
       </c>
       <c r="AT77" t="n">
         <v>0.63</v>
@@ -16328,7 +16328,7 @@
         <v>1.5</v>
       </c>
       <c r="AS78" t="n">
-        <v>2.13</v>
+        <v>2.22</v>
       </c>
       <c r="AT78" t="n">
         <v>0.88</v>
@@ -16531,7 +16531,7 @@
         <v>1.5</v>
       </c>
       <c r="AS79" t="n">
-        <v>1.13</v>
+        <v>1.11</v>
       </c>
       <c r="AT79" t="n">
         <v>0.88</v>
@@ -16737,7 +16737,7 @@
         <v>1.5</v>
       </c>
       <c r="AT80" t="n">
-        <v>1.5</v>
+        <v>1.33</v>
       </c>
       <c r="AU80" t="n">
         <v>1.91</v>
@@ -16940,7 +16940,7 @@
         <v>1.5</v>
       </c>
       <c r="AT81" t="n">
-        <v>1</v>
+        <v>0.9</v>
       </c>
       <c r="AU81" t="n">
         <v>2.17</v>
@@ -17140,7 +17140,7 @@
         <v>0.5</v>
       </c>
       <c r="AS82" t="n">
-        <v>1.78</v>
+        <v>1.9</v>
       </c>
       <c r="AT82" t="n">
         <v>0.71</v>
@@ -17346,7 +17346,7 @@
         <v>1.88</v>
       </c>
       <c r="AT83" t="n">
-        <v>0.88</v>
+        <v>0.89</v>
       </c>
       <c r="AU83" t="n">
         <v>1.44</v>
@@ -17549,7 +17549,7 @@
         <v>1.25</v>
       </c>
       <c r="AT84" t="n">
-        <v>1.44</v>
+        <v>1.3</v>
       </c>
       <c r="AU84" t="n">
         <v>1.21</v>
@@ -17749,7 +17749,7 @@
         <v>3</v>
       </c>
       <c r="AS85" t="n">
-        <v>1.56</v>
+        <v>1.7</v>
       </c>
       <c r="AT85" t="n">
         <v>1.75</v>
@@ -17952,7 +17952,7 @@
         <v>1.67</v>
       </c>
       <c r="AS86" t="n">
-        <v>1.33</v>
+        <v>1.5</v>
       </c>
       <c r="AT86" t="n">
         <v>0.89</v>
@@ -18158,7 +18158,7 @@
         <v>1.75</v>
       </c>
       <c r="AT87" t="n">
-        <v>0.44</v>
+        <v>0.4</v>
       </c>
       <c r="AU87" t="n">
         <v>1.81</v>
@@ -18764,7 +18764,7 @@
         <v>3</v>
       </c>
       <c r="AS90" t="n">
-        <v>1.67</v>
+        <v>1.6</v>
       </c>
       <c r="AT90" t="n">
         <v>1.88</v>
@@ -18970,7 +18970,7 @@
         <v>1.11</v>
       </c>
       <c r="AT91" t="n">
-        <v>1.11</v>
+        <v>1</v>
       </c>
       <c r="AU91" t="n">
         <v>1.27</v>
@@ -19173,7 +19173,7 @@
         <v>1.88</v>
       </c>
       <c r="AT92" t="n">
-        <v>1.13</v>
+        <v>1.11</v>
       </c>
       <c r="AU92" t="n">
         <v>0.97</v>
@@ -19376,7 +19376,7 @@
         <v>1.38</v>
       </c>
       <c r="AT93" t="n">
-        <v>1.33</v>
+        <v>1.3</v>
       </c>
       <c r="AU93" t="n">
         <v>1.84</v>
@@ -19579,7 +19579,7 @@
         <v>2.63</v>
       </c>
       <c r="AT94" t="n">
-        <v>1.22</v>
+        <v>1.1</v>
       </c>
       <c r="AU94" t="n">
         <v>1.81</v>
@@ -20797,7 +20797,7 @@
         <v>0.71</v>
       </c>
       <c r="AT100" t="n">
-        <v>0.88</v>
+        <v>0.89</v>
       </c>
       <c r="AU100" t="n">
         <v>1.57</v>
@@ -21000,7 +21000,7 @@
         <v>1.25</v>
       </c>
       <c r="AT101" t="n">
-        <v>1.11</v>
+        <v>1</v>
       </c>
       <c r="AU101" t="n">
         <v>1.12</v>
@@ -21200,7 +21200,7 @@
         <v>0.67</v>
       </c>
       <c r="AS102" t="n">
-        <v>1.13</v>
+        <v>1.11</v>
       </c>
       <c r="AT102" t="n">
         <v>0.88</v>
@@ -21403,7 +21403,7 @@
         <v>2.33</v>
       </c>
       <c r="AS103" t="n">
-        <v>1.44</v>
+        <v>1.6</v>
       </c>
       <c r="AT103" t="n">
         <v>1.75</v>
@@ -21606,7 +21606,7 @@
         <v>1</v>
       </c>
       <c r="AS104" t="n">
-        <v>0.88</v>
+        <v>1.11</v>
       </c>
       <c r="AT104" t="n">
         <v>0.88</v>
@@ -21812,7 +21812,7 @@
         <v>1.88</v>
       </c>
       <c r="AT105" t="n">
-        <v>1.44</v>
+        <v>1.3</v>
       </c>
       <c r="AU105" t="n">
         <v>1.52</v>
@@ -22012,7 +22012,7 @@
         <v>1.33</v>
       </c>
       <c r="AS106" t="n">
-        <v>1.75</v>
+        <v>1.67</v>
       </c>
       <c r="AT106" t="n">
         <v>1.75</v>
@@ -22215,7 +22215,7 @@
         <v>1.33</v>
       </c>
       <c r="AS107" t="n">
-        <v>1.56</v>
+        <v>1.7</v>
       </c>
       <c r="AT107" t="n">
         <v>0.88</v>
@@ -22418,7 +22418,7 @@
         <v>0</v>
       </c>
       <c r="AS108" t="n">
-        <v>1.78</v>
+        <v>1.9</v>
       </c>
       <c r="AT108" t="n">
         <v>0.63</v>
@@ -22824,10 +22824,10 @@
         <v>1.33</v>
       </c>
       <c r="AS110" t="n">
-        <v>2.13</v>
+        <v>2.22</v>
       </c>
       <c r="AT110" t="n">
-        <v>1.5</v>
+        <v>1.33</v>
       </c>
       <c r="AU110" t="n">
         <v>1.2</v>
@@ -23030,7 +23030,7 @@
         <v>2.38</v>
       </c>
       <c r="AT111" t="n">
-        <v>1</v>
+        <v>0.9</v>
       </c>
       <c r="AU111" t="n">
         <v>1.37</v>
@@ -23636,7 +23636,7 @@
         <v>1.33</v>
       </c>
       <c r="AS114" t="n">
-        <v>1.67</v>
+        <v>1.6</v>
       </c>
       <c r="AT114" t="n">
         <v>0.71</v>
@@ -23842,7 +23842,7 @@
         <v>1.75</v>
       </c>
       <c r="AT115" t="n">
-        <v>1.22</v>
+        <v>1.1</v>
       </c>
       <c r="AU115" t="n">
         <v>1.94</v>
@@ -24651,7 +24651,7 @@
         <v>1</v>
       </c>
       <c r="AS119" t="n">
-        <v>1.33</v>
+        <v>1.5</v>
       </c>
       <c r="AT119" t="n">
         <v>1.25</v>
@@ -25263,7 +25263,7 @@
         <v>1.5</v>
       </c>
       <c r="AT122" t="n">
-        <v>1.13</v>
+        <v>1.11</v>
       </c>
       <c r="AU122" t="n">
         <v>1.77</v>
@@ -26075,7 +26075,7 @@
         <v>1.88</v>
       </c>
       <c r="AT126" t="n">
-        <v>1.33</v>
+        <v>1.3</v>
       </c>
       <c r="AU126" t="n">
         <v>0.93</v>
@@ -26278,7 +26278,7 @@
         <v>1.11</v>
       </c>
       <c r="AT127" t="n">
-        <v>0.44</v>
+        <v>0.4</v>
       </c>
       <c r="AU127" t="n">
         <v>1.29</v>
@@ -26478,7 +26478,7 @@
         <v>1.75</v>
       </c>
       <c r="AS128" t="n">
-        <v>1.44</v>
+        <v>1.6</v>
       </c>
       <c r="AT128" t="n">
         <v>0.88</v>
@@ -26684,7 +26684,7 @@
         <v>2.38</v>
       </c>
       <c r="AT129" t="n">
-        <v>0.44</v>
+        <v>0.4</v>
       </c>
       <c r="AU129" t="n">
         <v>1.27</v>
@@ -27087,7 +27087,7 @@
         <v>1</v>
       </c>
       <c r="AS131" t="n">
-        <v>1.78</v>
+        <v>1.9</v>
       </c>
       <c r="AT131" t="n">
         <v>0.88</v>
@@ -27293,7 +27293,7 @@
         <v>1.38</v>
       </c>
       <c r="AT132" t="n">
-        <v>1</v>
+        <v>0.9</v>
       </c>
       <c r="AU132" t="n">
         <v>1.81</v>
@@ -27493,10 +27493,10 @@
         <v>1.5</v>
       </c>
       <c r="AS133" t="n">
-        <v>1.75</v>
+        <v>1.67</v>
       </c>
       <c r="AT133" t="n">
-        <v>0.88</v>
+        <v>0.89</v>
       </c>
       <c r="AU133" t="n">
         <v>1.55</v>
@@ -27699,7 +27699,7 @@
         <v>0.71</v>
       </c>
       <c r="AT134" t="n">
-        <v>1.44</v>
+        <v>1.3</v>
       </c>
       <c r="AU134" t="n">
         <v>1.47</v>
@@ -27899,10 +27899,10 @@
         <v>1</v>
       </c>
       <c r="AS135" t="n">
-        <v>0.88</v>
+        <v>1.11</v>
       </c>
       <c r="AT135" t="n">
-        <v>1.5</v>
+        <v>1.33</v>
       </c>
       <c r="AU135" t="n">
         <v>1.38</v>
@@ -28102,7 +28102,7 @@
         <v>0.5</v>
       </c>
       <c r="AS136" t="n">
-        <v>1.67</v>
+        <v>1.6</v>
       </c>
       <c r="AT136" t="n">
         <v>1.13</v>
@@ -28305,7 +28305,7 @@
         <v>1</v>
       </c>
       <c r="AS137" t="n">
-        <v>1.13</v>
+        <v>1.11</v>
       </c>
       <c r="AT137" t="n">
         <v>1.75</v>
@@ -28511,7 +28511,7 @@
         <v>1.88</v>
       </c>
       <c r="AT138" t="n">
-        <v>1.11</v>
+        <v>1</v>
       </c>
       <c r="AU138" t="n">
         <v>1.49</v>
@@ -28711,7 +28711,7 @@
         <v>1</v>
       </c>
       <c r="AS139" t="n">
-        <v>2.13</v>
+        <v>2.22</v>
       </c>
       <c r="AT139" t="n">
         <v>0.88</v>
@@ -29117,7 +29117,7 @@
         <v>0.75</v>
       </c>
       <c r="AS141" t="n">
-        <v>1.56</v>
+        <v>1.7</v>
       </c>
       <c r="AT141" t="n">
         <v>0.88</v>
@@ -29320,7 +29320,7 @@
         <v>1.75</v>
       </c>
       <c r="AS142" t="n">
-        <v>1.33</v>
+        <v>1.5</v>
       </c>
       <c r="AT142" t="n">
         <v>0.88</v>
@@ -30135,7 +30135,7 @@
         <v>1.11</v>
       </c>
       <c r="AT146" t="n">
-        <v>1.13</v>
+        <v>1.11</v>
       </c>
       <c r="AU146" t="n">
         <v>1.4</v>
@@ -31353,7 +31353,7 @@
         <v>1.25</v>
       </c>
       <c r="AT152" t="n">
-        <v>1.22</v>
+        <v>1.1</v>
       </c>
       <c r="AU152" t="n">
         <v>1.17</v>
@@ -31962,7 +31962,7 @@
         <v>1.5</v>
       </c>
       <c r="AT155" t="n">
-        <v>1.33</v>
+        <v>1.3</v>
       </c>
       <c r="AU155" t="n">
         <v>1.79</v>
@@ -32162,7 +32162,7 @@
         <v>1.4</v>
       </c>
       <c r="AS156" t="n">
-        <v>1.67</v>
+        <v>1.6</v>
       </c>
       <c r="AT156" t="n">
         <v>0.88</v>
@@ -32365,7 +32365,7 @@
         <v>1.4</v>
       </c>
       <c r="AS157" t="n">
-        <v>1.56</v>
+        <v>1.7</v>
       </c>
       <c r="AT157" t="n">
         <v>1.75</v>
@@ -32571,7 +32571,7 @@
         <v>1.5</v>
       </c>
       <c r="AT158" t="n">
-        <v>1</v>
+        <v>0.9</v>
       </c>
       <c r="AU158" t="n">
         <v>1.37</v>
@@ -32771,10 +32771,10 @@
         <v>1.67</v>
       </c>
       <c r="AS159" t="n">
-        <v>1.75</v>
+        <v>1.67</v>
       </c>
       <c r="AT159" t="n">
-        <v>1.44</v>
+        <v>1.3</v>
       </c>
       <c r="AU159" t="n">
         <v>1.6</v>
@@ -32977,7 +32977,7 @@
         <v>0.71</v>
       </c>
       <c r="AT160" t="n">
-        <v>1.11</v>
+        <v>1</v>
       </c>
       <c r="AU160" t="n">
         <v>1.48</v>
@@ -33380,10 +33380,10 @@
         <v>1.2</v>
       </c>
       <c r="AS162" t="n">
-        <v>1.13</v>
+        <v>1.11</v>
       </c>
       <c r="AT162" t="n">
-        <v>0.88</v>
+        <v>0.89</v>
       </c>
       <c r="AU162" t="n">
         <v>1.41</v>
@@ -33583,7 +33583,7 @@
         <v>2.5</v>
       </c>
       <c r="AS163" t="n">
-        <v>2.13</v>
+        <v>2.22</v>
       </c>
       <c r="AT163" t="n">
         <v>2.11</v>
@@ -33786,10 +33786,10 @@
         <v>1.4</v>
       </c>
       <c r="AS164" t="n">
-        <v>1.78</v>
+        <v>1.9</v>
       </c>
       <c r="AT164" t="n">
-        <v>1.5</v>
+        <v>1.33</v>
       </c>
       <c r="AU164" t="n">
         <v>1.53</v>
@@ -33989,7 +33989,7 @@
         <v>1.2</v>
       </c>
       <c r="AS165" t="n">
-        <v>1.44</v>
+        <v>1.6</v>
       </c>
       <c r="AT165" t="n">
         <v>0.88</v>
@@ -34398,7 +34398,7 @@
         <v>1.38</v>
       </c>
       <c r="AT167" t="n">
-        <v>0.44</v>
+        <v>0.4</v>
       </c>
       <c r="AU167" t="n">
         <v>1.79</v>
@@ -34598,7 +34598,7 @@
         <v>1</v>
       </c>
       <c r="AS168" t="n">
-        <v>0.88</v>
+        <v>1.11</v>
       </c>
       <c r="AT168" t="n">
         <v>0.88</v>
@@ -34804,7 +34804,7 @@
         <v>1.88</v>
       </c>
       <c r="AT169" t="n">
-        <v>1.13</v>
+        <v>1.11</v>
       </c>
       <c r="AU169" t="n">
         <v>1.4</v>
@@ -35210,7 +35210,7 @@
         <v>2.38</v>
       </c>
       <c r="AT171" t="n">
-        <v>1.33</v>
+        <v>1.3</v>
       </c>
       <c r="AU171" t="n">
         <v>1.2</v>
@@ -35819,7 +35819,7 @@
         <v>1.11</v>
       </c>
       <c r="AT174" t="n">
-        <v>1.22</v>
+        <v>1.1</v>
       </c>
       <c r="AU174" t="n">
         <v>1.36</v>
@@ -37034,7 +37034,7 @@
         <v>2</v>
       </c>
       <c r="AS180" t="n">
-        <v>1.33</v>
+        <v>1.5</v>
       </c>
       <c r="AT180" t="n">
         <v>1.75</v>
@@ -37846,7 +37846,7 @@
         <v>1.67</v>
       </c>
       <c r="AS184" t="n">
-        <v>1.44</v>
+        <v>1.6</v>
       </c>
       <c r="AT184" t="n">
         <v>1.75</v>
@@ -38052,7 +38052,7 @@
         <v>1.38</v>
       </c>
       <c r="AT185" t="n">
-        <v>1.22</v>
+        <v>1.1</v>
       </c>
       <c r="AU185" t="n">
         <v>1.75</v>
@@ -38252,10 +38252,10 @@
         <v>0.71</v>
       </c>
       <c r="AS186" t="n">
-        <v>2.13</v>
+        <v>2.22</v>
       </c>
       <c r="AT186" t="n">
-        <v>1</v>
+        <v>0.9</v>
       </c>
       <c r="AU186" t="n">
         <v>1.09</v>
@@ -38458,7 +38458,7 @@
         <v>1.5</v>
       </c>
       <c r="AT187" t="n">
-        <v>0.44</v>
+        <v>0.4</v>
       </c>
       <c r="AU187" t="n">
         <v>1.32</v>
@@ -38658,7 +38658,7 @@
         <v>2.57</v>
       </c>
       <c r="AS188" t="n">
-        <v>0.88</v>
+        <v>1.11</v>
       </c>
       <c r="AT188" t="n">
         <v>2.11</v>
@@ -38864,7 +38864,7 @@
         <v>1.33</v>
       </c>
       <c r="AT189" t="n">
-        <v>1.5</v>
+        <v>1.33</v>
       </c>
       <c r="AU189" t="n">
         <v>1.28</v>
@@ -39064,10 +39064,10 @@
         <v>1.29</v>
       </c>
       <c r="AS190" t="n">
-        <v>1.75</v>
+        <v>1.67</v>
       </c>
       <c r="AT190" t="n">
-        <v>1.11</v>
+        <v>1</v>
       </c>
       <c r="AU190" t="n">
         <v>1.6</v>
@@ -39673,10 +39673,10 @@
         <v>1.17</v>
       </c>
       <c r="AS193" t="n">
-        <v>1.56</v>
+        <v>1.7</v>
       </c>
       <c r="AT193" t="n">
-        <v>0.88</v>
+        <v>0.89</v>
       </c>
       <c r="AU193" t="n">
         <v>1.62</v>
@@ -39876,7 +39876,7 @@
         <v>1.17</v>
       </c>
       <c r="AS194" t="n">
-        <v>1.67</v>
+        <v>1.6</v>
       </c>
       <c r="AT194" t="n">
         <v>0.88</v>
@@ -40079,10 +40079,10 @@
         <v>1.86</v>
       </c>
       <c r="AS195" t="n">
-        <v>1.13</v>
+        <v>1.11</v>
       </c>
       <c r="AT195" t="n">
-        <v>1.44</v>
+        <v>1.3</v>
       </c>
       <c r="AU195" t="n">
         <v>1.38</v>
@@ -40282,7 +40282,7 @@
         <v>1</v>
       </c>
       <c r="AS196" t="n">
-        <v>1.78</v>
+        <v>1.9</v>
       </c>
       <c r="AT196" t="n">
         <v>0.88</v>
@@ -40485,7 +40485,7 @@
         <v>1.17</v>
       </c>
       <c r="AS197" t="n">
-        <v>1.33</v>
+        <v>1.5</v>
       </c>
       <c r="AT197" t="n">
         <v>0.88</v>
@@ -43127,7 +43127,7 @@
         <v>1.11</v>
       </c>
       <c r="AT210" t="n">
-        <v>1.33</v>
+        <v>1.3</v>
       </c>
       <c r="AU210" t="n">
         <v>1.3</v>
@@ -43330,7 +43330,7 @@
         <v>1.5</v>
       </c>
       <c r="AT211" t="n">
-        <v>1.22</v>
+        <v>1.1</v>
       </c>
       <c r="AU211" t="n">
         <v>1.32</v>
@@ -43530,10 +43530,10 @@
         <v>0.75</v>
       </c>
       <c r="AS212" t="n">
-        <v>0.88</v>
+        <v>1.11</v>
       </c>
       <c r="AT212" t="n">
-        <v>1</v>
+        <v>0.9</v>
       </c>
       <c r="AU212" t="n">
         <v>1.45</v>
@@ -43733,10 +43733,10 @@
         <v>1.25</v>
       </c>
       <c r="AS213" t="n">
-        <v>1.13</v>
+        <v>1.11</v>
       </c>
       <c r="AT213" t="n">
-        <v>1.11</v>
+        <v>1</v>
       </c>
       <c r="AU213" t="n">
         <v>1.42</v>
@@ -43939,7 +43939,7 @@
         <v>1.11</v>
       </c>
       <c r="AT214" t="n">
-        <v>1.5</v>
+        <v>1.33</v>
       </c>
       <c r="AU214" t="n">
         <v>1.49</v>
@@ -44139,10 +44139,10 @@
         <v>0.5</v>
       </c>
       <c r="AS215" t="n">
-        <v>2.13</v>
+        <v>2.22</v>
       </c>
       <c r="AT215" t="n">
-        <v>0.44</v>
+        <v>0.4</v>
       </c>
       <c r="AU215" t="n">
         <v>1.1</v>
@@ -44545,7 +44545,7 @@
         <v>1.86</v>
       </c>
       <c r="AS217" t="n">
-        <v>1.67</v>
+        <v>1.6</v>
       </c>
       <c r="AT217" t="n">
         <v>1.75</v>
@@ -44748,10 +44748,10 @@
         <v>1</v>
       </c>
       <c r="AS218" t="n">
-        <v>1.44</v>
+        <v>1.6</v>
       </c>
       <c r="AT218" t="n">
-        <v>0.88</v>
+        <v>0.89</v>
       </c>
       <c r="AU218" t="n">
         <v>1.48</v>
@@ -44951,10 +44951,10 @@
         <v>1.63</v>
       </c>
       <c r="AS219" t="n">
-        <v>1.56</v>
+        <v>1.7</v>
       </c>
       <c r="AT219" t="n">
-        <v>1.44</v>
+        <v>1.3</v>
       </c>
       <c r="AU219" t="n">
         <v>1.59</v>
@@ -45154,7 +45154,7 @@
         <v>2.38</v>
       </c>
       <c r="AS220" t="n">
-        <v>1.78</v>
+        <v>1.9</v>
       </c>
       <c r="AT220" t="n">
         <v>2.11</v>
@@ -45357,7 +45357,7 @@
         <v>1.14</v>
       </c>
       <c r="AS221" t="n">
-        <v>1.33</v>
+        <v>1.5</v>
       </c>
       <c r="AT221" t="n">
         <v>1.13</v>
@@ -45563,7 +45563,7 @@
         <v>0.71</v>
       </c>
       <c r="AT222" t="n">
-        <v>1.33</v>
+        <v>1.3</v>
       </c>
       <c r="AU222" t="n">
         <v>1.54</v>
@@ -45763,10 +45763,10 @@
         <v>1.29</v>
       </c>
       <c r="AS223" t="n">
-        <v>1.75</v>
+        <v>1.67</v>
       </c>
       <c r="AT223" t="n">
-        <v>1.13</v>
+        <v>1.11</v>
       </c>
       <c r="AU223" t="n">
         <v>1.53</v>
@@ -48660,6 +48660,1833 @@
       </c>
       <c r="BK237" t="n">
         <v>13</v>
+      </c>
+    </row>
+    <row r="238">
+      <c r="A238" s="1" t="n">
+        <v>237</v>
+      </c>
+      <c r="B238" t="n">
+        <v>4554649</v>
+      </c>
+      <c r="C238" t="inlineStr">
+        <is>
+          <t>Argentina Primera División</t>
+        </is>
+      </c>
+      <c r="D238" t="inlineStr">
+        <is>
+          <t>2023</t>
+        </is>
+      </c>
+      <c r="E238" s="2" t="n">
+        <v>45072.89583333334</v>
+      </c>
+      <c r="F238" t="n">
+        <v>18</v>
+      </c>
+      <c r="G238" t="inlineStr">
+        <is>
+          <t>Atlético Tucumán</t>
+        </is>
+      </c>
+      <c r="H238" t="inlineStr">
+        <is>
+          <t>Arsenal de Sarandí</t>
+        </is>
+      </c>
+      <c r="I238" t="n">
+        <v>0</v>
+      </c>
+      <c r="J238" t="n">
+        <v>0</v>
+      </c>
+      <c r="K238" t="n">
+        <v>0</v>
+      </c>
+      <c r="L238" t="n">
+        <v>1</v>
+      </c>
+      <c r="M238" t="n">
+        <v>0</v>
+      </c>
+      <c r="N238" t="n">
+        <v>1</v>
+      </c>
+      <c r="O238" t="inlineStr">
+        <is>
+          <t>['90+3']</t>
+        </is>
+      </c>
+      <c r="P238" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="Q238" t="n">
+        <v>7</v>
+      </c>
+      <c r="R238" t="n">
+        <v>0</v>
+      </c>
+      <c r="S238" t="n">
+        <v>7</v>
+      </c>
+      <c r="T238" t="n">
+        <v>2.25</v>
+      </c>
+      <c r="U238" t="n">
+        <v>2.15</v>
+      </c>
+      <c r="V238" t="n">
+        <v>5.25</v>
+      </c>
+      <c r="W238" t="n">
+        <v>1.42</v>
+      </c>
+      <c r="X238" t="n">
+        <v>2.62</v>
+      </c>
+      <c r="Y238" t="n">
+        <v>2.9</v>
+      </c>
+      <c r="Z238" t="n">
+        <v>1.36</v>
+      </c>
+      <c r="AA238" t="n">
+        <v>7</v>
+      </c>
+      <c r="AB238" t="n">
+        <v>1.07</v>
+      </c>
+      <c r="AC238" t="n">
+        <v>1.65</v>
+      </c>
+      <c r="AD238" t="n">
+        <v>3.78</v>
+      </c>
+      <c r="AE238" t="n">
+        <v>5.45</v>
+      </c>
+      <c r="AF238" t="n">
+        <v>1.05</v>
+      </c>
+      <c r="AG238" t="n">
+        <v>8</v>
+      </c>
+      <c r="AH238" t="n">
+        <v>1.33</v>
+      </c>
+      <c r="AI238" t="n">
+        <v>3</v>
+      </c>
+      <c r="AJ238" t="n">
+        <v>2.05</v>
+      </c>
+      <c r="AK238" t="n">
+        <v>1.7</v>
+      </c>
+      <c r="AL238" t="n">
+        <v>2.09</v>
+      </c>
+      <c r="AM238" t="n">
+        <v>1.69</v>
+      </c>
+      <c r="AN238" t="n">
+        <v>1.14</v>
+      </c>
+      <c r="AO238" t="n">
+        <v>1.27</v>
+      </c>
+      <c r="AP238" t="n">
+        <v>2.26</v>
+      </c>
+      <c r="AQ238" t="n">
+        <v>0.88</v>
+      </c>
+      <c r="AR238" t="n">
+        <v>0.44</v>
+      </c>
+      <c r="AS238" t="n">
+        <v>1.11</v>
+      </c>
+      <c r="AT238" t="n">
+        <v>0.4</v>
+      </c>
+      <c r="AU238" t="n">
+        <v>1.43</v>
+      </c>
+      <c r="AV238" t="n">
+        <v>1.1</v>
+      </c>
+      <c r="AW238" t="n">
+        <v>2.53</v>
+      </c>
+      <c r="AX238" t="n">
+        <v>1.51</v>
+      </c>
+      <c r="AY238" t="n">
+        <v>8.5</v>
+      </c>
+      <c r="AZ238" t="n">
+        <v>3.16</v>
+      </c>
+      <c r="BA238" t="n">
+        <v>1.27</v>
+      </c>
+      <c r="BB238" t="n">
+        <v>1.5</v>
+      </c>
+      <c r="BC238" t="n">
+        <v>2</v>
+      </c>
+      <c r="BD238" t="n">
+        <v>2.5</v>
+      </c>
+      <c r="BE238" t="n">
+        <v>3.5</v>
+      </c>
+      <c r="BF238" t="n">
+        <v>5</v>
+      </c>
+      <c r="BG238" t="n">
+        <v>2</v>
+      </c>
+      <c r="BH238" t="n">
+        <v>14</v>
+      </c>
+      <c r="BI238" t="n">
+        <v>9</v>
+      </c>
+      <c r="BJ238" t="n">
+        <v>19</v>
+      </c>
+      <c r="BK238" t="n">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="239">
+      <c r="A239" s="1" t="n">
+        <v>238</v>
+      </c>
+      <c r="B239" t="n">
+        <v>5019518</v>
+      </c>
+      <c r="C239" t="inlineStr">
+        <is>
+          <t>Argentina Primera División</t>
+        </is>
+      </c>
+      <c r="D239" t="inlineStr">
+        <is>
+          <t>2023</t>
+        </is>
+      </c>
+      <c r="E239" s="2" t="n">
+        <v>45073.45833333334</v>
+      </c>
+      <c r="F239" t="n">
+        <v>18</v>
+      </c>
+      <c r="G239" t="inlineStr">
+        <is>
+          <t>Gimnasia La Plata</t>
+        </is>
+      </c>
+      <c r="H239" t="inlineStr">
+        <is>
+          <t>Sarmiento</t>
+        </is>
+      </c>
+      <c r="I239" t="n">
+        <v>0</v>
+      </c>
+      <c r="J239" t="n">
+        <v>0</v>
+      </c>
+      <c r="K239" t="n">
+        <v>0</v>
+      </c>
+      <c r="L239" t="n">
+        <v>0</v>
+      </c>
+      <c r="M239" t="n">
+        <v>0</v>
+      </c>
+      <c r="N239" t="n">
+        <v>0</v>
+      </c>
+      <c r="O239" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="P239" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="Q239" t="n">
+        <v>10</v>
+      </c>
+      <c r="R239" t="n">
+        <v>1</v>
+      </c>
+      <c r="S239" t="n">
+        <v>11</v>
+      </c>
+      <c r="T239" t="n">
+        <v>3.25</v>
+      </c>
+      <c r="U239" t="n">
+        <v>2</v>
+      </c>
+      <c r="V239" t="n">
+        <v>3.75</v>
+      </c>
+      <c r="W239" t="n">
+        <v>1.5</v>
+      </c>
+      <c r="X239" t="n">
+        <v>2.4</v>
+      </c>
+      <c r="Y239" t="n">
+        <v>3.25</v>
+      </c>
+      <c r="Z239" t="n">
+        <v>1.3</v>
+      </c>
+      <c r="AA239" t="n">
+        <v>9.85</v>
+      </c>
+      <c r="AB239" t="n">
+        <v>1.04</v>
+      </c>
+      <c r="AC239" t="n">
+        <v>2.4</v>
+      </c>
+      <c r="AD239" t="n">
+        <v>3.16</v>
+      </c>
+      <c r="AE239" t="n">
+        <v>3.12</v>
+      </c>
+      <c r="AF239" t="n">
+        <v>1.08</v>
+      </c>
+      <c r="AG239" t="n">
+        <v>8.5</v>
+      </c>
+      <c r="AH239" t="n">
+        <v>1.42</v>
+      </c>
+      <c r="AI239" t="n">
+        <v>2.8</v>
+      </c>
+      <c r="AJ239" t="n">
+        <v>2.35</v>
+      </c>
+      <c r="AK239" t="n">
+        <v>1.52</v>
+      </c>
+      <c r="AL239" t="n">
+        <v>1.95</v>
+      </c>
+      <c r="AM239" t="n">
+        <v>1.8</v>
+      </c>
+      <c r="AN239" t="n">
+        <v>1.38</v>
+      </c>
+      <c r="AO239" t="n">
+        <v>1.3</v>
+      </c>
+      <c r="AP239" t="n">
+        <v>1.57</v>
+      </c>
+      <c r="AQ239" t="n">
+        <v>1.75</v>
+      </c>
+      <c r="AR239" t="n">
+        <v>1.33</v>
+      </c>
+      <c r="AS239" t="n">
+        <v>1.67</v>
+      </c>
+      <c r="AT239" t="n">
+        <v>1.3</v>
+      </c>
+      <c r="AU239" t="n">
+        <v>1.5</v>
+      </c>
+      <c r="AV239" t="n">
+        <v>1.23</v>
+      </c>
+      <c r="AW239" t="n">
+        <v>2.73</v>
+      </c>
+      <c r="AX239" t="n">
+        <v>1.55</v>
+      </c>
+      <c r="AY239" t="n">
+        <v>8.5</v>
+      </c>
+      <c r="AZ239" t="n">
+        <v>2.91</v>
+      </c>
+      <c r="BA239" t="n">
+        <v>1.12</v>
+      </c>
+      <c r="BB239" t="n">
+        <v>1.33</v>
+      </c>
+      <c r="BC239" t="n">
+        <v>1.6</v>
+      </c>
+      <c r="BD239" t="n">
+        <v>2.05</v>
+      </c>
+      <c r="BE239" t="n">
+        <v>2.7</v>
+      </c>
+      <c r="BF239" t="n">
+        <v>6</v>
+      </c>
+      <c r="BG239" t="n">
+        <v>0</v>
+      </c>
+      <c r="BH239" t="n">
+        <v>18</v>
+      </c>
+      <c r="BI239" t="n">
+        <v>8</v>
+      </c>
+      <c r="BJ239" t="n">
+        <v>24</v>
+      </c>
+      <c r="BK239" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="240">
+      <c r="A240" s="1" t="n">
+        <v>239</v>
+      </c>
+      <c r="B240" t="n">
+        <v>4554646</v>
+      </c>
+      <c r="C240" t="inlineStr">
+        <is>
+          <t>Argentina Primera División</t>
+        </is>
+      </c>
+      <c r="D240" t="inlineStr">
+        <is>
+          <t>2023</t>
+        </is>
+      </c>
+      <c r="E240" s="2" t="n">
+        <v>45073.75</v>
+      </c>
+      <c r="F240" t="n">
+        <v>18</v>
+      </c>
+      <c r="G240" t="inlineStr">
+        <is>
+          <t>Platense</t>
+        </is>
+      </c>
+      <c r="H240" t="inlineStr">
+        <is>
+          <t>Belgrano</t>
+        </is>
+      </c>
+      <c r="I240" t="n">
+        <v>1</v>
+      </c>
+      <c r="J240" t="n">
+        <v>0</v>
+      </c>
+      <c r="K240" t="n">
+        <v>1</v>
+      </c>
+      <c r="L240" t="n">
+        <v>1</v>
+      </c>
+      <c r="M240" t="n">
+        <v>0</v>
+      </c>
+      <c r="N240" t="n">
+        <v>1</v>
+      </c>
+      <c r="O240" t="inlineStr">
+        <is>
+          <t>['3']</t>
+        </is>
+      </c>
+      <c r="P240" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="Q240" t="n">
+        <v>5</v>
+      </c>
+      <c r="R240" t="n">
+        <v>4</v>
+      </c>
+      <c r="S240" t="n">
+        <v>9</v>
+      </c>
+      <c r="T240" t="n">
+        <v>3.4</v>
+      </c>
+      <c r="U240" t="n">
+        <v>1.87</v>
+      </c>
+      <c r="V240" t="n">
+        <v>4</v>
+      </c>
+      <c r="W240" t="n">
+        <v>1.61</v>
+      </c>
+      <c r="X240" t="n">
+        <v>2.2</v>
+      </c>
+      <c r="Y240" t="n">
+        <v>3.95</v>
+      </c>
+      <c r="Z240" t="n">
+        <v>1.21</v>
+      </c>
+      <c r="AA240" t="n">
+        <v>11.5</v>
+      </c>
+      <c r="AB240" t="n">
+        <v>1.01</v>
+      </c>
+      <c r="AC240" t="n">
+        <v>2.45</v>
+      </c>
+      <c r="AD240" t="n">
+        <v>3</v>
+      </c>
+      <c r="AE240" t="n">
+        <v>3</v>
+      </c>
+      <c r="AF240" t="n">
+        <v>1.12</v>
+      </c>
+      <c r="AG240" t="n">
+        <v>6.5</v>
+      </c>
+      <c r="AH240" t="n">
+        <v>1.52</v>
+      </c>
+      <c r="AI240" t="n">
+        <v>2.35</v>
+      </c>
+      <c r="AJ240" t="n">
+        <v>2.59</v>
+      </c>
+      <c r="AK240" t="n">
+        <v>1.42</v>
+      </c>
+      <c r="AL240" t="n">
+        <v>2.25</v>
+      </c>
+      <c r="AM240" t="n">
+        <v>1.62</v>
+      </c>
+      <c r="AN240" t="n">
+        <v>1.38</v>
+      </c>
+      <c r="AO240" t="n">
+        <v>1.35</v>
+      </c>
+      <c r="AP240" t="n">
+        <v>1.53</v>
+      </c>
+      <c r="AQ240" t="n">
+        <v>1.44</v>
+      </c>
+      <c r="AR240" t="n">
+        <v>1.44</v>
+      </c>
+      <c r="AS240" t="n">
+        <v>1.6</v>
+      </c>
+      <c r="AT240" t="n">
+        <v>1.3</v>
+      </c>
+      <c r="AU240" t="n">
+        <v>1.51</v>
+      </c>
+      <c r="AV240" t="n">
+        <v>1.2</v>
+      </c>
+      <c r="AW240" t="n">
+        <v>2.71</v>
+      </c>
+      <c r="AX240" t="n">
+        <v>1.75</v>
+      </c>
+      <c r="AY240" t="n">
+        <v>8</v>
+      </c>
+      <c r="AZ240" t="n">
+        <v>2.44</v>
+      </c>
+      <c r="BA240" t="n">
+        <v>1.27</v>
+      </c>
+      <c r="BB240" t="n">
+        <v>1.5</v>
+      </c>
+      <c r="BC240" t="n">
+        <v>2</v>
+      </c>
+      <c r="BD240" t="n">
+        <v>2.5</v>
+      </c>
+      <c r="BE240" t="n">
+        <v>3.5</v>
+      </c>
+      <c r="BF240" t="n">
+        <v>3</v>
+      </c>
+      <c r="BG240" t="n">
+        <v>4</v>
+      </c>
+      <c r="BH240" t="n">
+        <v>6</v>
+      </c>
+      <c r="BI240" t="n">
+        <v>7</v>
+      </c>
+      <c r="BJ240" t="n">
+        <v>9</v>
+      </c>
+      <c r="BK240" t="n">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="241">
+      <c r="A241" s="1" t="n">
+        <v>240</v>
+      </c>
+      <c r="B241" t="n">
+        <v>4554650</v>
+      </c>
+      <c r="C241" t="inlineStr">
+        <is>
+          <t>Argentina Primera División</t>
+        </is>
+      </c>
+      <c r="D241" t="inlineStr">
+        <is>
+          <t>2023</t>
+        </is>
+      </c>
+      <c r="E241" s="2" t="n">
+        <v>45073.85416666666</v>
+      </c>
+      <c r="F241" t="n">
+        <v>18</v>
+      </c>
+      <c r="G241" t="inlineStr">
+        <is>
+          <t>Independiente</t>
+        </is>
+      </c>
+      <c r="H241" t="inlineStr">
+        <is>
+          <t>Lanús</t>
+        </is>
+      </c>
+      <c r="I241" t="n">
+        <v>1</v>
+      </c>
+      <c r="J241" t="n">
+        <v>0</v>
+      </c>
+      <c r="K241" t="n">
+        <v>1</v>
+      </c>
+      <c r="L241" t="n">
+        <v>1</v>
+      </c>
+      <c r="M241" t="n">
+        <v>1</v>
+      </c>
+      <c r="N241" t="n">
+        <v>2</v>
+      </c>
+      <c r="O241" t="inlineStr">
+        <is>
+          <t>['12']</t>
+        </is>
+      </c>
+      <c r="P241" t="inlineStr">
+        <is>
+          <t>['90+3']</t>
+        </is>
+      </c>
+      <c r="Q241" t="n">
+        <v>4</v>
+      </c>
+      <c r="R241" t="n">
+        <v>1</v>
+      </c>
+      <c r="S241" t="n">
+        <v>5</v>
+      </c>
+      <c r="T241" t="n">
+        <v>3.4</v>
+      </c>
+      <c r="U241" t="n">
+        <v>1.95</v>
+      </c>
+      <c r="V241" t="n">
+        <v>3.75</v>
+      </c>
+      <c r="W241" t="n">
+        <v>1.53</v>
+      </c>
+      <c r="X241" t="n">
+        <v>2.38</v>
+      </c>
+      <c r="Y241" t="n">
+        <v>3.75</v>
+      </c>
+      <c r="Z241" t="n">
+        <v>1.25</v>
+      </c>
+      <c r="AA241" t="n">
+        <v>11</v>
+      </c>
+      <c r="AB241" t="n">
+        <v>1.05</v>
+      </c>
+      <c r="AC241" t="n">
+        <v>2.65</v>
+      </c>
+      <c r="AD241" t="n">
+        <v>2.86</v>
+      </c>
+      <c r="AE241" t="n">
+        <v>2.98</v>
+      </c>
+      <c r="AF241" t="n">
+        <v>1.1</v>
+      </c>
+      <c r="AG241" t="n">
+        <v>7.5</v>
+      </c>
+      <c r="AH241" t="n">
+        <v>1.47</v>
+      </c>
+      <c r="AI241" t="n">
+        <v>2.65</v>
+      </c>
+      <c r="AJ241" t="n">
+        <v>2.4</v>
+      </c>
+      <c r="AK241" t="n">
+        <v>1.5</v>
+      </c>
+      <c r="AL241" t="n">
+        <v>2.08</v>
+      </c>
+      <c r="AM241" t="n">
+        <v>1.71</v>
+      </c>
+      <c r="AN241" t="n">
+        <v>1.36</v>
+      </c>
+      <c r="AO241" t="n">
+        <v>1.36</v>
+      </c>
+      <c r="AP241" t="n">
+        <v>1.5</v>
+      </c>
+      <c r="AQ241" t="n">
+        <v>1.13</v>
+      </c>
+      <c r="AR241" t="n">
+        <v>1.13</v>
+      </c>
+      <c r="AS241" t="n">
+        <v>1.11</v>
+      </c>
+      <c r="AT241" t="n">
+        <v>1.11</v>
+      </c>
+      <c r="AU241" t="n">
+        <v>1.44</v>
+      </c>
+      <c r="AV241" t="n">
+        <v>1.39</v>
+      </c>
+      <c r="AW241" t="n">
+        <v>2.83</v>
+      </c>
+      <c r="AX241" t="n">
+        <v>1.91</v>
+      </c>
+      <c r="AY241" t="n">
+        <v>7.5</v>
+      </c>
+      <c r="AZ241" t="n">
+        <v>2.1</v>
+      </c>
+      <c r="BA241" t="n">
+        <v>1.3</v>
+      </c>
+      <c r="BB241" t="n">
+        <v>1.57</v>
+      </c>
+      <c r="BC241" t="n">
+        <v>1.98</v>
+      </c>
+      <c r="BD241" t="n">
+        <v>2.7</v>
+      </c>
+      <c r="BE241" t="n">
+        <v>3.8</v>
+      </c>
+      <c r="BF241" t="n">
+        <v>8</v>
+      </c>
+      <c r="BG241" t="n">
+        <v>2</v>
+      </c>
+      <c r="BH241" t="n">
+        <v>7</v>
+      </c>
+      <c r="BI241" t="n">
+        <v>5</v>
+      </c>
+      <c r="BJ241" t="n">
+        <v>15</v>
+      </c>
+      <c r="BK241" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="242">
+      <c r="A242" s="1" t="n">
+        <v>241</v>
+      </c>
+      <c r="B242" t="n">
+        <v>4554642</v>
+      </c>
+      <c r="C242" t="inlineStr">
+        <is>
+          <t>Argentina Primera División</t>
+        </is>
+      </c>
+      <c r="D242" t="inlineStr">
+        <is>
+          <t>2023</t>
+        </is>
+      </c>
+      <c r="E242" s="2" t="n">
+        <v>45074.58333333334</v>
+      </c>
+      <c r="F242" t="n">
+        <v>18</v>
+      </c>
+      <c r="G242" t="inlineStr">
+        <is>
+          <t>Barracas Central</t>
+        </is>
+      </c>
+      <c r="H242" t="inlineStr">
+        <is>
+          <t>San Lorenzo</t>
+        </is>
+      </c>
+      <c r="I242" t="n">
+        <v>1</v>
+      </c>
+      <c r="J242" t="n">
+        <v>0</v>
+      </c>
+      <c r="K242" t="n">
+        <v>1</v>
+      </c>
+      <c r="L242" t="n">
+        <v>1</v>
+      </c>
+      <c r="M242" t="n">
+        <v>0</v>
+      </c>
+      <c r="N242" t="n">
+        <v>1</v>
+      </c>
+      <c r="O242" t="inlineStr">
+        <is>
+          <t>['12']</t>
+        </is>
+      </c>
+      <c r="P242" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="Q242" t="n">
+        <v>-1</v>
+      </c>
+      <c r="R242" t="n">
+        <v>-1</v>
+      </c>
+      <c r="S242" t="n">
+        <v>-1</v>
+      </c>
+      <c r="T242" t="n">
+        <v>4.6</v>
+      </c>
+      <c r="U242" t="n">
+        <v>1.88</v>
+      </c>
+      <c r="V242" t="n">
+        <v>2.85</v>
+      </c>
+      <c r="W242" t="n">
+        <v>1.57</v>
+      </c>
+      <c r="X242" t="n">
+        <v>2.25</v>
+      </c>
+      <c r="Y242" t="n">
+        <v>3.6</v>
+      </c>
+      <c r="Z242" t="n">
+        <v>1.25</v>
+      </c>
+      <c r="AA242" t="n">
+        <v>10.75</v>
+      </c>
+      <c r="AB242" t="n">
+        <v>1.03</v>
+      </c>
+      <c r="AC242" t="n">
+        <v>3.8</v>
+      </c>
+      <c r="AD242" t="n">
+        <v>2.97</v>
+      </c>
+      <c r="AE242" t="n">
+        <v>2.09</v>
+      </c>
+      <c r="AF242" t="n">
+        <v>1.11</v>
+      </c>
+      <c r="AG242" t="n">
+        <v>5.5</v>
+      </c>
+      <c r="AH242" t="n">
+        <v>1.55</v>
+      </c>
+      <c r="AI242" t="n">
+        <v>2.3</v>
+      </c>
+      <c r="AJ242" t="n">
+        <v>2.62</v>
+      </c>
+      <c r="AK242" t="n">
+        <v>1.42</v>
+      </c>
+      <c r="AL242" t="n">
+        <v>2.29</v>
+      </c>
+      <c r="AM242" t="n">
+        <v>1.61</v>
+      </c>
+      <c r="AN242" t="n">
+        <v>1.75</v>
+      </c>
+      <c r="AO242" t="n">
+        <v>1.38</v>
+      </c>
+      <c r="AP242" t="n">
+        <v>1.25</v>
+      </c>
+      <c r="AQ242" t="n">
+        <v>1.33</v>
+      </c>
+      <c r="AR242" t="n">
+        <v>1.5</v>
+      </c>
+      <c r="AS242" t="n">
+        <v>1.5</v>
+      </c>
+      <c r="AT242" t="n">
+        <v>1.33</v>
+      </c>
+      <c r="AU242" t="n">
+        <v>1.12</v>
+      </c>
+      <c r="AV242" t="n">
+        <v>1.27</v>
+      </c>
+      <c r="AW242" t="n">
+        <v>2.39</v>
+      </c>
+      <c r="AX242" t="n">
+        <v>2.8</v>
+      </c>
+      <c r="AY242" t="n">
+        <v>6</v>
+      </c>
+      <c r="AZ242" t="n">
+        <v>1.54</v>
+      </c>
+      <c r="BA242" t="n">
+        <v>1.26</v>
+      </c>
+      <c r="BB242" t="n">
+        <v>1.49</v>
+      </c>
+      <c r="BC242" t="n">
+        <v>1.98</v>
+      </c>
+      <c r="BD242" t="n">
+        <v>2.5</v>
+      </c>
+      <c r="BE242" t="n">
+        <v>3.5</v>
+      </c>
+      <c r="BF242" t="n">
+        <v>-1</v>
+      </c>
+      <c r="BG242" t="n">
+        <v>-1</v>
+      </c>
+      <c r="BH242" t="n">
+        <v>-1</v>
+      </c>
+      <c r="BI242" t="n">
+        <v>-1</v>
+      </c>
+      <c r="BJ242" t="n">
+        <v>-1</v>
+      </c>
+      <c r="BK242" t="n">
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="243">
+      <c r="A243" s="1" t="n">
+        <v>242</v>
+      </c>
+      <c r="B243" t="n">
+        <v>4554647</v>
+      </c>
+      <c r="C243" t="inlineStr">
+        <is>
+          <t>Argentina Primera División</t>
+        </is>
+      </c>
+      <c r="D243" t="inlineStr">
+        <is>
+          <t>2023</t>
+        </is>
+      </c>
+      <c r="E243" s="2" t="n">
+        <v>45074.6875</v>
+      </c>
+      <c r="F243" t="n">
+        <v>18</v>
+      </c>
+      <c r="G243" t="inlineStr">
+        <is>
+          <t>Talleres Córdoba</t>
+        </is>
+      </c>
+      <c r="H243" t="inlineStr">
+        <is>
+          <t>Argentinos Juniors</t>
+        </is>
+      </c>
+      <c r="I243" t="n">
+        <v>0</v>
+      </c>
+      <c r="J243" t="n">
+        <v>0</v>
+      </c>
+      <c r="K243" t="n">
+        <v>0</v>
+      </c>
+      <c r="L243" t="n">
+        <v>1</v>
+      </c>
+      <c r="M243" t="n">
+        <v>0</v>
+      </c>
+      <c r="N243" t="n">
+        <v>1</v>
+      </c>
+      <c r="O243" t="inlineStr">
+        <is>
+          <t>['59']</t>
+        </is>
+      </c>
+      <c r="P243" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="Q243" t="n">
+        <v>7</v>
+      </c>
+      <c r="R243" t="n">
+        <v>2</v>
+      </c>
+      <c r="S243" t="n">
+        <v>9</v>
+      </c>
+      <c r="T243" t="n">
+        <v>3</v>
+      </c>
+      <c r="U243" t="n">
+        <v>2</v>
+      </c>
+      <c r="V243" t="n">
+        <v>4</v>
+      </c>
+      <c r="W243" t="n">
+        <v>1.5</v>
+      </c>
+      <c r="X243" t="n">
+        <v>2.5</v>
+      </c>
+      <c r="Y243" t="n">
+        <v>3.5</v>
+      </c>
+      <c r="Z243" t="n">
+        <v>1.29</v>
+      </c>
+      <c r="AA243" t="n">
+        <v>10</v>
+      </c>
+      <c r="AB243" t="n">
+        <v>1.06</v>
+      </c>
+      <c r="AC243" t="n">
+        <v>2.24</v>
+      </c>
+      <c r="AD243" t="n">
+        <v>3.07</v>
+      </c>
+      <c r="AE243" t="n">
+        <v>3.43</v>
+      </c>
+      <c r="AF243" t="n">
+        <v>1.08</v>
+      </c>
+      <c r="AG243" t="n">
+        <v>7</v>
+      </c>
+      <c r="AH243" t="n">
+        <v>1.44</v>
+      </c>
+      <c r="AI243" t="n">
+        <v>2.62</v>
+      </c>
+      <c r="AJ243" t="n">
+        <v>2.3</v>
+      </c>
+      <c r="AK243" t="n">
+        <v>1.6</v>
+      </c>
+      <c r="AL243" t="n">
+        <v>2</v>
+      </c>
+      <c r="AM243" t="n">
+        <v>1.75</v>
+      </c>
+      <c r="AN243" t="n">
+        <v>1.33</v>
+      </c>
+      <c r="AO243" t="n">
+        <v>1.38</v>
+      </c>
+      <c r="AP243" t="n">
+        <v>1.62</v>
+      </c>
+      <c r="AQ243" t="n">
+        <v>1.78</v>
+      </c>
+      <c r="AR243" t="n">
+        <v>1</v>
+      </c>
+      <c r="AS243" t="n">
+        <v>1.9</v>
+      </c>
+      <c r="AT243" t="n">
+        <v>0.9</v>
+      </c>
+      <c r="AU243" t="n">
+        <v>1.52</v>
+      </c>
+      <c r="AV243" t="n">
+        <v>1.58</v>
+      </c>
+      <c r="AW243" t="n">
+        <v>3.1</v>
+      </c>
+      <c r="AX243" t="n">
+        <v>1.9</v>
+      </c>
+      <c r="AY243" t="n">
+        <v>5.5</v>
+      </c>
+      <c r="AZ243" t="n">
+        <v>2.2</v>
+      </c>
+      <c r="BA243" t="n">
+        <v>1.39</v>
+      </c>
+      <c r="BB243" t="n">
+        <v>1.72</v>
+      </c>
+      <c r="BC243" t="n">
+        <v>2.14</v>
+      </c>
+      <c r="BD243" t="n">
+        <v>2.93</v>
+      </c>
+      <c r="BE243" t="n">
+        <v>4.2</v>
+      </c>
+      <c r="BF243" t="n">
+        <v>4</v>
+      </c>
+      <c r="BG243" t="n">
+        <v>6</v>
+      </c>
+      <c r="BH243" t="n">
+        <v>9</v>
+      </c>
+      <c r="BI243" t="n">
+        <v>7</v>
+      </c>
+      <c r="BJ243" t="n">
+        <v>13</v>
+      </c>
+      <c r="BK243" t="n">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="244">
+      <c r="A244" s="1" t="n">
+        <v>243</v>
+      </c>
+      <c r="B244" t="n">
+        <v>4554644</v>
+      </c>
+      <c r="C244" t="inlineStr">
+        <is>
+          <t>Argentina Primera División</t>
+        </is>
+      </c>
+      <c r="D244" t="inlineStr">
+        <is>
+          <t>2023</t>
+        </is>
+      </c>
+      <c r="E244" s="2" t="n">
+        <v>45074.6875</v>
+      </c>
+      <c r="F244" t="n">
+        <v>18</v>
+      </c>
+      <c r="G244" t="inlineStr">
+        <is>
+          <t>Defensa y Justicia</t>
+        </is>
+      </c>
+      <c r="H244" t="inlineStr">
+        <is>
+          <t>Racing Club</t>
+        </is>
+      </c>
+      <c r="I244" t="n">
+        <v>1</v>
+      </c>
+      <c r="J244" t="n">
+        <v>0</v>
+      </c>
+      <c r="K244" t="n">
+        <v>1</v>
+      </c>
+      <c r="L244" t="n">
+        <v>1</v>
+      </c>
+      <c r="M244" t="n">
+        <v>1</v>
+      </c>
+      <c r="N244" t="n">
+        <v>2</v>
+      </c>
+      <c r="O244" t="inlineStr">
+        <is>
+          <t>['38']</t>
+        </is>
+      </c>
+      <c r="P244" t="inlineStr">
+        <is>
+          <t>['66']</t>
+        </is>
+      </c>
+      <c r="Q244" t="n">
+        <v>5</v>
+      </c>
+      <c r="R244" t="n">
+        <v>6</v>
+      </c>
+      <c r="S244" t="n">
+        <v>11</v>
+      </c>
+      <c r="T244" t="n">
+        <v>3.25</v>
+      </c>
+      <c r="U244" t="n">
+        <v>2.05</v>
+      </c>
+      <c r="V244" t="n">
+        <v>3.4</v>
+      </c>
+      <c r="W244" t="n">
+        <v>1.44</v>
+      </c>
+      <c r="X244" t="n">
+        <v>2.63</v>
+      </c>
+      <c r="Y244" t="n">
+        <v>3.25</v>
+      </c>
+      <c r="Z244" t="n">
+        <v>1.33</v>
+      </c>
+      <c r="AA244" t="n">
+        <v>10</v>
+      </c>
+      <c r="AB244" t="n">
+        <v>1.06</v>
+      </c>
+      <c r="AC244" t="n">
+        <v>2.6</v>
+      </c>
+      <c r="AD244" t="n">
+        <v>3.16</v>
+      </c>
+      <c r="AE244" t="n">
+        <v>2.75</v>
+      </c>
+      <c r="AF244" t="n">
+        <v>1.07</v>
+      </c>
+      <c r="AG244" t="n">
+        <v>7.75</v>
+      </c>
+      <c r="AH244" t="n">
+        <v>1.36</v>
+      </c>
+      <c r="AI244" t="n">
+        <v>2.9</v>
+      </c>
+      <c r="AJ244" t="n">
+        <v>2.1</v>
+      </c>
+      <c r="AK244" t="n">
+        <v>1.7</v>
+      </c>
+      <c r="AL244" t="n">
+        <v>1.95</v>
+      </c>
+      <c r="AM244" t="n">
+        <v>1.8</v>
+      </c>
+      <c r="AN244" t="n">
+        <v>1.43</v>
+      </c>
+      <c r="AO244" t="n">
+        <v>1.33</v>
+      </c>
+      <c r="AP244" t="n">
+        <v>1.49</v>
+      </c>
+      <c r="AQ244" t="n">
+        <v>1.67</v>
+      </c>
+      <c r="AR244" t="n">
+        <v>0.88</v>
+      </c>
+      <c r="AS244" t="n">
+        <v>1.6</v>
+      </c>
+      <c r="AT244" t="n">
+        <v>0.89</v>
+      </c>
+      <c r="AU244" t="n">
+        <v>1.42</v>
+      </c>
+      <c r="AV244" t="n">
+        <v>1.27</v>
+      </c>
+      <c r="AW244" t="n">
+        <v>2.69</v>
+      </c>
+      <c r="AX244" t="n">
+        <v>2.35</v>
+      </c>
+      <c r="AY244" t="n">
+        <v>5.75</v>
+      </c>
+      <c r="AZ244" t="n">
+        <v>1.74</v>
+      </c>
+      <c r="BA244" t="n">
+        <v>1.2</v>
+      </c>
+      <c r="BB244" t="n">
+        <v>1.4</v>
+      </c>
+      <c r="BC244" t="n">
+        <v>1.83</v>
+      </c>
+      <c r="BD244" t="n">
+        <v>2.16</v>
+      </c>
+      <c r="BE244" t="n">
+        <v>2.84</v>
+      </c>
+      <c r="BF244" t="n">
+        <v>5</v>
+      </c>
+      <c r="BG244" t="n">
+        <v>4</v>
+      </c>
+      <c r="BH244" t="n">
+        <v>7</v>
+      </c>
+      <c r="BI244" t="n">
+        <v>7</v>
+      </c>
+      <c r="BJ244" t="n">
+        <v>12</v>
+      </c>
+      <c r="BK244" t="n">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="245">
+      <c r="A245" s="1" t="n">
+        <v>244</v>
+      </c>
+      <c r="B245" t="n">
+        <v>4554648</v>
+      </c>
+      <c r="C245" t="inlineStr">
+        <is>
+          <t>Argentina Primera División</t>
+        </is>
+      </c>
+      <c r="D245" t="inlineStr">
+        <is>
+          <t>2023</t>
+        </is>
+      </c>
+      <c r="E245" s="2" t="n">
+        <v>45074.79166666666</v>
+      </c>
+      <c r="F245" t="n">
+        <v>18</v>
+      </c>
+      <c r="G245" t="inlineStr">
+        <is>
+          <t>Boca Juniors</t>
+        </is>
+      </c>
+      <c r="H245" t="inlineStr">
+        <is>
+          <t>Tigre</t>
+        </is>
+      </c>
+      <c r="I245" t="n">
+        <v>1</v>
+      </c>
+      <c r="J245" t="n">
+        <v>0</v>
+      </c>
+      <c r="K245" t="n">
+        <v>1</v>
+      </c>
+      <c r="L245" t="n">
+        <v>1</v>
+      </c>
+      <c r="M245" t="n">
+        <v>0</v>
+      </c>
+      <c r="N245" t="n">
+        <v>1</v>
+      </c>
+      <c r="O245" t="inlineStr">
+        <is>
+          <t>['13']</t>
+        </is>
+      </c>
+      <c r="P245" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="Q245" t="n">
+        <v>4</v>
+      </c>
+      <c r="R245" t="n">
+        <v>2</v>
+      </c>
+      <c r="S245" t="n">
+        <v>6</v>
+      </c>
+      <c r="T245" t="n">
+        <v>2.63</v>
+      </c>
+      <c r="U245" t="n">
+        <v>2.05</v>
+      </c>
+      <c r="V245" t="n">
+        <v>4.75</v>
+      </c>
+      <c r="W245" t="n">
+        <v>1.5</v>
+      </c>
+      <c r="X245" t="n">
+        <v>2.5</v>
+      </c>
+      <c r="Y245" t="n">
+        <v>3.4</v>
+      </c>
+      <c r="Z245" t="n">
+        <v>1.3</v>
+      </c>
+      <c r="AA245" t="n">
+        <v>10</v>
+      </c>
+      <c r="AB245" t="n">
+        <v>1.06</v>
+      </c>
+      <c r="AC245" t="n">
+        <v>1.92</v>
+      </c>
+      <c r="AD245" t="n">
+        <v>3.41</v>
+      </c>
+      <c r="AE245" t="n">
+        <v>3.95</v>
+      </c>
+      <c r="AF245" t="n">
+        <v>1.07</v>
+      </c>
+      <c r="AG245" t="n">
+        <v>7</v>
+      </c>
+      <c r="AH245" t="n">
+        <v>1.4</v>
+      </c>
+      <c r="AI245" t="n">
+        <v>2.7</v>
+      </c>
+      <c r="AJ245" t="n">
+        <v>2.25</v>
+      </c>
+      <c r="AK245" t="n">
+        <v>1.62</v>
+      </c>
+      <c r="AL245" t="n">
+        <v>2.05</v>
+      </c>
+      <c r="AM245" t="n">
+        <v>1.7</v>
+      </c>
+      <c r="AN245" t="n">
+        <v>1.24</v>
+      </c>
+      <c r="AO245" t="n">
+        <v>1.31</v>
+      </c>
+      <c r="AP245" t="n">
+        <v>1.82</v>
+      </c>
+      <c r="AQ245" t="n">
+        <v>1.56</v>
+      </c>
+      <c r="AR245" t="n">
+        <v>1.11</v>
+      </c>
+      <c r="AS245" t="n">
+        <v>1.7</v>
+      </c>
+      <c r="AT245" t="n">
+        <v>1</v>
+      </c>
+      <c r="AU245" t="n">
+        <v>1.67</v>
+      </c>
+      <c r="AV245" t="n">
+        <v>1.6</v>
+      </c>
+      <c r="AW245" t="n">
+        <v>3.27</v>
+      </c>
+      <c r="AX245" t="n">
+        <v>1.33</v>
+      </c>
+      <c r="AY245" t="n">
+        <v>6.25</v>
+      </c>
+      <c r="AZ245" t="n">
+        <v>3.75</v>
+      </c>
+      <c r="BA245" t="n">
+        <v>1.32</v>
+      </c>
+      <c r="BB245" t="n">
+        <v>1.6</v>
+      </c>
+      <c r="BC245" t="n">
+        <v>2</v>
+      </c>
+      <c r="BD245" t="n">
+        <v>2.69</v>
+      </c>
+      <c r="BE245" t="n">
+        <v>3.65</v>
+      </c>
+      <c r="BF245" t="n">
+        <v>4</v>
+      </c>
+      <c r="BG245" t="n">
+        <v>0</v>
+      </c>
+      <c r="BH245" t="n">
+        <v>8</v>
+      </c>
+      <c r="BI245" t="n">
+        <v>4</v>
+      </c>
+      <c r="BJ245" t="n">
+        <v>12</v>
+      </c>
+      <c r="BK245" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="246">
+      <c r="A246" s="1" t="n">
+        <v>245</v>
+      </c>
+      <c r="B246" t="n">
+        <v>4554651</v>
+      </c>
+      <c r="C246" t="inlineStr">
+        <is>
+          <t>Argentina Primera División</t>
+        </is>
+      </c>
+      <c r="D246" t="inlineStr">
+        <is>
+          <t>2023</t>
+        </is>
+      </c>
+      <c r="E246" s="2" t="n">
+        <v>45074.89583333334</v>
+      </c>
+      <c r="F246" t="n">
+        <v>18</v>
+      </c>
+      <c r="G246" t="inlineStr">
+        <is>
+          <t>Newell's Old Boys</t>
+        </is>
+      </c>
+      <c r="H246" t="inlineStr">
+        <is>
+          <t>Godoy Cruz</t>
+        </is>
+      </c>
+      <c r="I246" t="n">
+        <v>1</v>
+      </c>
+      <c r="J246" t="n">
+        <v>0</v>
+      </c>
+      <c r="K246" t="n">
+        <v>1</v>
+      </c>
+      <c r="L246" t="n">
+        <v>2</v>
+      </c>
+      <c r="M246" t="n">
+        <v>0</v>
+      </c>
+      <c r="N246" t="n">
+        <v>2</v>
+      </c>
+      <c r="O246" t="inlineStr">
+        <is>
+          <t>['25', '90+3']</t>
+        </is>
+      </c>
+      <c r="P246" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="Q246" t="n">
+        <v>1</v>
+      </c>
+      <c r="R246" t="n">
+        <v>8</v>
+      </c>
+      <c r="S246" t="n">
+        <v>9</v>
+      </c>
+      <c r="T246" t="n">
+        <v>3</v>
+      </c>
+      <c r="U246" t="n">
+        <v>1.95</v>
+      </c>
+      <c r="V246" t="n">
+        <v>4.5</v>
+      </c>
+      <c r="W246" t="n">
+        <v>1.57</v>
+      </c>
+      <c r="X246" t="n">
+        <v>2.25</v>
+      </c>
+      <c r="Y246" t="n">
+        <v>3.75</v>
+      </c>
+      <c r="Z246" t="n">
+        <v>1.25</v>
+      </c>
+      <c r="AA246" t="n">
+        <v>11</v>
+      </c>
+      <c r="AB246" t="n">
+        <v>1.05</v>
+      </c>
+      <c r="AC246" t="n">
+        <v>2.15</v>
+      </c>
+      <c r="AD246" t="n">
+        <v>2.94</v>
+      </c>
+      <c r="AE246" t="n">
+        <v>3.84</v>
+      </c>
+      <c r="AF246" t="n">
+        <v>1.11</v>
+      </c>
+      <c r="AG246" t="n">
+        <v>6</v>
+      </c>
+      <c r="AH246" t="n">
+        <v>1.52</v>
+      </c>
+      <c r="AI246" t="n">
+        <v>2.35</v>
+      </c>
+      <c r="AJ246" t="n">
+        <v>2.5</v>
+      </c>
+      <c r="AK246" t="n">
+        <v>1.5</v>
+      </c>
+      <c r="AL246" t="n">
+        <v>2.2</v>
+      </c>
+      <c r="AM246" t="n">
+        <v>1.62</v>
+      </c>
+      <c r="AN246" t="n">
+        <v>1.25</v>
+      </c>
+      <c r="AO246" t="n">
+        <v>1.4</v>
+      </c>
+      <c r="AP246" t="n">
+        <v>1.67</v>
+      </c>
+      <c r="AQ246" t="n">
+        <v>2.13</v>
+      </c>
+      <c r="AR246" t="n">
+        <v>1.22</v>
+      </c>
+      <c r="AS246" t="n">
+        <v>2.22</v>
+      </c>
+      <c r="AT246" t="n">
+        <v>1.1</v>
+      </c>
+      <c r="AU246" t="n">
+        <v>1.2</v>
+      </c>
+      <c r="AV246" t="n">
+        <v>1.36</v>
+      </c>
+      <c r="AW246" t="n">
+        <v>2.56</v>
+      </c>
+      <c r="AX246" t="n">
+        <v>1.52</v>
+      </c>
+      <c r="AY246" t="n">
+        <v>6</v>
+      </c>
+      <c r="AZ246" t="n">
+        <v>2.9</v>
+      </c>
+      <c r="BA246" t="n">
+        <v>1.29</v>
+      </c>
+      <c r="BB246" t="n">
+        <v>1.56</v>
+      </c>
+      <c r="BC246" t="n">
+        <v>1.9</v>
+      </c>
+      <c r="BD246" t="n">
+        <v>2.57</v>
+      </c>
+      <c r="BE246" t="n">
+        <v>3.48</v>
+      </c>
+      <c r="BF246" t="n">
+        <v>4</v>
+      </c>
+      <c r="BG246" t="n">
+        <v>2</v>
+      </c>
+      <c r="BH246" t="n">
+        <v>2</v>
+      </c>
+      <c r="BI246" t="n">
+        <v>13</v>
+      </c>
+      <c r="BJ246" t="n">
+        <v>6</v>
+      </c>
+      <c r="BK246" t="n">
+        <v>15</v>
       </c>
     </row>
   </sheetData>

--- a/Bases_de_Dados_(2022-2023)/Argentina Primera División_2023.xlsx
+++ b/Bases_de_Dados_(2022-2023)/Argentina Primera División_2023.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1563" uniqueCount="320">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1641" uniqueCount="332">
   <si>
     <t>Id_Jogo</t>
   </si>
@@ -655,10 +655,10 @@
     <t>['12', '20', '66', '90+2']</t>
   </si>
   <si>
-    <t>['7', '14']</t>
+    <t>['59', '90+1']</t>
   </si>
   <si>
-    <t>['59', '90+1']</t>
+    <t>['7', '14']</t>
   </si>
   <si>
     <t>['54', '66']</t>
@@ -728,6 +728,33 @@
   </si>
   <si>
     <t>['52', '86']</t>
+  </si>
+  <si>
+    <t>['12', '23', '36', '62', '76']</t>
+  </si>
+  <si>
+    <t>['45+5']</t>
+  </si>
+  <si>
+    <t>['2', '35']</t>
+  </si>
+  <si>
+    <t>['24', '43']</t>
+  </si>
+  <si>
+    <t>['15', '58', '65', '90+5']</t>
+  </si>
+  <si>
+    <t>['11', '89']</t>
+  </si>
+  <si>
+    <t>['56', '72']</t>
+  </si>
+  <si>
+    <t>['6', '31']</t>
+  </si>
+  <si>
+    <t>['35', '45+2']</t>
   </si>
   <si>
     <t>['7', '43', '82', '86']</t>
@@ -974,6 +1001,15 @@
   </si>
   <si>
     <t>['26', '82']</t>
+  </si>
+  <si>
+    <t>['3', '71']</t>
+  </si>
+  <si>
+    <t>['15', '86', '90+5']</t>
+  </si>
+  <si>
+    <t>['72']</t>
   </si>
 </sst>
 </file>
@@ -1335,7 +1371,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:BK251"/>
+  <dimension ref="A1:BK264"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -1666,7 +1702,7 @@
         <v>0</v>
       </c>
       <c r="AS2">
-        <v>2.56</v>
+        <v>2.6</v>
       </c>
       <c r="AT2">
         <v>0.9</v>
@@ -1770,7 +1806,7 @@
         <v>94</v>
       </c>
       <c r="P3" t="s">
-        <v>238</v>
+        <v>247</v>
       </c>
       <c r="Q3">
         <v>5</v>
@@ -1860,7 +1896,7 @@
         <v>1.6</v>
       </c>
       <c r="AT3">
-        <v>0.67</v>
+        <v>0.6</v>
       </c>
       <c r="AU3">
         <v>0</v>
@@ -2048,7 +2084,7 @@
         <v>0</v>
       </c>
       <c r="AS4">
-        <v>2.56</v>
+        <v>2.4</v>
       </c>
       <c r="AT4">
         <v>0.4</v>
@@ -2242,7 +2278,7 @@
         <v>1.9</v>
       </c>
       <c r="AT5">
-        <v>0.89</v>
+        <v>0.8</v>
       </c>
       <c r="AU5">
         <v>0</v>
@@ -2343,7 +2379,7 @@
         <v>95</v>
       </c>
       <c r="P6" t="s">
-        <v>239</v>
+        <v>248</v>
       </c>
       <c r="Q6">
         <v>8</v>
@@ -2430,7 +2466,7 @@
         <v>0</v>
       </c>
       <c r="AS6">
-        <v>1.89</v>
+        <v>2</v>
       </c>
       <c r="AT6">
         <v>1</v>
@@ -2534,7 +2570,7 @@
         <v>96</v>
       </c>
       <c r="P7" t="s">
-        <v>240</v>
+        <v>249</v>
       </c>
       <c r="Q7">
         <v>5</v>
@@ -2621,7 +2657,7 @@
         <v>0</v>
       </c>
       <c r="AS7">
-        <v>1.11</v>
+        <v>1.3</v>
       </c>
       <c r="AT7">
         <v>2</v>
@@ -2725,7 +2761,7 @@
         <v>97</v>
       </c>
       <c r="P8" t="s">
-        <v>241</v>
+        <v>250</v>
       </c>
       <c r="Q8">
         <v>1</v>
@@ -2815,7 +2851,7 @@
         <v>1.6</v>
       </c>
       <c r="AT8">
-        <v>0.67</v>
+        <v>0.7</v>
       </c>
       <c r="AU8">
         <v>0</v>
@@ -3107,7 +3143,7 @@
         <v>98</v>
       </c>
       <c r="P10" t="s">
-        <v>242</v>
+        <v>251</v>
       </c>
       <c r="Q10">
         <v>5</v>
@@ -3385,7 +3421,7 @@
         <v>0</v>
       </c>
       <c r="AS11">
-        <v>1.38</v>
+        <v>1.56</v>
       </c>
       <c r="AT11">
         <v>1.3</v>
@@ -3579,7 +3615,7 @@
         <v>1.7</v>
       </c>
       <c r="AT12">
-        <v>0.89</v>
+        <v>0.8</v>
       </c>
       <c r="AU12">
         <v>0</v>
@@ -3871,7 +3907,7 @@
         <v>100</v>
       </c>
       <c r="P14" t="s">
-        <v>243</v>
+        <v>252</v>
       </c>
       <c r="Q14">
         <v>5</v>
@@ -3961,7 +3997,7 @@
         <v>1.3</v>
       </c>
       <c r="AT14">
-        <v>0.78</v>
+        <v>0.7</v>
       </c>
       <c r="AU14">
         <v>0</v>
@@ -4253,7 +4289,7 @@
         <v>101</v>
       </c>
       <c r="P16" t="s">
-        <v>244</v>
+        <v>253</v>
       </c>
       <c r="Q16">
         <v>10</v>
@@ -4340,7 +4376,7 @@
         <v>0</v>
       </c>
       <c r="AS16">
-        <v>1.5</v>
+        <v>1.33</v>
       </c>
       <c r="AT16">
         <v>0.78</v>
@@ -4534,7 +4570,7 @@
         <v>2.22</v>
       </c>
       <c r="AT17">
-        <v>0.71</v>
+        <v>0.63</v>
       </c>
       <c r="AU17">
         <v>0</v>
@@ -4722,7 +4758,7 @@
         <v>0</v>
       </c>
       <c r="AS18">
-        <v>1.25</v>
+        <v>1.44</v>
       </c>
       <c r="AT18">
         <v>1.67</v>
@@ -4826,7 +4862,7 @@
         <v>103</v>
       </c>
       <c r="P19" t="s">
-        <v>245</v>
+        <v>254</v>
       </c>
       <c r="Q19">
         <v>4</v>
@@ -4913,10 +4949,10 @@
         <v>0</v>
       </c>
       <c r="AS19">
-        <v>1.38</v>
+        <v>1.33</v>
       </c>
       <c r="AT19">
-        <v>0.88</v>
+        <v>0.78</v>
       </c>
       <c r="AU19">
         <v>0</v>
@@ -5017,7 +5053,7 @@
         <v>104</v>
       </c>
       <c r="P20" t="s">
-        <v>246</v>
+        <v>255</v>
       </c>
       <c r="Q20">
         <v>1</v>
@@ -5104,7 +5140,7 @@
         <v>3</v>
       </c>
       <c r="AS20">
-        <v>1.88</v>
+        <v>2</v>
       </c>
       <c r="AT20">
         <v>2</v>
@@ -5295,7 +5331,7 @@
         <v>0</v>
       </c>
       <c r="AS21">
-        <v>2.38</v>
+        <v>2.44</v>
       </c>
       <c r="AT21">
         <v>1.33</v>
@@ -5486,7 +5522,7 @@
         <v>0</v>
       </c>
       <c r="AS22">
-        <v>1.75</v>
+        <v>1.89</v>
       </c>
       <c r="AT22">
         <v>0.89</v>
@@ -5590,7 +5626,7 @@
         <v>106</v>
       </c>
       <c r="P23" t="s">
-        <v>247</v>
+        <v>256</v>
       </c>
       <c r="Q23">
         <v>8</v>
@@ -5680,7 +5716,7 @@
         <v>1.11</v>
       </c>
       <c r="AT23">
-        <v>0.88</v>
+        <v>0.78</v>
       </c>
       <c r="AU23">
         <v>0</v>
@@ -6059,10 +6095,10 @@
         <v>0</v>
       </c>
       <c r="AS25">
-        <v>1.88</v>
+        <v>2</v>
       </c>
       <c r="AT25">
-        <v>0.88</v>
+        <v>0.89</v>
       </c>
       <c r="AU25">
         <v>0</v>
@@ -6163,7 +6199,7 @@
         <v>96</v>
       </c>
       <c r="P26" t="s">
-        <v>248</v>
+        <v>257</v>
       </c>
       <c r="Q26">
         <v>4</v>
@@ -6253,7 +6289,7 @@
         <v>1.11</v>
       </c>
       <c r="AT26">
-        <v>1.88</v>
+        <v>2</v>
       </c>
       <c r="AU26">
         <v>0</v>
@@ -6354,7 +6390,7 @@
         <v>96</v>
       </c>
       <c r="P27" t="s">
-        <v>249</v>
+        <v>258</v>
       </c>
       <c r="Q27">
         <v>5</v>
@@ -6441,10 +6477,10 @@
         <v>0</v>
       </c>
       <c r="AS27">
-        <v>0.71</v>
+        <v>1</v>
       </c>
       <c r="AT27">
-        <v>0.88</v>
+        <v>0.78</v>
       </c>
       <c r="AU27">
         <v>0</v>
@@ -6545,7 +6581,7 @@
         <v>96</v>
       </c>
       <c r="P28" t="s">
-        <v>250</v>
+        <v>259</v>
       </c>
       <c r="Q28">
         <v>7</v>
@@ -6736,7 +6772,7 @@
         <v>108</v>
       </c>
       <c r="P29" t="s">
-        <v>251</v>
+        <v>260</v>
       </c>
       <c r="Q29">
         <v>8</v>
@@ -6826,7 +6862,7 @@
         <v>1.33</v>
       </c>
       <c r="AT29">
-        <v>0.63</v>
+        <v>0.5600000000000001</v>
       </c>
       <c r="AU29">
         <v>0</v>
@@ -6927,7 +6963,7 @@
         <v>96</v>
       </c>
       <c r="P30" t="s">
-        <v>252</v>
+        <v>261</v>
       </c>
       <c r="Q30">
         <v>11</v>
@@ -7205,7 +7241,7 @@
         <v>1</v>
       </c>
       <c r="AS31">
-        <v>1.11</v>
+        <v>1.3</v>
       </c>
       <c r="AT31">
         <v>1.3</v>
@@ -7396,7 +7432,7 @@
         <v>3</v>
       </c>
       <c r="AS32">
-        <v>2.56</v>
+        <v>2.4</v>
       </c>
       <c r="AT32">
         <v>1.1</v>
@@ -7590,7 +7626,7 @@
         <v>1.6</v>
       </c>
       <c r="AT33">
-        <v>0.67</v>
+        <v>0.7</v>
       </c>
       <c r="AU33">
         <v>1.74</v>
@@ -7691,7 +7727,7 @@
         <v>102</v>
       </c>
       <c r="P34" t="s">
-        <v>253</v>
+        <v>262</v>
       </c>
       <c r="Q34">
         <v>3</v>
@@ -7781,7 +7817,7 @@
         <v>1.6</v>
       </c>
       <c r="AT34">
-        <v>0.89</v>
+        <v>0.8</v>
       </c>
       <c r="AU34">
         <v>1.36</v>
@@ -7882,7 +7918,7 @@
         <v>111</v>
       </c>
       <c r="P35" t="s">
-        <v>254</v>
+        <v>263</v>
       </c>
       <c r="Q35">
         <v>6</v>
@@ -7972,7 +8008,7 @@
         <v>1.9</v>
       </c>
       <c r="AT35">
-        <v>1.25</v>
+        <v>1.11</v>
       </c>
       <c r="AU35">
         <v>1.05</v>
@@ -8163,7 +8199,7 @@
         <v>1.3</v>
       </c>
       <c r="AT36">
-        <v>0.89</v>
+        <v>0.8</v>
       </c>
       <c r="AU36">
         <v>1.26</v>
@@ -8351,7 +8387,7 @@
         <v>0</v>
       </c>
       <c r="AS37">
-        <v>2.56</v>
+        <v>2.6</v>
       </c>
       <c r="AT37">
         <v>0.4</v>
@@ -8545,7 +8581,7 @@
         <v>1.3</v>
       </c>
       <c r="AT38">
-        <v>0.78</v>
+        <v>0.7</v>
       </c>
       <c r="AU38">
         <v>1.72</v>
@@ -8927,7 +8963,7 @@
         <v>1.4</v>
       </c>
       <c r="AT40">
-        <v>0.67</v>
+        <v>0.6</v>
       </c>
       <c r="AU40">
         <v>1.76</v>
@@ -9028,7 +9064,7 @@
         <v>114</v>
       </c>
       <c r="P41" t="s">
-        <v>255</v>
+        <v>264</v>
       </c>
       <c r="Q41">
         <v>5</v>
@@ -9115,7 +9151,7 @@
         <v>3</v>
       </c>
       <c r="AS41">
-        <v>1.38</v>
+        <v>1.56</v>
       </c>
       <c r="AT41">
         <v>1</v>
@@ -9219,7 +9255,7 @@
         <v>115</v>
       </c>
       <c r="P42" t="s">
-        <v>256</v>
+        <v>265</v>
       </c>
       <c r="Q42">
         <v>5</v>
@@ -9410,7 +9446,7 @@
         <v>96</v>
       </c>
       <c r="P43" t="s">
-        <v>257</v>
+        <v>266</v>
       </c>
       <c r="Q43">
         <v>10</v>
@@ -9497,7 +9533,7 @@
         <v>3</v>
       </c>
       <c r="AS43">
-        <v>1.89</v>
+        <v>2</v>
       </c>
       <c r="AT43">
         <v>1.11</v>
@@ -9691,7 +9727,7 @@
         <v>1.67</v>
       </c>
       <c r="AT44">
-        <v>0.88</v>
+        <v>0.78</v>
       </c>
       <c r="AU44">
         <v>1.83</v>
@@ -9792,7 +9828,7 @@
         <v>96</v>
       </c>
       <c r="P45" t="s">
-        <v>258</v>
+        <v>267</v>
       </c>
       <c r="Q45">
         <v>3</v>
@@ -9879,7 +9915,7 @@
         <v>0</v>
       </c>
       <c r="AS45">
-        <v>1.25</v>
+        <v>1.44</v>
       </c>
       <c r="AT45">
         <v>0.89</v>
@@ -10073,7 +10109,7 @@
         <v>1.33</v>
       </c>
       <c r="AT46">
-        <v>0.88</v>
+        <v>0.78</v>
       </c>
       <c r="AU46">
         <v>2.16</v>
@@ -10261,7 +10297,7 @@
         <v>1</v>
       </c>
       <c r="AS47">
-        <v>2.38</v>
+        <v>2.44</v>
       </c>
       <c r="AT47">
         <v>0.78</v>
@@ -10365,7 +10401,7 @@
         <v>96</v>
       </c>
       <c r="P48" t="s">
-        <v>259</v>
+        <v>268</v>
       </c>
       <c r="Q48">
         <v>4</v>
@@ -10452,7 +10488,7 @@
         <v>1.5</v>
       </c>
       <c r="AS48">
-        <v>1.5</v>
+        <v>1.33</v>
       </c>
       <c r="AT48">
         <v>2</v>
@@ -10643,7 +10679,7 @@
         <v>2</v>
       </c>
       <c r="AS49">
-        <v>1.75</v>
+        <v>1.89</v>
       </c>
       <c r="AT49">
         <v>1.3</v>
@@ -10834,7 +10870,7 @@
         <v>1</v>
       </c>
       <c r="AS50">
-        <v>1.88</v>
+        <v>2</v>
       </c>
       <c r="AT50">
         <v>1.67</v>
@@ -11028,7 +11064,7 @@
         <v>2.22</v>
       </c>
       <c r="AT51">
-        <v>0.63</v>
+        <v>0.5600000000000001</v>
       </c>
       <c r="AU51">
         <v>0.67</v>
@@ -11216,10 +11252,10 @@
         <v>0</v>
       </c>
       <c r="AS52">
-        <v>0.71</v>
+        <v>1</v>
       </c>
       <c r="AT52">
-        <v>0.88</v>
+        <v>0.89</v>
       </c>
       <c r="AU52">
         <v>1.84</v>
@@ -11410,7 +11446,7 @@
         <v>1.7</v>
       </c>
       <c r="AT53">
-        <v>0.88</v>
+        <v>0.78</v>
       </c>
       <c r="AU53">
         <v>1.66</v>
@@ -11511,7 +11547,7 @@
         <v>96</v>
       </c>
       <c r="P54" t="s">
-        <v>260</v>
+        <v>269</v>
       </c>
       <c r="Q54">
         <v>4</v>
@@ -11893,7 +11929,7 @@
         <v>96</v>
       </c>
       <c r="P56" t="s">
-        <v>261</v>
+        <v>270</v>
       </c>
       <c r="Q56">
         <v>6</v>
@@ -11980,7 +12016,7 @@
         <v>0</v>
       </c>
       <c r="AS56">
-        <v>1.38</v>
+        <v>1.33</v>
       </c>
       <c r="AT56">
         <v>1.33</v>
@@ -12084,7 +12120,7 @@
         <v>124</v>
       </c>
       <c r="P57" t="s">
-        <v>262</v>
+        <v>271</v>
       </c>
       <c r="Q57">
         <v>3</v>
@@ -12174,7 +12210,7 @@
         <v>1.11</v>
       </c>
       <c r="AT57">
-        <v>0.71</v>
+        <v>0.63</v>
       </c>
       <c r="AU57">
         <v>1.13</v>
@@ -12275,7 +12311,7 @@
         <v>96</v>
       </c>
       <c r="P58" t="s">
-        <v>263</v>
+        <v>272</v>
       </c>
       <c r="Q58">
         <v>2</v>
@@ -12362,7 +12398,7 @@
         <v>2</v>
       </c>
       <c r="AS58">
-        <v>1.88</v>
+        <v>2</v>
       </c>
       <c r="AT58">
         <v>1</v>
@@ -12553,7 +12589,7 @@
         <v>1.5</v>
       </c>
       <c r="AS59">
-        <v>2.56</v>
+        <v>2.6</v>
       </c>
       <c r="AT59">
         <v>1.1</v>
@@ -12744,7 +12780,7 @@
         <v>1</v>
       </c>
       <c r="AS60">
-        <v>2.56</v>
+        <v>2.4</v>
       </c>
       <c r="AT60">
         <v>1</v>
@@ -12848,7 +12884,7 @@
         <v>127</v>
       </c>
       <c r="P61" t="s">
-        <v>264</v>
+        <v>273</v>
       </c>
       <c r="Q61">
         <v>4</v>
@@ -12938,7 +12974,7 @@
         <v>1.6</v>
       </c>
       <c r="AT61">
-        <v>1.88</v>
+        <v>2</v>
       </c>
       <c r="AU61">
         <v>1.14</v>
@@ -13126,7 +13162,7 @@
         <v>2</v>
       </c>
       <c r="AS62">
-        <v>1.89</v>
+        <v>2</v>
       </c>
       <c r="AT62">
         <v>1.3</v>
@@ -13230,7 +13266,7 @@
         <v>129</v>
       </c>
       <c r="P63" t="s">
-        <v>265</v>
+        <v>274</v>
       </c>
       <c r="Q63">
         <v>4</v>
@@ -13320,7 +13356,7 @@
         <v>1.3</v>
       </c>
       <c r="AT63">
-        <v>1.25</v>
+        <v>1.11</v>
       </c>
       <c r="AU63">
         <v>1.24</v>
@@ -13511,7 +13547,7 @@
         <v>1.6</v>
       </c>
       <c r="AT64">
-        <v>0.89</v>
+        <v>0.8</v>
       </c>
       <c r="AU64">
         <v>1.26</v>
@@ -13702,7 +13738,7 @@
         <v>1.2</v>
       </c>
       <c r="AT65">
-        <v>0.67</v>
+        <v>0.6</v>
       </c>
       <c r="AU65">
         <v>2.06</v>
@@ -13803,7 +13839,7 @@
         <v>132</v>
       </c>
       <c r="P66" t="s">
-        <v>266</v>
+        <v>275</v>
       </c>
       <c r="Q66">
         <v>11</v>
@@ -13994,7 +14030,7 @@
         <v>133</v>
       </c>
       <c r="P67" t="s">
-        <v>253</v>
+        <v>262</v>
       </c>
       <c r="Q67">
         <v>2</v>
@@ -14084,7 +14120,7 @@
         <v>1.4</v>
       </c>
       <c r="AT67">
-        <v>0.67</v>
+        <v>0.7</v>
       </c>
       <c r="AU67">
         <v>1.49</v>
@@ -14275,7 +14311,7 @@
         <v>1.3</v>
       </c>
       <c r="AT68">
-        <v>0.89</v>
+        <v>0.8</v>
       </c>
       <c r="AU68">
         <v>2.03</v>
@@ -14466,7 +14502,7 @@
         <v>1.5</v>
       </c>
       <c r="AT69">
-        <v>0.78</v>
+        <v>0.7</v>
       </c>
       <c r="AU69">
         <v>0.49</v>
@@ -14654,7 +14690,7 @@
         <v>3</v>
       </c>
       <c r="AS70">
-        <v>1.38</v>
+        <v>1.56</v>
       </c>
       <c r="AT70">
         <v>1.11</v>
@@ -14845,7 +14881,7 @@
         <v>0</v>
       </c>
       <c r="AS71">
-        <v>1.11</v>
+        <v>1.3</v>
       </c>
       <c r="AT71">
         <v>0.9</v>
@@ -15036,7 +15072,7 @@
         <v>2</v>
       </c>
       <c r="AS72">
-        <v>0.71</v>
+        <v>1</v>
       </c>
       <c r="AT72">
         <v>1.67</v>
@@ -15140,7 +15176,7 @@
         <v>137</v>
       </c>
       <c r="P73" t="s">
-        <v>267</v>
+        <v>276</v>
       </c>
       <c r="Q73">
         <v>13</v>
@@ -15227,7 +15263,7 @@
         <v>0.5</v>
       </c>
       <c r="AS73">
-        <v>1.38</v>
+        <v>1.33</v>
       </c>
       <c r="AT73">
         <v>0.78</v>
@@ -15612,7 +15648,7 @@
         <v>1.67</v>
       </c>
       <c r="AT75">
-        <v>0.88</v>
+        <v>0.89</v>
       </c>
       <c r="AU75">
         <v>1.64</v>
@@ -15713,7 +15749,7 @@
         <v>96</v>
       </c>
       <c r="P76" t="s">
-        <v>268</v>
+        <v>277</v>
       </c>
       <c r="Q76">
         <v>10</v>
@@ -15800,7 +15836,7 @@
         <v>2</v>
       </c>
       <c r="AS76">
-        <v>2.38</v>
+        <v>2.44</v>
       </c>
       <c r="AT76">
         <v>2</v>
@@ -15994,7 +16030,7 @@
         <v>1.11</v>
       </c>
       <c r="AT77">
-        <v>0.63</v>
+        <v>0.5600000000000001</v>
       </c>
       <c r="AU77">
         <v>1.19</v>
@@ -16185,7 +16221,7 @@
         <v>2.22</v>
       </c>
       <c r="AT78">
-        <v>0.88</v>
+        <v>0.78</v>
       </c>
       <c r="AU78">
         <v>0.82</v>
@@ -16376,7 +16412,7 @@
         <v>1.11</v>
       </c>
       <c r="AT79">
-        <v>0.88</v>
+        <v>0.78</v>
       </c>
       <c r="AU79">
         <v>1.59</v>
@@ -16477,7 +16513,7 @@
         <v>141</v>
       </c>
       <c r="P80" t="s">
-        <v>269</v>
+        <v>278</v>
       </c>
       <c r="Q80">
         <v>5</v>
@@ -16755,7 +16791,7 @@
         <v>0</v>
       </c>
       <c r="AS81">
-        <v>1.5</v>
+        <v>1.33</v>
       </c>
       <c r="AT81">
         <v>0.9</v>
@@ -16859,7 +16895,7 @@
         <v>142</v>
       </c>
       <c r="P82" t="s">
-        <v>270</v>
+        <v>279</v>
       </c>
       <c r="Q82">
         <v>2</v>
@@ -16949,7 +16985,7 @@
         <v>1.9</v>
       </c>
       <c r="AT82">
-        <v>0.71</v>
+        <v>0.63</v>
       </c>
       <c r="AU82">
         <v>1.61</v>
@@ -17137,7 +17173,7 @@
         <v>1.5</v>
       </c>
       <c r="AS83">
-        <v>1.88</v>
+        <v>2</v>
       </c>
       <c r="AT83">
         <v>0.89</v>
@@ -17241,7 +17277,7 @@
         <v>96</v>
       </c>
       <c r="P84" t="s">
-        <v>271</v>
+        <v>280</v>
       </c>
       <c r="Q84">
         <v>4</v>
@@ -17328,7 +17364,7 @@
         <v>1.33</v>
       </c>
       <c r="AS84">
-        <v>1.25</v>
+        <v>1.44</v>
       </c>
       <c r="AT84">
         <v>1.3</v>
@@ -17623,7 +17659,7 @@
         <v>115</v>
       </c>
       <c r="P86" t="s">
-        <v>272</v>
+        <v>281</v>
       </c>
       <c r="Q86">
         <v>6</v>
@@ -17713,7 +17749,7 @@
         <v>1.5</v>
       </c>
       <c r="AT86">
-        <v>0.89</v>
+        <v>0.8</v>
       </c>
       <c r="AU86">
         <v>0.74</v>
@@ -17901,7 +17937,7 @@
         <v>1</v>
       </c>
       <c r="AS87">
-        <v>1.75</v>
+        <v>1.89</v>
       </c>
       <c r="AT87">
         <v>0.4</v>
@@ -18005,7 +18041,7 @@
         <v>145</v>
       </c>
       <c r="P88" t="s">
-        <v>273</v>
+        <v>282</v>
       </c>
       <c r="Q88">
         <v>5</v>
@@ -18095,7 +18131,7 @@
         <v>1.4</v>
       </c>
       <c r="AT88">
-        <v>0.89</v>
+        <v>0.8</v>
       </c>
       <c r="AU88">
         <v>1.59</v>
@@ -18283,10 +18319,10 @@
         <v>0.33</v>
       </c>
       <c r="AS89">
-        <v>2.56</v>
+        <v>2.4</v>
       </c>
       <c r="AT89">
-        <v>0.78</v>
+        <v>0.7</v>
       </c>
       <c r="AU89">
         <v>1.5</v>
@@ -18387,7 +18423,7 @@
         <v>147</v>
       </c>
       <c r="P90" t="s">
-        <v>274</v>
+        <v>283</v>
       </c>
       <c r="Q90">
         <v>8</v>
@@ -18477,7 +18513,7 @@
         <v>1.6</v>
       </c>
       <c r="AT90">
-        <v>1.88</v>
+        <v>2</v>
       </c>
       <c r="AU90">
         <v>1.33</v>
@@ -18665,7 +18701,7 @@
         <v>2.33</v>
       </c>
       <c r="AS91">
-        <v>1.11</v>
+        <v>1.3</v>
       </c>
       <c r="AT91">
         <v>1</v>
@@ -18856,7 +18892,7 @@
         <v>2</v>
       </c>
       <c r="AS92">
-        <v>1.88</v>
+        <v>2</v>
       </c>
       <c r="AT92">
         <v>1.11</v>
@@ -19047,7 +19083,7 @@
         <v>1.67</v>
       </c>
       <c r="AS93">
-        <v>1.38</v>
+        <v>1.56</v>
       </c>
       <c r="AT93">
         <v>1.3</v>
@@ -19342,7 +19378,7 @@
         <v>151</v>
       </c>
       <c r="P95" t="s">
-        <v>275</v>
+        <v>284</v>
       </c>
       <c r="Q95">
         <v>9</v>
@@ -19429,10 +19465,10 @@
         <v>1.67</v>
       </c>
       <c r="AS95">
-        <v>1.89</v>
+        <v>2</v>
       </c>
       <c r="AT95">
-        <v>0.67</v>
+        <v>0.6</v>
       </c>
       <c r="AU95">
         <v>1.86</v>
@@ -19623,7 +19659,7 @@
         <v>1.3</v>
       </c>
       <c r="AT96">
-        <v>1.25</v>
+        <v>1.11</v>
       </c>
       <c r="AU96">
         <v>2.03</v>
@@ -19811,7 +19847,7 @@
         <v>0.67</v>
       </c>
       <c r="AS97">
-        <v>2.56</v>
+        <v>2.6</v>
       </c>
       <c r="AT97">
         <v>1</v>
@@ -19915,7 +19951,7 @@
         <v>153</v>
       </c>
       <c r="P98" t="s">
-        <v>276</v>
+        <v>285</v>
       </c>
       <c r="Q98">
         <v>6</v>
@@ -20005,7 +20041,7 @@
         <v>1.3</v>
       </c>
       <c r="AT98">
-        <v>0.88</v>
+        <v>0.78</v>
       </c>
       <c r="AU98">
         <v>1.35</v>
@@ -20106,7 +20142,7 @@
         <v>154</v>
       </c>
       <c r="P99" t="s">
-        <v>273</v>
+        <v>282</v>
       </c>
       <c r="Q99">
         <v>5</v>
@@ -20196,7 +20232,7 @@
         <v>1.2</v>
       </c>
       <c r="AT99">
-        <v>0.67</v>
+        <v>0.7</v>
       </c>
       <c r="AU99">
         <v>1.88</v>
@@ -20297,7 +20333,7 @@
         <v>155</v>
       </c>
       <c r="P100" t="s">
-        <v>277</v>
+        <v>286</v>
       </c>
       <c r="Q100">
         <v>1</v>
@@ -20384,7 +20420,7 @@
         <v>1</v>
       </c>
       <c r="AS100">
-        <v>0.71</v>
+        <v>1</v>
       </c>
       <c r="AT100">
         <v>0.89</v>
@@ -20575,7 +20611,7 @@
         <v>1.75</v>
       </c>
       <c r="AS101">
-        <v>1.25</v>
+        <v>1.44</v>
       </c>
       <c r="AT101">
         <v>1</v>
@@ -20679,7 +20715,7 @@
         <v>157</v>
       </c>
       <c r="P102" t="s">
-        <v>278</v>
+        <v>287</v>
       </c>
       <c r="Q102">
         <v>2</v>
@@ -20769,7 +20805,7 @@
         <v>1.11</v>
       </c>
       <c r="AT102">
-        <v>0.88</v>
+        <v>0.89</v>
       </c>
       <c r="AU102">
         <v>1.71</v>
@@ -21061,7 +21097,7 @@
         <v>159</v>
       </c>
       <c r="P104" t="s">
-        <v>246</v>
+        <v>255</v>
       </c>
       <c r="Q104">
         <v>6</v>
@@ -21151,7 +21187,7 @@
         <v>1.11</v>
       </c>
       <c r="AT104">
-        <v>0.88</v>
+        <v>0.78</v>
       </c>
       <c r="AU104">
         <v>1.17</v>
@@ -21252,7 +21288,7 @@
         <v>160</v>
       </c>
       <c r="P105" t="s">
-        <v>279</v>
+        <v>288</v>
       </c>
       <c r="Q105">
         <v>5</v>
@@ -21339,7 +21375,7 @@
         <v>1.75</v>
       </c>
       <c r="AS105">
-        <v>1.88</v>
+        <v>2</v>
       </c>
       <c r="AT105">
         <v>1.3</v>
@@ -21443,7 +21479,7 @@
         <v>161</v>
       </c>
       <c r="P106" t="s">
-        <v>274</v>
+        <v>283</v>
       </c>
       <c r="Q106">
         <v>11</v>
@@ -21634,7 +21670,7 @@
         <v>162</v>
       </c>
       <c r="P107" t="s">
-        <v>280</v>
+        <v>289</v>
       </c>
       <c r="Q107">
         <v>8</v>
@@ -21724,7 +21760,7 @@
         <v>1.7</v>
       </c>
       <c r="AT107">
-        <v>0.88</v>
+        <v>0.78</v>
       </c>
       <c r="AU107">
         <v>1.64</v>
@@ -21915,7 +21951,7 @@
         <v>1.9</v>
       </c>
       <c r="AT108">
-        <v>0.63</v>
+        <v>0.5600000000000001</v>
       </c>
       <c r="AU108">
         <v>1.46</v>
@@ -22016,7 +22052,7 @@
         <v>96</v>
       </c>
       <c r="P109" t="s">
-        <v>281</v>
+        <v>290</v>
       </c>
       <c r="Q109">
         <v>9</v>
@@ -22103,7 +22139,7 @@
         <v>2.25</v>
       </c>
       <c r="AS109">
-        <v>1.38</v>
+        <v>1.33</v>
       </c>
       <c r="AT109">
         <v>2</v>
@@ -22485,7 +22521,7 @@
         <v>0.75</v>
       </c>
       <c r="AS111">
-        <v>2.38</v>
+        <v>2.44</v>
       </c>
       <c r="AT111">
         <v>0.9</v>
@@ -22589,7 +22625,7 @@
         <v>96</v>
       </c>
       <c r="P112" t="s">
-        <v>282</v>
+        <v>291</v>
       </c>
       <c r="Q112">
         <v>9</v>
@@ -23061,7 +23097,7 @@
         <v>1.6</v>
       </c>
       <c r="AT114">
-        <v>0.71</v>
+        <v>0.63</v>
       </c>
       <c r="AU114">
         <v>1.42</v>
@@ -23249,7 +23285,7 @@
         <v>0.75</v>
       </c>
       <c r="AS115">
-        <v>1.75</v>
+        <v>1.89</v>
       </c>
       <c r="AT115">
         <v>1.1</v>
@@ -23440,10 +23476,10 @@
         <v>0.25</v>
       </c>
       <c r="AS116">
-        <v>2.56</v>
+        <v>2.6</v>
       </c>
       <c r="AT116">
-        <v>0.78</v>
+        <v>0.7</v>
       </c>
       <c r="AU116">
         <v>1.68</v>
@@ -23631,10 +23667,10 @@
         <v>0.5</v>
       </c>
       <c r="AS117">
-        <v>1.89</v>
+        <v>2</v>
       </c>
       <c r="AT117">
-        <v>0.67</v>
+        <v>0.7</v>
       </c>
       <c r="AU117">
         <v>1.81</v>
@@ -23926,7 +23962,7 @@
         <v>96</v>
       </c>
       <c r="P119" t="s">
-        <v>283</v>
+        <v>292</v>
       </c>
       <c r="Q119">
         <v>0</v>
@@ -24016,7 +24052,7 @@
         <v>1.5</v>
       </c>
       <c r="AT119">
-        <v>1.25</v>
+        <v>1.11</v>
       </c>
       <c r="AU119">
         <v>0.89</v>
@@ -24204,10 +24240,10 @@
         <v>1.5</v>
       </c>
       <c r="AS120">
-        <v>2.56</v>
+        <v>2.4</v>
       </c>
       <c r="AT120">
-        <v>0.89</v>
+        <v>0.8</v>
       </c>
       <c r="AU120">
         <v>1.52</v>
@@ -24308,7 +24344,7 @@
         <v>169</v>
       </c>
       <c r="P121" t="s">
-        <v>284</v>
+        <v>293</v>
       </c>
       <c r="Q121">
         <v>5</v>
@@ -24395,10 +24431,10 @@
         <v>1.25</v>
       </c>
       <c r="AS121">
-        <v>1.38</v>
+        <v>1.56</v>
       </c>
       <c r="AT121">
-        <v>0.67</v>
+        <v>0.6</v>
       </c>
       <c r="AU121">
         <v>1.76</v>
@@ -24586,7 +24622,7 @@
         <v>1.75</v>
       </c>
       <c r="AS122">
-        <v>1.5</v>
+        <v>1.33</v>
       </c>
       <c r="AT122">
         <v>1.11</v>
@@ -24690,7 +24726,7 @@
         <v>96</v>
       </c>
       <c r="P123" t="s">
-        <v>285</v>
+        <v>294</v>
       </c>
       <c r="Q123">
         <v>8</v>
@@ -24780,7 +24816,7 @@
         <v>1.4</v>
       </c>
       <c r="AT123">
-        <v>1.88</v>
+        <v>2</v>
       </c>
       <c r="AU123">
         <v>1.5</v>
@@ -24971,7 +25007,7 @@
         <v>1.2</v>
       </c>
       <c r="AT124">
-        <v>0.89</v>
+        <v>0.8</v>
       </c>
       <c r="AU124">
         <v>1.76</v>
@@ -25072,7 +25108,7 @@
         <v>96</v>
       </c>
       <c r="P125" t="s">
-        <v>286</v>
+        <v>295</v>
       </c>
       <c r="Q125">
         <v>6</v>
@@ -25162,7 +25198,7 @@
         <v>1.3</v>
       </c>
       <c r="AT125">
-        <v>0.88</v>
+        <v>0.78</v>
       </c>
       <c r="AU125">
         <v>1.92</v>
@@ -25350,7 +25386,7 @@
         <v>1.25</v>
       </c>
       <c r="AS126">
-        <v>1.88</v>
+        <v>2</v>
       </c>
       <c r="AT126">
         <v>1.3</v>
@@ -25541,7 +25577,7 @@
         <v>1</v>
       </c>
       <c r="AS127">
-        <v>1.11</v>
+        <v>1.3</v>
       </c>
       <c r="AT127">
         <v>0.4</v>
@@ -25735,7 +25771,7 @@
         <v>1.6</v>
       </c>
       <c r="AT128">
-        <v>0.88</v>
+        <v>0.78</v>
       </c>
       <c r="AU128">
         <v>1.47</v>
@@ -25923,7 +25959,7 @@
         <v>0.8</v>
       </c>
       <c r="AS129">
-        <v>2.38</v>
+        <v>2.44</v>
       </c>
       <c r="AT129">
         <v>0.4</v>
@@ -26027,7 +26063,7 @@
         <v>173</v>
       </c>
       <c r="P130" t="s">
-        <v>287</v>
+        <v>296</v>
       </c>
       <c r="Q130">
         <v>5</v>
@@ -26117,7 +26153,7 @@
         <v>1.3</v>
       </c>
       <c r="AT130">
-        <v>0.63</v>
+        <v>0.5600000000000001</v>
       </c>
       <c r="AU130">
         <v>1.37</v>
@@ -26308,7 +26344,7 @@
         <v>1.9</v>
       </c>
       <c r="AT131">
-        <v>0.88</v>
+        <v>0.78</v>
       </c>
       <c r="AU131">
         <v>1.55</v>
@@ -26496,7 +26532,7 @@
         <v>0.8</v>
       </c>
       <c r="AS132">
-        <v>1.38</v>
+        <v>1.33</v>
       </c>
       <c r="AT132">
         <v>0.9</v>
@@ -26600,7 +26636,7 @@
         <v>176</v>
       </c>
       <c r="P133" t="s">
-        <v>243</v>
+        <v>252</v>
       </c>
       <c r="Q133">
         <v>4</v>
@@ -26791,7 +26827,7 @@
         <v>96</v>
       </c>
       <c r="P134" t="s">
-        <v>288</v>
+        <v>297</v>
       </c>
       <c r="Q134">
         <v>7</v>
@@ -26878,7 +26914,7 @@
         <v>1.4</v>
       </c>
       <c r="AS134">
-        <v>0.71</v>
+        <v>1</v>
       </c>
       <c r="AT134">
         <v>1.3</v>
@@ -26982,7 +27018,7 @@
         <v>159</v>
       </c>
       <c r="P135" t="s">
-        <v>289</v>
+        <v>298</v>
       </c>
       <c r="Q135">
         <v>6</v>
@@ -27173,7 +27209,7 @@
         <v>177</v>
       </c>
       <c r="P136" t="s">
-        <v>252</v>
+        <v>261</v>
       </c>
       <c r="Q136">
         <v>10</v>
@@ -27364,7 +27400,7 @@
         <v>178</v>
       </c>
       <c r="P137" t="s">
-        <v>290</v>
+        <v>299</v>
       </c>
       <c r="Q137">
         <v>4</v>
@@ -27555,7 +27591,7 @@
         <v>115</v>
       </c>
       <c r="P138" t="s">
-        <v>291</v>
+        <v>300</v>
       </c>
       <c r="Q138">
         <v>2</v>
@@ -27642,7 +27678,7 @@
         <v>1.4</v>
       </c>
       <c r="AS138">
-        <v>1.88</v>
+        <v>2</v>
       </c>
       <c r="AT138">
         <v>1</v>
@@ -27937,7 +27973,7 @@
         <v>96</v>
       </c>
       <c r="P140" t="s">
-        <v>292</v>
+        <v>301</v>
       </c>
       <c r="Q140">
         <v>4</v>
@@ -28128,7 +28164,7 @@
         <v>177</v>
       </c>
       <c r="P141" t="s">
-        <v>293</v>
+        <v>302</v>
       </c>
       <c r="Q141">
         <v>4</v>
@@ -28218,7 +28254,7 @@
         <v>1.7</v>
       </c>
       <c r="AT141">
-        <v>0.88</v>
+        <v>0.89</v>
       </c>
       <c r="AU141">
         <v>1.67</v>
@@ -28409,7 +28445,7 @@
         <v>1.5</v>
       </c>
       <c r="AT142">
-        <v>0.88</v>
+        <v>0.78</v>
       </c>
       <c r="AU142">
         <v>0.85</v>
@@ -28510,7 +28546,7 @@
         <v>179</v>
       </c>
       <c r="P143" t="s">
-        <v>254</v>
+        <v>263</v>
       </c>
       <c r="Q143">
         <v>5</v>
@@ -28597,7 +28633,7 @@
         <v>0.6</v>
       </c>
       <c r="AS143">
-        <v>1.75</v>
+        <v>1.89</v>
       </c>
       <c r="AT143">
         <v>1</v>
@@ -28791,7 +28827,7 @@
         <v>1.4</v>
       </c>
       <c r="AT144">
-        <v>0.71</v>
+        <v>0.63</v>
       </c>
       <c r="AU144">
         <v>1.49</v>
@@ -28892,7 +28928,7 @@
         <v>96</v>
       </c>
       <c r="P145" t="s">
-        <v>294</v>
+        <v>303</v>
       </c>
       <c r="Q145">
         <v>6</v>
@@ -29083,7 +29119,7 @@
         <v>125</v>
       </c>
       <c r="P146" t="s">
-        <v>261</v>
+        <v>270</v>
       </c>
       <c r="Q146">
         <v>7</v>
@@ -29170,7 +29206,7 @@
         <v>1.4</v>
       </c>
       <c r="AS146">
-        <v>1.11</v>
+        <v>1.3</v>
       </c>
       <c r="AT146">
         <v>1.11</v>
@@ -29361,10 +29397,10 @@
         <v>1.5</v>
       </c>
       <c r="AS147">
-        <v>2.56</v>
+        <v>2.4</v>
       </c>
       <c r="AT147">
-        <v>1.25</v>
+        <v>1.11</v>
       </c>
       <c r="AU147">
         <v>1.55</v>
@@ -29552,10 +29588,10 @@
         <v>1</v>
       </c>
       <c r="AS148">
-        <v>1.88</v>
+        <v>2</v>
       </c>
       <c r="AT148">
-        <v>0.67</v>
+        <v>0.6</v>
       </c>
       <c r="AU148">
         <v>1.09</v>
@@ -29743,10 +29779,10 @@
         <v>0.4</v>
       </c>
       <c r="AS149">
-        <v>1.38</v>
+        <v>1.56</v>
       </c>
       <c r="AT149">
-        <v>0.67</v>
+        <v>0.7</v>
       </c>
       <c r="AU149">
         <v>1.77</v>
@@ -29934,10 +29970,10 @@
         <v>0.6</v>
       </c>
       <c r="AS150">
-        <v>1.89</v>
+        <v>2</v>
       </c>
       <c r="AT150">
-        <v>0.89</v>
+        <v>0.8</v>
       </c>
       <c r="AU150">
         <v>1.74</v>
@@ -30125,10 +30161,10 @@
         <v>1.4</v>
       </c>
       <c r="AS151">
-        <v>2.56</v>
+        <v>2.6</v>
       </c>
       <c r="AT151">
-        <v>0.89</v>
+        <v>0.8</v>
       </c>
       <c r="AU151">
         <v>1.65</v>
@@ -30229,7 +30265,7 @@
         <v>183</v>
       </c>
       <c r="P152" t="s">
-        <v>295</v>
+        <v>304</v>
       </c>
       <c r="Q152">
         <v>1</v>
@@ -30316,7 +30352,7 @@
         <v>0.6</v>
       </c>
       <c r="AS152">
-        <v>1.25</v>
+        <v>1.44</v>
       </c>
       <c r="AT152">
         <v>1.1</v>
@@ -30420,7 +30456,7 @@
         <v>184</v>
       </c>
       <c r="P153" t="s">
-        <v>296</v>
+        <v>305</v>
       </c>
       <c r="Q153">
         <v>1</v>
@@ -30510,7 +30546,7 @@
         <v>1.2</v>
       </c>
       <c r="AT153">
-        <v>1.88</v>
+        <v>2</v>
       </c>
       <c r="AU153">
         <v>1.75</v>
@@ -30701,7 +30737,7 @@
         <v>2.63</v>
       </c>
       <c r="AT154">
-        <v>0.78</v>
+        <v>0.7</v>
       </c>
       <c r="AU154">
         <v>1.74</v>
@@ -30889,7 +30925,7 @@
         <v>1.2</v>
       </c>
       <c r="AS155">
-        <v>1.5</v>
+        <v>1.33</v>
       </c>
       <c r="AT155">
         <v>1.3</v>
@@ -31083,7 +31119,7 @@
         <v>1.6</v>
       </c>
       <c r="AT156">
-        <v>0.88</v>
+        <v>0.78</v>
       </c>
       <c r="AU156">
         <v>1.39</v>
@@ -31566,7 +31602,7 @@
         <v>96</v>
       </c>
       <c r="P159" t="s">
-        <v>297</v>
+        <v>306</v>
       </c>
       <c r="Q159">
         <v>15</v>
@@ -31844,7 +31880,7 @@
         <v>1.33</v>
       </c>
       <c r="AS160">
-        <v>0.71</v>
+        <v>1</v>
       </c>
       <c r="AT160">
         <v>1</v>
@@ -32038,7 +32074,7 @@
         <v>1.3</v>
       </c>
       <c r="AT161">
-        <v>0.88</v>
+        <v>0.78</v>
       </c>
       <c r="AU161">
         <v>1.36</v>
@@ -32330,7 +32366,7 @@
         <v>96</v>
       </c>
       <c r="P163" t="s">
-        <v>298</v>
+        <v>307</v>
       </c>
       <c r="Q163">
         <v>1</v>
@@ -32802,7 +32838,7 @@
         <v>1.6</v>
       </c>
       <c r="AT165">
-        <v>0.88</v>
+        <v>0.89</v>
       </c>
       <c r="AU165">
         <v>1.64</v>
@@ -33181,7 +33217,7 @@
         <v>0.67</v>
       </c>
       <c r="AS167">
-        <v>1.38</v>
+        <v>1.33</v>
       </c>
       <c r="AT167">
         <v>0.4</v>
@@ -33285,7 +33321,7 @@
         <v>189</v>
       </c>
       <c r="P168" t="s">
-        <v>299</v>
+        <v>308</v>
       </c>
       <c r="Q168">
         <v>3</v>
@@ -33476,7 +33512,7 @@
         <v>190</v>
       </c>
       <c r="P169" t="s">
-        <v>300</v>
+        <v>309</v>
       </c>
       <c r="Q169">
         <v>1</v>
@@ -33563,7 +33599,7 @@
         <v>1.33</v>
       </c>
       <c r="AS169">
-        <v>1.88</v>
+        <v>2</v>
       </c>
       <c r="AT169">
         <v>1.11</v>
@@ -33667,7 +33703,7 @@
         <v>191</v>
       </c>
       <c r="P170" t="s">
-        <v>246</v>
+        <v>255</v>
       </c>
       <c r="Q170">
         <v>7</v>
@@ -33757,7 +33793,7 @@
         <v>1.2</v>
       </c>
       <c r="AT170">
-        <v>0.71</v>
+        <v>0.63</v>
       </c>
       <c r="AU170">
         <v>1.69</v>
@@ -33858,7 +33894,7 @@
         <v>192</v>
       </c>
       <c r="P171" t="s">
-        <v>273</v>
+        <v>282</v>
       </c>
       <c r="Q171">
         <v>3</v>
@@ -33945,7 +33981,7 @@
         <v>1</v>
       </c>
       <c r="AS171">
-        <v>2.38</v>
+        <v>2.44</v>
       </c>
       <c r="AT171">
         <v>1.3</v>
@@ -34049,7 +34085,7 @@
         <v>193</v>
       </c>
       <c r="P172" t="s">
-        <v>262</v>
+        <v>271</v>
       </c>
       <c r="Q172">
         <v>4</v>
@@ -34136,7 +34172,7 @@
         <v>0.5</v>
       </c>
       <c r="AS172">
-        <v>1.25</v>
+        <v>1.44</v>
       </c>
       <c r="AT172">
         <v>1</v>
@@ -34327,10 +34363,10 @@
         <v>0.83</v>
       </c>
       <c r="AS173">
-        <v>1.88</v>
+        <v>2</v>
       </c>
       <c r="AT173">
-        <v>0.67</v>
+        <v>0.7</v>
       </c>
       <c r="AU173">
         <v>1.19</v>
@@ -34431,7 +34467,7 @@
         <v>96</v>
       </c>
       <c r="P174" t="s">
-        <v>301</v>
+        <v>310</v>
       </c>
       <c r="Q174">
         <v>5</v>
@@ -34518,7 +34554,7 @@
         <v>1</v>
       </c>
       <c r="AS174">
-        <v>1.11</v>
+        <v>1.3</v>
       </c>
       <c r="AT174">
         <v>1.1</v>
@@ -34709,10 +34745,10 @@
         <v>1.4</v>
       </c>
       <c r="AS175">
-        <v>2.56</v>
+        <v>2.4</v>
       </c>
       <c r="AT175">
-        <v>0.88</v>
+        <v>0.78</v>
       </c>
       <c r="AU175">
         <v>1.44</v>
@@ -34813,7 +34849,7 @@
         <v>194</v>
       </c>
       <c r="P176" t="s">
-        <v>302</v>
+        <v>311</v>
       </c>
       <c r="Q176">
         <v>2</v>
@@ -34900,10 +34936,10 @@
         <v>1.2</v>
       </c>
       <c r="AS176">
-        <v>2.56</v>
+        <v>2.6</v>
       </c>
       <c r="AT176">
-        <v>1.25</v>
+        <v>1.11</v>
       </c>
       <c r="AU176">
         <v>1.54</v>
@@ -35094,7 +35130,7 @@
         <v>1.4</v>
       </c>
       <c r="AT177">
-        <v>0.63</v>
+        <v>0.5600000000000001</v>
       </c>
       <c r="AU177">
         <v>1.42</v>
@@ -35282,10 +35318,10 @@
         <v>2.2</v>
       </c>
       <c r="AS178">
-        <v>1.89</v>
+        <v>2</v>
       </c>
       <c r="AT178">
-        <v>1.88</v>
+        <v>2</v>
       </c>
       <c r="AU178">
         <v>1.61</v>
@@ -35476,7 +35512,7 @@
         <v>2.63</v>
       </c>
       <c r="AT179">
-        <v>0.89</v>
+        <v>0.8</v>
       </c>
       <c r="AU179">
         <v>1.8</v>
@@ -35577,7 +35613,7 @@
         <v>96</v>
       </c>
       <c r="P180" t="s">
-        <v>303</v>
+        <v>312</v>
       </c>
       <c r="Q180">
         <v>5</v>
@@ -35768,7 +35804,7 @@
         <v>198</v>
       </c>
       <c r="P181" t="s">
-        <v>304</v>
+        <v>313</v>
       </c>
       <c r="Q181">
         <v>6</v>
@@ -35855,10 +35891,10 @@
         <v>0.67</v>
       </c>
       <c r="AS181">
-        <v>1.38</v>
+        <v>1.56</v>
       </c>
       <c r="AT181">
-        <v>0.89</v>
+        <v>0.8</v>
       </c>
       <c r="AU181">
         <v>1.71</v>
@@ -35959,7 +35995,7 @@
         <v>199</v>
       </c>
       <c r="P182" t="s">
-        <v>305</v>
+        <v>314</v>
       </c>
       <c r="Q182">
         <v>12</v>
@@ -36046,10 +36082,10 @@
         <v>0.17</v>
       </c>
       <c r="AS182">
-        <v>1.75</v>
+        <v>1.89</v>
       </c>
       <c r="AT182">
-        <v>0.78</v>
+        <v>0.7</v>
       </c>
       <c r="AU182">
         <v>1.88</v>
@@ -36237,10 +36273,10 @@
         <v>0.83</v>
       </c>
       <c r="AS183">
-        <v>1.5</v>
+        <v>1.33</v>
       </c>
       <c r="AT183">
-        <v>0.67</v>
+        <v>0.6</v>
       </c>
       <c r="AU183">
         <v>1.74</v>
@@ -36341,7 +36377,7 @@
         <v>201</v>
       </c>
       <c r="P184" t="s">
-        <v>306</v>
+        <v>315</v>
       </c>
       <c r="Q184">
         <v>5</v>
@@ -36532,7 +36568,7 @@
         <v>202</v>
       </c>
       <c r="P185" t="s">
-        <v>307</v>
+        <v>316</v>
       </c>
       <c r="Q185">
         <v>4</v>
@@ -36619,7 +36655,7 @@
         <v>1.29</v>
       </c>
       <c r="AS185">
-        <v>1.38</v>
+        <v>1.33</v>
       </c>
       <c r="AT185">
         <v>1.1</v>
@@ -36914,7 +36950,7 @@
         <v>203</v>
       </c>
       <c r="P187" t="s">
-        <v>308</v>
+        <v>317</v>
       </c>
       <c r="Q187">
         <v>2</v>
@@ -37487,7 +37523,7 @@
         <v>200</v>
       </c>
       <c r="P190" t="s">
-        <v>298</v>
+        <v>307</v>
       </c>
       <c r="Q190">
         <v>3</v>
@@ -37768,7 +37804,7 @@
         <v>1.3</v>
       </c>
       <c r="AT191">
-        <v>0.88</v>
+        <v>0.78</v>
       </c>
       <c r="AU191">
         <v>1.6</v>
@@ -37869,7 +37905,7 @@
         <v>96</v>
       </c>
       <c r="P192" t="s">
-        <v>309</v>
+        <v>318</v>
       </c>
       <c r="Q192">
         <v>6</v>
@@ -38341,7 +38377,7 @@
         <v>1.6</v>
       </c>
       <c r="AT194">
-        <v>0.88</v>
+        <v>0.89</v>
       </c>
       <c r="AU194">
         <v>1.4</v>
@@ -38782,7 +38818,7 @@
         <v>196</v>
       </c>
       <c r="B197">
-        <v>5019512</v>
+        <v>4554605</v>
       </c>
       <c r="C197" t="s">
         <v>63</v>
@@ -38797,175 +38833,175 @@
         <v>15</v>
       </c>
       <c r="G197" t="s">
-        <v>76</v>
+        <v>87</v>
       </c>
       <c r="H197" t="s">
-        <v>72</v>
+        <v>89</v>
       </c>
       <c r="I197">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J197">
         <v>0</v>
       </c>
       <c r="K197">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L197">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="M197">
         <v>0</v>
       </c>
       <c r="N197">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="O197" t="s">
-        <v>208</v>
+        <v>96</v>
       </c>
       <c r="P197" t="s">
         <v>96</v>
       </c>
       <c r="Q197">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="R197">
+        <v>5</v>
+      </c>
+      <c r="S197">
         <v>11</v>
       </c>
-      <c r="S197">
-        <v>19</v>
-      </c>
       <c r="T197">
-        <v>3.95</v>
+        <v>2.88</v>
       </c>
       <c r="U197">
-        <v>2.05</v>
+        <v>2</v>
       </c>
       <c r="V197">
-        <v>3.22</v>
+        <v>4.33</v>
       </c>
       <c r="W197">
-        <v>1.52</v>
+        <v>1.5</v>
       </c>
       <c r="X197">
-        <v>2.57</v>
+        <v>2.5</v>
       </c>
       <c r="Y197">
+        <v>3.4</v>
+      </c>
+      <c r="Z197">
+        <v>1.3</v>
+      </c>
+      <c r="AA197">
+        <v>10</v>
+      </c>
+      <c r="AB197">
+        <v>1.06</v>
+      </c>
+      <c r="AC197">
+        <v>2.1</v>
+      </c>
+      <c r="AD197">
+        <v>3.2</v>
+      </c>
+      <c r="AE197">
+        <v>3.6</v>
+      </c>
+      <c r="AF197">
+        <v>1.05</v>
+      </c>
+      <c r="AG197">
+        <v>8.75</v>
+      </c>
+      <c r="AH197">
+        <v>1.4</v>
+      </c>
+      <c r="AI197">
+        <v>2.85</v>
+      </c>
+      <c r="AJ197">
+        <v>2.3</v>
+      </c>
+      <c r="AK197">
+        <v>1.6</v>
+      </c>
+      <c r="AL197">
+        <v>2</v>
+      </c>
+      <c r="AM197">
+        <v>1.75</v>
+      </c>
+      <c r="AN197">
+        <v>1.28</v>
+      </c>
+      <c r="AO197">
+        <v>1.28</v>
+      </c>
+      <c r="AP197">
+        <v>1.62</v>
+      </c>
+      <c r="AQ197">
+        <v>1.83</v>
+      </c>
+      <c r="AR197">
+        <v>0.43</v>
+      </c>
+      <c r="AS197">
+        <v>2</v>
+      </c>
+      <c r="AT197">
+        <v>1</v>
+      </c>
+      <c r="AU197">
+        <v>1.41</v>
+      </c>
+      <c r="AV197">
+        <v>1.06</v>
+      </c>
+      <c r="AW197">
+        <v>2.47</v>
+      </c>
+      <c r="AX197">
+        <v>1.92</v>
+      </c>
+      <c r="AY197">
+        <v>8.9</v>
+      </c>
+      <c r="AZ197">
+        <v>2.17</v>
+      </c>
+      <c r="BA197">
+        <v>1.24</v>
+      </c>
+      <c r="BB197">
+        <v>1.46</v>
+      </c>
+      <c r="BC197">
+        <v>1.82</v>
+      </c>
+      <c r="BD197">
+        <v>2.4</v>
+      </c>
+      <c r="BE197">
         <v>3.3</v>
       </c>
-      <c r="Z197">
-        <v>1.25</v>
-      </c>
-      <c r="AA197">
-        <v>12</v>
-      </c>
-      <c r="AB197">
-        <v>1.04</v>
-      </c>
-      <c r="AC197">
-        <v>2.92</v>
-      </c>
-      <c r="AD197">
-        <v>3.05</v>
-      </c>
-      <c r="AE197">
-        <v>2.38</v>
-      </c>
-      <c r="AF197">
-        <v>1.09</v>
-      </c>
-      <c r="AG197">
-        <v>7.25</v>
-      </c>
-      <c r="AH197">
-        <v>1.48</v>
-      </c>
-      <c r="AI197">
-        <v>2.5</v>
-      </c>
-      <c r="AJ197">
-        <v>2.45</v>
-      </c>
-      <c r="AK197">
-        <v>1.48</v>
-      </c>
-      <c r="AL197">
-        <v>2.1</v>
-      </c>
-      <c r="AM197">
-        <v>1.68</v>
-      </c>
-      <c r="AN197">
-        <v>1.55</v>
-      </c>
-      <c r="AO197">
-        <v>1.3</v>
-      </c>
-      <c r="AP197">
-        <v>1.35</v>
-      </c>
-      <c r="AQ197">
-        <v>1.14</v>
-      </c>
-      <c r="AR197">
-        <v>1.17</v>
-      </c>
-      <c r="AS197">
-        <v>1.5</v>
-      </c>
-      <c r="AT197">
-        <v>0.88</v>
-      </c>
-      <c r="AU197">
-        <v>0.86</v>
-      </c>
-      <c r="AV197">
-        <v>1.31</v>
-      </c>
-      <c r="AW197">
-        <v>2.17</v>
-      </c>
-      <c r="AX197">
-        <v>2.6</v>
-      </c>
-      <c r="AY197">
-        <v>7</v>
-      </c>
-      <c r="AZ197">
-        <v>1.74</v>
-      </c>
-      <c r="BA197">
-        <v>1.27</v>
-      </c>
-      <c r="BB197">
-        <v>1.5</v>
-      </c>
-      <c r="BC197">
-        <v>1.95</v>
-      </c>
-      <c r="BD197">
-        <v>2.45</v>
-      </c>
-      <c r="BE197">
-        <v>3.4</v>
-      </c>
       <c r="BF197">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="BG197">
         <v>6</v>
       </c>
       <c r="BH197">
-        <v>8</v>
+        <v>15</v>
       </c>
       <c r="BI197">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="BJ197">
-        <v>15</v>
+        <v>20</v>
       </c>
       <c r="BK197">
-        <v>14</v>
+        <v>13</v>
       </c>
     </row>
     <row r="198" spans="1:63">
@@ -38973,7 +39009,7 @@
         <v>197</v>
       </c>
       <c r="B198">
-        <v>4554605</v>
+        <v>5019512</v>
       </c>
       <c r="C198" t="s">
         <v>63</v>
@@ -38988,175 +39024,175 @@
         <v>15</v>
       </c>
       <c r="G198" t="s">
-        <v>87</v>
+        <v>76</v>
       </c>
       <c r="H198" t="s">
-        <v>89</v>
+        <v>72</v>
       </c>
       <c r="I198">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J198">
         <v>0</v>
       </c>
       <c r="K198">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L198">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="M198">
         <v>0</v>
       </c>
       <c r="N198">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="O198" t="s">
-        <v>96</v>
+        <v>208</v>
       </c>
       <c r="P198" t="s">
         <v>96</v>
       </c>
       <c r="Q198">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="R198">
-        <v>5</v>
+        <v>11</v>
       </c>
       <c r="S198">
-        <v>11</v>
+        <v>19</v>
       </c>
       <c r="T198">
-        <v>2.88</v>
+        <v>3.95</v>
       </c>
       <c r="U198">
-        <v>2</v>
+        <v>2.05</v>
       </c>
       <c r="V198">
-        <v>4.33</v>
+        <v>3.22</v>
       </c>
       <c r="W198">
+        <v>1.52</v>
+      </c>
+      <c r="X198">
+        <v>2.57</v>
+      </c>
+      <c r="Y198">
+        <v>3.3</v>
+      </c>
+      <c r="Z198">
+        <v>1.25</v>
+      </c>
+      <c r="AA198">
+        <v>12</v>
+      </c>
+      <c r="AB198">
+        <v>1.04</v>
+      </c>
+      <c r="AC198">
+        <v>2.92</v>
+      </c>
+      <c r="AD198">
+        <v>3.05</v>
+      </c>
+      <c r="AE198">
+        <v>2.38</v>
+      </c>
+      <c r="AF198">
+        <v>1.09</v>
+      </c>
+      <c r="AG198">
+        <v>7.25</v>
+      </c>
+      <c r="AH198">
+        <v>1.48</v>
+      </c>
+      <c r="AI198">
+        <v>2.5</v>
+      </c>
+      <c r="AJ198">
+        <v>2.45</v>
+      </c>
+      <c r="AK198">
+        <v>1.48</v>
+      </c>
+      <c r="AL198">
+        <v>2.1</v>
+      </c>
+      <c r="AM198">
+        <v>1.68</v>
+      </c>
+      <c r="AN198">
+        <v>1.55</v>
+      </c>
+      <c r="AO198">
+        <v>1.3</v>
+      </c>
+      <c r="AP198">
+        <v>1.35</v>
+      </c>
+      <c r="AQ198">
+        <v>1.14</v>
+      </c>
+      <c r="AR198">
+        <v>1.17</v>
+      </c>
+      <c r="AS198">
         <v>1.5</v>
       </c>
-      <c r="X198">
-        <v>2.5</v>
-      </c>
-      <c r="Y198">
+      <c r="AT198">
+        <v>0.78</v>
+      </c>
+      <c r="AU198">
+        <v>0.86</v>
+      </c>
+      <c r="AV198">
+        <v>1.31</v>
+      </c>
+      <c r="AW198">
+        <v>2.17</v>
+      </c>
+      <c r="AX198">
+        <v>2.6</v>
+      </c>
+      <c r="AY198">
+        <v>7</v>
+      </c>
+      <c r="AZ198">
+        <v>1.74</v>
+      </c>
+      <c r="BA198">
+        <v>1.27</v>
+      </c>
+      <c r="BB198">
+        <v>1.5</v>
+      </c>
+      <c r="BC198">
+        <v>1.95</v>
+      </c>
+      <c r="BD198">
+        <v>2.45</v>
+      </c>
+      <c r="BE198">
         <v>3.4</v>
       </c>
-      <c r="Z198">
-        <v>1.3</v>
-      </c>
-      <c r="AA198">
-        <v>10</v>
-      </c>
-      <c r="AB198">
-        <v>1.06</v>
-      </c>
-      <c r="AC198">
-        <v>2.1</v>
-      </c>
-      <c r="AD198">
-        <v>3.2</v>
-      </c>
-      <c r="AE198">
-        <v>3.6</v>
-      </c>
-      <c r="AF198">
-        <v>1.05</v>
-      </c>
-      <c r="AG198">
-        <v>8.75</v>
-      </c>
-      <c r="AH198">
-        <v>1.4</v>
-      </c>
-      <c r="AI198">
-        <v>2.85</v>
-      </c>
-      <c r="AJ198">
-        <v>2.3</v>
-      </c>
-      <c r="AK198">
-        <v>1.6</v>
-      </c>
-      <c r="AL198">
-        <v>2</v>
-      </c>
-      <c r="AM198">
-        <v>1.75</v>
-      </c>
-      <c r="AN198">
-        <v>1.28</v>
-      </c>
-      <c r="AO198">
-        <v>1.28</v>
-      </c>
-      <c r="AP198">
-        <v>1.62</v>
-      </c>
-      <c r="AQ198">
-        <v>1.83</v>
-      </c>
-      <c r="AR198">
-        <v>0.43</v>
-      </c>
-      <c r="AS198">
-        <v>1.88</v>
-      </c>
-      <c r="AT198">
-        <v>1</v>
-      </c>
-      <c r="AU198">
-        <v>1.41</v>
-      </c>
-      <c r="AV198">
-        <v>1.06</v>
-      </c>
-      <c r="AW198">
-        <v>2.47</v>
-      </c>
-      <c r="AX198">
-        <v>1.92</v>
-      </c>
-      <c r="AY198">
-        <v>8.9</v>
-      </c>
-      <c r="AZ198">
-        <v>2.17</v>
-      </c>
-      <c r="BA198">
-        <v>1.24</v>
-      </c>
-      <c r="BB198">
-        <v>1.46</v>
-      </c>
-      <c r="BC198">
-        <v>1.82</v>
-      </c>
-      <c r="BD198">
-        <v>2.4</v>
-      </c>
-      <c r="BE198">
-        <v>3.3</v>
-      </c>
       <c r="BF198">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="BG198">
         <v>6</v>
       </c>
       <c r="BH198">
+        <v>8</v>
+      </c>
+      <c r="BI198">
+        <v>8</v>
+      </c>
+      <c r="BJ198">
         <v>15</v>
       </c>
-      <c r="BI198">
-        <v>7</v>
-      </c>
-      <c r="BJ198">
-        <v>20</v>
-      </c>
       <c r="BK198">
-        <v>13</v>
+        <v>14</v>
       </c>
     </row>
     <row r="199" spans="1:63">
@@ -39293,10 +39329,10 @@
         <v>0.71</v>
       </c>
       <c r="AS199">
-        <v>2.38</v>
+        <v>2.44</v>
       </c>
       <c r="AT199">
-        <v>0.67</v>
+        <v>0.6</v>
       </c>
       <c r="AU199">
         <v>1.23</v>
@@ -39355,7 +39391,7 @@
         <v>199</v>
       </c>
       <c r="B200">
-        <v>4554610</v>
+        <v>4554616</v>
       </c>
       <c r="C200" t="s">
         <v>63</v>
@@ -39370,175 +39406,175 @@
         <v>15</v>
       </c>
       <c r="G200" t="s">
-        <v>83</v>
+        <v>73</v>
       </c>
       <c r="H200" t="s">
-        <v>88</v>
+        <v>78</v>
       </c>
       <c r="I200">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="J200">
         <v>0</v>
       </c>
       <c r="K200">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L200">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="M200">
         <v>0</v>
       </c>
       <c r="N200">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="O200" t="s">
-        <v>131</v>
+        <v>210</v>
       </c>
       <c r="P200" t="s">
         <v>96</v>
       </c>
       <c r="Q200">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="R200">
         <v>4</v>
       </c>
       <c r="S200">
+        <v>9</v>
+      </c>
+      <c r="T200">
+        <v>2.7</v>
+      </c>
+      <c r="U200">
+        <v>2</v>
+      </c>
+      <c r="V200">
+        <v>4.64</v>
+      </c>
+      <c r="W200">
+        <v>1.5</v>
+      </c>
+      <c r="X200">
+        <v>2.49</v>
+      </c>
+      <c r="Y200">
+        <v>3.34</v>
+      </c>
+      <c r="Z200">
+        <v>1.3</v>
+      </c>
+      <c r="AA200">
+        <v>9</v>
+      </c>
+      <c r="AB200">
+        <v>1.05</v>
+      </c>
+      <c r="AC200">
+        <v>2.06</v>
+      </c>
+      <c r="AD200">
+        <v>3.15</v>
+      </c>
+      <c r="AE200">
+        <v>3.47</v>
+      </c>
+      <c r="AF200">
+        <v>1.08</v>
+      </c>
+      <c r="AG200">
+        <v>8.25</v>
+      </c>
+      <c r="AH200">
+        <v>1.42</v>
+      </c>
+      <c r="AI200">
+        <v>2.65</v>
+      </c>
+      <c r="AJ200">
+        <v>2.3</v>
+      </c>
+      <c r="AK200">
+        <v>1.55</v>
+      </c>
+      <c r="AL200">
+        <v>2.02</v>
+      </c>
+      <c r="AM200">
+        <v>1.76</v>
+      </c>
+      <c r="AN200">
+        <v>1.27</v>
+      </c>
+      <c r="AO200">
+        <v>1.33</v>
+      </c>
+      <c r="AP200">
+        <v>1.77</v>
+      </c>
+      <c r="AQ200">
+        <v>1</v>
+      </c>
+      <c r="AR200">
+        <v>0.83</v>
+      </c>
+      <c r="AS200">
+        <v>1.2</v>
+      </c>
+      <c r="AT200">
+        <v>0.5600000000000001</v>
+      </c>
+      <c r="AU200">
+        <v>1.64</v>
+      </c>
+      <c r="AV200">
+        <v>1.24</v>
+      </c>
+      <c r="AW200">
+        <v>2.88</v>
+      </c>
+      <c r="AX200">
+        <v>1.59</v>
+      </c>
+      <c r="AY200">
+        <v>8</v>
+      </c>
+      <c r="AZ200">
+        <v>2.9</v>
+      </c>
+      <c r="BA200">
+        <v>1.36</v>
+      </c>
+      <c r="BB200">
+        <v>1.67</v>
+      </c>
+      <c r="BC200">
+        <v>2.15</v>
+      </c>
+      <c r="BD200">
+        <v>2.95</v>
+      </c>
+      <c r="BE200">
+        <v>4.1</v>
+      </c>
+      <c r="BF200">
         <v>7</v>
       </c>
-      <c r="T200">
-        <v>3.14</v>
-      </c>
-      <c r="U200">
-        <v>1.93</v>
-      </c>
-      <c r="V200">
+      <c r="BG200">
         <v>4</v>
       </c>
-      <c r="W200">
-        <v>1.54</v>
-      </c>
-      <c r="X200">
-        <v>2.39</v>
-      </c>
-      <c r="Y200">
-        <v>3.56</v>
-      </c>
-      <c r="Z200">
-        <v>1.27</v>
-      </c>
-      <c r="AA200">
-        <v>9.9</v>
-      </c>
-      <c r="AB200">
-        <v>1.04</v>
-      </c>
-      <c r="AC200">
-        <v>2.44</v>
-      </c>
-      <c r="AD200">
-        <v>3.13</v>
-      </c>
-      <c r="AE200">
-        <v>3.1</v>
-      </c>
-      <c r="AF200">
-        <v>1.09</v>
-      </c>
-      <c r="AG200">
-        <v>7.5</v>
-      </c>
-      <c r="AH200">
-        <v>1.48</v>
-      </c>
-      <c r="AI200">
-        <v>2.5</v>
-      </c>
-      <c r="AJ200">
-        <v>2.45</v>
-      </c>
-      <c r="AK200">
-        <v>1.48</v>
-      </c>
-      <c r="AL200">
-        <v>2.08</v>
-      </c>
-      <c r="AM200">
-        <v>1.71</v>
-      </c>
-      <c r="AN200">
-        <v>1.36</v>
-      </c>
-      <c r="AO200">
-        <v>1.36</v>
-      </c>
-      <c r="AP200">
-        <v>1.56</v>
-      </c>
-      <c r="AQ200">
-        <v>1.83</v>
-      </c>
-      <c r="AR200">
-        <v>1</v>
-      </c>
-      <c r="AS200">
-        <v>1.88</v>
-      </c>
-      <c r="AT200">
-        <v>0.89</v>
-      </c>
-      <c r="AU200">
-        <v>1.17</v>
-      </c>
-      <c r="AV200">
-        <v>1.19</v>
-      </c>
-      <c r="AW200">
-        <v>2.36</v>
-      </c>
-      <c r="AX200">
-        <v>1.98</v>
-      </c>
-      <c r="AY200">
-        <v>7</v>
-      </c>
-      <c r="AZ200">
-        <v>2.2</v>
-      </c>
-      <c r="BA200">
-        <v>1.33</v>
-      </c>
-      <c r="BB200">
-        <v>1.6</v>
-      </c>
-      <c r="BC200">
-        <v>2.04</v>
-      </c>
-      <c r="BD200">
-        <v>2.75</v>
-      </c>
-      <c r="BE200">
-        <v>3.85</v>
-      </c>
-      <c r="BF200">
-        <v>5</v>
-      </c>
-      <c r="BG200">
-        <v>5</v>
-      </c>
       <c r="BH200">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="BI200">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="BJ200">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="BK200">
-        <v>21</v>
+        <v>18</v>
       </c>
     </row>
     <row r="201" spans="1:63">
@@ -39546,7 +39582,7 @@
         <v>200</v>
       </c>
       <c r="B201">
-        <v>4554616</v>
+        <v>4554610</v>
       </c>
       <c r="C201" t="s">
         <v>63</v>
@@ -39561,175 +39597,175 @@
         <v>15</v>
       </c>
       <c r="G201" t="s">
-        <v>73</v>
+        <v>83</v>
       </c>
       <c r="H201" t="s">
-        <v>78</v>
+        <v>88</v>
       </c>
       <c r="I201">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="J201">
         <v>0</v>
       </c>
       <c r="K201">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="L201">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="M201">
         <v>0</v>
       </c>
       <c r="N201">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="O201" t="s">
-        <v>210</v>
+        <v>131</v>
       </c>
       <c r="P201" t="s">
         <v>96</v>
       </c>
       <c r="Q201">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="R201">
         <v>4</v>
       </c>
       <c r="S201">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="T201">
-        <v>2.7</v>
+        <v>3.14</v>
       </c>
       <c r="U201">
-        <v>2</v>
+        <v>1.93</v>
       </c>
       <c r="V201">
-        <v>4.64</v>
+        <v>4</v>
       </c>
       <c r="W201">
-        <v>1.5</v>
+        <v>1.54</v>
       </c>
       <c r="X201">
-        <v>2.49</v>
+        <v>2.39</v>
       </c>
       <c r="Y201">
-        <v>3.34</v>
+        <v>3.56</v>
       </c>
       <c r="Z201">
-        <v>1.3</v>
+        <v>1.27</v>
       </c>
       <c r="AA201">
-        <v>9</v>
+        <v>9.9</v>
       </c>
       <c r="AB201">
-        <v>1.05</v>
+        <v>1.04</v>
       </c>
       <c r="AC201">
-        <v>2.06</v>
+        <v>2.44</v>
       </c>
       <c r="AD201">
-        <v>3.15</v>
+        <v>3.13</v>
       </c>
       <c r="AE201">
-        <v>3.47</v>
+        <v>3.1</v>
       </c>
       <c r="AF201">
-        <v>1.08</v>
+        <v>1.09</v>
       </c>
       <c r="AG201">
-        <v>8.25</v>
+        <v>7.5</v>
       </c>
       <c r="AH201">
-        <v>1.42</v>
+        <v>1.48</v>
       </c>
       <c r="AI201">
-        <v>2.65</v>
+        <v>2.5</v>
       </c>
       <c r="AJ201">
-        <v>2.3</v>
+        <v>2.45</v>
       </c>
       <c r="AK201">
-        <v>1.55</v>
+        <v>1.48</v>
       </c>
       <c r="AL201">
-        <v>2.02</v>
+        <v>2.08</v>
       </c>
       <c r="AM201">
-        <v>1.76</v>
+        <v>1.71</v>
       </c>
       <c r="AN201">
-        <v>1.27</v>
+        <v>1.36</v>
       </c>
       <c r="AO201">
+        <v>1.36</v>
+      </c>
+      <c r="AP201">
+        <v>1.56</v>
+      </c>
+      <c r="AQ201">
+        <v>1.83</v>
+      </c>
+      <c r="AR201">
+        <v>1</v>
+      </c>
+      <c r="AS201">
+        <v>2</v>
+      </c>
+      <c r="AT201">
+        <v>0.8</v>
+      </c>
+      <c r="AU201">
+        <v>1.17</v>
+      </c>
+      <c r="AV201">
+        <v>1.19</v>
+      </c>
+      <c r="AW201">
+        <v>2.36</v>
+      </c>
+      <c r="AX201">
+        <v>1.98</v>
+      </c>
+      <c r="AY201">
+        <v>7</v>
+      </c>
+      <c r="AZ201">
+        <v>2.2</v>
+      </c>
+      <c r="BA201">
         <v>1.33</v>
       </c>
-      <c r="AP201">
-        <v>1.77</v>
-      </c>
-      <c r="AQ201">
-        <v>1</v>
-      </c>
-      <c r="AR201">
-        <v>0.83</v>
-      </c>
-      <c r="AS201">
-        <v>1.2</v>
-      </c>
-      <c r="AT201">
-        <v>0.63</v>
-      </c>
-      <c r="AU201">
-        <v>1.64</v>
-      </c>
-      <c r="AV201">
-        <v>1.24</v>
-      </c>
-      <c r="AW201">
-        <v>2.88</v>
-      </c>
-      <c r="AX201">
-        <v>1.59</v>
-      </c>
-      <c r="AY201">
-        <v>8</v>
-      </c>
-      <c r="AZ201">
-        <v>2.9</v>
-      </c>
-      <c r="BA201">
-        <v>1.36</v>
-      </c>
       <c r="BB201">
-        <v>1.67</v>
+        <v>1.6</v>
       </c>
       <c r="BC201">
-        <v>2.15</v>
+        <v>2.04</v>
       </c>
       <c r="BD201">
-        <v>2.95</v>
+        <v>2.75</v>
       </c>
       <c r="BE201">
-        <v>4.1</v>
+        <v>3.85</v>
       </c>
       <c r="BF201">
+        <v>5</v>
+      </c>
+      <c r="BG201">
+        <v>5</v>
+      </c>
+      <c r="BH201">
         <v>7</v>
       </c>
-      <c r="BG201">
-        <v>4</v>
-      </c>
-      <c r="BH201">
-        <v>6</v>
-      </c>
       <c r="BI201">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="BJ201">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="BK201">
-        <v>18</v>
+        <v>21</v>
       </c>
     </row>
     <row r="202" spans="1:63">
@@ -39779,7 +39815,7 @@
         <v>211</v>
       </c>
       <c r="P202" t="s">
-        <v>310</v>
+        <v>319</v>
       </c>
       <c r="Q202">
         <v>8</v>
@@ -39866,10 +39902,10 @@
         <v>1</v>
       </c>
       <c r="AS202">
-        <v>1.75</v>
+        <v>1.89</v>
       </c>
       <c r="AT202">
-        <v>0.89</v>
+        <v>0.8</v>
       </c>
       <c r="AU202">
         <v>1.92</v>
@@ -40057,10 +40093,10 @@
         <v>1.17</v>
       </c>
       <c r="AS203">
-        <v>2.56</v>
+        <v>2.6</v>
       </c>
       <c r="AT203">
-        <v>0.88</v>
+        <v>0.78</v>
       </c>
       <c r="AU203">
         <v>1.48</v>
@@ -40251,7 +40287,7 @@
         <v>2.63</v>
       </c>
       <c r="AT204">
-        <v>1.25</v>
+        <v>1.11</v>
       </c>
       <c r="AU204">
         <v>1.86</v>
@@ -40310,7 +40346,7 @@
         <v>204</v>
       </c>
       <c r="B205">
-        <v>4554608</v>
+        <v>4554614</v>
       </c>
       <c r="C205" t="s">
         <v>63</v>
@@ -40325,58 +40361,58 @@
         <v>15</v>
       </c>
       <c r="G205" t="s">
-        <v>79</v>
+        <v>69</v>
       </c>
       <c r="H205" t="s">
-        <v>80</v>
+        <v>77</v>
       </c>
       <c r="I205">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="J205">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K205">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="L205">
         <v>2</v>
       </c>
       <c r="M205">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="N205">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="O205" t="s">
         <v>213</v>
       </c>
       <c r="P205" t="s">
-        <v>311</v>
+        <v>96</v>
       </c>
       <c r="Q205">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="R205">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="S205">
-        <v>6</v>
+        <v>11</v>
       </c>
       <c r="T205">
-        <v>2.88</v>
+        <v>2.75</v>
       </c>
       <c r="U205">
         <v>1.95</v>
       </c>
       <c r="V205">
-        <v>4.5</v>
+        <v>5</v>
       </c>
       <c r="W205">
-        <v>1.53</v>
+        <v>1.57</v>
       </c>
       <c r="X205">
-        <v>2.38</v>
+        <v>2.25</v>
       </c>
       <c r="Y205">
         <v>3.75</v>
@@ -40391,109 +40427,109 @@
         <v>1.05</v>
       </c>
       <c r="AC205">
-        <v>2.13</v>
+        <v>1.93</v>
       </c>
       <c r="AD205">
-        <v>3.07</v>
+        <v>3.35</v>
       </c>
       <c r="AE205">
-        <v>3.42</v>
+        <v>4.35</v>
       </c>
       <c r="AF205">
-        <v>1.09</v>
+        <v>1.1</v>
       </c>
       <c r="AG205">
         <v>7.5</v>
       </c>
       <c r="AH205">
-        <v>1.5</v>
+        <v>1.48</v>
       </c>
       <c r="AI205">
-        <v>2.55</v>
+        <v>2.45</v>
       </c>
       <c r="AJ205">
-        <v>2.4</v>
+        <v>2.5</v>
       </c>
       <c r="AK205">
         <v>1.5</v>
       </c>
       <c r="AL205">
-        <v>2.1</v>
+        <v>2.2</v>
       </c>
       <c r="AM205">
-        <v>1.67</v>
+        <v>1.62</v>
       </c>
       <c r="AN205">
-        <v>1.3</v>
+        <v>1.23</v>
       </c>
       <c r="AO205">
-        <v>1.3</v>
+        <v>1.32</v>
       </c>
       <c r="AP205">
-        <v>1.65</v>
+        <v>1.82</v>
       </c>
       <c r="AQ205">
-        <v>1.67</v>
+        <v>1.57</v>
       </c>
       <c r="AR205">
-        <v>0.71</v>
+        <v>0.83</v>
       </c>
       <c r="AS205">
-        <v>1.5</v>
+        <v>2</v>
       </c>
       <c r="AT205">
-        <v>0.67</v>
+        <v>0.63</v>
       </c>
       <c r="AU205">
-        <v>1.66</v>
+        <v>1.52</v>
       </c>
       <c r="AV205">
-        <v>1.42</v>
+        <v>1.02</v>
       </c>
       <c r="AW205">
-        <v>3.08</v>
+        <v>2.54</v>
       </c>
       <c r="AX205">
-        <v>1.62</v>
+        <v>1.64</v>
       </c>
       <c r="AY205">
+        <v>8</v>
+      </c>
+      <c r="AZ205">
+        <v>2.77</v>
+      </c>
+      <c r="BA205">
+        <v>1.45</v>
+      </c>
+      <c r="BB205">
+        <v>1.8</v>
+      </c>
+      <c r="BC205">
+        <v>2.4</v>
+      </c>
+      <c r="BD205">
+        <v>3.35</v>
+      </c>
+      <c r="BE205">
+        <v>4.8</v>
+      </c>
+      <c r="BF205">
         <v>7</v>
       </c>
-      <c r="AZ205">
-        <v>2.88</v>
-      </c>
-      <c r="BA205">
-        <v>1.36</v>
-      </c>
-      <c r="BB205">
-        <v>1.66</v>
-      </c>
-      <c r="BC205">
-        <v>2.12</v>
-      </c>
-      <c r="BD205">
-        <v>2.88</v>
-      </c>
-      <c r="BE205">
-        <v>4.1</v>
-      </c>
-      <c r="BF205">
-        <v>4</v>
-      </c>
       <c r="BG205">
-        <v>7</v>
+        <v>3</v>
       </c>
       <c r="BH205">
-        <v>6</v>
+        <v>10</v>
       </c>
       <c r="BI205">
-        <v>9</v>
+        <v>5</v>
       </c>
       <c r="BJ205">
-        <v>10</v>
+        <v>17</v>
       </c>
       <c r="BK205">
-        <v>16</v>
+        <v>8</v>
       </c>
     </row>
     <row r="206" spans="1:63">
@@ -40501,7 +40537,7 @@
         <v>205</v>
       </c>
       <c r="B206">
-        <v>4554614</v>
+        <v>4554608</v>
       </c>
       <c r="C206" t="s">
         <v>63</v>
@@ -40516,58 +40552,58 @@
         <v>15</v>
       </c>
       <c r="G206" t="s">
-        <v>69</v>
+        <v>79</v>
       </c>
       <c r="H206" t="s">
-        <v>77</v>
+        <v>80</v>
       </c>
       <c r="I206">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="J206">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K206">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="L206">
         <v>2</v>
       </c>
       <c r="M206">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="N206">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="O206" t="s">
         <v>214</v>
       </c>
       <c r="P206" t="s">
-        <v>96</v>
+        <v>320</v>
       </c>
       <c r="Q206">
+        <v>1</v>
+      </c>
+      <c r="R206">
         <v>5</v>
       </c>
-      <c r="R206">
+      <c r="S206">
         <v>6</v>
       </c>
-      <c r="S206">
-        <v>11</v>
-      </c>
       <c r="T206">
-        <v>2.75</v>
+        <v>2.88</v>
       </c>
       <c r="U206">
         <v>1.95</v>
       </c>
       <c r="V206">
-        <v>5</v>
+        <v>4.5</v>
       </c>
       <c r="W206">
-        <v>1.57</v>
+        <v>1.53</v>
       </c>
       <c r="X206">
-        <v>2.25</v>
+        <v>2.38</v>
       </c>
       <c r="Y206">
         <v>3.75</v>
@@ -40582,109 +40618,109 @@
         <v>1.05</v>
       </c>
       <c r="AC206">
-        <v>1.93</v>
+        <v>2.13</v>
       </c>
       <c r="AD206">
-        <v>3.35</v>
+        <v>3.07</v>
       </c>
       <c r="AE206">
-        <v>4.35</v>
+        <v>3.42</v>
       </c>
       <c r="AF206">
-        <v>1.1</v>
+        <v>1.09</v>
       </c>
       <c r="AG206">
         <v>7.5</v>
       </c>
       <c r="AH206">
-        <v>1.48</v>
+        <v>1.5</v>
       </c>
       <c r="AI206">
-        <v>2.45</v>
+        <v>2.55</v>
       </c>
       <c r="AJ206">
-        <v>2.5</v>
+        <v>2.4</v>
       </c>
       <c r="AK206">
         <v>1.5</v>
       </c>
       <c r="AL206">
-        <v>2.2</v>
+        <v>2.1</v>
       </c>
       <c r="AM206">
+        <v>1.67</v>
+      </c>
+      <c r="AN206">
+        <v>1.3</v>
+      </c>
+      <c r="AO206">
+        <v>1.3</v>
+      </c>
+      <c r="AP206">
+        <v>1.65</v>
+      </c>
+      <c r="AQ206">
+        <v>1.67</v>
+      </c>
+      <c r="AR206">
+        <v>0.71</v>
+      </c>
+      <c r="AS206">
+        <v>1.33</v>
+      </c>
+      <c r="AT206">
+        <v>0.7</v>
+      </c>
+      <c r="AU206">
+        <v>1.66</v>
+      </c>
+      <c r="AV206">
+        <v>1.42</v>
+      </c>
+      <c r="AW206">
+        <v>3.08</v>
+      </c>
+      <c r="AX206">
         <v>1.62</v>
       </c>
-      <c r="AN206">
-        <v>1.23</v>
-      </c>
-      <c r="AO206">
-        <v>1.32</v>
-      </c>
-      <c r="AP206">
-        <v>1.82</v>
-      </c>
-      <c r="AQ206">
-        <v>1.57</v>
-      </c>
-      <c r="AR206">
-        <v>0.83</v>
-      </c>
-      <c r="AS206">
-        <v>1.89</v>
-      </c>
-      <c r="AT206">
-        <v>0.71</v>
-      </c>
-      <c r="AU206">
-        <v>1.52</v>
-      </c>
-      <c r="AV206">
-        <v>1.02</v>
-      </c>
-      <c r="AW206">
-        <v>2.54</v>
-      </c>
-      <c r="AX206">
-        <v>1.64</v>
-      </c>
       <c r="AY206">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="AZ206">
-        <v>2.77</v>
+        <v>2.88</v>
       </c>
       <c r="BA206">
-        <v>1.45</v>
+        <v>1.36</v>
       </c>
       <c r="BB206">
-        <v>1.8</v>
+        <v>1.66</v>
       </c>
       <c r="BC206">
-        <v>2.4</v>
+        <v>2.12</v>
       </c>
       <c r="BD206">
-        <v>3.35</v>
+        <v>2.88</v>
       </c>
       <c r="BE206">
-        <v>4.8</v>
+        <v>4.1</v>
       </c>
       <c r="BF206">
+        <v>4</v>
+      </c>
+      <c r="BG206">
         <v>7</v>
       </c>
-      <c r="BG206">
-        <v>3</v>
-      </c>
       <c r="BH206">
+        <v>6</v>
+      </c>
+      <c r="BI206">
+        <v>9</v>
+      </c>
+      <c r="BJ206">
         <v>10</v>
       </c>
-      <c r="BI206">
-        <v>5</v>
-      </c>
-      <c r="BJ206">
-        <v>17</v>
-      </c>
       <c r="BK206">
-        <v>8</v>
+        <v>16</v>
       </c>
     </row>
     <row r="207" spans="1:63">
@@ -40821,10 +40857,10 @@
         <v>0.57</v>
       </c>
       <c r="AS207">
-        <v>1.25</v>
+        <v>1.44</v>
       </c>
       <c r="AT207">
-        <v>0.78</v>
+        <v>0.7</v>
       </c>
       <c r="AU207">
         <v>1.15</v>
@@ -41012,7 +41048,7 @@
         <v>2.17</v>
       </c>
       <c r="AS208">
-        <v>2.56</v>
+        <v>2.4</v>
       </c>
       <c r="AT208">
         <v>1.75</v>
@@ -41116,7 +41152,7 @@
         <v>215</v>
       </c>
       <c r="P209" t="s">
-        <v>312</v>
+        <v>321</v>
       </c>
       <c r="Q209">
         <v>5</v>
@@ -41203,10 +41239,10 @@
         <v>1.83</v>
       </c>
       <c r="AS209">
-        <v>1.38</v>
+        <v>1.56</v>
       </c>
       <c r="AT209">
-        <v>1.88</v>
+        <v>2</v>
       </c>
       <c r="AU209">
         <v>1.72</v>
@@ -41394,7 +41430,7 @@
         <v>0.86</v>
       </c>
       <c r="AS210">
-        <v>1.11</v>
+        <v>1.3</v>
       </c>
       <c r="AT210">
         <v>1.3</v>
@@ -41689,7 +41725,7 @@
         <v>216</v>
       </c>
       <c r="P212" t="s">
-        <v>313</v>
+        <v>322</v>
       </c>
       <c r="Q212">
         <v>2</v>
@@ -41880,7 +41916,7 @@
         <v>217</v>
       </c>
       <c r="P213" t="s">
-        <v>314</v>
+        <v>323</v>
       </c>
       <c r="Q213">
         <v>12</v>
@@ -42071,7 +42107,7 @@
         <v>110</v>
       </c>
       <c r="P214" t="s">
-        <v>315</v>
+        <v>324</v>
       </c>
       <c r="Q214">
         <v>9</v>
@@ -42543,7 +42579,7 @@
         <v>1.4</v>
       </c>
       <c r="AT216">
-        <v>0.88</v>
+        <v>0.89</v>
       </c>
       <c r="AU216">
         <v>1.49</v>
@@ -43217,7 +43253,7 @@
         <v>223</v>
       </c>
       <c r="P220" t="s">
-        <v>259</v>
+        <v>268</v>
       </c>
       <c r="Q220">
         <v>3</v>
@@ -43408,7 +43444,7 @@
         <v>224</v>
       </c>
       <c r="P221" t="s">
-        <v>316</v>
+        <v>325</v>
       </c>
       <c r="Q221">
         <v>4</v>
@@ -43599,7 +43635,7 @@
         <v>96</v>
       </c>
       <c r="P222" t="s">
-        <v>317</v>
+        <v>326</v>
       </c>
       <c r="Q222">
         <v>14</v>
@@ -43686,7 +43722,7 @@
         <v>1.13</v>
       </c>
       <c r="AS222">
-        <v>0.71</v>
+        <v>1</v>
       </c>
       <c r="AT222">
         <v>1.3</v>
@@ -44259,10 +44295,10 @@
         <v>1</v>
       </c>
       <c r="AS225">
-        <v>1.25</v>
+        <v>1.44</v>
       </c>
       <c r="AT225">
-        <v>0.89</v>
+        <v>0.8</v>
       </c>
       <c r="AU225">
         <v>1.15</v>
@@ -44450,10 +44486,10 @@
         <v>0.88</v>
       </c>
       <c r="AS226">
-        <v>1.88</v>
+        <v>2</v>
       </c>
       <c r="AT226">
-        <v>0.78</v>
+        <v>0.7</v>
       </c>
       <c r="AU226">
         <v>1.51</v>
@@ -44641,7 +44677,7 @@
         <v>2</v>
       </c>
       <c r="AS227">
-        <v>2.56</v>
+        <v>2.6</v>
       </c>
       <c r="AT227">
         <v>1.75</v>
@@ -44832,10 +44868,10 @@
         <v>0.71</v>
       </c>
       <c r="AS228">
-        <v>1.89</v>
+        <v>2</v>
       </c>
       <c r="AT228">
-        <v>0.63</v>
+        <v>0.5600000000000001</v>
       </c>
       <c r="AU228">
         <v>1.56</v>
@@ -45023,7 +45059,7 @@
         <v>0.5</v>
       </c>
       <c r="AS229">
-        <v>1.11</v>
+        <v>1.3</v>
       </c>
       <c r="AT229">
         <v>1</v>
@@ -45214,10 +45250,10 @@
         <v>1</v>
       </c>
       <c r="AS230">
-        <v>1.75</v>
+        <v>1.89</v>
       </c>
       <c r="AT230">
-        <v>1.25</v>
+        <v>1.11</v>
       </c>
       <c r="AU230">
         <v>1.95</v>
@@ -45405,10 +45441,10 @@
         <v>1</v>
       </c>
       <c r="AS231">
-        <v>2.56</v>
+        <v>2.4</v>
       </c>
       <c r="AT231">
-        <v>0.88</v>
+        <v>0.78</v>
       </c>
       <c r="AU231">
         <v>1.41</v>
@@ -45596,10 +45632,10 @@
         <v>0.75</v>
       </c>
       <c r="AS232">
-        <v>2.38</v>
+        <v>2.44</v>
       </c>
       <c r="AT232">
-        <v>0.67</v>
+        <v>0.7</v>
       </c>
       <c r="AU232">
         <v>1.28</v>
@@ -45787,10 +45823,10 @@
         <v>0.88</v>
       </c>
       <c r="AS233">
-        <v>1.5</v>
+        <v>1.33</v>
       </c>
       <c r="AT233">
-        <v>0.89</v>
+        <v>0.8</v>
       </c>
       <c r="AU233">
         <v>1.58</v>
@@ -45978,10 +46014,10 @@
         <v>2</v>
       </c>
       <c r="AS234">
-        <v>1.88</v>
+        <v>2</v>
       </c>
       <c r="AT234">
-        <v>1.88</v>
+        <v>2</v>
       </c>
       <c r="AU234">
         <v>1.19</v>
@@ -46169,10 +46205,10 @@
         <v>0.63</v>
       </c>
       <c r="AS235">
-        <v>1.38</v>
+        <v>1.33</v>
       </c>
       <c r="AT235">
-        <v>0.67</v>
+        <v>0.6</v>
       </c>
       <c r="AU235">
         <v>1.66</v>
@@ -46273,7 +46309,7 @@
         <v>201</v>
       </c>
       <c r="P236" t="s">
-        <v>307</v>
+        <v>316</v>
       </c>
       <c r="Q236">
         <v>9</v>
@@ -46363,7 +46399,7 @@
         <v>1.2</v>
       </c>
       <c r="AT236">
-        <v>0.88</v>
+        <v>0.78</v>
       </c>
       <c r="AU236">
         <v>1.63</v>
@@ -46554,7 +46590,7 @@
         <v>2.63</v>
       </c>
       <c r="AT237">
-        <v>0.88</v>
+        <v>0.78</v>
       </c>
       <c r="AU237">
         <v>1.86</v>
@@ -47568,7 +47604,7 @@
         <v>242</v>
       </c>
       <c r="B243">
-        <v>4554647</v>
+        <v>4554644</v>
       </c>
       <c r="C243" t="s">
         <v>63</v>
@@ -47583,64 +47619,64 @@
         <v>18</v>
       </c>
       <c r="G243" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
       <c r="H243" t="s">
-        <v>85</v>
+        <v>74</v>
       </c>
       <c r="I243">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J243">
         <v>0</v>
       </c>
       <c r="K243">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L243">
         <v>1</v>
       </c>
       <c r="M243">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="N243">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="O243" t="s">
-        <v>233</v>
+        <v>158</v>
       </c>
       <c r="P243" t="s">
-        <v>96</v>
+        <v>129</v>
       </c>
       <c r="Q243">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="R243">
-        <v>2</v>
+        <v>6</v>
       </c>
       <c r="S243">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="T243">
-        <v>3</v>
+        <v>3.25</v>
       </c>
       <c r="U243">
-        <v>2</v>
+        <v>2.05</v>
       </c>
       <c r="V243">
-        <v>4</v>
+        <v>3.4</v>
       </c>
       <c r="W243">
-        <v>1.5</v>
+        <v>1.44</v>
       </c>
       <c r="X243">
-        <v>2.5</v>
+        <v>2.63</v>
       </c>
       <c r="Y243">
-        <v>3.5</v>
+        <v>3.25</v>
       </c>
       <c r="Z243">
-        <v>1.29</v>
+        <v>1.33</v>
       </c>
       <c r="AA243">
         <v>10</v>
@@ -47649,109 +47685,109 @@
         <v>1.06</v>
       </c>
       <c r="AC243">
-        <v>2.24</v>
+        <v>2.6</v>
       </c>
       <c r="AD243">
-        <v>3.07</v>
+        <v>3.16</v>
       </c>
       <c r="AE243">
-        <v>3.43</v>
+        <v>2.75</v>
       </c>
       <c r="AF243">
-        <v>1.08</v>
+        <v>1.07</v>
       </c>
       <c r="AG243">
+        <v>7.75</v>
+      </c>
+      <c r="AH243">
+        <v>1.36</v>
+      </c>
+      <c r="AI243">
+        <v>2.9</v>
+      </c>
+      <c r="AJ243">
+        <v>2.1</v>
+      </c>
+      <c r="AK243">
+        <v>1.7</v>
+      </c>
+      <c r="AL243">
+        <v>1.95</v>
+      </c>
+      <c r="AM243">
+        <v>1.8</v>
+      </c>
+      <c r="AN243">
+        <v>1.43</v>
+      </c>
+      <c r="AO243">
+        <v>1.33</v>
+      </c>
+      <c r="AP243">
+        <v>1.49</v>
+      </c>
+      <c r="AQ243">
+        <v>1.67</v>
+      </c>
+      <c r="AR243">
+        <v>0.88</v>
+      </c>
+      <c r="AS243">
+        <v>1.6</v>
+      </c>
+      <c r="AT243">
+        <v>0.89</v>
+      </c>
+      <c r="AU243">
+        <v>1.42</v>
+      </c>
+      <c r="AV243">
+        <v>1.27</v>
+      </c>
+      <c r="AW243">
+        <v>2.69</v>
+      </c>
+      <c r="AX243">
+        <v>2.35</v>
+      </c>
+      <c r="AY243">
+        <v>5.75</v>
+      </c>
+      <c r="AZ243">
+        <v>1.74</v>
+      </c>
+      <c r="BA243">
+        <v>1.2</v>
+      </c>
+      <c r="BB243">
+        <v>1.4</v>
+      </c>
+      <c r="BC243">
+        <v>1.83</v>
+      </c>
+      <c r="BD243">
+        <v>2.16</v>
+      </c>
+      <c r="BE243">
+        <v>2.84</v>
+      </c>
+      <c r="BF243">
+        <v>5</v>
+      </c>
+      <c r="BG243">
+        <v>4</v>
+      </c>
+      <c r="BH243">
         <v>7</v>
-      </c>
-      <c r="AH243">
-        <v>1.44</v>
-      </c>
-      <c r="AI243">
-        <v>2.62</v>
-      </c>
-      <c r="AJ243">
-        <v>2.3</v>
-      </c>
-      <c r="AK243">
-        <v>1.6</v>
-      </c>
-      <c r="AL243">
-        <v>2</v>
-      </c>
-      <c r="AM243">
-        <v>1.75</v>
-      </c>
-      <c r="AN243">
-        <v>1.33</v>
-      </c>
-      <c r="AO243">
-        <v>1.38</v>
-      </c>
-      <c r="AP243">
-        <v>1.62</v>
-      </c>
-      <c r="AQ243">
-        <v>1.78</v>
-      </c>
-      <c r="AR243">
-        <v>1</v>
-      </c>
-      <c r="AS243">
-        <v>1.9</v>
-      </c>
-      <c r="AT243">
-        <v>0.9</v>
-      </c>
-      <c r="AU243">
-        <v>1.52</v>
-      </c>
-      <c r="AV243">
-        <v>1.58</v>
-      </c>
-      <c r="AW243">
-        <v>3.1</v>
-      </c>
-      <c r="AX243">
-        <v>1.9</v>
-      </c>
-      <c r="AY243">
-        <v>5.5</v>
-      </c>
-      <c r="AZ243">
-        <v>2.2</v>
-      </c>
-      <c r="BA243">
-        <v>1.39</v>
-      </c>
-      <c r="BB243">
-        <v>1.72</v>
-      </c>
-      <c r="BC243">
-        <v>2.14</v>
-      </c>
-      <c r="BD243">
-        <v>2.93</v>
-      </c>
-      <c r="BE243">
-        <v>4.2</v>
-      </c>
-      <c r="BF243">
-        <v>4</v>
-      </c>
-      <c r="BG243">
-        <v>6</v>
-      </c>
-      <c r="BH243">
-        <v>9</v>
       </c>
       <c r="BI243">
         <v>7</v>
       </c>
       <c r="BJ243">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="BK243">
-        <v>13</v>
+        <v>11</v>
       </c>
     </row>
     <row r="244" spans="1:63">
@@ -47759,7 +47795,7 @@
         <v>243</v>
       </c>
       <c r="B244">
-        <v>4554644</v>
+        <v>4554647</v>
       </c>
       <c r="C244" t="s">
         <v>63</v>
@@ -47774,64 +47810,64 @@
         <v>18</v>
       </c>
       <c r="G244" t="s">
-        <v>66</v>
+        <v>68</v>
       </c>
       <c r="H244" t="s">
-        <v>74</v>
+        <v>85</v>
       </c>
       <c r="I244">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J244">
         <v>0</v>
       </c>
       <c r="K244">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L244">
         <v>1</v>
       </c>
       <c r="M244">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="N244">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="O244" t="s">
-        <v>158</v>
+        <v>233</v>
       </c>
       <c r="P244" t="s">
-        <v>129</v>
+        <v>96</v>
       </c>
       <c r="Q244">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="R244">
-        <v>6</v>
+        <v>2</v>
       </c>
       <c r="S244">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="T244">
-        <v>3.25</v>
+        <v>3</v>
       </c>
       <c r="U244">
-        <v>2.05</v>
+        <v>2</v>
       </c>
       <c r="V244">
-        <v>3.4</v>
+        <v>4</v>
       </c>
       <c r="W244">
-        <v>1.44</v>
+        <v>1.5</v>
       </c>
       <c r="X244">
-        <v>2.63</v>
+        <v>2.5</v>
       </c>
       <c r="Y244">
-        <v>3.25</v>
+        <v>3.5</v>
       </c>
       <c r="Z244">
-        <v>1.33</v>
+        <v>1.29</v>
       </c>
       <c r="AA244">
         <v>10</v>
@@ -47840,109 +47876,109 @@
         <v>1.06</v>
       </c>
       <c r="AC244">
-        <v>2.6</v>
+        <v>2.24</v>
       </c>
       <c r="AD244">
-        <v>3.16</v>
+        <v>3.07</v>
       </c>
       <c r="AE244">
-        <v>2.75</v>
+        <v>3.43</v>
       </c>
       <c r="AF244">
-        <v>1.07</v>
+        <v>1.08</v>
       </c>
       <c r="AG244">
-        <v>7.75</v>
+        <v>7</v>
       </c>
       <c r="AH244">
-        <v>1.36</v>
+        <v>1.44</v>
       </c>
       <c r="AI244">
-        <v>2.9</v>
+        <v>2.62</v>
       </c>
       <c r="AJ244">
-        <v>2.1</v>
+        <v>2.3</v>
       </c>
       <c r="AK244">
-        <v>1.7</v>
+        <v>1.6</v>
       </c>
       <c r="AL244">
-        <v>1.95</v>
+        <v>2</v>
       </c>
       <c r="AM244">
-        <v>1.8</v>
+        <v>1.75</v>
       </c>
       <c r="AN244">
-        <v>1.43</v>
+        <v>1.33</v>
       </c>
       <c r="AO244">
-        <v>1.33</v>
+        <v>1.38</v>
       </c>
       <c r="AP244">
-        <v>1.49</v>
+        <v>1.62</v>
       </c>
       <c r="AQ244">
-        <v>1.67</v>
+        <v>1.78</v>
       </c>
       <c r="AR244">
-        <v>0.88</v>
+        <v>1</v>
       </c>
       <c r="AS244">
-        <v>1.6</v>
+        <v>1.9</v>
       </c>
       <c r="AT244">
-        <v>0.89</v>
+        <v>0.9</v>
       </c>
       <c r="AU244">
-        <v>1.42</v>
+        <v>1.52</v>
       </c>
       <c r="AV244">
-        <v>1.27</v>
+        <v>1.58</v>
       </c>
       <c r="AW244">
-        <v>2.69</v>
+        <v>3.1</v>
       </c>
       <c r="AX244">
-        <v>2.35</v>
+        <v>1.9</v>
       </c>
       <c r="AY244">
-        <v>5.75</v>
+        <v>5.5</v>
       </c>
       <c r="AZ244">
-        <v>1.74</v>
+        <v>2.2</v>
       </c>
       <c r="BA244">
-        <v>1.2</v>
+        <v>1.39</v>
       </c>
       <c r="BB244">
-        <v>1.4</v>
+        <v>1.72</v>
       </c>
       <c r="BC244">
-        <v>1.83</v>
+        <v>2.14</v>
       </c>
       <c r="BD244">
-        <v>2.16</v>
+        <v>2.93</v>
       </c>
       <c r="BE244">
-        <v>2.84</v>
+        <v>4.2</v>
       </c>
       <c r="BF244">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="BG244">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="BH244">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="BI244">
         <v>7</v>
       </c>
       <c r="BJ244">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="BK244">
-        <v>11</v>
+        <v>13</v>
       </c>
     </row>
     <row r="245" spans="1:63">
@@ -48374,7 +48410,7 @@
         <v>235</v>
       </c>
       <c r="P247" t="s">
-        <v>318</v>
+        <v>327</v>
       </c>
       <c r="Q247">
         <v>1</v>
@@ -48565,7 +48601,7 @@
         <v>96</v>
       </c>
       <c r="P248" t="s">
-        <v>256</v>
+        <v>265</v>
       </c>
       <c r="Q248">
         <v>7</v>
@@ -49138,7 +49174,7 @@
         <v>237</v>
       </c>
       <c r="P251" t="s">
-        <v>319</v>
+        <v>328</v>
       </c>
       <c r="Q251">
         <v>3</v>
@@ -49280,6 +49316,2489 @@
       </c>
       <c r="BK251">
         <v>20</v>
+      </c>
+    </row>
+    <row r="252" spans="1:63">
+      <c r="A252" s="1">
+        <v>251</v>
+      </c>
+      <c r="B252">
+        <v>5019519</v>
+      </c>
+      <c r="C252" t="s">
+        <v>63</v>
+      </c>
+      <c r="D252" t="s">
+        <v>64</v>
+      </c>
+      <c r="E252" s="2">
+        <v>45078.83333333334</v>
+      </c>
+      <c r="F252">
+        <v>19</v>
+      </c>
+      <c r="G252" t="s">
+        <v>82</v>
+      </c>
+      <c r="H252" t="s">
+        <v>80</v>
+      </c>
+      <c r="I252">
+        <v>0</v>
+      </c>
+      <c r="J252">
+        <v>0</v>
+      </c>
+      <c r="K252">
+        <v>0</v>
+      </c>
+      <c r="L252">
+        <v>0</v>
+      </c>
+      <c r="M252">
+        <v>0</v>
+      </c>
+      <c r="N252">
+        <v>0</v>
+      </c>
+      <c r="O252" t="s">
+        <v>96</v>
+      </c>
+      <c r="P252" t="s">
+        <v>96</v>
+      </c>
+      <c r="Q252">
+        <v>4</v>
+      </c>
+      <c r="R252">
+        <v>6</v>
+      </c>
+      <c r="S252">
+        <v>10</v>
+      </c>
+      <c r="T252">
+        <v>3.5</v>
+      </c>
+      <c r="U252">
+        <v>1.88</v>
+      </c>
+      <c r="V252">
+        <v>3.25</v>
+      </c>
+      <c r="W252">
+        <v>1.53</v>
+      </c>
+      <c r="X252">
+        <v>2.3</v>
+      </c>
+      <c r="Y252">
+        <v>3.5</v>
+      </c>
+      <c r="Z252">
+        <v>1.26</v>
+      </c>
+      <c r="AA252">
+        <v>10</v>
+      </c>
+      <c r="AB252">
+        <v>1.05</v>
+      </c>
+      <c r="AC252">
+        <v>2.75</v>
+      </c>
+      <c r="AD252">
+        <v>2.75</v>
+      </c>
+      <c r="AE252">
+        <v>2.55</v>
+      </c>
+      <c r="AF252">
+        <v>1.1</v>
+      </c>
+      <c r="AG252">
+        <v>6.25</v>
+      </c>
+      <c r="AH252">
+        <v>1.53</v>
+      </c>
+      <c r="AI252">
+        <v>2.35</v>
+      </c>
+      <c r="AJ252">
+        <v>2.65</v>
+      </c>
+      <c r="AK252">
+        <v>1.4</v>
+      </c>
+      <c r="AL252">
+        <v>2.05</v>
+      </c>
+      <c r="AM252">
+        <v>1.66</v>
+      </c>
+      <c r="AN252">
+        <v>1.47</v>
+      </c>
+      <c r="AO252">
+        <v>1.37</v>
+      </c>
+      <c r="AP252">
+        <v>1.39</v>
+      </c>
+      <c r="AQ252">
+        <v>1.38</v>
+      </c>
+      <c r="AR252">
+        <v>0.67</v>
+      </c>
+      <c r="AS252">
+        <v>1.33</v>
+      </c>
+      <c r="AT252">
+        <v>0.7</v>
+      </c>
+      <c r="AU252">
+        <v>1.68</v>
+      </c>
+      <c r="AV252">
+        <v>1.44</v>
+      </c>
+      <c r="AW252">
+        <v>3.12</v>
+      </c>
+      <c r="AX252">
+        <v>2.1</v>
+      </c>
+      <c r="AY252">
+        <v>8</v>
+      </c>
+      <c r="AZ252">
+        <v>1.91</v>
+      </c>
+      <c r="BA252">
+        <v>1.25</v>
+      </c>
+      <c r="BB252">
+        <v>1.49</v>
+      </c>
+      <c r="BC252">
+        <v>1.85</v>
+      </c>
+      <c r="BD252">
+        <v>2.41</v>
+      </c>
+      <c r="BE252">
+        <v>3.2</v>
+      </c>
+      <c r="BF252">
+        <v>0</v>
+      </c>
+      <c r="BG252">
+        <v>3</v>
+      </c>
+      <c r="BH252">
+        <v>9</v>
+      </c>
+      <c r="BI252">
+        <v>9</v>
+      </c>
+      <c r="BJ252">
+        <v>9</v>
+      </c>
+      <c r="BK252">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="253" spans="1:63">
+      <c r="A253" s="1">
+        <v>252</v>
+      </c>
+      <c r="B253">
+        <v>4554657</v>
+      </c>
+      <c r="C253" t="s">
+        <v>63</v>
+      </c>
+      <c r="D253" t="s">
+        <v>64</v>
+      </c>
+      <c r="E253" s="2">
+        <v>45078.89583333334</v>
+      </c>
+      <c r="F253">
+        <v>19</v>
+      </c>
+      <c r="G253" t="s">
+        <v>81</v>
+      </c>
+      <c r="H253" t="s">
+        <v>75</v>
+      </c>
+      <c r="I253">
+        <v>1</v>
+      </c>
+      <c r="J253">
+        <v>0</v>
+      </c>
+      <c r="K253">
+        <v>1</v>
+      </c>
+      <c r="L253">
+        <v>1</v>
+      </c>
+      <c r="M253">
+        <v>0</v>
+      </c>
+      <c r="N253">
+        <v>1</v>
+      </c>
+      <c r="O253" t="s">
+        <v>159</v>
+      </c>
+      <c r="P253" t="s">
+        <v>96</v>
+      </c>
+      <c r="Q253">
+        <v>4</v>
+      </c>
+      <c r="R253">
+        <v>4</v>
+      </c>
+      <c r="S253">
+        <v>8</v>
+      </c>
+      <c r="T253">
+        <v>5.65</v>
+      </c>
+      <c r="U253">
+        <v>2.05</v>
+      </c>
+      <c r="V253">
+        <v>2.34</v>
+      </c>
+      <c r="W253">
+        <v>1.49</v>
+      </c>
+      <c r="X253">
+        <v>2.52</v>
+      </c>
+      <c r="Y253">
+        <v>3.28</v>
+      </c>
+      <c r="Z253">
+        <v>1.31</v>
+      </c>
+      <c r="AA253">
+        <v>8.9</v>
+      </c>
+      <c r="AB253">
+        <v>1.05</v>
+      </c>
+      <c r="AC253">
+        <v>4.6</v>
+      </c>
+      <c r="AD253">
+        <v>3.2</v>
+      </c>
+      <c r="AE253">
+        <v>1.73</v>
+      </c>
+      <c r="AF253">
+        <v>1.05</v>
+      </c>
+      <c r="AG253">
+        <v>7.2</v>
+      </c>
+      <c r="AH253">
+        <v>1.4</v>
+      </c>
+      <c r="AI253">
+        <v>2.68</v>
+      </c>
+      <c r="AJ253">
+        <v>2.2</v>
+      </c>
+      <c r="AK253">
+        <v>1.6</v>
+      </c>
+      <c r="AL253">
+        <v>2.1</v>
+      </c>
+      <c r="AM253">
+        <v>1.65</v>
+      </c>
+      <c r="AN253">
+        <v>2.1</v>
+      </c>
+      <c r="AO253">
+        <v>1.3</v>
+      </c>
+      <c r="AP253">
+        <v>1.14</v>
+      </c>
+      <c r="AQ253">
+        <v>1.25</v>
+      </c>
+      <c r="AR253">
+        <v>1.25</v>
+      </c>
+      <c r="AS253">
+        <v>1.44</v>
+      </c>
+      <c r="AT253">
+        <v>1.11</v>
+      </c>
+      <c r="AU253">
+        <v>1.15</v>
+      </c>
+      <c r="AV253">
+        <v>1.18</v>
+      </c>
+      <c r="AW253">
+        <v>2.33</v>
+      </c>
+      <c r="AX253">
+        <v>2.67</v>
+      </c>
+      <c r="AY253">
+        <v>8</v>
+      </c>
+      <c r="AZ253">
+        <v>1.64</v>
+      </c>
+      <c r="BA253">
+        <v>1.36</v>
+      </c>
+      <c r="BB253">
+        <v>1.67</v>
+      </c>
+      <c r="BC253">
+        <v>2.15</v>
+      </c>
+      <c r="BD253">
+        <v>2.95</v>
+      </c>
+      <c r="BE253">
+        <v>4.1</v>
+      </c>
+      <c r="BF253">
+        <v>3</v>
+      </c>
+      <c r="BG253">
+        <v>3</v>
+      </c>
+      <c r="BH253">
+        <v>3</v>
+      </c>
+      <c r="BI253">
+        <v>6</v>
+      </c>
+      <c r="BJ253">
+        <v>6</v>
+      </c>
+      <c r="BK253">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="254" spans="1:63">
+      <c r="A254" s="1">
+        <v>253</v>
+      </c>
+      <c r="B254">
+        <v>4554663</v>
+      </c>
+      <c r="C254" t="s">
+        <v>63</v>
+      </c>
+      <c r="D254" t="s">
+        <v>64</v>
+      </c>
+      <c r="E254" s="2">
+        <v>45079.79166666666</v>
+      </c>
+      <c r="F254">
+        <v>19</v>
+      </c>
+      <c r="G254" t="s">
+        <v>69</v>
+      </c>
+      <c r="H254" t="s">
+        <v>76</v>
+      </c>
+      <c r="I254">
+        <v>3</v>
+      </c>
+      <c r="J254">
+        <v>1</v>
+      </c>
+      <c r="K254">
+        <v>4</v>
+      </c>
+      <c r="L254">
+        <v>5</v>
+      </c>
+      <c r="M254">
+        <v>2</v>
+      </c>
+      <c r="N254">
+        <v>7</v>
+      </c>
+      <c r="O254" t="s">
+        <v>238</v>
+      </c>
+      <c r="P254" t="s">
+        <v>329</v>
+      </c>
+      <c r="Q254">
+        <v>7</v>
+      </c>
+      <c r="R254">
+        <v>1</v>
+      </c>
+      <c r="S254">
+        <v>8</v>
+      </c>
+      <c r="T254">
+        <v>2.18</v>
+      </c>
+      <c r="U254">
+        <v>2.08</v>
+      </c>
+      <c r="V254">
+        <v>6.55</v>
+      </c>
+      <c r="W254">
+        <v>1.48</v>
+      </c>
+      <c r="X254">
+        <v>2.55</v>
+      </c>
+      <c r="Y254">
+        <v>3.28</v>
+      </c>
+      <c r="Z254">
+        <v>1.31</v>
+      </c>
+      <c r="AA254">
+        <v>8.800000000000001</v>
+      </c>
+      <c r="AB254">
+        <v>1.05</v>
+      </c>
+      <c r="AC254">
+        <v>1.52</v>
+      </c>
+      <c r="AD254">
+        <v>3.59</v>
+      </c>
+      <c r="AE254">
+        <v>5.7</v>
+      </c>
+      <c r="AF254">
+        <v>1.07</v>
+      </c>
+      <c r="AG254">
+        <v>7</v>
+      </c>
+      <c r="AH254">
+        <v>1.38</v>
+      </c>
+      <c r="AI254">
+        <v>2.8</v>
+      </c>
+      <c r="AJ254">
+        <v>2.15</v>
+      </c>
+      <c r="AK254">
+        <v>1.62</v>
+      </c>
+      <c r="AL254">
+        <v>2.27</v>
+      </c>
+      <c r="AM254">
+        <v>1.59</v>
+      </c>
+      <c r="AN254">
+        <v>1.12</v>
+      </c>
+      <c r="AO254">
+        <v>1.27</v>
+      </c>
+      <c r="AP254">
+        <v>2.34</v>
+      </c>
+      <c r="AQ254">
+        <v>1.89</v>
+      </c>
+      <c r="AR254">
+        <v>0.88</v>
+      </c>
+      <c r="AS254">
+        <v>2</v>
+      </c>
+      <c r="AT254">
+        <v>0.78</v>
+      </c>
+      <c r="AU254">
+        <v>1.5</v>
+      </c>
+      <c r="AV254">
+        <v>1.11</v>
+      </c>
+      <c r="AW254">
+        <v>2.61</v>
+      </c>
+      <c r="AX254">
+        <v>1.31</v>
+      </c>
+      <c r="AY254">
+        <v>9.5</v>
+      </c>
+      <c r="AZ254">
+        <v>4.12</v>
+      </c>
+      <c r="BA254">
+        <v>1.33</v>
+      </c>
+      <c r="BB254">
+        <v>1.6</v>
+      </c>
+      <c r="BC254">
+        <v>2.04</v>
+      </c>
+      <c r="BD254">
+        <v>2.75</v>
+      </c>
+      <c r="BE254">
+        <v>3.85</v>
+      </c>
+      <c r="BF254">
+        <v>9</v>
+      </c>
+      <c r="BG254">
+        <v>9</v>
+      </c>
+      <c r="BH254">
+        <v>3</v>
+      </c>
+      <c r="BI254">
+        <v>7</v>
+      </c>
+      <c r="BJ254">
+        <v>12</v>
+      </c>
+      <c r="BK254">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="255" spans="1:63">
+      <c r="A255" s="1">
+        <v>254</v>
+      </c>
+      <c r="B255">
+        <v>4554658</v>
+      </c>
+      <c r="C255" t="s">
+        <v>63</v>
+      </c>
+      <c r="D255" t="s">
+        <v>64</v>
+      </c>
+      <c r="E255" s="2">
+        <v>45079.89583333334</v>
+      </c>
+      <c r="F255">
+        <v>19</v>
+      </c>
+      <c r="G255" t="s">
+        <v>79</v>
+      </c>
+      <c r="H255" t="s">
+        <v>68</v>
+      </c>
+      <c r="I255">
+        <v>1</v>
+      </c>
+      <c r="J255">
+        <v>1</v>
+      </c>
+      <c r="K255">
+        <v>2</v>
+      </c>
+      <c r="L255">
+        <v>1</v>
+      </c>
+      <c r="M255">
+        <v>3</v>
+      </c>
+      <c r="N255">
+        <v>4</v>
+      </c>
+      <c r="O255" t="s">
+        <v>239</v>
+      </c>
+      <c r="P255" t="s">
+        <v>330</v>
+      </c>
+      <c r="Q255">
+        <v>6</v>
+      </c>
+      <c r="R255">
+        <v>4</v>
+      </c>
+      <c r="S255">
+        <v>10</v>
+      </c>
+      <c r="T255">
+        <v>3.4</v>
+      </c>
+      <c r="U255">
+        <v>1.95</v>
+      </c>
+      <c r="V255">
+        <v>3.1</v>
+      </c>
+      <c r="W255">
+        <v>1.5</v>
+      </c>
+      <c r="X255">
+        <v>2.5</v>
+      </c>
+      <c r="Y255">
+        <v>3.25</v>
+      </c>
+      <c r="Z255">
+        <v>1.33</v>
+      </c>
+      <c r="AA255">
+        <v>8</v>
+      </c>
+      <c r="AB255">
+        <v>1.06</v>
+      </c>
+      <c r="AC255">
+        <v>2.83</v>
+      </c>
+      <c r="AD255">
+        <v>3.22</v>
+      </c>
+      <c r="AE255">
+        <v>2.54</v>
+      </c>
+      <c r="AF255">
+        <v>1.08</v>
+      </c>
+      <c r="AG255">
+        <v>7</v>
+      </c>
+      <c r="AH255">
+        <v>1.4</v>
+      </c>
+      <c r="AI255">
+        <v>2.75</v>
+      </c>
+      <c r="AJ255">
+        <v>2.25</v>
+      </c>
+      <c r="AK255">
+        <v>1.6</v>
+      </c>
+      <c r="AL255">
+        <v>1.91</v>
+      </c>
+      <c r="AM255">
+        <v>1.8</v>
+      </c>
+      <c r="AN255">
+        <v>1.5</v>
+      </c>
+      <c r="AO255">
+        <v>1.35</v>
+      </c>
+      <c r="AP255">
+        <v>1.4</v>
+      </c>
+      <c r="AQ255">
+        <v>1.5</v>
+      </c>
+      <c r="AR255">
+        <v>1.88</v>
+      </c>
+      <c r="AS255">
+        <v>1.33</v>
+      </c>
+      <c r="AT255">
+        <v>2</v>
+      </c>
+      <c r="AU255">
+        <v>1.66</v>
+      </c>
+      <c r="AV255">
+        <v>1.33</v>
+      </c>
+      <c r="AW255">
+        <v>2.99</v>
+      </c>
+      <c r="AX255">
+        <v>2.05</v>
+      </c>
+      <c r="AY255">
+        <v>7.5</v>
+      </c>
+      <c r="AZ255">
+        <v>2</v>
+      </c>
+      <c r="BA255">
+        <v>1.33</v>
+      </c>
+      <c r="BB255">
+        <v>1.6</v>
+      </c>
+      <c r="BC255">
+        <v>2.04</v>
+      </c>
+      <c r="BD255">
+        <v>2.75</v>
+      </c>
+      <c r="BE255">
+        <v>3.85</v>
+      </c>
+      <c r="BF255">
+        <v>6</v>
+      </c>
+      <c r="BG255">
+        <v>8</v>
+      </c>
+      <c r="BH255">
+        <v>11</v>
+      </c>
+      <c r="BI255">
+        <v>10</v>
+      </c>
+      <c r="BJ255">
+        <v>17</v>
+      </c>
+      <c r="BK255">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="256" spans="1:63">
+      <c r="A256" s="1">
+        <v>255</v>
+      </c>
+      <c r="B256">
+        <v>4554659</v>
+      </c>
+      <c r="C256" t="s">
+        <v>63</v>
+      </c>
+      <c r="D256" t="s">
+        <v>64</v>
+      </c>
+      <c r="E256" s="2">
+        <v>45079.89583333334</v>
+      </c>
+      <c r="F256">
+        <v>19</v>
+      </c>
+      <c r="G256" t="s">
+        <v>85</v>
+      </c>
+      <c r="H256" t="s">
+        <v>71</v>
+      </c>
+      <c r="I256">
+        <v>0</v>
+      </c>
+      <c r="J256">
+        <v>0</v>
+      </c>
+      <c r="K256">
+        <v>0</v>
+      </c>
+      <c r="L256">
+        <v>1</v>
+      </c>
+      <c r="M256">
+        <v>0</v>
+      </c>
+      <c r="N256">
+        <v>1</v>
+      </c>
+      <c r="O256" t="s">
+        <v>124</v>
+      </c>
+      <c r="P256" t="s">
+        <v>96</v>
+      </c>
+      <c r="Q256">
+        <v>13</v>
+      </c>
+      <c r="R256">
+        <v>2</v>
+      </c>
+      <c r="S256">
+        <v>15</v>
+      </c>
+      <c r="T256">
+        <v>2.25</v>
+      </c>
+      <c r="U256">
+        <v>2.09</v>
+      </c>
+      <c r="V256">
+        <v>6.15</v>
+      </c>
+      <c r="W256">
+        <v>1.47</v>
+      </c>
+      <c r="X256">
+        <v>2.58</v>
+      </c>
+      <c r="Y256">
+        <v>3.22</v>
+      </c>
+      <c r="Z256">
+        <v>1.32</v>
+      </c>
+      <c r="AA256">
+        <v>8.5</v>
+      </c>
+      <c r="AB256">
+        <v>1.05</v>
+      </c>
+      <c r="AC256">
+        <v>1.58</v>
+      </c>
+      <c r="AD256">
+        <v>3.58</v>
+      </c>
+      <c r="AE256">
+        <v>5.65</v>
+      </c>
+      <c r="AF256">
+        <v>1.08</v>
+      </c>
+      <c r="AG256">
+        <v>7</v>
+      </c>
+      <c r="AH256">
+        <v>1.4</v>
+      </c>
+      <c r="AI256">
+        <v>2.75</v>
+      </c>
+      <c r="AJ256">
+        <v>2.2</v>
+      </c>
+      <c r="AK256">
+        <v>1.62</v>
+      </c>
+      <c r="AL256">
+        <v>2.16</v>
+      </c>
+      <c r="AM256">
+        <v>1.66</v>
+      </c>
+      <c r="AN256">
+        <v>1.14</v>
+      </c>
+      <c r="AO256">
+        <v>1.27</v>
+      </c>
+      <c r="AP256">
+        <v>2.24</v>
+      </c>
+      <c r="AQ256">
+        <v>1.75</v>
+      </c>
+      <c r="AR256">
+        <v>0.88</v>
+      </c>
+      <c r="AS256">
+        <v>1.89</v>
+      </c>
+      <c r="AT256">
+        <v>0.78</v>
+      </c>
+      <c r="AU256">
+        <v>1.95</v>
+      </c>
+      <c r="AV256">
+        <v>1.19</v>
+      </c>
+      <c r="AW256">
+        <v>3.14</v>
+      </c>
+      <c r="AX256">
+        <v>1.41</v>
+      </c>
+      <c r="AY256">
+        <v>9</v>
+      </c>
+      <c r="AZ256">
+        <v>3.66</v>
+      </c>
+      <c r="BA256">
+        <v>1.33</v>
+      </c>
+      <c r="BB256">
+        <v>1.6</v>
+      </c>
+      <c r="BC256">
+        <v>2.04</v>
+      </c>
+      <c r="BD256">
+        <v>2.75</v>
+      </c>
+      <c r="BE256">
+        <v>3.85</v>
+      </c>
+      <c r="BF256">
+        <v>5</v>
+      </c>
+      <c r="BG256">
+        <v>3</v>
+      </c>
+      <c r="BH256">
+        <v>9</v>
+      </c>
+      <c r="BI256">
+        <v>2</v>
+      </c>
+      <c r="BJ256">
+        <v>14</v>
+      </c>
+      <c r="BK256">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="257" spans="1:63">
+      <c r="A257" s="1">
+        <v>256</v>
+      </c>
+      <c r="B257">
+        <v>4554660</v>
+      </c>
+      <c r="C257" t="s">
+        <v>63</v>
+      </c>
+      <c r="D257" t="s">
+        <v>64</v>
+      </c>
+      <c r="E257" s="2">
+        <v>45080.58333333334</v>
+      </c>
+      <c r="F257">
+        <v>19</v>
+      </c>
+      <c r="G257" t="s">
+        <v>83</v>
+      </c>
+      <c r="H257" t="s">
+        <v>77</v>
+      </c>
+      <c r="I257">
+        <v>2</v>
+      </c>
+      <c r="J257">
+        <v>0</v>
+      </c>
+      <c r="K257">
+        <v>2</v>
+      </c>
+      <c r="L257">
+        <v>2</v>
+      </c>
+      <c r="M257">
+        <v>0</v>
+      </c>
+      <c r="N257">
+        <v>2</v>
+      </c>
+      <c r="O257" t="s">
+        <v>240</v>
+      </c>
+      <c r="P257" t="s">
+        <v>96</v>
+      </c>
+      <c r="Q257">
+        <v>4</v>
+      </c>
+      <c r="R257">
+        <v>7</v>
+      </c>
+      <c r="S257">
+        <v>11</v>
+      </c>
+      <c r="T257">
+        <v>3.3</v>
+      </c>
+      <c r="U257">
+        <v>1.95</v>
+      </c>
+      <c r="V257">
+        <v>3.75</v>
+      </c>
+      <c r="W257">
+        <v>1.53</v>
+      </c>
+      <c r="X257">
+        <v>2.38</v>
+      </c>
+      <c r="Y257">
+        <v>3.7</v>
+      </c>
+      <c r="Z257">
+        <v>1.24</v>
+      </c>
+      <c r="AA257">
+        <v>10.5</v>
+      </c>
+      <c r="AB257">
+        <v>1.02</v>
+      </c>
+      <c r="AC257">
+        <v>2.4</v>
+      </c>
+      <c r="AD257">
+        <v>3.1</v>
+      </c>
+      <c r="AE257">
+        <v>3.1</v>
+      </c>
+      <c r="AF257">
+        <v>1.1</v>
+      </c>
+      <c r="AG257">
+        <v>7.5</v>
+      </c>
+      <c r="AH257">
+        <v>1.53</v>
+      </c>
+      <c r="AI257">
+        <v>2.5</v>
+      </c>
+      <c r="AJ257">
+        <v>2.6</v>
+      </c>
+      <c r="AK257">
+        <v>1.47</v>
+      </c>
+      <c r="AL257">
+        <v>2.15</v>
+      </c>
+      <c r="AM257">
+        <v>1.68</v>
+      </c>
+      <c r="AN257">
+        <v>1.38</v>
+      </c>
+      <c r="AO257">
+        <v>1.3</v>
+      </c>
+      <c r="AP257">
+        <v>1.57</v>
+      </c>
+      <c r="AQ257">
+        <v>1.88</v>
+      </c>
+      <c r="AR257">
+        <v>0.71</v>
+      </c>
+      <c r="AS257">
+        <v>2</v>
+      </c>
+      <c r="AT257">
+        <v>0.63</v>
+      </c>
+      <c r="AU257">
+        <v>1.23</v>
+      </c>
+      <c r="AV257">
+        <v>1.01</v>
+      </c>
+      <c r="AW257">
+        <v>2.24</v>
+      </c>
+      <c r="AX257">
+        <v>1.95</v>
+      </c>
+      <c r="AY257">
+        <v>7.5</v>
+      </c>
+      <c r="AZ257">
+        <v>2.1</v>
+      </c>
+      <c r="BA257">
+        <v>1.36</v>
+      </c>
+      <c r="BB257">
+        <v>1.66</v>
+      </c>
+      <c r="BC257">
+        <v>2.12</v>
+      </c>
+      <c r="BD257">
+        <v>2.9</v>
+      </c>
+      <c r="BE257">
+        <v>4.1</v>
+      </c>
+      <c r="BF257">
+        <v>6</v>
+      </c>
+      <c r="BG257">
+        <v>2</v>
+      </c>
+      <c r="BH257">
+        <v>7</v>
+      </c>
+      <c r="BI257">
+        <v>8</v>
+      </c>
+      <c r="BJ257">
+        <v>13</v>
+      </c>
+      <c r="BK257">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="258" spans="1:63">
+      <c r="A258" s="1">
+        <v>257</v>
+      </c>
+      <c r="B258">
+        <v>4554653</v>
+      </c>
+      <c r="C258" t="s">
+        <v>63</v>
+      </c>
+      <c r="D258" t="s">
+        <v>64</v>
+      </c>
+      <c r="E258" s="2">
+        <v>45080.79166666666</v>
+      </c>
+      <c r="F258">
+        <v>19</v>
+      </c>
+      <c r="G258" t="s">
+        <v>70</v>
+      </c>
+      <c r="H258" t="s">
+        <v>91</v>
+      </c>
+      <c r="I258">
+        <v>2</v>
+      </c>
+      <c r="J258">
+        <v>0</v>
+      </c>
+      <c r="K258">
+        <v>2</v>
+      </c>
+      <c r="L258">
+        <v>2</v>
+      </c>
+      <c r="M258">
+        <v>0</v>
+      </c>
+      <c r="N258">
+        <v>2</v>
+      </c>
+      <c r="O258" t="s">
+        <v>241</v>
+      </c>
+      <c r="P258" t="s">
+        <v>96</v>
+      </c>
+      <c r="Q258">
+        <v>1</v>
+      </c>
+      <c r="R258">
+        <v>5</v>
+      </c>
+      <c r="S258">
+        <v>6</v>
+      </c>
+      <c r="T258">
+        <v>3.6</v>
+      </c>
+      <c r="U258">
+        <v>1.95</v>
+      </c>
+      <c r="V258">
+        <v>3.6</v>
+      </c>
+      <c r="W258">
+        <v>1.56</v>
+      </c>
+      <c r="X258">
+        <v>2.3</v>
+      </c>
+      <c r="Y258">
+        <v>3.7</v>
+      </c>
+      <c r="Z258">
+        <v>1.24</v>
+      </c>
+      <c r="AA258">
+        <v>10.5</v>
+      </c>
+      <c r="AB258">
+        <v>1.02</v>
+      </c>
+      <c r="AC258">
+        <v>2.75</v>
+      </c>
+      <c r="AD258">
+        <v>3</v>
+      </c>
+      <c r="AE258">
+        <v>2.75</v>
+      </c>
+      <c r="AF258">
+        <v>1.11</v>
+      </c>
+      <c r="AG258">
+        <v>7</v>
+      </c>
+      <c r="AH258">
+        <v>1.5</v>
+      </c>
+      <c r="AI258">
+        <v>2.45</v>
+      </c>
+      <c r="AJ258">
+        <v>2.5</v>
+      </c>
+      <c r="AK258">
+        <v>1.45</v>
+      </c>
+      <c r="AL258">
+        <v>2.15</v>
+      </c>
+      <c r="AM258">
+        <v>1.68</v>
+      </c>
+      <c r="AN258">
+        <v>1.45</v>
+      </c>
+      <c r="AO258">
+        <v>1.33</v>
+      </c>
+      <c r="AP258">
+        <v>1.47</v>
+      </c>
+      <c r="AQ258">
+        <v>1.11</v>
+      </c>
+      <c r="AR258">
+        <v>0.67</v>
+      </c>
+      <c r="AS258">
+        <v>1.3</v>
+      </c>
+      <c r="AT258">
+        <v>0.6</v>
+      </c>
+      <c r="AU258">
+        <v>1.58</v>
+      </c>
+      <c r="AV258">
+        <v>1.37</v>
+      </c>
+      <c r="AW258">
+        <v>2.95</v>
+      </c>
+      <c r="AX258">
+        <v>2.39</v>
+      </c>
+      <c r="AY258">
+        <v>8</v>
+      </c>
+      <c r="AZ258">
+        <v>1.82</v>
+      </c>
+      <c r="BA258">
+        <v>1.27</v>
+      </c>
+      <c r="BB258">
+        <v>1.5</v>
+      </c>
+      <c r="BC258">
+        <v>1.95</v>
+      </c>
+      <c r="BD258">
+        <v>2.45</v>
+      </c>
+      <c r="BE258">
+        <v>3.4</v>
+      </c>
+      <c r="BF258">
+        <v>4</v>
+      </c>
+      <c r="BG258">
+        <v>0</v>
+      </c>
+      <c r="BH258">
+        <v>9</v>
+      </c>
+      <c r="BI258">
+        <v>10</v>
+      </c>
+      <c r="BJ258">
+        <v>13</v>
+      </c>
+      <c r="BK258">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="259" spans="1:63">
+      <c r="A259" s="1">
+        <v>258</v>
+      </c>
+      <c r="B259">
+        <v>5019520</v>
+      </c>
+      <c r="C259" t="s">
+        <v>63</v>
+      </c>
+      <c r="D259" t="s">
+        <v>64</v>
+      </c>
+      <c r="E259" s="2">
+        <v>45080.79166666666</v>
+      </c>
+      <c r="F259">
+        <v>19</v>
+      </c>
+      <c r="G259" t="s">
+        <v>65</v>
+      </c>
+      <c r="H259" t="s">
+        <v>72</v>
+      </c>
+      <c r="I259">
+        <v>1</v>
+      </c>
+      <c r="J259">
+        <v>0</v>
+      </c>
+      <c r="K259">
+        <v>1</v>
+      </c>
+      <c r="L259">
+        <v>4</v>
+      </c>
+      <c r="M259">
+        <v>1</v>
+      </c>
+      <c r="N259">
+        <v>5</v>
+      </c>
+      <c r="O259" t="s">
+        <v>242</v>
+      </c>
+      <c r="P259" t="s">
+        <v>331</v>
+      </c>
+      <c r="Q259">
+        <v>2</v>
+      </c>
+      <c r="R259">
+        <v>3</v>
+      </c>
+      <c r="S259">
+        <v>5</v>
+      </c>
+      <c r="T259">
+        <v>2.9</v>
+      </c>
+      <c r="U259">
+        <v>1.88</v>
+      </c>
+      <c r="V259">
+        <v>4.1</v>
+      </c>
+      <c r="W259">
+        <v>1.55</v>
+      </c>
+      <c r="X259">
+        <v>2.25</v>
+      </c>
+      <c r="Y259">
+        <v>3.5</v>
+      </c>
+      <c r="Z259">
+        <v>1.26</v>
+      </c>
+      <c r="AA259">
+        <v>10</v>
+      </c>
+      <c r="AB259">
+        <v>1.04</v>
+      </c>
+      <c r="AC259">
+        <v>2.15</v>
+      </c>
+      <c r="AD259">
+        <v>3</v>
+      </c>
+      <c r="AE259">
+        <v>3.75</v>
+      </c>
+      <c r="AF259">
+        <v>1.09</v>
+      </c>
+      <c r="AG259">
+        <v>8</v>
+      </c>
+      <c r="AH259">
+        <v>1.47</v>
+      </c>
+      <c r="AI259">
+        <v>2.7</v>
+      </c>
+      <c r="AJ259">
+        <v>2.37</v>
+      </c>
+      <c r="AK259">
+        <v>1.5</v>
+      </c>
+      <c r="AL259">
+        <v>2.05</v>
+      </c>
+      <c r="AM259">
+        <v>1.63</v>
+      </c>
+      <c r="AN259">
+        <v>1.29</v>
+      </c>
+      <c r="AO259">
+        <v>1.37</v>
+      </c>
+      <c r="AP259">
+        <v>1.63</v>
+      </c>
+      <c r="AQ259">
+        <v>2.56</v>
+      </c>
+      <c r="AR259">
+        <v>0.88</v>
+      </c>
+      <c r="AS259">
+        <v>2.6</v>
+      </c>
+      <c r="AT259">
+        <v>0.78</v>
+      </c>
+      <c r="AU259">
+        <v>1.61</v>
+      </c>
+      <c r="AV259">
+        <v>1.28</v>
+      </c>
+      <c r="AW259">
+        <v>2.89</v>
+      </c>
+      <c r="AX259">
+        <v>1.69</v>
+      </c>
+      <c r="AY259">
+        <v>8</v>
+      </c>
+      <c r="AZ259">
+        <v>2.54</v>
+      </c>
+      <c r="BA259">
+        <v>1.27</v>
+      </c>
+      <c r="BB259">
+        <v>1.5</v>
+      </c>
+      <c r="BC259">
+        <v>1.85</v>
+      </c>
+      <c r="BD259">
+        <v>2.45</v>
+      </c>
+      <c r="BE259">
+        <v>3.4</v>
+      </c>
+      <c r="BF259">
+        <v>13</v>
+      </c>
+      <c r="BG259">
+        <v>4</v>
+      </c>
+      <c r="BH259">
+        <v>5</v>
+      </c>
+      <c r="BI259">
+        <v>5</v>
+      </c>
+      <c r="BJ259">
+        <v>18</v>
+      </c>
+      <c r="BK259">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="260" spans="1:63">
+      <c r="A260" s="1">
+        <v>259</v>
+      </c>
+      <c r="B260">
+        <v>4554662</v>
+      </c>
+      <c r="C260" t="s">
+        <v>63</v>
+      </c>
+      <c r="D260" t="s">
+        <v>64</v>
+      </c>
+      <c r="E260" s="2">
+        <v>45080.89583333334</v>
+      </c>
+      <c r="F260">
+        <v>19</v>
+      </c>
+      <c r="G260" t="s">
+        <v>74</v>
+      </c>
+      <c r="H260" t="s">
+        <v>78</v>
+      </c>
+      <c r="I260">
+        <v>1</v>
+      </c>
+      <c r="J260">
+        <v>0</v>
+      </c>
+      <c r="K260">
+        <v>1</v>
+      </c>
+      <c r="L260">
+        <v>2</v>
+      </c>
+      <c r="M260">
+        <v>0</v>
+      </c>
+      <c r="N260">
+        <v>2</v>
+      </c>
+      <c r="O260" t="s">
+        <v>243</v>
+      </c>
+      <c r="P260" t="s">
+        <v>96</v>
+      </c>
+      <c r="Q260">
+        <v>1</v>
+      </c>
+      <c r="R260">
+        <v>5</v>
+      </c>
+      <c r="S260">
+        <v>6</v>
+      </c>
+      <c r="T260">
+        <v>2.65</v>
+      </c>
+      <c r="U260">
+        <v>2.05</v>
+      </c>
+      <c r="V260">
+        <v>4.75</v>
+      </c>
+      <c r="W260">
+        <v>1.47</v>
+      </c>
+      <c r="X260">
+        <v>2.5</v>
+      </c>
+      <c r="Y260">
+        <v>3.25</v>
+      </c>
+      <c r="Z260">
+        <v>1.3</v>
+      </c>
+      <c r="AA260">
+        <v>8.9</v>
+      </c>
+      <c r="AB260">
+        <v>1.04</v>
+      </c>
+      <c r="AC260">
+        <v>1.91</v>
+      </c>
+      <c r="AD260">
+        <v>3.3</v>
+      </c>
+      <c r="AE260">
+        <v>4.2</v>
+      </c>
+      <c r="AF260">
+        <v>1.07</v>
+      </c>
+      <c r="AG260">
+        <v>8.5</v>
+      </c>
+      <c r="AH260">
+        <v>1.42</v>
+      </c>
+      <c r="AI260">
+        <v>2.85</v>
+      </c>
+      <c r="AJ260">
+        <v>2.2</v>
+      </c>
+      <c r="AK260">
+        <v>1.6</v>
+      </c>
+      <c r="AL260">
+        <v>2</v>
+      </c>
+      <c r="AM260">
+        <v>1.75</v>
+      </c>
+      <c r="AN260">
+        <v>1.25</v>
+      </c>
+      <c r="AO260">
+        <v>1.25</v>
+      </c>
+      <c r="AP260">
+        <v>1.87</v>
+      </c>
+      <c r="AQ260">
+        <v>1.38</v>
+      </c>
+      <c r="AR260">
+        <v>0.63</v>
+      </c>
+      <c r="AS260">
+        <v>1.56</v>
+      </c>
+      <c r="AT260">
+        <v>0.5600000000000001</v>
+      </c>
+      <c r="AU260">
+        <v>1.77</v>
+      </c>
+      <c r="AV260">
+        <v>1.27</v>
+      </c>
+      <c r="AW260">
+        <v>3.04</v>
+      </c>
+      <c r="AX260">
+        <v>1.51</v>
+      </c>
+      <c r="AY260">
+        <v>8.5</v>
+      </c>
+      <c r="AZ260">
+        <v>3.16</v>
+      </c>
+      <c r="BA260">
+        <v>1.27</v>
+      </c>
+      <c r="BB260">
+        <v>1.5</v>
+      </c>
+      <c r="BC260">
+        <v>1.95</v>
+      </c>
+      <c r="BD260">
+        <v>2.45</v>
+      </c>
+      <c r="BE260">
+        <v>3.4</v>
+      </c>
+      <c r="BF260">
+        <v>5</v>
+      </c>
+      <c r="BG260">
+        <v>4</v>
+      </c>
+      <c r="BH260">
+        <v>5</v>
+      </c>
+      <c r="BI260">
+        <v>10</v>
+      </c>
+      <c r="BJ260">
+        <v>10</v>
+      </c>
+      <c r="BK260">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="261" spans="1:63">
+      <c r="A261" s="1">
+        <v>260</v>
+      </c>
+      <c r="B261">
+        <v>4554654</v>
+      </c>
+      <c r="C261" t="s">
+        <v>63</v>
+      </c>
+      <c r="D261" t="s">
+        <v>64</v>
+      </c>
+      <c r="E261" s="2">
+        <v>45081.45833333334</v>
+      </c>
+      <c r="F261">
+        <v>19</v>
+      </c>
+      <c r="G261" t="s">
+        <v>89</v>
+      </c>
+      <c r="H261" t="s">
+        <v>90</v>
+      </c>
+      <c r="I261">
+        <v>0</v>
+      </c>
+      <c r="J261">
+        <v>0</v>
+      </c>
+      <c r="K261">
+        <v>0</v>
+      </c>
+      <c r="L261">
+        <v>2</v>
+      </c>
+      <c r="M261">
+        <v>0</v>
+      </c>
+      <c r="N261">
+        <v>2</v>
+      </c>
+      <c r="O261" t="s">
+        <v>244</v>
+      </c>
+      <c r="P261" t="s">
+        <v>96</v>
+      </c>
+      <c r="Q261">
+        <v>6</v>
+      </c>
+      <c r="R261">
+        <v>8</v>
+      </c>
+      <c r="S261">
+        <v>14</v>
+      </c>
+      <c r="T261">
+        <v>2.8</v>
+      </c>
+      <c r="U261">
+        <v>2.05</v>
+      </c>
+      <c r="V261">
+        <v>4.1</v>
+      </c>
+      <c r="W261">
+        <v>1.5</v>
+      </c>
+      <c r="X261">
+        <v>2.4</v>
+      </c>
+      <c r="Y261">
+        <v>3.2</v>
+      </c>
+      <c r="Z261">
+        <v>1.3</v>
+      </c>
+      <c r="AA261">
+        <v>8.449999999999999</v>
+      </c>
+      <c r="AB261">
+        <v>1.04</v>
+      </c>
+      <c r="AC261">
+        <v>2.08</v>
+      </c>
+      <c r="AD261">
+        <v>3.17</v>
+      </c>
+      <c r="AE261">
+        <v>3.42</v>
+      </c>
+      <c r="AF261">
+        <v>1.07</v>
+      </c>
+      <c r="AG261">
+        <v>8.5</v>
+      </c>
+      <c r="AH261">
+        <v>1.4</v>
+      </c>
+      <c r="AI261">
+        <v>2.75</v>
+      </c>
+      <c r="AJ261">
+        <v>2.2</v>
+      </c>
+      <c r="AK261">
+        <v>1.58</v>
+      </c>
+      <c r="AL261">
+        <v>1.95</v>
+      </c>
+      <c r="AM261">
+        <v>1.83</v>
+      </c>
+      <c r="AN261">
+        <v>1.3</v>
+      </c>
+      <c r="AO261">
+        <v>1.28</v>
+      </c>
+      <c r="AP261">
+        <v>1.75</v>
+      </c>
+      <c r="AQ261">
+        <v>0.71</v>
+      </c>
+      <c r="AR261">
+        <v>0.78</v>
+      </c>
+      <c r="AS261">
+        <v>1</v>
+      </c>
+      <c r="AT261">
+        <v>0.7</v>
+      </c>
+      <c r="AU261">
+        <v>1.64</v>
+      </c>
+      <c r="AV261">
+        <v>1.3</v>
+      </c>
+      <c r="AW261">
+        <v>2.94</v>
+      </c>
+      <c r="AX261">
+        <v>1.41</v>
+      </c>
+      <c r="AY261">
+        <v>9</v>
+      </c>
+      <c r="AZ261">
+        <v>3.48</v>
+      </c>
+      <c r="BA261">
+        <v>1.22</v>
+      </c>
+      <c r="BB261">
+        <v>1.41</v>
+      </c>
+      <c r="BC261">
+        <v>1.73</v>
+      </c>
+      <c r="BD261">
+        <v>2.23</v>
+      </c>
+      <c r="BE261">
+        <v>3</v>
+      </c>
+      <c r="BF261">
+        <v>7</v>
+      </c>
+      <c r="BG261">
+        <v>2</v>
+      </c>
+      <c r="BH261">
+        <v>4</v>
+      </c>
+      <c r="BI261">
+        <v>6</v>
+      </c>
+      <c r="BJ261">
+        <v>11</v>
+      </c>
+      <c r="BK261">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="262" spans="1:63">
+      <c r="A262" s="1">
+        <v>261</v>
+      </c>
+      <c r="B262">
+        <v>4554664</v>
+      </c>
+      <c r="C262" t="s">
+        <v>63</v>
+      </c>
+      <c r="D262" t="s">
+        <v>64</v>
+      </c>
+      <c r="E262" s="2">
+        <v>45081.58333333334</v>
+      </c>
+      <c r="F262">
+        <v>19</v>
+      </c>
+      <c r="G262" t="s">
+        <v>67</v>
+      </c>
+      <c r="H262" t="s">
+        <v>73</v>
+      </c>
+      <c r="I262">
+        <v>0</v>
+      </c>
+      <c r="J262">
+        <v>0</v>
+      </c>
+      <c r="K262">
+        <v>0</v>
+      </c>
+      <c r="L262">
+        <v>0</v>
+      </c>
+      <c r="M262">
+        <v>0</v>
+      </c>
+      <c r="N262">
+        <v>0</v>
+      </c>
+      <c r="O262" t="s">
+        <v>96</v>
+      </c>
+      <c r="P262" t="s">
+        <v>96</v>
+      </c>
+      <c r="Q262">
+        <v>8</v>
+      </c>
+      <c r="R262">
+        <v>1</v>
+      </c>
+      <c r="S262">
+        <v>9</v>
+      </c>
+      <c r="T262">
+        <v>2.63</v>
+      </c>
+      <c r="U262">
+        <v>1.91</v>
+      </c>
+      <c r="V262">
+        <v>5.25</v>
+      </c>
+      <c r="W262">
+        <v>1.61</v>
+      </c>
+      <c r="X262">
+        <v>2.35</v>
+      </c>
+      <c r="Y262">
+        <v>3.82</v>
+      </c>
+      <c r="Z262">
+        <v>1.24</v>
+      </c>
+      <c r="AA262">
+        <v>11</v>
+      </c>
+      <c r="AB262">
+        <v>1.03</v>
+      </c>
+      <c r="AC262">
+        <v>1.88</v>
+      </c>
+      <c r="AD262">
+        <v>3.2</v>
+      </c>
+      <c r="AE262">
+        <v>4.2</v>
+      </c>
+      <c r="AF262">
+        <v>1.11</v>
+      </c>
+      <c r="AG262">
+        <v>5.5</v>
+      </c>
+      <c r="AH262">
+        <v>1.55</v>
+      </c>
+      <c r="AI262">
+        <v>2.3</v>
+      </c>
+      <c r="AJ262">
+        <v>2.63</v>
+      </c>
+      <c r="AK262">
+        <v>1.43</v>
+      </c>
+      <c r="AL262">
+        <v>2.38</v>
+      </c>
+      <c r="AM262">
+        <v>1.55</v>
+      </c>
+      <c r="AN262">
+        <v>1.2</v>
+      </c>
+      <c r="AO262">
+        <v>1.35</v>
+      </c>
+      <c r="AP262">
+        <v>1.91</v>
+      </c>
+      <c r="AQ262">
+        <v>2.56</v>
+      </c>
+      <c r="AR262">
+        <v>0.88</v>
+      </c>
+      <c r="AS262">
+        <v>2.4</v>
+      </c>
+      <c r="AT262">
+        <v>0.89</v>
+      </c>
+      <c r="AU262">
+        <v>1.4</v>
+      </c>
+      <c r="AV262">
+        <v>1.1</v>
+      </c>
+      <c r="AW262">
+        <v>2.5</v>
+      </c>
+      <c r="AX262">
+        <v>1.41</v>
+      </c>
+      <c r="AY262">
+        <v>8.5</v>
+      </c>
+      <c r="AZ262">
+        <v>3.58</v>
+      </c>
+      <c r="BA262">
+        <v>1.36</v>
+      </c>
+      <c r="BB262">
+        <v>1.66</v>
+      </c>
+      <c r="BC262">
+        <v>2.12</v>
+      </c>
+      <c r="BD262">
+        <v>2.88</v>
+      </c>
+      <c r="BE262">
+        <v>4.1</v>
+      </c>
+      <c r="BF262">
+        <v>3</v>
+      </c>
+      <c r="BG262">
+        <v>5</v>
+      </c>
+      <c r="BH262">
+        <v>6</v>
+      </c>
+      <c r="BI262">
+        <v>2</v>
+      </c>
+      <c r="BJ262">
+        <v>9</v>
+      </c>
+      <c r="BK262">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="263" spans="1:63">
+      <c r="A263" s="1">
+        <v>262</v>
+      </c>
+      <c r="B263">
+        <v>4554655</v>
+      </c>
+      <c r="C263" t="s">
+        <v>63</v>
+      </c>
+      <c r="D263" t="s">
+        <v>64</v>
+      </c>
+      <c r="E263" s="2">
+        <v>45081.70833333334</v>
+      </c>
+      <c r="F263">
+        <v>19</v>
+      </c>
+      <c r="G263" t="s">
+        <v>87</v>
+      </c>
+      <c r="H263" t="s">
+        <v>86</v>
+      </c>
+      <c r="I263">
+        <v>2</v>
+      </c>
+      <c r="J263">
+        <v>0</v>
+      </c>
+      <c r="K263">
+        <v>2</v>
+      </c>
+      <c r="L263">
+        <v>2</v>
+      </c>
+      <c r="M263">
+        <v>1</v>
+      </c>
+      <c r="N263">
+        <v>3</v>
+      </c>
+      <c r="O263" t="s">
+        <v>245</v>
+      </c>
+      <c r="P263" t="s">
+        <v>270</v>
+      </c>
+      <c r="Q263">
+        <v>7</v>
+      </c>
+      <c r="R263">
+        <v>1</v>
+      </c>
+      <c r="S263">
+        <v>8</v>
+      </c>
+      <c r="T263">
+        <v>3</v>
+      </c>
+      <c r="U263">
+        <v>1.96</v>
+      </c>
+      <c r="V263">
+        <v>3.85</v>
+      </c>
+      <c r="W263">
+        <v>1.53</v>
+      </c>
+      <c r="X263">
+        <v>2.37</v>
+      </c>
+      <c r="Y263">
+        <v>3.3</v>
+      </c>
+      <c r="Z263">
+        <v>1.29</v>
+      </c>
+      <c r="AA263">
+        <v>8</v>
+      </c>
+      <c r="AB263">
+        <v>1.05</v>
+      </c>
+      <c r="AC263">
+        <v>2.25</v>
+      </c>
+      <c r="AD263">
+        <v>3.1</v>
+      </c>
+      <c r="AE263">
+        <v>3.3</v>
+      </c>
+      <c r="AF263">
+        <v>1.09</v>
+      </c>
+      <c r="AG263">
+        <v>7.5</v>
+      </c>
+      <c r="AH263">
+        <v>1.45</v>
+      </c>
+      <c r="AI263">
+        <v>2.55</v>
+      </c>
+      <c r="AJ263">
+        <v>2.35</v>
+      </c>
+      <c r="AK263">
+        <v>1.53</v>
+      </c>
+      <c r="AL263">
+        <v>2</v>
+      </c>
+      <c r="AM263">
+        <v>1.7</v>
+      </c>
+      <c r="AN263">
+        <v>1.35</v>
+      </c>
+      <c r="AO263">
+        <v>1.3</v>
+      </c>
+      <c r="AP263">
+        <v>1.58</v>
+      </c>
+      <c r="AQ263">
+        <v>1.88</v>
+      </c>
+      <c r="AR263">
+        <v>0.89</v>
+      </c>
+      <c r="AS263">
+        <v>2</v>
+      </c>
+      <c r="AT263">
+        <v>0.8</v>
+      </c>
+      <c r="AU263">
+        <v>1.56</v>
+      </c>
+      <c r="AV263">
+        <v>1.12</v>
+      </c>
+      <c r="AW263">
+        <v>2.68</v>
+      </c>
+      <c r="AX263">
+        <v>1.75</v>
+      </c>
+      <c r="AY263">
+        <v>8</v>
+      </c>
+      <c r="AZ263">
+        <v>2.44</v>
+      </c>
+      <c r="BA263">
+        <v>1.29</v>
+      </c>
+      <c r="BB263">
+        <v>1.53</v>
+      </c>
+      <c r="BC263">
+        <v>2</v>
+      </c>
+      <c r="BD263">
+        <v>2.55</v>
+      </c>
+      <c r="BE263">
+        <v>3.5</v>
+      </c>
+      <c r="BF263">
+        <v>9</v>
+      </c>
+      <c r="BG263">
+        <v>6</v>
+      </c>
+      <c r="BH263">
+        <v>3</v>
+      </c>
+      <c r="BI263">
+        <v>6</v>
+      </c>
+      <c r="BJ263">
+        <v>12</v>
+      </c>
+      <c r="BK263">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="264" spans="1:63">
+      <c r="A264" s="1">
+        <v>263</v>
+      </c>
+      <c r="B264">
+        <v>4554656</v>
+      </c>
+      <c r="C264" t="s">
+        <v>63</v>
+      </c>
+      <c r="D264" t="s">
+        <v>64</v>
+      </c>
+      <c r="E264" s="2">
+        <v>45081.89583333334</v>
+      </c>
+      <c r="F264">
+        <v>19</v>
+      </c>
+      <c r="G264" t="s">
+        <v>84</v>
+      </c>
+      <c r="H264" t="s">
+        <v>88</v>
+      </c>
+      <c r="I264">
+        <v>2</v>
+      </c>
+      <c r="J264">
+        <v>1</v>
+      </c>
+      <c r="K264">
+        <v>3</v>
+      </c>
+      <c r="L264">
+        <v>2</v>
+      </c>
+      <c r="M264">
+        <v>1</v>
+      </c>
+      <c r="N264">
+        <v>3</v>
+      </c>
+      <c r="O264" t="s">
+        <v>246</v>
+      </c>
+      <c r="P264" t="s">
+        <v>182</v>
+      </c>
+      <c r="Q264">
+        <v>10</v>
+      </c>
+      <c r="R264">
+        <v>5</v>
+      </c>
+      <c r="S264">
+        <v>15</v>
+      </c>
+      <c r="T264">
+        <v>2.75</v>
+      </c>
+      <c r="U264">
+        <v>2</v>
+      </c>
+      <c r="V264">
+        <v>4.75</v>
+      </c>
+      <c r="W264">
+        <v>1.53</v>
+      </c>
+      <c r="X264">
+        <v>2.38</v>
+      </c>
+      <c r="Y264">
+        <v>3.5</v>
+      </c>
+      <c r="Z264">
+        <v>1.29</v>
+      </c>
+      <c r="AA264">
+        <v>11</v>
+      </c>
+      <c r="AB264">
+        <v>1.05</v>
+      </c>
+      <c r="AC264">
+        <v>1.95</v>
+      </c>
+      <c r="AD264">
+        <v>3.2</v>
+      </c>
+      <c r="AE264">
+        <v>4.2</v>
+      </c>
+      <c r="AF264">
+        <v>1.04</v>
+      </c>
+      <c r="AG264">
+        <v>8</v>
+      </c>
+      <c r="AH264">
+        <v>1.46</v>
+      </c>
+      <c r="AI264">
+        <v>2.76</v>
+      </c>
+      <c r="AJ264">
+        <v>2.3</v>
+      </c>
+      <c r="AK264">
+        <v>1.53</v>
+      </c>
+      <c r="AL264">
+        <v>2.05</v>
+      </c>
+      <c r="AM264">
+        <v>1.7</v>
+      </c>
+      <c r="AN264">
+        <v>1.23</v>
+      </c>
+      <c r="AO264">
+        <v>1.3</v>
+      </c>
+      <c r="AP264">
+        <v>1.74</v>
+      </c>
+      <c r="AQ264">
+        <v>2.38</v>
+      </c>
+      <c r="AR264">
+        <v>0.89</v>
+      </c>
+      <c r="AS264">
+        <v>2.44</v>
+      </c>
+      <c r="AT264">
+        <v>0.8</v>
+      </c>
+      <c r="AU264">
+        <v>1.31</v>
+      </c>
+      <c r="AV264">
+        <v>1.29</v>
+      </c>
+      <c r="AW264">
+        <v>2.6</v>
+      </c>
+      <c r="AX264">
+        <v>1.64</v>
+      </c>
+      <c r="AY264">
+        <v>8</v>
+      </c>
+      <c r="AZ264">
+        <v>2.77</v>
+      </c>
+      <c r="BA264">
+        <v>1.36</v>
+      </c>
+      <c r="BB264">
+        <v>1.66</v>
+      </c>
+      <c r="BC264">
+        <v>2.12</v>
+      </c>
+      <c r="BD264">
+        <v>2.88</v>
+      </c>
+      <c r="BE264">
+        <v>4.1</v>
+      </c>
+      <c r="BF264">
+        <v>9</v>
+      </c>
+      <c r="BG264">
+        <v>6</v>
+      </c>
+      <c r="BH264">
+        <v>11</v>
+      </c>
+      <c r="BI264">
+        <v>4</v>
+      </c>
+      <c r="BJ264">
+        <v>20</v>
+      </c>
+      <c r="BK264">
+        <v>10</v>
       </c>
     </row>
   </sheetData>

--- a/Bases_de_Dados_(2022-2023)/Argentina Primera División_2023.xlsx
+++ b/Bases_de_Dados_(2022-2023)/Argentina Primera División_2023.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1641" uniqueCount="332">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1653" uniqueCount="333">
   <si>
     <t>Id_Jogo</t>
   </si>
@@ -757,6 +757,9 @@
     <t>['35', '45+2']</t>
   </si>
   <si>
+    <t>['38', '52']</t>
+  </si>
+  <si>
     <t>['7', '43', '82', '86']</t>
   </si>
   <si>
@@ -1371,7 +1374,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:BK264"/>
+  <dimension ref="A1:BK266"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -1806,7 +1809,7 @@
         <v>94</v>
       </c>
       <c r="P3" t="s">
-        <v>247</v>
+        <v>248</v>
       </c>
       <c r="Q3">
         <v>5</v>
@@ -2379,7 +2382,7 @@
         <v>95</v>
       </c>
       <c r="P6" t="s">
-        <v>248</v>
+        <v>249</v>
       </c>
       <c r="Q6">
         <v>8</v>
@@ -2570,7 +2573,7 @@
         <v>96</v>
       </c>
       <c r="P7" t="s">
-        <v>249</v>
+        <v>250</v>
       </c>
       <c r="Q7">
         <v>5</v>
@@ -2761,7 +2764,7 @@
         <v>97</v>
       </c>
       <c r="P8" t="s">
-        <v>250</v>
+        <v>251</v>
       </c>
       <c r="Q8">
         <v>1</v>
@@ -3042,7 +3045,7 @@
         <v>1.4</v>
       </c>
       <c r="AT9">
-        <v>1.3</v>
+        <v>1.18</v>
       </c>
       <c r="AU9">
         <v>0</v>
@@ -3143,7 +3146,7 @@
         <v>98</v>
       </c>
       <c r="P10" t="s">
-        <v>251</v>
+        <v>252</v>
       </c>
       <c r="Q10">
         <v>5</v>
@@ -3803,7 +3806,7 @@
         <v>0</v>
       </c>
       <c r="AS13">
-        <v>1.5</v>
+        <v>1.45</v>
       </c>
       <c r="AT13">
         <v>1.1</v>
@@ -3907,7 +3910,7 @@
         <v>100</v>
       </c>
       <c r="P14" t="s">
-        <v>252</v>
+        <v>253</v>
       </c>
       <c r="Q14">
         <v>5</v>
@@ -4289,7 +4292,7 @@
         <v>101</v>
       </c>
       <c r="P16" t="s">
-        <v>253</v>
+        <v>254</v>
       </c>
       <c r="Q16">
         <v>10</v>
@@ -4379,7 +4382,7 @@
         <v>1.33</v>
       </c>
       <c r="AT16">
-        <v>0.78</v>
+        <v>0.8</v>
       </c>
       <c r="AU16">
         <v>0</v>
@@ -4862,7 +4865,7 @@
         <v>103</v>
       </c>
       <c r="P19" t="s">
-        <v>254</v>
+        <v>255</v>
       </c>
       <c r="Q19">
         <v>4</v>
@@ -5053,7 +5056,7 @@
         <v>104</v>
       </c>
       <c r="P20" t="s">
-        <v>255</v>
+        <v>256</v>
       </c>
       <c r="Q20">
         <v>1</v>
@@ -5626,7 +5629,7 @@
         <v>106</v>
       </c>
       <c r="P23" t="s">
-        <v>256</v>
+        <v>257</v>
       </c>
       <c r="Q23">
         <v>8</v>
@@ -5713,7 +5716,7 @@
         <v>0</v>
       </c>
       <c r="AS23">
-        <v>1.11</v>
+        <v>1.3</v>
       </c>
       <c r="AT23">
         <v>0.78</v>
@@ -6199,7 +6202,7 @@
         <v>96</v>
       </c>
       <c r="P26" t="s">
-        <v>257</v>
+        <v>258</v>
       </c>
       <c r="Q26">
         <v>4</v>
@@ -6390,7 +6393,7 @@
         <v>96</v>
       </c>
       <c r="P27" t="s">
-        <v>258</v>
+        <v>259</v>
       </c>
       <c r="Q27">
         <v>5</v>
@@ -6581,7 +6584,7 @@
         <v>96</v>
       </c>
       <c r="P28" t="s">
-        <v>259</v>
+        <v>260</v>
       </c>
       <c r="Q28">
         <v>7</v>
@@ -6772,7 +6775,7 @@
         <v>108</v>
       </c>
       <c r="P29" t="s">
-        <v>260</v>
+        <v>261</v>
       </c>
       <c r="Q29">
         <v>8</v>
@@ -6963,7 +6966,7 @@
         <v>96</v>
       </c>
       <c r="P30" t="s">
-        <v>261</v>
+        <v>262</v>
       </c>
       <c r="Q30">
         <v>11</v>
@@ -7053,7 +7056,7 @@
         <v>1.2</v>
       </c>
       <c r="AT30">
-        <v>1.3</v>
+        <v>1.18</v>
       </c>
       <c r="AU30">
         <v>1.17</v>
@@ -7727,7 +7730,7 @@
         <v>102</v>
       </c>
       <c r="P34" t="s">
-        <v>262</v>
+        <v>263</v>
       </c>
       <c r="Q34">
         <v>3</v>
@@ -7918,7 +7921,7 @@
         <v>111</v>
       </c>
       <c r="P35" t="s">
-        <v>263</v>
+        <v>264</v>
       </c>
       <c r="Q35">
         <v>6</v>
@@ -9064,7 +9067,7 @@
         <v>114</v>
       </c>
       <c r="P41" t="s">
-        <v>264</v>
+        <v>265</v>
       </c>
       <c r="Q41">
         <v>5</v>
@@ -9255,7 +9258,7 @@
         <v>115</v>
       </c>
       <c r="P42" t="s">
-        <v>265</v>
+        <v>266</v>
       </c>
       <c r="Q42">
         <v>5</v>
@@ -9342,7 +9345,7 @@
         <v>1</v>
       </c>
       <c r="AS42">
-        <v>1.5</v>
+        <v>1.45</v>
       </c>
       <c r="AT42">
         <v>1</v>
@@ -9446,7 +9449,7 @@
         <v>96</v>
       </c>
       <c r="P43" t="s">
-        <v>266</v>
+        <v>267</v>
       </c>
       <c r="Q43">
         <v>10</v>
@@ -9828,7 +9831,7 @@
         <v>96</v>
       </c>
       <c r="P45" t="s">
-        <v>267</v>
+        <v>268</v>
       </c>
       <c r="Q45">
         <v>3</v>
@@ -10300,7 +10303,7 @@
         <v>2.44</v>
       </c>
       <c r="AT47">
-        <v>0.78</v>
+        <v>0.8</v>
       </c>
       <c r="AU47">
         <v>1.27</v>
@@ -10401,7 +10404,7 @@
         <v>96</v>
       </c>
       <c r="P48" t="s">
-        <v>268</v>
+        <v>269</v>
       </c>
       <c r="Q48">
         <v>4</v>
@@ -11547,7 +11550,7 @@
         <v>96</v>
       </c>
       <c r="P54" t="s">
-        <v>269</v>
+        <v>270</v>
       </c>
       <c r="Q54">
         <v>4</v>
@@ -11634,7 +11637,7 @@
         <v>3</v>
       </c>
       <c r="AS54">
-        <v>1.11</v>
+        <v>1.3</v>
       </c>
       <c r="AT54">
         <v>1.75</v>
@@ -11929,7 +11932,7 @@
         <v>96</v>
       </c>
       <c r="P56" t="s">
-        <v>270</v>
+        <v>271</v>
       </c>
       <c r="Q56">
         <v>6</v>
@@ -12120,7 +12123,7 @@
         <v>124</v>
       </c>
       <c r="P57" t="s">
-        <v>271</v>
+        <v>272</v>
       </c>
       <c r="Q57">
         <v>3</v>
@@ -12311,7 +12314,7 @@
         <v>96</v>
       </c>
       <c r="P58" t="s">
-        <v>272</v>
+        <v>273</v>
       </c>
       <c r="Q58">
         <v>2</v>
@@ -12884,7 +12887,7 @@
         <v>127</v>
       </c>
       <c r="P61" t="s">
-        <v>273</v>
+        <v>274</v>
       </c>
       <c r="Q61">
         <v>4</v>
@@ -13165,7 +13168,7 @@
         <v>2</v>
       </c>
       <c r="AT62">
-        <v>1.3</v>
+        <v>1.18</v>
       </c>
       <c r="AU62">
         <v>2.1</v>
@@ -13266,7 +13269,7 @@
         <v>129</v>
       </c>
       <c r="P63" t="s">
-        <v>274</v>
+        <v>275</v>
       </c>
       <c r="Q63">
         <v>4</v>
@@ -13839,7 +13842,7 @@
         <v>132</v>
       </c>
       <c r="P66" t="s">
-        <v>275</v>
+        <v>276</v>
       </c>
       <c r="Q66">
         <v>11</v>
@@ -14030,7 +14033,7 @@
         <v>133</v>
       </c>
       <c r="P67" t="s">
-        <v>262</v>
+        <v>263</v>
       </c>
       <c r="Q67">
         <v>2</v>
@@ -14499,7 +14502,7 @@
         <v>0.5</v>
       </c>
       <c r="AS69">
-        <v>1.5</v>
+        <v>1.45</v>
       </c>
       <c r="AT69">
         <v>0.7</v>
@@ -15176,7 +15179,7 @@
         <v>137</v>
       </c>
       <c r="P73" t="s">
-        <v>276</v>
+        <v>277</v>
       </c>
       <c r="Q73">
         <v>13</v>
@@ -15266,7 +15269,7 @@
         <v>1.33</v>
       </c>
       <c r="AT73">
-        <v>0.78</v>
+        <v>0.8</v>
       </c>
       <c r="AU73">
         <v>1.51</v>
@@ -15749,7 +15752,7 @@
         <v>96</v>
       </c>
       <c r="P76" t="s">
-        <v>277</v>
+        <v>278</v>
       </c>
       <c r="Q76">
         <v>10</v>
@@ -16409,7 +16412,7 @@
         <v>1.5</v>
       </c>
       <c r="AS79">
-        <v>1.11</v>
+        <v>1.3</v>
       </c>
       <c r="AT79">
         <v>0.78</v>
@@ -16513,7 +16516,7 @@
         <v>141</v>
       </c>
       <c r="P80" t="s">
-        <v>278</v>
+        <v>279</v>
       </c>
       <c r="Q80">
         <v>5</v>
@@ -16895,7 +16898,7 @@
         <v>142</v>
       </c>
       <c r="P82" t="s">
-        <v>279</v>
+        <v>280</v>
       </c>
       <c r="Q82">
         <v>2</v>
@@ -17277,7 +17280,7 @@
         <v>96</v>
       </c>
       <c r="P84" t="s">
-        <v>280</v>
+        <v>281</v>
       </c>
       <c r="Q84">
         <v>4</v>
@@ -17659,7 +17662,7 @@
         <v>115</v>
       </c>
       <c r="P86" t="s">
-        <v>281</v>
+        <v>282</v>
       </c>
       <c r="Q86">
         <v>6</v>
@@ -17746,7 +17749,7 @@
         <v>1.67</v>
       </c>
       <c r="AS86">
-        <v>1.5</v>
+        <v>1.45</v>
       </c>
       <c r="AT86">
         <v>0.8</v>
@@ -18041,7 +18044,7 @@
         <v>145</v>
       </c>
       <c r="P88" t="s">
-        <v>282</v>
+        <v>283</v>
       </c>
       <c r="Q88">
         <v>5</v>
@@ -18423,7 +18426,7 @@
         <v>147</v>
       </c>
       <c r="P90" t="s">
-        <v>283</v>
+        <v>284</v>
       </c>
       <c r="Q90">
         <v>8</v>
@@ -19086,7 +19089,7 @@
         <v>1.56</v>
       </c>
       <c r="AT93">
-        <v>1.3</v>
+        <v>1.18</v>
       </c>
       <c r="AU93">
         <v>1.84</v>
@@ -19378,7 +19381,7 @@
         <v>151</v>
       </c>
       <c r="P95" t="s">
-        <v>284</v>
+        <v>285</v>
       </c>
       <c r="Q95">
         <v>9</v>
@@ -19951,7 +19954,7 @@
         <v>153</v>
       </c>
       <c r="P98" t="s">
-        <v>285</v>
+        <v>286</v>
       </c>
       <c r="Q98">
         <v>6</v>
@@ -20142,7 +20145,7 @@
         <v>154</v>
       </c>
       <c r="P99" t="s">
-        <v>282</v>
+        <v>283</v>
       </c>
       <c r="Q99">
         <v>5</v>
@@ -20333,7 +20336,7 @@
         <v>155</v>
       </c>
       <c r="P100" t="s">
-        <v>286</v>
+        <v>287</v>
       </c>
       <c r="Q100">
         <v>1</v>
@@ -20715,7 +20718,7 @@
         <v>157</v>
       </c>
       <c r="P102" t="s">
-        <v>287</v>
+        <v>288</v>
       </c>
       <c r="Q102">
         <v>2</v>
@@ -20802,7 +20805,7 @@
         <v>0.67</v>
       </c>
       <c r="AS102">
-        <v>1.11</v>
+        <v>1.3</v>
       </c>
       <c r="AT102">
         <v>0.89</v>
@@ -21097,7 +21100,7 @@
         <v>159</v>
       </c>
       <c r="P104" t="s">
-        <v>255</v>
+        <v>256</v>
       </c>
       <c r="Q104">
         <v>6</v>
@@ -21288,7 +21291,7 @@
         <v>160</v>
       </c>
       <c r="P105" t="s">
-        <v>288</v>
+        <v>289</v>
       </c>
       <c r="Q105">
         <v>5</v>
@@ -21479,7 +21482,7 @@
         <v>161</v>
       </c>
       <c r="P106" t="s">
-        <v>283</v>
+        <v>284</v>
       </c>
       <c r="Q106">
         <v>11</v>
@@ -21670,7 +21673,7 @@
         <v>162</v>
       </c>
       <c r="P107" t="s">
-        <v>289</v>
+        <v>290</v>
       </c>
       <c r="Q107">
         <v>8</v>
@@ -22052,7 +22055,7 @@
         <v>96</v>
       </c>
       <c r="P109" t="s">
-        <v>290</v>
+        <v>291</v>
       </c>
       <c r="Q109">
         <v>9</v>
@@ -22625,7 +22628,7 @@
         <v>96</v>
       </c>
       <c r="P112" t="s">
-        <v>291</v>
+        <v>292</v>
       </c>
       <c r="Q112">
         <v>9</v>
@@ -22715,7 +22718,7 @@
         <v>1.33</v>
       </c>
       <c r="AT112">
-        <v>0.78</v>
+        <v>0.8</v>
       </c>
       <c r="AU112">
         <v>1.67</v>
@@ -23962,7 +23965,7 @@
         <v>96</v>
       </c>
       <c r="P119" t="s">
-        <v>292</v>
+        <v>293</v>
       </c>
       <c r="Q119">
         <v>0</v>
@@ -24049,7 +24052,7 @@
         <v>1</v>
       </c>
       <c r="AS119">
-        <v>1.5</v>
+        <v>1.45</v>
       </c>
       <c r="AT119">
         <v>1.11</v>
@@ -24344,7 +24347,7 @@
         <v>169</v>
       </c>
       <c r="P121" t="s">
-        <v>293</v>
+        <v>294</v>
       </c>
       <c r="Q121">
         <v>5</v>
@@ -24726,7 +24729,7 @@
         <v>96</v>
       </c>
       <c r="P123" t="s">
-        <v>294</v>
+        <v>295</v>
       </c>
       <c r="Q123">
         <v>8</v>
@@ -25108,7 +25111,7 @@
         <v>96</v>
       </c>
       <c r="P125" t="s">
-        <v>295</v>
+        <v>296</v>
       </c>
       <c r="Q125">
         <v>6</v>
@@ -25389,7 +25392,7 @@
         <v>2</v>
       </c>
       <c r="AT126">
-        <v>1.3</v>
+        <v>1.18</v>
       </c>
       <c r="AU126">
         <v>0.93</v>
@@ -26063,7 +26066,7 @@
         <v>173</v>
       </c>
       <c r="P130" t="s">
-        <v>296</v>
+        <v>297</v>
       </c>
       <c r="Q130">
         <v>5</v>
@@ -26636,7 +26639,7 @@
         <v>176</v>
       </c>
       <c r="P133" t="s">
-        <v>252</v>
+        <v>253</v>
       </c>
       <c r="Q133">
         <v>4</v>
@@ -26827,7 +26830,7 @@
         <v>96</v>
       </c>
       <c r="P134" t="s">
-        <v>297</v>
+        <v>298</v>
       </c>
       <c r="Q134">
         <v>7</v>
@@ -27018,7 +27021,7 @@
         <v>159</v>
       </c>
       <c r="P135" t="s">
-        <v>298</v>
+        <v>299</v>
       </c>
       <c r="Q135">
         <v>6</v>
@@ -27209,7 +27212,7 @@
         <v>177</v>
       </c>
       <c r="P136" t="s">
-        <v>261</v>
+        <v>262</v>
       </c>
       <c r="Q136">
         <v>10</v>
@@ -27400,7 +27403,7 @@
         <v>178</v>
       </c>
       <c r="P137" t="s">
-        <v>299</v>
+        <v>300</v>
       </c>
       <c r="Q137">
         <v>4</v>
@@ -27487,7 +27490,7 @@
         <v>1</v>
       </c>
       <c r="AS137">
-        <v>1.11</v>
+        <v>1.3</v>
       </c>
       <c r="AT137">
         <v>1.67</v>
@@ -27591,7 +27594,7 @@
         <v>115</v>
       </c>
       <c r="P138" t="s">
-        <v>300</v>
+        <v>301</v>
       </c>
       <c r="Q138">
         <v>2</v>
@@ -27872,7 +27875,7 @@
         <v>2.22</v>
       </c>
       <c r="AT139">
-        <v>0.78</v>
+        <v>0.8</v>
       </c>
       <c r="AU139">
         <v>1.19</v>
@@ -27973,7 +27976,7 @@
         <v>96</v>
       </c>
       <c r="P140" t="s">
-        <v>301</v>
+        <v>302</v>
       </c>
       <c r="Q140">
         <v>4</v>
@@ -28164,7 +28167,7 @@
         <v>177</v>
       </c>
       <c r="P141" t="s">
-        <v>302</v>
+        <v>303</v>
       </c>
       <c r="Q141">
         <v>4</v>
@@ -28442,7 +28445,7 @@
         <v>1.75</v>
       </c>
       <c r="AS142">
-        <v>1.5</v>
+        <v>1.45</v>
       </c>
       <c r="AT142">
         <v>0.78</v>
@@ -28546,7 +28549,7 @@
         <v>179</v>
       </c>
       <c r="P143" t="s">
-        <v>263</v>
+        <v>264</v>
       </c>
       <c r="Q143">
         <v>5</v>
@@ -28928,7 +28931,7 @@
         <v>96</v>
       </c>
       <c r="P145" t="s">
-        <v>303</v>
+        <v>304</v>
       </c>
       <c r="Q145">
         <v>6</v>
@@ -29119,7 +29122,7 @@
         <v>125</v>
       </c>
       <c r="P146" t="s">
-        <v>270</v>
+        <v>271</v>
       </c>
       <c r="Q146">
         <v>7</v>
@@ -30265,7 +30268,7 @@
         <v>183</v>
       </c>
       <c r="P152" t="s">
-        <v>304</v>
+        <v>305</v>
       </c>
       <c r="Q152">
         <v>1</v>
@@ -30456,7 +30459,7 @@
         <v>184</v>
       </c>
       <c r="P153" t="s">
-        <v>305</v>
+        <v>306</v>
       </c>
       <c r="Q153">
         <v>1</v>
@@ -30928,7 +30931,7 @@
         <v>1.33</v>
       </c>
       <c r="AT155">
-        <v>1.3</v>
+        <v>1.18</v>
       </c>
       <c r="AU155">
         <v>1.79</v>
@@ -31602,7 +31605,7 @@
         <v>96</v>
       </c>
       <c r="P159" t="s">
-        <v>306</v>
+        <v>307</v>
       </c>
       <c r="Q159">
         <v>15</v>
@@ -32262,7 +32265,7 @@
         <v>1.2</v>
       </c>
       <c r="AS162">
-        <v>1.11</v>
+        <v>1.3</v>
       </c>
       <c r="AT162">
         <v>0.89</v>
@@ -32366,7 +32369,7 @@
         <v>96</v>
       </c>
       <c r="P163" t="s">
-        <v>307</v>
+        <v>308</v>
       </c>
       <c r="Q163">
         <v>1</v>
@@ -33321,7 +33324,7 @@
         <v>189</v>
       </c>
       <c r="P168" t="s">
-        <v>308</v>
+        <v>309</v>
       </c>
       <c r="Q168">
         <v>3</v>
@@ -33411,7 +33414,7 @@
         <v>1.11</v>
       </c>
       <c r="AT168">
-        <v>0.78</v>
+        <v>0.8</v>
       </c>
       <c r="AU168">
         <v>1.48</v>
@@ -33512,7 +33515,7 @@
         <v>190</v>
       </c>
       <c r="P169" t="s">
-        <v>309</v>
+        <v>310</v>
       </c>
       <c r="Q169">
         <v>1</v>
@@ -33703,7 +33706,7 @@
         <v>191</v>
       </c>
       <c r="P170" t="s">
-        <v>255</v>
+        <v>256</v>
       </c>
       <c r="Q170">
         <v>7</v>
@@ -33894,7 +33897,7 @@
         <v>192</v>
       </c>
       <c r="P171" t="s">
-        <v>282</v>
+        <v>283</v>
       </c>
       <c r="Q171">
         <v>3</v>
@@ -33984,7 +33987,7 @@
         <v>2.44</v>
       </c>
       <c r="AT171">
-        <v>1.3</v>
+        <v>1.18</v>
       </c>
       <c r="AU171">
         <v>1.2</v>
@@ -34085,7 +34088,7 @@
         <v>193</v>
       </c>
       <c r="P172" t="s">
-        <v>271</v>
+        <v>272</v>
       </c>
       <c r="Q172">
         <v>4</v>
@@ -34467,7 +34470,7 @@
         <v>96</v>
       </c>
       <c r="P174" t="s">
-        <v>310</v>
+        <v>311</v>
       </c>
       <c r="Q174">
         <v>5</v>
@@ -34849,7 +34852,7 @@
         <v>194</v>
       </c>
       <c r="P176" t="s">
-        <v>311</v>
+        <v>312</v>
       </c>
       <c r="Q176">
         <v>2</v>
@@ -35613,7 +35616,7 @@
         <v>96</v>
       </c>
       <c r="P180" t="s">
-        <v>312</v>
+        <v>313</v>
       </c>
       <c r="Q180">
         <v>5</v>
@@ -35700,7 +35703,7 @@
         <v>2</v>
       </c>
       <c r="AS180">
-        <v>1.5</v>
+        <v>1.45</v>
       </c>
       <c r="AT180">
         <v>1.75</v>
@@ -35804,7 +35807,7 @@
         <v>198</v>
       </c>
       <c r="P181" t="s">
-        <v>313</v>
+        <v>314</v>
       </c>
       <c r="Q181">
         <v>6</v>
@@ -35995,7 +35998,7 @@
         <v>199</v>
       </c>
       <c r="P182" t="s">
-        <v>314</v>
+        <v>315</v>
       </c>
       <c r="Q182">
         <v>12</v>
@@ -36377,7 +36380,7 @@
         <v>201</v>
       </c>
       <c r="P184" t="s">
-        <v>315</v>
+        <v>316</v>
       </c>
       <c r="Q184">
         <v>5</v>
@@ -36568,7 +36571,7 @@
         <v>202</v>
       </c>
       <c r="P185" t="s">
-        <v>316</v>
+        <v>317</v>
       </c>
       <c r="Q185">
         <v>4</v>
@@ -36950,7 +36953,7 @@
         <v>203</v>
       </c>
       <c r="P187" t="s">
-        <v>317</v>
+        <v>318</v>
       </c>
       <c r="Q187">
         <v>2</v>
@@ -37523,7 +37526,7 @@
         <v>200</v>
       </c>
       <c r="P190" t="s">
-        <v>307</v>
+        <v>308</v>
       </c>
       <c r="Q190">
         <v>3</v>
@@ -37905,7 +37908,7 @@
         <v>96</v>
       </c>
       <c r="P192" t="s">
-        <v>318</v>
+        <v>319</v>
       </c>
       <c r="Q192">
         <v>6</v>
@@ -38565,7 +38568,7 @@
         <v>1.86</v>
       </c>
       <c r="AS195">
-        <v>1.11</v>
+        <v>1.3</v>
       </c>
       <c r="AT195">
         <v>1.3</v>
@@ -38759,7 +38762,7 @@
         <v>1.9</v>
       </c>
       <c r="AT196">
-        <v>0.78</v>
+        <v>0.8</v>
       </c>
       <c r="AU196">
         <v>1.52</v>
@@ -39138,7 +39141,7 @@
         <v>1.17</v>
       </c>
       <c r="AS198">
-        <v>1.5</v>
+        <v>1.45</v>
       </c>
       <c r="AT198">
         <v>0.78</v>
@@ -39815,7 +39818,7 @@
         <v>211</v>
       </c>
       <c r="P202" t="s">
-        <v>319</v>
+        <v>320</v>
       </c>
       <c r="Q202">
         <v>8</v>
@@ -40579,7 +40582,7 @@
         <v>214</v>
       </c>
       <c r="P206" t="s">
-        <v>320</v>
+        <v>321</v>
       </c>
       <c r="Q206">
         <v>1</v>
@@ -41152,7 +41155,7 @@
         <v>215</v>
       </c>
       <c r="P209" t="s">
-        <v>321</v>
+        <v>322</v>
       </c>
       <c r="Q209">
         <v>5</v>
@@ -41433,7 +41436,7 @@
         <v>1.3</v>
       </c>
       <c r="AT210">
-        <v>1.3</v>
+        <v>1.18</v>
       </c>
       <c r="AU210">
         <v>1.3</v>
@@ -41725,7 +41728,7 @@
         <v>216</v>
       </c>
       <c r="P212" t="s">
-        <v>322</v>
+        <v>323</v>
       </c>
       <c r="Q212">
         <v>2</v>
@@ -41916,7 +41919,7 @@
         <v>217</v>
       </c>
       <c r="P213" t="s">
-        <v>323</v>
+        <v>324</v>
       </c>
       <c r="Q213">
         <v>12</v>
@@ -42003,7 +42006,7 @@
         <v>1.25</v>
       </c>
       <c r="AS213">
-        <v>1.11</v>
+        <v>1.3</v>
       </c>
       <c r="AT213">
         <v>1</v>
@@ -42107,7 +42110,7 @@
         <v>110</v>
       </c>
       <c r="P214" t="s">
-        <v>324</v>
+        <v>325</v>
       </c>
       <c r="Q214">
         <v>9</v>
@@ -43253,7 +43256,7 @@
         <v>223</v>
       </c>
       <c r="P220" t="s">
-        <v>268</v>
+        <v>269</v>
       </c>
       <c r="Q220">
         <v>3</v>
@@ -43444,7 +43447,7 @@
         <v>224</v>
       </c>
       <c r="P221" t="s">
-        <v>325</v>
+        <v>326</v>
       </c>
       <c r="Q221">
         <v>4</v>
@@ -43531,7 +43534,7 @@
         <v>1.14</v>
       </c>
       <c r="AS221">
-        <v>1.5</v>
+        <v>1.45</v>
       </c>
       <c r="AT221">
         <v>1.11</v>
@@ -43635,7 +43638,7 @@
         <v>96</v>
       </c>
       <c r="P222" t="s">
-        <v>326</v>
+        <v>327</v>
       </c>
       <c r="Q222">
         <v>14</v>
@@ -43725,7 +43728,7 @@
         <v>1</v>
       </c>
       <c r="AT222">
-        <v>1.3</v>
+        <v>1.18</v>
       </c>
       <c r="AU222">
         <v>1.54</v>
@@ -44107,7 +44110,7 @@
         <v>1.3</v>
       </c>
       <c r="AT224">
-        <v>0.78</v>
+        <v>0.8</v>
       </c>
       <c r="AU224">
         <v>1.26</v>
@@ -46309,7 +46312,7 @@
         <v>201</v>
       </c>
       <c r="P236" t="s">
-        <v>316</v>
+        <v>317</v>
       </c>
       <c r="Q236">
         <v>9</v>
@@ -46972,7 +46975,7 @@
         <v>1.67</v>
       </c>
       <c r="AT239">
-        <v>1.3</v>
+        <v>1.18</v>
       </c>
       <c r="AU239">
         <v>1.5</v>
@@ -47351,7 +47354,7 @@
         <v>1.13</v>
       </c>
       <c r="AS241">
-        <v>1.11</v>
+        <v>1.3</v>
       </c>
       <c r="AT241">
         <v>1.11</v>
@@ -47542,7 +47545,7 @@
         <v>1.5</v>
       </c>
       <c r="AS242">
-        <v>1.5</v>
+        <v>1.45</v>
       </c>
       <c r="AT242">
         <v>1.33</v>
@@ -48410,7 +48413,7 @@
         <v>235</v>
       </c>
       <c r="P247" t="s">
-        <v>327</v>
+        <v>328</v>
       </c>
       <c r="Q247">
         <v>1</v>
@@ -48601,7 +48604,7 @@
         <v>96</v>
       </c>
       <c r="P248" t="s">
-        <v>265</v>
+        <v>266</v>
       </c>
       <c r="Q248">
         <v>7</v>
@@ -48882,7 +48885,7 @@
         <v>1.3</v>
       </c>
       <c r="AT249">
-        <v>0.78</v>
+        <v>0.8</v>
       </c>
       <c r="AU249">
         <v>1.47</v>
@@ -49174,7 +49177,7 @@
         <v>237</v>
       </c>
       <c r="P251" t="s">
-        <v>328</v>
+        <v>329</v>
       </c>
       <c r="Q251">
         <v>3</v>
@@ -49747,7 +49750,7 @@
         <v>238</v>
       </c>
       <c r="P254" t="s">
-        <v>329</v>
+        <v>330</v>
       </c>
       <c r="Q254">
         <v>7</v>
@@ -49938,7 +49941,7 @@
         <v>239</v>
       </c>
       <c r="P255" t="s">
-        <v>330</v>
+        <v>331</v>
       </c>
       <c r="Q255">
         <v>6</v>
@@ -50702,7 +50705,7 @@
         <v>242</v>
       </c>
       <c r="P259" t="s">
-        <v>331</v>
+        <v>332</v>
       </c>
       <c r="Q259">
         <v>2</v>
@@ -51466,7 +51469,7 @@
         <v>245</v>
       </c>
       <c r="P263" t="s">
-        <v>270</v>
+        <v>271</v>
       </c>
       <c r="Q263">
         <v>7</v>
@@ -51799,6 +51802,388 @@
       </c>
       <c r="BK264">
         <v>10</v>
+      </c>
+    </row>
+    <row r="265" spans="1:63">
+      <c r="A265" s="1">
+        <v>264</v>
+      </c>
+      <c r="B265">
+        <v>4554667</v>
+      </c>
+      <c r="C265" t="s">
+        <v>63</v>
+      </c>
+      <c r="D265" t="s">
+        <v>64</v>
+      </c>
+      <c r="E265" s="2">
+        <v>45086.64583333334</v>
+      </c>
+      <c r="F265">
+        <v>20</v>
+      </c>
+      <c r="G265" t="s">
+        <v>76</v>
+      </c>
+      <c r="H265" t="s">
+        <v>65</v>
+      </c>
+      <c r="I265">
+        <v>0</v>
+      </c>
+      <c r="J265">
+        <v>0</v>
+      </c>
+      <c r="K265">
+        <v>0</v>
+      </c>
+      <c r="L265">
+        <v>0</v>
+      </c>
+      <c r="M265">
+        <v>0</v>
+      </c>
+      <c r="N265">
+        <v>0</v>
+      </c>
+      <c r="O265" t="s">
+        <v>96</v>
+      </c>
+      <c r="P265" t="s">
+        <v>96</v>
+      </c>
+      <c r="Q265">
+        <v>9</v>
+      </c>
+      <c r="R265">
+        <v>2</v>
+      </c>
+      <c r="S265">
+        <v>11</v>
+      </c>
+      <c r="T265">
+        <v>3.5</v>
+      </c>
+      <c r="U265">
+        <v>1.95</v>
+      </c>
+      <c r="V265">
+        <v>3.1</v>
+      </c>
+      <c r="W265">
+        <v>1.44</v>
+      </c>
+      <c r="X265">
+        <v>2.62</v>
+      </c>
+      <c r="Y265">
+        <v>3.25</v>
+      </c>
+      <c r="Z265">
+        <v>1.33</v>
+      </c>
+      <c r="AA265">
+        <v>8</v>
+      </c>
+      <c r="AB265">
+        <v>1.06</v>
+      </c>
+      <c r="AC265">
+        <v>2.9</v>
+      </c>
+      <c r="AD265">
+        <v>3.2</v>
+      </c>
+      <c r="AE265">
+        <v>2.4</v>
+      </c>
+      <c r="AF265">
+        <v>1.1</v>
+      </c>
+      <c r="AG265">
+        <v>6.5</v>
+      </c>
+      <c r="AH265">
+        <v>1.44</v>
+      </c>
+      <c r="AI265">
+        <v>2.62</v>
+      </c>
+      <c r="AJ265">
+        <v>2.3</v>
+      </c>
+      <c r="AK265">
+        <v>1.57</v>
+      </c>
+      <c r="AL265">
+        <v>1.91</v>
+      </c>
+      <c r="AM265">
+        <v>1.8</v>
+      </c>
+      <c r="AN265">
+        <v>1.5</v>
+      </c>
+      <c r="AO265">
+        <v>1.35</v>
+      </c>
+      <c r="AP265">
+        <v>1.4</v>
+      </c>
+      <c r="AQ265">
+        <v>1.5</v>
+      </c>
+      <c r="AR265">
+        <v>0.78</v>
+      </c>
+      <c r="AS265">
+        <v>1.45</v>
+      </c>
+      <c r="AT265">
+        <v>0.8</v>
+      </c>
+      <c r="AU265">
+        <v>1.15</v>
+      </c>
+      <c r="AV265">
+        <v>1.27</v>
+      </c>
+      <c r="AW265">
+        <v>2.42</v>
+      </c>
+      <c r="AX265">
+        <v>2.43</v>
+      </c>
+      <c r="AY265">
+        <v>7</v>
+      </c>
+      <c r="AZ265">
+        <v>1.81</v>
+      </c>
+      <c r="BA265">
+        <v>1.27</v>
+      </c>
+      <c r="BB265">
+        <v>1.5</v>
+      </c>
+      <c r="BC265">
+        <v>1.85</v>
+      </c>
+      <c r="BD265">
+        <v>2.45</v>
+      </c>
+      <c r="BE265">
+        <v>3.4</v>
+      </c>
+      <c r="BF265">
+        <v>3</v>
+      </c>
+      <c r="BG265">
+        <v>3</v>
+      </c>
+      <c r="BH265">
+        <v>3</v>
+      </c>
+      <c r="BI265">
+        <v>3</v>
+      </c>
+      <c r="BJ265">
+        <v>6</v>
+      </c>
+      <c r="BK265">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="266" spans="1:63">
+      <c r="A266" s="1">
+        <v>265</v>
+      </c>
+      <c r="B266">
+        <v>5019522</v>
+      </c>
+      <c r="C266" t="s">
+        <v>63</v>
+      </c>
+      <c r="D266" t="s">
+        <v>64</v>
+      </c>
+      <c r="E266" s="2">
+        <v>45086.83333333334</v>
+      </c>
+      <c r="F266">
+        <v>20</v>
+      </c>
+      <c r="G266" t="s">
+        <v>86</v>
+      </c>
+      <c r="H266" t="s">
+        <v>82</v>
+      </c>
+      <c r="I266">
+        <v>1</v>
+      </c>
+      <c r="J266">
+        <v>0</v>
+      </c>
+      <c r="K266">
+        <v>1</v>
+      </c>
+      <c r="L266">
+        <v>2</v>
+      </c>
+      <c r="M266">
+        <v>0</v>
+      </c>
+      <c r="N266">
+        <v>2</v>
+      </c>
+      <c r="O266" t="s">
+        <v>247</v>
+      </c>
+      <c r="P266" t="s">
+        <v>96</v>
+      </c>
+      <c r="Q266">
+        <v>10</v>
+      </c>
+      <c r="R266">
+        <v>4</v>
+      </c>
+      <c r="S266">
+        <v>14</v>
+      </c>
+      <c r="T266">
+        <v>2.75</v>
+      </c>
+      <c r="U266">
+        <v>1.91</v>
+      </c>
+      <c r="V266">
+        <v>4.2</v>
+      </c>
+      <c r="W266">
+        <v>1.44</v>
+      </c>
+      <c r="X266">
+        <v>2.62</v>
+      </c>
+      <c r="Y266">
+        <v>3.25</v>
+      </c>
+      <c r="Z266">
+        <v>1.33</v>
+      </c>
+      <c r="AA266">
+        <v>8</v>
+      </c>
+      <c r="AB266">
+        <v>1.06</v>
+      </c>
+      <c r="AC266">
+        <v>2.1</v>
+      </c>
+      <c r="AD266">
+        <v>3.2</v>
+      </c>
+      <c r="AE266">
+        <v>3.5</v>
+      </c>
+      <c r="AF266">
+        <v>1.1</v>
+      </c>
+      <c r="AG266">
+        <v>6.5</v>
+      </c>
+      <c r="AH266">
+        <v>1.44</v>
+      </c>
+      <c r="AI266">
+        <v>2.62</v>
+      </c>
+      <c r="AJ266">
+        <v>2.38</v>
+      </c>
+      <c r="AK266">
+        <v>1.53</v>
+      </c>
+      <c r="AL266">
+        <v>2.05</v>
+      </c>
+      <c r="AM266">
+        <v>1.7</v>
+      </c>
+      <c r="AN266">
+        <v>1.25</v>
+      </c>
+      <c r="AO266">
+        <v>1.36</v>
+      </c>
+      <c r="AP266">
+        <v>1.65</v>
+      </c>
+      <c r="AQ266">
+        <v>1.11</v>
+      </c>
+      <c r="AR266">
+        <v>1.3</v>
+      </c>
+      <c r="AS266">
+        <v>1.3</v>
+      </c>
+      <c r="AT266">
+        <v>1.18</v>
+      </c>
+      <c r="AU266">
+        <v>1.48</v>
+      </c>
+      <c r="AV266">
+        <v>1.2</v>
+      </c>
+      <c r="AW266">
+        <v>2.68</v>
+      </c>
+      <c r="AX266">
+        <v>1.41</v>
+      </c>
+      <c r="AY266">
+        <v>9</v>
+      </c>
+      <c r="AZ266">
+        <v>3.48</v>
+      </c>
+      <c r="BA266">
+        <v>1.25</v>
+      </c>
+      <c r="BB266">
+        <v>1.47</v>
+      </c>
+      <c r="BC266">
+        <v>1.83</v>
+      </c>
+      <c r="BD266">
+        <v>2.38</v>
+      </c>
+      <c r="BE266">
+        <v>3.25</v>
+      </c>
+      <c r="BF266">
+        <v>5</v>
+      </c>
+      <c r="BG266">
+        <v>0</v>
+      </c>
+      <c r="BH266">
+        <v>5</v>
+      </c>
+      <c r="BI266">
+        <v>4</v>
+      </c>
+      <c r="BJ266">
+        <v>10</v>
+      </c>
+      <c r="BK266">
+        <v>4</v>
       </c>
     </row>
   </sheetData>

--- a/Bases_de_Dados_(2022-2023)/Argentina Primera División_2023.xlsx
+++ b/Bases_de_Dados_(2022-2023)/Argentina Primera División_2023.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1653" uniqueCount="333">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1671" uniqueCount="335">
   <si>
     <t>Id_Jogo</t>
   </si>
@@ -760,6 +760,12 @@
     <t>['38', '52']</t>
   </si>
   <si>
+    <t>['48']</t>
+  </si>
+  <si>
+    <t>['88']</t>
+  </si>
+  <si>
     <t>['7', '43', '82', '86']</t>
   </si>
   <si>
@@ -1374,7 +1380,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:BK266"/>
+  <dimension ref="A1:BK269"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -1809,7 +1815,7 @@
         <v>94</v>
       </c>
       <c r="P3" t="s">
-        <v>248</v>
+        <v>250</v>
       </c>
       <c r="Q3">
         <v>5</v>
@@ -2090,7 +2096,7 @@
         <v>2.4</v>
       </c>
       <c r="AT4">
-        <v>0.4</v>
+        <v>0.36</v>
       </c>
       <c r="AU4">
         <v>0</v>
@@ -2278,7 +2284,7 @@
         <v>0</v>
       </c>
       <c r="AS5">
-        <v>1.9</v>
+        <v>2</v>
       </c>
       <c r="AT5">
         <v>0.8</v>
@@ -2382,7 +2388,7 @@
         <v>95</v>
       </c>
       <c r="P6" t="s">
-        <v>249</v>
+        <v>251</v>
       </c>
       <c r="Q6">
         <v>8</v>
@@ -2472,7 +2478,7 @@
         <v>2</v>
       </c>
       <c r="AT6">
-        <v>1</v>
+        <v>0.91</v>
       </c>
       <c r="AU6">
         <v>0</v>
@@ -2573,7 +2579,7 @@
         <v>96</v>
       </c>
       <c r="P7" t="s">
-        <v>250</v>
+        <v>252</v>
       </c>
       <c r="Q7">
         <v>5</v>
@@ -2764,7 +2770,7 @@
         <v>97</v>
       </c>
       <c r="P8" t="s">
-        <v>251</v>
+        <v>253</v>
       </c>
       <c r="Q8">
         <v>1</v>
@@ -2851,7 +2857,7 @@
         <v>0</v>
       </c>
       <c r="AS8">
-        <v>1.6</v>
+        <v>1.73</v>
       </c>
       <c r="AT8">
         <v>0.7</v>
@@ -3146,7 +3152,7 @@
         <v>98</v>
       </c>
       <c r="P10" t="s">
-        <v>252</v>
+        <v>254</v>
       </c>
       <c r="Q10">
         <v>5</v>
@@ -3236,7 +3242,7 @@
         <v>1.2</v>
       </c>
       <c r="AT10">
-        <v>1.11</v>
+        <v>1.1</v>
       </c>
       <c r="AU10">
         <v>0</v>
@@ -3615,7 +3621,7 @@
         <v>0</v>
       </c>
       <c r="AS12">
-        <v>1.7</v>
+        <v>1.64</v>
       </c>
       <c r="AT12">
         <v>0.8</v>
@@ -3910,7 +3916,7 @@
         <v>100</v>
       </c>
       <c r="P14" t="s">
-        <v>253</v>
+        <v>255</v>
       </c>
       <c r="Q14">
         <v>5</v>
@@ -4292,7 +4298,7 @@
         <v>101</v>
       </c>
       <c r="P16" t="s">
-        <v>254</v>
+        <v>256</v>
       </c>
       <c r="Q16">
         <v>10</v>
@@ -4865,7 +4871,7 @@
         <v>103</v>
       </c>
       <c r="P19" t="s">
-        <v>255</v>
+        <v>257</v>
       </c>
       <c r="Q19">
         <v>4</v>
@@ -5056,7 +5062,7 @@
         <v>104</v>
       </c>
       <c r="P20" t="s">
-        <v>256</v>
+        <v>258</v>
       </c>
       <c r="Q20">
         <v>1</v>
@@ -5629,7 +5635,7 @@
         <v>106</v>
       </c>
       <c r="P23" t="s">
-        <v>257</v>
+        <v>259</v>
       </c>
       <c r="Q23">
         <v>8</v>
@@ -5907,7 +5913,7 @@
         <v>0</v>
       </c>
       <c r="AS24">
-        <v>1.7</v>
+        <v>1.64</v>
       </c>
       <c r="AT24">
         <v>1.11</v>
@@ -6202,7 +6208,7 @@
         <v>96</v>
       </c>
       <c r="P26" t="s">
-        <v>258</v>
+        <v>260</v>
       </c>
       <c r="Q26">
         <v>4</v>
@@ -6393,7 +6399,7 @@
         <v>96</v>
       </c>
       <c r="P27" t="s">
-        <v>259</v>
+        <v>261</v>
       </c>
       <c r="Q27">
         <v>5</v>
@@ -6584,7 +6590,7 @@
         <v>96</v>
       </c>
       <c r="P28" t="s">
-        <v>260</v>
+        <v>262</v>
       </c>
       <c r="Q28">
         <v>7</v>
@@ -6775,7 +6781,7 @@
         <v>108</v>
       </c>
       <c r="P29" t="s">
-        <v>261</v>
+        <v>263</v>
       </c>
       <c r="Q29">
         <v>8</v>
@@ -6966,7 +6972,7 @@
         <v>96</v>
       </c>
       <c r="P30" t="s">
-        <v>262</v>
+        <v>264</v>
       </c>
       <c r="Q30">
         <v>11</v>
@@ -7730,7 +7736,7 @@
         <v>102</v>
       </c>
       <c r="P34" t="s">
-        <v>263</v>
+        <v>265</v>
       </c>
       <c r="Q34">
         <v>3</v>
@@ -7817,7 +7823,7 @@
         <v>0</v>
       </c>
       <c r="AS34">
-        <v>1.6</v>
+        <v>1.73</v>
       </c>
       <c r="AT34">
         <v>0.8</v>
@@ -7921,7 +7927,7 @@
         <v>111</v>
       </c>
       <c r="P35" t="s">
-        <v>264</v>
+        <v>266</v>
       </c>
       <c r="Q35">
         <v>6</v>
@@ -8008,7 +8014,7 @@
         <v>0</v>
       </c>
       <c r="AS35">
-        <v>1.9</v>
+        <v>2</v>
       </c>
       <c r="AT35">
         <v>1.11</v>
@@ -8393,7 +8399,7 @@
         <v>2.6</v>
       </c>
       <c r="AT37">
-        <v>0.4</v>
+        <v>0.36</v>
       </c>
       <c r="AU37">
         <v>1.18</v>
@@ -9067,7 +9073,7 @@
         <v>114</v>
       </c>
       <c r="P41" t="s">
-        <v>265</v>
+        <v>267</v>
       </c>
       <c r="Q41">
         <v>5</v>
@@ -9157,7 +9163,7 @@
         <v>1.56</v>
       </c>
       <c r="AT41">
-        <v>1</v>
+        <v>0.91</v>
       </c>
       <c r="AU41">
         <v>2.1</v>
@@ -9258,7 +9264,7 @@
         <v>115</v>
       </c>
       <c r="P42" t="s">
-        <v>266</v>
+        <v>268</v>
       </c>
       <c r="Q42">
         <v>5</v>
@@ -9449,7 +9455,7 @@
         <v>96</v>
       </c>
       <c r="P43" t="s">
-        <v>267</v>
+        <v>269</v>
       </c>
       <c r="Q43">
         <v>10</v>
@@ -9539,7 +9545,7 @@
         <v>2</v>
       </c>
       <c r="AT43">
-        <v>1.11</v>
+        <v>1.1</v>
       </c>
       <c r="AU43">
         <v>1.92</v>
@@ -9831,7 +9837,7 @@
         <v>96</v>
       </c>
       <c r="P45" t="s">
-        <v>268</v>
+        <v>270</v>
       </c>
       <c r="Q45">
         <v>3</v>
@@ -10404,7 +10410,7 @@
         <v>96</v>
       </c>
       <c r="P48" t="s">
-        <v>269</v>
+        <v>271</v>
       </c>
       <c r="Q48">
         <v>4</v>
@@ -11446,7 +11452,7 @@
         <v>3</v>
       </c>
       <c r="AS53">
-        <v>1.7</v>
+        <v>1.64</v>
       </c>
       <c r="AT53">
         <v>0.78</v>
@@ -11550,7 +11556,7 @@
         <v>96</v>
       </c>
       <c r="P54" t="s">
-        <v>270</v>
+        <v>272</v>
       </c>
       <c r="Q54">
         <v>4</v>
@@ -11828,7 +11834,7 @@
         <v>1</v>
       </c>
       <c r="AS55">
-        <v>1.9</v>
+        <v>2</v>
       </c>
       <c r="AT55">
         <v>1.11</v>
@@ -11932,7 +11938,7 @@
         <v>96</v>
       </c>
       <c r="P56" t="s">
-        <v>271</v>
+        <v>273</v>
       </c>
       <c r="Q56">
         <v>6</v>
@@ -12123,7 +12129,7 @@
         <v>124</v>
       </c>
       <c r="P57" t="s">
-        <v>272</v>
+        <v>274</v>
       </c>
       <c r="Q57">
         <v>3</v>
@@ -12314,7 +12320,7 @@
         <v>96</v>
       </c>
       <c r="P58" t="s">
-        <v>273</v>
+        <v>275</v>
       </c>
       <c r="Q58">
         <v>2</v>
@@ -12404,7 +12410,7 @@
         <v>2</v>
       </c>
       <c r="AT58">
-        <v>1</v>
+        <v>0.91</v>
       </c>
       <c r="AU58">
         <v>0.67</v>
@@ -12887,7 +12893,7 @@
         <v>127</v>
       </c>
       <c r="P61" t="s">
-        <v>274</v>
+        <v>276</v>
       </c>
       <c r="Q61">
         <v>4</v>
@@ -12974,7 +12980,7 @@
         <v>3</v>
       </c>
       <c r="AS61">
-        <v>1.6</v>
+        <v>1.73</v>
       </c>
       <c r="AT61">
         <v>2</v>
@@ -13269,7 +13275,7 @@
         <v>129</v>
       </c>
       <c r="P63" t="s">
-        <v>275</v>
+        <v>277</v>
       </c>
       <c r="Q63">
         <v>4</v>
@@ -13842,7 +13848,7 @@
         <v>132</v>
       </c>
       <c r="P66" t="s">
-        <v>276</v>
+        <v>278</v>
       </c>
       <c r="Q66">
         <v>11</v>
@@ -13932,7 +13938,7 @@
         <v>2.63</v>
       </c>
       <c r="AT66">
-        <v>0.4</v>
+        <v>0.36</v>
       </c>
       <c r="AU66">
         <v>1.25</v>
@@ -14033,7 +14039,7 @@
         <v>133</v>
       </c>
       <c r="P67" t="s">
-        <v>263</v>
+        <v>265</v>
       </c>
       <c r="Q67">
         <v>2</v>
@@ -14696,7 +14702,7 @@
         <v>1.56</v>
       </c>
       <c r="AT70">
-        <v>1.11</v>
+        <v>1.1</v>
       </c>
       <c r="AU70">
         <v>1.87</v>
@@ -15179,7 +15185,7 @@
         <v>137</v>
       </c>
       <c r="P73" t="s">
-        <v>277</v>
+        <v>279</v>
       </c>
       <c r="Q73">
         <v>13</v>
@@ -15457,7 +15463,7 @@
         <v>0.5</v>
       </c>
       <c r="AS74">
-        <v>1.6</v>
+        <v>1.73</v>
       </c>
       <c r="AT74">
         <v>1.11</v>
@@ -15752,7 +15758,7 @@
         <v>96</v>
       </c>
       <c r="P76" t="s">
-        <v>278</v>
+        <v>280</v>
       </c>
       <c r="Q76">
         <v>10</v>
@@ -16516,7 +16522,7 @@
         <v>141</v>
       </c>
       <c r="P80" t="s">
-        <v>279</v>
+        <v>281</v>
       </c>
       <c r="Q80">
         <v>5</v>
@@ -16898,7 +16904,7 @@
         <v>142</v>
       </c>
       <c r="P82" t="s">
-        <v>280</v>
+        <v>282</v>
       </c>
       <c r="Q82">
         <v>2</v>
@@ -16985,7 +16991,7 @@
         <v>0.5</v>
       </c>
       <c r="AS82">
-        <v>1.9</v>
+        <v>2</v>
       </c>
       <c r="AT82">
         <v>0.63</v>
@@ -17280,7 +17286,7 @@
         <v>96</v>
       </c>
       <c r="P84" t="s">
-        <v>281</v>
+        <v>283</v>
       </c>
       <c r="Q84">
         <v>4</v>
@@ -17558,7 +17564,7 @@
         <v>3</v>
       </c>
       <c r="AS85">
-        <v>1.7</v>
+        <v>1.64</v>
       </c>
       <c r="AT85">
         <v>1.75</v>
@@ -17662,7 +17668,7 @@
         <v>115</v>
       </c>
       <c r="P86" t="s">
-        <v>282</v>
+        <v>284</v>
       </c>
       <c r="Q86">
         <v>6</v>
@@ -17943,7 +17949,7 @@
         <v>1.89</v>
       </c>
       <c r="AT87">
-        <v>0.4</v>
+        <v>0.36</v>
       </c>
       <c r="AU87">
         <v>1.81</v>
@@ -18044,7 +18050,7 @@
         <v>145</v>
       </c>
       <c r="P88" t="s">
-        <v>283</v>
+        <v>285</v>
       </c>
       <c r="Q88">
         <v>5</v>
@@ -18426,7 +18432,7 @@
         <v>147</v>
       </c>
       <c r="P90" t="s">
-        <v>284</v>
+        <v>286</v>
       </c>
       <c r="Q90">
         <v>8</v>
@@ -18707,7 +18713,7 @@
         <v>1.3</v>
       </c>
       <c r="AT91">
-        <v>1</v>
+        <v>0.91</v>
       </c>
       <c r="AU91">
         <v>1.27</v>
@@ -18898,7 +18904,7 @@
         <v>2</v>
       </c>
       <c r="AT92">
-        <v>1.11</v>
+        <v>1.1</v>
       </c>
       <c r="AU92">
         <v>0.97</v>
@@ -19381,7 +19387,7 @@
         <v>151</v>
       </c>
       <c r="P95" t="s">
-        <v>285</v>
+        <v>287</v>
       </c>
       <c r="Q95">
         <v>9</v>
@@ -19954,7 +19960,7 @@
         <v>153</v>
       </c>
       <c r="P98" t="s">
-        <v>286</v>
+        <v>288</v>
       </c>
       <c r="Q98">
         <v>6</v>
@@ -20145,7 +20151,7 @@
         <v>154</v>
       </c>
       <c r="P99" t="s">
-        <v>283</v>
+        <v>285</v>
       </c>
       <c r="Q99">
         <v>5</v>
@@ -20336,7 +20342,7 @@
         <v>155</v>
       </c>
       <c r="P100" t="s">
-        <v>287</v>
+        <v>289</v>
       </c>
       <c r="Q100">
         <v>1</v>
@@ -20617,7 +20623,7 @@
         <v>1.44</v>
       </c>
       <c r="AT101">
-        <v>1</v>
+        <v>0.91</v>
       </c>
       <c r="AU101">
         <v>1.12</v>
@@ -20718,7 +20724,7 @@
         <v>157</v>
       </c>
       <c r="P102" t="s">
-        <v>288</v>
+        <v>290</v>
       </c>
       <c r="Q102">
         <v>2</v>
@@ -20996,7 +21002,7 @@
         <v>2.33</v>
       </c>
       <c r="AS103">
-        <v>1.6</v>
+        <v>1.73</v>
       </c>
       <c r="AT103">
         <v>1.75</v>
@@ -21100,7 +21106,7 @@
         <v>159</v>
       </c>
       <c r="P104" t="s">
-        <v>256</v>
+        <v>258</v>
       </c>
       <c r="Q104">
         <v>6</v>
@@ -21291,7 +21297,7 @@
         <v>160</v>
       </c>
       <c r="P105" t="s">
-        <v>289</v>
+        <v>291</v>
       </c>
       <c r="Q105">
         <v>5</v>
@@ -21482,7 +21488,7 @@
         <v>161</v>
       </c>
       <c r="P106" t="s">
-        <v>284</v>
+        <v>286</v>
       </c>
       <c r="Q106">
         <v>11</v>
@@ -21673,7 +21679,7 @@
         <v>162</v>
       </c>
       <c r="P107" t="s">
-        <v>290</v>
+        <v>292</v>
       </c>
       <c r="Q107">
         <v>8</v>
@@ -21760,7 +21766,7 @@
         <v>1.33</v>
       </c>
       <c r="AS107">
-        <v>1.7</v>
+        <v>1.64</v>
       </c>
       <c r="AT107">
         <v>0.78</v>
@@ -21951,7 +21957,7 @@
         <v>0</v>
       </c>
       <c r="AS108">
-        <v>1.9</v>
+        <v>2</v>
       </c>
       <c r="AT108">
         <v>0.5600000000000001</v>
@@ -22055,7 +22061,7 @@
         <v>96</v>
       </c>
       <c r="P109" t="s">
-        <v>291</v>
+        <v>293</v>
       </c>
       <c r="Q109">
         <v>9</v>
@@ -22628,7 +22634,7 @@
         <v>96</v>
       </c>
       <c r="P112" t="s">
-        <v>292</v>
+        <v>294</v>
       </c>
       <c r="Q112">
         <v>9</v>
@@ -23965,7 +23971,7 @@
         <v>96</v>
       </c>
       <c r="P119" t="s">
-        <v>293</v>
+        <v>295</v>
       </c>
       <c r="Q119">
         <v>0</v>
@@ -24347,7 +24353,7 @@
         <v>169</v>
       </c>
       <c r="P121" t="s">
-        <v>294</v>
+        <v>296</v>
       </c>
       <c r="Q121">
         <v>5</v>
@@ -24628,7 +24634,7 @@
         <v>1.33</v>
       </c>
       <c r="AT122">
-        <v>1.11</v>
+        <v>1.1</v>
       </c>
       <c r="AU122">
         <v>1.77</v>
@@ -24729,7 +24735,7 @@
         <v>96</v>
       </c>
       <c r="P123" t="s">
-        <v>295</v>
+        <v>297</v>
       </c>
       <c r="Q123">
         <v>8</v>
@@ -25111,7 +25117,7 @@
         <v>96</v>
       </c>
       <c r="P125" t="s">
-        <v>296</v>
+        <v>298</v>
       </c>
       <c r="Q125">
         <v>6</v>
@@ -25583,7 +25589,7 @@
         <v>1.3</v>
       </c>
       <c r="AT127">
-        <v>0.4</v>
+        <v>0.36</v>
       </c>
       <c r="AU127">
         <v>1.29</v>
@@ -25771,7 +25777,7 @@
         <v>1.75</v>
       </c>
       <c r="AS128">
-        <v>1.6</v>
+        <v>1.73</v>
       </c>
       <c r="AT128">
         <v>0.78</v>
@@ -25965,7 +25971,7 @@
         <v>2.44</v>
       </c>
       <c r="AT129">
-        <v>0.4</v>
+        <v>0.36</v>
       </c>
       <c r="AU129">
         <v>1.27</v>
@@ -26066,7 +26072,7 @@
         <v>173</v>
       </c>
       <c r="P130" t="s">
-        <v>297</v>
+        <v>299</v>
       </c>
       <c r="Q130">
         <v>5</v>
@@ -26344,7 +26350,7 @@
         <v>1</v>
       </c>
       <c r="AS131">
-        <v>1.9</v>
+        <v>2</v>
       </c>
       <c r="AT131">
         <v>0.78</v>
@@ -26639,7 +26645,7 @@
         <v>176</v>
       </c>
       <c r="P133" t="s">
-        <v>253</v>
+        <v>255</v>
       </c>
       <c r="Q133">
         <v>4</v>
@@ -26830,7 +26836,7 @@
         <v>96</v>
       </c>
       <c r="P134" t="s">
-        <v>298</v>
+        <v>300</v>
       </c>
       <c r="Q134">
         <v>7</v>
@@ -27021,7 +27027,7 @@
         <v>159</v>
       </c>
       <c r="P135" t="s">
-        <v>299</v>
+        <v>301</v>
       </c>
       <c r="Q135">
         <v>6</v>
@@ -27212,7 +27218,7 @@
         <v>177</v>
       </c>
       <c r="P136" t="s">
-        <v>262</v>
+        <v>264</v>
       </c>
       <c r="Q136">
         <v>10</v>
@@ -27403,7 +27409,7 @@
         <v>178</v>
       </c>
       <c r="P137" t="s">
-        <v>300</v>
+        <v>302</v>
       </c>
       <c r="Q137">
         <v>4</v>
@@ -27594,7 +27600,7 @@
         <v>115</v>
       </c>
       <c r="P138" t="s">
-        <v>301</v>
+        <v>303</v>
       </c>
       <c r="Q138">
         <v>2</v>
@@ -27684,7 +27690,7 @@
         <v>2</v>
       </c>
       <c r="AT138">
-        <v>1</v>
+        <v>0.91</v>
       </c>
       <c r="AU138">
         <v>1.49</v>
@@ -27976,7 +27982,7 @@
         <v>96</v>
       </c>
       <c r="P140" t="s">
-        <v>302</v>
+        <v>304</v>
       </c>
       <c r="Q140">
         <v>4</v>
@@ -28167,7 +28173,7 @@
         <v>177</v>
       </c>
       <c r="P141" t="s">
-        <v>303</v>
+        <v>305</v>
       </c>
       <c r="Q141">
         <v>4</v>
@@ -28254,7 +28260,7 @@
         <v>0.75</v>
       </c>
       <c r="AS141">
-        <v>1.7</v>
+        <v>1.64</v>
       </c>
       <c r="AT141">
         <v>0.89</v>
@@ -28549,7 +28555,7 @@
         <v>179</v>
       </c>
       <c r="P143" t="s">
-        <v>264</v>
+        <v>266</v>
       </c>
       <c r="Q143">
         <v>5</v>
@@ -28931,7 +28937,7 @@
         <v>96</v>
       </c>
       <c r="P145" t="s">
-        <v>304</v>
+        <v>306</v>
       </c>
       <c r="Q145">
         <v>6</v>
@@ -29122,7 +29128,7 @@
         <v>125</v>
       </c>
       <c r="P146" t="s">
-        <v>271</v>
+        <v>273</v>
       </c>
       <c r="Q146">
         <v>7</v>
@@ -29212,7 +29218,7 @@
         <v>1.3</v>
       </c>
       <c r="AT146">
-        <v>1.11</v>
+        <v>1.1</v>
       </c>
       <c r="AU146">
         <v>1.4</v>
@@ -30268,7 +30274,7 @@
         <v>183</v>
       </c>
       <c r="P152" t="s">
-        <v>305</v>
+        <v>307</v>
       </c>
       <c r="Q152">
         <v>1</v>
@@ -30459,7 +30465,7 @@
         <v>184</v>
       </c>
       <c r="P153" t="s">
-        <v>306</v>
+        <v>308</v>
       </c>
       <c r="Q153">
         <v>1</v>
@@ -31310,7 +31316,7 @@
         <v>1.4</v>
       </c>
       <c r="AS157">
-        <v>1.7</v>
+        <v>1.64</v>
       </c>
       <c r="AT157">
         <v>1.67</v>
@@ -31605,7 +31611,7 @@
         <v>96</v>
       </c>
       <c r="P159" t="s">
-        <v>307</v>
+        <v>309</v>
       </c>
       <c r="Q159">
         <v>15</v>
@@ -31886,7 +31892,7 @@
         <v>1</v>
       </c>
       <c r="AT160">
-        <v>1</v>
+        <v>0.91</v>
       </c>
       <c r="AU160">
         <v>1.48</v>
@@ -32369,7 +32375,7 @@
         <v>96</v>
       </c>
       <c r="P163" t="s">
-        <v>308</v>
+        <v>310</v>
       </c>
       <c r="Q163">
         <v>1</v>
@@ -32647,7 +32653,7 @@
         <v>1.4</v>
       </c>
       <c r="AS164">
-        <v>1.9</v>
+        <v>2</v>
       </c>
       <c r="AT164">
         <v>1.33</v>
@@ -32838,7 +32844,7 @@
         <v>1.2</v>
       </c>
       <c r="AS165">
-        <v>1.6</v>
+        <v>1.73</v>
       </c>
       <c r="AT165">
         <v>0.89</v>
@@ -33223,7 +33229,7 @@
         <v>1.33</v>
       </c>
       <c r="AT167">
-        <v>0.4</v>
+        <v>0.36</v>
       </c>
       <c r="AU167">
         <v>1.79</v>
@@ -33324,7 +33330,7 @@
         <v>189</v>
       </c>
       <c r="P168" t="s">
-        <v>309</v>
+        <v>311</v>
       </c>
       <c r="Q168">
         <v>3</v>
@@ -33515,7 +33521,7 @@
         <v>190</v>
       </c>
       <c r="P169" t="s">
-        <v>310</v>
+        <v>312</v>
       </c>
       <c r="Q169">
         <v>1</v>
@@ -33605,7 +33611,7 @@
         <v>2</v>
       </c>
       <c r="AT169">
-        <v>1.11</v>
+        <v>1.1</v>
       </c>
       <c r="AU169">
         <v>1.4</v>
@@ -33706,7 +33712,7 @@
         <v>191</v>
       </c>
       <c r="P170" t="s">
-        <v>256</v>
+        <v>258</v>
       </c>
       <c r="Q170">
         <v>7</v>
@@ -33897,7 +33903,7 @@
         <v>192</v>
       </c>
       <c r="P171" t="s">
-        <v>283</v>
+        <v>285</v>
       </c>
       <c r="Q171">
         <v>3</v>
@@ -34088,7 +34094,7 @@
         <v>193</v>
       </c>
       <c r="P172" t="s">
-        <v>272</v>
+        <v>274</v>
       </c>
       <c r="Q172">
         <v>4</v>
@@ -34470,7 +34476,7 @@
         <v>96</v>
       </c>
       <c r="P174" t="s">
-        <v>311</v>
+        <v>313</v>
       </c>
       <c r="Q174">
         <v>5</v>
@@ -34852,7 +34858,7 @@
         <v>194</v>
       </c>
       <c r="P176" t="s">
-        <v>312</v>
+        <v>314</v>
       </c>
       <c r="Q176">
         <v>2</v>
@@ -35616,7 +35622,7 @@
         <v>96</v>
       </c>
       <c r="P180" t="s">
-        <v>313</v>
+        <v>315</v>
       </c>
       <c r="Q180">
         <v>5</v>
@@ -35807,7 +35813,7 @@
         <v>198</v>
       </c>
       <c r="P181" t="s">
-        <v>314</v>
+        <v>316</v>
       </c>
       <c r="Q181">
         <v>6</v>
@@ -35998,7 +36004,7 @@
         <v>199</v>
       </c>
       <c r="P182" t="s">
-        <v>315</v>
+        <v>317</v>
       </c>
       <c r="Q182">
         <v>12</v>
@@ -36380,7 +36386,7 @@
         <v>201</v>
       </c>
       <c r="P184" t="s">
-        <v>316</v>
+        <v>318</v>
       </c>
       <c r="Q184">
         <v>5</v>
@@ -36467,7 +36473,7 @@
         <v>1.67</v>
       </c>
       <c r="AS184">
-        <v>1.6</v>
+        <v>1.73</v>
       </c>
       <c r="AT184">
         <v>1.67</v>
@@ -36571,7 +36577,7 @@
         <v>202</v>
       </c>
       <c r="P185" t="s">
-        <v>317</v>
+        <v>319</v>
       </c>
       <c r="Q185">
         <v>4</v>
@@ -36953,7 +36959,7 @@
         <v>203</v>
       </c>
       <c r="P187" t="s">
-        <v>318</v>
+        <v>320</v>
       </c>
       <c r="Q187">
         <v>2</v>
@@ -37043,7 +37049,7 @@
         <v>1.33</v>
       </c>
       <c r="AT187">
-        <v>0.4</v>
+        <v>0.36</v>
       </c>
       <c r="AU187">
         <v>1.32</v>
@@ -37526,7 +37532,7 @@
         <v>200</v>
       </c>
       <c r="P190" t="s">
-        <v>308</v>
+        <v>310</v>
       </c>
       <c r="Q190">
         <v>3</v>
@@ -37616,7 +37622,7 @@
         <v>1.67</v>
       </c>
       <c r="AT190">
-        <v>1</v>
+        <v>0.91</v>
       </c>
       <c r="AU190">
         <v>1.6</v>
@@ -37908,7 +37914,7 @@
         <v>96</v>
       </c>
       <c r="P192" t="s">
-        <v>319</v>
+        <v>321</v>
       </c>
       <c r="Q192">
         <v>6</v>
@@ -38186,7 +38192,7 @@
         <v>1.17</v>
       </c>
       <c r="AS193">
-        <v>1.7</v>
+        <v>1.64</v>
       </c>
       <c r="AT193">
         <v>0.89</v>
@@ -38759,7 +38765,7 @@
         <v>1</v>
       </c>
       <c r="AS196">
-        <v>1.9</v>
+        <v>2</v>
       </c>
       <c r="AT196">
         <v>0.8</v>
@@ -39818,7 +39824,7 @@
         <v>211</v>
       </c>
       <c r="P202" t="s">
-        <v>320</v>
+        <v>322</v>
       </c>
       <c r="Q202">
         <v>8</v>
@@ -40582,7 +40588,7 @@
         <v>214</v>
       </c>
       <c r="P206" t="s">
-        <v>321</v>
+        <v>323</v>
       </c>
       <c r="Q206">
         <v>1</v>
@@ -41155,7 +41161,7 @@
         <v>215</v>
       </c>
       <c r="P209" t="s">
-        <v>322</v>
+        <v>324</v>
       </c>
       <c r="Q209">
         <v>5</v>
@@ -41728,7 +41734,7 @@
         <v>216</v>
       </c>
       <c r="P212" t="s">
-        <v>323</v>
+        <v>325</v>
       </c>
       <c r="Q212">
         <v>2</v>
@@ -41919,7 +41925,7 @@
         <v>217</v>
       </c>
       <c r="P213" t="s">
-        <v>324</v>
+        <v>326</v>
       </c>
       <c r="Q213">
         <v>12</v>
@@ -42009,7 +42015,7 @@
         <v>1.3</v>
       </c>
       <c r="AT213">
-        <v>1</v>
+        <v>0.91</v>
       </c>
       <c r="AU213">
         <v>1.42</v>
@@ -42110,7 +42116,7 @@
         <v>110</v>
       </c>
       <c r="P214" t="s">
-        <v>325</v>
+        <v>327</v>
       </c>
       <c r="Q214">
         <v>9</v>
@@ -42391,7 +42397,7 @@
         <v>2.22</v>
       </c>
       <c r="AT215">
-        <v>0.4</v>
+        <v>0.36</v>
       </c>
       <c r="AU215">
         <v>1.1</v>
@@ -42961,7 +42967,7 @@
         <v>1</v>
       </c>
       <c r="AS218">
-        <v>1.6</v>
+        <v>1.73</v>
       </c>
       <c r="AT218">
         <v>0.89</v>
@@ -43152,7 +43158,7 @@
         <v>1.63</v>
       </c>
       <c r="AS219">
-        <v>1.7</v>
+        <v>1.64</v>
       </c>
       <c r="AT219">
         <v>1.3</v>
@@ -43256,7 +43262,7 @@
         <v>223</v>
       </c>
       <c r="P220" t="s">
-        <v>269</v>
+        <v>271</v>
       </c>
       <c r="Q220">
         <v>3</v>
@@ -43343,7 +43349,7 @@
         <v>2.38</v>
       </c>
       <c r="AS220">
-        <v>1.9</v>
+        <v>2</v>
       </c>
       <c r="AT220">
         <v>2</v>
@@ -43447,7 +43453,7 @@
         <v>224</v>
       </c>
       <c r="P221" t="s">
-        <v>326</v>
+        <v>328</v>
       </c>
       <c r="Q221">
         <v>4</v>
@@ -43638,7 +43644,7 @@
         <v>96</v>
       </c>
       <c r="P222" t="s">
-        <v>327</v>
+        <v>329</v>
       </c>
       <c r="Q222">
         <v>14</v>
@@ -43919,7 +43925,7 @@
         <v>1.67</v>
       </c>
       <c r="AT223">
-        <v>1.11</v>
+        <v>1.1</v>
       </c>
       <c r="AU223">
         <v>1.53</v>
@@ -46312,7 +46318,7 @@
         <v>201</v>
       </c>
       <c r="P236" t="s">
-        <v>317</v>
+        <v>319</v>
       </c>
       <c r="Q236">
         <v>9</v>
@@ -46784,7 +46790,7 @@
         <v>1.11</v>
       </c>
       <c r="AT238">
-        <v>0.4</v>
+        <v>0.36</v>
       </c>
       <c r="AU238">
         <v>1.43</v>
@@ -47163,7 +47169,7 @@
         <v>1.44</v>
       </c>
       <c r="AS240">
-        <v>1.6</v>
+        <v>1.73</v>
       </c>
       <c r="AT240">
         <v>1.3</v>
@@ -47357,7 +47363,7 @@
         <v>1.3</v>
       </c>
       <c r="AT241">
-        <v>1.11</v>
+        <v>1.1</v>
       </c>
       <c r="AU241">
         <v>1.44</v>
@@ -47927,7 +47933,7 @@
         <v>1</v>
       </c>
       <c r="AS244">
-        <v>1.9</v>
+        <v>2</v>
       </c>
       <c r="AT244">
         <v>0.9</v>
@@ -48118,10 +48124,10 @@
         <v>1.11</v>
       </c>
       <c r="AS245">
-        <v>1.7</v>
+        <v>1.64</v>
       </c>
       <c r="AT245">
-        <v>1</v>
+        <v>0.91</v>
       </c>
       <c r="AU245">
         <v>1.67</v>
@@ -48413,7 +48419,7 @@
         <v>235</v>
       </c>
       <c r="P247" t="s">
-        <v>328</v>
+        <v>330</v>
       </c>
       <c r="Q247">
         <v>1</v>
@@ -48604,7 +48610,7 @@
         <v>96</v>
       </c>
       <c r="P248" t="s">
-        <v>266</v>
+        <v>268</v>
       </c>
       <c r="Q248">
         <v>7</v>
@@ -49177,7 +49183,7 @@
         <v>237</v>
       </c>
       <c r="P251" t="s">
-        <v>329</v>
+        <v>331</v>
       </c>
       <c r="Q251">
         <v>3</v>
@@ -49750,7 +49756,7 @@
         <v>238</v>
       </c>
       <c r="P254" t="s">
-        <v>330</v>
+        <v>332</v>
       </c>
       <c r="Q254">
         <v>7</v>
@@ -49941,7 +49947,7 @@
         <v>239</v>
       </c>
       <c r="P255" t="s">
-        <v>331</v>
+        <v>333</v>
       </c>
       <c r="Q255">
         <v>6</v>
@@ -50705,7 +50711,7 @@
         <v>242</v>
       </c>
       <c r="P259" t="s">
-        <v>332</v>
+        <v>334</v>
       </c>
       <c r="Q259">
         <v>2</v>
@@ -51469,7 +51475,7 @@
         <v>245</v>
       </c>
       <c r="P263" t="s">
-        <v>271</v>
+        <v>273</v>
       </c>
       <c r="Q263">
         <v>7</v>
@@ -52184,6 +52190,579 @@
       </c>
       <c r="BK266">
         <v>4</v>
+      </c>
+    </row>
+    <row r="267" spans="1:63">
+      <c r="A267" s="1">
+        <v>266</v>
+      </c>
+      <c r="B267">
+        <v>4554671</v>
+      </c>
+      <c r="C267" t="s">
+        <v>63</v>
+      </c>
+      <c r="D267" t="s">
+        <v>64</v>
+      </c>
+      <c r="E267" s="2">
+        <v>45087.79166666666</v>
+      </c>
+      <c r="F267">
+        <v>20</v>
+      </c>
+      <c r="G267" t="s">
+        <v>71</v>
+      </c>
+      <c r="H267" t="s">
+        <v>79</v>
+      </c>
+      <c r="I267">
+        <v>0</v>
+      </c>
+      <c r="J267">
+        <v>0</v>
+      </c>
+      <c r="K267">
+        <v>0</v>
+      </c>
+      <c r="L267">
+        <v>1</v>
+      </c>
+      <c r="M267">
+        <v>0</v>
+      </c>
+      <c r="N267">
+        <v>1</v>
+      </c>
+      <c r="O267" t="s">
+        <v>248</v>
+      </c>
+      <c r="P267" t="s">
+        <v>96</v>
+      </c>
+      <c r="Q267">
+        <v>2</v>
+      </c>
+      <c r="R267">
+        <v>6</v>
+      </c>
+      <c r="S267">
+        <v>8</v>
+      </c>
+      <c r="T267">
+        <v>3.3</v>
+      </c>
+      <c r="U267">
+        <v>1.98</v>
+      </c>
+      <c r="V267">
+        <v>3.52</v>
+      </c>
+      <c r="W267">
+        <v>1.5</v>
+      </c>
+      <c r="X267">
+        <v>2.49</v>
+      </c>
+      <c r="Y267">
+        <v>3.34</v>
+      </c>
+      <c r="Z267">
+        <v>1.3</v>
+      </c>
+      <c r="AA267">
+        <v>9.1</v>
+      </c>
+      <c r="AB267">
+        <v>1.05</v>
+      </c>
+      <c r="AC267">
+        <v>2.55</v>
+      </c>
+      <c r="AD267">
+        <v>2.9</v>
+      </c>
+      <c r="AE267">
+        <v>2.63</v>
+      </c>
+      <c r="AF267">
+        <v>1.05</v>
+      </c>
+      <c r="AG267">
+        <v>7.1</v>
+      </c>
+      <c r="AH267">
+        <v>1.41</v>
+      </c>
+      <c r="AI267">
+        <v>2.64</v>
+      </c>
+      <c r="AJ267">
+        <v>2.25</v>
+      </c>
+      <c r="AK267">
+        <v>1.55</v>
+      </c>
+      <c r="AL267">
+        <v>1.97</v>
+      </c>
+      <c r="AM267">
+        <v>1.8</v>
+      </c>
+      <c r="AN267">
+        <v>1.44</v>
+      </c>
+      <c r="AO267">
+        <v>1.35</v>
+      </c>
+      <c r="AP267">
+        <v>1.48</v>
+      </c>
+      <c r="AQ267">
+        <v>1.6</v>
+      </c>
+      <c r="AR267">
+        <v>1</v>
+      </c>
+      <c r="AS267">
+        <v>1.73</v>
+      </c>
+      <c r="AT267">
+        <v>0.91</v>
+      </c>
+      <c r="AU267">
+        <v>1.48</v>
+      </c>
+      <c r="AV267">
+        <v>1.49</v>
+      </c>
+      <c r="AW267">
+        <v>2.97</v>
+      </c>
+      <c r="AX267">
+        <v>1.91</v>
+      </c>
+      <c r="AY267">
+        <v>7</v>
+      </c>
+      <c r="AZ267">
+        <v>2.32</v>
+      </c>
+      <c r="BA267">
+        <v>1.36</v>
+      </c>
+      <c r="BB267">
+        <v>1.66</v>
+      </c>
+      <c r="BC267">
+        <v>2.12</v>
+      </c>
+      <c r="BD267">
+        <v>2.9</v>
+      </c>
+      <c r="BE267">
+        <v>4.1</v>
+      </c>
+      <c r="BF267">
+        <v>3</v>
+      </c>
+      <c r="BG267">
+        <v>3</v>
+      </c>
+      <c r="BH267">
+        <v>4</v>
+      </c>
+      <c r="BI267">
+        <v>7</v>
+      </c>
+      <c r="BJ267">
+        <v>7</v>
+      </c>
+      <c r="BK267">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="268" spans="1:63">
+      <c r="A268" s="1">
+        <v>267</v>
+      </c>
+      <c r="B268">
+        <v>4554673</v>
+      </c>
+      <c r="C268" t="s">
+        <v>63</v>
+      </c>
+      <c r="D268" t="s">
+        <v>64</v>
+      </c>
+      <c r="E268" s="2">
+        <v>45087.83333333334</v>
+      </c>
+      <c r="F268">
+        <v>20</v>
+      </c>
+      <c r="G268" t="s">
+        <v>75</v>
+      </c>
+      <c r="H268" t="s">
+        <v>84</v>
+      </c>
+      <c r="I268">
+        <v>0</v>
+      </c>
+      <c r="J268">
+        <v>1</v>
+      </c>
+      <c r="K268">
+        <v>1</v>
+      </c>
+      <c r="L268">
+        <v>1</v>
+      </c>
+      <c r="M268">
+        <v>1</v>
+      </c>
+      <c r="N268">
+        <v>2</v>
+      </c>
+      <c r="O268" t="s">
+        <v>249</v>
+      </c>
+      <c r="P268" t="s">
+        <v>291</v>
+      </c>
+      <c r="Q268">
+        <v>6</v>
+      </c>
+      <c r="R268">
+        <v>4</v>
+      </c>
+      <c r="S268">
+        <v>10</v>
+      </c>
+      <c r="T268">
+        <v>2.5</v>
+      </c>
+      <c r="U268">
+        <v>1.95</v>
+      </c>
+      <c r="V268">
+        <v>4.75</v>
+      </c>
+      <c r="W268">
+        <v>1.5</v>
+      </c>
+      <c r="X268">
+        <v>2.5</v>
+      </c>
+      <c r="Y268">
+        <v>3.4</v>
+      </c>
+      <c r="Z268">
+        <v>1.3</v>
+      </c>
+      <c r="AA268">
+        <v>8</v>
+      </c>
+      <c r="AB268">
+        <v>1.06</v>
+      </c>
+      <c r="AC268">
+        <v>1.91</v>
+      </c>
+      <c r="AD268">
+        <v>3.1</v>
+      </c>
+      <c r="AE268">
+        <v>3.6</v>
+      </c>
+      <c r="AF268">
+        <v>1.1</v>
+      </c>
+      <c r="AG268">
+        <v>6.5</v>
+      </c>
+      <c r="AH268">
+        <v>1.44</v>
+      </c>
+      <c r="AI268">
+        <v>2.62</v>
+      </c>
+      <c r="AJ268">
+        <v>2.38</v>
+      </c>
+      <c r="AK268">
+        <v>1.53</v>
+      </c>
+      <c r="AL268">
+        <v>2.1</v>
+      </c>
+      <c r="AM268">
+        <v>1.67</v>
+      </c>
+      <c r="AN268">
+        <v>1.22</v>
+      </c>
+      <c r="AO268">
+        <v>1.33</v>
+      </c>
+      <c r="AP268">
+        <v>1.8</v>
+      </c>
+      <c r="AQ268">
+        <v>1.7</v>
+      </c>
+      <c r="AR268">
+        <v>1.11</v>
+      </c>
+      <c r="AS268">
+        <v>1.64</v>
+      </c>
+      <c r="AT268">
+        <v>1.1</v>
+      </c>
+      <c r="AU268">
+        <v>1.63</v>
+      </c>
+      <c r="AV268">
+        <v>1.33</v>
+      </c>
+      <c r="AW268">
+        <v>2.96</v>
+      </c>
+      <c r="AX268">
+        <v>1.62</v>
+      </c>
+      <c r="AY268">
+        <v>7</v>
+      </c>
+      <c r="AZ268">
+        <v>2.88</v>
+      </c>
+      <c r="BA268">
+        <v>1.36</v>
+      </c>
+      <c r="BB268">
+        <v>1.67</v>
+      </c>
+      <c r="BC268">
+        <v>2.15</v>
+      </c>
+      <c r="BD268">
+        <v>2.95</v>
+      </c>
+      <c r="BE268">
+        <v>4.1</v>
+      </c>
+      <c r="BF268">
+        <v>6</v>
+      </c>
+      <c r="BG268">
+        <v>5</v>
+      </c>
+      <c r="BH268">
+        <v>4</v>
+      </c>
+      <c r="BI268">
+        <v>5</v>
+      </c>
+      <c r="BJ268">
+        <v>10</v>
+      </c>
+      <c r="BK268">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="269" spans="1:63">
+      <c r="A269" s="1">
+        <v>268</v>
+      </c>
+      <c r="B269">
+        <v>4554672</v>
+      </c>
+      <c r="C269" t="s">
+        <v>63</v>
+      </c>
+      <c r="D269" t="s">
+        <v>64</v>
+      </c>
+      <c r="E269" s="2">
+        <v>45087.89583333334</v>
+      </c>
+      <c r="F269">
+        <v>20</v>
+      </c>
+      <c r="G269" t="s">
+        <v>68</v>
+      </c>
+      <c r="H269" t="s">
+        <v>81</v>
+      </c>
+      <c r="I269">
+        <v>1</v>
+      </c>
+      <c r="J269">
+        <v>0</v>
+      </c>
+      <c r="K269">
+        <v>1</v>
+      </c>
+      <c r="L269">
+        <v>1</v>
+      </c>
+      <c r="M269">
+        <v>0</v>
+      </c>
+      <c r="N269">
+        <v>1</v>
+      </c>
+      <c r="O269" t="s">
+        <v>154</v>
+      </c>
+      <c r="P269" t="s">
+        <v>96</v>
+      </c>
+      <c r="Q269">
+        <v>8</v>
+      </c>
+      <c r="R269">
+        <v>6</v>
+      </c>
+      <c r="S269">
+        <v>14</v>
+      </c>
+      <c r="T269">
+        <v>1.8</v>
+      </c>
+      <c r="U269">
+        <v>2.3</v>
+      </c>
+      <c r="V269">
+        <v>7.5</v>
+      </c>
+      <c r="W269">
+        <v>1.39</v>
+      </c>
+      <c r="X269">
+        <v>3.04</v>
+      </c>
+      <c r="Y269">
+        <v>2.94</v>
+      </c>
+      <c r="Z269">
+        <v>1.41</v>
+      </c>
+      <c r="AA269">
+        <v>6.95</v>
+      </c>
+      <c r="AB269">
+        <v>1.07</v>
+      </c>
+      <c r="AC269">
+        <v>1.36</v>
+      </c>
+      <c r="AD269">
+        <v>4</v>
+      </c>
+      <c r="AE269">
+        <v>8</v>
+      </c>
+      <c r="AF269">
+        <v>1.04</v>
+      </c>
+      <c r="AG269">
+        <v>11</v>
+      </c>
+      <c r="AH269">
+        <v>1.3</v>
+      </c>
+      <c r="AI269">
+        <v>3.5</v>
+      </c>
+      <c r="AJ269">
+        <v>1.89</v>
+      </c>
+      <c r="AK269">
+        <v>1.87</v>
+      </c>
+      <c r="AL269">
+        <v>2.18</v>
+      </c>
+      <c r="AM269">
+        <v>1.65</v>
+      </c>
+      <c r="AN269">
+        <v>1.07</v>
+      </c>
+      <c r="AO269">
+        <v>1.2</v>
+      </c>
+      <c r="AP269">
+        <v>2.92</v>
+      </c>
+      <c r="AQ269">
+        <v>1.9</v>
+      </c>
+      <c r="AR269">
+        <v>0.4</v>
+      </c>
+      <c r="AS269">
+        <v>2</v>
+      </c>
+      <c r="AT269">
+        <v>0.36</v>
+      </c>
+      <c r="AU269">
+        <v>1.51</v>
+      </c>
+      <c r="AV269">
+        <v>1.1</v>
+      </c>
+      <c r="AW269">
+        <v>2.61</v>
+      </c>
+      <c r="AX269">
+        <v>1.29</v>
+      </c>
+      <c r="AY269">
+        <v>8.5</v>
+      </c>
+      <c r="AZ269">
+        <v>4.6</v>
+      </c>
+      <c r="BA269">
+        <v>1.33</v>
+      </c>
+      <c r="BB269">
+        <v>1.6</v>
+      </c>
+      <c r="BC269">
+        <v>2.04</v>
+      </c>
+      <c r="BD269">
+        <v>2.75</v>
+      </c>
+      <c r="BE269">
+        <v>3.85</v>
+      </c>
+      <c r="BF269">
+        <v>5</v>
+      </c>
+      <c r="BG269">
+        <v>3</v>
+      </c>
+      <c r="BH269">
+        <v>4</v>
+      </c>
+      <c r="BI269">
+        <v>3</v>
+      </c>
+      <c r="BJ269">
+        <v>9</v>
+      </c>
+      <c r="BK269">
+        <v>6</v>
       </c>
     </row>
   </sheetData>

--- a/Bases_de_Dados_(2022-2023)/Argentina Primera División_2023.xlsx
+++ b/Bases_de_Dados_(2022-2023)/Argentina Primera División_2023.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1671" uniqueCount="335">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1677" uniqueCount="335">
   <si>
     <t>Id_Jogo</t>
   </si>
@@ -1380,7 +1380,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:BK269"/>
+  <dimension ref="A1:BK270"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -4576,7 +4576,7 @@
         <v>0</v>
       </c>
       <c r="AS17">
-        <v>2.22</v>
+        <v>2.1</v>
       </c>
       <c r="AT17">
         <v>0.63</v>
@@ -11070,7 +11070,7 @@
         <v>0</v>
       </c>
       <c r="AS51">
-        <v>2.22</v>
+        <v>2.1</v>
       </c>
       <c r="AT51">
         <v>0.5600000000000001</v>
@@ -16227,7 +16227,7 @@
         <v>1.5</v>
       </c>
       <c r="AS78">
-        <v>2.22</v>
+        <v>2.1</v>
       </c>
       <c r="AT78">
         <v>0.78</v>
@@ -22339,7 +22339,7 @@
         <v>1.33</v>
       </c>
       <c r="AS110">
-        <v>2.22</v>
+        <v>2.1</v>
       </c>
       <c r="AT110">
         <v>1.33</v>
@@ -27878,7 +27878,7 @@
         <v>1</v>
       </c>
       <c r="AS139">
-        <v>2.22</v>
+        <v>2.1</v>
       </c>
       <c r="AT139">
         <v>0.8</v>
@@ -32462,7 +32462,7 @@
         <v>2.5</v>
       </c>
       <c r="AS163">
-        <v>2.22</v>
+        <v>2.1</v>
       </c>
       <c r="AT163">
         <v>2</v>
@@ -36855,7 +36855,7 @@
         <v>0.71</v>
       </c>
       <c r="AS186">
-        <v>2.22</v>
+        <v>2.1</v>
       </c>
       <c r="AT186">
         <v>0.9</v>
@@ -42394,7 +42394,7 @@
         <v>0.5</v>
       </c>
       <c r="AS215">
-        <v>2.22</v>
+        <v>2.1</v>
       </c>
       <c r="AT215">
         <v>0.36</v>
@@ -48315,7 +48315,7 @@
         <v>1.22</v>
       </c>
       <c r="AS246">
-        <v>2.22</v>
+        <v>2.1</v>
       </c>
       <c r="AT246">
         <v>1.1</v>
@@ -52763,6 +52763,197 @@
       </c>
       <c r="BK269">
         <v>6</v>
+      </c>
+    </row>
+    <row r="270" spans="1:63">
+      <c r="A270" s="1">
+        <v>269</v>
+      </c>
+      <c r="B270">
+        <v>4554675</v>
+      </c>
+      <c r="C270" t="s">
+        <v>63</v>
+      </c>
+      <c r="D270" t="s">
+        <v>64</v>
+      </c>
+      <c r="E270" s="2">
+        <v>45089.58333333334</v>
+      </c>
+      <c r="F270">
+        <v>20</v>
+      </c>
+      <c r="G270" t="s">
+        <v>80</v>
+      </c>
+      <c r="H270" t="s">
+        <v>89</v>
+      </c>
+      <c r="I270">
+        <v>1</v>
+      </c>
+      <c r="J270">
+        <v>0</v>
+      </c>
+      <c r="K270">
+        <v>1</v>
+      </c>
+      <c r="L270">
+        <v>1</v>
+      </c>
+      <c r="M270">
+        <v>1</v>
+      </c>
+      <c r="N270">
+        <v>2</v>
+      </c>
+      <c r="O270" t="s">
+        <v>159</v>
+      </c>
+      <c r="P270" t="s">
+        <v>319</v>
+      </c>
+      <c r="Q270">
+        <v>-1</v>
+      </c>
+      <c r="R270">
+        <v>-1</v>
+      </c>
+      <c r="S270">
+        <v>-1</v>
+      </c>
+      <c r="T270">
+        <v>2.75</v>
+      </c>
+      <c r="U270">
+        <v>1.91</v>
+      </c>
+      <c r="V270">
+        <v>5.5</v>
+      </c>
+      <c r="W270">
+        <v>1.62</v>
+      </c>
+      <c r="X270">
+        <v>2.2</v>
+      </c>
+      <c r="Y270">
+        <v>4</v>
+      </c>
+      <c r="Z270">
+        <v>1.22</v>
+      </c>
+      <c r="AA270">
+        <v>13</v>
+      </c>
+      <c r="AB270">
+        <v>1.04</v>
+      </c>
+      <c r="AC270">
+        <v>1.91</v>
+      </c>
+      <c r="AD270">
+        <v>3.1</v>
+      </c>
+      <c r="AE270">
+        <v>3.8</v>
+      </c>
+      <c r="AF270">
+        <v>1.12</v>
+      </c>
+      <c r="AG270">
+        <v>6.25</v>
+      </c>
+      <c r="AH270">
+        <v>1.58</v>
+      </c>
+      <c r="AI270">
+        <v>2.25</v>
+      </c>
+      <c r="AJ270">
+        <v>2.88</v>
+      </c>
+      <c r="AK270">
+        <v>1.4</v>
+      </c>
+      <c r="AL270">
+        <v>2.38</v>
+      </c>
+      <c r="AM270">
+        <v>1.53</v>
+      </c>
+      <c r="AN270">
+        <v>1.23</v>
+      </c>
+      <c r="AO270">
+        <v>1.38</v>
+      </c>
+      <c r="AP270">
+        <v>1.83</v>
+      </c>
+      <c r="AQ270">
+        <v>2.22</v>
+      </c>
+      <c r="AR270">
+        <v>1</v>
+      </c>
+      <c r="AS270">
+        <v>2.1</v>
+      </c>
+      <c r="AT270">
+        <v>1</v>
+      </c>
+      <c r="AU270">
+        <v>1.16</v>
+      </c>
+      <c r="AV270">
+        <v>1.14</v>
+      </c>
+      <c r="AW270">
+        <v>2.3</v>
+      </c>
+      <c r="AX270">
+        <v>1.83</v>
+      </c>
+      <c r="AY270">
+        <v>7</v>
+      </c>
+      <c r="AZ270">
+        <v>2.43</v>
+      </c>
+      <c r="BA270">
+        <v>1.36</v>
+      </c>
+      <c r="BB270">
+        <v>1.66</v>
+      </c>
+      <c r="BC270">
+        <v>2.12</v>
+      </c>
+      <c r="BD270">
+        <v>2.88</v>
+      </c>
+      <c r="BE270">
+        <v>4.1</v>
+      </c>
+      <c r="BF270">
+        <v>-1</v>
+      </c>
+      <c r="BG270">
+        <v>-1</v>
+      </c>
+      <c r="BH270">
+        <v>-1</v>
+      </c>
+      <c r="BI270">
+        <v>-1</v>
+      </c>
+      <c r="BJ270">
+        <v>-1</v>
+      </c>
+      <c r="BK270">
+        <v>-1</v>
       </c>
     </row>
   </sheetData>

--- a/Bases_de_Dados_(2022-2023)/Argentina Primera División_2023.xlsx
+++ b/Bases_de_Dados_(2022-2023)/Argentina Primera División_2023.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1677" uniqueCount="335">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1725" uniqueCount="339">
   <si>
     <t>Id_Jogo</t>
   </si>
@@ -766,6 +766,15 @@
     <t>['88']</t>
   </si>
   <si>
+    <t>['19', '90+4']</t>
+  </si>
+  <si>
+    <t>['34']</t>
+  </si>
+  <si>
+    <t>['36', '64']</t>
+  </si>
+  <si>
     <t>['7', '43', '82', '86']</t>
   </si>
   <si>
@@ -1019,6 +1028,9 @@
   </si>
   <si>
     <t>['72']</t>
+  </si>
+  <si>
+    <t>['6', '21', '48', '90+4']</t>
   </si>
 </sst>
 </file>
@@ -1380,7 +1392,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:BK270"/>
+  <dimension ref="A1:BK278"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -1714,7 +1726,7 @@
         <v>2.6</v>
       </c>
       <c r="AT2">
-        <v>0.9</v>
+        <v>1.09</v>
       </c>
       <c r="AU2">
         <v>0</v>
@@ -1815,7 +1827,7 @@
         <v>94</v>
       </c>
       <c r="P3" t="s">
-        <v>250</v>
+        <v>253</v>
       </c>
       <c r="Q3">
         <v>5</v>
@@ -1902,10 +1914,10 @@
         <v>0</v>
       </c>
       <c r="AS3">
-        <v>1.6</v>
+        <v>1.73</v>
       </c>
       <c r="AT3">
-        <v>0.6</v>
+        <v>0.55</v>
       </c>
       <c r="AU3">
         <v>0</v>
@@ -2093,7 +2105,7 @@
         <v>0</v>
       </c>
       <c r="AS4">
-        <v>2.4</v>
+        <v>2.27</v>
       </c>
       <c r="AT4">
         <v>0.36</v>
@@ -2388,7 +2400,7 @@
         <v>95</v>
       </c>
       <c r="P6" t="s">
-        <v>251</v>
+        <v>254</v>
       </c>
       <c r="Q6">
         <v>8</v>
@@ -2579,7 +2591,7 @@
         <v>96</v>
       </c>
       <c r="P7" t="s">
-        <v>252</v>
+        <v>255</v>
       </c>
       <c r="Q7">
         <v>5</v>
@@ -2669,7 +2681,7 @@
         <v>1.3</v>
       </c>
       <c r="AT7">
-        <v>2</v>
+        <v>2.09</v>
       </c>
       <c r="AU7">
         <v>0</v>
@@ -2770,7 +2782,7 @@
         <v>97</v>
       </c>
       <c r="P8" t="s">
-        <v>253</v>
+        <v>256</v>
       </c>
       <c r="Q8">
         <v>1</v>
@@ -3048,7 +3060,7 @@
         <v>0</v>
       </c>
       <c r="AS9">
-        <v>1.4</v>
+        <v>1.36</v>
       </c>
       <c r="AT9">
         <v>1.18</v>
@@ -3152,7 +3164,7 @@
         <v>98</v>
       </c>
       <c r="P10" t="s">
-        <v>254</v>
+        <v>257</v>
       </c>
       <c r="Q10">
         <v>5</v>
@@ -3239,7 +3251,7 @@
         <v>0</v>
       </c>
       <c r="AS10">
-        <v>1.2</v>
+        <v>1.36</v>
       </c>
       <c r="AT10">
         <v>1.1</v>
@@ -3433,7 +3445,7 @@
         <v>1.56</v>
       </c>
       <c r="AT11">
-        <v>1.3</v>
+        <v>1.18</v>
       </c>
       <c r="AU11">
         <v>0</v>
@@ -3815,7 +3827,7 @@
         <v>1.45</v>
       </c>
       <c r="AT13">
-        <v>1.1</v>
+        <v>1</v>
       </c>
       <c r="AU13">
         <v>0</v>
@@ -3916,7 +3928,7 @@
         <v>100</v>
       </c>
       <c r="P14" t="s">
-        <v>255</v>
+        <v>258</v>
       </c>
       <c r="Q14">
         <v>5</v>
@@ -4003,7 +4015,7 @@
         <v>0</v>
       </c>
       <c r="AS14">
-        <v>1.3</v>
+        <v>1.18</v>
       </c>
       <c r="AT14">
         <v>0.7</v>
@@ -4194,7 +4206,7 @@
         <v>0</v>
       </c>
       <c r="AS15">
-        <v>1.3</v>
+        <v>1.18</v>
       </c>
       <c r="AT15">
         <v>1</v>
@@ -4298,7 +4310,7 @@
         <v>101</v>
       </c>
       <c r="P16" t="s">
-        <v>256</v>
+        <v>259</v>
       </c>
       <c r="Q16">
         <v>10</v>
@@ -4770,7 +4782,7 @@
         <v>1.44</v>
       </c>
       <c r="AT18">
-        <v>1.67</v>
+        <v>1.5</v>
       </c>
       <c r="AU18">
         <v>0</v>
@@ -4871,7 +4883,7 @@
         <v>103</v>
       </c>
       <c r="P19" t="s">
-        <v>257</v>
+        <v>260</v>
       </c>
       <c r="Q19">
         <v>4</v>
@@ -5062,7 +5074,7 @@
         <v>104</v>
       </c>
       <c r="P20" t="s">
-        <v>258</v>
+        <v>261</v>
       </c>
       <c r="Q20">
         <v>1</v>
@@ -5152,7 +5164,7 @@
         <v>2</v>
       </c>
       <c r="AT20">
-        <v>2</v>
+        <v>2.09</v>
       </c>
       <c r="AU20">
         <v>0</v>
@@ -5534,7 +5546,7 @@
         <v>1.89</v>
       </c>
       <c r="AT22">
-        <v>0.89</v>
+        <v>0.9</v>
       </c>
       <c r="AU22">
         <v>0</v>
@@ -5635,7 +5647,7 @@
         <v>106</v>
       </c>
       <c r="P23" t="s">
-        <v>259</v>
+        <v>262</v>
       </c>
       <c r="Q23">
         <v>8</v>
@@ -5916,7 +5928,7 @@
         <v>1.64</v>
       </c>
       <c r="AT24">
-        <v>1.11</v>
+        <v>1.1</v>
       </c>
       <c r="AU24">
         <v>1.71</v>
@@ -6208,7 +6220,7 @@
         <v>96</v>
       </c>
       <c r="P26" t="s">
-        <v>260</v>
+        <v>263</v>
       </c>
       <c r="Q26">
         <v>4</v>
@@ -6295,7 +6307,7 @@
         <v>0</v>
       </c>
       <c r="AS26">
-        <v>1.11</v>
+        <v>1.3</v>
       </c>
       <c r="AT26">
         <v>2</v>
@@ -6399,7 +6411,7 @@
         <v>96</v>
       </c>
       <c r="P27" t="s">
-        <v>261</v>
+        <v>264</v>
       </c>
       <c r="Q27">
         <v>5</v>
@@ -6590,7 +6602,7 @@
         <v>96</v>
       </c>
       <c r="P28" t="s">
-        <v>262</v>
+        <v>265</v>
       </c>
       <c r="Q28">
         <v>7</v>
@@ -6677,7 +6689,7 @@
         <v>0</v>
       </c>
       <c r="AS28">
-        <v>1.67</v>
+        <v>1.8</v>
       </c>
       <c r="AT28">
         <v>1.75</v>
@@ -6781,7 +6793,7 @@
         <v>108</v>
       </c>
       <c r="P29" t="s">
-        <v>263</v>
+        <v>266</v>
       </c>
       <c r="Q29">
         <v>8</v>
@@ -6972,7 +6984,7 @@
         <v>96</v>
       </c>
       <c r="P30" t="s">
-        <v>264</v>
+        <v>267</v>
       </c>
       <c r="Q30">
         <v>11</v>
@@ -7059,7 +7071,7 @@
         <v>1</v>
       </c>
       <c r="AS30">
-        <v>1.2</v>
+        <v>1.36</v>
       </c>
       <c r="AT30">
         <v>1.18</v>
@@ -7253,7 +7265,7 @@
         <v>1.3</v>
       </c>
       <c r="AT31">
-        <v>1.3</v>
+        <v>1.18</v>
       </c>
       <c r="AU31">
         <v>1.53</v>
@@ -7441,10 +7453,10 @@
         <v>3</v>
       </c>
       <c r="AS32">
-        <v>2.4</v>
+        <v>2.27</v>
       </c>
       <c r="AT32">
-        <v>1.1</v>
+        <v>1</v>
       </c>
       <c r="AU32">
         <v>1.4</v>
@@ -7632,7 +7644,7 @@
         <v>1</v>
       </c>
       <c r="AS33">
-        <v>1.6</v>
+        <v>1.73</v>
       </c>
       <c r="AT33">
         <v>0.7</v>
@@ -7736,7 +7748,7 @@
         <v>102</v>
       </c>
       <c r="P34" t="s">
-        <v>265</v>
+        <v>268</v>
       </c>
       <c r="Q34">
         <v>3</v>
@@ -7927,7 +7939,7 @@
         <v>111</v>
       </c>
       <c r="P35" t="s">
-        <v>266</v>
+        <v>269</v>
       </c>
       <c r="Q35">
         <v>6</v>
@@ -8205,7 +8217,7 @@
         <v>3</v>
       </c>
       <c r="AS36">
-        <v>1.3</v>
+        <v>1.18</v>
       </c>
       <c r="AT36">
         <v>0.8</v>
@@ -8587,7 +8599,7 @@
         <v>0</v>
       </c>
       <c r="AS38">
-        <v>1.3</v>
+        <v>1.18</v>
       </c>
       <c r="AT38">
         <v>0.7</v>
@@ -8781,7 +8793,7 @@
         <v>2.63</v>
       </c>
       <c r="AT39">
-        <v>0.9</v>
+        <v>1.09</v>
       </c>
       <c r="AU39">
         <v>0</v>
@@ -8969,10 +8981,10 @@
         <v>3</v>
       </c>
       <c r="AS40">
-        <v>1.4</v>
+        <v>1.36</v>
       </c>
       <c r="AT40">
-        <v>0.6</v>
+        <v>0.55</v>
       </c>
       <c r="AU40">
         <v>1.76</v>
@@ -9073,7 +9085,7 @@
         <v>114</v>
       </c>
       <c r="P41" t="s">
-        <v>267</v>
+        <v>270</v>
       </c>
       <c r="Q41">
         <v>5</v>
@@ -9264,7 +9276,7 @@
         <v>115</v>
       </c>
       <c r="P42" t="s">
-        <v>268</v>
+        <v>271</v>
       </c>
       <c r="Q42">
         <v>5</v>
@@ -9455,7 +9467,7 @@
         <v>96</v>
       </c>
       <c r="P43" t="s">
-        <v>269</v>
+        <v>272</v>
       </c>
       <c r="Q43">
         <v>10</v>
@@ -9733,7 +9745,7 @@
         <v>3</v>
       </c>
       <c r="AS44">
-        <v>1.67</v>
+        <v>1.8</v>
       </c>
       <c r="AT44">
         <v>0.78</v>
@@ -9837,7 +9849,7 @@
         <v>96</v>
       </c>
       <c r="P45" t="s">
-        <v>270</v>
+        <v>273</v>
       </c>
       <c r="Q45">
         <v>3</v>
@@ -9927,7 +9939,7 @@
         <v>1.44</v>
       </c>
       <c r="AT45">
-        <v>0.89</v>
+        <v>0.9</v>
       </c>
       <c r="AU45">
         <v>1.23</v>
@@ -10410,7 +10422,7 @@
         <v>96</v>
       </c>
       <c r="P48" t="s">
-        <v>271</v>
+        <v>274</v>
       </c>
       <c r="Q48">
         <v>4</v>
@@ -10500,7 +10512,7 @@
         <v>1.33</v>
       </c>
       <c r="AT48">
-        <v>2</v>
+        <v>2.09</v>
       </c>
       <c r="AU48">
         <v>2.98</v>
@@ -10691,7 +10703,7 @@
         <v>1.89</v>
       </c>
       <c r="AT49">
-        <v>1.3</v>
+        <v>1.18</v>
       </c>
       <c r="AU49">
         <v>2.25</v>
@@ -10882,7 +10894,7 @@
         <v>2</v>
       </c>
       <c r="AT50">
-        <v>1.67</v>
+        <v>1.5</v>
       </c>
       <c r="AU50">
         <v>1.84</v>
@@ -11556,7 +11568,7 @@
         <v>96</v>
       </c>
       <c r="P54" t="s">
-        <v>272</v>
+        <v>275</v>
       </c>
       <c r="Q54">
         <v>4</v>
@@ -11837,7 +11849,7 @@
         <v>2</v>
       </c>
       <c r="AT55">
-        <v>1.11</v>
+        <v>1.1</v>
       </c>
       <c r="AU55">
         <v>1.5</v>
@@ -11938,7 +11950,7 @@
         <v>96</v>
       </c>
       <c r="P56" t="s">
-        <v>273</v>
+        <v>276</v>
       </c>
       <c r="Q56">
         <v>6</v>
@@ -12129,7 +12141,7 @@
         <v>124</v>
       </c>
       <c r="P57" t="s">
-        <v>274</v>
+        <v>277</v>
       </c>
       <c r="Q57">
         <v>3</v>
@@ -12216,7 +12228,7 @@
         <v>0</v>
       </c>
       <c r="AS57">
-        <v>1.11</v>
+        <v>1.3</v>
       </c>
       <c r="AT57">
         <v>0.63</v>
@@ -12320,7 +12332,7 @@
         <v>96</v>
       </c>
       <c r="P58" t="s">
-        <v>275</v>
+        <v>278</v>
       </c>
       <c r="Q58">
         <v>2</v>
@@ -12601,7 +12613,7 @@
         <v>2.6</v>
       </c>
       <c r="AT59">
-        <v>1.1</v>
+        <v>1</v>
       </c>
       <c r="AU59">
         <v>2.03</v>
@@ -12789,7 +12801,7 @@
         <v>1</v>
       </c>
       <c r="AS60">
-        <v>2.4</v>
+        <v>2.27</v>
       </c>
       <c r="AT60">
         <v>1</v>
@@ -12893,7 +12905,7 @@
         <v>127</v>
       </c>
       <c r="P61" t="s">
-        <v>276</v>
+        <v>279</v>
       </c>
       <c r="Q61">
         <v>4</v>
@@ -13275,7 +13287,7 @@
         <v>129</v>
       </c>
       <c r="P63" t="s">
-        <v>277</v>
+        <v>280</v>
       </c>
       <c r="Q63">
         <v>4</v>
@@ -13362,7 +13374,7 @@
         <v>0</v>
       </c>
       <c r="AS63">
-        <v>1.3</v>
+        <v>1.18</v>
       </c>
       <c r="AT63">
         <v>1.11</v>
@@ -13553,7 +13565,7 @@
         <v>0.5</v>
       </c>
       <c r="AS64">
-        <v>1.6</v>
+        <v>1.73</v>
       </c>
       <c r="AT64">
         <v>0.8</v>
@@ -13744,10 +13756,10 @@
         <v>2</v>
       </c>
       <c r="AS65">
-        <v>1.2</v>
+        <v>1.36</v>
       </c>
       <c r="AT65">
-        <v>0.6</v>
+        <v>0.55</v>
       </c>
       <c r="AU65">
         <v>2.06</v>
@@ -13848,7 +13860,7 @@
         <v>132</v>
       </c>
       <c r="P66" t="s">
-        <v>278</v>
+        <v>281</v>
       </c>
       <c r="Q66">
         <v>11</v>
@@ -14039,7 +14051,7 @@
         <v>133</v>
       </c>
       <c r="P67" t="s">
-        <v>265</v>
+        <v>268</v>
       </c>
       <c r="Q67">
         <v>2</v>
@@ -14126,7 +14138,7 @@
         <v>0.5</v>
       </c>
       <c r="AS67">
-        <v>1.4</v>
+        <v>1.36</v>
       </c>
       <c r="AT67">
         <v>0.7</v>
@@ -14317,7 +14329,7 @@
         <v>2</v>
       </c>
       <c r="AS68">
-        <v>1.3</v>
+        <v>1.18</v>
       </c>
       <c r="AT68">
         <v>0.8</v>
@@ -14893,7 +14905,7 @@
         <v>1.3</v>
       </c>
       <c r="AT71">
-        <v>0.9</v>
+        <v>1.09</v>
       </c>
       <c r="AU71">
         <v>1.42</v>
@@ -15084,7 +15096,7 @@
         <v>1</v>
       </c>
       <c r="AT72">
-        <v>1.67</v>
+        <v>1.5</v>
       </c>
       <c r="AU72">
         <v>1.44</v>
@@ -15185,7 +15197,7 @@
         <v>137</v>
       </c>
       <c r="P73" t="s">
-        <v>279</v>
+        <v>282</v>
       </c>
       <c r="Q73">
         <v>13</v>
@@ -15466,7 +15478,7 @@
         <v>1.73</v>
       </c>
       <c r="AT74">
-        <v>1.11</v>
+        <v>1.1</v>
       </c>
       <c r="AU74">
         <v>1.4</v>
@@ -15654,7 +15666,7 @@
         <v>0.5</v>
       </c>
       <c r="AS75">
-        <v>1.67</v>
+        <v>1.8</v>
       </c>
       <c r="AT75">
         <v>0.89</v>
@@ -15758,7 +15770,7 @@
         <v>96</v>
       </c>
       <c r="P76" t="s">
-        <v>280</v>
+        <v>283</v>
       </c>
       <c r="Q76">
         <v>10</v>
@@ -15848,7 +15860,7 @@
         <v>2.44</v>
       </c>
       <c r="AT76">
-        <v>2</v>
+        <v>2.09</v>
       </c>
       <c r="AU76">
         <v>1.43</v>
@@ -16036,7 +16048,7 @@
         <v>0</v>
       </c>
       <c r="AS77">
-        <v>1.11</v>
+        <v>1.3</v>
       </c>
       <c r="AT77">
         <v>0.5600000000000001</v>
@@ -16522,7 +16534,7 @@
         <v>141</v>
       </c>
       <c r="P80" t="s">
-        <v>281</v>
+        <v>284</v>
       </c>
       <c r="Q80">
         <v>5</v>
@@ -16803,7 +16815,7 @@
         <v>1.33</v>
       </c>
       <c r="AT81">
-        <v>0.9</v>
+        <v>1.09</v>
       </c>
       <c r="AU81">
         <v>2.17</v>
@@ -16904,7 +16916,7 @@
         <v>142</v>
       </c>
       <c r="P82" t="s">
-        <v>282</v>
+        <v>285</v>
       </c>
       <c r="Q82">
         <v>2</v>
@@ -17185,7 +17197,7 @@
         <v>2</v>
       </c>
       <c r="AT83">
-        <v>0.89</v>
+        <v>0.9</v>
       </c>
       <c r="AU83">
         <v>1.44</v>
@@ -17286,7 +17298,7 @@
         <v>96</v>
       </c>
       <c r="P84" t="s">
-        <v>283</v>
+        <v>286</v>
       </c>
       <c r="Q84">
         <v>4</v>
@@ -17376,7 +17388,7 @@
         <v>1.44</v>
       </c>
       <c r="AT84">
-        <v>1.3</v>
+        <v>1.18</v>
       </c>
       <c r="AU84">
         <v>1.21</v>
@@ -17668,7 +17680,7 @@
         <v>115</v>
       </c>
       <c r="P86" t="s">
-        <v>284</v>
+        <v>287</v>
       </c>
       <c r="Q86">
         <v>6</v>
@@ -18050,7 +18062,7 @@
         <v>145</v>
       </c>
       <c r="P88" t="s">
-        <v>285</v>
+        <v>288</v>
       </c>
       <c r="Q88">
         <v>5</v>
@@ -18137,7 +18149,7 @@
         <v>0.33</v>
       </c>
       <c r="AS88">
-        <v>1.4</v>
+        <v>1.36</v>
       </c>
       <c r="AT88">
         <v>0.8</v>
@@ -18328,7 +18340,7 @@
         <v>0.33</v>
       </c>
       <c r="AS89">
-        <v>2.4</v>
+        <v>2.27</v>
       </c>
       <c r="AT89">
         <v>0.7</v>
@@ -18432,7 +18444,7 @@
         <v>147</v>
       </c>
       <c r="P90" t="s">
-        <v>286</v>
+        <v>289</v>
       </c>
       <c r="Q90">
         <v>8</v>
@@ -18519,7 +18531,7 @@
         <v>3</v>
       </c>
       <c r="AS90">
-        <v>1.6</v>
+        <v>1.73</v>
       </c>
       <c r="AT90">
         <v>2</v>
@@ -19286,7 +19298,7 @@
         <v>2.63</v>
       </c>
       <c r="AT94">
-        <v>1.1</v>
+        <v>1</v>
       </c>
       <c r="AU94">
         <v>1.81</v>
@@ -19387,7 +19399,7 @@
         <v>151</v>
       </c>
       <c r="P95" t="s">
-        <v>287</v>
+        <v>290</v>
       </c>
       <c r="Q95">
         <v>9</v>
@@ -19477,7 +19489,7 @@
         <v>2</v>
       </c>
       <c r="AT95">
-        <v>0.6</v>
+        <v>0.55</v>
       </c>
       <c r="AU95">
         <v>1.86</v>
@@ -19665,7 +19677,7 @@
         <v>1.5</v>
       </c>
       <c r="AS96">
-        <v>1.3</v>
+        <v>1.18</v>
       </c>
       <c r="AT96">
         <v>1.11</v>
@@ -19960,7 +19972,7 @@
         <v>153</v>
       </c>
       <c r="P98" t="s">
-        <v>288</v>
+        <v>291</v>
       </c>
       <c r="Q98">
         <v>6</v>
@@ -20047,7 +20059,7 @@
         <v>1.5</v>
       </c>
       <c r="AS98">
-        <v>1.3</v>
+        <v>1.18</v>
       </c>
       <c r="AT98">
         <v>0.78</v>
@@ -20151,7 +20163,7 @@
         <v>154</v>
       </c>
       <c r="P99" t="s">
-        <v>285</v>
+        <v>288</v>
       </c>
       <c r="Q99">
         <v>5</v>
@@ -20238,7 +20250,7 @@
         <v>0.33</v>
       </c>
       <c r="AS99">
-        <v>1.2</v>
+        <v>1.36</v>
       </c>
       <c r="AT99">
         <v>0.7</v>
@@ -20342,7 +20354,7 @@
         <v>155</v>
       </c>
       <c r="P100" t="s">
-        <v>289</v>
+        <v>292</v>
       </c>
       <c r="Q100">
         <v>1</v>
@@ -20432,7 +20444,7 @@
         <v>1</v>
       </c>
       <c r="AT100">
-        <v>0.89</v>
+        <v>0.9</v>
       </c>
       <c r="AU100">
         <v>1.57</v>
@@ -20724,7 +20736,7 @@
         <v>157</v>
       </c>
       <c r="P102" t="s">
-        <v>290</v>
+        <v>293</v>
       </c>
       <c r="Q102">
         <v>2</v>
@@ -21106,7 +21118,7 @@
         <v>159</v>
       </c>
       <c r="P104" t="s">
-        <v>258</v>
+        <v>261</v>
       </c>
       <c r="Q104">
         <v>6</v>
@@ -21193,7 +21205,7 @@
         <v>1</v>
       </c>
       <c r="AS104">
-        <v>1.11</v>
+        <v>1.3</v>
       </c>
       <c r="AT104">
         <v>0.78</v>
@@ -21297,7 +21309,7 @@
         <v>160</v>
       </c>
       <c r="P105" t="s">
-        <v>291</v>
+        <v>294</v>
       </c>
       <c r="Q105">
         <v>5</v>
@@ -21387,7 +21399,7 @@
         <v>2</v>
       </c>
       <c r="AT105">
-        <v>1.3</v>
+        <v>1.18</v>
       </c>
       <c r="AU105">
         <v>1.52</v>
@@ -21488,7 +21500,7 @@
         <v>161</v>
       </c>
       <c r="P106" t="s">
-        <v>286</v>
+        <v>289</v>
       </c>
       <c r="Q106">
         <v>11</v>
@@ -21575,10 +21587,10 @@
         <v>1.33</v>
       </c>
       <c r="AS106">
-        <v>1.67</v>
+        <v>1.8</v>
       </c>
       <c r="AT106">
-        <v>1.67</v>
+        <v>1.5</v>
       </c>
       <c r="AU106">
         <v>1.56</v>
@@ -21679,7 +21691,7 @@
         <v>162</v>
       </c>
       <c r="P107" t="s">
-        <v>292</v>
+        <v>295</v>
       </c>
       <c r="Q107">
         <v>8</v>
@@ -22061,7 +22073,7 @@
         <v>96</v>
       </c>
       <c r="P109" t="s">
-        <v>293</v>
+        <v>296</v>
       </c>
       <c r="Q109">
         <v>9</v>
@@ -22151,7 +22163,7 @@
         <v>1.33</v>
       </c>
       <c r="AT109">
-        <v>2</v>
+        <v>2.09</v>
       </c>
       <c r="AU109">
         <v>1.99</v>
@@ -22533,7 +22545,7 @@
         <v>2.44</v>
       </c>
       <c r="AT111">
-        <v>0.9</v>
+        <v>1.09</v>
       </c>
       <c r="AU111">
         <v>1.37</v>
@@ -22634,7 +22646,7 @@
         <v>96</v>
       </c>
       <c r="P112" t="s">
-        <v>294</v>
+        <v>297</v>
       </c>
       <c r="Q112">
         <v>9</v>
@@ -22912,10 +22924,10 @@
         <v>0.67</v>
       </c>
       <c r="AS113">
-        <v>1.3</v>
+        <v>1.18</v>
       </c>
       <c r="AT113">
-        <v>1.11</v>
+        <v>1.1</v>
       </c>
       <c r="AU113">
         <v>1.35</v>
@@ -23103,7 +23115,7 @@
         <v>1.33</v>
       </c>
       <c r="AS114">
-        <v>1.6</v>
+        <v>1.73</v>
       </c>
       <c r="AT114">
         <v>0.63</v>
@@ -23297,7 +23309,7 @@
         <v>1.89</v>
       </c>
       <c r="AT115">
-        <v>1.1</v>
+        <v>1</v>
       </c>
       <c r="AU115">
         <v>1.94</v>
@@ -23971,7 +23983,7 @@
         <v>96</v>
       </c>
       <c r="P119" t="s">
-        <v>295</v>
+        <v>298</v>
       </c>
       <c r="Q119">
         <v>0</v>
@@ -24249,7 +24261,7 @@
         <v>1.5</v>
       </c>
       <c r="AS120">
-        <v>2.4</v>
+        <v>2.27</v>
       </c>
       <c r="AT120">
         <v>0.8</v>
@@ -24353,7 +24365,7 @@
         <v>169</v>
       </c>
       <c r="P121" t="s">
-        <v>296</v>
+        <v>299</v>
       </c>
       <c r="Q121">
         <v>5</v>
@@ -24443,7 +24455,7 @@
         <v>1.56</v>
       </c>
       <c r="AT121">
-        <v>0.6</v>
+        <v>0.55</v>
       </c>
       <c r="AU121">
         <v>1.76</v>
@@ -24735,7 +24747,7 @@
         <v>96</v>
       </c>
       <c r="P123" t="s">
-        <v>297</v>
+        <v>300</v>
       </c>
       <c r="Q123">
         <v>8</v>
@@ -24822,7 +24834,7 @@
         <v>2.33</v>
       </c>
       <c r="AS123">
-        <v>1.4</v>
+        <v>1.36</v>
       </c>
       <c r="AT123">
         <v>2</v>
@@ -25013,7 +25025,7 @@
         <v>0.5</v>
       </c>
       <c r="AS124">
-        <v>1.2</v>
+        <v>1.36</v>
       </c>
       <c r="AT124">
         <v>0.8</v>
@@ -25117,7 +25129,7 @@
         <v>96</v>
       </c>
       <c r="P125" t="s">
-        <v>298</v>
+        <v>301</v>
       </c>
       <c r="Q125">
         <v>6</v>
@@ -25204,7 +25216,7 @@
         <v>1.33</v>
       </c>
       <c r="AS125">
-        <v>1.3</v>
+        <v>1.18</v>
       </c>
       <c r="AT125">
         <v>0.78</v>
@@ -26072,7 +26084,7 @@
         <v>173</v>
       </c>
       <c r="P130" t="s">
-        <v>299</v>
+        <v>302</v>
       </c>
       <c r="Q130">
         <v>5</v>
@@ -26159,7 +26171,7 @@
         <v>0.75</v>
       </c>
       <c r="AS130">
-        <v>1.3</v>
+        <v>1.18</v>
       </c>
       <c r="AT130">
         <v>0.5600000000000001</v>
@@ -26544,7 +26556,7 @@
         <v>1.33</v>
       </c>
       <c r="AT132">
-        <v>0.9</v>
+        <v>1.09</v>
       </c>
       <c r="AU132">
         <v>1.81</v>
@@ -26645,7 +26657,7 @@
         <v>176</v>
       </c>
       <c r="P133" t="s">
-        <v>255</v>
+        <v>258</v>
       </c>
       <c r="Q133">
         <v>4</v>
@@ -26732,10 +26744,10 @@
         <v>1.5</v>
       </c>
       <c r="AS133">
-        <v>1.67</v>
+        <v>1.8</v>
       </c>
       <c r="AT133">
-        <v>0.89</v>
+        <v>0.9</v>
       </c>
       <c r="AU133">
         <v>1.55</v>
@@ -26836,7 +26848,7 @@
         <v>96</v>
       </c>
       <c r="P134" t="s">
-        <v>300</v>
+        <v>303</v>
       </c>
       <c r="Q134">
         <v>7</v>
@@ -26926,7 +26938,7 @@
         <v>1</v>
       </c>
       <c r="AT134">
-        <v>1.3</v>
+        <v>1.18</v>
       </c>
       <c r="AU134">
         <v>1.47</v>
@@ -27027,7 +27039,7 @@
         <v>159</v>
       </c>
       <c r="P135" t="s">
-        <v>301</v>
+        <v>304</v>
       </c>
       <c r="Q135">
         <v>6</v>
@@ -27114,7 +27126,7 @@
         <v>1</v>
       </c>
       <c r="AS135">
-        <v>1.11</v>
+        <v>1.3</v>
       </c>
       <c r="AT135">
         <v>1.33</v>
@@ -27218,7 +27230,7 @@
         <v>177</v>
       </c>
       <c r="P136" t="s">
-        <v>264</v>
+        <v>267</v>
       </c>
       <c r="Q136">
         <v>10</v>
@@ -27305,10 +27317,10 @@
         <v>0.5</v>
       </c>
       <c r="AS136">
-        <v>1.6</v>
+        <v>1.73</v>
       </c>
       <c r="AT136">
-        <v>1.11</v>
+        <v>1.1</v>
       </c>
       <c r="AU136">
         <v>1.38</v>
@@ -27409,7 +27421,7 @@
         <v>178</v>
       </c>
       <c r="P137" t="s">
-        <v>302</v>
+        <v>305</v>
       </c>
       <c r="Q137">
         <v>4</v>
@@ -27499,7 +27511,7 @@
         <v>1.3</v>
       </c>
       <c r="AT137">
-        <v>1.67</v>
+        <v>1.5</v>
       </c>
       <c r="AU137">
         <v>1.61</v>
@@ -27600,7 +27612,7 @@
         <v>115</v>
       </c>
       <c r="P138" t="s">
-        <v>303</v>
+        <v>306</v>
       </c>
       <c r="Q138">
         <v>2</v>
@@ -27982,7 +27994,7 @@
         <v>96</v>
       </c>
       <c r="P140" t="s">
-        <v>304</v>
+        <v>307</v>
       </c>
       <c r="Q140">
         <v>4</v>
@@ -28072,7 +28084,7 @@
         <v>1.33</v>
       </c>
       <c r="AT140">
-        <v>2</v>
+        <v>2.09</v>
       </c>
       <c r="AU140">
         <v>1.52</v>
@@ -28173,7 +28185,7 @@
         <v>177</v>
       </c>
       <c r="P141" t="s">
-        <v>305</v>
+        <v>308</v>
       </c>
       <c r="Q141">
         <v>4</v>
@@ -28555,7 +28567,7 @@
         <v>179</v>
       </c>
       <c r="P143" t="s">
-        <v>266</v>
+        <v>269</v>
       </c>
       <c r="Q143">
         <v>5</v>
@@ -28833,7 +28845,7 @@
         <v>1.25</v>
       </c>
       <c r="AS144">
-        <v>1.4</v>
+        <v>1.36</v>
       </c>
       <c r="AT144">
         <v>0.63</v>
@@ -28937,7 +28949,7 @@
         <v>96</v>
       </c>
       <c r="P145" t="s">
-        <v>306</v>
+        <v>309</v>
       </c>
       <c r="Q145">
         <v>6</v>
@@ -29024,7 +29036,7 @@
         <v>1.75</v>
       </c>
       <c r="AS145">
-        <v>1.3</v>
+        <v>1.18</v>
       </c>
       <c r="AT145">
         <v>1.75</v>
@@ -29128,7 +29140,7 @@
         <v>125</v>
       </c>
       <c r="P146" t="s">
-        <v>273</v>
+        <v>276</v>
       </c>
       <c r="Q146">
         <v>7</v>
@@ -29406,7 +29418,7 @@
         <v>1.5</v>
       </c>
       <c r="AS147">
-        <v>2.4</v>
+        <v>2.27</v>
       </c>
       <c r="AT147">
         <v>1.11</v>
@@ -29600,7 +29612,7 @@
         <v>2</v>
       </c>
       <c r="AT148">
-        <v>0.6</v>
+        <v>0.55</v>
       </c>
       <c r="AU148">
         <v>1.09</v>
@@ -30274,7 +30286,7 @@
         <v>183</v>
       </c>
       <c r="P152" t="s">
-        <v>307</v>
+        <v>310</v>
       </c>
       <c r="Q152">
         <v>1</v>
@@ -30364,7 +30376,7 @@
         <v>1.44</v>
       </c>
       <c r="AT152">
-        <v>1.1</v>
+        <v>1</v>
       </c>
       <c r="AU152">
         <v>1.17</v>
@@ -30465,7 +30477,7 @@
         <v>184</v>
       </c>
       <c r="P153" t="s">
-        <v>308</v>
+        <v>311</v>
       </c>
       <c r="Q153">
         <v>1</v>
@@ -30552,7 +30564,7 @@
         <v>2.5</v>
       </c>
       <c r="AS153">
-        <v>1.2</v>
+        <v>1.36</v>
       </c>
       <c r="AT153">
         <v>2</v>
@@ -31125,7 +31137,7 @@
         <v>1.4</v>
       </c>
       <c r="AS156">
-        <v>1.6</v>
+        <v>1.73</v>
       </c>
       <c r="AT156">
         <v>0.78</v>
@@ -31319,7 +31331,7 @@
         <v>1.64</v>
       </c>
       <c r="AT157">
-        <v>1.67</v>
+        <v>1.5</v>
       </c>
       <c r="AU157">
         <v>1.74</v>
@@ -31510,7 +31522,7 @@
         <v>1.33</v>
       </c>
       <c r="AT158">
-        <v>0.9</v>
+        <v>1.09</v>
       </c>
       <c r="AU158">
         <v>1.37</v>
@@ -31611,7 +31623,7 @@
         <v>96</v>
       </c>
       <c r="P159" t="s">
-        <v>309</v>
+        <v>312</v>
       </c>
       <c r="Q159">
         <v>15</v>
@@ -31698,10 +31710,10 @@
         <v>1.67</v>
       </c>
       <c r="AS159">
-        <v>1.67</v>
+        <v>1.8</v>
       </c>
       <c r="AT159">
-        <v>1.3</v>
+        <v>1.18</v>
       </c>
       <c r="AU159">
         <v>1.6</v>
@@ -32080,7 +32092,7 @@
         <v>0.8</v>
       </c>
       <c r="AS161">
-        <v>1.3</v>
+        <v>1.18</v>
       </c>
       <c r="AT161">
         <v>0.78</v>
@@ -32274,7 +32286,7 @@
         <v>1.3</v>
       </c>
       <c r="AT162">
-        <v>0.89</v>
+        <v>0.9</v>
       </c>
       <c r="AU162">
         <v>1.41</v>
@@ -32375,7 +32387,7 @@
         <v>96</v>
       </c>
       <c r="P163" t="s">
-        <v>310</v>
+        <v>313</v>
       </c>
       <c r="Q163">
         <v>1</v>
@@ -32465,7 +32477,7 @@
         <v>2.1</v>
       </c>
       <c r="AT163">
-        <v>2</v>
+        <v>2.09</v>
       </c>
       <c r="AU163">
         <v>1.07</v>
@@ -33035,10 +33047,10 @@
         <v>1</v>
       </c>
       <c r="AS166">
-        <v>1.3</v>
+        <v>1.18</v>
       </c>
       <c r="AT166">
-        <v>1.11</v>
+        <v>1.1</v>
       </c>
       <c r="AU166">
         <v>1.67</v>
@@ -33330,7 +33342,7 @@
         <v>189</v>
       </c>
       <c r="P168" t="s">
-        <v>311</v>
+        <v>314</v>
       </c>
       <c r="Q168">
         <v>3</v>
@@ -33417,7 +33429,7 @@
         <v>1</v>
       </c>
       <c r="AS168">
-        <v>1.11</v>
+        <v>1.3</v>
       </c>
       <c r="AT168">
         <v>0.8</v>
@@ -33521,7 +33533,7 @@
         <v>190</v>
       </c>
       <c r="P169" t="s">
-        <v>312</v>
+        <v>315</v>
       </c>
       <c r="Q169">
         <v>1</v>
@@ -33712,7 +33724,7 @@
         <v>191</v>
       </c>
       <c r="P170" t="s">
-        <v>258</v>
+        <v>261</v>
       </c>
       <c r="Q170">
         <v>7</v>
@@ -33799,7 +33811,7 @@
         <v>1</v>
       </c>
       <c r="AS170">
-        <v>1.2</v>
+        <v>1.36</v>
       </c>
       <c r="AT170">
         <v>0.63</v>
@@ -33903,7 +33915,7 @@
         <v>192</v>
       </c>
       <c r="P171" t="s">
-        <v>285</v>
+        <v>288</v>
       </c>
       <c r="Q171">
         <v>3</v>
@@ -34094,7 +34106,7 @@
         <v>193</v>
       </c>
       <c r="P172" t="s">
-        <v>274</v>
+        <v>277</v>
       </c>
       <c r="Q172">
         <v>4</v>
@@ -34476,7 +34488,7 @@
         <v>96</v>
       </c>
       <c r="P174" t="s">
-        <v>313</v>
+        <v>316</v>
       </c>
       <c r="Q174">
         <v>5</v>
@@ -34566,7 +34578,7 @@
         <v>1.3</v>
       </c>
       <c r="AT174">
-        <v>1.1</v>
+        <v>1</v>
       </c>
       <c r="AU174">
         <v>1.36</v>
@@ -34754,7 +34766,7 @@
         <v>1.4</v>
       </c>
       <c r="AS175">
-        <v>2.4</v>
+        <v>2.27</v>
       </c>
       <c r="AT175">
         <v>0.78</v>
@@ -34858,7 +34870,7 @@
         <v>194</v>
       </c>
       <c r="P176" t="s">
-        <v>314</v>
+        <v>317</v>
       </c>
       <c r="Q176">
         <v>2</v>
@@ -35136,7 +35148,7 @@
         <v>0.8</v>
       </c>
       <c r="AS177">
-        <v>1.4</v>
+        <v>1.36</v>
       </c>
       <c r="AT177">
         <v>0.5600000000000001</v>
@@ -35622,7 +35634,7 @@
         <v>96</v>
       </c>
       <c r="P180" t="s">
-        <v>315</v>
+        <v>318</v>
       </c>
       <c r="Q180">
         <v>5</v>
@@ -35813,7 +35825,7 @@
         <v>198</v>
       </c>
       <c r="P181" t="s">
-        <v>316</v>
+        <v>319</v>
       </c>
       <c r="Q181">
         <v>6</v>
@@ -36004,7 +36016,7 @@
         <v>199</v>
       </c>
       <c r="P182" t="s">
-        <v>317</v>
+        <v>320</v>
       </c>
       <c r="Q182">
         <v>12</v>
@@ -36285,7 +36297,7 @@
         <v>1.33</v>
       </c>
       <c r="AT183">
-        <v>0.6</v>
+        <v>0.55</v>
       </c>
       <c r="AU183">
         <v>1.74</v>
@@ -36386,7 +36398,7 @@
         <v>201</v>
       </c>
       <c r="P184" t="s">
-        <v>318</v>
+        <v>321</v>
       </c>
       <c r="Q184">
         <v>5</v>
@@ -36476,7 +36488,7 @@
         <v>1.73</v>
       </c>
       <c r="AT184">
-        <v>1.67</v>
+        <v>1.5</v>
       </c>
       <c r="AU184">
         <v>1.54</v>
@@ -36577,7 +36589,7 @@
         <v>202</v>
       </c>
       <c r="P185" t="s">
-        <v>319</v>
+        <v>322</v>
       </c>
       <c r="Q185">
         <v>4</v>
@@ -36667,7 +36679,7 @@
         <v>1.33</v>
       </c>
       <c r="AT185">
-        <v>1.1</v>
+        <v>1</v>
       </c>
       <c r="AU185">
         <v>1.75</v>
@@ -36858,7 +36870,7 @@
         <v>2.1</v>
       </c>
       <c r="AT186">
-        <v>0.9</v>
+        <v>1.09</v>
       </c>
       <c r="AU186">
         <v>1.09</v>
@@ -36959,7 +36971,7 @@
         <v>203</v>
       </c>
       <c r="P187" t="s">
-        <v>320</v>
+        <v>323</v>
       </c>
       <c r="Q187">
         <v>2</v>
@@ -37237,10 +37249,10 @@
         <v>2.57</v>
       </c>
       <c r="AS188">
-        <v>1.11</v>
+        <v>1.3</v>
       </c>
       <c r="AT188">
-        <v>2</v>
+        <v>2.09</v>
       </c>
       <c r="AU188">
         <v>1.5</v>
@@ -37428,7 +37440,7 @@
         <v>1.33</v>
       </c>
       <c r="AS189">
-        <v>1.3</v>
+        <v>1.18</v>
       </c>
       <c r="AT189">
         <v>1.33</v>
@@ -37532,7 +37544,7 @@
         <v>200</v>
       </c>
       <c r="P190" t="s">
-        <v>310</v>
+        <v>313</v>
       </c>
       <c r="Q190">
         <v>3</v>
@@ -37619,7 +37631,7 @@
         <v>1.29</v>
       </c>
       <c r="AS190">
-        <v>1.67</v>
+        <v>1.8</v>
       </c>
       <c r="AT190">
         <v>0.91</v>
@@ -37810,7 +37822,7 @@
         <v>0.83</v>
       </c>
       <c r="AS191">
-        <v>1.3</v>
+        <v>1.18</v>
       </c>
       <c r="AT191">
         <v>0.78</v>
@@ -37914,7 +37926,7 @@
         <v>96</v>
       </c>
       <c r="P192" t="s">
-        <v>321</v>
+        <v>324</v>
       </c>
       <c r="Q192">
         <v>6</v>
@@ -38001,10 +38013,10 @@
         <v>0.83</v>
       </c>
       <c r="AS192">
-        <v>1.4</v>
+        <v>1.36</v>
       </c>
       <c r="AT192">
-        <v>1.11</v>
+        <v>1.1</v>
       </c>
       <c r="AU192">
         <v>1.43</v>
@@ -38195,7 +38207,7 @@
         <v>1.64</v>
       </c>
       <c r="AT193">
-        <v>0.89</v>
+        <v>0.9</v>
       </c>
       <c r="AU193">
         <v>1.62</v>
@@ -38383,7 +38395,7 @@
         <v>1.17</v>
       </c>
       <c r="AS194">
-        <v>1.6</v>
+        <v>1.73</v>
       </c>
       <c r="AT194">
         <v>0.89</v>
@@ -38577,7 +38589,7 @@
         <v>1.3</v>
       </c>
       <c r="AT195">
-        <v>1.3</v>
+        <v>1.18</v>
       </c>
       <c r="AU195">
         <v>1.38</v>
@@ -39341,7 +39353,7 @@
         <v>2.44</v>
       </c>
       <c r="AT199">
-        <v>0.6</v>
+        <v>0.55</v>
       </c>
       <c r="AU199">
         <v>1.23</v>
@@ -39529,7 +39541,7 @@
         <v>0.83</v>
       </c>
       <c r="AS200">
-        <v>1.2</v>
+        <v>1.36</v>
       </c>
       <c r="AT200">
         <v>0.5600000000000001</v>
@@ -39824,7 +39836,7 @@
         <v>211</v>
       </c>
       <c r="P202" t="s">
-        <v>322</v>
+        <v>325</v>
       </c>
       <c r="Q202">
         <v>8</v>
@@ -40588,7 +40600,7 @@
         <v>214</v>
       </c>
       <c r="P206" t="s">
-        <v>323</v>
+        <v>326</v>
       </c>
       <c r="Q206">
         <v>1</v>
@@ -41057,7 +41069,7 @@
         <v>2.17</v>
       </c>
       <c r="AS208">
-        <v>2.4</v>
+        <v>2.27</v>
       </c>
       <c r="AT208">
         <v>1.75</v>
@@ -41161,7 +41173,7 @@
         <v>215</v>
       </c>
       <c r="P209" t="s">
-        <v>324</v>
+        <v>327</v>
       </c>
       <c r="Q209">
         <v>5</v>
@@ -41633,7 +41645,7 @@
         <v>1.33</v>
       </c>
       <c r="AT211">
-        <v>1.1</v>
+        <v>1</v>
       </c>
       <c r="AU211">
         <v>1.32</v>
@@ -41734,7 +41746,7 @@
         <v>216</v>
       </c>
       <c r="P212" t="s">
-        <v>325</v>
+        <v>328</v>
       </c>
       <c r="Q212">
         <v>2</v>
@@ -41821,10 +41833,10 @@
         <v>0.75</v>
       </c>
       <c r="AS212">
-        <v>1.11</v>
+        <v>1.3</v>
       </c>
       <c r="AT212">
-        <v>0.9</v>
+        <v>1.09</v>
       </c>
       <c r="AU212">
         <v>1.45</v>
@@ -41925,7 +41937,7 @@
         <v>217</v>
       </c>
       <c r="P213" t="s">
-        <v>326</v>
+        <v>329</v>
       </c>
       <c r="Q213">
         <v>12</v>
@@ -42116,7 +42128,7 @@
         <v>110</v>
       </c>
       <c r="P214" t="s">
-        <v>327</v>
+        <v>330</v>
       </c>
       <c r="Q214">
         <v>9</v>
@@ -42203,7 +42215,7 @@
         <v>1.29</v>
       </c>
       <c r="AS214">
-        <v>1.3</v>
+        <v>1.18</v>
       </c>
       <c r="AT214">
         <v>1.33</v>
@@ -42585,7 +42597,7 @@
         <v>1</v>
       </c>
       <c r="AS216">
-        <v>1.4</v>
+        <v>1.36</v>
       </c>
       <c r="AT216">
         <v>0.89</v>
@@ -42776,10 +42788,10 @@
         <v>1.86</v>
       </c>
       <c r="AS217">
-        <v>1.6</v>
+        <v>1.73</v>
       </c>
       <c r="AT217">
-        <v>1.67</v>
+        <v>1.5</v>
       </c>
       <c r="AU217">
         <v>1.48</v>
@@ -42970,7 +42982,7 @@
         <v>1.73</v>
       </c>
       <c r="AT218">
-        <v>0.89</v>
+        <v>0.9</v>
       </c>
       <c r="AU218">
         <v>1.48</v>
@@ -43161,7 +43173,7 @@
         <v>1.64</v>
       </c>
       <c r="AT219">
-        <v>1.3</v>
+        <v>1.18</v>
       </c>
       <c r="AU219">
         <v>1.59</v>
@@ -43262,7 +43274,7 @@
         <v>223</v>
       </c>
       <c r="P220" t="s">
-        <v>271</v>
+        <v>274</v>
       </c>
       <c r="Q220">
         <v>3</v>
@@ -43352,7 +43364,7 @@
         <v>2</v>
       </c>
       <c r="AT220">
-        <v>2</v>
+        <v>2.09</v>
       </c>
       <c r="AU220">
         <v>1.55</v>
@@ -43453,7 +43465,7 @@
         <v>224</v>
       </c>
       <c r="P221" t="s">
-        <v>328</v>
+        <v>331</v>
       </c>
       <c r="Q221">
         <v>4</v>
@@ -43543,7 +43555,7 @@
         <v>1.45</v>
       </c>
       <c r="AT221">
-        <v>1.11</v>
+        <v>1.1</v>
       </c>
       <c r="AU221">
         <v>0.98</v>
@@ -43644,7 +43656,7 @@
         <v>96</v>
       </c>
       <c r="P222" t="s">
-        <v>329</v>
+        <v>332</v>
       </c>
       <c r="Q222">
         <v>14</v>
@@ -43922,7 +43934,7 @@
         <v>1.29</v>
       </c>
       <c r="AS223">
-        <v>1.67</v>
+        <v>1.8</v>
       </c>
       <c r="AT223">
         <v>1.1</v>
@@ -44113,7 +44125,7 @@
         <v>0.86</v>
       </c>
       <c r="AS224">
-        <v>1.3</v>
+        <v>1.18</v>
       </c>
       <c r="AT224">
         <v>0.8</v>
@@ -45450,7 +45462,7 @@
         <v>1</v>
       </c>
       <c r="AS231">
-        <v>2.4</v>
+        <v>2.27</v>
       </c>
       <c r="AT231">
         <v>0.78</v>
@@ -46217,7 +46229,7 @@
         <v>1.33</v>
       </c>
       <c r="AT235">
-        <v>0.6</v>
+        <v>0.55</v>
       </c>
       <c r="AU235">
         <v>1.66</v>
@@ -46318,7 +46330,7 @@
         <v>201</v>
       </c>
       <c r="P236" t="s">
-        <v>319</v>
+        <v>322</v>
       </c>
       <c r="Q236">
         <v>9</v>
@@ -46405,7 +46417,7 @@
         <v>0.86</v>
       </c>
       <c r="AS236">
-        <v>1.2</v>
+        <v>1.36</v>
       </c>
       <c r="AT236">
         <v>0.78</v>
@@ -46787,7 +46799,7 @@
         <v>0.44</v>
       </c>
       <c r="AS238">
-        <v>1.11</v>
+        <v>1.3</v>
       </c>
       <c r="AT238">
         <v>0.36</v>
@@ -46978,7 +46990,7 @@
         <v>1.33</v>
       </c>
       <c r="AS239">
-        <v>1.67</v>
+        <v>1.8</v>
       </c>
       <c r="AT239">
         <v>1.18</v>
@@ -47172,7 +47184,7 @@
         <v>1.73</v>
       </c>
       <c r="AT240">
-        <v>1.3</v>
+        <v>1.18</v>
       </c>
       <c r="AU240">
         <v>1.51</v>
@@ -47742,10 +47754,10 @@
         <v>0.88</v>
       </c>
       <c r="AS243">
-        <v>1.6</v>
+        <v>1.73</v>
       </c>
       <c r="AT243">
-        <v>0.89</v>
+        <v>0.9</v>
       </c>
       <c r="AU243">
         <v>1.42</v>
@@ -47936,7 +47948,7 @@
         <v>2</v>
       </c>
       <c r="AT244">
-        <v>0.9</v>
+        <v>1.09</v>
       </c>
       <c r="AU244">
         <v>1.52</v>
@@ -48318,7 +48330,7 @@
         <v>2.1</v>
       </c>
       <c r="AT246">
-        <v>1.1</v>
+        <v>1</v>
       </c>
       <c r="AU246">
         <v>1.2</v>
@@ -48419,7 +48431,7 @@
         <v>235</v>
       </c>
       <c r="P247" t="s">
-        <v>330</v>
+        <v>333</v>
       </c>
       <c r="Q247">
         <v>1</v>
@@ -48506,10 +48518,10 @@
         <v>1.13</v>
       </c>
       <c r="AS247">
-        <v>1.2</v>
+        <v>1.36</v>
       </c>
       <c r="AT247">
-        <v>1.11</v>
+        <v>1.1</v>
       </c>
       <c r="AU247">
         <v>1.61</v>
@@ -48610,7 +48622,7 @@
         <v>96</v>
       </c>
       <c r="P248" t="s">
-        <v>268</v>
+        <v>271</v>
       </c>
       <c r="Q248">
         <v>7</v>
@@ -48888,7 +48900,7 @@
         <v>0.88</v>
       </c>
       <c r="AS249">
-        <v>1.3</v>
+        <v>1.18</v>
       </c>
       <c r="AT249">
         <v>0.8</v>
@@ -49079,10 +49091,10 @@
         <v>1.75</v>
       </c>
       <c r="AS250">
-        <v>1.4</v>
+        <v>1.36</v>
       </c>
       <c r="AT250">
-        <v>1.67</v>
+        <v>1.5</v>
       </c>
       <c r="AU250">
         <v>1.55</v>
@@ -49183,7 +49195,7 @@
         <v>237</v>
       </c>
       <c r="P251" t="s">
-        <v>331</v>
+        <v>334</v>
       </c>
       <c r="Q251">
         <v>3</v>
@@ -49270,10 +49282,10 @@
         <v>2.11</v>
       </c>
       <c r="AS251">
-        <v>1.3</v>
+        <v>1.18</v>
       </c>
       <c r="AT251">
-        <v>2</v>
+        <v>2.09</v>
       </c>
       <c r="AU251">
         <v>1.3</v>
@@ -49756,7 +49768,7 @@
         <v>238</v>
       </c>
       <c r="P254" t="s">
-        <v>332</v>
+        <v>335</v>
       </c>
       <c r="Q254">
         <v>7</v>
@@ -49947,7 +49959,7 @@
         <v>239</v>
       </c>
       <c r="P255" t="s">
-        <v>333</v>
+        <v>336</v>
       </c>
       <c r="Q255">
         <v>6</v>
@@ -50610,7 +50622,7 @@
         <v>1.3</v>
       </c>
       <c r="AT258">
-        <v>0.6</v>
+        <v>0.55</v>
       </c>
       <c r="AU258">
         <v>1.58</v>
@@ -50711,7 +50723,7 @@
         <v>242</v>
       </c>
       <c r="P259" t="s">
-        <v>334</v>
+        <v>337</v>
       </c>
       <c r="Q259">
         <v>2</v>
@@ -51371,7 +51383,7 @@
         <v>0.88</v>
       </c>
       <c r="AS262">
-        <v>2.4</v>
+        <v>2.27</v>
       </c>
       <c r="AT262">
         <v>0.89</v>
@@ -51475,7 +51487,7 @@
         <v>245</v>
       </c>
       <c r="P263" t="s">
-        <v>273</v>
+        <v>276</v>
       </c>
       <c r="Q263">
         <v>7</v>
@@ -52430,7 +52442,7 @@
         <v>249</v>
       </c>
       <c r="P268" t="s">
-        <v>291</v>
+        <v>294</v>
       </c>
       <c r="Q268">
         <v>6</v>
@@ -52812,16 +52824,16 @@
         <v>159</v>
       </c>
       <c r="P270" t="s">
-        <v>319</v>
+        <v>322</v>
       </c>
       <c r="Q270">
-        <v>-1</v>
+        <v>7</v>
       </c>
       <c r="R270">
-        <v>-1</v>
+        <v>2</v>
       </c>
       <c r="S270">
-        <v>-1</v>
+        <v>9</v>
       </c>
       <c r="T270">
         <v>2.75</v>
@@ -52938,22 +52950,1550 @@
         <v>4.1</v>
       </c>
       <c r="BF270">
-        <v>-1</v>
+        <v>4</v>
       </c>
       <c r="BG270">
-        <v>-1</v>
+        <v>3</v>
       </c>
       <c r="BH270">
-        <v>-1</v>
+        <v>4</v>
       </c>
       <c r="BI270">
-        <v>-1</v>
+        <v>3</v>
       </c>
       <c r="BJ270">
-        <v>-1</v>
+        <v>8</v>
       </c>
       <c r="BK270">
-        <v>-1</v>
+        <v>6</v>
+      </c>
+    </row>
+    <row r="271" spans="1:63">
+      <c r="A271" s="1">
+        <v>270</v>
+      </c>
+      <c r="B271">
+        <v>4554665</v>
+      </c>
+      <c r="C271" t="s">
+        <v>63</v>
+      </c>
+      <c r="D271" t="s">
+        <v>64</v>
+      </c>
+      <c r="E271" s="2">
+        <v>45089.70833333334</v>
+      </c>
+      <c r="F271">
+        <v>20</v>
+      </c>
+      <c r="G271" t="s">
+        <v>67</v>
+      </c>
+      <c r="H271" t="s">
+        <v>70</v>
+      </c>
+      <c r="I271">
+        <v>0</v>
+      </c>
+      <c r="J271">
+        <v>0</v>
+      </c>
+      <c r="K271">
+        <v>0</v>
+      </c>
+      <c r="L271">
+        <v>0</v>
+      </c>
+      <c r="M271">
+        <v>0</v>
+      </c>
+      <c r="N271">
+        <v>0</v>
+      </c>
+      <c r="O271" t="s">
+        <v>96</v>
+      </c>
+      <c r="P271" t="s">
+        <v>96</v>
+      </c>
+      <c r="Q271">
+        <v>5</v>
+      </c>
+      <c r="R271">
+        <v>7</v>
+      </c>
+      <c r="S271">
+        <v>12</v>
+      </c>
+      <c r="T271">
+        <v>2.51</v>
+      </c>
+      <c r="U271">
+        <v>1.85</v>
+      </c>
+      <c r="V271">
+        <v>6.2</v>
+      </c>
+      <c r="W271">
+        <v>1.66</v>
+      </c>
+      <c r="X271">
+        <v>2.28</v>
+      </c>
+      <c r="Y271">
+        <v>4.2</v>
+      </c>
+      <c r="Z271">
+        <v>1.22</v>
+      </c>
+      <c r="AA271">
+        <v>13</v>
+      </c>
+      <c r="AB271">
+        <v>1.03</v>
+      </c>
+      <c r="AC271">
+        <v>1.8</v>
+      </c>
+      <c r="AD271">
+        <v>3.1</v>
+      </c>
+      <c r="AE271">
+        <v>4.75</v>
+      </c>
+      <c r="AF271">
+        <v>1.11</v>
+      </c>
+      <c r="AG271">
+        <v>5.5</v>
+      </c>
+      <c r="AH271">
+        <v>1.57</v>
+      </c>
+      <c r="AI271">
+        <v>2.25</v>
+      </c>
+      <c r="AJ271">
+        <v>2.63</v>
+      </c>
+      <c r="AK271">
+        <v>1.43</v>
+      </c>
+      <c r="AL271">
+        <v>2.4</v>
+      </c>
+      <c r="AM271">
+        <v>1.5</v>
+      </c>
+      <c r="AN271">
+        <v>1.18</v>
+      </c>
+      <c r="AO271">
+        <v>1.34</v>
+      </c>
+      <c r="AP271">
+        <v>2.05</v>
+      </c>
+      <c r="AQ271">
+        <v>2.4</v>
+      </c>
+      <c r="AR271">
+        <v>1.11</v>
+      </c>
+      <c r="AS271">
+        <v>2.27</v>
+      </c>
+      <c r="AT271">
+        <v>1.1</v>
+      </c>
+      <c r="AU271">
+        <v>1.41</v>
+      </c>
+      <c r="AV271">
+        <v>1.21</v>
+      </c>
+      <c r="AW271">
+        <v>2.62</v>
+      </c>
+      <c r="AX271">
+        <v>1.23</v>
+      </c>
+      <c r="AY271">
+        <v>7</v>
+      </c>
+      <c r="AZ271">
+        <v>4.9</v>
+      </c>
+      <c r="BA271">
+        <v>1.26</v>
+      </c>
+      <c r="BB271">
+        <v>1.56</v>
+      </c>
+      <c r="BC271">
+        <v>1.9</v>
+      </c>
+      <c r="BD271">
+        <v>2.34</v>
+      </c>
+      <c r="BE271">
+        <v>3.2</v>
+      </c>
+      <c r="BF271">
+        <v>6</v>
+      </c>
+      <c r="BG271">
+        <v>2</v>
+      </c>
+      <c r="BH271">
+        <v>6</v>
+      </c>
+      <c r="BI271">
+        <v>3</v>
+      </c>
+      <c r="BJ271">
+        <v>12</v>
+      </c>
+      <c r="BK271">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="272" spans="1:63">
+      <c r="A272" s="1">
+        <v>271</v>
+      </c>
+      <c r="B272">
+        <v>4554668</v>
+      </c>
+      <c r="C272" t="s">
+        <v>63</v>
+      </c>
+      <c r="D272" t="s">
+        <v>64</v>
+      </c>
+      <c r="E272" s="2">
+        <v>45089.80208333334</v>
+      </c>
+      <c r="F272">
+        <v>20</v>
+      </c>
+      <c r="G272" t="s">
+        <v>78</v>
+      </c>
+      <c r="H272" t="s">
+        <v>92</v>
+      </c>
+      <c r="I272">
+        <v>1</v>
+      </c>
+      <c r="J272">
+        <v>2</v>
+      </c>
+      <c r="K272">
+        <v>3</v>
+      </c>
+      <c r="L272">
+        <v>1</v>
+      </c>
+      <c r="M272">
+        <v>4</v>
+      </c>
+      <c r="N272">
+        <v>5</v>
+      </c>
+      <c r="O272" t="s">
+        <v>201</v>
+      </c>
+      <c r="P272" t="s">
+        <v>338</v>
+      </c>
+      <c r="Q272">
+        <v>7</v>
+      </c>
+      <c r="R272">
+        <v>4</v>
+      </c>
+      <c r="S272">
+        <v>11</v>
+      </c>
+      <c r="T272">
+        <v>5</v>
+      </c>
+      <c r="U272">
+        <v>2.1</v>
+      </c>
+      <c r="V272">
+        <v>2.4</v>
+      </c>
+      <c r="W272">
+        <v>1.44</v>
+      </c>
+      <c r="X272">
+        <v>2.63</v>
+      </c>
+      <c r="Y272">
+        <v>3.25</v>
+      </c>
+      <c r="Z272">
+        <v>1.33</v>
+      </c>
+      <c r="AA272">
+        <v>9</v>
+      </c>
+      <c r="AB272">
+        <v>1.07</v>
+      </c>
+      <c r="AC272">
+        <v>4.2</v>
+      </c>
+      <c r="AD272">
+        <v>3.5</v>
+      </c>
+      <c r="AE272">
+        <v>1.7</v>
+      </c>
+      <c r="AF272">
+        <v>1.05</v>
+      </c>
+      <c r="AG272">
+        <v>10</v>
+      </c>
+      <c r="AH272">
+        <v>1.33</v>
+      </c>
+      <c r="AI272">
+        <v>3.35</v>
+      </c>
+      <c r="AJ272">
+        <v>2.1</v>
+      </c>
+      <c r="AK272">
+        <v>1.7</v>
+      </c>
+      <c r="AL272">
+        <v>2</v>
+      </c>
+      <c r="AM272">
+        <v>1.75</v>
+      </c>
+      <c r="AN272">
+        <v>2.06</v>
+      </c>
+      <c r="AO272">
+        <v>1.3</v>
+      </c>
+      <c r="AP272">
+        <v>1.21</v>
+      </c>
+      <c r="AQ272">
+        <v>1.3</v>
+      </c>
+      <c r="AR272">
+        <v>2</v>
+      </c>
+      <c r="AS272">
+        <v>1.18</v>
+      </c>
+      <c r="AT272">
+        <v>2.09</v>
+      </c>
+      <c r="AU272">
+        <v>1.55</v>
+      </c>
+      <c r="AV272">
+        <v>1.75</v>
+      </c>
+      <c r="AW272">
+        <v>3.3</v>
+      </c>
+      <c r="AX272">
+        <v>2.75</v>
+      </c>
+      <c r="AY272">
+        <v>7</v>
+      </c>
+      <c r="AZ272">
+        <v>1.68</v>
+      </c>
+      <c r="BA272">
+        <v>1.36</v>
+      </c>
+      <c r="BB272">
+        <v>1.66</v>
+      </c>
+      <c r="BC272">
+        <v>2.12</v>
+      </c>
+      <c r="BD272">
+        <v>2.88</v>
+      </c>
+      <c r="BE272">
+        <v>4.1</v>
+      </c>
+      <c r="BF272">
+        <v>3</v>
+      </c>
+      <c r="BG272">
+        <v>8</v>
+      </c>
+      <c r="BH272">
+        <v>6</v>
+      </c>
+      <c r="BI272">
+        <v>1</v>
+      </c>
+      <c r="BJ272">
+        <v>9</v>
+      </c>
+      <c r="BK272">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="273" spans="1:63">
+      <c r="A273" s="1">
+        <v>272</v>
+      </c>
+      <c r="B273">
+        <v>5019521</v>
+      </c>
+      <c r="C273" t="s">
+        <v>63</v>
+      </c>
+      <c r="D273" t="s">
+        <v>64</v>
+      </c>
+      <c r="E273" s="2">
+        <v>45089.90625</v>
+      </c>
+      <c r="F273">
+        <v>20</v>
+      </c>
+      <c r="G273" t="s">
+        <v>72</v>
+      </c>
+      <c r="H273" t="s">
+        <v>74</v>
+      </c>
+      <c r="I273">
+        <v>1</v>
+      </c>
+      <c r="J273">
+        <v>0</v>
+      </c>
+      <c r="K273">
+        <v>1</v>
+      </c>
+      <c r="L273">
+        <v>1</v>
+      </c>
+      <c r="M273">
+        <v>1</v>
+      </c>
+      <c r="N273">
+        <v>2</v>
+      </c>
+      <c r="O273" t="s">
+        <v>201</v>
+      </c>
+      <c r="P273" t="s">
+        <v>337</v>
+      </c>
+      <c r="Q273">
+        <v>4</v>
+      </c>
+      <c r="R273">
+        <v>5</v>
+      </c>
+      <c r="S273">
+        <v>9</v>
+      </c>
+      <c r="T273">
+        <v>3.1</v>
+      </c>
+      <c r="U273">
+        <v>1.98</v>
+      </c>
+      <c r="V273">
+        <v>3.4</v>
+      </c>
+      <c r="W273">
+        <v>1.47</v>
+      </c>
+      <c r="X273">
+        <v>2.45</v>
+      </c>
+      <c r="Y273">
+        <v>3.3</v>
+      </c>
+      <c r="Z273">
+        <v>1.29</v>
+      </c>
+      <c r="AA273">
+        <v>9.25</v>
+      </c>
+      <c r="AB273">
+        <v>1.05</v>
+      </c>
+      <c r="AC273">
+        <v>2.45</v>
+      </c>
+      <c r="AD273">
+        <v>3.25</v>
+      </c>
+      <c r="AE273">
+        <v>2.75</v>
+      </c>
+      <c r="AF273">
+        <v>1.08</v>
+      </c>
+      <c r="AG273">
+        <v>7.5</v>
+      </c>
+      <c r="AH273">
+        <v>1.41</v>
+      </c>
+      <c r="AI273">
+        <v>2.65</v>
+      </c>
+      <c r="AJ273">
+        <v>2.2</v>
+      </c>
+      <c r="AK273">
+        <v>1.57</v>
+      </c>
+      <c r="AL273">
+        <v>1.98</v>
+      </c>
+      <c r="AM273">
+        <v>1.72</v>
+      </c>
+      <c r="AN273">
+        <v>1.42</v>
+      </c>
+      <c r="AO273">
+        <v>1.32</v>
+      </c>
+      <c r="AP273">
+        <v>1.51</v>
+      </c>
+      <c r="AQ273">
+        <v>1.4</v>
+      </c>
+      <c r="AR273">
+        <v>0.89</v>
+      </c>
+      <c r="AS273">
+        <v>1.36</v>
+      </c>
+      <c r="AT273">
+        <v>0.9</v>
+      </c>
+      <c r="AU273">
+        <v>1.56</v>
+      </c>
+      <c r="AV273">
+        <v>1.27</v>
+      </c>
+      <c r="AW273">
+        <v>2.83</v>
+      </c>
+      <c r="AX273">
+        <v>1.9</v>
+      </c>
+      <c r="AY273">
+        <v>8.699999999999999</v>
+      </c>
+      <c r="AZ273">
+        <v>2.21</v>
+      </c>
+      <c r="BA273">
+        <v>1.27</v>
+      </c>
+      <c r="BB273">
+        <v>1.58</v>
+      </c>
+      <c r="BC273">
+        <v>1.94</v>
+      </c>
+      <c r="BD273">
+        <v>2.41</v>
+      </c>
+      <c r="BE273">
+        <v>3.34</v>
+      </c>
+      <c r="BF273">
+        <v>3</v>
+      </c>
+      <c r="BG273">
+        <v>8</v>
+      </c>
+      <c r="BH273">
+        <v>9</v>
+      </c>
+      <c r="BI273">
+        <v>6</v>
+      </c>
+      <c r="BJ273">
+        <v>12</v>
+      </c>
+      <c r="BK273">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="274" spans="1:63">
+      <c r="A274" s="1">
+        <v>273</v>
+      </c>
+      <c r="B274">
+        <v>4554670</v>
+      </c>
+      <c r="C274" t="s">
+        <v>63</v>
+      </c>
+      <c r="D274" t="s">
+        <v>64</v>
+      </c>
+      <c r="E274" s="2">
+        <v>45089.90625</v>
+      </c>
+      <c r="F274">
+        <v>20</v>
+      </c>
+      <c r="G274" t="s">
+        <v>77</v>
+      </c>
+      <c r="H274" t="s">
+        <v>85</v>
+      </c>
+      <c r="I274">
+        <v>0</v>
+      </c>
+      <c r="J274">
+        <v>0</v>
+      </c>
+      <c r="K274">
+        <v>0</v>
+      </c>
+      <c r="L274">
+        <v>0</v>
+      </c>
+      <c r="M274">
+        <v>1</v>
+      </c>
+      <c r="N274">
+        <v>1</v>
+      </c>
+      <c r="O274" t="s">
+        <v>96</v>
+      </c>
+      <c r="P274" t="s">
+        <v>163</v>
+      </c>
+      <c r="Q274">
+        <v>3</v>
+      </c>
+      <c r="R274">
+        <v>3</v>
+      </c>
+      <c r="S274">
+        <v>6</v>
+      </c>
+      <c r="T274">
+        <v>3.7</v>
+      </c>
+      <c r="U274">
+        <v>1.88</v>
+      </c>
+      <c r="V274">
+        <v>3.2</v>
+      </c>
+      <c r="W274">
+        <v>1.55</v>
+      </c>
+      <c r="X274">
+        <v>2.25</v>
+      </c>
+      <c r="Y274">
+        <v>3.6</v>
+      </c>
+      <c r="Z274">
+        <v>1.25</v>
+      </c>
+      <c r="AA274">
+        <v>10.5</v>
+      </c>
+      <c r="AB274">
+        <v>1.04</v>
+      </c>
+      <c r="AC274">
+        <v>2.9</v>
+      </c>
+      <c r="AD274">
+        <v>3</v>
+      </c>
+      <c r="AE274">
+        <v>2.5</v>
+      </c>
+      <c r="AF274">
+        <v>1.11</v>
+      </c>
+      <c r="AG274">
+        <v>6</v>
+      </c>
+      <c r="AH274">
+        <v>1.51</v>
+      </c>
+      <c r="AI274">
+        <v>2.37</v>
+      </c>
+      <c r="AJ274">
+        <v>2.5</v>
+      </c>
+      <c r="AK274">
+        <v>1.46</v>
+      </c>
+      <c r="AL274">
+        <v>2.15</v>
+      </c>
+      <c r="AM274">
+        <v>1.62</v>
+      </c>
+      <c r="AN274">
+        <v>1.49</v>
+      </c>
+      <c r="AO274">
+        <v>1.37</v>
+      </c>
+      <c r="AP274">
+        <v>1.39</v>
+      </c>
+      <c r="AQ274">
+        <v>1.3</v>
+      </c>
+      <c r="AR274">
+        <v>0.9</v>
+      </c>
+      <c r="AS274">
+        <v>1.18</v>
+      </c>
+      <c r="AT274">
+        <v>1.09</v>
+      </c>
+      <c r="AU274">
+        <v>1.32</v>
+      </c>
+      <c r="AV274">
+        <v>1.58</v>
+      </c>
+      <c r="AW274">
+        <v>2.9</v>
+      </c>
+      <c r="AX274">
+        <v>2.25</v>
+      </c>
+      <c r="AY274">
+        <v>8.5</v>
+      </c>
+      <c r="AZ274">
+        <v>1.88</v>
+      </c>
+      <c r="BA274">
+        <v>1.32</v>
+      </c>
+      <c r="BB274">
+        <v>1.68</v>
+      </c>
+      <c r="BC274">
+        <v>2.08</v>
+      </c>
+      <c r="BD274">
+        <v>2.72</v>
+      </c>
+      <c r="BE274">
+        <v>3.74</v>
+      </c>
+      <c r="BF274">
+        <v>4</v>
+      </c>
+      <c r="BG274">
+        <v>4</v>
+      </c>
+      <c r="BH274">
+        <v>3</v>
+      </c>
+      <c r="BI274">
+        <v>2</v>
+      </c>
+      <c r="BJ274">
+        <v>7</v>
+      </c>
+      <c r="BK274">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="275" spans="1:63">
+      <c r="A275" s="1">
+        <v>274</v>
+      </c>
+      <c r="B275">
+        <v>4554669</v>
+      </c>
+      <c r="C275" t="s">
+        <v>63</v>
+      </c>
+      <c r="D275" t="s">
+        <v>64</v>
+      </c>
+      <c r="E275" s="2">
+        <v>45090.75</v>
+      </c>
+      <c r="F275">
+        <v>20</v>
+      </c>
+      <c r="G275" t="s">
+        <v>66</v>
+      </c>
+      <c r="H275" t="s">
+        <v>83</v>
+      </c>
+      <c r="I275">
+        <v>1</v>
+      </c>
+      <c r="J275">
+        <v>0</v>
+      </c>
+      <c r="K275">
+        <v>1</v>
+      </c>
+      <c r="L275">
+        <v>2</v>
+      </c>
+      <c r="M275">
+        <v>0</v>
+      </c>
+      <c r="N275">
+        <v>2</v>
+      </c>
+      <c r="O275" t="s">
+        <v>250</v>
+      </c>
+      <c r="P275" t="s">
+        <v>96</v>
+      </c>
+      <c r="Q275">
+        <v>6</v>
+      </c>
+      <c r="R275">
+        <v>5</v>
+      </c>
+      <c r="S275">
+        <v>11</v>
+      </c>
+      <c r="T275">
+        <v>2.5</v>
+      </c>
+      <c r="U275">
+        <v>2</v>
+      </c>
+      <c r="V275">
+        <v>4.5</v>
+      </c>
+      <c r="W275">
+        <v>1.46</v>
+      </c>
+      <c r="X275">
+        <v>2.5</v>
+      </c>
+      <c r="Y275">
+        <v>3.2</v>
+      </c>
+      <c r="Z275">
+        <v>1.31</v>
+      </c>
+      <c r="AA275">
+        <v>8.75</v>
+      </c>
+      <c r="AB275">
+        <v>1.06</v>
+      </c>
+      <c r="AC275">
+        <v>1.87</v>
+      </c>
+      <c r="AD275">
+        <v>3.4</v>
+      </c>
+      <c r="AE275">
+        <v>4.1</v>
+      </c>
+      <c r="AF275">
+        <v>1.08</v>
+      </c>
+      <c r="AG275">
+        <v>7.25</v>
+      </c>
+      <c r="AH275">
+        <v>1.4</v>
+      </c>
+      <c r="AI275">
+        <v>2.7</v>
+      </c>
+      <c r="AJ275">
+        <v>2.2</v>
+      </c>
+      <c r="AK275">
+        <v>1.58</v>
+      </c>
+      <c r="AL275">
+        <v>2.05</v>
+      </c>
+      <c r="AM275">
+        <v>1.68</v>
+      </c>
+      <c r="AN275">
+        <v>1.22</v>
+      </c>
+      <c r="AO275">
+        <v>1.3</v>
+      </c>
+      <c r="AP275">
+        <v>1.87</v>
+      </c>
+      <c r="AQ275">
+        <v>1.6</v>
+      </c>
+      <c r="AR275">
+        <v>1.3</v>
+      </c>
+      <c r="AS275">
+        <v>1.73</v>
+      </c>
+      <c r="AT275">
+        <v>1.18</v>
+      </c>
+      <c r="AU275">
+        <v>1.41</v>
+      </c>
+      <c r="AV275">
+        <v>1.22</v>
+      </c>
+      <c r="AW275">
+        <v>2.63</v>
+      </c>
+      <c r="AX275">
+        <v>1.69</v>
+      </c>
+      <c r="AY275">
+        <v>8</v>
+      </c>
+      <c r="AZ275">
+        <v>2.63</v>
+      </c>
+      <c r="BA275">
+        <v>1.27</v>
+      </c>
+      <c r="BB275">
+        <v>1.5</v>
+      </c>
+      <c r="BC275">
+        <v>1.85</v>
+      </c>
+      <c r="BD275">
+        <v>2.45</v>
+      </c>
+      <c r="BE275">
+        <v>3.4</v>
+      </c>
+      <c r="BF275">
+        <v>10</v>
+      </c>
+      <c r="BG275">
+        <v>8</v>
+      </c>
+      <c r="BH275">
+        <v>8</v>
+      </c>
+      <c r="BI275">
+        <v>9</v>
+      </c>
+      <c r="BJ275">
+        <v>18</v>
+      </c>
+      <c r="BK275">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="276" spans="1:63">
+      <c r="A276" s="1">
+        <v>275</v>
+      </c>
+      <c r="B276">
+        <v>4554666</v>
+      </c>
+      <c r="C276" t="s">
+        <v>63</v>
+      </c>
+      <c r="D276" t="s">
+        <v>64</v>
+      </c>
+      <c r="E276" s="2">
+        <v>45090.75</v>
+      </c>
+      <c r="F276">
+        <v>20</v>
+      </c>
+      <c r="G276" t="s">
+        <v>73</v>
+      </c>
+      <c r="H276" t="s">
+        <v>69</v>
+      </c>
+      <c r="I276">
+        <v>1</v>
+      </c>
+      <c r="J276">
+        <v>0</v>
+      </c>
+      <c r="K276">
+        <v>1</v>
+      </c>
+      <c r="L276">
+        <v>1</v>
+      </c>
+      <c r="M276">
+        <v>0</v>
+      </c>
+      <c r="N276">
+        <v>1</v>
+      </c>
+      <c r="O276" t="s">
+        <v>251</v>
+      </c>
+      <c r="P276" t="s">
+        <v>96</v>
+      </c>
+      <c r="Q276">
+        <v>3</v>
+      </c>
+      <c r="R276">
+        <v>6</v>
+      </c>
+      <c r="S276">
+        <v>9</v>
+      </c>
+      <c r="T276">
+        <v>3.9</v>
+      </c>
+      <c r="U276">
+        <v>1.88</v>
+      </c>
+      <c r="V276">
+        <v>3</v>
+      </c>
+      <c r="W276">
+        <v>1.53</v>
+      </c>
+      <c r="X276">
+        <v>2.3</v>
+      </c>
+      <c r="Y276">
+        <v>3.5</v>
+      </c>
+      <c r="Z276">
+        <v>1.26</v>
+      </c>
+      <c r="AA276">
+        <v>10</v>
+      </c>
+      <c r="AB276">
+        <v>1.04</v>
+      </c>
+      <c r="AC276">
+        <v>3.2</v>
+      </c>
+      <c r="AD276">
+        <v>3</v>
+      </c>
+      <c r="AE276">
+        <v>2.3</v>
+      </c>
+      <c r="AF276">
+        <v>1.1</v>
+      </c>
+      <c r="AG276">
+        <v>6.25</v>
+      </c>
+      <c r="AH276">
+        <v>1.49</v>
+      </c>
+      <c r="AI276">
+        <v>2.4</v>
+      </c>
+      <c r="AJ276">
+        <v>2.45</v>
+      </c>
+      <c r="AK276">
+        <v>1.47</v>
+      </c>
+      <c r="AL276">
+        <v>2.1</v>
+      </c>
+      <c r="AM276">
+        <v>1.63</v>
+      </c>
+      <c r="AN276">
+        <v>1.62</v>
+      </c>
+      <c r="AO276">
+        <v>1.38</v>
+      </c>
+      <c r="AP276">
+        <v>1.33</v>
+      </c>
+      <c r="AQ276">
+        <v>1.2</v>
+      </c>
+      <c r="AR276">
+        <v>1.67</v>
+      </c>
+      <c r="AS276">
+        <v>1.36</v>
+      </c>
+      <c r="AT276">
+        <v>1.5</v>
+      </c>
+      <c r="AU276">
+        <v>1.6</v>
+      </c>
+      <c r="AV276">
+        <v>1.51</v>
+      </c>
+      <c r="AW276">
+        <v>3.11</v>
+      </c>
+      <c r="AX276">
+        <v>2</v>
+      </c>
+      <c r="AY276">
+        <v>5.5</v>
+      </c>
+      <c r="AZ276">
+        <v>2</v>
+      </c>
+      <c r="BA276">
+        <v>1.28</v>
+      </c>
+      <c r="BB276">
+        <v>1.6</v>
+      </c>
+      <c r="BC276">
+        <v>1.97</v>
+      </c>
+      <c r="BD276">
+        <v>2.44</v>
+      </c>
+      <c r="BE276">
+        <v>3.42</v>
+      </c>
+      <c r="BF276">
+        <v>3</v>
+      </c>
+      <c r="BG276">
+        <v>5</v>
+      </c>
+      <c r="BH276">
+        <v>4</v>
+      </c>
+      <c r="BI276">
+        <v>6</v>
+      </c>
+      <c r="BJ276">
+        <v>7</v>
+      </c>
+      <c r="BK276">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="277" spans="1:63">
+      <c r="A277" s="1">
+        <v>276</v>
+      </c>
+      <c r="B277">
+        <v>4554676</v>
+      </c>
+      <c r="C277" t="s">
+        <v>63</v>
+      </c>
+      <c r="D277" t="s">
+        <v>64</v>
+      </c>
+      <c r="E277" s="2">
+        <v>45090.85416666666</v>
+      </c>
+      <c r="F277">
+        <v>20</v>
+      </c>
+      <c r="G277" t="s">
+        <v>90</v>
+      </c>
+      <c r="H277" t="s">
+        <v>91</v>
+      </c>
+      <c r="I277">
+        <v>0</v>
+      </c>
+      <c r="J277">
+        <v>0</v>
+      </c>
+      <c r="K277">
+        <v>0</v>
+      </c>
+      <c r="L277">
+        <v>1</v>
+      </c>
+      <c r="M277">
+        <v>0</v>
+      </c>
+      <c r="N277">
+        <v>1</v>
+      </c>
+      <c r="O277" t="s">
+        <v>142</v>
+      </c>
+      <c r="P277" t="s">
+        <v>96</v>
+      </c>
+      <c r="Q277">
+        <v>1</v>
+      </c>
+      <c r="R277">
+        <v>4</v>
+      </c>
+      <c r="S277">
+        <v>5</v>
+      </c>
+      <c r="T277">
+        <v>3.4</v>
+      </c>
+      <c r="U277">
+        <v>1.9</v>
+      </c>
+      <c r="V277">
+        <v>3.25</v>
+      </c>
+      <c r="W277">
+        <v>1.52</v>
+      </c>
+      <c r="X277">
+        <v>2.35</v>
+      </c>
+      <c r="Y277">
+        <v>3.5</v>
+      </c>
+      <c r="Z277">
+        <v>1.26</v>
+      </c>
+      <c r="AA277">
+        <v>10</v>
+      </c>
+      <c r="AB277">
+        <v>1.05</v>
+      </c>
+      <c r="AC277">
+        <v>2.75</v>
+      </c>
+      <c r="AD277">
+        <v>3.1</v>
+      </c>
+      <c r="AE277">
+        <v>2.6</v>
+      </c>
+      <c r="AF277">
+        <v>1.1</v>
+      </c>
+      <c r="AG277">
+        <v>6.5</v>
+      </c>
+      <c r="AH277">
+        <v>1.47</v>
+      </c>
+      <c r="AI277">
+        <v>2.5</v>
+      </c>
+      <c r="AJ277">
+        <v>2.4</v>
+      </c>
+      <c r="AK277">
+        <v>1.5</v>
+      </c>
+      <c r="AL277">
+        <v>2.05</v>
+      </c>
+      <c r="AM277">
+        <v>1.66</v>
+      </c>
+      <c r="AN277">
+        <v>1.47</v>
+      </c>
+      <c r="AO277">
+        <v>1.35</v>
+      </c>
+      <c r="AP277">
+        <v>1.42</v>
+      </c>
+      <c r="AQ277">
+        <v>1.67</v>
+      </c>
+      <c r="AR277">
+        <v>0.6</v>
+      </c>
+      <c r="AS277">
+        <v>1.8</v>
+      </c>
+      <c r="AT277">
+        <v>0.55</v>
+      </c>
+      <c r="AU277">
+        <v>1.61</v>
+      </c>
+      <c r="AV277">
+        <v>1.34</v>
+      </c>
+      <c r="AW277">
+        <v>2.95</v>
+      </c>
+      <c r="AX277">
+        <v>2.3</v>
+      </c>
+      <c r="AY277">
+        <v>7</v>
+      </c>
+      <c r="AZ277">
+        <v>1.89</v>
+      </c>
+      <c r="BA277">
+        <v>1.25</v>
+      </c>
+      <c r="BB277">
+        <v>1.47</v>
+      </c>
+      <c r="BC277">
+        <v>1.82</v>
+      </c>
+      <c r="BD277">
+        <v>2.38</v>
+      </c>
+      <c r="BE277">
+        <v>3.25</v>
+      </c>
+      <c r="BF277">
+        <v>5</v>
+      </c>
+      <c r="BG277">
+        <v>4</v>
+      </c>
+      <c r="BH277">
+        <v>5</v>
+      </c>
+      <c r="BI277">
+        <v>4</v>
+      </c>
+      <c r="BJ277">
+        <v>10</v>
+      </c>
+      <c r="BK277">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="278" spans="1:63">
+      <c r="A278" s="1">
+        <v>277</v>
+      </c>
+      <c r="B278">
+        <v>4554674</v>
+      </c>
+      <c r="C278" t="s">
+        <v>63</v>
+      </c>
+      <c r="D278" t="s">
+        <v>64</v>
+      </c>
+      <c r="E278" s="2">
+        <v>45090.85416666666</v>
+      </c>
+      <c r="F278">
+        <v>20</v>
+      </c>
+      <c r="G278" t="s">
+        <v>88</v>
+      </c>
+      <c r="H278" t="s">
+        <v>87</v>
+      </c>
+      <c r="I278">
+        <v>1</v>
+      </c>
+      <c r="J278">
+        <v>0</v>
+      </c>
+      <c r="K278">
+        <v>1</v>
+      </c>
+      <c r="L278">
+        <v>2</v>
+      </c>
+      <c r="M278">
+        <v>1</v>
+      </c>
+      <c r="N278">
+        <v>3</v>
+      </c>
+      <c r="O278" t="s">
+        <v>252</v>
+      </c>
+      <c r="P278" t="s">
+        <v>269</v>
+      </c>
+      <c r="Q278">
+        <v>4</v>
+      </c>
+      <c r="R278">
+        <v>5</v>
+      </c>
+      <c r="S278">
+        <v>9</v>
+      </c>
+      <c r="T278">
+        <v>3.2</v>
+      </c>
+      <c r="U278">
+        <v>1.95</v>
+      </c>
+      <c r="V278">
+        <v>4</v>
+      </c>
+      <c r="W278">
+        <v>1.52</v>
+      </c>
+      <c r="X278">
+        <v>2.4</v>
+      </c>
+      <c r="Y278">
+        <v>3.6</v>
+      </c>
+      <c r="Z278">
+        <v>1.25</v>
+      </c>
+      <c r="AA278">
+        <v>9.85</v>
+      </c>
+      <c r="AB278">
+        <v>1.03</v>
+      </c>
+      <c r="AC278">
+        <v>2.41</v>
+      </c>
+      <c r="AD278">
+        <v>2.97</v>
+      </c>
+      <c r="AE278">
+        <v>3.18</v>
+      </c>
+      <c r="AF278">
+        <v>1.09</v>
+      </c>
+      <c r="AG278">
+        <v>7.5</v>
+      </c>
+      <c r="AH278">
+        <v>1.5</v>
+      </c>
+      <c r="AI278">
+        <v>2.65</v>
+      </c>
+      <c r="AJ278">
+        <v>2.4</v>
+      </c>
+      <c r="AK278">
+        <v>1.5</v>
+      </c>
+      <c r="AL278">
+        <v>2.1</v>
+      </c>
+      <c r="AM278">
+        <v>1.72</v>
+      </c>
+      <c r="AN278">
+        <v>1.36</v>
+      </c>
+      <c r="AO278">
+        <v>1.3</v>
+      </c>
+      <c r="AP278">
+        <v>1.6</v>
+      </c>
+      <c r="AQ278">
+        <v>1.11</v>
+      </c>
+      <c r="AR278">
+        <v>1.1</v>
+      </c>
+      <c r="AS278">
+        <v>1.3</v>
+      </c>
+      <c r="AT278">
+        <v>1</v>
+      </c>
+      <c r="AU278">
+        <v>1.51</v>
+      </c>
+      <c r="AV278">
+        <v>1.37</v>
+      </c>
+      <c r="AW278">
+        <v>2.88</v>
+      </c>
+      <c r="AX278">
+        <v>1.82</v>
+      </c>
+      <c r="AY278">
+        <v>7</v>
+      </c>
+      <c r="AZ278">
+        <v>2.43</v>
+      </c>
+      <c r="BA278">
+        <v>1.29</v>
+      </c>
+      <c r="BB278">
+        <v>1.53</v>
+      </c>
+      <c r="BC278">
+        <v>2</v>
+      </c>
+      <c r="BD278">
+        <v>2.55</v>
+      </c>
+      <c r="BE278">
+        <v>3.5</v>
+      </c>
+      <c r="BF278">
+        <v>6</v>
+      </c>
+      <c r="BG278">
+        <v>3</v>
+      </c>
+      <c r="BH278">
+        <v>5</v>
+      </c>
+      <c r="BI278">
+        <v>7</v>
+      </c>
+      <c r="BJ278">
+        <v>11</v>
+      </c>
+      <c r="BK278">
+        <v>10</v>
       </c>
     </row>
   </sheetData>

--- a/Bases_de_Dados_(2022-2023)/Argentina Primera División_2023.xlsx
+++ b/Bases_de_Dados_(2022-2023)/Argentina Primera División_2023.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1725" uniqueCount="339">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1743" uniqueCount="340">
   <si>
     <t>Id_Jogo</t>
   </si>
@@ -775,6 +775,15 @@
     <t>['36', '64']</t>
   </si>
   <si>
+    <t>['61']</t>
+  </si>
+  <si>
+    <t>['24', '38']</t>
+  </si>
+  <si>
+    <t>['58']</t>
+  </si>
+  <si>
     <t>['7', '43', '82', '86']</t>
   </si>
   <si>
@@ -842,9 +851,6 @@
   </si>
   <si>
     <t>['7', '33']</t>
-  </si>
-  <si>
-    <t>['58']</t>
   </si>
   <si>
     <t>['49']</t>
@@ -980,9 +986,6 @@
   </si>
   <si>
     <t>['3', '31']</t>
-  </si>
-  <si>
-    <t>['61']</t>
   </si>
   <si>
     <t>['14']</t>
@@ -1392,7 +1395,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:BK278"/>
+  <dimension ref="A1:BK281"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -1827,7 +1830,7 @@
         <v>94</v>
       </c>
       <c r="P3" t="s">
-        <v>253</v>
+        <v>256</v>
       </c>
       <c r="Q3">
         <v>5</v>
@@ -2400,7 +2403,7 @@
         <v>95</v>
       </c>
       <c r="P6" t="s">
-        <v>254</v>
+        <v>257</v>
       </c>
       <c r="Q6">
         <v>8</v>
@@ -2591,7 +2594,7 @@
         <v>96</v>
       </c>
       <c r="P7" t="s">
-        <v>255</v>
+        <v>258</v>
       </c>
       <c r="Q7">
         <v>5</v>
@@ -2782,7 +2785,7 @@
         <v>97</v>
       </c>
       <c r="P8" t="s">
-        <v>256</v>
+        <v>259</v>
       </c>
       <c r="Q8">
         <v>1</v>
@@ -3164,7 +3167,7 @@
         <v>98</v>
       </c>
       <c r="P10" t="s">
-        <v>257</v>
+        <v>260</v>
       </c>
       <c r="Q10">
         <v>5</v>
@@ -3254,7 +3257,7 @@
         <v>1.36</v>
       </c>
       <c r="AT10">
-        <v>1.1</v>
+        <v>1.09</v>
       </c>
       <c r="AU10">
         <v>0</v>
@@ -3442,7 +3445,7 @@
         <v>0</v>
       </c>
       <c r="AS11">
-        <v>1.56</v>
+        <v>1.7</v>
       </c>
       <c r="AT11">
         <v>1.18</v>
@@ -3928,7 +3931,7 @@
         <v>100</v>
       </c>
       <c r="P14" t="s">
-        <v>258</v>
+        <v>261</v>
       </c>
       <c r="Q14">
         <v>5</v>
@@ -4310,7 +4313,7 @@
         <v>101</v>
       </c>
       <c r="P16" t="s">
-        <v>259</v>
+        <v>262</v>
       </c>
       <c r="Q16">
         <v>10</v>
@@ -4591,7 +4594,7 @@
         <v>2.1</v>
       </c>
       <c r="AT17">
-        <v>0.63</v>
+        <v>0.5600000000000001</v>
       </c>
       <c r="AU17">
         <v>0</v>
@@ -4883,7 +4886,7 @@
         <v>103</v>
       </c>
       <c r="P19" t="s">
-        <v>260</v>
+        <v>263</v>
       </c>
       <c r="Q19">
         <v>4</v>
@@ -5074,7 +5077,7 @@
         <v>104</v>
       </c>
       <c r="P20" t="s">
-        <v>261</v>
+        <v>264</v>
       </c>
       <c r="Q20">
         <v>1</v>
@@ -5647,7 +5650,7 @@
         <v>106</v>
       </c>
       <c r="P23" t="s">
-        <v>262</v>
+        <v>265</v>
       </c>
       <c r="Q23">
         <v>8</v>
@@ -6220,7 +6223,7 @@
         <v>96</v>
       </c>
       <c r="P26" t="s">
-        <v>263</v>
+        <v>266</v>
       </c>
       <c r="Q26">
         <v>4</v>
@@ -6411,7 +6414,7 @@
         <v>96</v>
       </c>
       <c r="P27" t="s">
-        <v>264</v>
+        <v>267</v>
       </c>
       <c r="Q27">
         <v>5</v>
@@ -6602,7 +6605,7 @@
         <v>96</v>
       </c>
       <c r="P28" t="s">
-        <v>265</v>
+        <v>268</v>
       </c>
       <c r="Q28">
         <v>7</v>
@@ -6692,7 +6695,7 @@
         <v>1.8</v>
       </c>
       <c r="AT28">
-        <v>1.75</v>
+        <v>1.56</v>
       </c>
       <c r="AU28">
         <v>0</v>
@@ -6793,7 +6796,7 @@
         <v>108</v>
       </c>
       <c r="P29" t="s">
-        <v>266</v>
+        <v>269</v>
       </c>
       <c r="Q29">
         <v>8</v>
@@ -6984,7 +6987,7 @@
         <v>96</v>
       </c>
       <c r="P30" t="s">
-        <v>267</v>
+        <v>270</v>
       </c>
       <c r="Q30">
         <v>11</v>
@@ -7748,7 +7751,7 @@
         <v>102</v>
       </c>
       <c r="P34" t="s">
-        <v>268</v>
+        <v>271</v>
       </c>
       <c r="Q34">
         <v>3</v>
@@ -7939,7 +7942,7 @@
         <v>111</v>
       </c>
       <c r="P35" t="s">
-        <v>269</v>
+        <v>272</v>
       </c>
       <c r="Q35">
         <v>6</v>
@@ -8790,7 +8793,7 @@
         <v>0</v>
       </c>
       <c r="AS39">
-        <v>2.63</v>
+        <v>2.67</v>
       </c>
       <c r="AT39">
         <v>1.09</v>
@@ -9085,7 +9088,7 @@
         <v>114</v>
       </c>
       <c r="P41" t="s">
-        <v>270</v>
+        <v>273</v>
       </c>
       <c r="Q41">
         <v>5</v>
@@ -9172,7 +9175,7 @@
         <v>3</v>
       </c>
       <c r="AS41">
-        <v>1.56</v>
+        <v>1.7</v>
       </c>
       <c r="AT41">
         <v>0.91</v>
@@ -9276,7 +9279,7 @@
         <v>115</v>
       </c>
       <c r="P42" t="s">
-        <v>271</v>
+        <v>274</v>
       </c>
       <c r="Q42">
         <v>5</v>
@@ -9467,7 +9470,7 @@
         <v>96</v>
       </c>
       <c r="P43" t="s">
-        <v>272</v>
+        <v>275</v>
       </c>
       <c r="Q43">
         <v>10</v>
@@ -9557,7 +9560,7 @@
         <v>2</v>
       </c>
       <c r="AT43">
-        <v>1.1</v>
+        <v>1.09</v>
       </c>
       <c r="AU43">
         <v>1.92</v>
@@ -9849,7 +9852,7 @@
         <v>96</v>
       </c>
       <c r="P45" t="s">
-        <v>273</v>
+        <v>276</v>
       </c>
       <c r="Q45">
         <v>3</v>
@@ -10422,7 +10425,7 @@
         <v>96</v>
       </c>
       <c r="P48" t="s">
-        <v>274</v>
+        <v>277</v>
       </c>
       <c r="Q48">
         <v>4</v>
@@ -11568,7 +11571,7 @@
         <v>96</v>
       </c>
       <c r="P54" t="s">
-        <v>275</v>
+        <v>278</v>
       </c>
       <c r="Q54">
         <v>4</v>
@@ -11658,7 +11661,7 @@
         <v>1.3</v>
       </c>
       <c r="AT54">
-        <v>1.75</v>
+        <v>1.56</v>
       </c>
       <c r="AU54">
         <v>1.63</v>
@@ -11950,7 +11953,7 @@
         <v>96</v>
       </c>
       <c r="P56" t="s">
-        <v>276</v>
+        <v>255</v>
       </c>
       <c r="Q56">
         <v>6</v>
@@ -12141,7 +12144,7 @@
         <v>124</v>
       </c>
       <c r="P57" t="s">
-        <v>277</v>
+        <v>279</v>
       </c>
       <c r="Q57">
         <v>3</v>
@@ -12231,7 +12234,7 @@
         <v>1.3</v>
       </c>
       <c r="AT57">
-        <v>0.63</v>
+        <v>0.5600000000000001</v>
       </c>
       <c r="AU57">
         <v>1.13</v>
@@ -12332,7 +12335,7 @@
         <v>96</v>
       </c>
       <c r="P58" t="s">
-        <v>278</v>
+        <v>280</v>
       </c>
       <c r="Q58">
         <v>2</v>
@@ -12905,7 +12908,7 @@
         <v>127</v>
       </c>
       <c r="P61" t="s">
-        <v>279</v>
+        <v>281</v>
       </c>
       <c r="Q61">
         <v>4</v>
@@ -13287,7 +13290,7 @@
         <v>129</v>
       </c>
       <c r="P63" t="s">
-        <v>280</v>
+        <v>282</v>
       </c>
       <c r="Q63">
         <v>4</v>
@@ -13860,7 +13863,7 @@
         <v>132</v>
       </c>
       <c r="P66" t="s">
-        <v>281</v>
+        <v>283</v>
       </c>
       <c r="Q66">
         <v>11</v>
@@ -13947,7 +13950,7 @@
         <v>0</v>
       </c>
       <c r="AS66">
-        <v>2.63</v>
+        <v>2.67</v>
       </c>
       <c r="AT66">
         <v>0.36</v>
@@ -14051,7 +14054,7 @@
         <v>133</v>
       </c>
       <c r="P67" t="s">
-        <v>268</v>
+        <v>271</v>
       </c>
       <c r="Q67">
         <v>2</v>
@@ -14711,10 +14714,10 @@
         <v>3</v>
       </c>
       <c r="AS70">
-        <v>1.56</v>
+        <v>1.7</v>
       </c>
       <c r="AT70">
-        <v>1.1</v>
+        <v>1.09</v>
       </c>
       <c r="AU70">
         <v>1.87</v>
@@ -15197,7 +15200,7 @@
         <v>137</v>
       </c>
       <c r="P73" t="s">
-        <v>282</v>
+        <v>284</v>
       </c>
       <c r="Q73">
         <v>13</v>
@@ -15770,7 +15773,7 @@
         <v>96</v>
       </c>
       <c r="P76" t="s">
-        <v>283</v>
+        <v>285</v>
       </c>
       <c r="Q76">
         <v>10</v>
@@ -16534,7 +16537,7 @@
         <v>141</v>
       </c>
       <c r="P80" t="s">
-        <v>284</v>
+        <v>286</v>
       </c>
       <c r="Q80">
         <v>5</v>
@@ -16916,7 +16919,7 @@
         <v>142</v>
       </c>
       <c r="P82" t="s">
-        <v>285</v>
+        <v>287</v>
       </c>
       <c r="Q82">
         <v>2</v>
@@ -17006,7 +17009,7 @@
         <v>2</v>
       </c>
       <c r="AT82">
-        <v>0.63</v>
+        <v>0.5600000000000001</v>
       </c>
       <c r="AU82">
         <v>1.61</v>
@@ -17298,7 +17301,7 @@
         <v>96</v>
       </c>
       <c r="P84" t="s">
-        <v>286</v>
+        <v>288</v>
       </c>
       <c r="Q84">
         <v>4</v>
@@ -17579,7 +17582,7 @@
         <v>1.64</v>
       </c>
       <c r="AT85">
-        <v>1.75</v>
+        <v>1.56</v>
       </c>
       <c r="AU85">
         <v>1.52</v>
@@ -17680,7 +17683,7 @@
         <v>115</v>
       </c>
       <c r="P86" t="s">
-        <v>287</v>
+        <v>289</v>
       </c>
       <c r="Q86">
         <v>6</v>
@@ -18062,7 +18065,7 @@
         <v>145</v>
       </c>
       <c r="P88" t="s">
-        <v>288</v>
+        <v>290</v>
       </c>
       <c r="Q88">
         <v>5</v>
@@ -18444,7 +18447,7 @@
         <v>147</v>
       </c>
       <c r="P90" t="s">
-        <v>289</v>
+        <v>291</v>
       </c>
       <c r="Q90">
         <v>8</v>
@@ -18916,7 +18919,7 @@
         <v>2</v>
       </c>
       <c r="AT92">
-        <v>1.1</v>
+        <v>1.09</v>
       </c>
       <c r="AU92">
         <v>0.97</v>
@@ -19104,7 +19107,7 @@
         <v>1.67</v>
       </c>
       <c r="AS93">
-        <v>1.56</v>
+        <v>1.7</v>
       </c>
       <c r="AT93">
         <v>1.18</v>
@@ -19295,7 +19298,7 @@
         <v>1</v>
       </c>
       <c r="AS94">
-        <v>2.63</v>
+        <v>2.67</v>
       </c>
       <c r="AT94">
         <v>1</v>
@@ -19399,7 +19402,7 @@
         <v>151</v>
       </c>
       <c r="P95" t="s">
-        <v>290</v>
+        <v>292</v>
       </c>
       <c r="Q95">
         <v>9</v>
@@ -19972,7 +19975,7 @@
         <v>153</v>
       </c>
       <c r="P98" t="s">
-        <v>291</v>
+        <v>293</v>
       </c>
       <c r="Q98">
         <v>6</v>
@@ -20163,7 +20166,7 @@
         <v>154</v>
       </c>
       <c r="P99" t="s">
-        <v>288</v>
+        <v>290</v>
       </c>
       <c r="Q99">
         <v>5</v>
@@ -20354,7 +20357,7 @@
         <v>155</v>
       </c>
       <c r="P100" t="s">
-        <v>292</v>
+        <v>294</v>
       </c>
       <c r="Q100">
         <v>1</v>
@@ -20736,7 +20739,7 @@
         <v>157</v>
       </c>
       <c r="P102" t="s">
-        <v>293</v>
+        <v>295</v>
       </c>
       <c r="Q102">
         <v>2</v>
@@ -21017,7 +21020,7 @@
         <v>1.73</v>
       </c>
       <c r="AT103">
-        <v>1.75</v>
+        <v>1.56</v>
       </c>
       <c r="AU103">
         <v>1.53</v>
@@ -21118,7 +21121,7 @@
         <v>159</v>
       </c>
       <c r="P104" t="s">
-        <v>261</v>
+        <v>264</v>
       </c>
       <c r="Q104">
         <v>6</v>
@@ -21309,7 +21312,7 @@
         <v>160</v>
       </c>
       <c r="P105" t="s">
-        <v>294</v>
+        <v>296</v>
       </c>
       <c r="Q105">
         <v>5</v>
@@ -21500,7 +21503,7 @@
         <v>161</v>
       </c>
       <c r="P106" t="s">
-        <v>289</v>
+        <v>291</v>
       </c>
       <c r="Q106">
         <v>11</v>
@@ -21691,7 +21694,7 @@
         <v>162</v>
       </c>
       <c r="P107" t="s">
-        <v>295</v>
+        <v>297</v>
       </c>
       <c r="Q107">
         <v>8</v>
@@ -22073,7 +22076,7 @@
         <v>96</v>
       </c>
       <c r="P109" t="s">
-        <v>296</v>
+        <v>298</v>
       </c>
       <c r="Q109">
         <v>9</v>
@@ -22646,7 +22649,7 @@
         <v>96</v>
       </c>
       <c r="P112" t="s">
-        <v>297</v>
+        <v>299</v>
       </c>
       <c r="Q112">
         <v>9</v>
@@ -23118,7 +23121,7 @@
         <v>1.73</v>
       </c>
       <c r="AT114">
-        <v>0.63</v>
+        <v>0.5600000000000001</v>
       </c>
       <c r="AU114">
         <v>1.42</v>
@@ -23879,7 +23882,7 @@
         <v>0.75</v>
       </c>
       <c r="AS118">
-        <v>2.63</v>
+        <v>2.67</v>
       </c>
       <c r="AT118">
         <v>1</v>
@@ -23983,7 +23986,7 @@
         <v>96</v>
       </c>
       <c r="P119" t="s">
-        <v>298</v>
+        <v>300</v>
       </c>
       <c r="Q119">
         <v>0</v>
@@ -24365,7 +24368,7 @@
         <v>169</v>
       </c>
       <c r="P121" t="s">
-        <v>299</v>
+        <v>301</v>
       </c>
       <c r="Q121">
         <v>5</v>
@@ -24452,7 +24455,7 @@
         <v>1.25</v>
       </c>
       <c r="AS121">
-        <v>1.56</v>
+        <v>1.7</v>
       </c>
       <c r="AT121">
         <v>0.55</v>
@@ -24646,7 +24649,7 @@
         <v>1.33</v>
       </c>
       <c r="AT122">
-        <v>1.1</v>
+        <v>1.09</v>
       </c>
       <c r="AU122">
         <v>1.77</v>
@@ -24747,7 +24750,7 @@
         <v>96</v>
       </c>
       <c r="P123" t="s">
-        <v>300</v>
+        <v>302</v>
       </c>
       <c r="Q123">
         <v>8</v>
@@ -25129,7 +25132,7 @@
         <v>96</v>
       </c>
       <c r="P125" t="s">
-        <v>301</v>
+        <v>303</v>
       </c>
       <c r="Q125">
         <v>6</v>
@@ -26084,7 +26087,7 @@
         <v>173</v>
       </c>
       <c r="P130" t="s">
-        <v>302</v>
+        <v>304</v>
       </c>
       <c r="Q130">
         <v>5</v>
@@ -26657,7 +26660,7 @@
         <v>176</v>
       </c>
       <c r="P133" t="s">
-        <v>258</v>
+        <v>261</v>
       </c>
       <c r="Q133">
         <v>4</v>
@@ -26848,7 +26851,7 @@
         <v>96</v>
       </c>
       <c r="P134" t="s">
-        <v>303</v>
+        <v>305</v>
       </c>
       <c r="Q134">
         <v>7</v>
@@ -27039,7 +27042,7 @@
         <v>159</v>
       </c>
       <c r="P135" t="s">
-        <v>304</v>
+        <v>306</v>
       </c>
       <c r="Q135">
         <v>6</v>
@@ -27230,7 +27233,7 @@
         <v>177</v>
       </c>
       <c r="P136" t="s">
-        <v>267</v>
+        <v>270</v>
       </c>
       <c r="Q136">
         <v>10</v>
@@ -27421,7 +27424,7 @@
         <v>178</v>
       </c>
       <c r="P137" t="s">
-        <v>305</v>
+        <v>307</v>
       </c>
       <c r="Q137">
         <v>4</v>
@@ -27612,7 +27615,7 @@
         <v>115</v>
       </c>
       <c r="P138" t="s">
-        <v>306</v>
+        <v>308</v>
       </c>
       <c r="Q138">
         <v>2</v>
@@ -27994,7 +27997,7 @@
         <v>96</v>
       </c>
       <c r="P140" t="s">
-        <v>307</v>
+        <v>309</v>
       </c>
       <c r="Q140">
         <v>4</v>
@@ -28185,7 +28188,7 @@
         <v>177</v>
       </c>
       <c r="P141" t="s">
-        <v>308</v>
+        <v>310</v>
       </c>
       <c r="Q141">
         <v>4</v>
@@ -28567,7 +28570,7 @@
         <v>179</v>
       </c>
       <c r="P143" t="s">
-        <v>269</v>
+        <v>272</v>
       </c>
       <c r="Q143">
         <v>5</v>
@@ -28848,7 +28851,7 @@
         <v>1.36</v>
       </c>
       <c r="AT144">
-        <v>0.63</v>
+        <v>0.5600000000000001</v>
       </c>
       <c r="AU144">
         <v>1.49</v>
@@ -28949,7 +28952,7 @@
         <v>96</v>
       </c>
       <c r="P145" t="s">
-        <v>309</v>
+        <v>311</v>
       </c>
       <c r="Q145">
         <v>6</v>
@@ -29039,7 +29042,7 @@
         <v>1.18</v>
       </c>
       <c r="AT145">
-        <v>1.75</v>
+        <v>1.56</v>
       </c>
       <c r="AU145">
         <v>1.78</v>
@@ -29140,7 +29143,7 @@
         <v>125</v>
       </c>
       <c r="P146" t="s">
-        <v>276</v>
+        <v>255</v>
       </c>
       <c r="Q146">
         <v>7</v>
@@ -29230,7 +29233,7 @@
         <v>1.3</v>
       </c>
       <c r="AT146">
-        <v>1.1</v>
+        <v>1.09</v>
       </c>
       <c r="AU146">
         <v>1.4</v>
@@ -29800,7 +29803,7 @@
         <v>0.4</v>
       </c>
       <c r="AS149">
-        <v>1.56</v>
+        <v>1.7</v>
       </c>
       <c r="AT149">
         <v>0.7</v>
@@ -30286,7 +30289,7 @@
         <v>183</v>
       </c>
       <c r="P152" t="s">
-        <v>310</v>
+        <v>312</v>
       </c>
       <c r="Q152">
         <v>1</v>
@@ -30477,7 +30480,7 @@
         <v>184</v>
       </c>
       <c r="P153" t="s">
-        <v>311</v>
+        <v>313</v>
       </c>
       <c r="Q153">
         <v>1</v>
@@ -30755,7 +30758,7 @@
         <v>0.2</v>
       </c>
       <c r="AS154">
-        <v>2.63</v>
+        <v>2.67</v>
       </c>
       <c r="AT154">
         <v>0.7</v>
@@ -31623,7 +31626,7 @@
         <v>96</v>
       </c>
       <c r="P159" t="s">
-        <v>312</v>
+        <v>314</v>
       </c>
       <c r="Q159">
         <v>15</v>
@@ -32387,7 +32390,7 @@
         <v>96</v>
       </c>
       <c r="P163" t="s">
-        <v>313</v>
+        <v>315</v>
       </c>
       <c r="Q163">
         <v>1</v>
@@ -33342,7 +33345,7 @@
         <v>189</v>
       </c>
       <c r="P168" t="s">
-        <v>314</v>
+        <v>316</v>
       </c>
       <c r="Q168">
         <v>3</v>
@@ -33533,7 +33536,7 @@
         <v>190</v>
       </c>
       <c r="P169" t="s">
-        <v>315</v>
+        <v>317</v>
       </c>
       <c r="Q169">
         <v>1</v>
@@ -33623,7 +33626,7 @@
         <v>2</v>
       </c>
       <c r="AT169">
-        <v>1.1</v>
+        <v>1.09</v>
       </c>
       <c r="AU169">
         <v>1.4</v>
@@ -33724,7 +33727,7 @@
         <v>191</v>
       </c>
       <c r="P170" t="s">
-        <v>261</v>
+        <v>264</v>
       </c>
       <c r="Q170">
         <v>7</v>
@@ -33814,7 +33817,7 @@
         <v>1.36</v>
       </c>
       <c r="AT170">
-        <v>0.63</v>
+        <v>0.5600000000000001</v>
       </c>
       <c r="AU170">
         <v>1.69</v>
@@ -33915,7 +33918,7 @@
         <v>192</v>
       </c>
       <c r="P171" t="s">
-        <v>288</v>
+        <v>290</v>
       </c>
       <c r="Q171">
         <v>3</v>
@@ -34106,7 +34109,7 @@
         <v>193</v>
       </c>
       <c r="P172" t="s">
-        <v>277</v>
+        <v>279</v>
       </c>
       <c r="Q172">
         <v>4</v>
@@ -34488,7 +34491,7 @@
         <v>96</v>
       </c>
       <c r="P174" t="s">
-        <v>316</v>
+        <v>318</v>
       </c>
       <c r="Q174">
         <v>5</v>
@@ -34870,7 +34873,7 @@
         <v>194</v>
       </c>
       <c r="P176" t="s">
-        <v>317</v>
+        <v>319</v>
       </c>
       <c r="Q176">
         <v>2</v>
@@ -35530,7 +35533,7 @@
         <v>1.17</v>
       </c>
       <c r="AS179">
-        <v>2.63</v>
+        <v>2.67</v>
       </c>
       <c r="AT179">
         <v>0.8</v>
@@ -35634,7 +35637,7 @@
         <v>96</v>
       </c>
       <c r="P180" t="s">
-        <v>318</v>
+        <v>320</v>
       </c>
       <c r="Q180">
         <v>5</v>
@@ -35724,7 +35727,7 @@
         <v>1.45</v>
       </c>
       <c r="AT180">
-        <v>1.75</v>
+        <v>1.56</v>
       </c>
       <c r="AU180">
         <v>0.85</v>
@@ -35825,7 +35828,7 @@
         <v>198</v>
       </c>
       <c r="P181" t="s">
-        <v>319</v>
+        <v>321</v>
       </c>
       <c r="Q181">
         <v>6</v>
@@ -35912,7 +35915,7 @@
         <v>0.67</v>
       </c>
       <c r="AS181">
-        <v>1.56</v>
+        <v>1.7</v>
       </c>
       <c r="AT181">
         <v>0.8</v>
@@ -36016,7 +36019,7 @@
         <v>199</v>
       </c>
       <c r="P182" t="s">
-        <v>320</v>
+        <v>322</v>
       </c>
       <c r="Q182">
         <v>12</v>
@@ -36398,7 +36401,7 @@
         <v>201</v>
       </c>
       <c r="P184" t="s">
-        <v>321</v>
+        <v>323</v>
       </c>
       <c r="Q184">
         <v>5</v>
@@ -36589,7 +36592,7 @@
         <v>202</v>
       </c>
       <c r="P185" t="s">
-        <v>322</v>
+        <v>253</v>
       </c>
       <c r="Q185">
         <v>4</v>
@@ -36971,7 +36974,7 @@
         <v>203</v>
       </c>
       <c r="P187" t="s">
-        <v>323</v>
+        <v>324</v>
       </c>
       <c r="Q187">
         <v>2</v>
@@ -37544,7 +37547,7 @@
         <v>200</v>
       </c>
       <c r="P190" t="s">
-        <v>313</v>
+        <v>315</v>
       </c>
       <c r="Q190">
         <v>3</v>
@@ -37926,7 +37929,7 @@
         <v>96</v>
       </c>
       <c r="P192" t="s">
-        <v>324</v>
+        <v>325</v>
       </c>
       <c r="Q192">
         <v>6</v>
@@ -39836,7 +39839,7 @@
         <v>211</v>
       </c>
       <c r="P202" t="s">
-        <v>325</v>
+        <v>326</v>
       </c>
       <c r="Q202">
         <v>8</v>
@@ -40305,7 +40308,7 @@
         <v>1.17</v>
       </c>
       <c r="AS204">
-        <v>2.63</v>
+        <v>2.67</v>
       </c>
       <c r="AT204">
         <v>1.11</v>
@@ -40499,7 +40502,7 @@
         <v>2</v>
       </c>
       <c r="AT205">
-        <v>0.63</v>
+        <v>0.5600000000000001</v>
       </c>
       <c r="AU205">
         <v>1.52</v>
@@ -40600,7 +40603,7 @@
         <v>214</v>
       </c>
       <c r="P206" t="s">
-        <v>326</v>
+        <v>327</v>
       </c>
       <c r="Q206">
         <v>1</v>
@@ -41072,7 +41075,7 @@
         <v>2.27</v>
       </c>
       <c r="AT208">
-        <v>1.75</v>
+        <v>1.56</v>
       </c>
       <c r="AU208">
         <v>1.4</v>
@@ -41173,7 +41176,7 @@
         <v>215</v>
       </c>
       <c r="P209" t="s">
-        <v>327</v>
+        <v>328</v>
       </c>
       <c r="Q209">
         <v>5</v>
@@ -41260,7 +41263,7 @@
         <v>1.83</v>
       </c>
       <c r="AS209">
-        <v>1.56</v>
+        <v>1.7</v>
       </c>
       <c r="AT209">
         <v>2</v>
@@ -41746,7 +41749,7 @@
         <v>216</v>
       </c>
       <c r="P212" t="s">
-        <v>328</v>
+        <v>329</v>
       </c>
       <c r="Q212">
         <v>2</v>
@@ -41937,7 +41940,7 @@
         <v>217</v>
       </c>
       <c r="P213" t="s">
-        <v>329</v>
+        <v>330</v>
       </c>
       <c r="Q213">
         <v>12</v>
@@ -42128,7 +42131,7 @@
         <v>110</v>
       </c>
       <c r="P214" t="s">
-        <v>330</v>
+        <v>331</v>
       </c>
       <c r="Q214">
         <v>9</v>
@@ -43274,7 +43277,7 @@
         <v>223</v>
       </c>
       <c r="P220" t="s">
-        <v>274</v>
+        <v>277</v>
       </c>
       <c r="Q220">
         <v>3</v>
@@ -43465,7 +43468,7 @@
         <v>224</v>
       </c>
       <c r="P221" t="s">
-        <v>331</v>
+        <v>332</v>
       </c>
       <c r="Q221">
         <v>4</v>
@@ -43656,7 +43659,7 @@
         <v>96</v>
       </c>
       <c r="P222" t="s">
-        <v>332</v>
+        <v>333</v>
       </c>
       <c r="Q222">
         <v>14</v>
@@ -43937,7 +43940,7 @@
         <v>1.8</v>
       </c>
       <c r="AT223">
-        <v>1.1</v>
+        <v>1.09</v>
       </c>
       <c r="AU223">
         <v>1.53</v>
@@ -44701,7 +44704,7 @@
         <v>2.6</v>
       </c>
       <c r="AT227">
-        <v>1.75</v>
+        <v>1.56</v>
       </c>
       <c r="AU227">
         <v>1.49</v>
@@ -46330,7 +46333,7 @@
         <v>201</v>
       </c>
       <c r="P236" t="s">
-        <v>322</v>
+        <v>253</v>
       </c>
       <c r="Q236">
         <v>9</v>
@@ -46608,7 +46611,7 @@
         <v>1</v>
       </c>
       <c r="AS237">
-        <v>2.63</v>
+        <v>2.67</v>
       </c>
       <c r="AT237">
         <v>0.78</v>
@@ -47375,7 +47378,7 @@
         <v>1.3</v>
       </c>
       <c r="AT241">
-        <v>1.1</v>
+        <v>1.09</v>
       </c>
       <c r="AU241">
         <v>1.44</v>
@@ -48431,7 +48434,7 @@
         <v>235</v>
       </c>
       <c r="P247" t="s">
-        <v>333</v>
+        <v>334</v>
       </c>
       <c r="Q247">
         <v>1</v>
@@ -48622,7 +48625,7 @@
         <v>96</v>
       </c>
       <c r="P248" t="s">
-        <v>271</v>
+        <v>274</v>
       </c>
       <c r="Q248">
         <v>7</v>
@@ -49195,7 +49198,7 @@
         <v>237</v>
       </c>
       <c r="P251" t="s">
-        <v>334</v>
+        <v>335</v>
       </c>
       <c r="Q251">
         <v>3</v>
@@ -49768,7 +49771,7 @@
         <v>238</v>
       </c>
       <c r="P254" t="s">
-        <v>335</v>
+        <v>336</v>
       </c>
       <c r="Q254">
         <v>7</v>
@@ -49959,7 +49962,7 @@
         <v>239</v>
       </c>
       <c r="P255" t="s">
-        <v>336</v>
+        <v>337</v>
       </c>
       <c r="Q255">
         <v>6</v>
@@ -50431,7 +50434,7 @@
         <v>2</v>
       </c>
       <c r="AT257">
-        <v>0.63</v>
+        <v>0.5600000000000001</v>
       </c>
       <c r="AU257">
         <v>1.23</v>
@@ -50723,7 +50726,7 @@
         <v>242</v>
       </c>
       <c r="P259" t="s">
-        <v>337</v>
+        <v>338</v>
       </c>
       <c r="Q259">
         <v>2</v>
@@ -51001,7 +51004,7 @@
         <v>0.63</v>
       </c>
       <c r="AS260">
-        <v>1.56</v>
+        <v>1.7</v>
       </c>
       <c r="AT260">
         <v>0.5600000000000001</v>
@@ -51487,7 +51490,7 @@
         <v>245</v>
       </c>
       <c r="P263" t="s">
-        <v>276</v>
+        <v>255</v>
       </c>
       <c r="Q263">
         <v>7</v>
@@ -52442,7 +52445,7 @@
         <v>249</v>
       </c>
       <c r="P268" t="s">
-        <v>294</v>
+        <v>296</v>
       </c>
       <c r="Q268">
         <v>6</v>
@@ -52532,7 +52535,7 @@
         <v>1.64</v>
       </c>
       <c r="AT268">
-        <v>1.1</v>
+        <v>1.09</v>
       </c>
       <c r="AU268">
         <v>1.63</v>
@@ -52824,7 +52827,7 @@
         <v>159</v>
       </c>
       <c r="P270" t="s">
-        <v>322</v>
+        <v>253</v>
       </c>
       <c r="Q270">
         <v>7</v>
@@ -53206,7 +53209,7 @@
         <v>201</v>
       </c>
       <c r="P272" t="s">
-        <v>338</v>
+        <v>339</v>
       </c>
       <c r="Q272">
         <v>7</v>
@@ -53397,7 +53400,7 @@
         <v>201</v>
       </c>
       <c r="P273" t="s">
-        <v>337</v>
+        <v>338</v>
       </c>
       <c r="Q273">
         <v>4</v>
@@ -54352,7 +54355,7 @@
         <v>252</v>
       </c>
       <c r="P278" t="s">
-        <v>269</v>
+        <v>272</v>
       </c>
       <c r="Q278">
         <v>4</v>
@@ -54494,6 +54497,579 @@
       </c>
       <c r="BK278">
         <v>10</v>
+      </c>
+    </row>
+    <row r="279" spans="1:63">
+      <c r="A279" s="1">
+        <v>278</v>
+      </c>
+      <c r="B279">
+        <v>4554604</v>
+      </c>
+      <c r="C279" t="s">
+        <v>63</v>
+      </c>
+      <c r="D279" t="s">
+        <v>64</v>
+      </c>
+      <c r="E279" s="2">
+        <v>45094.64583333334</v>
+      </c>
+      <c r="F279">
+        <v>14</v>
+      </c>
+      <c r="G279" t="s">
+        <v>89</v>
+      </c>
+      <c r="H279" t="s">
+        <v>84</v>
+      </c>
+      <c r="I279">
+        <v>0</v>
+      </c>
+      <c r="J279">
+        <v>0</v>
+      </c>
+      <c r="K279">
+        <v>0</v>
+      </c>
+      <c r="L279">
+        <v>1</v>
+      </c>
+      <c r="M279">
+        <v>1</v>
+      </c>
+      <c r="N279">
+        <v>2</v>
+      </c>
+      <c r="O279" t="s">
+        <v>253</v>
+      </c>
+      <c r="P279" t="s">
+        <v>99</v>
+      </c>
+      <c r="Q279">
+        <v>7</v>
+      </c>
+      <c r="R279">
+        <v>2</v>
+      </c>
+      <c r="S279">
+        <v>9</v>
+      </c>
+      <c r="T279">
+        <v>3.45</v>
+      </c>
+      <c r="U279">
+        <v>1.98</v>
+      </c>
+      <c r="V279">
+        <v>3.4</v>
+      </c>
+      <c r="W279">
+        <v>1.46</v>
+      </c>
+      <c r="X279">
+        <v>2.55</v>
+      </c>
+      <c r="Y279">
+        <v>3.45</v>
+      </c>
+      <c r="Z279">
+        <v>1.27</v>
+      </c>
+      <c r="AA279">
+        <v>10</v>
+      </c>
+      <c r="AB279">
+        <v>1.05</v>
+      </c>
+      <c r="AC279">
+        <v>2.71</v>
+      </c>
+      <c r="AD279">
+        <v>3.03</v>
+      </c>
+      <c r="AE279">
+        <v>2.67</v>
+      </c>
+      <c r="AF279">
+        <v>1.07</v>
+      </c>
+      <c r="AG279">
+        <v>6.3</v>
+      </c>
+      <c r="AH279">
+        <v>1.37</v>
+      </c>
+      <c r="AI279">
+        <v>2.8</v>
+      </c>
+      <c r="AJ279">
+        <v>2.24</v>
+      </c>
+      <c r="AK279">
+        <v>1.55</v>
+      </c>
+      <c r="AL279">
+        <v>1.97</v>
+      </c>
+      <c r="AM279">
+        <v>1.81</v>
+      </c>
+      <c r="AN279">
+        <v>1.48</v>
+      </c>
+      <c r="AO279">
+        <v>1.38</v>
+      </c>
+      <c r="AP279">
+        <v>1.47</v>
+      </c>
+      <c r="AQ279">
+        <v>1</v>
+      </c>
+      <c r="AR279">
+        <v>1.1</v>
+      </c>
+      <c r="AS279">
+        <v>1</v>
+      </c>
+      <c r="AT279">
+        <v>1.09</v>
+      </c>
+      <c r="AU279">
+        <v>1.64</v>
+      </c>
+      <c r="AV279">
+        <v>1.33</v>
+      </c>
+      <c r="AW279">
+        <v>2.97</v>
+      </c>
+      <c r="AX279">
+        <v>1.74</v>
+      </c>
+      <c r="AY279">
+        <v>7</v>
+      </c>
+      <c r="AZ279">
+        <v>2.6</v>
+      </c>
+      <c r="BA279">
+        <v>1.29</v>
+      </c>
+      <c r="BB279">
+        <v>1.53</v>
+      </c>
+      <c r="BC279">
+        <v>1.92</v>
+      </c>
+      <c r="BD279">
+        <v>2.55</v>
+      </c>
+      <c r="BE279">
+        <v>3.5</v>
+      </c>
+      <c r="BF279">
+        <v>4</v>
+      </c>
+      <c r="BG279">
+        <v>2</v>
+      </c>
+      <c r="BH279">
+        <v>4</v>
+      </c>
+      <c r="BI279">
+        <v>4</v>
+      </c>
+      <c r="BJ279">
+        <v>8</v>
+      </c>
+      <c r="BK279">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="280" spans="1:63">
+      <c r="A280" s="1">
+        <v>279</v>
+      </c>
+      <c r="B280">
+        <v>4554637</v>
+      </c>
+      <c r="C280" t="s">
+        <v>63</v>
+      </c>
+      <c r="D280" t="s">
+        <v>64</v>
+      </c>
+      <c r="E280" s="2">
+        <v>45094.75</v>
+      </c>
+      <c r="F280">
+        <v>17</v>
+      </c>
+      <c r="G280" t="s">
+        <v>74</v>
+      </c>
+      <c r="H280" t="s">
+        <v>77</v>
+      </c>
+      <c r="I280">
+        <v>2</v>
+      </c>
+      <c r="J280">
+        <v>1</v>
+      </c>
+      <c r="K280">
+        <v>3</v>
+      </c>
+      <c r="L280">
+        <v>2</v>
+      </c>
+      <c r="M280">
+        <v>1</v>
+      </c>
+      <c r="N280">
+        <v>3</v>
+      </c>
+      <c r="O280" t="s">
+        <v>254</v>
+      </c>
+      <c r="P280" t="s">
+        <v>145</v>
+      </c>
+      <c r="Q280">
+        <v>3</v>
+      </c>
+      <c r="R280">
+        <v>3</v>
+      </c>
+      <c r="S280">
+        <v>6</v>
+      </c>
+      <c r="T280">
+        <v>2.75</v>
+      </c>
+      <c r="U280">
+        <v>1.93</v>
+      </c>
+      <c r="V280">
+        <v>4.1</v>
+      </c>
+      <c r="W280">
+        <v>1.5</v>
+      </c>
+      <c r="X280">
+        <v>2.37</v>
+      </c>
+      <c r="Y280">
+        <v>3.3</v>
+      </c>
+      <c r="Z280">
+        <v>1.29</v>
+      </c>
+      <c r="AA280">
+        <v>9.25</v>
+      </c>
+      <c r="AB280">
+        <v>1.05</v>
+      </c>
+      <c r="AC280">
+        <v>2.1</v>
+      </c>
+      <c r="AD280">
+        <v>3.25</v>
+      </c>
+      <c r="AE280">
+        <v>3.6</v>
+      </c>
+      <c r="AF280">
+        <v>1.09</v>
+      </c>
+      <c r="AG280">
+        <v>8</v>
+      </c>
+      <c r="AH280">
+        <v>1.47</v>
+      </c>
+      <c r="AI280">
+        <v>2.7</v>
+      </c>
+      <c r="AJ280">
+        <v>2.4</v>
+      </c>
+      <c r="AK280">
+        <v>1.55</v>
+      </c>
+      <c r="AL280">
+        <v>2</v>
+      </c>
+      <c r="AM280">
+        <v>1.68</v>
+      </c>
+      <c r="AN280">
+        <v>1.27</v>
+      </c>
+      <c r="AO280">
+        <v>1.34</v>
+      </c>
+      <c r="AP280">
+        <v>1.68</v>
+      </c>
+      <c r="AQ280">
+        <v>1.56</v>
+      </c>
+      <c r="AR280">
+        <v>0.63</v>
+      </c>
+      <c r="AS280">
+        <v>1.7</v>
+      </c>
+      <c r="AT280">
+        <v>0.5600000000000001</v>
+      </c>
+      <c r="AU280">
+        <v>1.71</v>
+      </c>
+      <c r="AV280">
+        <v>1.03</v>
+      </c>
+      <c r="AW280">
+        <v>2.74</v>
+      </c>
+      <c r="AX280">
+        <v>1.62</v>
+      </c>
+      <c r="AY280">
+        <v>7</v>
+      </c>
+      <c r="AZ280">
+        <v>2.88</v>
+      </c>
+      <c r="BA280">
+        <v>1.36</v>
+      </c>
+      <c r="BB280">
+        <v>1.66</v>
+      </c>
+      <c r="BC280">
+        <v>2.12</v>
+      </c>
+      <c r="BD280">
+        <v>2.88</v>
+      </c>
+      <c r="BE280">
+        <v>4.1</v>
+      </c>
+      <c r="BF280">
+        <v>6</v>
+      </c>
+      <c r="BG280">
+        <v>7</v>
+      </c>
+      <c r="BH280">
+        <v>2</v>
+      </c>
+      <c r="BI280">
+        <v>6</v>
+      </c>
+      <c r="BJ280">
+        <v>8</v>
+      </c>
+      <c r="BK280">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="281" spans="1:63">
+      <c r="A281" s="1">
+        <v>280</v>
+      </c>
+      <c r="B281">
+        <v>4554661</v>
+      </c>
+      <c r="C281" t="s">
+        <v>63</v>
+      </c>
+      <c r="D281" t="s">
+        <v>64</v>
+      </c>
+      <c r="E281" s="2">
+        <v>45094.875</v>
+      </c>
+      <c r="F281">
+        <v>19</v>
+      </c>
+      <c r="G281" t="s">
+        <v>92</v>
+      </c>
+      <c r="H281" t="s">
+        <v>66</v>
+      </c>
+      <c r="I281">
+        <v>0</v>
+      </c>
+      <c r="J281">
+        <v>0</v>
+      </c>
+      <c r="K281">
+        <v>0</v>
+      </c>
+      <c r="L281">
+        <v>1</v>
+      </c>
+      <c r="M281">
+        <v>0</v>
+      </c>
+      <c r="N281">
+        <v>1</v>
+      </c>
+      <c r="O281" t="s">
+        <v>255</v>
+      </c>
+      <c r="P281" t="s">
+        <v>96</v>
+      </c>
+      <c r="Q281">
+        <v>3</v>
+      </c>
+      <c r="R281">
+        <v>1</v>
+      </c>
+      <c r="S281">
+        <v>4</v>
+      </c>
+      <c r="T281">
+        <v>1.95</v>
+      </c>
+      <c r="U281">
+        <v>2.4</v>
+      </c>
+      <c r="V281">
+        <v>6.5</v>
+      </c>
+      <c r="W281">
+        <v>1.34</v>
+      </c>
+      <c r="X281">
+        <v>3</v>
+      </c>
+      <c r="Y281">
+        <v>2.6</v>
+      </c>
+      <c r="Z281">
+        <v>1.44</v>
+      </c>
+      <c r="AA281">
+        <v>6.4</v>
+      </c>
+      <c r="AB281">
+        <v>1.09</v>
+      </c>
+      <c r="AC281">
+        <v>1.45</v>
+      </c>
+      <c r="AD281">
+        <v>4.33</v>
+      </c>
+      <c r="AE281">
+        <v>7</v>
+      </c>
+      <c r="AF281">
+        <v>1.03</v>
+      </c>
+      <c r="AG281">
+        <v>13</v>
+      </c>
+      <c r="AH281">
+        <v>1.25</v>
+      </c>
+      <c r="AI281">
+        <v>3.75</v>
+      </c>
+      <c r="AJ281">
+        <v>1.73</v>
+      </c>
+      <c r="AK281">
+        <v>1.96</v>
+      </c>
+      <c r="AL281">
+        <v>1.95</v>
+      </c>
+      <c r="AM281">
+        <v>1.73</v>
+      </c>
+      <c r="AN281">
+        <v>1.09</v>
+      </c>
+      <c r="AO281">
+        <v>1.2</v>
+      </c>
+      <c r="AP281">
+        <v>2.75</v>
+      </c>
+      <c r="AQ281">
+        <v>2.63</v>
+      </c>
+      <c r="AR281">
+        <v>1.75</v>
+      </c>
+      <c r="AS281">
+        <v>2.67</v>
+      </c>
+      <c r="AT281">
+        <v>1.56</v>
+      </c>
+      <c r="AU281">
+        <v>1.88</v>
+      </c>
+      <c r="AV281">
+        <v>1.44</v>
+      </c>
+      <c r="AW281">
+        <v>3.32</v>
+      </c>
+      <c r="AX281">
+        <v>1.09</v>
+      </c>
+      <c r="AY281">
+        <v>13</v>
+      </c>
+      <c r="AZ281">
+        <v>8.800000000000001</v>
+      </c>
+      <c r="BA281">
+        <v>1.22</v>
+      </c>
+      <c r="BB281">
+        <v>1.41</v>
+      </c>
+      <c r="BC281">
+        <v>1.73</v>
+      </c>
+      <c r="BD281">
+        <v>2.23</v>
+      </c>
+      <c r="BE281">
+        <v>3</v>
+      </c>
+      <c r="BF281">
+        <v>2</v>
+      </c>
+      <c r="BG281">
+        <v>2</v>
+      </c>
+      <c r="BH281">
+        <v>2</v>
+      </c>
+      <c r="BI281">
+        <v>1</v>
+      </c>
+      <c r="BJ281">
+        <v>4</v>
+      </c>
+      <c r="BK281">
+        <v>3</v>
       </c>
     </row>
   </sheetData>

--- a/Bases_de_Dados_(2022-2023)/Argentina Primera División_2023.xlsx
+++ b/Bases_de_Dados_(2022-2023)/Argentina Primera División_2023.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1743" uniqueCount="340">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1755" uniqueCount="340">
   <si>
     <t>Id_Jogo</t>
   </si>
@@ -1395,7 +1395,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:BK281"/>
+  <dimension ref="A1:BK283"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -2490,7 +2490,7 @@
         <v>0</v>
       </c>
       <c r="AS6">
-        <v>2</v>
+        <v>1.91</v>
       </c>
       <c r="AT6">
         <v>0.91</v>
@@ -2681,7 +2681,7 @@
         <v>0</v>
       </c>
       <c r="AS7">
-        <v>1.3</v>
+        <v>1.27</v>
       </c>
       <c r="AT7">
         <v>2.09</v>
@@ -4021,7 +4021,7 @@
         <v>1.18</v>
       </c>
       <c r="AT14">
-        <v>0.7</v>
+        <v>0.73</v>
       </c>
       <c r="AU14">
         <v>0</v>
@@ -5358,7 +5358,7 @@
         <v>2.44</v>
       </c>
       <c r="AT21">
-        <v>1.33</v>
+        <v>1.3</v>
       </c>
       <c r="AU21">
         <v>0</v>
@@ -7265,7 +7265,7 @@
         <v>1</v>
       </c>
       <c r="AS31">
-        <v>1.3</v>
+        <v>1.27</v>
       </c>
       <c r="AT31">
         <v>1.18</v>
@@ -8605,7 +8605,7 @@
         <v>1.18</v>
       </c>
       <c r="AT38">
-        <v>0.7</v>
+        <v>0.73</v>
       </c>
       <c r="AU38">
         <v>1.72</v>
@@ -9557,7 +9557,7 @@
         <v>3</v>
       </c>
       <c r="AS43">
-        <v>2</v>
+        <v>1.91</v>
       </c>
       <c r="AT43">
         <v>1.09</v>
@@ -12043,7 +12043,7 @@
         <v>1.33</v>
       </c>
       <c r="AT56">
-        <v>1.33</v>
+        <v>1.3</v>
       </c>
       <c r="AU56">
         <v>1.24</v>
@@ -13186,7 +13186,7 @@
         <v>2</v>
       </c>
       <c r="AS62">
-        <v>2</v>
+        <v>1.91</v>
       </c>
       <c r="AT62">
         <v>1.18</v>
@@ -14526,7 +14526,7 @@
         <v>1.45</v>
       </c>
       <c r="AT69">
-        <v>0.7</v>
+        <v>0.73</v>
       </c>
       <c r="AU69">
         <v>0.49</v>
@@ -14905,7 +14905,7 @@
         <v>0</v>
       </c>
       <c r="AS71">
-        <v>1.3</v>
+        <v>1.27</v>
       </c>
       <c r="AT71">
         <v>1.09</v>
@@ -16627,7 +16627,7 @@
         <v>1.33</v>
       </c>
       <c r="AT80">
-        <v>1.33</v>
+        <v>1.3</v>
       </c>
       <c r="AU80">
         <v>1.91</v>
@@ -18346,7 +18346,7 @@
         <v>2.27</v>
       </c>
       <c r="AT89">
-        <v>0.7</v>
+        <v>0.73</v>
       </c>
       <c r="AU89">
         <v>1.5</v>
@@ -18725,7 +18725,7 @@
         <v>2.33</v>
       </c>
       <c r="AS91">
-        <v>1.3</v>
+        <v>1.27</v>
       </c>
       <c r="AT91">
         <v>0.91</v>
@@ -19489,7 +19489,7 @@
         <v>1.67</v>
       </c>
       <c r="AS95">
-        <v>2</v>
+        <v>1.91</v>
       </c>
       <c r="AT95">
         <v>0.55</v>
@@ -22357,7 +22357,7 @@
         <v>2.1</v>
       </c>
       <c r="AT110">
-        <v>1.33</v>
+        <v>1.3</v>
       </c>
       <c r="AU110">
         <v>1.2</v>
@@ -23503,7 +23503,7 @@
         <v>2.6</v>
       </c>
       <c r="AT116">
-        <v>0.7</v>
+        <v>0.73</v>
       </c>
       <c r="AU116">
         <v>1.68</v>
@@ -23691,7 +23691,7 @@
         <v>0.5</v>
       </c>
       <c r="AS117">
-        <v>2</v>
+        <v>1.91</v>
       </c>
       <c r="AT117">
         <v>0.7</v>
@@ -25601,7 +25601,7 @@
         <v>1</v>
       </c>
       <c r="AS127">
-        <v>1.3</v>
+        <v>1.27</v>
       </c>
       <c r="AT127">
         <v>0.36</v>
@@ -27132,7 +27132,7 @@
         <v>1.3</v>
       </c>
       <c r="AT135">
-        <v>1.33</v>
+        <v>1.3</v>
       </c>
       <c r="AU135">
         <v>1.38</v>
@@ -29230,7 +29230,7 @@
         <v>1.4</v>
       </c>
       <c r="AS146">
-        <v>1.3</v>
+        <v>1.27</v>
       </c>
       <c r="AT146">
         <v>1.09</v>
@@ -29994,7 +29994,7 @@
         <v>0.6</v>
       </c>
       <c r="AS150">
-        <v>2</v>
+        <v>1.91</v>
       </c>
       <c r="AT150">
         <v>0.8</v>
@@ -30761,7 +30761,7 @@
         <v>2.67</v>
       </c>
       <c r="AT154">
-        <v>0.7</v>
+        <v>0.73</v>
       </c>
       <c r="AU154">
         <v>1.74</v>
@@ -32671,7 +32671,7 @@
         <v>2</v>
       </c>
       <c r="AT164">
-        <v>1.33</v>
+        <v>1.3</v>
       </c>
       <c r="AU164">
         <v>1.53</v>
@@ -34578,7 +34578,7 @@
         <v>1</v>
       </c>
       <c r="AS174">
-        <v>1.3</v>
+        <v>1.27</v>
       </c>
       <c r="AT174">
         <v>1</v>
@@ -35342,7 +35342,7 @@
         <v>2.2</v>
       </c>
       <c r="AS178">
-        <v>2</v>
+        <v>1.91</v>
       </c>
       <c r="AT178">
         <v>2</v>
@@ -36109,7 +36109,7 @@
         <v>1.89</v>
       </c>
       <c r="AT182">
-        <v>0.7</v>
+        <v>0.73</v>
       </c>
       <c r="AU182">
         <v>1.88</v>
@@ -37446,7 +37446,7 @@
         <v>1.18</v>
       </c>
       <c r="AT189">
-        <v>1.33</v>
+        <v>1.3</v>
       </c>
       <c r="AU189">
         <v>1.28</v>
@@ -40499,7 +40499,7 @@
         <v>0.83</v>
       </c>
       <c r="AS205">
-        <v>2</v>
+        <v>1.91</v>
       </c>
       <c r="AT205">
         <v>0.5600000000000001</v>
@@ -40884,7 +40884,7 @@
         <v>1.44</v>
       </c>
       <c r="AT207">
-        <v>0.7</v>
+        <v>0.73</v>
       </c>
       <c r="AU207">
         <v>1.15</v>
@@ -41454,7 +41454,7 @@
         <v>0.86</v>
       </c>
       <c r="AS210">
-        <v>1.3</v>
+        <v>1.27</v>
       </c>
       <c r="AT210">
         <v>1.18</v>
@@ -42221,7 +42221,7 @@
         <v>1.18</v>
       </c>
       <c r="AT214">
-        <v>1.33</v>
+        <v>1.3</v>
       </c>
       <c r="AU214">
         <v>1.49</v>
@@ -44513,7 +44513,7 @@
         <v>2</v>
       </c>
       <c r="AT226">
-        <v>0.7</v>
+        <v>0.73</v>
       </c>
       <c r="AU226">
         <v>1.51</v>
@@ -44892,7 +44892,7 @@
         <v>0.71</v>
       </c>
       <c r="AS228">
-        <v>2</v>
+        <v>1.91</v>
       </c>
       <c r="AT228">
         <v>0.5600000000000001</v>
@@ -45083,7 +45083,7 @@
         <v>0.5</v>
       </c>
       <c r="AS229">
-        <v>1.3</v>
+        <v>1.27</v>
       </c>
       <c r="AT229">
         <v>1</v>
@@ -47569,7 +47569,7 @@
         <v>1.45</v>
       </c>
       <c r="AT242">
-        <v>1.33</v>
+        <v>1.3</v>
       </c>
       <c r="AU242">
         <v>1.12</v>
@@ -49858,7 +49858,7 @@
         <v>0.88</v>
       </c>
       <c r="AS254">
-        <v>2</v>
+        <v>1.91</v>
       </c>
       <c r="AT254">
         <v>0.78</v>
@@ -50622,7 +50622,7 @@
         <v>0.67</v>
       </c>
       <c r="AS258">
-        <v>1.3</v>
+        <v>1.27</v>
       </c>
       <c r="AT258">
         <v>0.55</v>
@@ -51198,7 +51198,7 @@
         <v>1</v>
       </c>
       <c r="AT261">
-        <v>0.7</v>
+        <v>0.73</v>
       </c>
       <c r="AU261">
         <v>1.64</v>
@@ -55070,6 +55070,388 @@
       </c>
       <c r="BK281">
         <v>3</v>
+      </c>
+    </row>
+    <row r="282" spans="1:63">
+      <c r="A282" s="1">
+        <v>281</v>
+      </c>
+      <c r="B282">
+        <v>4554688</v>
+      </c>
+      <c r="C282" t="s">
+        <v>63</v>
+      </c>
+      <c r="D282" t="s">
+        <v>64</v>
+      </c>
+      <c r="E282" s="2">
+        <v>45098.79166666666</v>
+      </c>
+      <c r="F282">
+        <v>21</v>
+      </c>
+      <c r="G282" t="s">
+        <v>69</v>
+      </c>
+      <c r="H282" t="s">
+        <v>67</v>
+      </c>
+      <c r="I282">
+        <v>1</v>
+      </c>
+      <c r="J282">
+        <v>0</v>
+      </c>
+      <c r="K282">
+        <v>1</v>
+      </c>
+      <c r="L282">
+        <v>1</v>
+      </c>
+      <c r="M282">
+        <v>1</v>
+      </c>
+      <c r="N282">
+        <v>2</v>
+      </c>
+      <c r="O282" t="s">
+        <v>121</v>
+      </c>
+      <c r="P282" t="s">
+        <v>255</v>
+      </c>
+      <c r="Q282">
+        <v>3</v>
+      </c>
+      <c r="R282">
+        <v>3</v>
+      </c>
+      <c r="S282">
+        <v>6</v>
+      </c>
+      <c r="T282">
+        <v>3</v>
+      </c>
+      <c r="U282">
+        <v>1.8</v>
+      </c>
+      <c r="V282">
+        <v>4.33</v>
+      </c>
+      <c r="W282">
+        <v>1.62</v>
+      </c>
+      <c r="X282">
+        <v>2.2</v>
+      </c>
+      <c r="Y282">
+        <v>3.75</v>
+      </c>
+      <c r="Z282">
+        <v>1.25</v>
+      </c>
+      <c r="AA282">
+        <v>10</v>
+      </c>
+      <c r="AB282">
+        <v>1.04</v>
+      </c>
+      <c r="AC282">
+        <v>2.19</v>
+      </c>
+      <c r="AD282">
+        <v>2.97</v>
+      </c>
+      <c r="AE282">
+        <v>3.78</v>
+      </c>
+      <c r="AF282">
+        <v>1.14</v>
+      </c>
+      <c r="AG282">
+        <v>5</v>
+      </c>
+      <c r="AH282">
+        <v>1.67</v>
+      </c>
+      <c r="AI282">
+        <v>2.1</v>
+      </c>
+      <c r="AJ282">
+        <v>3</v>
+      </c>
+      <c r="AK282">
+        <v>1.36</v>
+      </c>
+      <c r="AL282">
+        <v>2.5</v>
+      </c>
+      <c r="AM282">
+        <v>1.5</v>
+      </c>
+      <c r="AN282">
+        <v>1.29</v>
+      </c>
+      <c r="AO282">
+        <v>1.4</v>
+      </c>
+      <c r="AP282">
+        <v>1.57</v>
+      </c>
+      <c r="AQ282">
+        <v>2</v>
+      </c>
+      <c r="AR282">
+        <v>1.33</v>
+      </c>
+      <c r="AS282">
+        <v>1.91</v>
+      </c>
+      <c r="AT282">
+        <v>1.3</v>
+      </c>
+      <c r="AU282">
+        <v>1.52</v>
+      </c>
+      <c r="AV282">
+        <v>1.32</v>
+      </c>
+      <c r="AW282">
+        <v>2.84</v>
+      </c>
+      <c r="AX282">
+        <v>1.82</v>
+      </c>
+      <c r="AY282">
+        <v>7.5</v>
+      </c>
+      <c r="AZ282">
+        <v>2.4</v>
+      </c>
+      <c r="BA282">
+        <v>1.36</v>
+      </c>
+      <c r="BB282">
+        <v>1.67</v>
+      </c>
+      <c r="BC282">
+        <v>2.15</v>
+      </c>
+      <c r="BD282">
+        <v>2.95</v>
+      </c>
+      <c r="BE282">
+        <v>4.1</v>
+      </c>
+      <c r="BF282">
+        <v>4</v>
+      </c>
+      <c r="BG282">
+        <v>6</v>
+      </c>
+      <c r="BH282">
+        <v>5</v>
+      </c>
+      <c r="BI282">
+        <v>3</v>
+      </c>
+      <c r="BJ282">
+        <v>9</v>
+      </c>
+      <c r="BK282">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="283" spans="1:63">
+      <c r="A283" s="1">
+        <v>282</v>
+      </c>
+      <c r="B283">
+        <v>4554677</v>
+      </c>
+      <c r="C283" t="s">
+        <v>63</v>
+      </c>
+      <c r="D283" t="s">
+        <v>64</v>
+      </c>
+      <c r="E283" s="2">
+        <v>45098.89583333334</v>
+      </c>
+      <c r="F283">
+        <v>21</v>
+      </c>
+      <c r="G283" t="s">
+        <v>70</v>
+      </c>
+      <c r="H283" t="s">
+        <v>90</v>
+      </c>
+      <c r="I283">
+        <v>0</v>
+      </c>
+      <c r="J283">
+        <v>0</v>
+      </c>
+      <c r="K283">
+        <v>0</v>
+      </c>
+      <c r="L283">
+        <v>0</v>
+      </c>
+      <c r="M283">
+        <v>0</v>
+      </c>
+      <c r="N283">
+        <v>0</v>
+      </c>
+      <c r="O283" t="s">
+        <v>96</v>
+      </c>
+      <c r="P283" t="s">
+        <v>96</v>
+      </c>
+      <c r="Q283">
+        <v>7</v>
+      </c>
+      <c r="R283">
+        <v>6</v>
+      </c>
+      <c r="S283">
+        <v>13</v>
+      </c>
+      <c r="T283">
+        <v>2.9</v>
+      </c>
+      <c r="U283">
+        <v>1.88</v>
+      </c>
+      <c r="V283">
+        <v>4.1</v>
+      </c>
+      <c r="W283">
+        <v>1.55</v>
+      </c>
+      <c r="X283">
+        <v>2.25</v>
+      </c>
+      <c r="Y283">
+        <v>3.6</v>
+      </c>
+      <c r="Z283">
+        <v>1.25</v>
+      </c>
+      <c r="AA283">
+        <v>10.5</v>
+      </c>
+      <c r="AB283">
+        <v>1.04</v>
+      </c>
+      <c r="AC283">
+        <v>2.2</v>
+      </c>
+      <c r="AD283">
+        <v>3.1</v>
+      </c>
+      <c r="AE283">
+        <v>3.5</v>
+      </c>
+      <c r="AF283">
+        <v>1.1</v>
+      </c>
+      <c r="AG283">
+        <v>7</v>
+      </c>
+      <c r="AH283">
+        <v>1.53</v>
+      </c>
+      <c r="AI283">
+        <v>2.5</v>
+      </c>
+      <c r="AJ283">
+        <v>2.65</v>
+      </c>
+      <c r="AK283">
+        <v>1.47</v>
+      </c>
+      <c r="AL283">
+        <v>2.15</v>
+      </c>
+      <c r="AM283">
+        <v>1.6</v>
+      </c>
+      <c r="AN283">
+        <v>1.29</v>
+      </c>
+      <c r="AO283">
+        <v>1.35</v>
+      </c>
+      <c r="AP283">
+        <v>1.63</v>
+      </c>
+      <c r="AQ283">
+        <v>1.3</v>
+      </c>
+      <c r="AR283">
+        <v>0.7</v>
+      </c>
+      <c r="AS283">
+        <v>1.27</v>
+      </c>
+      <c r="AT283">
+        <v>0.73</v>
+      </c>
+      <c r="AU283">
+        <v>1.56</v>
+      </c>
+      <c r="AV283">
+        <v>1.29</v>
+      </c>
+      <c r="AW283">
+        <v>2.85</v>
+      </c>
+      <c r="AX283">
+        <v>1.82</v>
+      </c>
+      <c r="AY283">
+        <v>8</v>
+      </c>
+      <c r="AZ283">
+        <v>2.33</v>
+      </c>
+      <c r="BA283">
+        <v>1.22</v>
+      </c>
+      <c r="BB283">
+        <v>1.41</v>
+      </c>
+      <c r="BC283">
+        <v>1.73</v>
+      </c>
+      <c r="BD283">
+        <v>2.23</v>
+      </c>
+      <c r="BE283">
+        <v>3</v>
+      </c>
+      <c r="BF283">
+        <v>4</v>
+      </c>
+      <c r="BG283">
+        <v>5</v>
+      </c>
+      <c r="BH283">
+        <v>8</v>
+      </c>
+      <c r="BI283">
+        <v>8</v>
+      </c>
+      <c r="BJ283">
+        <v>12</v>
+      </c>
+      <c r="BK283">
+        <v>13</v>
       </c>
     </row>
   </sheetData>

--- a/Bases_de_Dados_(2022-2023)/Argentina Primera División_2023.xlsx
+++ b/Bases_de_Dados_(2022-2023)/Argentina Primera División_2023.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1983" uniqueCount="366">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2061" uniqueCount="370">
   <si>
     <t>Id_Jogo</t>
   </si>
@@ -697,10 +697,10 @@
     <t>['31', '90+3']</t>
   </si>
   <si>
-    <t>['52']</t>
+    <t>['13', '55']</t>
   </si>
   <si>
-    <t>['13', '55']</t>
+    <t>['52']</t>
   </si>
   <si>
     <t>['71', '87']</t>
@@ -766,10 +766,10 @@
     <t>['88']</t>
   </si>
   <si>
-    <t>['19', '90+4']</t>
+    <t>['34']</t>
   </si>
   <si>
-    <t>['34']</t>
+    <t>['19', '90+4']</t>
   </si>
   <si>
     <t>['36', '64']</t>
@@ -823,10 +823,10 @@
     <t>['14']</t>
   </si>
   <si>
-    <t>['46']</t>
+    <t>['68']</t>
   </si>
   <si>
-    <t>['68']</t>
+    <t>['46']</t>
   </si>
   <si>
     <t>['71', '84']</t>
@@ -842,6 +842,18 @@
   </si>
   <si>
     <t>['37', '61']</t>
+  </si>
+  <si>
+    <t>['90+5']</t>
+  </si>
+  <si>
+    <t>['26', '85']</t>
+  </si>
+  <si>
+    <t>['51']</t>
+  </si>
+  <si>
+    <t>['75', '84']</t>
   </si>
   <si>
     <t>['7', '43', '82', '86']</t>
@@ -1015,9 +1027,6 @@
     <t>['34', '52']</t>
   </si>
   <si>
-    <t>['90+5']</t>
-  </si>
-  <si>
     <t>['55', '72']</t>
   </si>
   <si>
@@ -1112,6 +1121,9 @@
   </si>
   <si>
     <t>['9', '62']</t>
+  </si>
+  <si>
+    <t>['5', '48']</t>
   </si>
 </sst>
 </file>
@@ -1473,7 +1485,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:BK321"/>
+  <dimension ref="A1:BK334"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -1908,7 +1920,7 @@
         <v>94</v>
       </c>
       <c r="P3" t="s">
-        <v>276</v>
+        <v>280</v>
       </c>
       <c r="Q3">
         <v>5</v>
@@ -1995,10 +2007,10 @@
         <v>0</v>
       </c>
       <c r="AS3">
-        <v>1.83</v>
+        <v>1.77</v>
       </c>
       <c r="AT3">
-        <v>0.5</v>
+        <v>0.46</v>
       </c>
       <c r="AU3">
         <v>0</v>
@@ -2186,10 +2198,10 @@
         <v>0</v>
       </c>
       <c r="AS4">
-        <v>2.33</v>
+        <v>2.23</v>
       </c>
       <c r="AT4">
-        <v>0.33</v>
+        <v>0.38</v>
       </c>
       <c r="AU4">
         <v>0</v>
@@ -2290,7 +2302,7 @@
         <v>96</v>
       </c>
       <c r="P5" t="s">
-        <v>227</v>
+        <v>228</v>
       </c>
       <c r="Q5">
         <v>2</v>
@@ -2377,10 +2389,10 @@
         <v>0</v>
       </c>
       <c r="AS5">
-        <v>1.92</v>
+        <v>1.85</v>
       </c>
       <c r="AT5">
-        <v>0.73</v>
+        <v>0.75</v>
       </c>
       <c r="AU5">
         <v>0</v>
@@ -2481,7 +2493,7 @@
         <v>95</v>
       </c>
       <c r="P6" t="s">
-        <v>277</v>
+        <v>281</v>
       </c>
       <c r="Q6">
         <v>8</v>
@@ -2568,10 +2580,10 @@
         <v>0</v>
       </c>
       <c r="AS6">
-        <v>1.83</v>
+        <v>1.77</v>
       </c>
       <c r="AT6">
-        <v>0.83</v>
+        <v>1</v>
       </c>
       <c r="AU6">
         <v>0</v>
@@ -2672,7 +2684,7 @@
         <v>96</v>
       </c>
       <c r="P7" t="s">
-        <v>278</v>
+        <v>282</v>
       </c>
       <c r="Q7">
         <v>5</v>
@@ -2759,10 +2771,10 @@
         <v>0</v>
       </c>
       <c r="AS7">
-        <v>1.27</v>
+        <v>1.42</v>
       </c>
       <c r="AT7">
-        <v>1.92</v>
+        <v>1.85</v>
       </c>
       <c r="AU7">
         <v>0</v>
@@ -2863,7 +2875,7 @@
         <v>97</v>
       </c>
       <c r="P8" t="s">
-        <v>279</v>
+        <v>283</v>
       </c>
       <c r="Q8">
         <v>1</v>
@@ -2950,10 +2962,10 @@
         <v>0</v>
       </c>
       <c r="AS8">
-        <v>1.58</v>
+        <v>1.69</v>
       </c>
       <c r="AT8">
-        <v>0.73</v>
+        <v>0.67</v>
       </c>
       <c r="AU8">
         <v>0</v>
@@ -3141,10 +3153,10 @@
         <v>0</v>
       </c>
       <c r="AS9">
-        <v>1.5</v>
+        <v>1.38</v>
       </c>
       <c r="AT9">
-        <v>1.08</v>
+        <v>1</v>
       </c>
       <c r="AU9">
         <v>0</v>
@@ -3245,7 +3257,7 @@
         <v>98</v>
       </c>
       <c r="P10" t="s">
-        <v>280</v>
+        <v>284</v>
       </c>
       <c r="Q10">
         <v>5</v>
@@ -3332,10 +3344,10 @@
         <v>0</v>
       </c>
       <c r="AS10">
-        <v>1.25</v>
+        <v>1.23</v>
       </c>
       <c r="AT10">
-        <v>1.25</v>
+        <v>1.23</v>
       </c>
       <c r="AU10">
         <v>0</v>
@@ -3714,7 +3726,7 @@
         <v>0</v>
       </c>
       <c r="AS12">
-        <v>1.75</v>
+        <v>1.85</v>
       </c>
       <c r="AT12">
         <v>0.92</v>
@@ -3905,7 +3917,7 @@
         <v>0</v>
       </c>
       <c r="AS13">
-        <v>1.58</v>
+        <v>1.54</v>
       </c>
       <c r="AT13">
         <v>1</v>
@@ -4009,7 +4021,7 @@
         <v>100</v>
       </c>
       <c r="P14" t="s">
-        <v>281</v>
+        <v>285</v>
       </c>
       <c r="Q14">
         <v>5</v>
@@ -4096,7 +4108,7 @@
         <v>0</v>
       </c>
       <c r="AS14">
-        <v>1.33</v>
+        <v>1.31</v>
       </c>
       <c r="AT14">
         <v>0.75</v>
@@ -4287,7 +4299,7 @@
         <v>0</v>
       </c>
       <c r="AS15">
-        <v>1.33</v>
+        <v>1.31</v>
       </c>
       <c r="AT15">
         <v>0.92</v>
@@ -4391,7 +4403,7 @@
         <v>101</v>
       </c>
       <c r="P16" t="s">
-        <v>282</v>
+        <v>286</v>
       </c>
       <c r="Q16">
         <v>10</v>
@@ -4964,7 +4976,7 @@
         <v>103</v>
       </c>
       <c r="P19" t="s">
-        <v>283</v>
+        <v>287</v>
       </c>
       <c r="Q19">
         <v>4</v>
@@ -5155,7 +5167,7 @@
         <v>104</v>
       </c>
       <c r="P20" t="s">
-        <v>284</v>
+        <v>288</v>
       </c>
       <c r="Q20">
         <v>1</v>
@@ -5245,7 +5257,7 @@
         <v>1.91</v>
       </c>
       <c r="AT20">
-        <v>1.92</v>
+        <v>1.85</v>
       </c>
       <c r="AU20">
         <v>0</v>
@@ -5627,7 +5639,7 @@
         <v>1.91</v>
       </c>
       <c r="AT22">
-        <v>1.09</v>
+        <v>1.08</v>
       </c>
       <c r="AU22">
         <v>0</v>
@@ -5728,7 +5740,7 @@
         <v>106</v>
       </c>
       <c r="P23" t="s">
-        <v>285</v>
+        <v>289</v>
       </c>
       <c r="Q23">
         <v>8</v>
@@ -6006,7 +6018,7 @@
         <v>0</v>
       </c>
       <c r="AS24">
-        <v>1.75</v>
+        <v>1.85</v>
       </c>
       <c r="AT24">
         <v>1.09</v>
@@ -6301,7 +6313,7 @@
         <v>96</v>
       </c>
       <c r="P26" t="s">
-        <v>286</v>
+        <v>290</v>
       </c>
       <c r="Q26">
         <v>4</v>
@@ -6492,7 +6504,7 @@
         <v>96</v>
       </c>
       <c r="P27" t="s">
-        <v>287</v>
+        <v>291</v>
       </c>
       <c r="Q27">
         <v>5</v>
@@ -6683,7 +6695,7 @@
         <v>96</v>
       </c>
       <c r="P28" t="s">
-        <v>288</v>
+        <v>292</v>
       </c>
       <c r="Q28">
         <v>7</v>
@@ -6770,7 +6782,7 @@
         <v>0</v>
       </c>
       <c r="AS28">
-        <v>1.8</v>
+        <v>1.73</v>
       </c>
       <c r="AT28">
         <v>1.55</v>
@@ -6874,7 +6886,7 @@
         <v>108</v>
       </c>
       <c r="P29" t="s">
-        <v>289</v>
+        <v>293</v>
       </c>
       <c r="Q29">
         <v>8</v>
@@ -7065,7 +7077,7 @@
         <v>96</v>
       </c>
       <c r="P30" t="s">
-        <v>290</v>
+        <v>294</v>
       </c>
       <c r="Q30">
         <v>11</v>
@@ -7152,10 +7164,10 @@
         <v>1</v>
       </c>
       <c r="AS30">
-        <v>1.25</v>
+        <v>1.23</v>
       </c>
       <c r="AT30">
-        <v>1.08</v>
+        <v>1</v>
       </c>
       <c r="AU30">
         <v>1.17</v>
@@ -7343,7 +7355,7 @@
         <v>1</v>
       </c>
       <c r="AS31">
-        <v>1.27</v>
+        <v>1.42</v>
       </c>
       <c r="AT31">
         <v>1.08</v>
@@ -7534,7 +7546,7 @@
         <v>3</v>
       </c>
       <c r="AS32">
-        <v>2.33</v>
+        <v>2.23</v>
       </c>
       <c r="AT32">
         <v>1</v>
@@ -7725,10 +7737,10 @@
         <v>1</v>
       </c>
       <c r="AS33">
-        <v>1.83</v>
+        <v>1.77</v>
       </c>
       <c r="AT33">
-        <v>0.73</v>
+        <v>0.67</v>
       </c>
       <c r="AU33">
         <v>1.74</v>
@@ -7829,7 +7841,7 @@
         <v>102</v>
       </c>
       <c r="P34" t="s">
-        <v>291</v>
+        <v>295</v>
       </c>
       <c r="Q34">
         <v>3</v>
@@ -7916,7 +7928,7 @@
         <v>0</v>
       </c>
       <c r="AS34">
-        <v>1.58</v>
+        <v>1.69</v>
       </c>
       <c r="AT34">
         <v>0.92</v>
@@ -8020,7 +8032,7 @@
         <v>111</v>
       </c>
       <c r="P35" t="s">
-        <v>292</v>
+        <v>296</v>
       </c>
       <c r="Q35">
         <v>6</v>
@@ -8107,7 +8119,7 @@
         <v>0</v>
       </c>
       <c r="AS35">
-        <v>1.92</v>
+        <v>1.85</v>
       </c>
       <c r="AT35">
         <v>1</v>
@@ -8298,10 +8310,10 @@
         <v>3</v>
       </c>
       <c r="AS36">
-        <v>1.33</v>
+        <v>1.31</v>
       </c>
       <c r="AT36">
-        <v>0.73</v>
+        <v>0.75</v>
       </c>
       <c r="AU36">
         <v>1.26</v>
@@ -8492,7 +8504,7 @@
         <v>2.33</v>
       </c>
       <c r="AT37">
-        <v>0.33</v>
+        <v>0.38</v>
       </c>
       <c r="AU37">
         <v>1.18</v>
@@ -8680,7 +8692,7 @@
         <v>0</v>
       </c>
       <c r="AS38">
-        <v>1.33</v>
+        <v>1.31</v>
       </c>
       <c r="AT38">
         <v>0.75</v>
@@ -9062,10 +9074,10 @@
         <v>3</v>
       </c>
       <c r="AS40">
-        <v>1.5</v>
+        <v>1.38</v>
       </c>
       <c r="AT40">
-        <v>0.5</v>
+        <v>0.46</v>
       </c>
       <c r="AU40">
         <v>1.76</v>
@@ -9166,7 +9178,7 @@
         <v>114</v>
       </c>
       <c r="P41" t="s">
-        <v>293</v>
+        <v>297</v>
       </c>
       <c r="Q41">
         <v>5</v>
@@ -9256,7 +9268,7 @@
         <v>1.58</v>
       </c>
       <c r="AT41">
-        <v>0.83</v>
+        <v>1</v>
       </c>
       <c r="AU41">
         <v>2.1</v>
@@ -9357,7 +9369,7 @@
         <v>115</v>
       </c>
       <c r="P42" t="s">
-        <v>294</v>
+        <v>298</v>
       </c>
       <c r="Q42">
         <v>5</v>
@@ -9444,7 +9456,7 @@
         <v>1</v>
       </c>
       <c r="AS42">
-        <v>1.58</v>
+        <v>1.54</v>
       </c>
       <c r="AT42">
         <v>0.92</v>
@@ -9548,7 +9560,7 @@
         <v>96</v>
       </c>
       <c r="P43" t="s">
-        <v>295</v>
+        <v>299</v>
       </c>
       <c r="Q43">
         <v>10</v>
@@ -9635,10 +9647,10 @@
         <v>3</v>
       </c>
       <c r="AS43">
-        <v>1.83</v>
+        <v>1.77</v>
       </c>
       <c r="AT43">
-        <v>1.25</v>
+        <v>1.23</v>
       </c>
       <c r="AU43">
         <v>1.92</v>
@@ -9826,7 +9838,7 @@
         <v>3</v>
       </c>
       <c r="AS44">
-        <v>1.8</v>
+        <v>1.73</v>
       </c>
       <c r="AT44">
         <v>0.73</v>
@@ -9930,7 +9942,7 @@
         <v>96</v>
       </c>
       <c r="P45" t="s">
-        <v>296</v>
+        <v>300</v>
       </c>
       <c r="Q45">
         <v>3</v>
@@ -10020,7 +10032,7 @@
         <v>1.18</v>
       </c>
       <c r="AT45">
-        <v>1.09</v>
+        <v>1.08</v>
       </c>
       <c r="AU45">
         <v>1.23</v>
@@ -10503,7 +10515,7 @@
         <v>96</v>
       </c>
       <c r="P48" t="s">
-        <v>297</v>
+        <v>301</v>
       </c>
       <c r="Q48">
         <v>4</v>
@@ -10593,7 +10605,7 @@
         <v>1.36</v>
       </c>
       <c r="AT48">
-        <v>1.92</v>
+        <v>1.85</v>
       </c>
       <c r="AU48">
         <v>2.98</v>
@@ -11267,7 +11279,7 @@
         <v>121</v>
       </c>
       <c r="P52" t="s">
-        <v>227</v>
+        <v>228</v>
       </c>
       <c r="Q52">
         <v>5</v>
@@ -11545,7 +11557,7 @@
         <v>3</v>
       </c>
       <c r="AS53">
-        <v>1.75</v>
+        <v>1.85</v>
       </c>
       <c r="AT53">
         <v>0.91</v>
@@ -11649,7 +11661,7 @@
         <v>96</v>
       </c>
       <c r="P54" t="s">
-        <v>298</v>
+        <v>302</v>
       </c>
       <c r="Q54">
         <v>4</v>
@@ -11927,7 +11939,7 @@
         <v>1</v>
       </c>
       <c r="AS55">
-        <v>1.92</v>
+        <v>1.85</v>
       </c>
       <c r="AT55">
         <v>1.09</v>
@@ -12222,7 +12234,7 @@
         <v>124</v>
       </c>
       <c r="P57" t="s">
-        <v>299</v>
+        <v>303</v>
       </c>
       <c r="Q57">
         <v>3</v>
@@ -12413,7 +12425,7 @@
         <v>96</v>
       </c>
       <c r="P58" t="s">
-        <v>300</v>
+        <v>304</v>
       </c>
       <c r="Q58">
         <v>2</v>
@@ -12503,7 +12515,7 @@
         <v>1.91</v>
       </c>
       <c r="AT58">
-        <v>0.83</v>
+        <v>1</v>
       </c>
       <c r="AU58">
         <v>0.67</v>
@@ -12882,7 +12894,7 @@
         <v>1</v>
       </c>
       <c r="AS60">
-        <v>2.33</v>
+        <v>2.23</v>
       </c>
       <c r="AT60">
         <v>0.92</v>
@@ -13073,10 +13085,10 @@
         <v>2</v>
       </c>
       <c r="AS61">
-        <v>1.83</v>
+        <v>1.77</v>
       </c>
       <c r="AT61">
-        <v>1.08</v>
+        <v>1</v>
       </c>
       <c r="AU61">
         <v>2.1</v>
@@ -13177,7 +13189,7 @@
         <v>128</v>
       </c>
       <c r="P62" t="s">
-        <v>301</v>
+        <v>305</v>
       </c>
       <c r="Q62">
         <v>4</v>
@@ -13264,7 +13276,7 @@
         <v>3</v>
       </c>
       <c r="AS62">
-        <v>1.58</v>
+        <v>1.69</v>
       </c>
       <c r="AT62">
         <v>1.91</v>
@@ -13368,7 +13380,7 @@
         <v>129</v>
       </c>
       <c r="P63" t="s">
-        <v>302</v>
+        <v>306</v>
       </c>
       <c r="Q63">
         <v>4</v>
@@ -13455,7 +13467,7 @@
         <v>0</v>
       </c>
       <c r="AS63">
-        <v>1.33</v>
+        <v>1.31</v>
       </c>
       <c r="AT63">
         <v>1</v>
@@ -13646,7 +13658,7 @@
         <v>0.5</v>
       </c>
       <c r="AS64">
-        <v>1.83</v>
+        <v>1.77</v>
       </c>
       <c r="AT64">
         <v>0.92</v>
@@ -13837,10 +13849,10 @@
         <v>2</v>
       </c>
       <c r="AS65">
-        <v>1.25</v>
+        <v>1.23</v>
       </c>
       <c r="AT65">
-        <v>0.5</v>
+        <v>0.46</v>
       </c>
       <c r="AU65">
         <v>2.06</v>
@@ -13941,7 +13953,7 @@
         <v>132</v>
       </c>
       <c r="P66" t="s">
-        <v>303</v>
+        <v>307</v>
       </c>
       <c r="Q66">
         <v>11</v>
@@ -14031,7 +14043,7 @@
         <v>2.73</v>
       </c>
       <c r="AT66">
-        <v>0.33</v>
+        <v>0.38</v>
       </c>
       <c r="AU66">
         <v>1.25</v>
@@ -14219,10 +14231,10 @@
         <v>2</v>
       </c>
       <c r="AS67">
-        <v>1.33</v>
+        <v>1.31</v>
       </c>
       <c r="AT67">
-        <v>0.73</v>
+        <v>0.75</v>
       </c>
       <c r="AU67">
         <v>2.03</v>
@@ -14323,7 +14335,7 @@
         <v>133</v>
       </c>
       <c r="P68" t="s">
-        <v>291</v>
+        <v>295</v>
       </c>
       <c r="Q68">
         <v>2</v>
@@ -14410,10 +14422,10 @@
         <v>0.5</v>
       </c>
       <c r="AS68">
-        <v>1.5</v>
+        <v>1.38</v>
       </c>
       <c r="AT68">
-        <v>0.73</v>
+        <v>0.67</v>
       </c>
       <c r="AU68">
         <v>1.49</v>
@@ -14601,7 +14613,7 @@
         <v>0.5</v>
       </c>
       <c r="AS69">
-        <v>1.58</v>
+        <v>1.54</v>
       </c>
       <c r="AT69">
         <v>0.75</v>
@@ -14795,7 +14807,7 @@
         <v>1.58</v>
       </c>
       <c r="AT70">
-        <v>1.25</v>
+        <v>1.23</v>
       </c>
       <c r="AU70">
         <v>1.87</v>
@@ -14983,7 +14995,7 @@
         <v>0</v>
       </c>
       <c r="AS71">
-        <v>1.27</v>
+        <v>1.42</v>
       </c>
       <c r="AT71">
         <v>1</v>
@@ -15278,7 +15290,7 @@
         <v>137</v>
       </c>
       <c r="P73" t="s">
-        <v>304</v>
+        <v>308</v>
       </c>
       <c r="Q73">
         <v>13</v>
@@ -15556,7 +15568,7 @@
         <v>0.5</v>
       </c>
       <c r="AS74">
-        <v>1.58</v>
+        <v>1.69</v>
       </c>
       <c r="AT74">
         <v>1.09</v>
@@ -15747,7 +15759,7 @@
         <v>0.5</v>
       </c>
       <c r="AS75">
-        <v>1.8</v>
+        <v>1.73</v>
       </c>
       <c r="AT75">
         <v>0.82</v>
@@ -15851,7 +15863,7 @@
         <v>96</v>
       </c>
       <c r="P76" t="s">
-        <v>305</v>
+        <v>309</v>
       </c>
       <c r="Q76">
         <v>10</v>
@@ -15941,7 +15953,7 @@
         <v>2.27</v>
       </c>
       <c r="AT76">
-        <v>1.92</v>
+        <v>1.85</v>
       </c>
       <c r="AU76">
         <v>1.43</v>
@@ -16615,7 +16627,7 @@
         <v>141</v>
       </c>
       <c r="P80" t="s">
-        <v>306</v>
+        <v>310</v>
       </c>
       <c r="Q80">
         <v>5</v>
@@ -16997,7 +17009,7 @@
         <v>142</v>
       </c>
       <c r="P82" t="s">
-        <v>307</v>
+        <v>311</v>
       </c>
       <c r="Q82">
         <v>2</v>
@@ -17084,7 +17096,7 @@
         <v>0.5</v>
       </c>
       <c r="AS82">
-        <v>1.92</v>
+        <v>1.85</v>
       </c>
       <c r="AT82">
         <v>0.73</v>
@@ -17278,7 +17290,7 @@
         <v>2.18</v>
       </c>
       <c r="AT83">
-        <v>1.09</v>
+        <v>1.08</v>
       </c>
       <c r="AU83">
         <v>1.44</v>
@@ -17379,7 +17391,7 @@
         <v>96</v>
       </c>
       <c r="P84" t="s">
-        <v>308</v>
+        <v>312</v>
       </c>
       <c r="Q84">
         <v>4</v>
@@ -17657,7 +17669,7 @@
         <v>3</v>
       </c>
       <c r="AS85">
-        <v>1.75</v>
+        <v>1.85</v>
       </c>
       <c r="AT85">
         <v>1.55</v>
@@ -17761,7 +17773,7 @@
         <v>115</v>
       </c>
       <c r="P86" t="s">
-        <v>309</v>
+        <v>313</v>
       </c>
       <c r="Q86">
         <v>6</v>
@@ -17848,10 +17860,10 @@
         <v>1.67</v>
       </c>
       <c r="AS86">
-        <v>1.58</v>
+        <v>1.54</v>
       </c>
       <c r="AT86">
-        <v>0.73</v>
+        <v>0.75</v>
       </c>
       <c r="AU86">
         <v>0.74</v>
@@ -18042,7 +18054,7 @@
         <v>1.91</v>
       </c>
       <c r="AT87">
-        <v>0.33</v>
+        <v>0.38</v>
       </c>
       <c r="AU87">
         <v>1.81</v>
@@ -18143,7 +18155,7 @@
         <v>145</v>
       </c>
       <c r="P88" t="s">
-        <v>270</v>
+        <v>269</v>
       </c>
       <c r="Q88">
         <v>5</v>
@@ -18230,7 +18242,7 @@
         <v>0.33</v>
       </c>
       <c r="AS88">
-        <v>1.5</v>
+        <v>1.38</v>
       </c>
       <c r="AT88">
         <v>0.92</v>
@@ -18421,7 +18433,7 @@
         <v>0.33</v>
       </c>
       <c r="AS89">
-        <v>2.33</v>
+        <v>2.23</v>
       </c>
       <c r="AT89">
         <v>0.75</v>
@@ -18525,7 +18537,7 @@
         <v>147</v>
       </c>
       <c r="P90" t="s">
-        <v>310</v>
+        <v>314</v>
       </c>
       <c r="Q90">
         <v>8</v>
@@ -18612,7 +18624,7 @@
         <v>3</v>
       </c>
       <c r="AS90">
-        <v>1.83</v>
+        <v>1.77</v>
       </c>
       <c r="AT90">
         <v>1.91</v>
@@ -18803,10 +18815,10 @@
         <v>2.33</v>
       </c>
       <c r="AS91">
-        <v>1.27</v>
+        <v>1.42</v>
       </c>
       <c r="AT91">
-        <v>0.83</v>
+        <v>1</v>
       </c>
       <c r="AU91">
         <v>1.27</v>
@@ -18997,7 +19009,7 @@
         <v>1.91</v>
       </c>
       <c r="AT92">
-        <v>1.25</v>
+        <v>1.23</v>
       </c>
       <c r="AU92">
         <v>0.97</v>
@@ -19188,7 +19200,7 @@
         <v>1.58</v>
       </c>
       <c r="AT93">
-        <v>1.08</v>
+        <v>1</v>
       </c>
       <c r="AU93">
         <v>1.84</v>
@@ -19480,7 +19492,7 @@
         <v>151</v>
       </c>
       <c r="P95" t="s">
-        <v>311</v>
+        <v>315</v>
       </c>
       <c r="Q95">
         <v>9</v>
@@ -19567,10 +19579,10 @@
         <v>1.67</v>
       </c>
       <c r="AS95">
-        <v>1.83</v>
+        <v>1.77</v>
       </c>
       <c r="AT95">
-        <v>0.5</v>
+        <v>0.46</v>
       </c>
       <c r="AU95">
         <v>1.86</v>
@@ -19758,7 +19770,7 @@
         <v>1.5</v>
       </c>
       <c r="AS96">
-        <v>1.33</v>
+        <v>1.31</v>
       </c>
       <c r="AT96">
         <v>1</v>
@@ -20053,7 +20065,7 @@
         <v>153</v>
       </c>
       <c r="P98" t="s">
-        <v>312</v>
+        <v>316</v>
       </c>
       <c r="Q98">
         <v>6</v>
@@ -20140,7 +20152,7 @@
         <v>1.5</v>
       </c>
       <c r="AS98">
-        <v>1.33</v>
+        <v>1.31</v>
       </c>
       <c r="AT98">
         <v>0.91</v>
@@ -20244,7 +20256,7 @@
         <v>154</v>
       </c>
       <c r="P99" t="s">
-        <v>270</v>
+        <v>269</v>
       </c>
       <c r="Q99">
         <v>5</v>
@@ -20331,10 +20343,10 @@
         <v>0.33</v>
       </c>
       <c r="AS99">
-        <v>1.25</v>
+        <v>1.23</v>
       </c>
       <c r="AT99">
-        <v>0.73</v>
+        <v>0.67</v>
       </c>
       <c r="AU99">
         <v>1.88</v>
@@ -20435,7 +20447,7 @@
         <v>155</v>
       </c>
       <c r="P100" t="s">
-        <v>313</v>
+        <v>317</v>
       </c>
       <c r="Q100">
         <v>1</v>
@@ -20525,7 +20537,7 @@
         <v>1.18</v>
       </c>
       <c r="AT100">
-        <v>1.09</v>
+        <v>1.08</v>
       </c>
       <c r="AU100">
         <v>1.57</v>
@@ -20716,7 +20728,7 @@
         <v>1.18</v>
       </c>
       <c r="AT101">
-        <v>0.83</v>
+        <v>1</v>
       </c>
       <c r="AU101">
         <v>1.12</v>
@@ -20817,7 +20829,7 @@
         <v>157</v>
       </c>
       <c r="P102" t="s">
-        <v>314</v>
+        <v>318</v>
       </c>
       <c r="Q102">
         <v>2</v>
@@ -21095,7 +21107,7 @@
         <v>2.33</v>
       </c>
       <c r="AS103">
-        <v>1.58</v>
+        <v>1.69</v>
       </c>
       <c r="AT103">
         <v>1.55</v>
@@ -21199,7 +21211,7 @@
         <v>159</v>
       </c>
       <c r="P104" t="s">
-        <v>284</v>
+        <v>288</v>
       </c>
       <c r="Q104">
         <v>6</v>
@@ -21581,7 +21593,7 @@
         <v>161</v>
       </c>
       <c r="P106" t="s">
-        <v>310</v>
+        <v>314</v>
       </c>
       <c r="Q106">
         <v>11</v>
@@ -21668,7 +21680,7 @@
         <v>1.33</v>
       </c>
       <c r="AS106">
-        <v>1.8</v>
+        <v>1.73</v>
       </c>
       <c r="AT106">
         <v>1.45</v>
@@ -21772,7 +21784,7 @@
         <v>162</v>
       </c>
       <c r="P107" t="s">
-        <v>315</v>
+        <v>319</v>
       </c>
       <c r="Q107">
         <v>8</v>
@@ -21859,7 +21871,7 @@
         <v>1.33</v>
       </c>
       <c r="AS107">
-        <v>1.75</v>
+        <v>1.85</v>
       </c>
       <c r="AT107">
         <v>0.73</v>
@@ -22050,7 +22062,7 @@
         <v>0</v>
       </c>
       <c r="AS108">
-        <v>1.92</v>
+        <v>1.85</v>
       </c>
       <c r="AT108">
         <v>0.73</v>
@@ -22154,7 +22166,7 @@
         <v>96</v>
       </c>
       <c r="P109" t="s">
-        <v>316</v>
+        <v>320</v>
       </c>
       <c r="Q109">
         <v>9</v>
@@ -22244,7 +22256,7 @@
         <v>1.36</v>
       </c>
       <c r="AT109">
-        <v>1.92</v>
+        <v>1.85</v>
       </c>
       <c r="AU109">
         <v>1.99</v>
@@ -22727,7 +22739,7 @@
         <v>96</v>
       </c>
       <c r="P112" t="s">
-        <v>317</v>
+        <v>321</v>
       </c>
       <c r="Q112">
         <v>9</v>
@@ -23005,7 +23017,7 @@
         <v>0.67</v>
       </c>
       <c r="AS113">
-        <v>1.33</v>
+        <v>1.31</v>
       </c>
       <c r="AT113">
         <v>1.09</v>
@@ -23196,7 +23208,7 @@
         <v>1.33</v>
       </c>
       <c r="AS114">
-        <v>1.83</v>
+        <v>1.77</v>
       </c>
       <c r="AT114">
         <v>0.73</v>
@@ -23769,10 +23781,10 @@
         <v>0.5</v>
       </c>
       <c r="AS117">
-        <v>1.83</v>
+        <v>1.77</v>
       </c>
       <c r="AT117">
-        <v>0.73</v>
+        <v>0.67</v>
       </c>
       <c r="AU117">
         <v>1.81</v>
@@ -24064,7 +24076,7 @@
         <v>96</v>
       </c>
       <c r="P119" t="s">
-        <v>318</v>
+        <v>322</v>
       </c>
       <c r="Q119">
         <v>0</v>
@@ -24151,7 +24163,7 @@
         <v>1</v>
       </c>
       <c r="AS119">
-        <v>1.58</v>
+        <v>1.54</v>
       </c>
       <c r="AT119">
         <v>1</v>
@@ -24342,10 +24354,10 @@
         <v>1.5</v>
       </c>
       <c r="AS120">
-        <v>2.33</v>
+        <v>2.23</v>
       </c>
       <c r="AT120">
-        <v>0.73</v>
+        <v>0.75</v>
       </c>
       <c r="AU120">
         <v>1.52</v>
@@ -24446,7 +24458,7 @@
         <v>169</v>
       </c>
       <c r="P121" t="s">
-        <v>319</v>
+        <v>323</v>
       </c>
       <c r="Q121">
         <v>5</v>
@@ -24536,7 +24548,7 @@
         <v>1.58</v>
       </c>
       <c r="AT121">
-        <v>0.5</v>
+        <v>0.46</v>
       </c>
       <c r="AU121">
         <v>1.76</v>
@@ -24727,7 +24739,7 @@
         <v>1.36</v>
       </c>
       <c r="AT122">
-        <v>1.25</v>
+        <v>1.23</v>
       </c>
       <c r="AU122">
         <v>1.77</v>
@@ -24828,7 +24840,7 @@
         <v>96</v>
       </c>
       <c r="P123" t="s">
-        <v>320</v>
+        <v>324</v>
       </c>
       <c r="Q123">
         <v>8</v>
@@ -24915,7 +24927,7 @@
         <v>2.33</v>
       </c>
       <c r="AS123">
-        <v>1.5</v>
+        <v>1.38</v>
       </c>
       <c r="AT123">
         <v>1.91</v>
@@ -25106,7 +25118,7 @@
         <v>0.5</v>
       </c>
       <c r="AS124">
-        <v>1.25</v>
+        <v>1.23</v>
       </c>
       <c r="AT124">
         <v>0.92</v>
@@ -25210,7 +25222,7 @@
         <v>96</v>
       </c>
       <c r="P125" t="s">
-        <v>321</v>
+        <v>325</v>
       </c>
       <c r="Q125">
         <v>6</v>
@@ -25297,7 +25309,7 @@
         <v>1.33</v>
       </c>
       <c r="AS125">
-        <v>1.33</v>
+        <v>1.31</v>
       </c>
       <c r="AT125">
         <v>0.91</v>
@@ -25491,7 +25503,7 @@
         <v>1.91</v>
       </c>
       <c r="AT126">
-        <v>1.08</v>
+        <v>1</v>
       </c>
       <c r="AU126">
         <v>0.93</v>
@@ -25679,10 +25691,10 @@
         <v>1</v>
       </c>
       <c r="AS127">
-        <v>1.27</v>
+        <v>1.42</v>
       </c>
       <c r="AT127">
-        <v>0.33</v>
+        <v>0.38</v>
       </c>
       <c r="AU127">
         <v>1.29</v>
@@ -25870,7 +25882,7 @@
         <v>1.75</v>
       </c>
       <c r="AS128">
-        <v>1.58</v>
+        <v>1.69</v>
       </c>
       <c r="AT128">
         <v>0.73</v>
@@ -26064,7 +26076,7 @@
         <v>2.27</v>
       </c>
       <c r="AT129">
-        <v>0.33</v>
+        <v>0.38</v>
       </c>
       <c r="AU129">
         <v>1.27</v>
@@ -26165,7 +26177,7 @@
         <v>173</v>
       </c>
       <c r="P130" t="s">
-        <v>322</v>
+        <v>326</v>
       </c>
       <c r="Q130">
         <v>5</v>
@@ -26252,7 +26264,7 @@
         <v>0.75</v>
       </c>
       <c r="AS130">
-        <v>1.33</v>
+        <v>1.31</v>
       </c>
       <c r="AT130">
         <v>0.73</v>
@@ -26443,7 +26455,7 @@
         <v>1</v>
       </c>
       <c r="AS131">
-        <v>1.92</v>
+        <v>1.85</v>
       </c>
       <c r="AT131">
         <v>1</v>
@@ -26738,7 +26750,7 @@
         <v>176</v>
       </c>
       <c r="P133" t="s">
-        <v>281</v>
+        <v>285</v>
       </c>
       <c r="Q133">
         <v>4</v>
@@ -26825,10 +26837,10 @@
         <v>1.5</v>
       </c>
       <c r="AS133">
-        <v>1.8</v>
+        <v>1.73</v>
       </c>
       <c r="AT133">
-        <v>1.09</v>
+        <v>1.08</v>
       </c>
       <c r="AU133">
         <v>1.55</v>
@@ -26929,7 +26941,7 @@
         <v>96</v>
       </c>
       <c r="P134" t="s">
-        <v>323</v>
+        <v>327</v>
       </c>
       <c r="Q134">
         <v>7</v>
@@ -27120,7 +27132,7 @@
         <v>159</v>
       </c>
       <c r="P135" t="s">
-        <v>324</v>
+        <v>328</v>
       </c>
       <c r="Q135">
         <v>6</v>
@@ -27311,7 +27323,7 @@
         <v>177</v>
       </c>
       <c r="P136" t="s">
-        <v>290</v>
+        <v>294</v>
       </c>
       <c r="Q136">
         <v>10</v>
@@ -27398,7 +27410,7 @@
         <v>0.5</v>
       </c>
       <c r="AS136">
-        <v>1.83</v>
+        <v>1.77</v>
       </c>
       <c r="AT136">
         <v>1.09</v>
@@ -27502,7 +27514,7 @@
         <v>178</v>
       </c>
       <c r="P137" t="s">
-        <v>325</v>
+        <v>329</v>
       </c>
       <c r="Q137">
         <v>4</v>
@@ -27693,7 +27705,7 @@
         <v>115</v>
       </c>
       <c r="P138" t="s">
-        <v>326</v>
+        <v>330</v>
       </c>
       <c r="Q138">
         <v>2</v>
@@ -27783,7 +27795,7 @@
         <v>2.18</v>
       </c>
       <c r="AT138">
-        <v>0.83</v>
+        <v>1</v>
       </c>
       <c r="AU138">
         <v>1.49</v>
@@ -28075,7 +28087,7 @@
         <v>96</v>
       </c>
       <c r="P140" t="s">
-        <v>327</v>
+        <v>331</v>
       </c>
       <c r="Q140">
         <v>4</v>
@@ -28165,7 +28177,7 @@
         <v>1.18</v>
       </c>
       <c r="AT140">
-        <v>1.92</v>
+        <v>1.85</v>
       </c>
       <c r="AU140">
         <v>1.52</v>
@@ -28266,7 +28278,7 @@
         <v>177</v>
       </c>
       <c r="P141" t="s">
-        <v>328</v>
+        <v>332</v>
       </c>
       <c r="Q141">
         <v>4</v>
@@ -28353,7 +28365,7 @@
         <v>0.75</v>
       </c>
       <c r="AS141">
-        <v>1.75</v>
+        <v>1.85</v>
       </c>
       <c r="AT141">
         <v>0.82</v>
@@ -28544,7 +28556,7 @@
         <v>1.75</v>
       </c>
       <c r="AS142">
-        <v>1.58</v>
+        <v>1.54</v>
       </c>
       <c r="AT142">
         <v>0.91</v>
@@ -28648,7 +28660,7 @@
         <v>179</v>
       </c>
       <c r="P143" t="s">
-        <v>292</v>
+        <v>296</v>
       </c>
       <c r="Q143">
         <v>5</v>
@@ -28926,7 +28938,7 @@
         <v>1.25</v>
       </c>
       <c r="AS144">
-        <v>1.5</v>
+        <v>1.38</v>
       </c>
       <c r="AT144">
         <v>0.73</v>
@@ -29030,7 +29042,7 @@
         <v>96</v>
       </c>
       <c r="P145" t="s">
-        <v>329</v>
+        <v>333</v>
       </c>
       <c r="Q145">
         <v>6</v>
@@ -29117,7 +29129,7 @@
         <v>1.75</v>
       </c>
       <c r="AS145">
-        <v>1.33</v>
+        <v>1.31</v>
       </c>
       <c r="AT145">
         <v>1.55</v>
@@ -29308,10 +29320,10 @@
         <v>1.4</v>
       </c>
       <c r="AS146">
-        <v>1.27</v>
+        <v>1.42</v>
       </c>
       <c r="AT146">
-        <v>1.25</v>
+        <v>1.23</v>
       </c>
       <c r="AU146">
         <v>1.4</v>
@@ -29499,7 +29511,7 @@
         <v>1.5</v>
       </c>
       <c r="AS147">
-        <v>2.33</v>
+        <v>2.23</v>
       </c>
       <c r="AT147">
         <v>1</v>
@@ -29693,7 +29705,7 @@
         <v>1.91</v>
       </c>
       <c r="AT148">
-        <v>0.5</v>
+        <v>0.46</v>
       </c>
       <c r="AU148">
         <v>1.09</v>
@@ -29884,7 +29896,7 @@
         <v>1.58</v>
       </c>
       <c r="AT149">
-        <v>0.73</v>
+        <v>0.67</v>
       </c>
       <c r="AU149">
         <v>1.77</v>
@@ -30072,7 +30084,7 @@
         <v>0.6</v>
       </c>
       <c r="AS150">
-        <v>1.83</v>
+        <v>1.77</v>
       </c>
       <c r="AT150">
         <v>0.92</v>
@@ -30266,7 +30278,7 @@
         <v>2.33</v>
       </c>
       <c r="AT151">
-        <v>0.73</v>
+        <v>0.75</v>
       </c>
       <c r="AU151">
         <v>1.65</v>
@@ -30367,7 +30379,7 @@
         <v>183</v>
       </c>
       <c r="P152" t="s">
-        <v>330</v>
+        <v>334</v>
       </c>
       <c r="Q152">
         <v>1</v>
@@ -30558,7 +30570,7 @@
         <v>184</v>
       </c>
       <c r="P153" t="s">
-        <v>331</v>
+        <v>335</v>
       </c>
       <c r="Q153">
         <v>1</v>
@@ -30645,7 +30657,7 @@
         <v>2.5</v>
       </c>
       <c r="AS153">
-        <v>1.25</v>
+        <v>1.23</v>
       </c>
       <c r="AT153">
         <v>1.91</v>
@@ -31030,7 +31042,7 @@
         <v>1.36</v>
       </c>
       <c r="AT155">
-        <v>1.08</v>
+        <v>1</v>
       </c>
       <c r="AU155">
         <v>1.79</v>
@@ -31218,7 +31230,7 @@
         <v>1.4</v>
       </c>
       <c r="AS156">
-        <v>1.83</v>
+        <v>1.77</v>
       </c>
       <c r="AT156">
         <v>0.73</v>
@@ -31409,7 +31421,7 @@
         <v>1.4</v>
       </c>
       <c r="AS157">
-        <v>1.75</v>
+        <v>1.85</v>
       </c>
       <c r="AT157">
         <v>1.45</v>
@@ -31704,7 +31716,7 @@
         <v>96</v>
       </c>
       <c r="P159" t="s">
-        <v>332</v>
+        <v>336</v>
       </c>
       <c r="Q159">
         <v>15</v>
@@ -31791,7 +31803,7 @@
         <v>1.67</v>
       </c>
       <c r="AS159">
-        <v>1.8</v>
+        <v>1.73</v>
       </c>
       <c r="AT159">
         <v>1.08</v>
@@ -31985,7 +31997,7 @@
         <v>1.18</v>
       </c>
       <c r="AT160">
-        <v>0.83</v>
+        <v>1</v>
       </c>
       <c r="AU160">
         <v>1.48</v>
@@ -32173,7 +32185,7 @@
         <v>0.8</v>
       </c>
       <c r="AS161">
-        <v>1.33</v>
+        <v>1.31</v>
       </c>
       <c r="AT161">
         <v>1</v>
@@ -32367,7 +32379,7 @@
         <v>1.45</v>
       </c>
       <c r="AT162">
-        <v>1.09</v>
+        <v>1.08</v>
       </c>
       <c r="AU162">
         <v>1.41</v>
@@ -32468,7 +32480,7 @@
         <v>96</v>
       </c>
       <c r="P163" t="s">
-        <v>333</v>
+        <v>276</v>
       </c>
       <c r="Q163">
         <v>1</v>
@@ -32558,7 +32570,7 @@
         <v>2</v>
       </c>
       <c r="AT163">
-        <v>1.92</v>
+        <v>1.85</v>
       </c>
       <c r="AU163">
         <v>1.07</v>
@@ -32746,7 +32758,7 @@
         <v>1.4</v>
       </c>
       <c r="AS164">
-        <v>1.92</v>
+        <v>1.85</v>
       </c>
       <c r="AT164">
         <v>1.27</v>
@@ -32937,7 +32949,7 @@
         <v>1.2</v>
       </c>
       <c r="AS165">
-        <v>1.58</v>
+        <v>1.69</v>
       </c>
       <c r="AT165">
         <v>0.82</v>
@@ -33128,7 +33140,7 @@
         <v>1</v>
       </c>
       <c r="AS166">
-        <v>1.33</v>
+        <v>1.31</v>
       </c>
       <c r="AT166">
         <v>1.09</v>
@@ -33322,7 +33334,7 @@
         <v>1.36</v>
       </c>
       <c r="AT167">
-        <v>0.33</v>
+        <v>0.38</v>
       </c>
       <c r="AU167">
         <v>1.79</v>
@@ -33423,7 +33435,7 @@
         <v>189</v>
       </c>
       <c r="P168" t="s">
-        <v>334</v>
+        <v>337</v>
       </c>
       <c r="Q168">
         <v>3</v>
@@ -33614,7 +33626,7 @@
         <v>190</v>
       </c>
       <c r="P169" t="s">
-        <v>335</v>
+        <v>338</v>
       </c>
       <c r="Q169">
         <v>1</v>
@@ -33704,7 +33716,7 @@
         <v>2.18</v>
       </c>
       <c r="AT169">
-        <v>1.25</v>
+        <v>1.23</v>
       </c>
       <c r="AU169">
         <v>1.4</v>
@@ -33805,7 +33817,7 @@
         <v>191</v>
       </c>
       <c r="P170" t="s">
-        <v>284</v>
+        <v>288</v>
       </c>
       <c r="Q170">
         <v>7</v>
@@ -33892,7 +33904,7 @@
         <v>1</v>
       </c>
       <c r="AS170">
-        <v>1.25</v>
+        <v>1.23</v>
       </c>
       <c r="AT170">
         <v>0.73</v>
@@ -33996,7 +34008,7 @@
         <v>192</v>
       </c>
       <c r="P171" t="s">
-        <v>270</v>
+        <v>269</v>
       </c>
       <c r="Q171">
         <v>3</v>
@@ -34086,7 +34098,7 @@
         <v>2.27</v>
       </c>
       <c r="AT171">
-        <v>1.08</v>
+        <v>1</v>
       </c>
       <c r="AU171">
         <v>1.2</v>
@@ -34187,7 +34199,7 @@
         <v>193</v>
       </c>
       <c r="P172" t="s">
-        <v>299</v>
+        <v>303</v>
       </c>
       <c r="Q172">
         <v>4</v>
@@ -34468,7 +34480,7 @@
         <v>1.91</v>
       </c>
       <c r="AT173">
-        <v>0.73</v>
+        <v>0.67</v>
       </c>
       <c r="AU173">
         <v>1.19</v>
@@ -34569,7 +34581,7 @@
         <v>96</v>
       </c>
       <c r="P174" t="s">
-        <v>336</v>
+        <v>339</v>
       </c>
       <c r="Q174">
         <v>5</v>
@@ -34656,7 +34668,7 @@
         <v>1</v>
       </c>
       <c r="AS174">
-        <v>1.27</v>
+        <v>1.42</v>
       </c>
       <c r="AT174">
         <v>1</v>
@@ -34847,7 +34859,7 @@
         <v>1.4</v>
       </c>
       <c r="AS175">
-        <v>2.33</v>
+        <v>2.23</v>
       </c>
       <c r="AT175">
         <v>0.91</v>
@@ -34951,7 +34963,7 @@
         <v>194</v>
       </c>
       <c r="P176" t="s">
-        <v>337</v>
+        <v>340</v>
       </c>
       <c r="Q176">
         <v>2</v>
@@ -35229,7 +35241,7 @@
         <v>0.8</v>
       </c>
       <c r="AS177">
-        <v>1.5</v>
+        <v>1.38</v>
       </c>
       <c r="AT177">
         <v>0.73</v>
@@ -35420,7 +35432,7 @@
         <v>2.2</v>
       </c>
       <c r="AS178">
-        <v>1.83</v>
+        <v>1.77</v>
       </c>
       <c r="AT178">
         <v>1.91</v>
@@ -35614,7 +35626,7 @@
         <v>2.73</v>
       </c>
       <c r="AT179">
-        <v>0.73</v>
+        <v>0.75</v>
       </c>
       <c r="AU179">
         <v>1.8</v>
@@ -35715,7 +35727,7 @@
         <v>96</v>
       </c>
       <c r="P180" t="s">
-        <v>338</v>
+        <v>341</v>
       </c>
       <c r="Q180">
         <v>5</v>
@@ -35802,7 +35814,7 @@
         <v>2</v>
       </c>
       <c r="AS180">
-        <v>1.58</v>
+        <v>1.54</v>
       </c>
       <c r="AT180">
         <v>1.55</v>
@@ -35906,7 +35918,7 @@
         <v>198</v>
       </c>
       <c r="P181" t="s">
-        <v>339</v>
+        <v>342</v>
       </c>
       <c r="Q181">
         <v>6</v>
@@ -36097,7 +36109,7 @@
         <v>199</v>
       </c>
       <c r="P182" t="s">
-        <v>340</v>
+        <v>343</v>
       </c>
       <c r="Q182">
         <v>12</v>
@@ -36378,7 +36390,7 @@
         <v>1.36</v>
       </c>
       <c r="AT183">
-        <v>0.5</v>
+        <v>0.46</v>
       </c>
       <c r="AU183">
         <v>1.74</v>
@@ -36479,7 +36491,7 @@
         <v>201</v>
       </c>
       <c r="P184" t="s">
-        <v>341</v>
+        <v>344</v>
       </c>
       <c r="Q184">
         <v>5</v>
@@ -36566,7 +36578,7 @@
         <v>1.67</v>
       </c>
       <c r="AS184">
-        <v>1.58</v>
+        <v>1.69</v>
       </c>
       <c r="AT184">
         <v>1.45</v>
@@ -37142,7 +37154,7 @@
         <v>1.18</v>
       </c>
       <c r="AT187">
-        <v>0.33</v>
+        <v>0.38</v>
       </c>
       <c r="AU187">
         <v>1.32</v>
@@ -37333,7 +37345,7 @@
         <v>1.45</v>
       </c>
       <c r="AT188">
-        <v>1.92</v>
+        <v>1.85</v>
       </c>
       <c r="AU188">
         <v>1.5</v>
@@ -37521,7 +37533,7 @@
         <v>1.33</v>
       </c>
       <c r="AS189">
-        <v>1.33</v>
+        <v>1.31</v>
       </c>
       <c r="AT189">
         <v>1.27</v>
@@ -37625,7 +37637,7 @@
         <v>200</v>
       </c>
       <c r="P190" t="s">
-        <v>333</v>
+        <v>276</v>
       </c>
       <c r="Q190">
         <v>3</v>
@@ -37712,10 +37724,10 @@
         <v>1.29</v>
       </c>
       <c r="AS190">
-        <v>1.8</v>
+        <v>1.73</v>
       </c>
       <c r="AT190">
-        <v>0.83</v>
+        <v>1</v>
       </c>
       <c r="AU190">
         <v>1.6</v>
@@ -37903,7 +37915,7 @@
         <v>0.83</v>
       </c>
       <c r="AS191">
-        <v>1.33</v>
+        <v>1.31</v>
       </c>
       <c r="AT191">
         <v>1</v>
@@ -38007,7 +38019,7 @@
         <v>96</v>
       </c>
       <c r="P192" t="s">
-        <v>342</v>
+        <v>345</v>
       </c>
       <c r="Q192">
         <v>6</v>
@@ -38094,7 +38106,7 @@
         <v>0.83</v>
       </c>
       <c r="AS192">
-        <v>1.5</v>
+        <v>1.38</v>
       </c>
       <c r="AT192">
         <v>1.09</v>
@@ -38285,10 +38297,10 @@
         <v>1.17</v>
       </c>
       <c r="AS193">
-        <v>1.75</v>
+        <v>1.85</v>
       </c>
       <c r="AT193">
-        <v>1.09</v>
+        <v>1.08</v>
       </c>
       <c r="AU193">
         <v>1.62</v>
@@ -38476,7 +38488,7 @@
         <v>1.17</v>
       </c>
       <c r="AS194">
-        <v>1.83</v>
+        <v>1.77</v>
       </c>
       <c r="AT194">
         <v>0.82</v>
@@ -38858,7 +38870,7 @@
         <v>1</v>
       </c>
       <c r="AS196">
-        <v>1.92</v>
+        <v>1.85</v>
       </c>
       <c r="AT196">
         <v>0.73</v>
@@ -39049,7 +39061,7 @@
         <v>1.17</v>
       </c>
       <c r="AS197">
-        <v>1.58</v>
+        <v>1.54</v>
       </c>
       <c r="AT197">
         <v>0.73</v>
@@ -39434,7 +39446,7 @@
         <v>2.27</v>
       </c>
       <c r="AT199">
-        <v>0.5</v>
+        <v>0.46</v>
       </c>
       <c r="AU199">
         <v>1.23</v>
@@ -39622,7 +39634,7 @@
         <v>0.83</v>
       </c>
       <c r="AS200">
-        <v>1.25</v>
+        <v>1.23</v>
       </c>
       <c r="AT200">
         <v>0.73</v>
@@ -39917,7 +39929,7 @@
         <v>211</v>
       </c>
       <c r="P202" t="s">
-        <v>343</v>
+        <v>346</v>
       </c>
       <c r="Q202">
         <v>8</v>
@@ -40007,7 +40019,7 @@
         <v>1.91</v>
       </c>
       <c r="AT202">
-        <v>0.73</v>
+        <v>0.75</v>
       </c>
       <c r="AU202">
         <v>1.92</v>
@@ -40577,7 +40589,7 @@
         <v>0.83</v>
       </c>
       <c r="AS205">
-        <v>1.83</v>
+        <v>1.77</v>
       </c>
       <c r="AT205">
         <v>0.73</v>
@@ -40681,7 +40693,7 @@
         <v>214</v>
       </c>
       <c r="P206" t="s">
-        <v>344</v>
+        <v>347</v>
       </c>
       <c r="Q206">
         <v>1</v>
@@ -40771,7 +40783,7 @@
         <v>1.36</v>
       </c>
       <c r="AT206">
-        <v>0.73</v>
+        <v>0.67</v>
       </c>
       <c r="AU206">
         <v>1.66</v>
@@ -41150,7 +41162,7 @@
         <v>2.17</v>
       </c>
       <c r="AS208">
-        <v>2.33</v>
+        <v>2.23</v>
       </c>
       <c r="AT208">
         <v>1.55</v>
@@ -41254,7 +41266,7 @@
         <v>215</v>
       </c>
       <c r="P209" t="s">
-        <v>345</v>
+        <v>348</v>
       </c>
       <c r="Q209">
         <v>5</v>
@@ -41532,10 +41544,10 @@
         <v>0.86</v>
       </c>
       <c r="AS210">
-        <v>1.27</v>
+        <v>1.42</v>
       </c>
       <c r="AT210">
-        <v>1.08</v>
+        <v>1</v>
       </c>
       <c r="AU210">
         <v>1.3</v>
@@ -41827,7 +41839,7 @@
         <v>216</v>
       </c>
       <c r="P212" t="s">
-        <v>346</v>
+        <v>349</v>
       </c>
       <c r="Q212">
         <v>2</v>
@@ -42018,7 +42030,7 @@
         <v>217</v>
       </c>
       <c r="P213" t="s">
-        <v>347</v>
+        <v>350</v>
       </c>
       <c r="Q213">
         <v>12</v>
@@ -42108,7 +42120,7 @@
         <v>1.45</v>
       </c>
       <c r="AT213">
-        <v>0.83</v>
+        <v>1</v>
       </c>
       <c r="AU213">
         <v>1.42</v>
@@ -42209,7 +42221,7 @@
         <v>110</v>
       </c>
       <c r="P214" t="s">
-        <v>348</v>
+        <v>351</v>
       </c>
       <c r="Q214">
         <v>9</v>
@@ -42296,7 +42308,7 @@
         <v>1.29</v>
       </c>
       <c r="AS214">
-        <v>1.33</v>
+        <v>1.31</v>
       </c>
       <c r="AT214">
         <v>1.27</v>
@@ -42490,7 +42502,7 @@
         <v>2</v>
       </c>
       <c r="AT215">
-        <v>0.33</v>
+        <v>0.38</v>
       </c>
       <c r="AU215">
         <v>1.1</v>
@@ -42678,7 +42690,7 @@
         <v>1</v>
       </c>
       <c r="AS216">
-        <v>1.5</v>
+        <v>1.38</v>
       </c>
       <c r="AT216">
         <v>0.82</v>
@@ -42869,7 +42881,7 @@
         <v>1.86</v>
       </c>
       <c r="AS217">
-        <v>1.83</v>
+        <v>1.77</v>
       </c>
       <c r="AT217">
         <v>1.45</v>
@@ -43060,10 +43072,10 @@
         <v>1</v>
       </c>
       <c r="AS218">
-        <v>1.58</v>
+        <v>1.69</v>
       </c>
       <c r="AT218">
-        <v>1.09</v>
+        <v>1.08</v>
       </c>
       <c r="AU218">
         <v>1.48</v>
@@ -43251,7 +43263,7 @@
         <v>1.63</v>
       </c>
       <c r="AS219">
-        <v>1.75</v>
+        <v>1.85</v>
       </c>
       <c r="AT219">
         <v>1.08</v>
@@ -43355,7 +43367,7 @@
         <v>223</v>
       </c>
       <c r="P220" t="s">
-        <v>297</v>
+        <v>301</v>
       </c>
       <c r="Q220">
         <v>3</v>
@@ -43442,10 +43454,10 @@
         <v>2.38</v>
       </c>
       <c r="AS220">
-        <v>1.92</v>
+        <v>1.85</v>
       </c>
       <c r="AT220">
-        <v>1.92</v>
+        <v>1.85</v>
       </c>
       <c r="AU220">
         <v>1.55</v>
@@ -43546,7 +43558,7 @@
         <v>96</v>
       </c>
       <c r="P221" t="s">
-        <v>349</v>
+        <v>352</v>
       </c>
       <c r="Q221">
         <v>14</v>
@@ -43636,7 +43648,7 @@
         <v>1.18</v>
       </c>
       <c r="AT221">
-        <v>1.08</v>
+        <v>1</v>
       </c>
       <c r="AU221">
         <v>1.54</v>
@@ -43737,7 +43749,7 @@
         <v>224</v>
       </c>
       <c r="P222" t="s">
-        <v>350</v>
+        <v>353</v>
       </c>
       <c r="Q222">
         <v>4</v>
@@ -43824,7 +43836,7 @@
         <v>1.14</v>
       </c>
       <c r="AS222">
-        <v>1.58</v>
+        <v>1.54</v>
       </c>
       <c r="AT222">
         <v>1.09</v>
@@ -44015,10 +44027,10 @@
         <v>1.29</v>
       </c>
       <c r="AS223">
-        <v>1.8</v>
+        <v>1.73</v>
       </c>
       <c r="AT223">
-        <v>1.25</v>
+        <v>1.23</v>
       </c>
       <c r="AU223">
         <v>1.53</v>
@@ -44206,7 +44218,7 @@
         <v>0.86</v>
       </c>
       <c r="AS224">
-        <v>1.33</v>
+        <v>1.31</v>
       </c>
       <c r="AT224">
         <v>0.73</v>
@@ -44400,7 +44412,7 @@
         <v>1.18</v>
       </c>
       <c r="AT225">
-        <v>0.73</v>
+        <v>0.75</v>
       </c>
       <c r="AU225">
         <v>1.15</v>
@@ -44650,7 +44662,7 @@
         <v>226</v>
       </c>
       <c r="B227">
-        <v>4554639</v>
+        <v>4554638</v>
       </c>
       <c r="C227" t="s">
         <v>63</v>
@@ -44665,175 +44677,175 @@
         <v>17</v>
       </c>
       <c r="G227" t="s">
-        <v>69</v>
+        <v>65</v>
       </c>
       <c r="H227" t="s">
-        <v>78</v>
+        <v>66</v>
       </c>
       <c r="I227">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J227">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K227">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="L227">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="M227">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="N227">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="O227" t="s">
         <v>227</v>
       </c>
       <c r="P227" t="s">
-        <v>96</v>
+        <v>168</v>
       </c>
       <c r="Q227">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="R227">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="S227">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="T227">
-        <v>2.45</v>
+        <v>3.2</v>
       </c>
       <c r="U227">
         <v>1.95</v>
       </c>
       <c r="V227">
-        <v>5.25</v>
+        <v>4</v>
       </c>
       <c r="W227">
-        <v>1.55</v>
+        <v>1.54</v>
       </c>
       <c r="X227">
-        <v>2.3</v>
+        <v>2.35</v>
       </c>
       <c r="Y227">
-        <v>3.5</v>
+        <v>3.6</v>
       </c>
       <c r="Z227">
         <v>1.25</v>
       </c>
       <c r="AA227">
-        <v>12</v>
+        <v>9.85</v>
       </c>
       <c r="AB227">
-        <v>1.04</v>
+        <v>1.03</v>
       </c>
       <c r="AC227">
-        <v>1.81</v>
+        <v>2.36</v>
       </c>
       <c r="AD227">
-        <v>3.25</v>
+        <v>3.14</v>
       </c>
       <c r="AE227">
-        <v>4.37</v>
+        <v>3.22</v>
       </c>
       <c r="AF227">
         <v>1.09</v>
       </c>
       <c r="AG227">
-        <v>7.25</v>
+        <v>7.5</v>
       </c>
       <c r="AH227">
-        <v>1.48</v>
+        <v>1.45</v>
       </c>
       <c r="AI227">
-        <v>2.45</v>
+        <v>2.55</v>
       </c>
       <c r="AJ227">
-        <v>2.45</v>
+        <v>2.39</v>
       </c>
       <c r="AK227">
-        <v>1.48</v>
+        <v>1.49</v>
       </c>
       <c r="AL227">
-        <v>2.27</v>
+        <v>2.08</v>
       </c>
       <c r="AM227">
+        <v>1.71</v>
+      </c>
+      <c r="AN227">
+        <v>1.33</v>
+      </c>
+      <c r="AO227">
+        <v>1.33</v>
+      </c>
+      <c r="AP227">
         <v>1.6</v>
       </c>
-      <c r="AN227">
-        <v>1.18</v>
-      </c>
-      <c r="AO227">
-        <v>1.27</v>
-      </c>
-      <c r="AP227">
-        <v>1.9</v>
-      </c>
       <c r="AQ227">
-        <v>1.75</v>
+        <v>2.5</v>
       </c>
       <c r="AR227">
-        <v>0.71</v>
+        <v>2</v>
       </c>
       <c r="AS227">
-        <v>1.83</v>
+        <v>2.33</v>
       </c>
       <c r="AT227">
-        <v>0.73</v>
+        <v>1.55</v>
       </c>
       <c r="AU227">
-        <v>1.56</v>
+        <v>1.49</v>
       </c>
       <c r="AV227">
-        <v>1.33</v>
+        <v>1.34</v>
       </c>
       <c r="AW227">
-        <v>2.89</v>
+        <v>2.83</v>
       </c>
       <c r="AX227">
-        <v>1.41</v>
+        <v>1.37</v>
       </c>
       <c r="AY227">
         <v>8.5</v>
       </c>
       <c r="AZ227">
-        <v>3.66</v>
+        <v>3.85</v>
       </c>
       <c r="BA227">
-        <v>1.36</v>
+        <v>1.12</v>
       </c>
       <c r="BB227">
-        <v>1.67</v>
+        <v>1.23</v>
       </c>
       <c r="BC227">
-        <v>2.15</v>
+        <v>1.42</v>
       </c>
       <c r="BD227">
-        <v>2.95</v>
+        <v>1.73</v>
       </c>
       <c r="BE227">
-        <v>4.1</v>
+        <v>2.18</v>
       </c>
       <c r="BF227">
-        <v>4</v>
+        <v>8</v>
       </c>
       <c r="BG227">
-        <v>3</v>
+        <v>8</v>
       </c>
       <c r="BH227">
-        <v>4</v>
+        <v>18</v>
       </c>
       <c r="BI227">
-        <v>1</v>
+        <v>11</v>
       </c>
       <c r="BJ227">
-        <v>8</v>
+        <v>26</v>
       </c>
       <c r="BK227">
-        <v>4</v>
+        <v>19</v>
       </c>
     </row>
     <row r="228" spans="1:63">
@@ -44841,7 +44853,7 @@
         <v>227</v>
       </c>
       <c r="B228">
-        <v>4554638</v>
+        <v>4554639</v>
       </c>
       <c r="C228" t="s">
         <v>63</v>
@@ -44856,175 +44868,175 @@
         <v>17</v>
       </c>
       <c r="G228" t="s">
-        <v>65</v>
+        <v>69</v>
       </c>
       <c r="H228" t="s">
-        <v>66</v>
+        <v>78</v>
       </c>
       <c r="I228">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J228">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K228">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="L228">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="M228">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="N228">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="O228" t="s">
         <v>228</v>
       </c>
       <c r="P228" t="s">
-        <v>168</v>
+        <v>96</v>
       </c>
       <c r="Q228">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="R228">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="S228">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="T228">
-        <v>3.2</v>
+        <v>2.45</v>
       </c>
       <c r="U228">
         <v>1.95</v>
       </c>
       <c r="V228">
-        <v>4</v>
+        <v>5.25</v>
       </c>
       <c r="W228">
-        <v>1.54</v>
+        <v>1.55</v>
       </c>
       <c r="X228">
-        <v>2.35</v>
+        <v>2.3</v>
       </c>
       <c r="Y228">
-        <v>3.6</v>
+        <v>3.5</v>
       </c>
       <c r="Z228">
         <v>1.25</v>
       </c>
       <c r="AA228">
-        <v>9.85</v>
+        <v>12</v>
       </c>
       <c r="AB228">
-        <v>1.03</v>
+        <v>1.04</v>
       </c>
       <c r="AC228">
-        <v>2.36</v>
+        <v>1.81</v>
       </c>
       <c r="AD228">
-        <v>3.14</v>
+        <v>3.25</v>
       </c>
       <c r="AE228">
-        <v>3.22</v>
+        <v>4.37</v>
       </c>
       <c r="AF228">
         <v>1.09</v>
       </c>
       <c r="AG228">
-        <v>7.5</v>
+        <v>7.25</v>
       </c>
       <c r="AH228">
-        <v>1.45</v>
+        <v>1.48</v>
       </c>
       <c r="AI228">
-        <v>2.55</v>
+        <v>2.45</v>
       </c>
       <c r="AJ228">
-        <v>2.39</v>
+        <v>2.45</v>
       </c>
       <c r="AK228">
-        <v>1.49</v>
+        <v>1.48</v>
       </c>
       <c r="AL228">
-        <v>2.08</v>
+        <v>2.27</v>
       </c>
       <c r="AM228">
-        <v>1.71</v>
+        <v>1.6</v>
       </c>
       <c r="AN228">
+        <v>1.18</v>
+      </c>
+      <c r="AO228">
+        <v>1.27</v>
+      </c>
+      <c r="AP228">
+        <v>1.9</v>
+      </c>
+      <c r="AQ228">
+        <v>1.75</v>
+      </c>
+      <c r="AR228">
+        <v>0.71</v>
+      </c>
+      <c r="AS228">
+        <v>1.77</v>
+      </c>
+      <c r="AT228">
+        <v>0.73</v>
+      </c>
+      <c r="AU228">
+        <v>1.56</v>
+      </c>
+      <c r="AV228">
         <v>1.33</v>
       </c>
-      <c r="AO228">
-        <v>1.33</v>
-      </c>
-      <c r="AP228">
-        <v>1.6</v>
-      </c>
-      <c r="AQ228">
-        <v>2.5</v>
-      </c>
-      <c r="AR228">
-        <v>2</v>
-      </c>
-      <c r="AS228">
-        <v>2.33</v>
-      </c>
-      <c r="AT228">
-        <v>1.55</v>
-      </c>
-      <c r="AU228">
-        <v>1.49</v>
-      </c>
-      <c r="AV228">
-        <v>1.34</v>
-      </c>
       <c r="AW228">
-        <v>2.83</v>
+        <v>2.89</v>
       </c>
       <c r="AX228">
-        <v>1.37</v>
+        <v>1.41</v>
       </c>
       <c r="AY228">
         <v>8.5</v>
       </c>
       <c r="AZ228">
-        <v>3.85</v>
+        <v>3.66</v>
       </c>
       <c r="BA228">
-        <v>1.12</v>
+        <v>1.36</v>
       </c>
       <c r="BB228">
-        <v>1.23</v>
+        <v>1.67</v>
       </c>
       <c r="BC228">
-        <v>1.42</v>
+        <v>2.15</v>
       </c>
       <c r="BD228">
-        <v>1.73</v>
+        <v>2.95</v>
       </c>
       <c r="BE228">
-        <v>2.18</v>
+        <v>4.1</v>
       </c>
       <c r="BF228">
+        <v>4</v>
+      </c>
+      <c r="BG228">
+        <v>3</v>
+      </c>
+      <c r="BH228">
+        <v>4</v>
+      </c>
+      <c r="BI228">
+        <v>1</v>
+      </c>
+      <c r="BJ228">
         <v>8</v>
       </c>
-      <c r="BG228">
-        <v>8</v>
-      </c>
-      <c r="BH228">
-        <v>18</v>
-      </c>
-      <c r="BI228">
-        <v>11</v>
-      </c>
-      <c r="BJ228">
-        <v>26</v>
-      </c>
       <c r="BK228">
-        <v>19</v>
+        <v>4</v>
       </c>
     </row>
     <row r="229" spans="1:63">
@@ -45161,7 +45173,7 @@
         <v>0.5</v>
       </c>
       <c r="AS229">
-        <v>1.27</v>
+        <v>1.42</v>
       </c>
       <c r="AT229">
         <v>0.92</v>
@@ -45543,7 +45555,7 @@
         <v>1</v>
       </c>
       <c r="AS231">
-        <v>2.33</v>
+        <v>2.23</v>
       </c>
       <c r="AT231">
         <v>0.73</v>
@@ -45737,7 +45749,7 @@
         <v>2.27</v>
       </c>
       <c r="AT232">
-        <v>0.73</v>
+        <v>0.67</v>
       </c>
       <c r="AU232">
         <v>1.28</v>
@@ -46310,7 +46322,7 @@
         <v>1.36</v>
       </c>
       <c r="AT235">
-        <v>0.5</v>
+        <v>0.46</v>
       </c>
       <c r="AU235">
         <v>1.66</v>
@@ -46498,7 +46510,7 @@
         <v>0.86</v>
       </c>
       <c r="AS236">
-        <v>1.25</v>
+        <v>1.23</v>
       </c>
       <c r="AT236">
         <v>1</v>
@@ -46883,7 +46895,7 @@
         <v>1.45</v>
       </c>
       <c r="AT238">
-        <v>0.33</v>
+        <v>0.38</v>
       </c>
       <c r="AU238">
         <v>1.43</v>
@@ -47071,10 +47083,10 @@
         <v>1.33</v>
       </c>
       <c r="AS239">
-        <v>1.8</v>
+        <v>1.73</v>
       </c>
       <c r="AT239">
-        <v>1.08</v>
+        <v>1</v>
       </c>
       <c r="AU239">
         <v>1.5</v>
@@ -47262,7 +47274,7 @@
         <v>1.44</v>
       </c>
       <c r="AS240">
-        <v>1.58</v>
+        <v>1.69</v>
       </c>
       <c r="AT240">
         <v>1.08</v>
@@ -47456,7 +47468,7 @@
         <v>1.45</v>
       </c>
       <c r="AT241">
-        <v>1.25</v>
+        <v>1.23</v>
       </c>
       <c r="AU241">
         <v>1.44</v>
@@ -47644,7 +47656,7 @@
         <v>1.5</v>
       </c>
       <c r="AS242">
-        <v>1.58</v>
+        <v>1.54</v>
       </c>
       <c r="AT242">
         <v>1.27</v>
@@ -47706,7 +47718,7 @@
         <v>242</v>
       </c>
       <c r="B243">
-        <v>4554647</v>
+        <v>4554644</v>
       </c>
       <c r="C243" t="s">
         <v>63</v>
@@ -47721,64 +47733,64 @@
         <v>18</v>
       </c>
       <c r="G243" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
       <c r="H243" t="s">
-        <v>85</v>
+        <v>74</v>
       </c>
       <c r="I243">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J243">
         <v>0</v>
       </c>
       <c r="K243">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L243">
         <v>1</v>
       </c>
       <c r="M243">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="N243">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="O243" t="s">
-        <v>233</v>
+        <v>158</v>
       </c>
       <c r="P243" t="s">
-        <v>96</v>
+        <v>129</v>
       </c>
       <c r="Q243">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="R243">
-        <v>2</v>
+        <v>6</v>
       </c>
       <c r="S243">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="T243">
-        <v>3</v>
+        <v>3.25</v>
       </c>
       <c r="U243">
-        <v>2</v>
+        <v>2.05</v>
       </c>
       <c r="V243">
-        <v>4</v>
+        <v>3.4</v>
       </c>
       <c r="W243">
-        <v>1.5</v>
+        <v>1.44</v>
       </c>
       <c r="X243">
-        <v>2.5</v>
+        <v>2.63</v>
       </c>
       <c r="Y243">
-        <v>3.5</v>
+        <v>3.25</v>
       </c>
       <c r="Z243">
-        <v>1.29</v>
+        <v>1.33</v>
       </c>
       <c r="AA243">
         <v>10</v>
@@ -47787,109 +47799,109 @@
         <v>1.06</v>
       </c>
       <c r="AC243">
-        <v>2.24</v>
+        <v>2.6</v>
       </c>
       <c r="AD243">
-        <v>3.07</v>
+        <v>3.16</v>
       </c>
       <c r="AE243">
-        <v>3.43</v>
+        <v>2.75</v>
       </c>
       <c r="AF243">
+        <v>1.07</v>
+      </c>
+      <c r="AG243">
+        <v>7.75</v>
+      </c>
+      <c r="AH243">
+        <v>1.36</v>
+      </c>
+      <c r="AI243">
+        <v>2.9</v>
+      </c>
+      <c r="AJ243">
+        <v>2.1</v>
+      </c>
+      <c r="AK243">
+        <v>1.7</v>
+      </c>
+      <c r="AL243">
+        <v>1.95</v>
+      </c>
+      <c r="AM243">
+        <v>1.8</v>
+      </c>
+      <c r="AN243">
+        <v>1.43</v>
+      </c>
+      <c r="AO243">
+        <v>1.33</v>
+      </c>
+      <c r="AP243">
+        <v>1.49</v>
+      </c>
+      <c r="AQ243">
+        <v>1.67</v>
+      </c>
+      <c r="AR243">
+        <v>0.88</v>
+      </c>
+      <c r="AS243">
+        <v>1.77</v>
+      </c>
+      <c r="AT243">
         <v>1.08</v>
       </c>
-      <c r="AG243">
+      <c r="AU243">
+        <v>1.42</v>
+      </c>
+      <c r="AV243">
+        <v>1.27</v>
+      </c>
+      <c r="AW243">
+        <v>2.69</v>
+      </c>
+      <c r="AX243">
+        <v>2.35</v>
+      </c>
+      <c r="AY243">
+        <v>5.75</v>
+      </c>
+      <c r="AZ243">
+        <v>1.74</v>
+      </c>
+      <c r="BA243">
+        <v>1.2</v>
+      </c>
+      <c r="BB243">
+        <v>1.4</v>
+      </c>
+      <c r="BC243">
+        <v>1.83</v>
+      </c>
+      <c r="BD243">
+        <v>2.16</v>
+      </c>
+      <c r="BE243">
+        <v>2.84</v>
+      </c>
+      <c r="BF243">
+        <v>5</v>
+      </c>
+      <c r="BG243">
+        <v>4</v>
+      </c>
+      <c r="BH243">
         <v>7</v>
-      </c>
-      <c r="AH243">
-        <v>1.44</v>
-      </c>
-      <c r="AI243">
-        <v>2.62</v>
-      </c>
-      <c r="AJ243">
-        <v>2.3</v>
-      </c>
-      <c r="AK243">
-        <v>1.6</v>
-      </c>
-      <c r="AL243">
-        <v>2</v>
-      </c>
-      <c r="AM243">
-        <v>1.75</v>
-      </c>
-      <c r="AN243">
-        <v>1.33</v>
-      </c>
-      <c r="AO243">
-        <v>1.38</v>
-      </c>
-      <c r="AP243">
-        <v>1.62</v>
-      </c>
-      <c r="AQ243">
-        <v>1.78</v>
-      </c>
-      <c r="AR243">
-        <v>1</v>
-      </c>
-      <c r="AS243">
-        <v>1.92</v>
-      </c>
-      <c r="AT243">
-        <v>1</v>
-      </c>
-      <c r="AU243">
-        <v>1.52</v>
-      </c>
-      <c r="AV243">
-        <v>1.58</v>
-      </c>
-      <c r="AW243">
-        <v>3.1</v>
-      </c>
-      <c r="AX243">
-        <v>1.9</v>
-      </c>
-      <c r="AY243">
-        <v>5.5</v>
-      </c>
-      <c r="AZ243">
-        <v>2.2</v>
-      </c>
-      <c r="BA243">
-        <v>1.39</v>
-      </c>
-      <c r="BB243">
-        <v>1.72</v>
-      </c>
-      <c r="BC243">
-        <v>2.14</v>
-      </c>
-      <c r="BD243">
-        <v>2.93</v>
-      </c>
-      <c r="BE243">
-        <v>4.2</v>
-      </c>
-      <c r="BF243">
-        <v>4</v>
-      </c>
-      <c r="BG243">
-        <v>6</v>
-      </c>
-      <c r="BH243">
-        <v>9</v>
       </c>
       <c r="BI243">
         <v>7</v>
       </c>
       <c r="BJ243">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="BK243">
-        <v>13</v>
+        <v>11</v>
       </c>
     </row>
     <row r="244" spans="1:63">
@@ -47897,7 +47909,7 @@
         <v>243</v>
       </c>
       <c r="B244">
-        <v>4554644</v>
+        <v>4554647</v>
       </c>
       <c r="C244" t="s">
         <v>63</v>
@@ -47912,64 +47924,64 @@
         <v>18</v>
       </c>
       <c r="G244" t="s">
-        <v>66</v>
+        <v>68</v>
       </c>
       <c r="H244" t="s">
-        <v>74</v>
+        <v>85</v>
       </c>
       <c r="I244">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J244">
         <v>0</v>
       </c>
       <c r="K244">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L244">
         <v>1</v>
       </c>
       <c r="M244">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="N244">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="O244" t="s">
-        <v>158</v>
+        <v>233</v>
       </c>
       <c r="P244" t="s">
-        <v>129</v>
+        <v>96</v>
       </c>
       <c r="Q244">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="R244">
-        <v>6</v>
+        <v>2</v>
       </c>
       <c r="S244">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="T244">
-        <v>3.25</v>
+        <v>3</v>
       </c>
       <c r="U244">
-        <v>2.05</v>
+        <v>2</v>
       </c>
       <c r="V244">
-        <v>3.4</v>
+        <v>4</v>
       </c>
       <c r="W244">
-        <v>1.44</v>
+        <v>1.5</v>
       </c>
       <c r="X244">
-        <v>2.63</v>
+        <v>2.5</v>
       </c>
       <c r="Y244">
-        <v>3.25</v>
+        <v>3.5</v>
       </c>
       <c r="Z244">
-        <v>1.33</v>
+        <v>1.29</v>
       </c>
       <c r="AA244">
         <v>10</v>
@@ -47978,109 +47990,109 @@
         <v>1.06</v>
       </c>
       <c r="AC244">
-        <v>2.6</v>
+        <v>2.24</v>
       </c>
       <c r="AD244">
-        <v>3.16</v>
+        <v>3.07</v>
       </c>
       <c r="AE244">
-        <v>2.75</v>
+        <v>3.43</v>
       </c>
       <c r="AF244">
-        <v>1.07</v>
+        <v>1.08</v>
       </c>
       <c r="AG244">
-        <v>7.75</v>
+        <v>7</v>
       </c>
       <c r="AH244">
-        <v>1.36</v>
+        <v>1.44</v>
       </c>
       <c r="AI244">
-        <v>2.9</v>
+        <v>2.62</v>
       </c>
       <c r="AJ244">
-        <v>2.1</v>
+        <v>2.3</v>
       </c>
       <c r="AK244">
-        <v>1.7</v>
+        <v>1.6</v>
       </c>
       <c r="AL244">
-        <v>1.95</v>
+        <v>2</v>
       </c>
       <c r="AM244">
-        <v>1.8</v>
+        <v>1.75</v>
       </c>
       <c r="AN244">
-        <v>1.43</v>
+        <v>1.33</v>
       </c>
       <c r="AO244">
-        <v>1.33</v>
+        <v>1.38</v>
       </c>
       <c r="AP244">
-        <v>1.49</v>
+        <v>1.62</v>
       </c>
       <c r="AQ244">
-        <v>1.67</v>
+        <v>1.78</v>
       </c>
       <c r="AR244">
-        <v>0.88</v>
+        <v>1</v>
       </c>
       <c r="AS244">
-        <v>1.83</v>
+        <v>1.85</v>
       </c>
       <c r="AT244">
-        <v>1.09</v>
+        <v>1</v>
       </c>
       <c r="AU244">
-        <v>1.42</v>
+        <v>1.52</v>
       </c>
       <c r="AV244">
-        <v>1.27</v>
+        <v>1.58</v>
       </c>
       <c r="AW244">
-        <v>2.69</v>
+        <v>3.1</v>
       </c>
       <c r="AX244">
-        <v>2.35</v>
+        <v>1.9</v>
       </c>
       <c r="AY244">
-        <v>5.75</v>
+        <v>5.5</v>
       </c>
       <c r="AZ244">
-        <v>1.74</v>
+        <v>2.2</v>
       </c>
       <c r="BA244">
-        <v>1.2</v>
+        <v>1.39</v>
       </c>
       <c r="BB244">
-        <v>1.4</v>
+        <v>1.72</v>
       </c>
       <c r="BC244">
-        <v>1.83</v>
+        <v>2.14</v>
       </c>
       <c r="BD244">
-        <v>2.16</v>
+        <v>2.93</v>
       </c>
       <c r="BE244">
-        <v>2.84</v>
+        <v>4.2</v>
       </c>
       <c r="BF244">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="BG244">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="BH244">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="BI244">
         <v>7</v>
       </c>
       <c r="BJ244">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="BK244">
-        <v>11</v>
+        <v>13</v>
       </c>
     </row>
     <row r="245" spans="1:63">
@@ -48217,10 +48229,10 @@
         <v>1.11</v>
       </c>
       <c r="AS245">
-        <v>1.75</v>
+        <v>1.85</v>
       </c>
       <c r="AT245">
-        <v>0.83</v>
+        <v>1</v>
       </c>
       <c r="AU245">
         <v>1.67</v>
@@ -48512,7 +48524,7 @@
         <v>235</v>
       </c>
       <c r="P247" t="s">
-        <v>351</v>
+        <v>354</v>
       </c>
       <c r="Q247">
         <v>1</v>
@@ -48599,7 +48611,7 @@
         <v>1.13</v>
       </c>
       <c r="AS247">
-        <v>1.25</v>
+        <v>1.23</v>
       </c>
       <c r="AT247">
         <v>1.09</v>
@@ -48661,7 +48673,7 @@
         <v>247</v>
       </c>
       <c r="B248">
-        <v>4554643</v>
+        <v>4554652</v>
       </c>
       <c r="C248" t="s">
         <v>63</v>
@@ -48676,55 +48688,55 @@
         <v>18</v>
       </c>
       <c r="G248" t="s">
-        <v>78</v>
+        <v>91</v>
       </c>
       <c r="H248" t="s">
-        <v>65</v>
+        <v>89</v>
       </c>
       <c r="I248">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J248">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K248">
         <v>1</v>
       </c>
       <c r="L248">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="M248">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="N248">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="O248" t="s">
-        <v>236</v>
+        <v>96</v>
       </c>
       <c r="P248" t="s">
-        <v>96</v>
+        <v>298</v>
       </c>
       <c r="Q248">
         <v>7</v>
       </c>
       <c r="R248">
-        <v>8</v>
+        <v>4</v>
       </c>
       <c r="S248">
-        <v>15</v>
+        <v>11</v>
       </c>
       <c r="T248">
-        <v>3</v>
+        <v>2.6</v>
       </c>
       <c r="U248">
-        <v>1.9</v>
+        <v>1.95</v>
       </c>
       <c r="V248">
-        <v>3.8</v>
+        <v>5.3</v>
       </c>
       <c r="W248">
-        <v>1.51</v>
+        <v>1.52</v>
       </c>
       <c r="X248">
         <v>2.35</v>
@@ -48733,118 +48745,118 @@
         <v>3.4</v>
       </c>
       <c r="Z248">
-        <v>1.28</v>
+        <v>1.27</v>
       </c>
       <c r="AA248">
-        <v>9.5</v>
+        <v>8.5</v>
       </c>
       <c r="AB248">
-        <v>1.05</v>
+        <v>1.04</v>
       </c>
       <c r="AC248">
-        <v>2.3</v>
+        <v>1.91</v>
       </c>
       <c r="AD248">
-        <v>3</v>
+        <v>3.2</v>
       </c>
       <c r="AE248">
-        <v>3.2</v>
+        <v>4</v>
       </c>
       <c r="AF248">
-        <v>1.1</v>
+        <v>1.07</v>
       </c>
       <c r="AG248">
         <v>6.5</v>
       </c>
       <c r="AH248">
-        <v>1.46</v>
+        <v>1.42</v>
       </c>
       <c r="AI248">
-        <v>2.5</v>
+        <v>2.6</v>
       </c>
       <c r="AJ248">
-        <v>2.37</v>
+        <v>2.45</v>
       </c>
       <c r="AK248">
-        <v>1.51</v>
+        <v>1.47</v>
       </c>
       <c r="AL248">
-        <v>2.05</v>
+        <v>2.1</v>
       </c>
       <c r="AM248">
-        <v>1.68</v>
+        <v>1.65</v>
       </c>
       <c r="AN248">
+        <v>1.22</v>
+      </c>
+      <c r="AO248">
         <v>1.33</v>
       </c>
-      <c r="AO248">
-        <v>1.36</v>
-      </c>
       <c r="AP248">
+        <v>1.88</v>
+      </c>
+      <c r="AQ248">
+        <v>1.5</v>
+      </c>
+      <c r="AR248">
+        <v>0.78</v>
+      </c>
+      <c r="AS248">
+        <v>1.18</v>
+      </c>
+      <c r="AT248">
+        <v>0.92</v>
+      </c>
+      <c r="AU248">
+        <v>1.3</v>
+      </c>
+      <c r="AV248">
+        <v>1.13</v>
+      </c>
+      <c r="AW248">
+        <v>2.43</v>
+      </c>
+      <c r="AX248">
         <v>1.57</v>
       </c>
-      <c r="AQ248">
-        <v>1.11</v>
-      </c>
-      <c r="AR248">
-        <v>0.88</v>
-      </c>
-      <c r="AS248">
-        <v>1.33</v>
-      </c>
-      <c r="AT248">
-        <v>0.73</v>
-      </c>
-      <c r="AU248">
-        <v>1.47</v>
-      </c>
-      <c r="AV248">
-        <v>1.24</v>
-      </c>
-      <c r="AW248">
-        <v>2.71</v>
-      </c>
-      <c r="AX248">
-        <v>1.77</v>
-      </c>
       <c r="AY248">
-        <v>9</v>
+        <v>9.199999999999999</v>
       </c>
       <c r="AZ248">
-        <v>2.44</v>
+        <v>2.94</v>
       </c>
       <c r="BA248">
-        <v>1.24</v>
+        <v>1.25</v>
       </c>
       <c r="BB248">
         <v>1.53</v>
       </c>
       <c r="BC248">
-        <v>1.86</v>
+        <v>1.87</v>
       </c>
       <c r="BD248">
-        <v>2.28</v>
+        <v>2.29</v>
       </c>
       <c r="BE248">
-        <v>3.14</v>
+        <v>3.18</v>
       </c>
       <c r="BF248">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="BG248">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="BH248">
-        <v>13</v>
+        <v>19</v>
       </c>
       <c r="BI248">
-        <v>13</v>
+        <v>6</v>
       </c>
       <c r="BJ248">
-        <v>20</v>
+        <v>25</v>
       </c>
       <c r="BK248">
-        <v>16</v>
+        <v>10</v>
       </c>
     </row>
     <row r="249" spans="1:63">
@@ -48852,7 +48864,7 @@
         <v>248</v>
       </c>
       <c r="B249">
-        <v>4554652</v>
+        <v>4554643</v>
       </c>
       <c r="C249" t="s">
         <v>63</v>
@@ -48867,55 +48879,55 @@
         <v>18</v>
       </c>
       <c r="G249" t="s">
-        <v>91</v>
+        <v>78</v>
       </c>
       <c r="H249" t="s">
-        <v>89</v>
+        <v>65</v>
       </c>
       <c r="I249">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J249">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K249">
         <v>1</v>
       </c>
       <c r="L249">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="M249">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="N249">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="O249" t="s">
+        <v>236</v>
+      </c>
+      <c r="P249" t="s">
         <v>96</v>
-      </c>
-      <c r="P249" t="s">
-        <v>294</v>
       </c>
       <c r="Q249">
         <v>7</v>
       </c>
       <c r="R249">
-        <v>4</v>
+        <v>8</v>
       </c>
       <c r="S249">
-        <v>11</v>
+        <v>15</v>
       </c>
       <c r="T249">
-        <v>2.6</v>
+        <v>3</v>
       </c>
       <c r="U249">
-        <v>1.95</v>
+        <v>1.9</v>
       </c>
       <c r="V249">
-        <v>5.3</v>
+        <v>3.8</v>
       </c>
       <c r="W249">
-        <v>1.52</v>
+        <v>1.51</v>
       </c>
       <c r="X249">
         <v>2.35</v>
@@ -48924,118 +48936,118 @@
         <v>3.4</v>
       </c>
       <c r="Z249">
-        <v>1.27</v>
+        <v>1.28</v>
       </c>
       <c r="AA249">
-        <v>8.5</v>
+        <v>9.5</v>
       </c>
       <c r="AB249">
-        <v>1.04</v>
+        <v>1.05</v>
       </c>
       <c r="AC249">
-        <v>1.91</v>
+        <v>2.3</v>
       </c>
       <c r="AD249">
+        <v>3</v>
+      </c>
+      <c r="AE249">
         <v>3.2</v>
       </c>
-      <c r="AE249">
-        <v>4</v>
-      </c>
       <c r="AF249">
-        <v>1.07</v>
+        <v>1.1</v>
       </c>
       <c r="AG249">
         <v>6.5</v>
       </c>
       <c r="AH249">
-        <v>1.42</v>
+        <v>1.46</v>
       </c>
       <c r="AI249">
-        <v>2.6</v>
+        <v>2.5</v>
       </c>
       <c r="AJ249">
-        <v>2.45</v>
+        <v>2.37</v>
       </c>
       <c r="AK249">
+        <v>1.51</v>
+      </c>
+      <c r="AL249">
+        <v>2.05</v>
+      </c>
+      <c r="AM249">
+        <v>1.68</v>
+      </c>
+      <c r="AN249">
+        <v>1.33</v>
+      </c>
+      <c r="AO249">
+        <v>1.36</v>
+      </c>
+      <c r="AP249">
+        <v>1.57</v>
+      </c>
+      <c r="AQ249">
+        <v>1.11</v>
+      </c>
+      <c r="AR249">
+        <v>0.88</v>
+      </c>
+      <c r="AS249">
+        <v>1.31</v>
+      </c>
+      <c r="AT249">
+        <v>0.73</v>
+      </c>
+      <c r="AU249">
         <v>1.47</v>
       </c>
-      <c r="AL249">
-        <v>2.1</v>
-      </c>
-      <c r="AM249">
-        <v>1.65</v>
-      </c>
-      <c r="AN249">
-        <v>1.22</v>
-      </c>
-      <c r="AO249">
-        <v>1.33</v>
-      </c>
-      <c r="AP249">
-        <v>1.88</v>
-      </c>
-      <c r="AQ249">
-        <v>1.5</v>
-      </c>
-      <c r="AR249">
-        <v>0.78</v>
-      </c>
-      <c r="AS249">
-        <v>1.18</v>
-      </c>
-      <c r="AT249">
-        <v>0.92</v>
-      </c>
-      <c r="AU249">
-        <v>1.3</v>
-      </c>
       <c r="AV249">
-        <v>1.13</v>
+        <v>1.24</v>
       </c>
       <c r="AW249">
-        <v>2.43</v>
+        <v>2.71</v>
       </c>
       <c r="AX249">
-        <v>1.57</v>
+        <v>1.77</v>
       </c>
       <c r="AY249">
-        <v>9.199999999999999</v>
+        <v>9</v>
       </c>
       <c r="AZ249">
-        <v>2.94</v>
+        <v>2.44</v>
       </c>
       <c r="BA249">
-        <v>1.25</v>
+        <v>1.24</v>
       </c>
       <c r="BB249">
         <v>1.53</v>
       </c>
       <c r="BC249">
-        <v>1.87</v>
+        <v>1.86</v>
       </c>
       <c r="BD249">
-        <v>2.29</v>
+        <v>2.28</v>
       </c>
       <c r="BE249">
-        <v>3.18</v>
+        <v>3.14</v>
       </c>
       <c r="BF249">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="BG249">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="BH249">
-        <v>19</v>
+        <v>13</v>
       </c>
       <c r="BI249">
-        <v>6</v>
+        <v>13</v>
       </c>
       <c r="BJ249">
-        <v>25</v>
+        <v>20</v>
       </c>
       <c r="BK249">
-        <v>10</v>
+        <v>16</v>
       </c>
     </row>
     <row r="250" spans="1:63">
@@ -49172,7 +49184,7 @@
         <v>1.75</v>
       </c>
       <c r="AS250">
-        <v>1.5</v>
+        <v>1.38</v>
       </c>
       <c r="AT250">
         <v>1.45</v>
@@ -49276,7 +49288,7 @@
         <v>237</v>
       </c>
       <c r="P251" t="s">
-        <v>352</v>
+        <v>355</v>
       </c>
       <c r="Q251">
         <v>3</v>
@@ -49363,10 +49375,10 @@
         <v>2.11</v>
       </c>
       <c r="AS251">
-        <v>1.33</v>
+        <v>1.31</v>
       </c>
       <c r="AT251">
-        <v>1.92</v>
+        <v>1.85</v>
       </c>
       <c r="AU251">
         <v>1.3</v>
@@ -49557,7 +49569,7 @@
         <v>1.36</v>
       </c>
       <c r="AT252">
-        <v>0.73</v>
+        <v>0.67</v>
       </c>
       <c r="AU252">
         <v>1.68</v>
@@ -49849,7 +49861,7 @@
         <v>238</v>
       </c>
       <c r="P254" t="s">
-        <v>353</v>
+        <v>356</v>
       </c>
       <c r="Q254">
         <v>7</v>
@@ -49936,7 +49948,7 @@
         <v>0.88</v>
       </c>
       <c r="AS254">
-        <v>1.83</v>
+        <v>1.77</v>
       </c>
       <c r="AT254">
         <v>1</v>
@@ -50231,7 +50243,7 @@
         <v>239</v>
       </c>
       <c r="P256" t="s">
-        <v>354</v>
+        <v>357</v>
       </c>
       <c r="Q256">
         <v>6</v>
@@ -50613,7 +50625,7 @@
         <v>241</v>
       </c>
       <c r="P258" t="s">
-        <v>355</v>
+        <v>358</v>
       </c>
       <c r="Q258">
         <v>2</v>
@@ -50891,10 +50903,10 @@
         <v>0.67</v>
       </c>
       <c r="AS259">
-        <v>1.27</v>
+        <v>1.42</v>
       </c>
       <c r="AT259">
-        <v>0.5</v>
+        <v>0.46</v>
       </c>
       <c r="AU259">
         <v>1.58</v>
@@ -51464,7 +51476,7 @@
         <v>0.88</v>
       </c>
       <c r="AS262">
-        <v>2.33</v>
+        <v>2.23</v>
       </c>
       <c r="AT262">
         <v>0.82</v>
@@ -51658,7 +51670,7 @@
         <v>2.18</v>
       </c>
       <c r="AT263">
-        <v>0.73</v>
+        <v>0.75</v>
       </c>
       <c r="AU263">
         <v>1.56</v>
@@ -52037,7 +52049,7 @@
         <v>0.78</v>
       </c>
       <c r="AS265">
-        <v>1.58</v>
+        <v>1.54</v>
       </c>
       <c r="AT265">
         <v>0.73</v>
@@ -52231,7 +52243,7 @@
         <v>1.45</v>
       </c>
       <c r="AT266">
-        <v>1.08</v>
+        <v>1</v>
       </c>
       <c r="AU266">
         <v>1.48</v>
@@ -52419,10 +52431,10 @@
         <v>1</v>
       </c>
       <c r="AS267">
-        <v>1.58</v>
+        <v>1.69</v>
       </c>
       <c r="AT267">
-        <v>0.83</v>
+        <v>1</v>
       </c>
       <c r="AU267">
         <v>1.48</v>
@@ -52610,10 +52622,10 @@
         <v>1.11</v>
       </c>
       <c r="AS268">
-        <v>1.75</v>
+        <v>1.85</v>
       </c>
       <c r="AT268">
-        <v>1.25</v>
+        <v>1.23</v>
       </c>
       <c r="AU268">
         <v>1.63</v>
@@ -52801,10 +52813,10 @@
         <v>0.4</v>
       </c>
       <c r="AS269">
-        <v>1.92</v>
+        <v>1.85</v>
       </c>
       <c r="AT269">
-        <v>0.33</v>
+        <v>0.38</v>
       </c>
       <c r="AU269">
         <v>1.51</v>
@@ -53183,7 +53195,7 @@
         <v>1.11</v>
       </c>
       <c r="AS271">
-        <v>2.33</v>
+        <v>2.23</v>
       </c>
       <c r="AT271">
         <v>1.09</v>
@@ -53287,7 +53299,7 @@
         <v>201</v>
       </c>
       <c r="P272" t="s">
-        <v>356</v>
+        <v>359</v>
       </c>
       <c r="Q272">
         <v>7</v>
@@ -53374,10 +53386,10 @@
         <v>2</v>
       </c>
       <c r="AS272">
-        <v>1.33</v>
+        <v>1.31</v>
       </c>
       <c r="AT272">
-        <v>1.92</v>
+        <v>1.85</v>
       </c>
       <c r="AU272">
         <v>1.55</v>
@@ -53436,7 +53448,7 @@
         <v>272</v>
       </c>
       <c r="B273">
-        <v>5019521</v>
+        <v>4554670</v>
       </c>
       <c r="C273" t="s">
         <v>63</v>
@@ -53451,175 +53463,175 @@
         <v>20</v>
       </c>
       <c r="G273" t="s">
-        <v>72</v>
+        <v>77</v>
       </c>
       <c r="H273" t="s">
-        <v>74</v>
+        <v>85</v>
       </c>
       <c r="I273">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J273">
         <v>0</v>
       </c>
       <c r="K273">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L273">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="M273">
         <v>1</v>
       </c>
       <c r="N273">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="O273" t="s">
-        <v>201</v>
+        <v>96</v>
       </c>
       <c r="P273" t="s">
-        <v>355</v>
+        <v>163</v>
       </c>
       <c r="Q273">
+        <v>3</v>
+      </c>
+      <c r="R273">
+        <v>3</v>
+      </c>
+      <c r="S273">
+        <v>6</v>
+      </c>
+      <c r="T273">
+        <v>3.7</v>
+      </c>
+      <c r="U273">
+        <v>1.88</v>
+      </c>
+      <c r="V273">
+        <v>3.2</v>
+      </c>
+      <c r="W273">
+        <v>1.55</v>
+      </c>
+      <c r="X273">
+        <v>2.25</v>
+      </c>
+      <c r="Y273">
+        <v>3.6</v>
+      </c>
+      <c r="Z273">
+        <v>1.25</v>
+      </c>
+      <c r="AA273">
+        <v>10.5</v>
+      </c>
+      <c r="AB273">
+        <v>1.04</v>
+      </c>
+      <c r="AC273">
+        <v>2.9</v>
+      </c>
+      <c r="AD273">
+        <v>3</v>
+      </c>
+      <c r="AE273">
+        <v>2.5</v>
+      </c>
+      <c r="AF273">
+        <v>1.11</v>
+      </c>
+      <c r="AG273">
+        <v>6</v>
+      </c>
+      <c r="AH273">
+        <v>1.51</v>
+      </c>
+      <c r="AI273">
+        <v>2.37</v>
+      </c>
+      <c r="AJ273">
+        <v>2.5</v>
+      </c>
+      <c r="AK273">
+        <v>1.46</v>
+      </c>
+      <c r="AL273">
+        <v>2.15</v>
+      </c>
+      <c r="AM273">
+        <v>1.62</v>
+      </c>
+      <c r="AN273">
+        <v>1.49</v>
+      </c>
+      <c r="AO273">
+        <v>1.37</v>
+      </c>
+      <c r="AP273">
+        <v>1.39</v>
+      </c>
+      <c r="AQ273">
+        <v>1.3</v>
+      </c>
+      <c r="AR273">
+        <v>0.9</v>
+      </c>
+      <c r="AS273">
+        <v>1.31</v>
+      </c>
+      <c r="AT273">
+        <v>1</v>
+      </c>
+      <c r="AU273">
+        <v>1.32</v>
+      </c>
+      <c r="AV273">
+        <v>1.58</v>
+      </c>
+      <c r="AW273">
+        <v>2.9</v>
+      </c>
+      <c r="AX273">
+        <v>2.25</v>
+      </c>
+      <c r="AY273">
+        <v>8.5</v>
+      </c>
+      <c r="AZ273">
+        <v>1.88</v>
+      </c>
+      <c r="BA273">
+        <v>1.32</v>
+      </c>
+      <c r="BB273">
+        <v>1.68</v>
+      </c>
+      <c r="BC273">
+        <v>2.08</v>
+      </c>
+      <c r="BD273">
+        <v>2.72</v>
+      </c>
+      <c r="BE273">
+        <v>3.74</v>
+      </c>
+      <c r="BF273">
         <v>4</v>
       </c>
-      <c r="R273">
-        <v>5</v>
-      </c>
-      <c r="S273">
-        <v>9</v>
-      </c>
-      <c r="T273">
-        <v>3.1</v>
-      </c>
-      <c r="U273">
-        <v>1.98</v>
-      </c>
-      <c r="V273">
-        <v>3.4</v>
-      </c>
-      <c r="W273">
-        <v>1.47</v>
-      </c>
-      <c r="X273">
-        <v>2.45</v>
-      </c>
-      <c r="Y273">
-        <v>3.3</v>
-      </c>
-      <c r="Z273">
-        <v>1.29</v>
-      </c>
-      <c r="AA273">
-        <v>9.25</v>
-      </c>
-      <c r="AB273">
-        <v>1.05</v>
-      </c>
-      <c r="AC273">
-        <v>2.45</v>
-      </c>
-      <c r="AD273">
-        <v>3.25</v>
-      </c>
-      <c r="AE273">
-        <v>2.75</v>
-      </c>
-      <c r="AF273">
-        <v>1.08</v>
-      </c>
-      <c r="AG273">
-        <v>7.5</v>
-      </c>
-      <c r="AH273">
-        <v>1.41</v>
-      </c>
-      <c r="AI273">
-        <v>2.65</v>
-      </c>
-      <c r="AJ273">
-        <v>2.2</v>
-      </c>
-      <c r="AK273">
-        <v>1.57</v>
-      </c>
-      <c r="AL273">
-        <v>1.98</v>
-      </c>
-      <c r="AM273">
-        <v>1.72</v>
-      </c>
-      <c r="AN273">
-        <v>1.42</v>
-      </c>
-      <c r="AO273">
-        <v>1.32</v>
-      </c>
-      <c r="AP273">
-        <v>1.51</v>
-      </c>
-      <c r="AQ273">
-        <v>1.4</v>
-      </c>
-      <c r="AR273">
-        <v>0.89</v>
-      </c>
-      <c r="AS273">
-        <v>1.5</v>
-      </c>
-      <c r="AT273">
-        <v>1.09</v>
-      </c>
-      <c r="AU273">
-        <v>1.56</v>
-      </c>
-      <c r="AV273">
-        <v>1.27</v>
-      </c>
-      <c r="AW273">
-        <v>2.83</v>
-      </c>
-      <c r="AX273">
-        <v>1.9</v>
-      </c>
-      <c r="AY273">
-        <v>8.699999999999999</v>
-      </c>
-      <c r="AZ273">
-        <v>2.21</v>
-      </c>
-      <c r="BA273">
-        <v>1.27</v>
-      </c>
-      <c r="BB273">
-        <v>1.58</v>
-      </c>
-      <c r="BC273">
-        <v>1.94</v>
-      </c>
-      <c r="BD273">
-        <v>2.41</v>
-      </c>
-      <c r="BE273">
-        <v>3.34</v>
-      </c>
-      <c r="BF273">
+      <c r="BG273">
+        <v>4</v>
+      </c>
+      <c r="BH273">
         <v>3</v>
       </c>
-      <c r="BG273">
-        <v>8</v>
-      </c>
-      <c r="BH273">
-        <v>9</v>
-      </c>
       <c r="BI273">
+        <v>2</v>
+      </c>
+      <c r="BJ273">
+        <v>7</v>
+      </c>
+      <c r="BK273">
         <v>6</v>
-      </c>
-      <c r="BJ273">
-        <v>12</v>
-      </c>
-      <c r="BK273">
-        <v>14</v>
       </c>
     </row>
     <row r="274" spans="1:63">
@@ -53627,7 +53639,7 @@
         <v>273</v>
       </c>
       <c r="B274">
-        <v>4554670</v>
+        <v>5019521</v>
       </c>
       <c r="C274" t="s">
         <v>63</v>
@@ -53642,175 +53654,175 @@
         <v>20</v>
       </c>
       <c r="G274" t="s">
-        <v>77</v>
+        <v>72</v>
       </c>
       <c r="H274" t="s">
-        <v>85</v>
+        <v>74</v>
       </c>
       <c r="I274">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J274">
         <v>0</v>
       </c>
       <c r="K274">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L274">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="M274">
         <v>1</v>
       </c>
       <c r="N274">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="O274" t="s">
-        <v>96</v>
+        <v>201</v>
       </c>
       <c r="P274" t="s">
-        <v>163</v>
+        <v>358</v>
       </c>
       <c r="Q274">
+        <v>4</v>
+      </c>
+      <c r="R274">
+        <v>5</v>
+      </c>
+      <c r="S274">
+        <v>9</v>
+      </c>
+      <c r="T274">
+        <v>3.1</v>
+      </c>
+      <c r="U274">
+        <v>1.98</v>
+      </c>
+      <c r="V274">
+        <v>3.4</v>
+      </c>
+      <c r="W274">
+        <v>1.47</v>
+      </c>
+      <c r="X274">
+        <v>2.45</v>
+      </c>
+      <c r="Y274">
+        <v>3.3</v>
+      </c>
+      <c r="Z274">
+        <v>1.29</v>
+      </c>
+      <c r="AA274">
+        <v>9.25</v>
+      </c>
+      <c r="AB274">
+        <v>1.05</v>
+      </c>
+      <c r="AC274">
+        <v>2.45</v>
+      </c>
+      <c r="AD274">
+        <v>3.25</v>
+      </c>
+      <c r="AE274">
+        <v>2.75</v>
+      </c>
+      <c r="AF274">
+        <v>1.08</v>
+      </c>
+      <c r="AG274">
+        <v>7.5</v>
+      </c>
+      <c r="AH274">
+        <v>1.41</v>
+      </c>
+      <c r="AI274">
+        <v>2.65</v>
+      </c>
+      <c r="AJ274">
+        <v>2.2</v>
+      </c>
+      <c r="AK274">
+        <v>1.57</v>
+      </c>
+      <c r="AL274">
+        <v>1.98</v>
+      </c>
+      <c r="AM274">
+        <v>1.72</v>
+      </c>
+      <c r="AN274">
+        <v>1.42</v>
+      </c>
+      <c r="AO274">
+        <v>1.32</v>
+      </c>
+      <c r="AP274">
+        <v>1.51</v>
+      </c>
+      <c r="AQ274">
+        <v>1.4</v>
+      </c>
+      <c r="AR274">
+        <v>0.89</v>
+      </c>
+      <c r="AS274">
+        <v>1.38</v>
+      </c>
+      <c r="AT274">
+        <v>1.08</v>
+      </c>
+      <c r="AU274">
+        <v>1.56</v>
+      </c>
+      <c r="AV274">
+        <v>1.27</v>
+      </c>
+      <c r="AW274">
+        <v>2.83</v>
+      </c>
+      <c r="AX274">
+        <v>1.9</v>
+      </c>
+      <c r="AY274">
+        <v>8.699999999999999</v>
+      </c>
+      <c r="AZ274">
+        <v>2.21</v>
+      </c>
+      <c r="BA274">
+        <v>1.27</v>
+      </c>
+      <c r="BB274">
+        <v>1.58</v>
+      </c>
+      <c r="BC274">
+        <v>1.94</v>
+      </c>
+      <c r="BD274">
+        <v>2.41</v>
+      </c>
+      <c r="BE274">
+        <v>3.34</v>
+      </c>
+      <c r="BF274">
         <v>3</v>
       </c>
-      <c r="R274">
-        <v>3</v>
-      </c>
-      <c r="S274">
+      <c r="BG274">
+        <v>8</v>
+      </c>
+      <c r="BH274">
+        <v>9</v>
+      </c>
+      <c r="BI274">
         <v>6</v>
       </c>
-      <c r="T274">
-        <v>3.7</v>
-      </c>
-      <c r="U274">
-        <v>1.88</v>
-      </c>
-      <c r="V274">
-        <v>3.2</v>
-      </c>
-      <c r="W274">
-        <v>1.55</v>
-      </c>
-      <c r="X274">
-        <v>2.25</v>
-      </c>
-      <c r="Y274">
-        <v>3.6</v>
-      </c>
-      <c r="Z274">
-        <v>1.25</v>
-      </c>
-      <c r="AA274">
-        <v>10.5</v>
-      </c>
-      <c r="AB274">
-        <v>1.04</v>
-      </c>
-      <c r="AC274">
-        <v>2.9</v>
-      </c>
-      <c r="AD274">
-        <v>3</v>
-      </c>
-      <c r="AE274">
-        <v>2.5</v>
-      </c>
-      <c r="AF274">
-        <v>1.11</v>
-      </c>
-      <c r="AG274">
-        <v>6</v>
-      </c>
-      <c r="AH274">
-        <v>1.51</v>
-      </c>
-      <c r="AI274">
-        <v>2.37</v>
-      </c>
-      <c r="AJ274">
-        <v>2.5</v>
-      </c>
-      <c r="AK274">
-        <v>1.46</v>
-      </c>
-      <c r="AL274">
-        <v>2.15</v>
-      </c>
-      <c r="AM274">
-        <v>1.62</v>
-      </c>
-      <c r="AN274">
-        <v>1.49</v>
-      </c>
-      <c r="AO274">
-        <v>1.37</v>
-      </c>
-      <c r="AP274">
-        <v>1.39</v>
-      </c>
-      <c r="AQ274">
-        <v>1.3</v>
-      </c>
-      <c r="AR274">
-        <v>0.9</v>
-      </c>
-      <c r="AS274">
-        <v>1.33</v>
-      </c>
-      <c r="AT274">
-        <v>1</v>
-      </c>
-      <c r="AU274">
-        <v>1.32</v>
-      </c>
-      <c r="AV274">
-        <v>1.58</v>
-      </c>
-      <c r="AW274">
-        <v>2.9</v>
-      </c>
-      <c r="AX274">
-        <v>2.25</v>
-      </c>
-      <c r="AY274">
-        <v>8.5</v>
-      </c>
-      <c r="AZ274">
-        <v>1.88</v>
-      </c>
-      <c r="BA274">
-        <v>1.32</v>
-      </c>
-      <c r="BB274">
-        <v>1.68</v>
-      </c>
-      <c r="BC274">
-        <v>2.08</v>
-      </c>
-      <c r="BD274">
-        <v>2.72</v>
-      </c>
-      <c r="BE274">
-        <v>3.74</v>
-      </c>
-      <c r="BF274">
-        <v>4</v>
-      </c>
-      <c r="BG274">
-        <v>4</v>
-      </c>
-      <c r="BH274">
-        <v>3</v>
-      </c>
-      <c r="BI274">
-        <v>2</v>
-      </c>
       <c r="BJ274">
-        <v>7</v>
+        <v>12</v>
       </c>
       <c r="BK274">
-        <v>6</v>
+        <v>14</v>
       </c>
     </row>
     <row r="275" spans="1:63">
@@ -53818,7 +53830,7 @@
         <v>274</v>
       </c>
       <c r="B275">
-        <v>4554669</v>
+        <v>4554666</v>
       </c>
       <c r="C275" t="s">
         <v>63</v>
@@ -53833,10 +53845,10 @@
         <v>20</v>
       </c>
       <c r="G275" t="s">
-        <v>66</v>
+        <v>73</v>
       </c>
       <c r="H275" t="s">
-        <v>83</v>
+        <v>69</v>
       </c>
       <c r="I275">
         <v>1</v>
@@ -53848,13 +53860,13 @@
         <v>1</v>
       </c>
       <c r="L275">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="M275">
         <v>0</v>
       </c>
       <c r="N275">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="O275" t="s">
         <v>250</v>
@@ -53863,145 +53875,145 @@
         <v>96</v>
       </c>
       <c r="Q275">
+        <v>3</v>
+      </c>
+      <c r="R275">
         <v>6</v>
       </c>
-      <c r="R275">
+      <c r="S275">
+        <v>9</v>
+      </c>
+      <c r="T275">
+        <v>3.9</v>
+      </c>
+      <c r="U275">
+        <v>1.88</v>
+      </c>
+      <c r="V275">
+        <v>3</v>
+      </c>
+      <c r="W275">
+        <v>1.53</v>
+      </c>
+      <c r="X275">
+        <v>2.3</v>
+      </c>
+      <c r="Y275">
+        <v>3.5</v>
+      </c>
+      <c r="Z275">
+        <v>1.26</v>
+      </c>
+      <c r="AA275">
+        <v>10</v>
+      </c>
+      <c r="AB275">
+        <v>1.04</v>
+      </c>
+      <c r="AC275">
+        <v>3.2</v>
+      </c>
+      <c r="AD275">
+        <v>3</v>
+      </c>
+      <c r="AE275">
+        <v>2.3</v>
+      </c>
+      <c r="AF275">
+        <v>1.1</v>
+      </c>
+      <c r="AG275">
+        <v>6.25</v>
+      </c>
+      <c r="AH275">
+        <v>1.49</v>
+      </c>
+      <c r="AI275">
+        <v>2.4</v>
+      </c>
+      <c r="AJ275">
+        <v>2.45</v>
+      </c>
+      <c r="AK275">
+        <v>1.47</v>
+      </c>
+      <c r="AL275">
+        <v>2.1</v>
+      </c>
+      <c r="AM275">
+        <v>1.63</v>
+      </c>
+      <c r="AN275">
+        <v>1.62</v>
+      </c>
+      <c r="AO275">
+        <v>1.38</v>
+      </c>
+      <c r="AP275">
+        <v>1.33</v>
+      </c>
+      <c r="AQ275">
+        <v>1.2</v>
+      </c>
+      <c r="AR275">
+        <v>1.67</v>
+      </c>
+      <c r="AS275">
+        <v>1.23</v>
+      </c>
+      <c r="AT275">
+        <v>1.45</v>
+      </c>
+      <c r="AU275">
+        <v>1.6</v>
+      </c>
+      <c r="AV275">
+        <v>1.51</v>
+      </c>
+      <c r="AW275">
+        <v>3.11</v>
+      </c>
+      <c r="AX275">
+        <v>2</v>
+      </c>
+      <c r="AY275">
+        <v>5.5</v>
+      </c>
+      <c r="AZ275">
+        <v>2</v>
+      </c>
+      <c r="BA275">
+        <v>1.28</v>
+      </c>
+      <c r="BB275">
+        <v>1.6</v>
+      </c>
+      <c r="BC275">
+        <v>1.97</v>
+      </c>
+      <c r="BD275">
+        <v>2.44</v>
+      </c>
+      <c r="BE275">
+        <v>3.42</v>
+      </c>
+      <c r="BF275">
+        <v>3</v>
+      </c>
+      <c r="BG275">
         <v>5</v>
       </c>
-      <c r="S275">
+      <c r="BH275">
+        <v>4</v>
+      </c>
+      <c r="BI275">
+        <v>6</v>
+      </c>
+      <c r="BJ275">
+        <v>7</v>
+      </c>
+      <c r="BK275">
         <v>11</v>
-      </c>
-      <c r="T275">
-        <v>2.5</v>
-      </c>
-      <c r="U275">
-        <v>2</v>
-      </c>
-      <c r="V275">
-        <v>4.5</v>
-      </c>
-      <c r="W275">
-        <v>1.46</v>
-      </c>
-      <c r="X275">
-        <v>2.5</v>
-      </c>
-      <c r="Y275">
-        <v>3.2</v>
-      </c>
-      <c r="Z275">
-        <v>1.31</v>
-      </c>
-      <c r="AA275">
-        <v>8.75</v>
-      </c>
-      <c r="AB275">
-        <v>1.06</v>
-      </c>
-      <c r="AC275">
-        <v>1.87</v>
-      </c>
-      <c r="AD275">
-        <v>3.4</v>
-      </c>
-      <c r="AE275">
-        <v>4.1</v>
-      </c>
-      <c r="AF275">
-        <v>1.08</v>
-      </c>
-      <c r="AG275">
-        <v>7.25</v>
-      </c>
-      <c r="AH275">
-        <v>1.4</v>
-      </c>
-      <c r="AI275">
-        <v>2.7</v>
-      </c>
-      <c r="AJ275">
-        <v>2.2</v>
-      </c>
-      <c r="AK275">
-        <v>1.58</v>
-      </c>
-      <c r="AL275">
-        <v>2.05</v>
-      </c>
-      <c r="AM275">
-        <v>1.68</v>
-      </c>
-      <c r="AN275">
-        <v>1.22</v>
-      </c>
-      <c r="AO275">
-        <v>1.3</v>
-      </c>
-      <c r="AP275">
-        <v>1.87</v>
-      </c>
-      <c r="AQ275">
-        <v>1.6</v>
-      </c>
-      <c r="AR275">
-        <v>1.3</v>
-      </c>
-      <c r="AS275">
-        <v>1.83</v>
-      </c>
-      <c r="AT275">
-        <v>1.08</v>
-      </c>
-      <c r="AU275">
-        <v>1.41</v>
-      </c>
-      <c r="AV275">
-        <v>1.22</v>
-      </c>
-      <c r="AW275">
-        <v>2.63</v>
-      </c>
-      <c r="AX275">
-        <v>1.69</v>
-      </c>
-      <c r="AY275">
-        <v>8</v>
-      </c>
-      <c r="AZ275">
-        <v>2.63</v>
-      </c>
-      <c r="BA275">
-        <v>1.27</v>
-      </c>
-      <c r="BB275">
-        <v>1.5</v>
-      </c>
-      <c r="BC275">
-        <v>1.85</v>
-      </c>
-      <c r="BD275">
-        <v>2.45</v>
-      </c>
-      <c r="BE275">
-        <v>3.4</v>
-      </c>
-      <c r="BF275">
-        <v>10</v>
-      </c>
-      <c r="BG275">
-        <v>8</v>
-      </c>
-      <c r="BH275">
-        <v>8</v>
-      </c>
-      <c r="BI275">
-        <v>9</v>
-      </c>
-      <c r="BJ275">
-        <v>18</v>
-      </c>
-      <c r="BK275">
-        <v>17</v>
       </c>
     </row>
     <row r="276" spans="1:63">
@@ -54009,7 +54021,7 @@
         <v>275</v>
       </c>
       <c r="B276">
-        <v>4554666</v>
+        <v>4554669</v>
       </c>
       <c r="C276" t="s">
         <v>63</v>
@@ -54024,10 +54036,10 @@
         <v>20</v>
       </c>
       <c r="G276" t="s">
-        <v>73</v>
+        <v>66</v>
       </c>
       <c r="H276" t="s">
-        <v>69</v>
+        <v>83</v>
       </c>
       <c r="I276">
         <v>1</v>
@@ -54039,13 +54051,13 @@
         <v>1</v>
       </c>
       <c r="L276">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="M276">
         <v>0</v>
       </c>
       <c r="N276">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="O276" t="s">
         <v>251</v>
@@ -54054,145 +54066,145 @@
         <v>96</v>
       </c>
       <c r="Q276">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="R276">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="S276">
+        <v>11</v>
+      </c>
+      <c r="T276">
+        <v>2.5</v>
+      </c>
+      <c r="U276">
+        <v>2</v>
+      </c>
+      <c r="V276">
+        <v>4.5</v>
+      </c>
+      <c r="W276">
+        <v>1.46</v>
+      </c>
+      <c r="X276">
+        <v>2.5</v>
+      </c>
+      <c r="Y276">
+        <v>3.2</v>
+      </c>
+      <c r="Z276">
+        <v>1.31</v>
+      </c>
+      <c r="AA276">
+        <v>8.75</v>
+      </c>
+      <c r="AB276">
+        <v>1.06</v>
+      </c>
+      <c r="AC276">
+        <v>1.87</v>
+      </c>
+      <c r="AD276">
+        <v>3.4</v>
+      </c>
+      <c r="AE276">
+        <v>4.1</v>
+      </c>
+      <c r="AF276">
+        <v>1.08</v>
+      </c>
+      <c r="AG276">
+        <v>7.25</v>
+      </c>
+      <c r="AH276">
+        <v>1.4</v>
+      </c>
+      <c r="AI276">
+        <v>2.7</v>
+      </c>
+      <c r="AJ276">
+        <v>2.2</v>
+      </c>
+      <c r="AK276">
+        <v>1.58</v>
+      </c>
+      <c r="AL276">
+        <v>2.05</v>
+      </c>
+      <c r="AM276">
+        <v>1.68</v>
+      </c>
+      <c r="AN276">
+        <v>1.22</v>
+      </c>
+      <c r="AO276">
+        <v>1.3</v>
+      </c>
+      <c r="AP276">
+        <v>1.87</v>
+      </c>
+      <c r="AQ276">
+        <v>1.6</v>
+      </c>
+      <c r="AR276">
+        <v>1.3</v>
+      </c>
+      <c r="AS276">
+        <v>1.77</v>
+      </c>
+      <c r="AT276">
+        <v>1.08</v>
+      </c>
+      <c r="AU276">
+        <v>1.41</v>
+      </c>
+      <c r="AV276">
+        <v>1.22</v>
+      </c>
+      <c r="AW276">
+        <v>2.63</v>
+      </c>
+      <c r="AX276">
+        <v>1.69</v>
+      </c>
+      <c r="AY276">
+        <v>8</v>
+      </c>
+      <c r="AZ276">
+        <v>2.63</v>
+      </c>
+      <c r="BA276">
+        <v>1.27</v>
+      </c>
+      <c r="BB276">
+        <v>1.5</v>
+      </c>
+      <c r="BC276">
+        <v>1.85</v>
+      </c>
+      <c r="BD276">
+        <v>2.45</v>
+      </c>
+      <c r="BE276">
+        <v>3.4</v>
+      </c>
+      <c r="BF276">
+        <v>10</v>
+      </c>
+      <c r="BG276">
+        <v>8</v>
+      </c>
+      <c r="BH276">
+        <v>8</v>
+      </c>
+      <c r="BI276">
         <v>9</v>
       </c>
-      <c r="T276">
-        <v>3.9</v>
-      </c>
-      <c r="U276">
-        <v>1.88</v>
-      </c>
-      <c r="V276">
-        <v>3</v>
-      </c>
-      <c r="W276">
-        <v>1.53</v>
-      </c>
-      <c r="X276">
-        <v>2.3</v>
-      </c>
-      <c r="Y276">
-        <v>3.5</v>
-      </c>
-      <c r="Z276">
-        <v>1.26</v>
-      </c>
-      <c r="AA276">
-        <v>10</v>
-      </c>
-      <c r="AB276">
-        <v>1.04</v>
-      </c>
-      <c r="AC276">
-        <v>3.2</v>
-      </c>
-      <c r="AD276">
-        <v>3</v>
-      </c>
-      <c r="AE276">
-        <v>2.3</v>
-      </c>
-      <c r="AF276">
-        <v>1.1</v>
-      </c>
-      <c r="AG276">
-        <v>6.25</v>
-      </c>
-      <c r="AH276">
-        <v>1.49</v>
-      </c>
-      <c r="AI276">
-        <v>2.4</v>
-      </c>
-      <c r="AJ276">
-        <v>2.45</v>
-      </c>
-      <c r="AK276">
-        <v>1.47</v>
-      </c>
-      <c r="AL276">
-        <v>2.1</v>
-      </c>
-      <c r="AM276">
-        <v>1.63</v>
-      </c>
-      <c r="AN276">
-        <v>1.62</v>
-      </c>
-      <c r="AO276">
-        <v>1.38</v>
-      </c>
-      <c r="AP276">
-        <v>1.33</v>
-      </c>
-      <c r="AQ276">
-        <v>1.2</v>
-      </c>
-      <c r="AR276">
-        <v>1.67</v>
-      </c>
-      <c r="AS276">
-        <v>1.25</v>
-      </c>
-      <c r="AT276">
-        <v>1.45</v>
-      </c>
-      <c r="AU276">
-        <v>1.6</v>
-      </c>
-      <c r="AV276">
-        <v>1.51</v>
-      </c>
-      <c r="AW276">
-        <v>3.11</v>
-      </c>
-      <c r="AX276">
-        <v>2</v>
-      </c>
-      <c r="AY276">
-        <v>5.5</v>
-      </c>
-      <c r="AZ276">
-        <v>2</v>
-      </c>
-      <c r="BA276">
-        <v>1.28</v>
-      </c>
-      <c r="BB276">
-        <v>1.6</v>
-      </c>
-      <c r="BC276">
-        <v>1.97</v>
-      </c>
-      <c r="BD276">
-        <v>2.44</v>
-      </c>
-      <c r="BE276">
-        <v>3.42</v>
-      </c>
-      <c r="BF276">
-        <v>3</v>
-      </c>
-      <c r="BG276">
-        <v>5</v>
-      </c>
-      <c r="BH276">
-        <v>4</v>
-      </c>
-      <c r="BI276">
-        <v>6</v>
-      </c>
       <c r="BJ276">
-        <v>7</v>
+        <v>18</v>
       </c>
       <c r="BK276">
-        <v>11</v>
+        <v>17</v>
       </c>
     </row>
     <row r="277" spans="1:63">
@@ -54329,10 +54341,10 @@
         <v>0.6</v>
       </c>
       <c r="AS277">
-        <v>1.8</v>
+        <v>1.73</v>
       </c>
       <c r="AT277">
-        <v>0.5</v>
+        <v>0.46</v>
       </c>
       <c r="AU277">
         <v>1.61</v>
@@ -54433,7 +54445,7 @@
         <v>252</v>
       </c>
       <c r="P278" t="s">
-        <v>292</v>
+        <v>296</v>
       </c>
       <c r="Q278">
         <v>4</v>
@@ -54714,7 +54726,7 @@
         <v>1.18</v>
       </c>
       <c r="AT279">
-        <v>1.25</v>
+        <v>1.23</v>
       </c>
       <c r="AU279">
         <v>1.64</v>
@@ -55284,7 +55296,7 @@
         <v>1.33</v>
       </c>
       <c r="AS282">
-        <v>1.83</v>
+        <v>1.77</v>
       </c>
       <c r="AT282">
         <v>1.27</v>
@@ -55475,7 +55487,7 @@
         <v>0.7</v>
       </c>
       <c r="AS283">
-        <v>1.27</v>
+        <v>1.42</v>
       </c>
       <c r="AT283">
         <v>0.75</v>
@@ -55579,7 +55591,7 @@
         <v>256</v>
       </c>
       <c r="P284" t="s">
-        <v>311</v>
+        <v>315</v>
       </c>
       <c r="Q284">
         <v>5</v>
@@ -55961,7 +55973,7 @@
         <v>257</v>
       </c>
       <c r="P286" t="s">
-        <v>309</v>
+        <v>313</v>
       </c>
       <c r="Q286">
         <v>10</v>
@@ -56343,7 +56355,7 @@
         <v>149</v>
       </c>
       <c r="P288" t="s">
-        <v>294</v>
+        <v>298</v>
       </c>
       <c r="Q288">
         <v>5</v>
@@ -56433,7 +56445,7 @@
         <v>1.18</v>
       </c>
       <c r="AT288">
-        <v>0.73</v>
+        <v>0.67</v>
       </c>
       <c r="AU288">
         <v>1.44</v>
@@ -56534,7 +56546,7 @@
         <v>259</v>
       </c>
       <c r="P289" t="s">
-        <v>357</v>
+        <v>360</v>
       </c>
       <c r="Q289">
         <v>5</v>
@@ -56815,7 +56827,7 @@
         <v>1.18</v>
       </c>
       <c r="AT290">
-        <v>0.73</v>
+        <v>0.75</v>
       </c>
       <c r="AU290">
         <v>1.6</v>
@@ -56916,7 +56928,7 @@
         <v>261</v>
       </c>
       <c r="P291" t="s">
-        <v>358</v>
+        <v>361</v>
       </c>
       <c r="Q291">
         <v>6</v>
@@ -57107,7 +57119,7 @@
         <v>96</v>
       </c>
       <c r="P292" t="s">
-        <v>359</v>
+        <v>362</v>
       </c>
       <c r="Q292">
         <v>4</v>
@@ -57298,7 +57310,7 @@
         <v>262</v>
       </c>
       <c r="P293" t="s">
-        <v>299</v>
+        <v>303</v>
       </c>
       <c r="Q293">
         <v>2</v>
@@ -57871,7 +57883,7 @@
         <v>96</v>
       </c>
       <c r="P296" t="s">
-        <v>355</v>
+        <v>358</v>
       </c>
       <c r="Q296">
         <v>5</v>
@@ -57958,10 +57970,10 @@
         <v>1.09</v>
       </c>
       <c r="AS296">
-        <v>1.58</v>
+        <v>1.69</v>
       </c>
       <c r="AT296">
-        <v>1.25</v>
+        <v>1.23</v>
       </c>
       <c r="AU296">
         <v>1.43</v>
@@ -58340,10 +58352,10 @@
         <v>0.36</v>
       </c>
       <c r="AS298">
-        <v>1.33</v>
+        <v>1.31</v>
       </c>
       <c r="AT298">
-        <v>0.33</v>
+        <v>0.38</v>
       </c>
       <c r="AU298">
         <v>1.29</v>
@@ -58444,7 +58456,7 @@
         <v>266</v>
       </c>
       <c r="P299" t="s">
-        <v>291</v>
+        <v>295</v>
       </c>
       <c r="Q299">
         <v>5</v>
@@ -58531,10 +58543,10 @@
         <v>2.09</v>
       </c>
       <c r="AS299">
-        <v>1.58</v>
+        <v>1.54</v>
       </c>
       <c r="AT299">
-        <v>1.92</v>
+        <v>1.85</v>
       </c>
       <c r="AU299">
         <v>1.15</v>
@@ -58722,7 +58734,7 @@
         <v>0.8</v>
       </c>
       <c r="AS300">
-        <v>2.33</v>
+        <v>2.23</v>
       </c>
       <c r="AT300">
         <v>0.73</v>
@@ -58913,7 +58925,7 @@
         <v>1.1</v>
       </c>
       <c r="AS301">
-        <v>1.83</v>
+        <v>1.77</v>
       </c>
       <c r="AT301">
         <v>1.09</v>
@@ -59017,7 +59029,7 @@
         <v>268</v>
       </c>
       <c r="P302" t="s">
-        <v>292</v>
+        <v>296</v>
       </c>
       <c r="Q302">
         <v>5</v>
@@ -59104,7 +59116,7 @@
         <v>1</v>
       </c>
       <c r="AS302">
-        <v>1.92</v>
+        <v>1.85</v>
       </c>
       <c r="AT302">
         <v>1</v>
@@ -59298,7 +59310,7 @@
         <v>1.45</v>
       </c>
       <c r="AT303">
-        <v>0.5</v>
+        <v>0.46</v>
       </c>
       <c r="AU303">
         <v>1.48</v>
@@ -59399,7 +59411,7 @@
         <v>96</v>
       </c>
       <c r="P304" t="s">
-        <v>360</v>
+        <v>363</v>
       </c>
       <c r="Q304">
         <v>3</v>
@@ -59486,10 +59498,10 @@
         <v>0.9</v>
       </c>
       <c r="AS304">
-        <v>1.25</v>
+        <v>1.23</v>
       </c>
       <c r="AT304">
-        <v>1.09</v>
+        <v>1.08</v>
       </c>
       <c r="AU304">
         <v>1.55</v>
@@ -59677,7 +59689,7 @@
         <v>1.18</v>
       </c>
       <c r="AS305">
-        <v>1.5</v>
+        <v>1.38</v>
       </c>
       <c r="AT305">
         <v>1.08</v>
@@ -59739,7 +59751,7 @@
         <v>305</v>
       </c>
       <c r="B306">
-        <v>4554694</v>
+        <v>4554693</v>
       </c>
       <c r="C306" t="s">
         <v>63</v>
@@ -59754,10 +59766,10 @@
         <v>22</v>
       </c>
       <c r="G306" t="s">
-        <v>66</v>
+        <v>78</v>
       </c>
       <c r="H306" t="s">
-        <v>79</v>
+        <v>85</v>
       </c>
       <c r="I306">
         <v>0</v>
@@ -59784,145 +59796,145 @@
         <v>96</v>
       </c>
       <c r="Q306">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="R306">
-        <v>10</v>
+        <v>4</v>
       </c>
       <c r="S306">
+        <v>8</v>
+      </c>
+      <c r="T306">
+        <v>4</v>
+      </c>
+      <c r="U306">
+        <v>1.91</v>
+      </c>
+      <c r="V306">
+        <v>3.2</v>
+      </c>
+      <c r="W306">
+        <v>1.57</v>
+      </c>
+      <c r="X306">
+        <v>2.25</v>
+      </c>
+      <c r="Y306">
+        <v>3.75</v>
+      </c>
+      <c r="Z306">
+        <v>1.25</v>
+      </c>
+      <c r="AA306">
         <v>11</v>
       </c>
-      <c r="T306">
-        <v>2.75</v>
-      </c>
-      <c r="U306">
+      <c r="AB306">
+        <v>1.05</v>
+      </c>
+      <c r="AC306">
+        <v>3.25</v>
+      </c>
+      <c r="AD306">
+        <v>2.95</v>
+      </c>
+      <c r="AE306">
+        <v>2.39</v>
+      </c>
+      <c r="AF306">
+        <v>1.1</v>
+      </c>
+      <c r="AG306">
+        <v>7</v>
+      </c>
+      <c r="AH306">
+        <v>1.5</v>
+      </c>
+      <c r="AI306">
+        <v>2.45</v>
+      </c>
+      <c r="AJ306">
+        <v>2.5</v>
+      </c>
+      <c r="AK306">
+        <v>1.5</v>
+      </c>
+      <c r="AL306">
         <v>2.05</v>
       </c>
-      <c r="V306">
-        <v>4.33</v>
-      </c>
-      <c r="W306">
-        <v>1.44</v>
-      </c>
-      <c r="X306">
-        <v>2.63</v>
-      </c>
-      <c r="Y306">
-        <v>3.4</v>
-      </c>
-      <c r="Z306">
+      <c r="AM306">
+        <v>1.7</v>
+      </c>
+      <c r="AN306">
+        <v>1.6</v>
+      </c>
+      <c r="AO306">
         <v>1.3</v>
       </c>
-      <c r="AA306">
-        <v>10</v>
-      </c>
-      <c r="AB306">
-        <v>1.06</v>
-      </c>
-      <c r="AC306">
+      <c r="AP306">
+        <v>1.36</v>
+      </c>
+      <c r="AQ306">
+        <v>1.18</v>
+      </c>
+      <c r="AR306">
+        <v>1.09</v>
+      </c>
+      <c r="AS306">
+        <v>1.31</v>
+      </c>
+      <c r="AT306">
+        <v>1</v>
+      </c>
+      <c r="AU306">
+        <v>1.51</v>
+      </c>
+      <c r="AV306">
+        <v>1.54</v>
+      </c>
+      <c r="AW306">
+        <v>3.05</v>
+      </c>
+      <c r="AX306">
+        <v>2.2</v>
+      </c>
+      <c r="AY306">
+        <v>7.5</v>
+      </c>
+      <c r="AZ306">
+        <v>1.91</v>
+      </c>
+      <c r="BA306">
+        <v>1.32</v>
+      </c>
+      <c r="BB306">
+        <v>1.6</v>
+      </c>
+      <c r="BC306">
         <v>2.05</v>
       </c>
-      <c r="AD306">
-        <v>3</v>
-      </c>
-      <c r="AE306">
-        <v>3.6</v>
-      </c>
-      <c r="AF306">
-        <v>1.05</v>
-      </c>
-      <c r="AG306">
-        <v>7.3</v>
-      </c>
-      <c r="AH306">
-        <v>1.36</v>
-      </c>
-      <c r="AI306">
-        <v>2.82</v>
-      </c>
-      <c r="AJ306">
-        <v>2.2</v>
-      </c>
-      <c r="AK306">
-        <v>1.65</v>
-      </c>
-      <c r="AL306">
-        <v>1.95</v>
-      </c>
-      <c r="AM306">
-        <v>1.8</v>
-      </c>
-      <c r="AN306">
-        <v>1.28</v>
-      </c>
-      <c r="AO306">
-        <v>1.34</v>
-      </c>
-      <c r="AP306">
-        <v>1.73</v>
-      </c>
-      <c r="AQ306">
-        <v>1.73</v>
-      </c>
-      <c r="AR306">
-        <v>0.91</v>
-      </c>
-      <c r="AS306">
-        <v>1.83</v>
-      </c>
-      <c r="AT306">
-        <v>0.83</v>
-      </c>
-      <c r="AU306">
-        <v>1.49</v>
-      </c>
-      <c r="AV306">
-        <v>1.47</v>
-      </c>
-      <c r="AW306">
-        <v>2.96</v>
-      </c>
-      <c r="AX306">
-        <v>1.91</v>
-      </c>
-      <c r="AY306">
-        <v>8</v>
-      </c>
-      <c r="AZ306">
-        <v>2.1</v>
-      </c>
-      <c r="BA306">
-        <v>1.25</v>
-      </c>
-      <c r="BB306">
-        <v>1.47</v>
-      </c>
-      <c r="BC306">
-        <v>1.83</v>
-      </c>
       <c r="BD306">
-        <v>2.4</v>
+        <v>2.8</v>
       </c>
       <c r="BE306">
-        <v>3.4</v>
+        <v>4</v>
       </c>
       <c r="BF306">
         <v>6</v>
       </c>
       <c r="BG306">
-        <v>9</v>
+        <v>3</v>
       </c>
       <c r="BH306">
-        <v>3</v>
+        <v>7</v>
       </c>
       <c r="BI306">
-        <v>8</v>
+        <v>4</v>
       </c>
       <c r="BJ306">
-        <v>9</v>
+        <v>13</v>
       </c>
       <c r="BK306">
-        <v>17</v>
+        <v>7</v>
       </c>
     </row>
     <row r="307" spans="1:63">
@@ -59930,7 +59942,7 @@
         <v>306</v>
       </c>
       <c r="B307">
-        <v>4554693</v>
+        <v>4554694</v>
       </c>
       <c r="C307" t="s">
         <v>63</v>
@@ -59945,10 +59957,10 @@
         <v>22</v>
       </c>
       <c r="G307" t="s">
-        <v>78</v>
+        <v>66</v>
       </c>
       <c r="H307" t="s">
-        <v>85</v>
+        <v>79</v>
       </c>
       <c r="I307">
         <v>0</v>
@@ -59975,145 +59987,145 @@
         <v>96</v>
       </c>
       <c r="Q307">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="R307">
-        <v>4</v>
+        <v>10</v>
       </c>
       <c r="S307">
+        <v>11</v>
+      </c>
+      <c r="T307">
+        <v>2.75</v>
+      </c>
+      <c r="U307">
+        <v>2.05</v>
+      </c>
+      <c r="V307">
+        <v>4.33</v>
+      </c>
+      <c r="W307">
+        <v>1.44</v>
+      </c>
+      <c r="X307">
+        <v>2.63</v>
+      </c>
+      <c r="Y307">
+        <v>3.4</v>
+      </c>
+      <c r="Z307">
+        <v>1.3</v>
+      </c>
+      <c r="AA307">
+        <v>10</v>
+      </c>
+      <c r="AB307">
+        <v>1.06</v>
+      </c>
+      <c r="AC307">
+        <v>2.05</v>
+      </c>
+      <c r="AD307">
+        <v>3</v>
+      </c>
+      <c r="AE307">
+        <v>3.6</v>
+      </c>
+      <c r="AF307">
+        <v>1.05</v>
+      </c>
+      <c r="AG307">
+        <v>7.3</v>
+      </c>
+      <c r="AH307">
+        <v>1.36</v>
+      </c>
+      <c r="AI307">
+        <v>2.82</v>
+      </c>
+      <c r="AJ307">
+        <v>2.2</v>
+      </c>
+      <c r="AK307">
+        <v>1.65</v>
+      </c>
+      <c r="AL307">
+        <v>1.95</v>
+      </c>
+      <c r="AM307">
+        <v>1.8</v>
+      </c>
+      <c r="AN307">
+        <v>1.28</v>
+      </c>
+      <c r="AO307">
+        <v>1.34</v>
+      </c>
+      <c r="AP307">
+        <v>1.73</v>
+      </c>
+      <c r="AQ307">
+        <v>1.73</v>
+      </c>
+      <c r="AR307">
+        <v>0.91</v>
+      </c>
+      <c r="AS307">
+        <v>1.77</v>
+      </c>
+      <c r="AT307">
+        <v>1</v>
+      </c>
+      <c r="AU307">
+        <v>1.49</v>
+      </c>
+      <c r="AV307">
+        <v>1.47</v>
+      </c>
+      <c r="AW307">
+        <v>2.96</v>
+      </c>
+      <c r="AX307">
+        <v>1.91</v>
+      </c>
+      <c r="AY307">
         <v>8</v>
       </c>
-      <c r="T307">
-        <v>4</v>
-      </c>
-      <c r="U307">
-        <v>1.91</v>
-      </c>
-      <c r="V307">
-        <v>3.2</v>
-      </c>
-      <c r="W307">
-        <v>1.57</v>
-      </c>
-      <c r="X307">
-        <v>2.25</v>
-      </c>
-      <c r="Y307">
-        <v>3.75</v>
-      </c>
-      <c r="Z307">
+      <c r="AZ307">
+        <v>2.1</v>
+      </c>
+      <c r="BA307">
         <v>1.25</v>
       </c>
-      <c r="AA307">
-        <v>11</v>
-      </c>
-      <c r="AB307">
-        <v>1.05</v>
-      </c>
-      <c r="AC307">
-        <v>3.25</v>
-      </c>
-      <c r="AD307">
-        <v>2.95</v>
-      </c>
-      <c r="AE307">
-        <v>2.39</v>
-      </c>
-      <c r="AF307">
-        <v>1.1</v>
-      </c>
-      <c r="AG307">
-        <v>7</v>
-      </c>
-      <c r="AH307">
-        <v>1.5</v>
-      </c>
-      <c r="AI307">
-        <v>2.45</v>
-      </c>
-      <c r="AJ307">
-        <v>2.5</v>
-      </c>
-      <c r="AK307">
-        <v>1.5</v>
-      </c>
-      <c r="AL307">
-        <v>2.05</v>
-      </c>
-      <c r="AM307">
-        <v>1.7</v>
-      </c>
-      <c r="AN307">
-        <v>1.6</v>
-      </c>
-      <c r="AO307">
-        <v>1.3</v>
-      </c>
-      <c r="AP307">
-        <v>1.36</v>
-      </c>
-      <c r="AQ307">
-        <v>1.18</v>
-      </c>
-      <c r="AR307">
-        <v>1.09</v>
-      </c>
-      <c r="AS307">
-        <v>1.33</v>
-      </c>
-      <c r="AT307">
-        <v>1</v>
-      </c>
-      <c r="AU307">
-        <v>1.51</v>
-      </c>
-      <c r="AV307">
-        <v>1.54</v>
-      </c>
-      <c r="AW307">
-        <v>3.05</v>
-      </c>
-      <c r="AX307">
-        <v>2.2</v>
-      </c>
-      <c r="AY307">
-        <v>7.5</v>
-      </c>
-      <c r="AZ307">
-        <v>1.91</v>
-      </c>
-      <c r="BA307">
-        <v>1.32</v>
-      </c>
       <c r="BB307">
-        <v>1.6</v>
+        <v>1.47</v>
       </c>
       <c r="BC307">
-        <v>2.05</v>
+        <v>1.83</v>
       </c>
       <c r="BD307">
-        <v>2.8</v>
+        <v>2.4</v>
       </c>
       <c r="BE307">
-        <v>4</v>
+        <v>3.4</v>
       </c>
       <c r="BF307">
         <v>6</v>
       </c>
       <c r="BG307">
+        <v>9</v>
+      </c>
+      <c r="BH307">
         <v>3</v>
       </c>
-      <c r="BH307">
-        <v>7</v>
-      </c>
       <c r="BI307">
-        <v>4</v>
+        <v>8</v>
       </c>
       <c r="BJ307">
-        <v>13</v>
+        <v>9</v>
       </c>
       <c r="BK307">
-        <v>7</v>
+        <v>17</v>
       </c>
     </row>
     <row r="308" spans="1:63">
@@ -60250,10 +60262,10 @@
         <v>1.18</v>
       </c>
       <c r="AS308">
-        <v>1.75</v>
+        <v>1.85</v>
       </c>
       <c r="AT308">
-        <v>1.08</v>
+        <v>1</v>
       </c>
       <c r="AU308">
         <v>1.62</v>
@@ -60354,7 +60366,7 @@
         <v>272</v>
       </c>
       <c r="P309" t="s">
-        <v>361</v>
+        <v>364</v>
       </c>
       <c r="Q309">
         <v>5</v>
@@ -60927,7 +60939,7 @@
         <v>274</v>
       </c>
       <c r="P312" t="s">
-        <v>362</v>
+        <v>365</v>
       </c>
       <c r="Q312">
         <v>8</v>
@@ -61691,16 +61703,16 @@
         <v>121</v>
       </c>
       <c r="P316" t="s">
-        <v>363</v>
+        <v>366</v>
       </c>
       <c r="Q316">
-        <v>-1</v>
+        <v>4</v>
       </c>
       <c r="R316">
-        <v>-1</v>
+        <v>6</v>
       </c>
       <c r="S316">
-        <v>-1</v>
+        <v>10</v>
       </c>
       <c r="T316">
         <v>5</v>
@@ -61817,22 +61829,22 @@
         <v>3.5</v>
       </c>
       <c r="BF316">
-        <v>-1</v>
+        <v>4</v>
       </c>
       <c r="BG316">
-        <v>-1</v>
+        <v>8</v>
       </c>
       <c r="BH316">
-        <v>-1</v>
+        <v>7</v>
       </c>
       <c r="BI316">
-        <v>-1</v>
+        <v>6</v>
       </c>
       <c r="BJ316">
-        <v>-1</v>
+        <v>11</v>
       </c>
       <c r="BK316">
-        <v>-1</v>
+        <v>14</v>
       </c>
     </row>
     <row r="317" spans="1:63">
@@ -62073,7 +62085,7 @@
         <v>96</v>
       </c>
       <c r="P318" t="s">
-        <v>364</v>
+        <v>367</v>
       </c>
       <c r="Q318">
         <v>9</v>
@@ -62413,7 +62425,7 @@
         <v>319</v>
       </c>
       <c r="B320">
-        <v>4554709</v>
+        <v>4554703</v>
       </c>
       <c r="C320" t="s">
         <v>63</v>
@@ -62428,52 +62440,52 @@
         <v>23</v>
       </c>
       <c r="G320" t="s">
-        <v>83</v>
+        <v>91</v>
       </c>
       <c r="H320" t="s">
-        <v>76</v>
+        <v>88</v>
       </c>
       <c r="I320">
         <v>0</v>
       </c>
       <c r="J320">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K320">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L320">
         <v>0</v>
       </c>
       <c r="M320">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="N320">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="O320" t="s">
         <v>96</v>
       </c>
       <c r="P320" t="s">
-        <v>365</v>
+        <v>129</v>
       </c>
       <c r="Q320">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="R320">
         <v>1</v>
       </c>
       <c r="S320">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="T320">
-        <v>2.88</v>
+        <v>3</v>
       </c>
       <c r="U320">
-        <v>1.95</v>
+        <v>1.91</v>
       </c>
       <c r="V320">
-        <v>4.75</v>
+        <v>4.5</v>
       </c>
       <c r="W320">
         <v>1.57</v>
@@ -62494,31 +62506,31 @@
         <v>1.04</v>
       </c>
       <c r="AC320">
-        <v>2</v>
+        <v>2.1</v>
       </c>
       <c r="AD320">
-        <v>2.9</v>
+        <v>2.87</v>
       </c>
       <c r="AE320">
-        <v>3.6</v>
+        <v>3.4</v>
       </c>
       <c r="AF320">
-        <v>1.08</v>
+        <v>1.09</v>
       </c>
       <c r="AG320">
-        <v>7.29</v>
+        <v>6.83</v>
       </c>
       <c r="AH320">
-        <v>1.54</v>
+        <v>1.5</v>
       </c>
       <c r="AI320">
-        <v>2.48</v>
+        <v>2.45</v>
       </c>
       <c r="AJ320">
-        <v>2.35</v>
+        <v>2.5</v>
       </c>
       <c r="AK320">
-        <v>1.53</v>
+        <v>1.45</v>
       </c>
       <c r="AL320">
         <v>2.2</v>
@@ -62527,43 +62539,43 @@
         <v>1.62</v>
       </c>
       <c r="AN320">
-        <v>1.25</v>
+        <v>1.29</v>
       </c>
       <c r="AO320">
-        <v>1.28</v>
+        <v>1.34</v>
       </c>
       <c r="AP320">
-        <v>1.8</v>
+        <v>1.65</v>
       </c>
       <c r="AQ320">
-        <v>2.1</v>
+        <v>1.3</v>
       </c>
       <c r="AR320">
-        <v>0.8</v>
+        <v>0.73</v>
       </c>
       <c r="AS320">
-        <v>1.91</v>
+        <v>1.18</v>
       </c>
       <c r="AT320">
-        <v>1</v>
+        <v>0.92</v>
       </c>
       <c r="AU320">
-        <v>1.25</v>
+        <v>1.49</v>
       </c>
       <c r="AV320">
-        <v>1.19</v>
+        <v>1.3</v>
       </c>
       <c r="AW320">
-        <v>2.44</v>
+        <v>2.79</v>
       </c>
       <c r="AX320">
-        <v>1.75</v>
+        <v>1.68</v>
       </c>
       <c r="AY320">
         <v>7</v>
       </c>
       <c r="AZ320">
-        <v>2.6</v>
+        <v>2.75</v>
       </c>
       <c r="BA320">
         <v>1.32</v>
@@ -62572,7 +62584,7 @@
         <v>1.6</v>
       </c>
       <c r="BC320">
-        <v>2</v>
+        <v>2.05</v>
       </c>
       <c r="BD320">
         <v>2.8</v>
@@ -62581,22 +62593,22 @@
         <v>4</v>
       </c>
       <c r="BF320">
-        <v>4</v>
+        <v>8</v>
       </c>
       <c r="BG320">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="BH320">
-        <v>4</v>
+        <v>10</v>
       </c>
       <c r="BI320">
+        <v>3</v>
+      </c>
+      <c r="BJ320">
+        <v>18</v>
+      </c>
+      <c r="BK320">
         <v>6</v>
-      </c>
-      <c r="BJ320">
-        <v>8</v>
-      </c>
-      <c r="BK320">
-        <v>10</v>
       </c>
     </row>
     <row r="321" spans="1:63">
@@ -62604,7 +62616,7 @@
         <v>320</v>
       </c>
       <c r="B321">
-        <v>4554703</v>
+        <v>4554709</v>
       </c>
       <c r="C321" t="s">
         <v>63</v>
@@ -62619,52 +62631,52 @@
         <v>23</v>
       </c>
       <c r="G321" t="s">
-        <v>91</v>
+        <v>83</v>
       </c>
       <c r="H321" t="s">
-        <v>88</v>
+        <v>76</v>
       </c>
       <c r="I321">
         <v>0</v>
       </c>
       <c r="J321">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K321">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L321">
         <v>0</v>
       </c>
       <c r="M321">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="N321">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="O321" t="s">
         <v>96</v>
       </c>
       <c r="P321" t="s">
-        <v>129</v>
+        <v>368</v>
       </c>
       <c r="Q321">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="R321">
         <v>1</v>
       </c>
       <c r="S321">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="T321">
-        <v>3</v>
+        <v>2.88</v>
       </c>
       <c r="U321">
-        <v>1.91</v>
+        <v>1.95</v>
       </c>
       <c r="V321">
-        <v>4.5</v>
+        <v>4.75</v>
       </c>
       <c r="W321">
         <v>1.57</v>
@@ -62685,31 +62697,31 @@
         <v>1.04</v>
       </c>
       <c r="AC321">
-        <v>2.1</v>
+        <v>2</v>
       </c>
       <c r="AD321">
-        <v>2.87</v>
+        <v>2.9</v>
       </c>
       <c r="AE321">
-        <v>3.4</v>
+        <v>3.6</v>
       </c>
       <c r="AF321">
-        <v>1.09</v>
+        <v>1.08</v>
       </c>
       <c r="AG321">
-        <v>6.83</v>
+        <v>7.29</v>
       </c>
       <c r="AH321">
-        <v>1.5</v>
+        <v>1.54</v>
       </c>
       <c r="AI321">
-        <v>2.45</v>
+        <v>2.48</v>
       </c>
       <c r="AJ321">
-        <v>2.5</v>
+        <v>2.35</v>
       </c>
       <c r="AK321">
-        <v>1.45</v>
+        <v>1.53</v>
       </c>
       <c r="AL321">
         <v>2.2</v>
@@ -62718,43 +62730,43 @@
         <v>1.62</v>
       </c>
       <c r="AN321">
-        <v>1.29</v>
+        <v>1.25</v>
       </c>
       <c r="AO321">
-        <v>1.34</v>
+        <v>1.28</v>
       </c>
       <c r="AP321">
-        <v>1.65</v>
+        <v>1.8</v>
       </c>
       <c r="AQ321">
-        <v>1.3</v>
+        <v>2.1</v>
       </c>
       <c r="AR321">
-        <v>0.73</v>
+        <v>0.8</v>
       </c>
       <c r="AS321">
-        <v>1.18</v>
+        <v>1.91</v>
       </c>
       <c r="AT321">
-        <v>0.92</v>
+        <v>1</v>
       </c>
       <c r="AU321">
-        <v>1.49</v>
+        <v>1.25</v>
       </c>
       <c r="AV321">
-        <v>1.3</v>
+        <v>1.19</v>
       </c>
       <c r="AW321">
-        <v>2.79</v>
+        <v>2.44</v>
       </c>
       <c r="AX321">
-        <v>1.68</v>
+        <v>1.75</v>
       </c>
       <c r="AY321">
         <v>7</v>
       </c>
       <c r="AZ321">
-        <v>2.75</v>
+        <v>2.6</v>
       </c>
       <c r="BA321">
         <v>1.32</v>
@@ -62763,7 +62775,7 @@
         <v>1.6</v>
       </c>
       <c r="BC321">
-        <v>2.05</v>
+        <v>2</v>
       </c>
       <c r="BD321">
         <v>2.8</v>
@@ -62772,21 +62784,2504 @@
         <v>4</v>
       </c>
       <c r="BF321">
+        <v>4</v>
+      </c>
+      <c r="BG321">
+        <v>4</v>
+      </c>
+      <c r="BH321">
+        <v>4</v>
+      </c>
+      <c r="BI321">
+        <v>6</v>
+      </c>
+      <c r="BJ321">
         <v>8</v>
       </c>
-      <c r="BG321">
+      <c r="BK321">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="322" spans="1:63">
+      <c r="A322" s="1">
+        <v>321</v>
+      </c>
+      <c r="B322">
+        <v>4554702</v>
+      </c>
+      <c r="C322" t="s">
+        <v>63</v>
+      </c>
+      <c r="D322" t="s">
+        <v>64</v>
+      </c>
+      <c r="E322" s="2">
+        <v>45114.79166666666</v>
+      </c>
+      <c r="F322">
+        <v>23</v>
+      </c>
+      <c r="G322" t="s">
+        <v>90</v>
+      </c>
+      <c r="H322" t="s">
+        <v>86</v>
+      </c>
+      <c r="I322">
+        <v>0</v>
+      </c>
+      <c r="J322">
+        <v>0</v>
+      </c>
+      <c r="K322">
+        <v>0</v>
+      </c>
+      <c r="L322">
+        <v>1</v>
+      </c>
+      <c r="M322">
+        <v>1</v>
+      </c>
+      <c r="N322">
+        <v>2</v>
+      </c>
+      <c r="O322" t="s">
+        <v>276</v>
+      </c>
+      <c r="P322" t="s">
+        <v>186</v>
+      </c>
+      <c r="Q322">
+        <v>2</v>
+      </c>
+      <c r="R322">
+        <v>6</v>
+      </c>
+      <c r="S322">
+        <v>8</v>
+      </c>
+      <c r="T322">
+        <v>3.75</v>
+      </c>
+      <c r="U322">
+        <v>1.91</v>
+      </c>
+      <c r="V322">
+        <v>3.6</v>
+      </c>
+      <c r="W322">
+        <v>1.62</v>
+      </c>
+      <c r="X322">
+        <v>2.2</v>
+      </c>
+      <c r="Y322">
+        <v>4</v>
+      </c>
+      <c r="Z322">
+        <v>1.22</v>
+      </c>
+      <c r="AA322">
+        <v>13</v>
+      </c>
+      <c r="AB322">
+        <v>1.04</v>
+      </c>
+      <c r="AC322">
+        <v>2.6</v>
+      </c>
+      <c r="AD322">
+        <v>2.75</v>
+      </c>
+      <c r="AE322">
+        <v>2.7</v>
+      </c>
+      <c r="AF322">
+        <v>1.11</v>
+      </c>
+      <c r="AG322">
+        <v>6</v>
+      </c>
+      <c r="AH322">
+        <v>1.53</v>
+      </c>
+      <c r="AI322">
+        <v>2.35</v>
+      </c>
+      <c r="AJ322">
+        <v>2.71</v>
+      </c>
+      <c r="AK322">
+        <v>1.39</v>
+      </c>
+      <c r="AL322">
+        <v>2.1</v>
+      </c>
+      <c r="AM322">
+        <v>1.67</v>
+      </c>
+      <c r="AN322">
+        <v>1.35</v>
+      </c>
+      <c r="AO322">
+        <v>1.35</v>
+      </c>
+      <c r="AP322">
+        <v>1.44</v>
+      </c>
+      <c r="AQ322">
+        <v>1.8</v>
+      </c>
+      <c r="AR322">
+        <v>0.73</v>
+      </c>
+      <c r="AS322">
+        <v>1.73</v>
+      </c>
+      <c r="AT322">
+        <v>0.75</v>
+      </c>
+      <c r="AU322">
+        <v>1.58</v>
+      </c>
+      <c r="AV322">
+        <v>1.11</v>
+      </c>
+      <c r="AW322">
+        <v>2.69</v>
+      </c>
+      <c r="AX322">
+        <v>2.08</v>
+      </c>
+      <c r="AY322">
+        <v>7</v>
+      </c>
+      <c r="AZ322">
+        <v>2.08</v>
+      </c>
+      <c r="BA322">
+        <v>1.21</v>
+      </c>
+      <c r="BB322">
+        <v>1.4</v>
+      </c>
+      <c r="BC322">
+        <v>1.71</v>
+      </c>
+      <c r="BD322">
+        <v>2.2</v>
+      </c>
+      <c r="BE322">
         <v>3</v>
       </c>
-      <c r="BH321">
+      <c r="BF322">
+        <v>7</v>
+      </c>
+      <c r="BG322">
+        <v>2</v>
+      </c>
+      <c r="BH322">
+        <v>1</v>
+      </c>
+      <c r="BI322">
+        <v>5</v>
+      </c>
+      <c r="BJ322">
+        <v>8</v>
+      </c>
+      <c r="BK322">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="323" spans="1:63">
+      <c r="A323" s="1">
+        <v>322</v>
+      </c>
+      <c r="B323">
+        <v>4554701</v>
+      </c>
+      <c r="C323" t="s">
+        <v>63</v>
+      </c>
+      <c r="D323" t="s">
+        <v>64</v>
+      </c>
+      <c r="E323" s="2">
+        <v>45114.89583333334</v>
+      </c>
+      <c r="F323">
+        <v>23</v>
+      </c>
+      <c r="G323" t="s">
+        <v>70</v>
+      </c>
+      <c r="H323" t="s">
+        <v>80</v>
+      </c>
+      <c r="I323">
+        <v>1</v>
+      </c>
+      <c r="J323">
+        <v>0</v>
+      </c>
+      <c r="K323">
+        <v>1</v>
+      </c>
+      <c r="L323">
+        <v>2</v>
+      </c>
+      <c r="M323">
+        <v>0</v>
+      </c>
+      <c r="N323">
+        <v>2</v>
+      </c>
+      <c r="O323" t="s">
+        <v>277</v>
+      </c>
+      <c r="P323" t="s">
+        <v>96</v>
+      </c>
+      <c r="Q323">
+        <v>5</v>
+      </c>
+      <c r="R323">
+        <v>7</v>
+      </c>
+      <c r="S323">
+        <v>12</v>
+      </c>
+      <c r="T323">
+        <v>3.5</v>
+      </c>
+      <c r="U323">
+        <v>1.91</v>
+      </c>
+      <c r="V323">
+        <v>3.75</v>
+      </c>
+      <c r="W323">
+        <v>1.62</v>
+      </c>
+      <c r="X323">
+        <v>2.2</v>
+      </c>
+      <c r="Y323">
+        <v>4</v>
+      </c>
+      <c r="Z323">
+        <v>1.22</v>
+      </c>
+      <c r="AA323">
+        <v>13</v>
+      </c>
+      <c r="AB323">
+        <v>1.04</v>
+      </c>
+      <c r="AC323">
+        <v>2.45</v>
+      </c>
+      <c r="AD323">
+        <v>2.75</v>
+      </c>
+      <c r="AE323">
+        <v>2.9</v>
+      </c>
+      <c r="AF323">
+        <v>1.11</v>
+      </c>
+      <c r="AG323">
+        <v>6.28</v>
+      </c>
+      <c r="AH323">
+        <v>1.53</v>
+      </c>
+      <c r="AI323">
+        <v>2.3</v>
+      </c>
+      <c r="AJ323">
+        <v>2.6</v>
+      </c>
+      <c r="AK323">
+        <v>1.42</v>
+      </c>
+      <c r="AL323">
+        <v>2.1</v>
+      </c>
+      <c r="AM323">
+        <v>1.67</v>
+      </c>
+      <c r="AN323">
+        <v>1.4</v>
+      </c>
+      <c r="AO323">
+        <v>1.38</v>
+      </c>
+      <c r="AP323">
+        <v>1.46</v>
+      </c>
+      <c r="AQ323">
+        <v>1.27</v>
+      </c>
+      <c r="AR323">
+        <v>0.73</v>
+      </c>
+      <c r="AS323">
+        <v>1.42</v>
+      </c>
+      <c r="AT323">
+        <v>0.67</v>
+      </c>
+      <c r="AU323">
+        <v>1.54</v>
+      </c>
+      <c r="AV323">
+        <v>1.36</v>
+      </c>
+      <c r="AW323">
+        <v>2.9</v>
+      </c>
+      <c r="AX323">
+        <v>2.3</v>
+      </c>
+      <c r="AY323">
+        <v>7</v>
+      </c>
+      <c r="AZ323">
+        <v>1.9</v>
+      </c>
+      <c r="BA323">
+        <v>1.27</v>
+      </c>
+      <c r="BB323">
+        <v>1.5</v>
+      </c>
+      <c r="BC323">
+        <v>1.88</v>
+      </c>
+      <c r="BD323">
+        <v>2.5</v>
+      </c>
+      <c r="BE323">
+        <v>3.5</v>
+      </c>
+      <c r="BF323">
+        <v>5</v>
+      </c>
+      <c r="BG323">
+        <v>6</v>
+      </c>
+      <c r="BH323">
+        <v>5</v>
+      </c>
+      <c r="BI323">
+        <v>6</v>
+      </c>
+      <c r="BJ323">
         <v>10</v>
       </c>
-      <c r="BI321">
+      <c r="BK323">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="324" spans="1:63">
+      <c r="A324" s="1">
+        <v>323</v>
+      </c>
+      <c r="B324">
+        <v>4554714</v>
+      </c>
+      <c r="C324" t="s">
+        <v>63</v>
+      </c>
+      <c r="D324" t="s">
+        <v>64</v>
+      </c>
+      <c r="E324" s="2">
+        <v>45115.75</v>
+      </c>
+      <c r="F324">
+        <v>24</v>
+      </c>
+      <c r="G324" t="s">
+        <v>69</v>
+      </c>
+      <c r="H324" t="s">
+        <v>74</v>
+      </c>
+      <c r="I324">
+        <v>0</v>
+      </c>
+      <c r="J324">
+        <v>0</v>
+      </c>
+      <c r="K324">
+        <v>0</v>
+      </c>
+      <c r="L324">
+        <v>0</v>
+      </c>
+      <c r="M324">
+        <v>0</v>
+      </c>
+      <c r="N324">
+        <v>0</v>
+      </c>
+      <c r="O324" t="s">
+        <v>96</v>
+      </c>
+      <c r="P324" t="s">
+        <v>96</v>
+      </c>
+      <c r="Q324">
         <v>3</v>
       </c>
-      <c r="BJ321">
-        <v>18</v>
-      </c>
-      <c r="BK321">
+      <c r="R324">
+        <v>3</v>
+      </c>
+      <c r="S324">
+        <v>6</v>
+      </c>
+      <c r="T324">
+        <v>2.75</v>
+      </c>
+      <c r="U324">
+        <v>2.05</v>
+      </c>
+      <c r="V324">
+        <v>4.5</v>
+      </c>
+      <c r="W324">
+        <v>1.5</v>
+      </c>
+      <c r="X324">
+        <v>2.5</v>
+      </c>
+      <c r="Y324">
+        <v>3.4</v>
+      </c>
+      <c r="Z324">
+        <v>1.3</v>
+      </c>
+      <c r="AA324">
+        <v>10</v>
+      </c>
+      <c r="AB324">
+        <v>1.06</v>
+      </c>
+      <c r="AC324">
+        <v>1.91</v>
+      </c>
+      <c r="AD324">
+        <v>3.21</v>
+      </c>
+      <c r="AE324">
+        <v>3.62</v>
+      </c>
+      <c r="AF324">
+        <v>1.06</v>
+      </c>
+      <c r="AG324">
+        <v>8.09</v>
+      </c>
+      <c r="AH324">
+        <v>1.43</v>
+      </c>
+      <c r="AI324">
+        <v>2.76</v>
+      </c>
+      <c r="AJ324">
+        <v>2.25</v>
+      </c>
+      <c r="AK324">
+        <v>1.62</v>
+      </c>
+      <c r="AL324">
+        <v>2</v>
+      </c>
+      <c r="AM324">
+        <v>1.75</v>
+      </c>
+      <c r="AN324">
+        <v>1.26</v>
+      </c>
+      <c r="AO324">
+        <v>1.31</v>
+      </c>
+      <c r="AP324">
+        <v>1.75</v>
+      </c>
+      <c r="AQ324">
+        <v>1.83</v>
+      </c>
+      <c r="AR324">
+        <v>1.09</v>
+      </c>
+      <c r="AS324">
+        <v>1.77</v>
+      </c>
+      <c r="AT324">
+        <v>1.08</v>
+      </c>
+      <c r="AU324">
+        <v>1.57</v>
+      </c>
+      <c r="AV324">
+        <v>1.38</v>
+      </c>
+      <c r="AW324">
+        <v>2.95</v>
+      </c>
+      <c r="AX324">
+        <v>1.75</v>
+      </c>
+      <c r="AY324">
+        <v>7.5</v>
+      </c>
+      <c r="AZ324">
+        <v>2.53</v>
+      </c>
+      <c r="BA324">
+        <v>1.34</v>
+      </c>
+      <c r="BB324">
+        <v>1.63</v>
+      </c>
+      <c r="BC324">
+        <v>2.1</v>
+      </c>
+      <c r="BD324">
+        <v>2.87</v>
+      </c>
+      <c r="BE324">
+        <v>4.1</v>
+      </c>
+      <c r="BF324">
+        <v>3</v>
+      </c>
+      <c r="BG324">
+        <v>2</v>
+      </c>
+      <c r="BH324">
+        <v>5</v>
+      </c>
+      <c r="BI324">
+        <v>3</v>
+      </c>
+      <c r="BJ324">
+        <v>8</v>
+      </c>
+      <c r="BK324">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="325" spans="1:63">
+      <c r="A325" s="1">
+        <v>324</v>
+      </c>
+      <c r="B325">
+        <v>4554715</v>
+      </c>
+      <c r="C325" t="s">
+        <v>63</v>
+      </c>
+      <c r="D325" t="s">
+        <v>64</v>
+      </c>
+      <c r="E325" s="2">
+        <v>45115.85416666666</v>
+      </c>
+      <c r="F325">
+        <v>24</v>
+      </c>
+      <c r="G325" t="s">
+        <v>67</v>
+      </c>
+      <c r="H325" t="s">
+        <v>92</v>
+      </c>
+      <c r="I325">
+        <v>0</v>
+      </c>
+      <c r="J325">
+        <v>0</v>
+      </c>
+      <c r="K325">
+        <v>0</v>
+      </c>
+      <c r="L325">
+        <v>0</v>
+      </c>
+      <c r="M325">
+        <v>0</v>
+      </c>
+      <c r="N325">
+        <v>0</v>
+      </c>
+      <c r="O325" t="s">
+        <v>96</v>
+      </c>
+      <c r="P325" t="s">
+        <v>96</v>
+      </c>
+      <c r="Q325">
+        <v>9</v>
+      </c>
+      <c r="R325">
+        <v>7</v>
+      </c>
+      <c r="S325">
+        <v>16</v>
+      </c>
+      <c r="T325">
+        <v>4</v>
+      </c>
+      <c r="U325">
+        <v>1.95</v>
+      </c>
+      <c r="V325">
+        <v>3.1</v>
+      </c>
+      <c r="W325">
+        <v>1.53</v>
+      </c>
+      <c r="X325">
+        <v>2.38</v>
+      </c>
+      <c r="Y325">
+        <v>3.75</v>
+      </c>
+      <c r="Z325">
+        <v>1.25</v>
+      </c>
+      <c r="AA325">
+        <v>11</v>
+      </c>
+      <c r="AB325">
+        <v>1.05</v>
+      </c>
+      <c r="AC325">
+        <v>3.1</v>
+      </c>
+      <c r="AD325">
+        <v>3</v>
+      </c>
+      <c r="AE325">
+        <v>2.2</v>
+      </c>
+      <c r="AF325">
+        <v>1.08</v>
+      </c>
+      <c r="AG325">
+        <v>7.29</v>
+      </c>
+      <c r="AH325">
+        <v>1.48</v>
+      </c>
+      <c r="AI325">
+        <v>2.45</v>
+      </c>
+      <c r="AJ325">
+        <v>2.5</v>
+      </c>
+      <c r="AK325">
+        <v>1.5</v>
+      </c>
+      <c r="AL325">
+        <v>2.05</v>
+      </c>
+      <c r="AM325">
+        <v>1.7</v>
+      </c>
+      <c r="AN325">
+        <v>1.68</v>
+      </c>
+      <c r="AO325">
+        <v>1.3</v>
+      </c>
+      <c r="AP325">
+        <v>1.3</v>
+      </c>
+      <c r="AQ325">
+        <v>2.33</v>
+      </c>
+      <c r="AR325">
+        <v>1.92</v>
+      </c>
+      <c r="AS325">
+        <v>2.23</v>
+      </c>
+      <c r="AT325">
+        <v>1.85</v>
+      </c>
+      <c r="AU325">
+        <v>1.41</v>
+      </c>
+      <c r="AV325">
+        <v>1.69</v>
+      </c>
+      <c r="AW325">
+        <v>3.1</v>
+      </c>
+      <c r="AX325">
+        <v>2</v>
+      </c>
+      <c r="AY325">
+        <v>8</v>
+      </c>
+      <c r="AZ325">
+        <v>2.1</v>
+      </c>
+      <c r="BA325">
+        <v>1.24</v>
+      </c>
+      <c r="BB325">
+        <v>1.46</v>
+      </c>
+      <c r="BC325">
+        <v>1.95</v>
+      </c>
+      <c r="BD325">
+        <v>2.4</v>
+      </c>
+      <c r="BE325">
+        <v>3.3</v>
+      </c>
+      <c r="BF325">
+        <v>6</v>
+      </c>
+      <c r="BG325">
+        <v>4</v>
+      </c>
+      <c r="BH325">
+        <v>1</v>
+      </c>
+      <c r="BI325">
+        <v>7</v>
+      </c>
+      <c r="BJ325">
+        <v>7</v>
+      </c>
+      <c r="BK325">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="326" spans="1:63">
+      <c r="A326" s="1">
+        <v>325</v>
+      </c>
+      <c r="B326">
+        <v>5019529</v>
+      </c>
+      <c r="C326" t="s">
+        <v>63</v>
+      </c>
+      <c r="D326" t="s">
+        <v>64</v>
+      </c>
+      <c r="E326" s="2">
+        <v>45116.64583333334</v>
+      </c>
+      <c r="F326">
+        <v>24</v>
+      </c>
+      <c r="G326" t="s">
+        <v>72</v>
+      </c>
+      <c r="H326" t="s">
+        <v>79</v>
+      </c>
+      <c r="I326">
+        <v>0</v>
+      </c>
+      <c r="J326">
+        <v>1</v>
+      </c>
+      <c r="K326">
+        <v>1</v>
+      </c>
+      <c r="L326">
+        <v>0</v>
+      </c>
+      <c r="M326">
+        <v>1</v>
+      </c>
+      <c r="N326">
+        <v>1</v>
+      </c>
+      <c r="O326" t="s">
+        <v>96</v>
+      </c>
+      <c r="P326" t="s">
+        <v>125</v>
+      </c>
+      <c r="Q326">
+        <v>9</v>
+      </c>
+      <c r="R326">
+        <v>1</v>
+      </c>
+      <c r="S326">
+        <v>10</v>
+      </c>
+      <c r="T326">
+        <v>3.1</v>
+      </c>
+      <c r="U326">
+        <v>1.95</v>
+      </c>
+      <c r="V326">
+        <v>4</v>
+      </c>
+      <c r="W326">
+        <v>1.53</v>
+      </c>
+      <c r="X326">
+        <v>2.38</v>
+      </c>
+      <c r="Y326">
+        <v>3.5</v>
+      </c>
+      <c r="Z326">
+        <v>1.29</v>
+      </c>
+      <c r="AA326">
+        <v>11</v>
+      </c>
+      <c r="AB326">
+        <v>1.05</v>
+      </c>
+      <c r="AC326">
+        <v>2.2</v>
+      </c>
+      <c r="AD326">
+        <v>3</v>
+      </c>
+      <c r="AE326">
+        <v>3.1</v>
+      </c>
+      <c r="AF326">
+        <v>1.07</v>
+      </c>
+      <c r="AG326">
+        <v>6.5</v>
+      </c>
+      <c r="AH326">
+        <v>1.4</v>
+      </c>
+      <c r="AI326">
+        <v>2.7</v>
+      </c>
+      <c r="AJ326">
+        <v>2.4</v>
+      </c>
+      <c r="AK326">
+        <v>1.53</v>
+      </c>
+      <c r="AL326">
+        <v>2.05</v>
+      </c>
+      <c r="AM326">
+        <v>1.7</v>
+      </c>
+      <c r="AN326">
+        <v>1.3</v>
+      </c>
+      <c r="AO326">
+        <v>1.32</v>
+      </c>
+      <c r="AP326">
+        <v>1.57</v>
+      </c>
+      <c r="AQ326">
+        <v>1.5</v>
+      </c>
+      <c r="AR326">
+        <v>0.83</v>
+      </c>
+      <c r="AS326">
+        <v>1.38</v>
+      </c>
+      <c r="AT326">
+        <v>1</v>
+      </c>
+      <c r="AU326">
+        <v>1.53</v>
+      </c>
+      <c r="AV326">
+        <v>1.52</v>
+      </c>
+      <c r="AW326">
+        <v>3.05</v>
+      </c>
+      <c r="AX326">
+        <v>1.75</v>
+      </c>
+      <c r="AY326">
+        <v>8</v>
+      </c>
+      <c r="AZ326">
+        <v>2.52</v>
+      </c>
+      <c r="BA326">
+        <v>1.32</v>
+      </c>
+      <c r="BB326">
+        <v>1.6</v>
+      </c>
+      <c r="BC326">
+        <v>2.05</v>
+      </c>
+      <c r="BD326">
+        <v>2.8</v>
+      </c>
+      <c r="BE326">
+        <v>4</v>
+      </c>
+      <c r="BF326">
+        <v>7</v>
+      </c>
+      <c r="BG326">
+        <v>3</v>
+      </c>
+      <c r="BH326">
+        <v>5</v>
+      </c>
+      <c r="BI326">
+        <v>2</v>
+      </c>
+      <c r="BJ326">
+        <v>12</v>
+      </c>
+      <c r="BK326">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="327" spans="1:63">
+      <c r="A327" s="1">
+        <v>326</v>
+      </c>
+      <c r="B327">
+        <v>5019530</v>
+      </c>
+      <c r="C327" t="s">
+        <v>63</v>
+      </c>
+      <c r="D327" t="s">
+        <v>64</v>
+      </c>
+      <c r="E327" s="2">
+        <v>45116.64583333334</v>
+      </c>
+      <c r="F327">
+        <v>24</v>
+      </c>
+      <c r="G327" t="s">
+        <v>71</v>
+      </c>
+      <c r="H327" t="s">
+        <v>82</v>
+      </c>
+      <c r="I327">
+        <v>0</v>
+      </c>
+      <c r="J327">
+        <v>0</v>
+      </c>
+      <c r="K327">
+        <v>0</v>
+      </c>
+      <c r="L327">
+        <v>1</v>
+      </c>
+      <c r="M327">
+        <v>0</v>
+      </c>
+      <c r="N327">
+        <v>1</v>
+      </c>
+      <c r="O327" t="s">
+        <v>278</v>
+      </c>
+      <c r="P327" t="s">
+        <v>96</v>
+      </c>
+      <c r="Q327">
+        <v>7</v>
+      </c>
+      <c r="R327">
+        <v>1</v>
+      </c>
+      <c r="S327">
+        <v>8</v>
+      </c>
+      <c r="T327">
+        <v>3.1</v>
+      </c>
+      <c r="U327">
+        <v>1.91</v>
+      </c>
+      <c r="V327">
+        <v>4.33</v>
+      </c>
+      <c r="W327">
+        <v>1.57</v>
+      </c>
+      <c r="X327">
+        <v>2.25</v>
+      </c>
+      <c r="Y327">
+        <v>3.75</v>
+      </c>
+      <c r="Z327">
+        <v>1.25</v>
+      </c>
+      <c r="AA327">
+        <v>13</v>
+      </c>
+      <c r="AB327">
+        <v>1.04</v>
+      </c>
+      <c r="AC327">
+        <v>2.2</v>
+      </c>
+      <c r="AD327">
+        <v>3</v>
+      </c>
+      <c r="AE327">
+        <v>3.1</v>
+      </c>
+      <c r="AF327">
+        <v>1.09</v>
+      </c>
+      <c r="AG327">
+        <v>6.83</v>
+      </c>
+      <c r="AH327">
+        <v>1.5</v>
+      </c>
+      <c r="AI327">
+        <v>2.4</v>
+      </c>
+      <c r="AJ327">
+        <v>2.6</v>
+      </c>
+      <c r="AK327">
+        <v>1.48</v>
+      </c>
+      <c r="AL327">
+        <v>2.1</v>
+      </c>
+      <c r="AM327">
+        <v>1.67</v>
+      </c>
+      <c r="AN327">
+        <v>1.33</v>
+      </c>
+      <c r="AO327">
+        <v>1.35</v>
+      </c>
+      <c r="AP327">
+        <v>1.57</v>
+      </c>
+      <c r="AQ327">
+        <v>1.58</v>
+      </c>
+      <c r="AR327">
+        <v>1.08</v>
+      </c>
+      <c r="AS327">
+        <v>1.69</v>
+      </c>
+      <c r="AT327">
+        <v>1</v>
+      </c>
+      <c r="AU327">
+        <v>1.39</v>
+      </c>
+      <c r="AV327">
+        <v>1.12</v>
+      </c>
+      <c r="AW327">
+        <v>2.51</v>
+      </c>
+      <c r="AX327">
+        <v>1.51</v>
+      </c>
+      <c r="AY327">
+        <v>8.5</v>
+      </c>
+      <c r="AZ327">
+        <v>3.16</v>
+      </c>
+      <c r="BA327">
+        <v>1.24</v>
+      </c>
+      <c r="BB327">
+        <v>1.46</v>
+      </c>
+      <c r="BC327">
+        <v>1.85</v>
+      </c>
+      <c r="BD327">
+        <v>2.4</v>
+      </c>
+      <c r="BE327">
+        <v>3.3</v>
+      </c>
+      <c r="BF327">
+        <v>4</v>
+      </c>
+      <c r="BG327">
+        <v>2</v>
+      </c>
+      <c r="BH327">
+        <v>4</v>
+      </c>
+      <c r="BI327">
+        <v>6</v>
+      </c>
+      <c r="BJ327">
+        <v>8</v>
+      </c>
+      <c r="BK327">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="328" spans="1:63">
+      <c r="A328" s="1">
+        <v>327</v>
+      </c>
+      <c r="B328">
+        <v>4554720</v>
+      </c>
+      <c r="C328" t="s">
+        <v>63</v>
+      </c>
+      <c r="D328" t="s">
+        <v>64</v>
+      </c>
+      <c r="E328" s="2">
+        <v>45116.75</v>
+      </c>
+      <c r="F328">
+        <v>24</v>
+      </c>
+      <c r="G328" t="s">
+        <v>77</v>
+      </c>
+      <c r="H328" t="s">
+        <v>87</v>
+      </c>
+      <c r="I328">
+        <v>0</v>
+      </c>
+      <c r="J328">
+        <v>0</v>
+      </c>
+      <c r="K328">
+        <v>0</v>
+      </c>
+      <c r="L328">
+        <v>1</v>
+      </c>
+      <c r="M328">
+        <v>1</v>
+      </c>
+      <c r="N328">
+        <v>2</v>
+      </c>
+      <c r="O328" t="s">
+        <v>262</v>
+      </c>
+      <c r="P328" t="s">
+        <v>106</v>
+      </c>
+      <c r="Q328">
+        <v>8</v>
+      </c>
+      <c r="R328">
+        <v>1</v>
+      </c>
+      <c r="S328">
+        <v>9</v>
+      </c>
+      <c r="T328">
+        <v>3.25</v>
+      </c>
+      <c r="U328">
+        <v>1.91</v>
+      </c>
+      <c r="V328">
+        <v>4</v>
+      </c>
+      <c r="W328">
+        <v>1.57</v>
+      </c>
+      <c r="X328">
+        <v>2.25</v>
+      </c>
+      <c r="Y328">
+        <v>3.75</v>
+      </c>
+      <c r="Z328">
+        <v>1.25</v>
+      </c>
+      <c r="AA328">
+        <v>13</v>
+      </c>
+      <c r="AB328">
+        <v>1.04</v>
+      </c>
+      <c r="AC328">
+        <v>2.3</v>
+      </c>
+      <c r="AD328">
+        <v>3</v>
+      </c>
+      <c r="AE328">
+        <v>2.88</v>
+      </c>
+      <c r="AF328">
+        <v>1.09</v>
+      </c>
+      <c r="AG328">
+        <v>6.71</v>
+      </c>
+      <c r="AH328">
+        <v>1.5</v>
+      </c>
+      <c r="AI328">
+        <v>2.4</v>
+      </c>
+      <c r="AJ328">
+        <v>2.6</v>
+      </c>
+      <c r="AK328">
+        <v>1.48</v>
+      </c>
+      <c r="AL328">
+        <v>2.1</v>
+      </c>
+      <c r="AM328">
+        <v>1.67</v>
+      </c>
+      <c r="AN328">
+        <v>1.36</v>
+      </c>
+      <c r="AO328">
+        <v>1.35</v>
+      </c>
+      <c r="AP328">
+        <v>1.53</v>
+      </c>
+      <c r="AQ328">
+        <v>1.33</v>
+      </c>
+      <c r="AR328">
+        <v>1</v>
+      </c>
+      <c r="AS328">
+        <v>1.31</v>
+      </c>
+      <c r="AT328">
+        <v>1</v>
+      </c>
+      <c r="AU328">
+        <v>1.26</v>
+      </c>
+      <c r="AV328">
+        <v>1.39</v>
+      </c>
+      <c r="AW328">
+        <v>2.65</v>
+      </c>
+      <c r="AX328">
+        <v>2.1</v>
+      </c>
+      <c r="AY328">
+        <v>7.5</v>
+      </c>
+      <c r="AZ328">
+        <v>1.95</v>
+      </c>
+      <c r="BA328">
+        <v>1.27</v>
+      </c>
+      <c r="BB328">
+        <v>1.5</v>
+      </c>
+      <c r="BC328">
+        <v>2</v>
+      </c>
+      <c r="BD328">
+        <v>2.5</v>
+      </c>
+      <c r="BE328">
+        <v>3.5</v>
+      </c>
+      <c r="BF328">
+        <v>5</v>
+      </c>
+      <c r="BG328">
+        <v>3</v>
+      </c>
+      <c r="BH328">
+        <v>6</v>
+      </c>
+      <c r="BI328">
+        <v>2</v>
+      </c>
+      <c r="BJ328">
+        <v>11</v>
+      </c>
+      <c r="BK328">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="329" spans="1:63">
+      <c r="A329" s="1">
+        <v>328</v>
+      </c>
+      <c r="B329">
+        <v>4554718</v>
+      </c>
+      <c r="C329" t="s">
+        <v>63</v>
+      </c>
+      <c r="D329" t="s">
+        <v>64</v>
+      </c>
+      <c r="E329" s="2">
+        <v>45116.85416666666</v>
+      </c>
+      <c r="F329">
+        <v>24</v>
+      </c>
+      <c r="G329" t="s">
+        <v>78</v>
+      </c>
+      <c r="H329" t="s">
+        <v>81</v>
+      </c>
+      <c r="I329">
+        <v>0</v>
+      </c>
+      <c r="J329">
+        <v>0</v>
+      </c>
+      <c r="K329">
+        <v>0</v>
+      </c>
+      <c r="L329">
+        <v>0</v>
+      </c>
+      <c r="M329">
+        <v>0</v>
+      </c>
+      <c r="N329">
+        <v>0</v>
+      </c>
+      <c r="O329" t="s">
+        <v>96</v>
+      </c>
+      <c r="P329" t="s">
+        <v>96</v>
+      </c>
+      <c r="Q329">
+        <v>3</v>
+      </c>
+      <c r="R329">
+        <v>3</v>
+      </c>
+      <c r="S329">
+        <v>6</v>
+      </c>
+      <c r="T329">
+        <v>2.5</v>
+      </c>
+      <c r="U329">
+        <v>2.05</v>
+      </c>
+      <c r="V329">
+        <v>5</v>
+      </c>
+      <c r="W329">
+        <v>1.5</v>
+      </c>
+      <c r="X329">
+        <v>2.5</v>
+      </c>
+      <c r="Y329">
+        <v>3.4</v>
+      </c>
+      <c r="Z329">
+        <v>1.3</v>
+      </c>
+      <c r="AA329">
+        <v>10</v>
+      </c>
+      <c r="AB329">
+        <v>1.06</v>
+      </c>
+      <c r="AC329">
+        <v>1.75</v>
+      </c>
+      <c r="AD329">
+        <v>3.25</v>
+      </c>
+      <c r="AE329">
+        <v>4.2</v>
+      </c>
+      <c r="AF329">
+        <v>1.06</v>
+      </c>
+      <c r="AG329">
+        <v>8.09</v>
+      </c>
+      <c r="AH329">
+        <v>1.43</v>
+      </c>
+      <c r="AI329">
+        <v>2.73</v>
+      </c>
+      <c r="AJ329">
+        <v>2.3</v>
+      </c>
+      <c r="AK329">
+        <v>1.6</v>
+      </c>
+      <c r="AL329">
+        <v>2.1</v>
+      </c>
+      <c r="AM329">
+        <v>1.67</v>
+      </c>
+      <c r="AN329">
+        <v>1.22</v>
+      </c>
+      <c r="AO329">
+        <v>1.31</v>
+      </c>
+      <c r="AP329">
+        <v>1.9</v>
+      </c>
+      <c r="AQ329">
+        <v>1.33</v>
+      </c>
+      <c r="AR329">
+        <v>0.33</v>
+      </c>
+      <c r="AS329">
+        <v>1.31</v>
+      </c>
+      <c r="AT329">
+        <v>0.38</v>
+      </c>
+      <c r="AU329">
+        <v>1.5</v>
+      </c>
+      <c r="AV329">
+        <v>1.07</v>
+      </c>
+      <c r="AW329">
+        <v>2.57</v>
+      </c>
+      <c r="AX329">
+        <v>1.46</v>
+      </c>
+      <c r="AY329">
+        <v>9.5</v>
+      </c>
+      <c r="AZ329">
+        <v>3.3</v>
+      </c>
+      <c r="BA329">
+        <v>1.26</v>
+      </c>
+      <c r="BB329">
+        <v>1.57</v>
+      </c>
+      <c r="BC329">
+        <v>1.92</v>
+      </c>
+      <c r="BD329">
+        <v>2.37</v>
+      </c>
+      <c r="BE329">
+        <v>3.28</v>
+      </c>
+      <c r="BF329">
+        <v>2</v>
+      </c>
+      <c r="BG329">
+        <v>5</v>
+      </c>
+      <c r="BH329">
+        <v>6</v>
+      </c>
+      <c r="BI329">
+        <v>3</v>
+      </c>
+      <c r="BJ329">
+        <v>8</v>
+      </c>
+      <c r="BK329">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="330" spans="1:63">
+      <c r="A330" s="1">
+        <v>329</v>
+      </c>
+      <c r="B330">
+        <v>4554719</v>
+      </c>
+      <c r="C330" t="s">
+        <v>63</v>
+      </c>
+      <c r="D330" t="s">
+        <v>64</v>
+      </c>
+      <c r="E330" s="2">
+        <v>45116.85416666666</v>
+      </c>
+      <c r="F330">
+        <v>24</v>
+      </c>
+      <c r="G330" t="s">
+        <v>66</v>
+      </c>
+      <c r="H330" t="s">
+        <v>84</v>
+      </c>
+      <c r="I330">
+        <v>0</v>
+      </c>
+      <c r="J330">
+        <v>1</v>
+      </c>
+      <c r="K330">
+        <v>1</v>
+      </c>
+      <c r="L330">
+        <v>2</v>
+      </c>
+      <c r="M330">
+        <v>2</v>
+      </c>
+      <c r="N330">
+        <v>4</v>
+      </c>
+      <c r="O330" t="s">
+        <v>279</v>
+      </c>
+      <c r="P330" t="s">
+        <v>369</v>
+      </c>
+      <c r="Q330">
+        <v>3</v>
+      </c>
+      <c r="R330">
+        <v>5</v>
+      </c>
+      <c r="S330">
+        <v>8</v>
+      </c>
+      <c r="T330">
+        <v>3.25</v>
+      </c>
+      <c r="U330">
+        <v>1.91</v>
+      </c>
+      <c r="V330">
+        <v>4</v>
+      </c>
+      <c r="W330">
+        <v>1.57</v>
+      </c>
+      <c r="X330">
+        <v>2.25</v>
+      </c>
+      <c r="Y330">
+        <v>3.75</v>
+      </c>
+      <c r="Z330">
+        <v>1.25</v>
+      </c>
+      <c r="AA330">
+        <v>13</v>
+      </c>
+      <c r="AB330">
+        <v>1.04</v>
+      </c>
+      <c r="AC330">
+        <v>2.3</v>
+      </c>
+      <c r="AD330">
+        <v>3</v>
+      </c>
+      <c r="AE330">
+        <v>2.8</v>
+      </c>
+      <c r="AF330">
+        <v>1.1</v>
+      </c>
+      <c r="AG330">
+        <v>6.5</v>
+      </c>
+      <c r="AH330">
+        <v>1.5</v>
+      </c>
+      <c r="AI330">
+        <v>2.4</v>
+      </c>
+      <c r="AJ330">
+        <v>2.6</v>
+      </c>
+      <c r="AK330">
+        <v>1.48</v>
+      </c>
+      <c r="AL330">
+        <v>2.1</v>
+      </c>
+      <c r="AM330">
+        <v>1.67</v>
+      </c>
+      <c r="AN330">
+        <v>1.34</v>
+      </c>
+      <c r="AO330">
+        <v>1.37</v>
+      </c>
+      <c r="AP330">
+        <v>1.55</v>
+      </c>
+      <c r="AQ330">
+        <v>1.83</v>
+      </c>
+      <c r="AR330">
+        <v>1.25</v>
+      </c>
+      <c r="AS330">
+        <v>1.77</v>
+      </c>
+      <c r="AT330">
+        <v>1.23</v>
+      </c>
+      <c r="AU330">
+        <v>1.47</v>
+      </c>
+      <c r="AV330">
+        <v>1.31</v>
+      </c>
+      <c r="AW330">
+        <v>2.78</v>
+      </c>
+      <c r="AX330">
+        <v>1.94</v>
+      </c>
+      <c r="AY330">
+        <v>8.9</v>
+      </c>
+      <c r="AZ330">
+        <v>2.15</v>
+      </c>
+      <c r="BA330">
+        <v>1.22</v>
+      </c>
+      <c r="BB330">
+        <v>1.44</v>
+      </c>
+      <c r="BC330">
+        <v>1.79</v>
+      </c>
+      <c r="BD330">
+        <v>2.27</v>
+      </c>
+      <c r="BE330">
+        <v>3.04</v>
+      </c>
+      <c r="BF330">
+        <v>4</v>
+      </c>
+      <c r="BG330">
+        <v>9</v>
+      </c>
+      <c r="BH330">
+        <v>7</v>
+      </c>
+      <c r="BI330">
+        <v>6</v>
+      </c>
+      <c r="BJ330">
+        <v>11</v>
+      </c>
+      <c r="BK330">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="331" spans="1:63">
+      <c r="A331" s="1">
+        <v>330</v>
+      </c>
+      <c r="B331">
+        <v>4554717</v>
+      </c>
+      <c r="C331" t="s">
+        <v>63</v>
+      </c>
+      <c r="D331" t="s">
+        <v>64</v>
+      </c>
+      <c r="E331" s="2">
+        <v>45117.58333333334</v>
+      </c>
+      <c r="F331">
+        <v>24</v>
+      </c>
+      <c r="G331" t="s">
+        <v>76</v>
+      </c>
+      <c r="H331" t="s">
+        <v>85</v>
+      </c>
+      <c r="I331">
+        <v>0</v>
+      </c>
+      <c r="J331">
+        <v>0</v>
+      </c>
+      <c r="K331">
+        <v>0</v>
+      </c>
+      <c r="L331">
+        <v>0</v>
+      </c>
+      <c r="M331">
+        <v>0</v>
+      </c>
+      <c r="N331">
+        <v>0</v>
+      </c>
+      <c r="O331" t="s">
+        <v>96</v>
+      </c>
+      <c r="P331" t="s">
+        <v>96</v>
+      </c>
+      <c r="Q331">
+        <v>2</v>
+      </c>
+      <c r="R331">
+        <v>6</v>
+      </c>
+      <c r="S331">
+        <v>8</v>
+      </c>
+      <c r="T331">
+        <v>4.5</v>
+      </c>
+      <c r="U331">
+        <v>1.95</v>
+      </c>
+      <c r="V331">
+        <v>2.88</v>
+      </c>
+      <c r="W331">
+        <v>1.53</v>
+      </c>
+      <c r="X331">
+        <v>2.38</v>
+      </c>
+      <c r="Y331">
+        <v>3.75</v>
+      </c>
+      <c r="Z331">
+        <v>1.25</v>
+      </c>
+      <c r="AA331">
+        <v>11</v>
+      </c>
+      <c r="AB331">
+        <v>1.05</v>
+      </c>
+      <c r="AC331">
+        <v>3.4</v>
+      </c>
+      <c r="AD331">
+        <v>3</v>
+      </c>
+      <c r="AE331">
+        <v>2.05</v>
+      </c>
+      <c r="AF331">
+        <v>1.08</v>
+      </c>
+      <c r="AG331">
+        <v>6.2</v>
+      </c>
+      <c r="AH331">
+        <v>1.37</v>
+      </c>
+      <c r="AI331">
+        <v>2.8</v>
+      </c>
+      <c r="AJ331">
+        <v>2.5</v>
+      </c>
+      <c r="AK331">
+        <v>1.5</v>
+      </c>
+      <c r="AL331">
+        <v>2.1</v>
+      </c>
+      <c r="AM331">
+        <v>1.67</v>
+      </c>
+      <c r="AN331">
+        <v>1.7</v>
+      </c>
+      <c r="AO331">
+        <v>1.36</v>
+      </c>
+      <c r="AP331">
+        <v>1.29</v>
+      </c>
+      <c r="AQ331">
+        <v>1.58</v>
+      </c>
+      <c r="AR331">
+        <v>1</v>
+      </c>
+      <c r="AS331">
+        <v>1.54</v>
+      </c>
+      <c r="AT331">
+        <v>1</v>
+      </c>
+      <c r="AU331">
+        <v>1.14</v>
+      </c>
+      <c r="AV331">
+        <v>1.49</v>
+      </c>
+      <c r="AW331">
+        <v>2.63</v>
+      </c>
+      <c r="AX331">
+        <v>2.95</v>
+      </c>
+      <c r="AY331">
+        <v>5.75</v>
+      </c>
+      <c r="AZ331">
+        <v>1.5</v>
+      </c>
+      <c r="BA331">
+        <v>1.47</v>
+      </c>
+      <c r="BB331">
+        <v>1.81</v>
+      </c>
+      <c r="BC331">
+        <v>2.24</v>
+      </c>
+      <c r="BD331">
+        <v>3.08</v>
+      </c>
+      <c r="BE331">
+        <v>4.45</v>
+      </c>
+      <c r="BF331">
+        <v>2</v>
+      </c>
+      <c r="BG331">
+        <v>3</v>
+      </c>
+      <c r="BH331">
+        <v>7</v>
+      </c>
+      <c r="BI331">
+        <v>1</v>
+      </c>
+      <c r="BJ331">
+        <v>9</v>
+      </c>
+      <c r="BK331">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="332" spans="1:63">
+      <c r="A332" s="1">
+        <v>331</v>
+      </c>
+      <c r="B332">
+        <v>4554716</v>
+      </c>
+      <c r="C332" t="s">
+        <v>63</v>
+      </c>
+      <c r="D332" t="s">
+        <v>64</v>
+      </c>
+      <c r="E332" s="2">
+        <v>45117.6875</v>
+      </c>
+      <c r="F332">
+        <v>24</v>
+      </c>
+      <c r="G332" t="s">
+        <v>73</v>
+      </c>
+      <c r="H332" t="s">
+        <v>83</v>
+      </c>
+      <c r="I332">
+        <v>0</v>
+      </c>
+      <c r="J332">
+        <v>0</v>
+      </c>
+      <c r="K332">
+        <v>0</v>
+      </c>
+      <c r="L332">
+        <v>0</v>
+      </c>
+      <c r="M332">
+        <v>0</v>
+      </c>
+      <c r="N332">
+        <v>0</v>
+      </c>
+      <c r="O332" t="s">
+        <v>96</v>
+      </c>
+      <c r="P332" t="s">
+        <v>96</v>
+      </c>
+      <c r="Q332">
+        <v>5</v>
+      </c>
+      <c r="R332">
+        <v>5</v>
+      </c>
+      <c r="S332">
+        <v>10</v>
+      </c>
+      <c r="T332">
+        <v>3</v>
+      </c>
+      <c r="U332">
+        <v>2</v>
+      </c>
+      <c r="V332">
+        <v>4</v>
+      </c>
+      <c r="W332">
+        <v>1.5</v>
+      </c>
+      <c r="X332">
+        <v>2.5</v>
+      </c>
+      <c r="Y332">
+        <v>3.5</v>
+      </c>
+      <c r="Z332">
+        <v>1.29</v>
+      </c>
+      <c r="AA332">
+        <v>10</v>
+      </c>
+      <c r="AB332">
+        <v>1.06</v>
+      </c>
+      <c r="AC332">
+        <v>2.2</v>
+      </c>
+      <c r="AD332">
+        <v>3</v>
+      </c>
+      <c r="AE332">
+        <v>3.1</v>
+      </c>
+      <c r="AF332">
+        <v>1.08</v>
+      </c>
+      <c r="AG332">
+        <v>8</v>
+      </c>
+      <c r="AH332">
+        <v>1.44</v>
+      </c>
+      <c r="AI332">
+        <v>2.8</v>
+      </c>
+      <c r="AJ332">
+        <v>2.3</v>
+      </c>
+      <c r="AK332">
+        <v>1.6</v>
+      </c>
+      <c r="AL332">
+        <v>1.95</v>
+      </c>
+      <c r="AM332">
+        <v>1.8</v>
+      </c>
+      <c r="AN332">
+        <v>1.35</v>
+      </c>
+      <c r="AO332">
+        <v>1.37</v>
+      </c>
+      <c r="AP332">
+        <v>1.62</v>
+      </c>
+      <c r="AQ332">
+        <v>1.25</v>
+      </c>
+      <c r="AR332">
+        <v>1.08</v>
+      </c>
+      <c r="AS332">
+        <v>1.23</v>
+      </c>
+      <c r="AT332">
+        <v>1.08</v>
+      </c>
+      <c r="AU332">
+        <v>1.5</v>
+      </c>
+      <c r="AV332">
+        <v>1.29</v>
+      </c>
+      <c r="AW332">
+        <v>2.79</v>
+      </c>
+      <c r="AX332">
+        <v>1.5</v>
+      </c>
+      <c r="AY332">
+        <v>5.75</v>
+      </c>
+      <c r="AZ332">
+        <v>3</v>
+      </c>
+      <c r="BA332">
+        <v>1.27</v>
+      </c>
+      <c r="BB332">
+        <v>1.57</v>
+      </c>
+      <c r="BC332">
+        <v>1.93</v>
+      </c>
+      <c r="BD332">
+        <v>2.37</v>
+      </c>
+      <c r="BE332">
+        <v>3.28</v>
+      </c>
+      <c r="BF332">
+        <v>4</v>
+      </c>
+      <c r="BG332">
+        <v>4</v>
+      </c>
+      <c r="BH332">
+        <v>7</v>
+      </c>
+      <c r="BI332">
+        <v>5</v>
+      </c>
+      <c r="BJ332">
+        <v>11</v>
+      </c>
+      <c r="BK332">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="333" spans="1:63">
+      <c r="A333" s="1">
+        <v>332</v>
+      </c>
+      <c r="B333">
+        <v>4554722</v>
+      </c>
+      <c r="C333" t="s">
+        <v>63</v>
+      </c>
+      <c r="D333" t="s">
+        <v>64</v>
+      </c>
+      <c r="E333" s="2">
+        <v>45117.8125</v>
+      </c>
+      <c r="F333">
+        <v>24</v>
+      </c>
+      <c r="G333" t="s">
+        <v>75</v>
+      </c>
+      <c r="H333" t="s">
+        <v>91</v>
+      </c>
+      <c r="I333">
+        <v>0</v>
+      </c>
+      <c r="J333">
+        <v>0</v>
+      </c>
+      <c r="K333">
+        <v>0</v>
+      </c>
+      <c r="L333">
+        <v>1</v>
+      </c>
+      <c r="M333">
+        <v>0</v>
+      </c>
+      <c r="N333">
+        <v>1</v>
+      </c>
+      <c r="O333" t="s">
+        <v>95</v>
+      </c>
+      <c r="P333" t="s">
+        <v>96</v>
+      </c>
+      <c r="Q333">
+        <v>6</v>
+      </c>
+      <c r="R333">
+        <v>2</v>
+      </c>
+      <c r="S333">
+        <v>8</v>
+      </c>
+      <c r="T333">
+        <v>2.63</v>
+      </c>
+      <c r="U333">
+        <v>1.95</v>
+      </c>
+      <c r="V333">
+        <v>5.5</v>
+      </c>
+      <c r="W333">
+        <v>1.57</v>
+      </c>
+      <c r="X333">
+        <v>2.25</v>
+      </c>
+      <c r="Y333">
+        <v>3.75</v>
+      </c>
+      <c r="Z333">
+        <v>1.25</v>
+      </c>
+      <c r="AA333">
+        <v>13</v>
+      </c>
+      <c r="AB333">
+        <v>1.04</v>
+      </c>
+      <c r="AC333">
+        <v>2</v>
+      </c>
+      <c r="AD333">
+        <v>3</v>
+      </c>
+      <c r="AE333">
+        <v>4</v>
+      </c>
+      <c r="AF333">
+        <v>1.13</v>
+      </c>
+      <c r="AG333">
+        <v>6.75</v>
+      </c>
+      <c r="AH333">
+        <v>1.6</v>
+      </c>
+      <c r="AI333">
+        <v>2.2</v>
+      </c>
+      <c r="AJ333">
+        <v>2.53</v>
+      </c>
+      <c r="AK333">
+        <v>1.44</v>
+      </c>
+      <c r="AL333">
+        <v>2.25</v>
+      </c>
+      <c r="AM333">
+        <v>1.57</v>
+      </c>
+      <c r="AN333">
+        <v>1.18</v>
+      </c>
+      <c r="AO333">
+        <v>1.36</v>
+      </c>
+      <c r="AP333">
+        <v>1.95</v>
+      </c>
+      <c r="AQ333">
+        <v>1.75</v>
+      </c>
+      <c r="AR333">
+        <v>0.5</v>
+      </c>
+      <c r="AS333">
+        <v>1.85</v>
+      </c>
+      <c r="AT333">
+        <v>0.46</v>
+      </c>
+      <c r="AU333">
+        <v>1.62</v>
+      </c>
+      <c r="AV333">
+        <v>1.29</v>
+      </c>
+      <c r="AW333">
+        <v>2.91</v>
+      </c>
+      <c r="AX333">
+        <v>1.6</v>
+      </c>
+      <c r="AY333">
+        <v>7</v>
+      </c>
+      <c r="AZ333">
+        <v>2.8</v>
+      </c>
+      <c r="BA333">
+        <v>1.53</v>
+      </c>
+      <c r="BB333">
+        <v>1.85</v>
+      </c>
+      <c r="BC333">
+        <v>2.4</v>
+      </c>
+      <c r="BD333">
+        <v>3.1</v>
+      </c>
+      <c r="BE333">
+        <v>4.7</v>
+      </c>
+      <c r="BF333">
+        <v>9</v>
+      </c>
+      <c r="BG333">
+        <v>2</v>
+      </c>
+      <c r="BH333">
+        <v>3</v>
+      </c>
+      <c r="BI333">
+        <v>3</v>
+      </c>
+      <c r="BJ333">
+        <v>12</v>
+      </c>
+      <c r="BK333">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="334" spans="1:63">
+      <c r="A334" s="1">
+        <v>333</v>
+      </c>
+      <c r="B334">
+        <v>4554721</v>
+      </c>
+      <c r="C334" t="s">
+        <v>63</v>
+      </c>
+      <c r="D334" t="s">
+        <v>64</v>
+      </c>
+      <c r="E334" s="2">
+        <v>45117.89583333334</v>
+      </c>
+      <c r="F334">
+        <v>24</v>
+      </c>
+      <c r="G334" t="s">
+        <v>68</v>
+      </c>
+      <c r="H334" t="s">
+        <v>89</v>
+      </c>
+      <c r="I334">
+        <v>0</v>
+      </c>
+      <c r="J334">
+        <v>0</v>
+      </c>
+      <c r="K334">
+        <v>0</v>
+      </c>
+      <c r="L334">
+        <v>0</v>
+      </c>
+      <c r="M334">
+        <v>0</v>
+      </c>
+      <c r="N334">
+        <v>0</v>
+      </c>
+      <c r="O334" t="s">
+        <v>96</v>
+      </c>
+      <c r="P334" t="s">
+        <v>96</v>
+      </c>
+      <c r="Q334">
+        <v>4</v>
+      </c>
+      <c r="R334">
+        <v>5</v>
+      </c>
+      <c r="S334">
+        <v>9</v>
+      </c>
+      <c r="T334">
+        <v>2.1</v>
+      </c>
+      <c r="U334">
+        <v>2.2</v>
+      </c>
+      <c r="V334">
+        <v>6.5</v>
+      </c>
+      <c r="W334">
+        <v>1.4</v>
+      </c>
+      <c r="X334">
+        <v>2.75</v>
+      </c>
+      <c r="Y334">
+        <v>3</v>
+      </c>
+      <c r="Z334">
+        <v>1.36</v>
+      </c>
+      <c r="AA334">
+        <v>8</v>
+      </c>
+      <c r="AB334">
+        <v>1.08</v>
+      </c>
+      <c r="AC334">
+        <v>1.5</v>
+      </c>
+      <c r="AD334">
+        <v>3.6</v>
+      </c>
+      <c r="AE334">
+        <v>5.8</v>
+      </c>
+      <c r="AF334">
+        <v>1.02</v>
+      </c>
+      <c r="AG334">
+        <v>9.5</v>
+      </c>
+      <c r="AH334">
+        <v>1.34</v>
+      </c>
+      <c r="AI334">
+        <v>3.38</v>
+      </c>
+      <c r="AJ334">
+        <v>2</v>
+      </c>
+      <c r="AK334">
+        <v>1.73</v>
+      </c>
+      <c r="AL334">
+        <v>2.05</v>
+      </c>
+      <c r="AM334">
+        <v>1.7</v>
+      </c>
+      <c r="AN334">
+        <v>1.06</v>
+      </c>
+      <c r="AO334">
+        <v>1.25</v>
+      </c>
+      <c r="AP334">
+        <v>2.4</v>
+      </c>
+      <c r="AQ334">
+        <v>1.92</v>
+      </c>
+      <c r="AR334">
+        <v>0.92</v>
+      </c>
+      <c r="AS334">
+        <v>1.85</v>
+      </c>
+      <c r="AT334">
+        <v>0.92</v>
+      </c>
+      <c r="AU334">
+        <v>1.5</v>
+      </c>
+      <c r="AV334">
+        <v>1.1</v>
+      </c>
+      <c r="AW334">
+        <v>2.6</v>
+      </c>
+      <c r="AX334">
+        <v>1.29</v>
+      </c>
+      <c r="AY334">
+        <v>6.5</v>
+      </c>
+      <c r="AZ334">
+        <v>4</v>
+      </c>
+      <c r="BA334">
+        <v>1.28</v>
+      </c>
+      <c r="BB334">
+        <v>1.56</v>
+      </c>
+      <c r="BC334">
+        <v>1.92</v>
+      </c>
+      <c r="BD334">
+        <v>2.36</v>
+      </c>
+      <c r="BE334">
+        <v>3.35</v>
+      </c>
+      <c r="BF334">
+        <v>6</v>
+      </c>
+      <c r="BG334">
+        <v>4</v>
+      </c>
+      <c r="BH334">
+        <v>13</v>
+      </c>
+      <c r="BI334">
+        <v>2</v>
+      </c>
+      <c r="BJ334">
+        <v>19</v>
+      </c>
+      <c r="BK334">
         <v>6</v>
       </c>
     </row>
